--- a/output.xlsx
+++ b/output.xlsx
@@ -628,7 +628,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>268900</t>
+          <t>268500</t>
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
@@ -686,7 +686,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>193280</t>
+          <t>193190</t>
         </is>
       </c>
       <c r="F6" t="inlineStr"/>

--- a/output.xlsx
+++ b/output.xlsx
@@ -439,22 +439,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>LG전자 24MK430H 24인치 FHD IPS 광시야각 &lt;b&gt;모니터&lt;/b&gt;</t>
+          <t>삼성전자 삼성 SL-M2030 정품토너포함</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=13643814149</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=21379894543</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1364381/13643814149.20200824151155.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2137989/21379894543.20200221180141.jpg</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>182900</t>
+          <t>90090</t>
         </is>
       </c>
       <c r="F2" t="inlineStr"/>
@@ -470,12 +470,12 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>삼성</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -485,11 +485,19 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>모니터</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
+          <t>주변기기</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>프린터</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>레이저프린터</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -497,22 +505,22 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>삼성전자 삼성 F24T350</t>
+          <t>삼성전자 삼성 SL-T1672W 정품 무한잉크</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24007197522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=25699304522</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2400719/24007197522.20210302142445.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2569930/25699304522.20210316103708.jpg</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>189000</t>
+          <t>199000</t>
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
@@ -543,11 +551,19 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>모니터</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
+          <t>주변기기</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>복합기</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>잉크젯복합기</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -555,22 +571,22 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>삼성전자 삼성 F27T350</t>
+          <t>삼성전자 삼성 SL-M2027 정품토너포함</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=23996451524</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=9265862152</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2399645/23996451524.20210302142600.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_9265862/9265862152.20210316122356.jpg</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>209000</t>
+          <t>99000</t>
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
@@ -601,11 +617,19 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>모니터</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
+          <t>주변기기</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>프린터</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>레이저프린터</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -613,22 +637,22 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>LG전자 32MN500MW</t>
+          <t>삼성전자 삼성 SL-C433 정품토너포함</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=22764052560</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=8675054211</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2276405/22764052560.20200824151306.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8675054/8675054211.20160510151623.jpg</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>268500</t>
+          <t>179000</t>
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
@@ -644,12 +668,12 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>삼성</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -659,11 +683,19 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>모니터</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
+          <t>주변기기</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>프린터</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>레이저프린터</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -671,22 +703,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>LG전자 24MP500W</t>
+          <t>삼성전자 삼성 SL-T1672FW 정품 무한잉크</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=28272152554</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=25699590522</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2827215/28272152554.20210805113756.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2569959/25699590522.20210316103410.jpg</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>193190</t>
+          <t>297000</t>
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
@@ -702,12 +734,12 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>삼성</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -717,11 +749,19 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>모니터</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
+          <t>주변기기</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>복합기</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>잉크젯복합기</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/output.xlsx
+++ b/output.xlsx
@@ -439,22 +439,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>아디다스 알파바운스슬라이드 실내화 &lt;b&gt;슬리퍼&lt;/b&gt; BA8775 B41720 FZ0387 FZ0388</t>
+          <t>LG전자 24MK430H 24인치 FHD IPS 광시야각 모니터</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=29615634924</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=13643814149</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2961563/29615634924.20211110051606.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1364381/13643814149.20200824151155.jpg</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>27980</t>
+          <t>182900</t>
         </is>
       </c>
       <c r="F2" t="inlineStr"/>
@@ -470,29 +470,25 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>아디다스</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>아디다스</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>패션잡화</t>
+          <t>디지털/가전</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>남성신발</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>슬리퍼</t>
-        </is>
-      </c>
+          <t>모니터</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr"/>
       <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
@@ -501,22 +497,22 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>아디다스 알파바운스 슬라이드 BA8775</t>
+          <t>삼성전자 삼성 F24T350</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24457175865</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24007197522</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2445717/24457175865.20211012171051.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2400719/24007197522.20210302142445.jpg</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>28200</t>
+          <t>189000</t>
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
@@ -532,29 +528,25 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>아디다스</t>
+          <t>삼성</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>아디다스</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>패션잡화</t>
+          <t>디지털/가전</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>남성신발</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>슬리퍼</t>
-        </is>
-      </c>
+          <t>모니터</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr"/>
       <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
@@ -563,22 +555,22 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>아디다스 듀라모 슬라이드 &lt;b&gt;슬리퍼&lt;/b&gt; FY8786</t>
+          <t>삼성전자 삼성 F27T350</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=26058039660</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=23996451524</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2605803/26058039660.20210528185321.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2399645/23996451524.20210302142600.jpg</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>18420</t>
+          <t>209000</t>
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
@@ -594,29 +586,25 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>아디다스</t>
+          <t>삼성</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>아디다스</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>패션잡화</t>
+          <t>디지털/가전</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>남성신발</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>슬리퍼</t>
-        </is>
-      </c>
+          <t>모니터</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr"/>
       <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
@@ -625,22 +613,22 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>아디다스 알파바운스 슬라이드 B41720</t>
+          <t>LG전자 32MN500MW</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=23467876709</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=22764052560</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2346787/23467876709.20210712123012.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2276405/22764052560.20200824151306.jpg</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>32156</t>
+          <t>268500</t>
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
@@ -656,29 +644,25 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>아디다스</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>아디다스</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>패션잡화</t>
+          <t>디지털/가전</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>남성신발</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>슬리퍼</t>
-        </is>
-      </c>
+          <t>모니터</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr"/>
       <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
@@ -687,22 +671,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>크록스 공용 바야밴드 슬라이드 &lt;b&gt;슬리퍼&lt;/b&gt; 20SUSL205733</t>
+          <t>LG전자 24MP500W</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=21787609610</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=28272152554</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2178760/21787609610.20200721121753.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2827215/28272152554.20210805113756.jpg</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>16880</t>
+          <t>193190</t>
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
@@ -718,29 +702,25 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>크록스</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>크록스</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>패션잡화</t>
+          <t>디지털/가전</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>남성신발</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>슬리퍼</t>
-        </is>
-      </c>
+          <t>모니터</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr"/>
       <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
@@ -749,22 +729,22 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>아디다스 남여공용 &lt;b&gt;슬리퍼&lt;/b&gt; 알파바운스 슬라이드 ALPHABOUNCE SLIDE FZ0387</t>
+          <t>LG전자 32UN650</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27444273841</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24635274522</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2744427/27444273841.20211104030737.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2463527/24635274522.20210405173537.jpg</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>28200</t>
+          <t>598000</t>
         </is>
       </c>
       <c r="F7" t="inlineStr"/>
@@ -780,29 +760,25 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>아디다스</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>아디다스</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>패션잡화</t>
+          <t>디지털/가전</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>남성신발</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>슬리퍼</t>
-        </is>
-      </c>
+          <t>모니터</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr"/>
       <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
@@ -811,22 +787,22 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>SNRD 군납용&lt;b&gt;슬리퍼&lt;/b&gt; 보급 군용 군대 군인 군용&lt;b&gt;슬리퍼&lt;/b&gt;</t>
+          <t>한성컴퓨터 TFG32F16V 1500R 리얼 165 게이밍</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=26629771602</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=18778755031</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2662977/26629771602.20210403210154.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1877875/18778755031.20201230122744.jpg</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>8900</t>
+          <t>279000</t>
         </is>
       </c>
       <c r="F8" t="inlineStr"/>
@@ -842,25 +818,25 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>SNRD</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr"/>
+          <t>한성컴퓨터</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>한성컴퓨터</t>
+        </is>
+      </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>패션잡화</t>
+          <t>디지털/가전</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>남성신발</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>슬리퍼</t>
-        </is>
-      </c>
+          <t>모니터</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr"/>
       <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
@@ -869,22 +845,22 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>아디다스 아딜렛 CF 로고 &lt;b&gt;슬리퍼&lt;/b&gt; CG3425</t>
+          <t>LG전자 27TN600S</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=23457173937</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=21745903830</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2345717/23457173937.20201225161021.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2174590/21745903830.20200824150453.jpg</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>16900</t>
+          <t>342000</t>
         </is>
       </c>
       <c r="F9" t="inlineStr"/>
@@ -900,29 +876,25 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>아디다스</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>아디다스</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>패션잡화</t>
+          <t>디지털/가전</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>남성신발</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>슬리퍼</t>
-        </is>
-      </c>
+          <t>모니터</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
@@ -931,22 +903,22 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>크록스 바야밴드 슬라이드 &lt;b&gt;슬리퍼&lt;/b&gt; 205392-066</t>
+          <t>벤큐 GW2780 아이케어</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=25940721621</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=11846746201</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2594072/25940721621.20210331143856.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1184674/11846746201.20211118104344.jpg</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>20250</t>
+          <t>209000</t>
         </is>
       </c>
       <c r="F10" t="inlineStr"/>
@@ -962,29 +934,25 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>크록스</t>
+          <t>벤큐</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>크록스</t>
+          <t>벤큐</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>패션잡화</t>
+          <t>디지털/가전</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>남성신발</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>슬리퍼</t>
-        </is>
-      </c>
+          <t>모니터</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr"/>
       <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
@@ -993,22 +961,22 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>버켄스탁 보스턴 타우페 모카 펠트</t>
+          <t>벤큐 XL2411K</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=17221650741</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24196764522</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1722165/17221650741.20190126185028.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2419676/24196764522.20211117182333.jpg</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>119060</t>
+          <t>279000</t>
         </is>
       </c>
       <c r="F11" t="inlineStr"/>
@@ -1024,29 +992,25 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>버켄스탁</t>
+          <t>벤큐</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>버켄스탁</t>
+          <t>벤큐</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>패션잡화</t>
+          <t>디지털/가전</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>남성신발</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>슬리퍼</t>
-        </is>
-      </c>
+          <t>모니터</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr"/>
       <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
@@ -1055,22 +1019,22 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>푸마 &lt;b&gt;슬리퍼&lt;/b&gt; 스커프 패딩 방한 384945-01</t>
+          <t>한성컴퓨터 ULTRON 2760G 리얼 144</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=29065943634</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=15020041438</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2906594/29065943634.20211105043459.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1502004/15020041438.20200424094329.jpg</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>31900</t>
+          <t>234000</t>
         </is>
       </c>
       <c r="F12" t="inlineStr"/>
@@ -1086,25 +1050,25 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>푸마</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr"/>
+          <t>한성컴퓨터</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>한성컴퓨터</t>
+        </is>
+      </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>패션잡화</t>
+          <t>디지털/가전</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>남성신발</t>
-        </is>
-      </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>슬리퍼</t>
-        </is>
-      </c>
+          <t>모니터</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr"/>
       <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
@@ -1113,22 +1077,22 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>크록스 슬라이드 사무실 &lt;b&gt;슬리퍼&lt;/b&gt; 205733</t>
+          <t>한성컴퓨터 ULTRON 2435V 프리싱크 리얼75</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=22120796617</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=13487979407</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2212079/22120796617.20200305163510.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1348797/13487979407.20211116100954.jpg</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>15000</t>
+          <t>168000</t>
         </is>
       </c>
       <c r="F13" t="inlineStr"/>
@@ -1144,29 +1108,25 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>크록스</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>크록스</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>패션잡화</t>
+          <t>디지털/가전</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>남성신발</t>
-        </is>
-      </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>슬리퍼</t>
-        </is>
-      </c>
+          <t>모니터</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr"/>
       <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
@@ -1175,22 +1135,22 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>크록스 크록밴드Ⅲ 205733 &lt;b&gt;슬리퍼&lt;/b&gt; 3종 모음 택1</t>
+          <t>한성컴퓨터 ULTRON 2758 프리싱크 리얼 75</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=20471647170</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=14816445651</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2047164/20471647170.20210226151139.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1481644/14816445651.20200429170907.jpg</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>14040</t>
+          <t>189000</t>
         </is>
       </c>
       <c r="F14" t="inlineStr"/>
@@ -1206,29 +1166,25 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>크록스</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>크록스</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>패션잡화</t>
+          <t>디지털/가전</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>남성신발</t>
-        </is>
-      </c>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>슬리퍼</t>
-        </is>
-      </c>
+          <t>모니터</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr"/>
       <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
@@ -1237,22 +1193,22 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>뉴발란스 NEW BALANCE &lt;b&gt;슬리퍼&lt;/b&gt; unisex SD1501</t>
+          <t>삼성전자 스마트모니터 M7 S32AM700</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=25799671255</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=25524333522</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2579967/25799671255.20210130175051.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2552433/25524333522.20210203133321.jpg</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>42550</t>
+          <t>499000</t>
         </is>
       </c>
       <c r="F15" t="inlineStr"/>
@@ -1268,29 +1224,25 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>뉴발란스</t>
+          <t>스마트모니터</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>뉴발란스</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>패션잡화</t>
+          <t>디지털/가전</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>남성신발</t>
-        </is>
-      </c>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>슬리퍼</t>
-        </is>
-      </c>
+          <t>모니터</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr"/>
       <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
@@ -1299,22 +1251,22 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>언더아머 UA 남성 플레이메이커 픽스드 스트랩 &lt;b&gt;슬리퍼&lt;/b&gt; 3000061</t>
+          <t>삼성전자 스마트모니터 M7 S43AM700</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=19787857788</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27215825524</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1978785/19787857788.20200326013919.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2721582/27215825524.20210520173025.jpg</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>17900</t>
+          <t>649000</t>
         </is>
       </c>
       <c r="F16" t="inlineStr"/>
@@ -1330,29 +1282,25 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>언더아머</t>
+          <t>스마트모니터</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>언더아머</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>패션잡화</t>
+          <t>디지털/가전</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>남성신발</t>
-        </is>
-      </c>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>슬리퍼</t>
-        </is>
-      </c>
+          <t>모니터</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr"/>
       <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
@@ -1361,22 +1309,22 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>아디다스 &lt;b&gt;슬리퍼&lt;/b&gt; 듀라모 알파바운스 BA8775 B41720</t>
+          <t>한성컴퓨터 ULTRON 3278 QHD New</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=28533481426</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=16776093488</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2853348/28533481426.20210822214354.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1677609/16776093488.20200424094717.jpg</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>29980</t>
+          <t>269000</t>
         </is>
       </c>
       <c r="F17" t="inlineStr"/>
@@ -1392,29 +1340,25 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>아디다스</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>아디다스</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>패션잡화</t>
+          <t>디지털/가전</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>남성신발</t>
-        </is>
-      </c>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>슬리퍼</t>
-        </is>
-      </c>
+          <t>모니터</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr"/>
       <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
@@ -1423,22 +1367,22 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>푸마 로얄캣 컴포트 벨크로 &lt;b&gt;슬리퍼&lt;/b&gt; 372280-02</t>
+          <t>ASUS VA24DQLB</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=25573193543</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=23257141490</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2557319/25573193543.20210112044245.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2325714/23257141490.20200720175614.jpg</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>8850</t>
+          <t>219000</t>
         </is>
       </c>
       <c r="F18" t="inlineStr"/>
@@ -1454,25 +1398,25 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>푸마</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr"/>
+          <t>ASUS</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>ASUS</t>
+        </is>
+      </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>패션잡화</t>
+          <t>디지털/가전</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>남성신발</t>
-        </is>
-      </c>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>슬리퍼</t>
-        </is>
-      </c>
+          <t>모니터</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr"/>
       <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
@@ -1481,22 +1425,22 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>콜맨 콤테 방한 &lt;b&gt;슬리퍼&lt;/b&gt; 남성 털 실내화</t>
+          <t>삼성전자 스마트모니터 M5 S32AM500</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24880379779</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=25524342522</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2488037/24880379779.20201117185955.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2552434/25524342522.20210302142529.jpg</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>21485</t>
+          <t>364000</t>
         </is>
       </c>
       <c r="F19" t="inlineStr"/>
@@ -1512,29 +1456,25 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>콜맨</t>
+          <t>스마트모니터</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>콜맨</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>패션잡화</t>
+          <t>디지털/가전</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>남성신발</t>
-        </is>
-      </c>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>슬리퍼</t>
-        </is>
-      </c>
+          <t>모니터</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr"/>
       <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
@@ -1543,22 +1483,22 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>나이키 베나시 JDI &lt;b&gt;슬리퍼&lt;/b&gt; 343880-090</t>
+          <t>삼성전자 삼성 S27R350</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=6738383315</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=21775935202</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_6738383/6738383315.20191231170922.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2177593/21775935202.20210203132859.jpg</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>23790</t>
+          <t>246990</t>
         </is>
       </c>
       <c r="F20" t="inlineStr"/>
@@ -1574,29 +1514,25 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>나이키</t>
+          <t>삼성</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>나이키</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>패션잡화</t>
+          <t>디지털/가전</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>남성신발</t>
-        </is>
-      </c>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>슬리퍼</t>
-        </is>
-      </c>
+          <t>모니터</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr"/>
       <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
@@ -1605,22 +1541,22 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>푸마 공용 스커프 털 &lt;b&gt;슬리퍼&lt;/b&gt; Scuff Sherpa 셰르파 &lt;b&gt;슬리퍼&lt;/b&gt; 384943</t>
+          <t>한성컴퓨터 TFG27F16V 1500R 리얼 165 게이밍</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=29274311926</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=18797620615</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2927431/29274311926.20211201172837.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1879762/18797620615.20201230122720.jpg</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>31900</t>
+          <t>234000</t>
         </is>
       </c>
       <c r="F21" t="inlineStr"/>
@@ -1636,29 +1572,25 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>푸마</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>푸마</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>패션잡화</t>
+          <t>디지털/가전</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>남성신발</t>
-        </is>
-      </c>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>슬리퍼</t>
-        </is>
-      </c>
+          <t>모니터</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr"/>
       <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
@@ -1667,22 +1599,22 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>디스커버리익스페디션 익스페디션 샌드라인3 DXSH70031</t>
+          <t>한성컴퓨터 ULTRON 2460G 리얼 144 게이밍</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24046791010</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=20471652225</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2404679/24046791010.20210209140643.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2047165/20471652225.20200424094042.jpg</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>30820</t>
+          <t>189000</t>
         </is>
       </c>
       <c r="F22" t="inlineStr"/>
@@ -1698,29 +1630,25 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>디스커버리익스페디션</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>F&amp;F</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>패션잡화</t>
+          <t>디지털/가전</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>남성신발</t>
-        </is>
-      </c>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>슬리퍼</t>
-        </is>
-      </c>
+          <t>모니터</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr"/>
       <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
@@ -1729,22 +1657,22 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>나이키 카와 샤워 &lt;b&gt;슬리퍼&lt;/b&gt; 832528-001</t>
+          <t>삼성전자 삼성 커브드 C27R502 베젤리스 프리싱크</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=18283145278</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=20189888243</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1828314/18283145278.20190412023418.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2018988/20189888243.20200915115734.jpg</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>14900</t>
+          <t>229420</t>
         </is>
       </c>
       <c r="F23" t="inlineStr"/>
@@ -1760,29 +1688,25 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>나이키</t>
+          <t>삼성</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>나이키</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>패션잡화</t>
+          <t>디지털/가전</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>남성신발</t>
-        </is>
-      </c>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>슬리퍼</t>
-        </is>
-      </c>
+          <t>모니터</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr"/>
       <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
@@ -1791,22 +1715,22 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>아디다스 &lt;b&gt;슬리퍼&lt;/b&gt; 아딜렛 컴포트 EG1850</t>
+          <t>LG전자 32QN650</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=25855940126</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=23692201495</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2585594/25855940126.20210203214501.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2369220/23692201495.20210406132235.jpg</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>16900</t>
+          <t>396940</t>
         </is>
       </c>
       <c r="F24" t="inlineStr"/>
@@ -1822,29 +1746,25 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>아디다스</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>아디다스</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>패션잡화</t>
+          <t>디지털/가전</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>남성신발</t>
-        </is>
-      </c>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t>슬리퍼</t>
-        </is>
-      </c>
+          <t>모니터</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr"/>
       <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
@@ -1853,22 +1773,22 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>소프트 남성 남자 사무실 &lt;b&gt;슬리퍼&lt;/b&gt; 실내화 샌들</t>
+          <t>ASUS VG278QR</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=29090735828</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=18214439726</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2909073/29090735828.20211004032710.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1821443/18214439726.20190620142310.jpg</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>5290</t>
+          <t>369980</t>
         </is>
       </c>
       <c r="F25" t="inlineStr"/>
@@ -1882,23 +1802,27 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>ASUS</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>ASUS</t>
+        </is>
+      </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>패션잡화</t>
+          <t>디지털/가전</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>남성신발</t>
-        </is>
-      </c>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>슬리퍼</t>
-        </is>
-      </c>
+          <t>모니터</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr"/>
       <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
@@ -1907,22 +1831,22 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>남성 여성 커플 겨울 털 &lt;b&gt;슬리퍼&lt;/b&gt; 실내화 WT9771</t>
+          <t>한성컴퓨터 TFX32U06V 4K HDR 1500R 커브드</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=17234431097</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=20942220356</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1723443/17234431097.20211028041233.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2094222/20942220356.20210630112723.jpg</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>9900</t>
+          <t>329000</t>
         </is>
       </c>
       <c r="F26" t="inlineStr"/>
@@ -1936,23 +1860,27 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>한성컴퓨터</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>한성컴퓨터</t>
+        </is>
+      </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>패션잡화</t>
+          <t>디지털/가전</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>남성신발</t>
-        </is>
-      </c>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>슬리퍼</t>
-        </is>
-      </c>
+          <t>모니터</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr"/>
       <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
@@ -1961,22 +1889,22 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>아디다스 알파바운스 슬라이드 FZ0388</t>
+          <t>ASUS VG258QR</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=28799218782</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=18323660111</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2879921/28799218782.20211006165226.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1832366/18323660111.20190620142114.jpg</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>31110</t>
+          <t>297000</t>
         </is>
       </c>
       <c r="F27" t="inlineStr"/>
@@ -1992,29 +1920,25 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>아디다스</t>
+          <t>ASUS</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>아디다스</t>
+          <t>ASUS</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>패션잡화</t>
+          <t>디지털/가전</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>남성신발</t>
-        </is>
-      </c>
-      <c r="M27" t="inlineStr">
-        <is>
-          <t>슬리퍼</t>
-        </is>
-      </c>
+          <t>모니터</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr"/>
       <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
@@ -2023,22 +1947,22 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>노르딕 겨울 캠핑 슈즈 방한 남자 털 &lt;b&gt;슬리퍼&lt;/b&gt;</t>
+          <t>LG전자 24ML600SW</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=29429704823</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=19105796246</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2942970/29429704823.20211027232153.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1910579/19105796246.20200824152520.jpg</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>16300</t>
+          <t>208000</t>
         </is>
       </c>
       <c r="F28" t="inlineStr"/>
@@ -2052,23 +1976,27 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>LG전자</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>LG전자</t>
+        </is>
+      </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>패션잡화</t>
+          <t>디지털/가전</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>남성신발</t>
-        </is>
-      </c>
-      <c r="M28" t="inlineStr">
-        <is>
-          <t>슬리퍼</t>
-        </is>
-      </c>
+          <t>모니터</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr"/>
       <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
@@ -2077,22 +2005,22 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>휠라 TAPER 테이퍼 슬라이드 &lt;b&gt;슬리퍼&lt;/b&gt; 1SM00559</t>
+          <t>한성컴퓨터 TFG27F14P IPS 144</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=26776492600</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=23258436490</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2677649/26776492600.20210415201715.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2325843/23258436490.20200624161211.jpg</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>18340</t>
+          <t>249000</t>
         </is>
       </c>
       <c r="F29" t="inlineStr"/>
@@ -2108,29 +2036,25 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>휠라</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>휠라</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>패션잡화</t>
+          <t>디지털/가전</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>남성신발</t>
-        </is>
-      </c>
-      <c r="M29" t="inlineStr">
-        <is>
-          <t>슬리퍼</t>
-        </is>
-      </c>
+          <t>모니터</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr"/>
       <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
@@ -2139,22 +2063,22 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>노스페이스 써모볼 트랙션 뮬 파이브 NS93K80</t>
+          <t>한성컴퓨터 TFG32Q14F 144</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24803378099</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24439846522</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2480337/24803378099.20211019180727.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2443984/24439846522.20201013113723.jpg</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>35990</t>
+          <t>329000</t>
         </is>
       </c>
       <c r="F30" t="inlineStr"/>
@@ -2170,29 +2094,25 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>노스페이스</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>영원아웃도어</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>패션잡화</t>
+          <t>디지털/가전</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>남성신발</t>
-        </is>
-      </c>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>슬리퍼</t>
-        </is>
-      </c>
+          <t>모니터</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr"/>
       <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
@@ -2201,22 +2121,22 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>디스커버리익스페디션 남여공용 레스터 뮬 VE 겨울 &lt;b&gt;슬리퍼&lt;/b&gt; DXSH4A061</t>
+          <t>한성컴퓨터 TFG32F14F 144</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24687387541</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24380347522</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2468738/24687387541.20210226151805.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2438034/24380347522.20201007114746.jpg</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>45390</t>
+          <t>279000</t>
         </is>
       </c>
       <c r="F31" t="inlineStr"/>
@@ -2232,29 +2152,25 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>디스커버리익스페디션</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>F&amp;F</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>패션잡화</t>
+          <t>디지털/가전</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>남성신발</t>
-        </is>
-      </c>
-      <c r="M31" t="inlineStr">
-        <is>
-          <t>슬리퍼</t>
-        </is>
-      </c>
+          <t>모니터</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr"/>
       <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
@@ -2263,22 +2179,22 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>나이키 &lt;b&gt;슬리퍼&lt;/b&gt; 오프코트 슬라이드 BQ4639-001</t>
+          <t>삼성전자 삼성 C32R500F</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=25939493781</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=22483121542</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2593949/25939493781.20210209191539.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2248312/22483121542.20210602151356.jpg</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>12940</t>
+          <t>299000</t>
         </is>
       </c>
       <c r="F32" t="inlineStr"/>
@@ -2294,29 +2210,25 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>나이키</t>
+          <t>삼성</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>나이키</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>패션잡화</t>
+          <t>디지털/가전</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>남성신발</t>
-        </is>
-      </c>
-      <c r="M32" t="inlineStr">
-        <is>
-          <t>슬리퍼</t>
-        </is>
-      </c>
+          <t>모니터</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr"/>
       <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
@@ -2325,22 +2237,22 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>아디다스 남여공용 &lt;b&gt;슬리퍼&lt;/b&gt; 아딜렛컴포트 FX4293</t>
+          <t>삼성전자 오디세이 G5 C27G54T</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=26070027548</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=23896119522</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2607002/26070027548.20210220174956.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2389611/23896119522.20210302142506.jpg</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>15050</t>
+          <t>358990</t>
         </is>
       </c>
       <c r="F33" t="inlineStr"/>
@@ -2356,29 +2268,25 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>아디다스</t>
+          <t>오디세이</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>아디다스</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>패션잡화</t>
+          <t>디지털/가전</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>남성신발</t>
-        </is>
-      </c>
-      <c r="M33" t="inlineStr">
-        <is>
-          <t>슬리퍼</t>
-        </is>
-      </c>
+          <t>모니터</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr"/>
       <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
@@ -2387,22 +2295,22 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>크록스 공용 BAYABAND SLIDE NPP 21SUSL205392</t>
+          <t>삼성전자 삼성 S24R350 베젤리스 프리싱크 75</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=25635123577</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=20861526783</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2563512/25635123577.20210116233557.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2086152/20861526783.20210302142419.jpg</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>16060</t>
+          <t>219000</t>
         </is>
       </c>
       <c r="F34" t="inlineStr"/>
@@ -2418,25 +2326,25 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>크록스</t>
-        </is>
-      </c>
-      <c r="J34" t="inlineStr"/>
+          <t>삼성</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>삼성전자</t>
+        </is>
+      </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>패션잡화</t>
+          <t>디지털/가전</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>남성신발</t>
-        </is>
-      </c>
-      <c r="M34" t="inlineStr">
-        <is>
-          <t>슬리퍼</t>
-        </is>
-      </c>
+          <t>모니터</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr"/>
       <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
@@ -2445,22 +2353,22 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>호주 어그 UGG 블레드 남자 양털&lt;b&gt;슬리퍼&lt;/b&gt;</t>
+          <t>한성컴퓨터 TFG27Q14F QHD 평면 144 게이밍</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24840296980</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24509574524</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2484029/24840296980.20211009053516.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2450957/24509574524.20201022114639.jpg</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>39300</t>
+          <t>269000</t>
         </is>
       </c>
       <c r="F35" t="inlineStr"/>
@@ -2474,23 +2382,27 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>한성컴퓨터</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>한성컴퓨터</t>
+        </is>
+      </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>패션잡화</t>
+          <t>디지털/가전</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>남성신발</t>
-        </is>
-      </c>
-      <c r="M35" t="inlineStr">
-        <is>
-          <t>슬리퍼</t>
-        </is>
-      </c>
+          <t>모니터</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr"/>
       <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
@@ -2499,22 +2411,22 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>뉴발란스 남성 &lt;b&gt;슬리퍼&lt;/b&gt; SD1101HWB</t>
+          <t>필립스 271E1 프리싱크 75 시력보호 제로베젤</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=25940600141</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=21496753758</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2594060/25940600141.20210225162825.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2149675/21496753758.20200221173844.jpg</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>18900</t>
+          <t>219000</t>
         </is>
       </c>
       <c r="F36" t="inlineStr"/>
@@ -2530,29 +2442,25 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>뉴발란스</t>
+          <t>필립스</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>뉴발란스</t>
+          <t>필립스</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>패션잡화</t>
+          <t>디지털/가전</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>남성신발</t>
-        </is>
-      </c>
-      <c r="M36" t="inlineStr">
-        <is>
-          <t>슬리퍼</t>
-        </is>
-      </c>
+          <t>모니터</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr"/>
       <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
@@ -2561,22 +2469,22 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>슈펜 전황일 콜라보 남성 캠핑 리커버리 샌들 &lt;b&gt;슬리퍼&lt;/b&gt; AFDU79S07</t>
+          <t>ASUS VP249QGR</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27603669503</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=23257115490</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2760366/27603669503.20211028044455.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2325711/23257115490.20211125152957.jpg</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>12930</t>
+          <t>248950</t>
         </is>
       </c>
       <c r="F37" t="inlineStr"/>
@@ -2592,29 +2500,25 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>슈펜</t>
+          <t>ASUS</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>슈펜</t>
+          <t>ASUS</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>패션잡화</t>
+          <t>디지털/가전</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>남성신발</t>
-        </is>
-      </c>
-      <c r="M37" t="inlineStr">
-        <is>
-          <t>슬리퍼</t>
-        </is>
-      </c>
+          <t>모니터</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr"/>
       <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
@@ -2623,22 +2527,22 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>크록스 공용 CLASSIC SLIDE SGY 20SUSL206121</t>
+          <t>삼성전자 삼성 슈퍼 와이드 게이밍 120 DQHD C49RG90</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=26790432783</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=18571615807</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2679043/26790432783.20210416202506.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1857161/18571615807.20210203133352.jpg</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>12590</t>
+          <t>1270000</t>
         </is>
       </c>
       <c r="F38" t="inlineStr"/>
@@ -2654,29 +2558,25 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>크록스</t>
+          <t>삼성</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>크록스</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>패션잡화</t>
+          <t>디지털/가전</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>남성신발</t>
-        </is>
-      </c>
-      <c r="M38" t="inlineStr">
-        <is>
-          <t>슬리퍼</t>
-        </is>
-      </c>
+          <t>모니터</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr"/>
       <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
@@ -2685,22 +2585,22 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>휠라 드리프터 테이피테잎 &lt;b&gt;슬리퍼&lt;/b&gt; 1SM00561</t>
+          <t>삼성전자 오디세이 G5 C32G54T</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=23557651237</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=23896004523</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2355765/23557651237.20200723214034.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2389600/23896004523.20210203132926.jpg</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>15190</t>
+          <t>418990</t>
         </is>
       </c>
       <c r="F39" t="inlineStr"/>
@@ -2716,29 +2616,25 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>휠라</t>
+          <t>오디세이</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>휠라</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>패션잡화</t>
+          <t>디지털/가전</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>남성신발</t>
-        </is>
-      </c>
-      <c r="M39" t="inlineStr">
-        <is>
-          <t>슬리퍼</t>
-        </is>
-      </c>
+          <t>모니터</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr"/>
       <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
@@ -2747,22 +2643,22 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>노스페이스 화이트라벨 공용 뮬 플리스 전색상 NS93L96</t>
+          <t>한성컴퓨터 TFG34Q14WQ 퀀텀닷 1500R 리얼 144 울트라와이드 게이밍</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=28563299144</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=22312278223</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2856329/28563299144.20211206022437.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2231227/22312278223.20200424100736.jpg</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>50460</t>
+          <t>499000</t>
         </is>
       </c>
       <c r="F40" t="inlineStr"/>
@@ -2778,29 +2674,25 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>노스페이스</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>영원아웃도어</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>패션잡화</t>
+          <t>디지털/가전</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>남성신발</t>
-        </is>
-      </c>
-      <c r="M40" t="inlineStr">
-        <is>
-          <t>슬리퍼</t>
-        </is>
-      </c>
+          <t>모니터</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr"/>
       <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
@@ -2809,22 +2701,22 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>버켄스탁 보스턴 모카 레귤러 보통발볼 0660461</t>
+          <t>벤큐 GW2480 아이케어 무결점</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27073439036</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=11846842637</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2707343/27073439036.20210508164540.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1184684/11846842637.20211118104306.jpg</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>104910</t>
+          <t>169000</t>
         </is>
       </c>
       <c r="F41" t="inlineStr"/>
@@ -2840,29 +2732,25 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>버켄스탁</t>
+          <t>벤큐</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>버켄스탁</t>
+          <t>벤큐</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>패션잡화</t>
+          <t>디지털/가전</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>남성신발</t>
-        </is>
-      </c>
-      <c r="M41" t="inlineStr">
-        <is>
-          <t>슬리퍼</t>
-        </is>
-      </c>
+          <t>모니터</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr"/>
       <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
@@ -2871,22 +2759,22 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>언더아머 이그나이트 5 &lt;b&gt;슬리퍼&lt;/b&gt; 1287318-100</t>
+          <t>한성컴퓨터 TFG32F24V 240</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=19104190020</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=28162745522</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1910419/19104190020.20190716105635.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2816274/28162745522.20210726183542.jpg</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>26140</t>
+          <t>299000</t>
         </is>
       </c>
       <c r="F42" t="inlineStr"/>
@@ -2902,25 +2790,25 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>언더아머</t>
-        </is>
-      </c>
-      <c r="J42" t="inlineStr"/>
+          <t>한성컴퓨터</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>한성컴퓨터</t>
+        </is>
+      </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>패션잡화</t>
+          <t>디지털/가전</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>남성신발</t>
-        </is>
-      </c>
-      <c r="M42" t="inlineStr">
-        <is>
-          <t>슬리퍼</t>
-        </is>
-      </c>
+          <t>모니터</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr"/>
       <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
@@ -2929,22 +2817,22 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>아디다스 아딜렛 아쿠아 &lt;b&gt;슬리퍼&lt;/b&gt; F35550</t>
+          <t>한성컴퓨터 TFG32Q07P 75</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=17789523725</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=28655748554</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1778952/17789523725.20191219040044.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2865574/28655748554.20210831152013.jpg</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>13810</t>
+          <t>259000</t>
         </is>
       </c>
       <c r="F43" t="inlineStr"/>
@@ -2960,25 +2848,25 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>아디다스</t>
-        </is>
-      </c>
-      <c r="J43" t="inlineStr"/>
+          <t>한성컴퓨터</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>한성컴퓨터</t>
+        </is>
+      </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>패션잡화</t>
+          <t>디지털/가전</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>남성신발</t>
-        </is>
-      </c>
-      <c r="M43" t="inlineStr">
-        <is>
-          <t>슬리퍼</t>
-        </is>
-      </c>
+          <t>모니터</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr"/>
       <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
@@ -2987,22 +2875,22 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>버켄스탁 보스턴 타우페 SFB 남성 &lt;b&gt;슬리퍼&lt;/b&gt; REGULAR 560771</t>
+          <t>삼성전자 삼성 C32T550</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=22082007115</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=22448790144</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2208200/22082007115.20200229171728.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2244879/22448790144.20210203133005.jpg</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>121500</t>
+          <t>361000</t>
         </is>
       </c>
       <c r="F44" t="inlineStr"/>
@@ -3018,29 +2906,25 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>버켄스탁</t>
+          <t>삼성</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>버켄스탁</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>패션잡화</t>
+          <t>디지털/가전</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>남성신발</t>
-        </is>
-      </c>
-      <c r="M44" t="inlineStr">
-        <is>
-          <t>슬리퍼</t>
-        </is>
-      </c>
+          <t>모니터</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr"/>
       <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
@@ -3049,22 +2933,22 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>페이퍼플레인 남녀공용 방한화 털&lt;b&gt;슬리퍼&lt;/b&gt; 실내화 PP1508</t>
+          <t>삼성전자 스마트모니터 M5 S27AM500</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=28807665982</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=25524380522</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2880766/28807665982.20210912003012.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2552438/25524380522.20210302142816.jpg</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>17540</t>
+          <t>299000</t>
         </is>
       </c>
       <c r="F45" t="inlineStr"/>
@@ -3080,25 +2964,25 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>페이퍼플레인</t>
-        </is>
-      </c>
-      <c r="J45" t="inlineStr"/>
+          <t>스마트모니터</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>삼성전자</t>
+        </is>
+      </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>패션잡화</t>
+          <t>디지털/가전</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>남성신발</t>
-        </is>
-      </c>
-      <c r="M45" t="inlineStr">
-        <is>
-          <t>슬리퍼</t>
-        </is>
-      </c>
+          <t>모니터</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr"/>
       <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
@@ -3107,22 +2991,22 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>크록스 슬라이드 크록밴드 3 &lt;b&gt;슬리퍼&lt;/b&gt; 205733-462</t>
+          <t>삼성전자 삼성 F24T450</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=23361428591</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24007200522</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2336142/23361428591.20210226145006.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2400720/24007200522.20210203133027.jpg</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>17630</t>
+          <t>229420</t>
         </is>
       </c>
       <c r="F46" t="inlineStr"/>
@@ -3138,29 +3022,25 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>크록스</t>
+          <t>삼성</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>크록스</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>패션잡화</t>
+          <t>디지털/가전</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>남성신발</t>
-        </is>
-      </c>
-      <c r="M46" t="inlineStr">
-        <is>
-          <t>슬리퍼</t>
-        </is>
-      </c>
+          <t>모니터</t>
+        </is>
+      </c>
+      <c r="M46" t="inlineStr"/>
       <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
@@ -3169,22 +3049,22 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>언더아머 &lt;b&gt;슬리퍼&lt;/b&gt; 이그나이트 3022711</t>
+          <t>삼성전자 스마트모니터 M5 S32AM501</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24910266864</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=26870008522</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2491026/24910266864.20210923114750.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2687000/26870008522.20210422145112.jpg</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>21890</t>
+          <t>377000</t>
         </is>
       </c>
       <c r="F47" t="inlineStr"/>
@@ -3200,29 +3080,25 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>언더아머</t>
+          <t>스마트모니터</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>언더아머</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>패션잡화</t>
+          <t>디지털/가전</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>남성신발</t>
-        </is>
-      </c>
-      <c r="M47" t="inlineStr">
-        <is>
-          <t>슬리퍼</t>
-        </is>
-      </c>
+          <t>모니터</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr"/>
       <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
@@ -3231,22 +3107,22 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>푸마 &lt;b&gt;슬리퍼&lt;/b&gt; Divecat V2 369400</t>
+          <t>알파스캔 AOC Q27G2S 155</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=25034595625</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24694967522</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2503459/25034595625.20211022032226.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2469496/24694967522.20210310172228.jpg</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>6410</t>
+          <t>439000</t>
         </is>
       </c>
       <c r="F48" t="inlineStr"/>
@@ -3262,29 +3138,25 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>푸마</t>
+          <t>알파스캔</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>푸마</t>
+          <t>알파스캔</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>패션잡화</t>
+          <t>디지털/가전</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>남성신발</t>
-        </is>
-      </c>
-      <c r="M48" t="inlineStr">
-        <is>
-          <t>슬리퍼</t>
-        </is>
-      </c>
+          <t>모니터</t>
+        </is>
+      </c>
+      <c r="M48" t="inlineStr"/>
       <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
@@ -3293,22 +3165,22 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>어그 남여공용 양모 &lt;b&gt;슬리퍼&lt;/b&gt; 2색상</t>
+          <t>한성컴퓨터 TFG27Q14V 1500R 리얼 144 게이밍</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=29781803055</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=20812959649</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2978180/29781803055.20211206181850.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2081295/20812959649.20200424095919.jpg</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>27530</t>
+          <t>269000</t>
         </is>
       </c>
       <c r="F49" t="inlineStr"/>
@@ -3324,29 +3196,25 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>어그</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>오즈웨어</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>패션잡화</t>
+          <t>디지털/가전</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>남성신발</t>
-        </is>
-      </c>
-      <c r="M49" t="inlineStr">
-        <is>
-          <t>슬리퍼</t>
-        </is>
-      </c>
+          <t>모니터</t>
+        </is>
+      </c>
+      <c r="M49" t="inlineStr"/>
       <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
@@ -3355,22 +3223,22 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>아디다스 &lt;b&gt;슬리퍼&lt;/b&gt; A23- 듀라모 슬라이드 FY6034</t>
+          <t>삼성전자 오디세이 G3 S24AG300 144</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=29050353369</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27534600522</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2905035/29050353369.20211004011549.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2753460/27534600522.20210611131536.jpg</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>18980</t>
+          <t>239000</t>
         </is>
       </c>
       <c r="F50" t="inlineStr"/>
@@ -3386,29 +3254,25 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>아디다스</t>
+          <t>오디세이</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>아디다스</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>패션잡화</t>
+          <t>디지털/가전</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>남성신발</t>
-        </is>
-      </c>
-      <c r="M50" t="inlineStr">
-        <is>
-          <t>슬리퍼</t>
-        </is>
-      </c>
+          <t>모니터</t>
+        </is>
+      </c>
+      <c r="M50" t="inlineStr"/>
       <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
@@ -3417,22 +3281,22 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>노스페이스 남여공용 뮬 플리스 NS93M55A</t>
+          <t>한성컴퓨터 TFX133T DEX 포터블 HDR</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=29470557597</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=21918294654</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2947055/29470557597.20211030230654.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2191829/21918294654.20200428094627.jpg</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>56210</t>
+          <t>228900</t>
         </is>
       </c>
       <c r="F51" t="inlineStr"/>
@@ -3448,29 +3312,25 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>노스페이스</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>영원아웃도어</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>패션잡화</t>
+          <t>디지털/가전</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>남성신발</t>
-        </is>
-      </c>
-      <c r="M51" t="inlineStr">
-        <is>
-          <t>슬리퍼</t>
-        </is>
-      </c>
+          <t>모니터</t>
+        </is>
+      </c>
+      <c r="M51" t="inlineStr"/>
       <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
@@ -3479,22 +3339,22 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>아디다스 아딜렛 컴포트 S82137</t>
+          <t>삼성전자 삼성 S27F350</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=12386868444</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=10218180037</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1238686/12386868444.20190514114307.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1021818/10218180037.20210203133129.jpg</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>21110</t>
+          <t>208990</t>
         </is>
       </c>
       <c r="F52" t="inlineStr"/>
@@ -3510,25 +3370,25 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>아디다스</t>
-        </is>
-      </c>
-      <c r="J52" t="inlineStr"/>
+          <t>삼성</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>삼성전자</t>
+        </is>
+      </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>패션잡화</t>
+          <t>디지털/가전</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>남성신발</t>
-        </is>
-      </c>
-      <c r="M52" t="inlineStr">
-        <is>
-          <t>슬리퍼</t>
-        </is>
-      </c>
+          <t>모니터</t>
+        </is>
+      </c>
+      <c r="M52" t="inlineStr"/>
       <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
@@ -3537,22 +3397,22 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>베어파우 ROGER 양털&lt;b&gt;슬리퍼&lt;/b&gt; mens</t>
+          <t>삼성전자 스마트모니터 M7 S32AM701</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=29629419203</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=29724256618</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2962941/29629419203.20211111045628.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2972425/29724256618.20211117133727.jpg</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>55616</t>
+          <t>549000</t>
         </is>
       </c>
       <c r="F53" t="inlineStr"/>
@@ -3568,25 +3428,25 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>베어파우</t>
-        </is>
-      </c>
-      <c r="J53" t="inlineStr"/>
+          <t>스마트모니터</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>삼성전자</t>
+        </is>
+      </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>패션잡화</t>
+          <t>디지털/가전</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>남성신발</t>
-        </is>
-      </c>
-      <c r="M53" t="inlineStr">
-        <is>
-          <t>슬리퍼</t>
-        </is>
-      </c>
+          <t>모니터</t>
+        </is>
+      </c>
+      <c r="M53" t="inlineStr"/>
       <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
@@ -3595,22 +3455,22 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>아디다스 이지 슬라이드 퓨어 GZ5554</t>
+          <t>삼성전자 오디세이 G3 S27AG300 144</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=26996255118</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27535066522</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2699625/26996255118.20210917053442.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2753506/27535066522.20210611135052.jpg</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>79000</t>
+          <t>299000</t>
         </is>
       </c>
       <c r="F54" t="inlineStr"/>
@@ -3626,29 +3486,25 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>아디다스</t>
+          <t>오디세이</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>아디다스</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>패션잡화</t>
+          <t>디지털/가전</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>남성신발</t>
-        </is>
-      </c>
-      <c r="M54" t="inlineStr">
-        <is>
-          <t>슬리퍼</t>
-        </is>
-      </c>
+          <t>모니터</t>
+        </is>
+      </c>
+      <c r="M54" t="inlineStr"/>
       <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
@@ -3657,22 +3513,22 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>나이키 &lt;b&gt;슬리퍼&lt;/b&gt; 카와 슬라이드 832646-010 남성</t>
+          <t>삼성전자 삼성 S27R35A</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=22793126446</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=25885966522</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2279312/22793126446.20200827170004.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2588596/25885966522.20210205160851.jpg</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>26140</t>
+          <t>237000</t>
         </is>
       </c>
       <c r="F55" t="inlineStr"/>
@@ -3688,29 +3544,25 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>나이키</t>
+          <t>삼성</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>나이키</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>패션잡화</t>
+          <t>디지털/가전</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>남성신발</t>
-        </is>
-      </c>
-      <c r="M55" t="inlineStr">
-        <is>
-          <t>슬리퍼</t>
-        </is>
-      </c>
+          <t>모니터</t>
+        </is>
+      </c>
+      <c r="M55" t="inlineStr"/>
       <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
@@ -3719,22 +3571,22 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>나이키 빅토리원 슬라이드 &lt;b&gt;슬리퍼&lt;/b&gt; 남자 여자 학생 실내화 CN9675-100</t>
+          <t>LG전자 울트라기어 27GN650 144</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27427758907</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=25413919522</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2742775/27427758907.20210926004556.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2541391/25413919522.20210406131641.jpg</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>13900</t>
+          <t>398900</t>
         </is>
       </c>
       <c r="F56" t="inlineStr"/>
@@ -3750,29 +3602,25 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>나이키</t>
+          <t>울트라기어</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>나이키</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>패션잡화</t>
+          <t>디지털/가전</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>남성신발</t>
-        </is>
-      </c>
-      <c r="M56" t="inlineStr">
-        <is>
-          <t>슬리퍼</t>
-        </is>
-      </c>
+          <t>모니터</t>
+        </is>
+      </c>
+      <c r="M56" t="inlineStr"/>
       <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
@@ -3781,22 +3629,22 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>수부 수부 방한 패딩 &lt;b&gt;슬리퍼&lt;/b&gt; 다운 샌들 SUBU-BK</t>
+          <t>삼성전자 삼성 U32J590</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=29861176252</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=14306268525</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2986117/29861176252.20211127220326.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1430626/14306268525.20210203133511.jpg</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>42200</t>
+          <t>388990</t>
         </is>
       </c>
       <c r="F57" t="inlineStr"/>
@@ -3810,23 +3658,27 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>삼성</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>삼성전자</t>
+        </is>
+      </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>패션잡화</t>
+          <t>디지털/가전</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>남성신발</t>
-        </is>
-      </c>
-      <c r="M57" t="inlineStr">
-        <is>
-          <t>슬리퍼</t>
-        </is>
-      </c>
+          <t>모니터</t>
+        </is>
+      </c>
+      <c r="M57" t="inlineStr"/>
       <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
@@ -3835,22 +3687,22 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>뉴발란스 1501 슬라이드 벨크로 &lt;b&gt;슬리퍼&lt;/b&gt; 남자 여자 학교 찍찍이 SD1501ILG</t>
+          <t>삼성전자 삼성 S34J550</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=28594296896</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=15704895486</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2859429/28594296896.20210827032052.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1570489/15704895486.20210203133054.jpg</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>18900</t>
+          <t>399000</t>
         </is>
       </c>
       <c r="F58" t="inlineStr"/>
@@ -3866,29 +3718,25 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>뉴발란스</t>
+          <t>삼성</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>뉴발란스</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>패션잡화</t>
+          <t>디지털/가전</t>
         </is>
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>남성신발</t>
-        </is>
-      </c>
-      <c r="M58" t="inlineStr">
-        <is>
-          <t>슬리퍼</t>
-        </is>
-      </c>
+          <t>모니터</t>
+        </is>
+      </c>
+      <c r="M58" t="inlineStr"/>
       <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
@@ -3897,22 +3745,22 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>아디다스 아딜렛 아쿠아 슬라이드 &lt;b&gt;슬리퍼&lt;/b&gt; F35543</t>
+          <t>삼성전자 오디세이 Neo G9 S49AG950 49인치 게이밍 모니터</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=18252037319</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=28288984554</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1825203/18252037319.20190530024940.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2828898/28288984554.20210810100808.jpg</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>13490</t>
+          <t>2189000</t>
         </is>
       </c>
       <c r="F59" t="inlineStr"/>
@@ -3928,29 +3776,25 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>아디다스</t>
+          <t>오디세이</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>아디다스</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>패션잡화</t>
+          <t>디지털/가전</t>
         </is>
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>남성신발</t>
-        </is>
-      </c>
-      <c r="M59" t="inlineStr">
-        <is>
-          <t>슬리퍼</t>
-        </is>
-      </c>
+          <t>모니터</t>
+        </is>
+      </c>
+      <c r="M59" t="inlineStr"/>
       <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
@@ -3959,22 +3803,22 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>아디다스 아딜렛 크록 남여공용</t>
+          <t>한성컴퓨터 TFX156T DEX 포터블 HDR</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27618863033</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=21936337549</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2761886/27618863033.20210805165636.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2193633/21936337549.20200428094649.jpg</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>16800</t>
+          <t>269000</t>
         </is>
       </c>
       <c r="F60" t="inlineStr"/>
@@ -3990,29 +3834,25 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>아디다스</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>아디다스</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>패션잡화</t>
+          <t>디지털/가전</t>
         </is>
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>남성신발</t>
-        </is>
-      </c>
-      <c r="M60" t="inlineStr">
-        <is>
-          <t>슬리퍼</t>
-        </is>
-      </c>
+          <t>모니터</t>
+        </is>
+      </c>
+      <c r="M60" t="inlineStr"/>
       <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
@@ -4021,22 +3861,22 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>국내산 버켄 보스턴 털&lt;b&gt;슬리퍼&lt;/b&gt; 겨울 블로퍼 실내화 사무실용 남녀공용 커플</t>
+          <t>한성컴퓨터 TFX173T DEX 포터블 HDR</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=25360561376</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=21936338223</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2536056/25360561376.20201224221553.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2193633/21936338223.20200428094731.jpg</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>12000</t>
+          <t>379000</t>
         </is>
       </c>
       <c r="F61" t="inlineStr"/>
@@ -4050,23 +3890,27 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>한성컴퓨터</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>한성컴퓨터</t>
+        </is>
+      </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>패션잡화</t>
+          <t>디지털/가전</t>
         </is>
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>남성신발</t>
-        </is>
-      </c>
-      <c r="M61" t="inlineStr">
-        <is>
-          <t>슬리퍼</t>
-        </is>
-      </c>
+          <t>모니터</t>
+        </is>
+      </c>
+      <c r="M61" t="inlineStr"/>
       <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
@@ -4075,52 +3919,56 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>코스트코 털크록스 크록스털신 가을겨울 발편한 따뜻한 주방 작업 사무실 털&lt;b&gt;슬리퍼&lt;/b&gt; 280</t>
+          <t>벤큐 XL2546K</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=83422961060</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24235203522</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8342296/83422961060.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2423520/24235203522.20211117182410.jpg</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>22800</t>
+          <t>649000</t>
         </is>
       </c>
       <c r="F62" t="inlineStr"/>
       <c r="G62" t="inlineStr">
         <is>
-          <t>We Are Family</t>
+          <t>네이버</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 비매칭 일반상품</t>
-        </is>
-      </c>
-      <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
+          <t>일반 - 가격비교 상품</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>벤큐</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>벤큐</t>
+        </is>
+      </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>패션잡화</t>
+          <t>디지털/가전</t>
         </is>
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>남성신발</t>
-        </is>
-      </c>
-      <c r="M62" t="inlineStr">
-        <is>
-          <t>슬리퍼</t>
-        </is>
-      </c>
+          <t>모니터</t>
+        </is>
+      </c>
+      <c r="M62" t="inlineStr"/>
       <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
@@ -4129,22 +3977,22 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>아디다스 아딜렛 클로그 &lt;b&gt;슬리퍼&lt;/b&gt; 신발 FY8970</t>
+          <t>한성컴퓨터 TFG32F07V 1500R 커브드 게이밍 리얼 75</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=26941373580</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=20882835913</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2694137/26941373580.20210427190918.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2088283/20882835913.20200424100013.jpg</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>19990</t>
+          <t>224000</t>
         </is>
       </c>
       <c r="F63" t="inlineStr"/>
@@ -4160,29 +4008,25 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>아디다스</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>아디다스</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>패션잡화</t>
+          <t>디지털/가전</t>
         </is>
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>남성신발</t>
-        </is>
-      </c>
-      <c r="M63" t="inlineStr">
-        <is>
-          <t>슬리퍼</t>
-        </is>
-      </c>
+          <t>모니터</t>
+        </is>
+      </c>
+      <c r="M63" t="inlineStr"/>
       <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
@@ -4191,22 +4035,22 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>아디다스 F ALPHABOUNCE SLIDE FZ0387</t>
+          <t>벤큐 ZOWIE XL2731</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=28101115355</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=22435628535</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2810111/28101115355.20210722045105.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2243562/22435628535.20211126161127.jpg</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>26210</t>
+          <t>419000</t>
         </is>
       </c>
       <c r="F64" t="inlineStr"/>
@@ -4222,29 +4066,25 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>아디다스</t>
+          <t>벤큐</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>아디다스</t>
+          <t>벤큐</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>패션잡화</t>
+          <t>디지털/가전</t>
         </is>
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>남성신발</t>
-        </is>
-      </c>
-      <c r="M64" t="inlineStr">
-        <is>
-          <t>슬리퍼</t>
-        </is>
-      </c>
+          <t>모니터</t>
+        </is>
+      </c>
+      <c r="M64" t="inlineStr"/>
       <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
@@ -4253,22 +4093,22 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>오즈웨어 메이슨 남성 &lt;b&gt;슬리퍼&lt;/b&gt; OB687</t>
+          <t>한성컴퓨터 TFG39Q14V 144</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=28849172896</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=26826361522</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2884917/28849172896.20211202022518.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2682636/26826361522.20210419161946.jpg</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>31880</t>
+          <t>499000</t>
         </is>
       </c>
       <c r="F65" t="inlineStr"/>
@@ -4284,25 +4124,25 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>오즈웨어</t>
-        </is>
-      </c>
-      <c r="J65" t="inlineStr"/>
+          <t>한성컴퓨터</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>한성컴퓨터</t>
+        </is>
+      </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>패션잡화</t>
+          <t>디지털/가전</t>
         </is>
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>남성신발</t>
-        </is>
-      </c>
-      <c r="M65" t="inlineStr">
-        <is>
-          <t>슬리퍼</t>
-        </is>
-      </c>
+          <t>모니터</t>
+        </is>
+      </c>
+      <c r="M65" t="inlineStr"/>
       <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
@@ -4311,22 +4151,22 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>호카오네오네 호카 남성 오라 리커버리 &lt;b&gt;슬리퍼&lt;/b&gt; BBLC 1099674</t>
+          <t>삼성전자 오디세이 G9 C49G95T</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=28546707443</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=23255316490</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2854670/28546707443.20210824023952.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2325531/23255316490.20210203133605.jpg</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>40260</t>
+          <t>1690000</t>
         </is>
       </c>
       <c r="F66" t="inlineStr"/>
@@ -4342,25 +4182,25 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>호카오네오네</t>
-        </is>
-      </c>
-      <c r="J66" t="inlineStr"/>
+          <t>오디세이</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>삼성전자</t>
+        </is>
+      </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>패션잡화</t>
+          <t>디지털/가전</t>
         </is>
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>남성신발</t>
-        </is>
-      </c>
-      <c r="M66" t="inlineStr">
-        <is>
-          <t>슬리퍼</t>
-        </is>
-      </c>
+          <t>모니터</t>
+        </is>
+      </c>
+      <c r="M66" t="inlineStr"/>
       <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
@@ -4369,22 +4209,22 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>내셔널지오그래픽 신발 다이브 플러스 V2 &lt;b&gt;슬리퍼&lt;/b&gt; N211AFW150</t>
+          <t>삼성전자 오디세이 G5 S27AG500 165</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=26070542747</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27611446522</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2607054/26070542747.20210220185157.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2761144/27611446522.20210617101529.jpg</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>36880</t>
+          <t>599000</t>
         </is>
       </c>
       <c r="F67" t="inlineStr"/>
@@ -4400,29 +4240,25 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>내셔널지오그래픽</t>
+          <t>오디세이</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>더네이쳐홀딩스</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>패션잡화</t>
+          <t>디지털/가전</t>
         </is>
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>남성신발</t>
-        </is>
-      </c>
-      <c r="M67" t="inlineStr">
-        <is>
-          <t>슬리퍼</t>
-        </is>
-      </c>
+          <t>모니터</t>
+        </is>
+      </c>
+      <c r="M67" t="inlineStr"/>
       <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
@@ -4431,22 +4267,22 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>크록스 바야밴드 슬라이드 205392-4CC</t>
+          <t>삼성전자 오디세이 G7 C27G75T</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=25751345609</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=23021385490</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2575134/25751345609.20210322164927.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2302138/23021385490.20200803121144.jpg</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>21390</t>
+          <t>673770</t>
         </is>
       </c>
       <c r="F68" t="inlineStr"/>
@@ -4462,29 +4298,25 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>크록스</t>
+          <t>오디세이</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>크록스</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>패션잡화</t>
+          <t>디지털/가전</t>
         </is>
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>남성신발</t>
-        </is>
-      </c>
-      <c r="M68" t="inlineStr">
-        <is>
-          <t>슬리퍼</t>
-        </is>
-      </c>
+          <t>모니터</t>
+        </is>
+      </c>
+      <c r="M68" t="inlineStr"/>
       <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
@@ -4493,22 +4325,22 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>나이키 250 오프코트 슬라이드 &lt;b&gt;슬리퍼&lt;/b&gt; BQ4639-012</t>
+          <t>알파스캔 AOC 27B2 보더리스 75 시력보호</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=29173200630</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=21720504796</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2917320/29173200630.20211128025853.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2172050/21720504796.20210310171806.jpg</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>26260</t>
+          <t>219000</t>
         </is>
       </c>
       <c r="F69" t="inlineStr"/>
@@ -4524,29 +4356,25 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>나이키</t>
+          <t>알파스캔</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>나이키</t>
+          <t>알파스캔</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>패션잡화</t>
+          <t>디지털/가전</t>
         </is>
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>남성신발</t>
-        </is>
-      </c>
-      <c r="M69" t="inlineStr">
-        <is>
-          <t>슬리퍼</t>
-        </is>
-      </c>
+          <t>모니터</t>
+        </is>
+      </c>
+      <c r="M69" t="inlineStr"/>
       <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
@@ -4555,22 +4383,22 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>아디다스 알파바운스 슬라이드 &lt;b&gt;슬리퍼&lt;/b&gt;모음 외3종 BA8775</t>
+          <t>벤큐 EW3270U 아이케어</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=29470649492</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=14334382813</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2947064/29470649492.20211030233255.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1433438/14334382813.20211118114043.jpg</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>29460</t>
+          <t>479000</t>
         </is>
       </c>
       <c r="F70" t="inlineStr"/>
@@ -4586,25 +4414,25 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>아디다스</t>
-        </is>
-      </c>
-      <c r="J70" t="inlineStr"/>
+          <t>벤큐</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>벤큐</t>
+        </is>
+      </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>패션잡화</t>
+          <t>디지털/가전</t>
         </is>
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>남성신발</t>
-        </is>
-      </c>
-      <c r="M70" t="inlineStr">
-        <is>
-          <t>슬리퍼</t>
-        </is>
-      </c>
+          <t>모니터</t>
+        </is>
+      </c>
+      <c r="M70" t="inlineStr"/>
       <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
@@ -4613,22 +4441,22 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>뉴발란스 NB 슬라이드 &lt;b&gt;슬리퍼&lt;/b&gt; 남자 여자 실내화 신발 SD1101HBB</t>
+          <t>LG전자 울트라HD 27UL550</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=29610849077</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=19298157033</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2961084/29610849077.20211109220148.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1929815/19298157033.20200824143609.jpg</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>14780</t>
+          <t>418000</t>
         </is>
       </c>
       <c r="F71" t="inlineStr"/>
@@ -4644,29 +4472,25 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>뉴발란스</t>
+          <t>울트라HD</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>뉴발란스</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>패션잡화</t>
+          <t>디지털/가전</t>
         </is>
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>남성신발</t>
-        </is>
-      </c>
-      <c r="M71" t="inlineStr">
-        <is>
-          <t>슬리퍼</t>
-        </is>
-      </c>
+          <t>모니터</t>
+        </is>
+      </c>
+      <c r="M71" t="inlineStr"/>
       <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
@@ -4675,22 +4499,22 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>언더아머 UA 코어 PTH &lt;b&gt;슬리퍼&lt;/b&gt; 3021286</t>
+          <t>한성컴퓨터 TFX156T PRO DEX 포터블 400cd 멀티터치</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=21983695078</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=26158967522</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2198369/21983695078.20210923102328.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2615896/26158967522.20210226123516.jpg</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>12980</t>
+          <t>299000</t>
         </is>
       </c>
       <c r="F72" t="inlineStr"/>
@@ -4706,29 +4530,25 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>언더아머</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>언더아머</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>패션잡화</t>
+          <t>디지털/가전</t>
         </is>
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>남성신발</t>
-        </is>
-      </c>
-      <c r="M72" t="inlineStr">
-        <is>
-          <t>슬리퍼</t>
-        </is>
-      </c>
+          <t>모니터</t>
+        </is>
+      </c>
+      <c r="M72" t="inlineStr"/>
       <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
@@ -4737,22 +4557,22 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>휠라 드리프터 슬라이드 &lt;b&gt;슬리퍼&lt;/b&gt; WWT WNV 1SM00560</t>
+          <t>LG전자 27MK430H</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=23001855599</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=15183175543</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2300185/23001855599.20200530160048.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1518317/15183175543.20200824151717.jpg</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>14200</t>
+          <t>218800</t>
         </is>
       </c>
       <c r="F73" t="inlineStr"/>
@@ -4768,29 +4588,25 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>휠라</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>휠라</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>패션잡화</t>
+          <t>디지털/가전</t>
         </is>
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>남성신발</t>
-        </is>
-      </c>
-      <c r="M73" t="inlineStr">
-        <is>
-          <t>슬리퍼</t>
-        </is>
-      </c>
+          <t>모니터</t>
+        </is>
+      </c>
+      <c r="M73" t="inlineStr"/>
       <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
@@ -4799,22 +4615,22 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>우포스 &lt;b&gt;슬리퍼&lt;/b&gt; OOAHH BLACK</t>
+          <t>주연테크 V28UE</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=28862908818</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=26322015522</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2886290/28862908818.20210915225712.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2632201/26322015522.20210311142212.jpg</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>62000</t>
+          <t>319000</t>
         </is>
       </c>
       <c r="F74" t="inlineStr"/>
@@ -4830,29 +4646,25 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>우포스</t>
+          <t>주연테크</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>우포스</t>
+          <t>주연테크</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>패션잡화</t>
+          <t>디지털/가전</t>
         </is>
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>남성신발</t>
-        </is>
-      </c>
-      <c r="M74" t="inlineStr">
-        <is>
-          <t>슬리퍼</t>
-        </is>
-      </c>
+          <t>모니터</t>
+        </is>
+      </c>
+      <c r="M74" t="inlineStr"/>
       <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
@@ -4861,22 +4673,22 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>디스커버리익스페디션 공용 버킷 슬라이드 디워커 DXSH9D031</t>
+          <t>벤큐 XL2411P 아이케어</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=26210520128</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=12954974985</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2621052/26210520128.20210316105516.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1295497/12954974985.20211126152630.jpg</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>46630</t>
+          <t>279000</t>
         </is>
       </c>
       <c r="F75" t="inlineStr"/>
@@ -4892,29 +4704,25 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>디스커버리익스페디션</t>
+          <t>벤큐</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>F&amp;F</t>
+          <t>벤큐</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>패션잡화</t>
+          <t>디지털/가전</t>
         </is>
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>남성신발</t>
-        </is>
-      </c>
-      <c r="M75" t="inlineStr">
-        <is>
-          <t>슬리퍼</t>
-        </is>
-      </c>
+          <t>모니터</t>
+        </is>
+      </c>
+      <c r="M75" t="inlineStr"/>
       <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
@@ -4923,22 +4731,22 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>나이키 오프코트 슬라이드 BQ4639-003</t>
+          <t>삼성전자 삼성 S8 UHD S32A800</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=26733295790</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=26743764522</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2673329/26733295790.20211213035058.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2674376/26743764522.20210628105349.jpg</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>24370</t>
+          <t>477480</t>
         </is>
       </c>
       <c r="F76" t="inlineStr"/>
@@ -4954,29 +4762,25 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>나이키</t>
+          <t>삼성</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>나이키</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>패션잡화</t>
+          <t>디지털/가전</t>
         </is>
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>남성신발</t>
-        </is>
-      </c>
-      <c r="M76" t="inlineStr">
-        <is>
-          <t>슬리퍼</t>
-        </is>
-      </c>
+          <t>모니터</t>
+        </is>
+      </c>
+      <c r="M76" t="inlineStr"/>
       <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
@@ -4985,22 +4789,22 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>크록스 바야밴드 슬라이드 205392 4종 택1</t>
+          <t>LG전자 울트라기어 24GN600 144Hz</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=22435037844</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=26122103522</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2243503/22435037844.20200710121800.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2612210/26122103522.20210421174452.jpg</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>26490</t>
+          <t>248700</t>
         </is>
       </c>
       <c r="F77" t="inlineStr"/>
@@ -5016,29 +4820,25 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>크록스</t>
+          <t>울트라기어</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>크록스</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>패션잡화</t>
+          <t>디지털/가전</t>
         </is>
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>남성신발</t>
-        </is>
-      </c>
-      <c r="M77" t="inlineStr">
-        <is>
-          <t>슬리퍼</t>
-        </is>
-      </c>
+          <t>모니터</t>
+        </is>
+      </c>
+      <c r="M77" t="inlineStr"/>
       <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
@@ -5047,22 +4847,22 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>아디다스 아딜렛 컴포트 &lt;b&gt;슬리퍼&lt;/b&gt; CG3425</t>
+          <t>알파스캔 AOC 24B2 75 무결점</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27508294892</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24171105522</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2750829/27508294892.20210609205409.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2417110/24171105522.20210310172014.jpg</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>21270</t>
+          <t>169000</t>
         </is>
       </c>
       <c r="F78" t="inlineStr"/>
@@ -5078,29 +4878,25 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>아디다스</t>
+          <t>알파스캔</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>아디다스</t>
+          <t>알파스캔</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>패션잡화</t>
+          <t>디지털/가전</t>
         </is>
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>남성신발</t>
-        </is>
-      </c>
-      <c r="M78" t="inlineStr">
-        <is>
-          <t>슬리퍼</t>
-        </is>
-      </c>
+          <t>모니터</t>
+        </is>
+      </c>
+      <c r="M78" t="inlineStr"/>
       <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
@@ -5109,22 +4905,22 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>버켄스탁 취리히 타우페 레귤러 &lt;b&gt;슬리퍼&lt;/b&gt; 1009532</t>
+          <t>삼성전자 스마트모니터 M5 S27AM501</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=22921071485</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=26870246522</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2292107/22921071485.20200827153617.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2687024/26870246522.20210422150359.jpg</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>53540</t>
+          <t>349000</t>
         </is>
       </c>
       <c r="F79" t="inlineStr"/>
@@ -5140,29 +4936,25 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>버켄스탁</t>
+          <t>스마트모니터</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>버켄스탁</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>패션잡화</t>
+          <t>디지털/가전</t>
         </is>
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>남성신발</t>
-        </is>
-      </c>
-      <c r="M79" t="inlineStr">
-        <is>
-          <t>슬리퍼</t>
-        </is>
-      </c>
+          <t>모니터</t>
+        </is>
+      </c>
+      <c r="M79" t="inlineStr"/>
       <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
@@ -5171,22 +4963,22 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>디스커버리익스페디션 공용 버킷 슬라이드 커플 샌달 DXSH9A031</t>
+          <t>인터픽셀 IP2740 게이밍 165</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=22460663108</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=18968201200</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2246066/22460663108.20210527124832.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1896820/18968201200.20210325162750.jpg</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>40120</t>
+          <t>249000</t>
         </is>
       </c>
       <c r="F80" t="inlineStr"/>
@@ -5202,29 +4994,25 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>디스커버리익스페디션</t>
+          <t>인터픽셀</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>F&amp;F</t>
+          <t>인터픽셀</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>패션잡화</t>
+          <t>디지털/가전</t>
         </is>
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>남성신발</t>
-        </is>
-      </c>
-      <c r="M80" t="inlineStr">
-        <is>
-          <t>슬리퍼</t>
-        </is>
-      </c>
+          <t>모니터</t>
+        </is>
+      </c>
+      <c r="M80" t="inlineStr"/>
       <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
@@ -5233,22 +5021,22 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>크록스 2종균일가 크록밴드 II 슬라이드 &lt;b&gt;슬리퍼&lt;/b&gt; 204108</t>
+          <t>삼성전자 오디세이 G7 C32G75T</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24102175314</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=23021445490</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2410217/24102175314.20200909214358.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2302144/23021445490.20201027170431.jpg</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>16910</t>
+          <t>748000</t>
         </is>
       </c>
       <c r="F81" t="inlineStr"/>
@@ -5264,29 +5052,25 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>크록스</t>
+          <t>오디세이</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>크록스</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>패션잡화</t>
+          <t>디지털/가전</t>
         </is>
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>남성신발</t>
-        </is>
-      </c>
-      <c r="M81" t="inlineStr">
-        <is>
-          <t>슬리퍼</t>
-        </is>
-      </c>
+          <t>모니터</t>
+        </is>
+      </c>
+      <c r="M81" t="inlineStr"/>
       <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
@@ -5295,22 +5079,22 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>내셔널지오그래픽 다이브 플러스 빅로고 &lt;b&gt;슬리퍼&lt;/b&gt; N205AFW900</t>
+          <t>삼성전자 삼성 울트라 와이드 C34H890WG ASS(Auto Source Switch) USB-C</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=21775920353</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=22435637412</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2177592/21775920353.20210928012624.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2243563/22435637412.20210203133722.jpg</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>20420</t>
+          <t>536990</t>
         </is>
       </c>
       <c r="F82" t="inlineStr"/>
@@ -5326,29 +5110,25 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>내셔널지오그래픽</t>
+          <t>삼성</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>더네이쳐홀딩스</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>패션잡화</t>
+          <t>디지털/가전</t>
         </is>
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>남성신발</t>
-        </is>
-      </c>
-      <c r="M82" t="inlineStr">
-        <is>
-          <t>슬리퍼</t>
-        </is>
-      </c>
+          <t>모니터</t>
+        </is>
+      </c>
+      <c r="M82" t="inlineStr"/>
       <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
@@ -5357,22 +5137,22 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>나이키 &lt;b&gt;슬리퍼&lt;/b&gt; 빅토리 원 슬라이드 흰파 CN9675-102</t>
+          <t>한성컴퓨터 TFX156PB</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27443230819</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=28193235522</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2744323/27443230819.20211024013559.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2819323/28193235522.20210728161135.jpg</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>20610</t>
+          <t>309000</t>
         </is>
       </c>
       <c r="F83" t="inlineStr"/>
@@ -5388,29 +5168,25 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>나이키</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>나이키</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>패션잡화</t>
+          <t>디지털/가전</t>
         </is>
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>남성신발</t>
-        </is>
-      </c>
-      <c r="M83" t="inlineStr">
-        <is>
-          <t>슬리퍼</t>
-        </is>
-      </c>
+          <t>모니터</t>
+        </is>
+      </c>
+      <c r="M83" t="inlineStr"/>
       <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
@@ -5419,22 +5195,22 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>나이키 &lt;b&gt;슬리퍼&lt;/b&gt; 슬라이드 빅토리 원 CZ5478-001</t>
+          <t>삼성전자 오디세이 G3 F27G33T</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=25750091810</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=26937157524</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2575009/25750091810.20210126185932.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2693715/26937157524.20210427144554.jpg</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>18980</t>
+          <t>299000</t>
         </is>
       </c>
       <c r="F84" t="inlineStr"/>
@@ -5450,29 +5226,25 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>나이키</t>
+          <t>오디세이</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>나이키</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>패션잡화</t>
+          <t>디지털/가전</t>
         </is>
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>남성신발</t>
-        </is>
-      </c>
-      <c r="M84" t="inlineStr">
-        <is>
-          <t>슬리퍼</t>
-        </is>
-      </c>
+          <t>모니터</t>
+        </is>
+      </c>
+      <c r="M84" t="inlineStr"/>
       <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
@@ -5481,22 +5253,22 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>크록스 크록밴드3 슬라이드 205733-02S</t>
+          <t>벤큐 PD2700Q 아이케어</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=26252297547</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=11415441270</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2625229/26252297547.20210427162640.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1141544/11415441270.20211129133814.jpg</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>20130</t>
+          <t>379000</t>
         </is>
       </c>
       <c r="F85" t="inlineStr"/>
@@ -5512,29 +5284,25 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>크록스</t>
+          <t>벤큐</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>크록스</t>
+          <t>벤큐</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>패션잡화</t>
+          <t>디지털/가전</t>
         </is>
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>남성신발</t>
-        </is>
-      </c>
-      <c r="M85" t="inlineStr">
-        <is>
-          <t>슬리퍼</t>
-        </is>
-      </c>
+          <t>모니터</t>
+        </is>
+      </c>
+      <c r="M85" t="inlineStr"/>
       <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
@@ -5543,22 +5311,22 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>나이키 BURROW DC1456-300</t>
+          <t>삼성전자 오디세이 G5 C34G55T 165</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=29567697068</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=25744041522</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2956769/29567697068.20211107004247.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2574404/25744041522.20210324143655.jpg</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>55200</t>
+          <t>644860</t>
         </is>
       </c>
       <c r="F86" t="inlineStr"/>
@@ -5574,29 +5342,25 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>나이키</t>
+          <t>오디세이</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>나이키</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>패션잡화</t>
+          <t>디지털/가전</t>
         </is>
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>남성신발</t>
-        </is>
-      </c>
-      <c r="M86" t="inlineStr">
-        <is>
-          <t>슬리퍼</t>
-        </is>
-      </c>
+          <t>모니터</t>
+        </is>
+      </c>
+      <c r="M86" t="inlineStr"/>
       <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
@@ -5605,22 +5369,22 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>아디다스 듀라모 슬라이드 FY8788</t>
+          <t>한성컴퓨터 TFG29F07WP IPS 울트라와이드</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=26124571398</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=29125693586</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2612457/26124571398.20211122023300.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2912569/29125693586.20211006161419.jpg</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>23630</t>
+          <t>269000</t>
         </is>
       </c>
       <c r="F87" t="inlineStr"/>
@@ -5636,29 +5400,25 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>아디다스</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>아디다스</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>패션잡화</t>
+          <t>디지털/가전</t>
         </is>
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>남성신발</t>
-        </is>
-      </c>
-      <c r="M87" t="inlineStr">
-        <is>
-          <t>슬리퍼</t>
-        </is>
-      </c>
+          <t>모니터</t>
+        </is>
+      </c>
+      <c r="M87" t="inlineStr"/>
       <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
@@ -5667,22 +5427,22 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>뉴발란스 NC02 &lt;b&gt;슬리퍼&lt;/b&gt; SD1101FZK</t>
+          <t>삼성전자 삼성 C34H890</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=25635266691</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=11819635242</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2563526/25635266691.20210117000738.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1181963/11819635242.20210531174625.jpg</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>19560</t>
+          <t>655950</t>
         </is>
       </c>
       <c r="F88" t="inlineStr"/>
@@ -5698,29 +5458,25 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>뉴발란스</t>
+          <t>삼성</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>뉴발란스</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>패션잡화</t>
+          <t>디지털/가전</t>
         </is>
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>남성신발</t>
-        </is>
-      </c>
-      <c r="M88" t="inlineStr">
-        <is>
-          <t>슬리퍼</t>
-        </is>
-      </c>
+          <t>모니터</t>
+        </is>
+      </c>
+      <c r="M88" t="inlineStr"/>
       <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
@@ -5729,22 +5485,22 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>아디다스 남녀공용 &lt;b&gt;슬리퍼&lt;/b&gt; 듀라모 에스엘 슬라이드 DURAMO SLIDE FY8786</t>
+          <t>벤큐 모비우스 EX2710S</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=28660272452</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27862189523</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2866027/28660272452.20211021032432.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2786218/27862189523.20211116103224.jpg</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>23360</t>
+          <t>369000</t>
         </is>
       </c>
       <c r="F89" t="inlineStr"/>
@@ -5760,29 +5516,25 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>아디다스</t>
+          <t>벤큐</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>아디다스</t>
+          <t>벤큐</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>패션잡화</t>
+          <t>디지털/가전</t>
         </is>
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>남성신발</t>
-        </is>
-      </c>
-      <c r="M89" t="inlineStr">
-        <is>
-          <t>슬리퍼</t>
-        </is>
-      </c>
+          <t>모니터</t>
+        </is>
+      </c>
+      <c r="M89" t="inlineStr"/>
       <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
@@ -5791,22 +5543,22 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>뉴발란스 토앤토 플립플랍 아이보리 리커버리 쪼리 &lt;b&gt;슬리퍼&lt;/b&gt; SD5601GIV</t>
+          <t>삼성전자 삼성 U32R590</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=23036090541</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=17650306747</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2303609/23036090541.20210730160503.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1765030/17650306747.20210203134432.jpg</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>43900</t>
+          <t>399000</t>
         </is>
       </c>
       <c r="F90" t="inlineStr"/>
@@ -5822,29 +5574,25 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>뉴발란스</t>
+          <t>삼성</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>뉴발란스</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>패션잡화</t>
+          <t>디지털/가전</t>
         </is>
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>남성신발</t>
-        </is>
-      </c>
-      <c r="M90" t="inlineStr">
-        <is>
-          <t>슬리퍼</t>
-        </is>
-      </c>
+          <t>모니터</t>
+        </is>
+      </c>
+      <c r="M90" t="inlineStr"/>
       <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
@@ -5853,22 +5601,22 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>아디다스 아딜렛 CF &lt;b&gt;슬리퍼&lt;/b&gt; 블랙 CG3427</t>
+          <t>알파스캔 AOC 27G2 게이밍 144 프리싱크</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=14240672379</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=21667682703</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1424067/14240672379.20191216104750.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2166768/21667682703.20210311170213.jpg</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>21375</t>
+          <t>339000</t>
         </is>
       </c>
       <c r="F91" t="inlineStr"/>
@@ -5884,29 +5632,25 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>아디다스</t>
+          <t>알파스캔</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>아디다스</t>
+          <t>알파스캔</t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>패션잡화</t>
+          <t>디지털/가전</t>
         </is>
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>남성신발</t>
-        </is>
-      </c>
-      <c r="M91" t="inlineStr">
-        <is>
-          <t>슬리퍼</t>
-        </is>
-      </c>
+          <t>모니터</t>
+        </is>
+      </c>
+      <c r="M91" t="inlineStr"/>
       <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
@@ -5915,22 +5659,22 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>노스페이스화이트라벨 WL 공용 윈터 뮬 NS93M78</t>
+          <t>한성컴퓨터 TFG27Q14P 144</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=29908716721</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27327723522</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2990871/29908716721.20211218014650.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2732772/27327723522.20210527095004.jpg</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>70350</t>
+          <t>379000</t>
         </is>
       </c>
       <c r="F92" t="inlineStr"/>
@@ -5946,25 +5690,25 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>노스페이스화이트라벨</t>
-        </is>
-      </c>
-      <c r="J92" t="inlineStr"/>
+          <t>한성컴퓨터</t>
+        </is>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>한성컴퓨터</t>
+        </is>
+      </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>패션잡화</t>
+          <t>디지털/가전</t>
         </is>
       </c>
       <c r="L92" t="inlineStr">
         <is>
-          <t>남성신발</t>
-        </is>
-      </c>
-      <c r="M92" t="inlineStr">
-        <is>
-          <t>슬리퍼</t>
-        </is>
-      </c>
+          <t>모니터</t>
+        </is>
+      </c>
+      <c r="M92" t="inlineStr"/>
       <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
@@ -5973,22 +5717,22 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>나이키 &lt;b&gt;슬리퍼&lt;/b&gt; 베네시 JDI 맨즈 343880-090</t>
+          <t>한성컴퓨터 ULTRON 2235V 프리싱크 리얼 75</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=28579009997</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=16384522728</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2857900/28579009997.20210826021811.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1638452/16384522728.20200528143331.jpg</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>25890</t>
+          <t>149000</t>
         </is>
       </c>
       <c r="F93" t="inlineStr"/>
@@ -6004,29 +5748,25 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>나이키</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>나이키</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>패션잡화</t>
+          <t>디지털/가전</t>
         </is>
       </c>
       <c r="L93" t="inlineStr">
         <is>
-          <t>남성신발</t>
-        </is>
-      </c>
-      <c r="M93" t="inlineStr">
-        <is>
-          <t>슬리퍼</t>
-        </is>
-      </c>
+          <t>모니터</t>
+        </is>
+      </c>
+      <c r="M93" t="inlineStr"/>
       <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
@@ -6035,22 +5775,22 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>남녀공용 기모안감 털&lt;b&gt;슬리퍼&lt;/b&gt; 6컬러 DS-AL641</t>
+          <t>DELL 울트라샤프 U2720Q</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27552945720</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=21752731630</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2755294/27552945720.20211203042645.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2175273/21752731630.20200327122054.jpg</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>11500</t>
+          <t>778990</t>
         </is>
       </c>
       <c r="F94" t="inlineStr"/>
@@ -6064,23 +5804,27 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>울트라샤프</t>
+        </is>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>DELL</t>
+        </is>
+      </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>패션잡화</t>
+          <t>디지털/가전</t>
         </is>
       </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>남성신발</t>
-        </is>
-      </c>
-      <c r="M94" t="inlineStr">
-        <is>
-          <t>슬리퍼</t>
-        </is>
-      </c>
+          <t>모니터</t>
+        </is>
+      </c>
+      <c r="M94" t="inlineStr"/>
       <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
@@ -6089,22 +5833,22 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>아디다스 &lt;b&gt;슬리퍼&lt;/b&gt; NQB 알파바운스 슬라이드 &lt;b&gt;슬리퍼&lt;/b&gt; B41720</t>
+          <t>LG전자 울트라와이드 29WP500</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=28977743605</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=26886077522</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2897774/28977743605.20210925040809.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2688607/26886077522.20210524134552.jpg</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>9070</t>
+          <t>259000</t>
         </is>
       </c>
       <c r="F95" t="inlineStr"/>
@@ -6120,29 +5864,25 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>아디다스</t>
+          <t>울트라와이드</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>아디다스</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>패션잡화</t>
+          <t>디지털/가전</t>
         </is>
       </c>
       <c r="L95" t="inlineStr">
         <is>
-          <t>남성신발</t>
-        </is>
-      </c>
-      <c r="M95" t="inlineStr">
-        <is>
-          <t>슬리퍼</t>
-        </is>
-      </c>
+          <t>모니터</t>
+        </is>
+      </c>
+      <c r="M95" t="inlineStr"/>
       <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
@@ -6151,22 +5891,22 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>나이키 &lt;b&gt;슬리퍼&lt;/b&gt; A4- 빅토리 원 샤워 CZ5478-001</t>
+          <t>삼성전자 오디세이 G3 F24G35T 144</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27931494756</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=26662290522</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2793149/27931494756.20210710022007.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2666229/26662290522.20210413153516.jpg</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>16000</t>
+          <t>259000</t>
         </is>
       </c>
       <c r="F96" t="inlineStr"/>
@@ -6182,25 +5922,25 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>나이키</t>
-        </is>
-      </c>
-      <c r="J96" t="inlineStr"/>
+          <t>오디세이</t>
+        </is>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>삼성전자</t>
+        </is>
+      </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>패션잡화</t>
+          <t>디지털/가전</t>
         </is>
       </c>
       <c r="L96" t="inlineStr">
         <is>
-          <t>남성신발</t>
-        </is>
-      </c>
-      <c r="M96" t="inlineStr">
-        <is>
-          <t>슬리퍼</t>
-        </is>
-      </c>
+          <t>모니터</t>
+        </is>
+      </c>
+      <c r="M96" t="inlineStr"/>
       <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
@@ -6209,22 +5949,22 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>뉴발란스 &lt;b&gt;슬리퍼&lt;/b&gt; 1501 남여공용 쿠셔닝 SD1501IWT</t>
+          <t>삼성전자 삼성 C27F391</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=28577661847</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=9681100715</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2857766/28577661847.20210825212742.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_9681100/9681100715.20200915114554.jpg</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>15570</t>
+          <t>238000</t>
         </is>
       </c>
       <c r="F97" t="inlineStr"/>
@@ -6240,29 +5980,25 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>뉴발란스</t>
+          <t>삼성</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>뉴발란스</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>패션잡화</t>
+          <t>디지털/가전</t>
         </is>
       </c>
       <c r="L97" t="inlineStr">
         <is>
-          <t>남성신발</t>
-        </is>
-      </c>
-      <c r="M97" t="inlineStr">
-        <is>
-          <t>슬리퍼</t>
-        </is>
-      </c>
+          <t>모니터</t>
+        </is>
+      </c>
+      <c r="M97" t="inlineStr"/>
       <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
@@ -6271,22 +6007,22 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>MLB LA 다저스BS 방한 &lt;b&gt;슬리퍼&lt;/b&gt; NW</t>
+          <t>제우스랩 알파플랜 P15A 포터블</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=26812605895</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=20651265453</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2681260/26812605895.20210622135529.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2065126/20651265453.20210726174943.jpg</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>45710</t>
+          <t>174990</t>
         </is>
       </c>
       <c r="F98" t="inlineStr"/>
@@ -6302,29 +6038,25 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>MLB</t>
+          <t>알파플랜</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>F&amp;F</t>
+          <t>제우스랩</t>
         </is>
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>패션잡화</t>
+          <t>디지털/가전</t>
         </is>
       </c>
       <c r="L98" t="inlineStr">
         <is>
-          <t>남성신발</t>
-        </is>
-      </c>
-      <c r="M98" t="inlineStr">
-        <is>
-          <t>슬리퍼</t>
-        </is>
-      </c>
+          <t>모니터</t>
+        </is>
+      </c>
+      <c r="M98" t="inlineStr"/>
       <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
@@ -6333,22 +6065,22 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>클럽 남성 남자 사무실 &lt;b&gt;슬리퍼&lt;/b&gt; 실내화 샌들 비치</t>
+          <t>LG전자 27MN430HW</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=13476680009</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=23301354490</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1347668/13476680009.20180204142852.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2330135/23301354490.20200824152000.jpg</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>9930</t>
+          <t>218880</t>
         </is>
       </c>
       <c r="F99" t="inlineStr"/>
@@ -6362,23 +6094,27 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>LG전자</t>
+        </is>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>LG전자</t>
+        </is>
+      </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>패션잡화</t>
+          <t>디지털/가전</t>
         </is>
       </c>
       <c r="L99" t="inlineStr">
         <is>
-          <t>남성신발</t>
-        </is>
-      </c>
-      <c r="M99" t="inlineStr">
-        <is>
-          <t>슬리퍼</t>
-        </is>
-      </c>
+          <t>모니터</t>
+        </is>
+      </c>
+      <c r="M99" t="inlineStr"/>
       <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
@@ -6387,22 +6123,22 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>노스페이스 뮬 &lt;b&gt;슬리퍼&lt;/b&gt; 플리스 A NS93M60A</t>
+          <t>삼성전자 삼성 C27F390</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=29885131160</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=9489557554</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2988513/29885131160.20211130020459.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_9489557/9489557554.20210203132811.jpg</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>62700</t>
+          <t>238000</t>
         </is>
       </c>
       <c r="F100" t="inlineStr"/>
@@ -6418,29 +6154,25 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>노스페이스</t>
+          <t>삼성</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>영원아웃도어</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K100" t="inlineStr">
         <is>
-          <t>패션잡화</t>
+          <t>디지털/가전</t>
         </is>
       </c>
       <c r="L100" t="inlineStr">
         <is>
-          <t>남성신발</t>
-        </is>
-      </c>
-      <c r="M100" t="inlineStr">
-        <is>
-          <t>슬리퍼</t>
-        </is>
-      </c>
+          <t>모니터</t>
+        </is>
+      </c>
+      <c r="M100" t="inlineStr"/>
       <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
@@ -6449,22 +6181,22 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>MLB 방한 EVA&lt;b&gt;슬리퍼&lt;/b&gt;</t>
+          <t>한성컴퓨터 TFX173PB</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=29473605119</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=28175063522</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2947360/29473605119.20211031043528.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2817506/28175063522.20210727143057.jpg</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>11120</t>
+          <t>409000</t>
         </is>
       </c>
       <c r="F101" t="inlineStr"/>
@@ -6480,25 +6212,25 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>MLB</t>
-        </is>
-      </c>
-      <c r="J101" t="inlineStr"/>
+          <t>한성컴퓨터</t>
+        </is>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>한성컴퓨터</t>
+        </is>
+      </c>
       <c r="K101" t="inlineStr">
         <is>
-          <t>패션잡화</t>
+          <t>디지털/가전</t>
         </is>
       </c>
       <c r="L101" t="inlineStr">
         <is>
-          <t>남성신발</t>
-        </is>
-      </c>
-      <c r="M101" t="inlineStr">
-        <is>
-          <t>슬리퍼</t>
-        </is>
-      </c>
+          <t>모니터</t>
+        </is>
+      </c>
+      <c r="M101" t="inlineStr"/>
       <c r="N101" t="inlineStr"/>
     </row>
   </sheetData>

--- a/output.xlsx
+++ b/output.xlsx
@@ -512,7 +512,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>188630</t>
+          <t>188670</t>
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
@@ -1019,22 +1019,22 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>벤큐 XL2411K</t>
+          <t>벤큐 GW2780 아이케어</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24196764522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=11846746201</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2419676/24196764522.20211117182333.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1184674/11846746201.20211118104344.jpg</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>279000</t>
+          <t>209000</t>
         </is>
       </c>
       <c r="F12" t="inlineStr"/>
@@ -1077,22 +1077,22 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>벤큐 GW2780 아이케어</t>
+          <t>LG전자 27TN600S</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=11846746201</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=21745903830</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1184674/11846746201.20211118104344.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2174590/21745903830.20200824150453.jpg</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>209000</t>
+          <t>341800</t>
         </is>
       </c>
       <c r="F13" t="inlineStr"/>
@@ -1108,12 +1108,12 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>벤큐</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>벤큐</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -1135,22 +1135,22 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>LG전자 27TN600S</t>
+          <t>벤큐 XL2411K</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=21745903830</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24196764522</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2174590/21745903830.20200824150453.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2419676/24196764522.20211117182333.jpg</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>341850</t>
+          <t>279000</t>
         </is>
       </c>
       <c r="F14" t="inlineStr"/>
@@ -1166,12 +1166,12 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>벤큐</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>벤큐</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -1309,22 +1309,22 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>삼성전자 스마트모니터 M7 S32AM700</t>
+          <t>삼성전자 스마트모니터 M7 S43AM700</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=25524333522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27215825524</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2552433/25524333522.20210203133321.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2721582/27215825524.20210520173025.jpg</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>499000</t>
+          <t>649000</t>
         </is>
       </c>
       <c r="F17" t="inlineStr"/>
@@ -1367,22 +1367,22 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>삼성전자 스마트모니터 M7 S43AM700</t>
+          <t>ASUS VA24DQLB</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27215825524</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=23257141490</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2721582/27215825524.20210520173025.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2325714/23257141490.20200720175614.jpg</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>649000</t>
+          <t>219000</t>
         </is>
       </c>
       <c r="F18" t="inlineStr"/>
@@ -1398,12 +1398,12 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>스마트모니터</t>
+          <t>ASUS</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>ASUS</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -1483,22 +1483,22 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>ASUS VA24DQLB</t>
+          <t>삼성전자 스마트모니터 M7 S32AM700</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=23257141490</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=25524333522</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2325714/23257141490.20200720175614.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2552433/25524333522.20210203133321.jpg</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>219000</t>
+          <t>499000</t>
         </is>
       </c>
       <c r="F20" t="inlineStr"/>
@@ -1514,12 +1514,12 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>ASUS</t>
+          <t>스마트모니터</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>ASUS</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -2411,22 +2411,22 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>한성컴퓨터 TFG32Q07P 75</t>
+          <t>삼성전자 오디세이 G5 C32G54T</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=28655748554</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=23896004523</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2865574/28655748554.20210831152013.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2389600/23896004523.20210203132926.jpg</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>259000</t>
+          <t>420000</t>
         </is>
       </c>
       <c r="F36" t="inlineStr"/>
@@ -2442,12 +2442,12 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>오디세이</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
@@ -2469,22 +2469,22 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>삼성전자 오디세이 G5 C32G54T</t>
+          <t>한성컴퓨터 TFG32Q07P 75</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=23896004523</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=28655748554</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2389600/23896004523.20210203132926.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2865574/28655748554.20210831152013.jpg</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>420000</t>
+          <t>259000</t>
         </is>
       </c>
       <c r="F37" t="inlineStr"/>
@@ -2500,12 +2500,12 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>오디세이</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
@@ -3876,7 +3876,7 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>209000</t>
+          <t>237000</t>
         </is>
       </c>
       <c r="F61" t="inlineStr"/>
@@ -4035,22 +4035,22 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>벤큐 XL2546K</t>
+          <t>삼성전자 오디세이 G9 C49G95T</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24235203522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=23255316490</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2423520/24235203522.20211117182410.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2325531/23255316490.20210203133605.jpg</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>649000</t>
+          <t>1690000</t>
         </is>
       </c>
       <c r="F64" t="inlineStr"/>
@@ -4066,12 +4066,12 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>벤큐</t>
+          <t>오디세이</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>벤큐</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
@@ -4093,22 +4093,22 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>삼성전자 오디세이 G9 C49G95T</t>
+          <t>벤큐 XL2546K</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=23255316490</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24235203522</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2325531/23255316490.20210203133605.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2423520/24235203522.20211117182410.jpg</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>1617300</t>
+          <t>649000</t>
         </is>
       </c>
       <c r="F65" t="inlineStr"/>
@@ -4124,12 +4124,12 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>오디세이</t>
+          <t>벤큐</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>벤큐</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
@@ -4209,22 +4209,22 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>한성컴퓨터 TFG39Q14V 144</t>
+          <t>알파스캔 AOC 27B2 보더리스 75 시력보호</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=26826361522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=21720504796</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2682636/26826361522.20210419161946.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2172050/21720504796.20210310171806.jpg</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>499000</t>
+          <t>219000</t>
         </is>
       </c>
       <c r="F67" t="inlineStr"/>
@@ -4240,12 +4240,12 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>알파스캔</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>알파스캔</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
@@ -4267,22 +4267,22 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>벤큐 ZOWIE XL2731</t>
+          <t>한성컴퓨터 TFG39Q14V 144</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=22435628535</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=26826361522</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2243562/22435628535.20211126161127.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2682636/26826361522.20210419161946.jpg</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>419000</t>
+          <t>499000</t>
         </is>
       </c>
       <c r="F68" t="inlineStr"/>
@@ -4298,12 +4298,12 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>벤큐</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>벤큐</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
@@ -4325,22 +4325,22 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>알파스캔 AOC 27B2 보더리스 75 시력보호</t>
+          <t>벤큐 ZOWIE XL2731</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=21720504796</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=22435628535</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2172050/21720504796.20210310171806.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2243562/22435628535.20211126161127.jpg</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>219000</t>
+          <t>419000</t>
         </is>
       </c>
       <c r="F69" t="inlineStr"/>
@@ -4356,12 +4356,12 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>알파스캔</t>
+          <t>벤큐</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>알파스캔</t>
+          <t>벤큐</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
@@ -4572,7 +4572,7 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>644860</t>
+          <t>567000</t>
         </is>
       </c>
       <c r="F73" t="inlineStr"/>
@@ -5601,22 +5601,22 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>한성컴퓨터 TFG27Q14P 144</t>
+          <t>LG전자 울트라와이드 29WP500</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27327723522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=26886077522</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2732772/27327723522.20210527095004.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2688607/26886077522.20210524134552.jpg</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>379000</t>
+          <t>259000</t>
         </is>
       </c>
       <c r="F91" t="inlineStr"/>
@@ -5632,12 +5632,12 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>울트라와이드</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
@@ -5659,22 +5659,22 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>삼성전자 삼성 U32R590</t>
+          <t>한성컴퓨터 TFG27Q14P 144</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=17650306747</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27327723522</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1765030/17650306747.20210203134432.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2732772/27327723522.20210527095004.jpg</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>399000</t>
+          <t>379000</t>
         </is>
       </c>
       <c r="F92" t="inlineStr"/>
@@ -5690,12 +5690,12 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>삼성</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="K92" t="inlineStr">
@@ -5717,22 +5717,22 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>LG전자 울트라와이드 29WP500</t>
+          <t>삼성전자 삼성 U32R590</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=26886077522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=17650306747</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2688607/26886077522.20210524134552.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1765030/17650306747.20210203134432.jpg</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>259000</t>
+          <t>399000</t>
         </is>
       </c>
       <c r="F93" t="inlineStr"/>
@@ -5748,12 +5748,12 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>울트라와이드</t>
+          <t>삼성</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
@@ -5775,22 +5775,22 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>DELL 울트라샤프 U2720Q</t>
+          <t>삼성전자 삼성 C27F391</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=21752731630</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=9681100715</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2175273/21752731630.20200327122054.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_9681100/9681100715.20200915114554.jpg</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>778990</t>
+          <t>238000</t>
         </is>
       </c>
       <c r="F94" t="inlineStr"/>
@@ -5806,12 +5806,12 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>울트라샤프</t>
+          <t>삼성</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>DELL</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K94" t="inlineStr">
@@ -5833,22 +5833,22 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>삼성전자 삼성 C27F391</t>
+          <t>DELL 울트라샤프 U2720Q</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=9681100715</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=21752731630</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_9681100/9681100715.20200915114554.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2175273/21752731630.20200327122054.jpg</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>238000</t>
+          <t>778990</t>
         </is>
       </c>
       <c r="F95" t="inlineStr"/>
@@ -5864,12 +5864,12 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>삼성</t>
+          <t>울트라샤프</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>DELL</t>
         </is>
       </c>
       <c r="K95" t="inlineStr">
@@ -6123,22 +6123,22 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>벤큐 모비우스 EX2710S</t>
+          <t>삼성전자 삼성 C27F390</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27862189523</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=9489557554</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2786218/27862189523.20211116103224.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_9489557/9489557554.20210203132811.jpg</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>369000</t>
+          <t>238000</t>
         </is>
       </c>
       <c r="F100" t="inlineStr"/>
@@ -6154,12 +6154,12 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>벤큐</t>
+          <t>삼성</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>벤큐</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K100" t="inlineStr">
@@ -6181,22 +6181,22 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>제이씨현시스템 유디아 EDGE ED2420NT 유케어 QHD 프리싱크 75</t>
+          <t>벤큐 모비우스 EX2710S</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27344486524</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27862189523</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2734448/27344486524.20210528141223.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2786218/27862189523.20211116103224.jpg</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>179000</t>
+          <t>369000</t>
         </is>
       </c>
       <c r="F101" t="inlineStr"/>
@@ -6212,12 +6212,12 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>유디아</t>
+          <t>벤큐</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>제이씨현시스템</t>
+          <t>벤큐</t>
         </is>
       </c>
       <c r="K101" t="inlineStr">

--- a/output.xlsx
+++ b/output.xlsx
@@ -555,22 +555,22 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>삼성전자 삼성 S27R350</t>
+          <t>삼성전자 오디세이 Neo G9 S49AG950 49인치 게이밍 모니터</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=21775935202</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=28288984554</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2177593/21775935202.20210203132859.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2828898/28288984554.20210810100808.jpg</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>247000</t>
+          <t>2110980</t>
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
@@ -586,7 +586,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>삼성</t>
+          <t>오디세이</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -613,22 +613,22 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>LG전자 24MK430H 24인치 FHD IPS 광시야각 모니터</t>
+          <t>삼성전자 스마트모니터 M7 S32AM700</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=13643814149</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=25524333522</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1364381/13643814149.20200824151155.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2552433/25524333522.20210203133321.jpg</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>183700</t>
+          <t>481000</t>
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
@@ -644,12 +644,12 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>스마트모니터</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -671,22 +671,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>삼성전자 삼성 커브드 C27R502 베젤리스 프리싱크</t>
+          <t>삼성전자 삼성 S27R350</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=20189888243</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=21775935202</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2018988/20189888243.20200915115734.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2177593/21775935202.20210203132859.jpg</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>238000</t>
+          <t>247000</t>
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
@@ -729,22 +729,22 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>삼성전자 삼성 S24R350 베젤리스 프리싱크 75</t>
+          <t>삼성전자 스마트모니터 M5 S32AM500</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=20861526783</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=25524342522</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2086152/20861526783.20210302142419.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2552434/25524342522.20210302142529.jpg</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>193030</t>
+          <t>377000</t>
         </is>
       </c>
       <c r="F7" t="inlineStr"/>
@@ -760,7 +760,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>삼성</t>
+          <t>스마트모니터</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -787,22 +787,22 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>삼성전자 스마트모니터 M5 S32AM500</t>
+          <t>삼성전자 삼성 커브드 C27R502 베젤리스 프리싱크</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=25524342522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=20189888243</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2552434/25524342522.20210302142529.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2018988/20189888243.20200915115734.jpg</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>377000</t>
+          <t>238000</t>
         </is>
       </c>
       <c r="F8" t="inlineStr"/>
@@ -818,7 +818,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>스마트모니터</t>
+          <t>삼성</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -845,22 +845,22 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>삼성전자 삼성 C32R500F</t>
+          <t>삼성전자 삼성 S24R350 베젤리스 프리싱크 75</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=22483121542</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=20861526783</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2248312/22483121542.20210602151356.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2086152/20861526783.20210302142419.jpg</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>292190</t>
+          <t>193030</t>
         </is>
       </c>
       <c r="F9" t="inlineStr"/>
@@ -903,22 +903,22 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>벤큐 XL2411K</t>
+          <t>삼성전자 삼성 C32R500F</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24196764522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=22483121542</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2419676/24196764522.20211117182333.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2248312/22483121542.20210602151356.jpg</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>299000</t>
+          <t>292050</t>
         </is>
       </c>
       <c r="F10" t="inlineStr"/>
@@ -934,12 +934,12 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>벤큐</t>
+          <t>삼성</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>벤큐</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -961,22 +961,22 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>ASUS VA24DQLB</t>
+          <t>LG전자 24MK430H 24인치 FHD IPS 광시야각 모니터</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=23257141490</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=13643814149</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2325714/23257141490.20200720175614.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1364381/13643814149.20200824151155.jpg</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>219000</t>
+          <t>183700</t>
         </is>
       </c>
       <c r="F11" t="inlineStr"/>
@@ -992,12 +992,12 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>ASUS</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>ASUS</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -1019,22 +1019,22 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>한성컴퓨터 TFG27Q14F QHD 평면 144 게이밍</t>
+          <t>벤큐 XL2411K</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24509574524</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24196764522</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2450957/24509574524.20201022114639.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2419676/24196764522.20211117182333.jpg</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>289000</t>
+          <t>299000</t>
         </is>
       </c>
       <c r="F12" t="inlineStr"/>
@@ -1050,12 +1050,12 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>벤큐</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>벤큐</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -1077,22 +1077,22 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>삼성전자 삼성 F24T450</t>
+          <t>벤큐 GW2780 아이케어</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24007200522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=11846746201</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2400720/24007200522.20210203133027.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1184674/11846746201.20220104144743.jpg</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>238000</t>
+          <t>219000</t>
         </is>
       </c>
       <c r="F13" t="inlineStr"/>
@@ -1108,12 +1108,12 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>삼성</t>
+          <t>벤큐</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>벤큐</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -1135,22 +1135,22 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>LG전자 27MN430HW</t>
+          <t>ASUS VA24DQLB</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=23301354490</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=23257141490</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2330135/23301354490.20200824152000.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2325714/23257141490.20200720175614.jpg</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>218900</t>
+          <t>210240</t>
         </is>
       </c>
       <c r="F14" t="inlineStr"/>
@@ -1166,12 +1166,12 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>ASUS</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>ASUS</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -1193,22 +1193,22 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>한성컴퓨터 TFG32F24V 240</t>
+          <t>LG전자 27MN430HW</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=28162745522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=23301354490</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2816274/28162745522.20210726183542.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2330135/23301354490.20200824152000.jpg</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>299000</t>
+          <t>218900</t>
         </is>
       </c>
       <c r="F15" t="inlineStr"/>
@@ -1224,12 +1224,12 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -1251,22 +1251,22 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>ASUS VG278QR</t>
+          <t>삼성전자 삼성 F24T450</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=18214439726</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24007200522</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1821443/18214439726.20190620142310.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2400720/24007200522.20210203133027.jpg</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>371000</t>
+          <t>229420</t>
         </is>
       </c>
       <c r="F16" t="inlineStr"/>
@@ -1282,12 +1282,12 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>ASUS</t>
+          <t>삼성</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>ASUS</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -1309,22 +1309,22 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>삼성전자 스마트모니터 M7 S32AM700</t>
+          <t>한성컴퓨터 TFG27Q14F QHD 평면 144 게이밍</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=25524333522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24509574524</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2552433/25524333522.20210203133321.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2450957/24509574524.20201022114639.jpg</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>499000</t>
+          <t>289000</t>
         </is>
       </c>
       <c r="F17" t="inlineStr"/>
@@ -1340,12 +1340,12 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>스마트모니터</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -1367,22 +1367,22 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>LG전자 24ML600SW</t>
+          <t>ASUS VG278QR</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=19105796246</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=18214439726</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1910579/19105796246.20200824152520.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1821443/18214439726.20190620142310.jpg</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>208900</t>
+          <t>371000</t>
         </is>
       </c>
       <c r="F18" t="inlineStr"/>
@@ -1398,12 +1398,12 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>ASUS</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>ASUS</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -1483,22 +1483,22 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>ASUS VP249QGR</t>
+          <t>LG전자 32QN650</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=23257115490</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=23692201495</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2325711/23257115490.20211125152957.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2369220/23692201495.20210406132235.jpg</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>249000</t>
+          <t>398480</t>
         </is>
       </c>
       <c r="F20" t="inlineStr"/>
@@ -1514,12 +1514,12 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>ASUS</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>ASUS</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -1599,22 +1599,22 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>벤큐 GW2780 아이케어</t>
+          <t>ASUS VP249QGR</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=11846746201</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=23257115490</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1184674/11846746201.20220104144743.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2325711/23257115490.20211125152957.jpg</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>219000</t>
+          <t>249000</t>
         </is>
       </c>
       <c r="F22" t="inlineStr"/>
@@ -1630,12 +1630,12 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>벤큐</t>
+          <t>ASUS</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>벤큐</t>
+          <t>ASUS</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
@@ -1657,22 +1657,22 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>LG전자 32QN650</t>
+          <t>LG전자 24ML600SW</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=23692201495</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=19105796246</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2369220/23692201495.20210406132235.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1910579/19105796246.20200824152520.jpg</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>398380</t>
+          <t>209000</t>
         </is>
       </c>
       <c r="F23" t="inlineStr"/>
@@ -1715,22 +1715,22 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>한성컴퓨터 ULTRON 2760G 리얼 144</t>
+          <t>삼성전자 오디세이 G5 C32G54T</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=15020041438</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=23896004523</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1502004/15020041438.20200424094329.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2389600/23896004523.20210203132926.jpg</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>239000</t>
+          <t>439000</t>
         </is>
       </c>
       <c r="F24" t="inlineStr"/>
@@ -1746,12 +1746,12 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>오디세이</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -1773,22 +1773,22 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>삼성전자 삼성 C32T550</t>
+          <t>한성컴퓨터 ULTRON 2760G 리얼 144</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=22448790144</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=15020041438</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2244879/22448790144.20210203133005.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1502004/15020041438.20200424094329.jpg</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>361000</t>
+          <t>239000</t>
         </is>
       </c>
       <c r="F25" t="inlineStr"/>
@@ -1804,12 +1804,12 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>삼성</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -1831,22 +1831,22 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>한성컴퓨터 TFG32F16V 1500R 리얼 165 게이밍</t>
+          <t>한성컴퓨터 ULTRON 2435V 프리싱크 리얼75</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=18778755031</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=13487979407</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1877875/18778755031.20201230122744.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1348797/13487979407.20211116100954.jpg</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>279000</t>
+          <t>169000</t>
         </is>
       </c>
       <c r="F26" t="inlineStr"/>
@@ -1889,22 +1889,22 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>ASUS VG258QR</t>
+          <t>한성컴퓨터 ULTRON 2758 프리싱크 리얼 75</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=18323660111</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=14816445651</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1832366/18323660111.20190620142114.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1481644/14816445651.20200429170907.jpg</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>296370</t>
+          <t>189000</t>
         </is>
       </c>
       <c r="F27" t="inlineStr"/>
@@ -1920,12 +1920,12 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>ASUS</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>ASUS</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -1947,22 +1947,22 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>한성컴퓨터 TFG27F14P IPS 144</t>
+          <t>한성컴퓨터 ULTRON 3278 QHD New</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=23258436490</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=16776093488</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2325843/23258436490.20200624161211.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1677609/16776093488.20200424094717.jpg</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>249000</t>
+          <t>269000</t>
         </is>
       </c>
       <c r="F28" t="inlineStr"/>
@@ -2005,22 +2005,22 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>한성컴퓨터 TFX32U06V 4K HDR 1500R 커브드</t>
+          <t>삼성전자 삼성 C32T550</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=20942220356</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=22448790144</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2094222/20942220356.20210630112723.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2244879/22448790144.20210203133005.jpg</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>329000</t>
+          <t>360520</t>
         </is>
       </c>
       <c r="F29" t="inlineStr"/>
@@ -2036,12 +2036,12 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>삼성</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
@@ -2063,22 +2063,22 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>삼성전자 오디세이 Neo G9 S49AG950 49인치 게이밍 모니터</t>
+          <t>한성컴퓨터 TFG32F16V 1500R 리얼 165 게이밍</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=28288984554</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=18778755031</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2828898/28288984554.20210810100808.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1877875/18778755031.20201230122744.jpg</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>2110980</t>
+          <t>279000</t>
         </is>
       </c>
       <c r="F30" t="inlineStr"/>
@@ -2094,12 +2094,12 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>오디세이</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
@@ -2121,22 +2121,22 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>LG전자 24MP500W</t>
+          <t>한성컴퓨터 TFG32F24V 240</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=28272152554</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=28162745522</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2827215/28272152554.20210805113756.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2816274/28162745522.20210726183542.jpg</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>193890</t>
+          <t>299000</t>
         </is>
       </c>
       <c r="F31" t="inlineStr"/>
@@ -2152,12 +2152,12 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
@@ -2179,22 +2179,22 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>필립스 271E1 프리싱크 75 시력보호 제로베젤</t>
+          <t>ASUS VG258QR</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=21496753758</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=18323660111</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2149675/21496753758.20200221173844.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1832366/18323660111.20190620142114.jpg</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>219000</t>
+          <t>296370</t>
         </is>
       </c>
       <c r="F32" t="inlineStr"/>
@@ -2210,12 +2210,12 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>필립스</t>
+          <t>ASUS</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>필립스</t>
+          <t>ASUS</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
@@ -2237,22 +2237,22 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>한성컴퓨터 TFG32Q07P 75</t>
+          <t>LG전자 24MP500W</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=28655748554</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=28272152554</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2865574/28655748554.20210831152013.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2827215/28272152554.20210805113756.jpg</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>269000</t>
+          <t>193890</t>
         </is>
       </c>
       <c r="F33" t="inlineStr"/>
@@ -2268,12 +2268,12 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
@@ -2295,22 +2295,22 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>삼성전자 스마트모니터 M7 S32AM701</t>
+          <t>한성컴퓨터 TFG27F14P IPS 144</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=29724256618</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=23258436490</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2972425/29724256618.20211117133727.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2325843/23258436490.20200624161211.jpg</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>519000</t>
+          <t>249000</t>
         </is>
       </c>
       <c r="F34" t="inlineStr"/>
@@ -2326,12 +2326,12 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>스마트모니터</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
@@ -2353,22 +2353,22 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>한성컴퓨터 ULTRON 2758 프리싱크 리얼 75</t>
+          <t>한성컴퓨터 TFX32U06V 4K HDR 1500R 커브드</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=14816445651</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=20942220356</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1481644/14816445651.20200429170907.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2094222/20942220356.20210630112723.jpg</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>189000</t>
+          <t>329000</t>
         </is>
       </c>
       <c r="F35" t="inlineStr"/>
@@ -2411,22 +2411,22 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>한성컴퓨터 TFG27F16V 1500R 리얼 165 게이밍</t>
+          <t>삼성전자 오디세이 G7 C27G75T</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=18797620615</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=23021385490</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1879762/18797620615.20201230122720.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2302138/23021385490.20200803121144.jpg</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>239000</t>
+          <t>658950</t>
         </is>
       </c>
       <c r="F36" t="inlineStr"/>
@@ -2442,12 +2442,12 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>오디세이</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
@@ -2469,22 +2469,22 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>한성컴퓨터 ULTRON 2460G 리얼 144 게이밍</t>
+          <t>삼성전자 스마트모니터 M7 S32AM701</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=20471652225</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=29724256618</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2047165/20471652225.20200424094042.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2972425/29724256618.20211117133727.jpg</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>189000</t>
+          <t>519000</t>
         </is>
       </c>
       <c r="F37" t="inlineStr"/>
@@ -2500,12 +2500,12 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>스마트모니터</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
@@ -2527,22 +2527,22 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>한성컴퓨터 ULTRON 2435V 프리싱크 리얼75</t>
+          <t>삼성전자 삼성 S8 UHD S32A800</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=13487979407</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=26743764522</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1348797/13487979407.20211116100954.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2674376/26743764522.20210628105349.jpg</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>169000</t>
+          <t>481000</t>
         </is>
       </c>
       <c r="F38" t="inlineStr"/>
@@ -2558,12 +2558,12 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>삼성</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
@@ -2585,22 +2585,22 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>삼성전자 오디세이 G5 C32G54T</t>
+          <t>한성컴퓨터 TFG32Q07P 75</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=23896004523</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=28655748554</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2389600/23896004523.20210203132926.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2865574/28655748554.20210831152013.jpg</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>439000</t>
+          <t>269000</t>
         </is>
       </c>
       <c r="F39" t="inlineStr"/>
@@ -2616,12 +2616,12 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>오디세이</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
@@ -2643,22 +2643,22 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>한성컴퓨터 ULTRON 3278 QHD New</t>
+          <t>한성컴퓨터 ULTRON 2460G 리얼 144 게이밍</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=16776093488</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=20471652225</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1677609/16776093488.20200424094717.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2047165/20471652225.20200424094042.jpg</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>269000</t>
+          <t>189000</t>
         </is>
       </c>
       <c r="F40" t="inlineStr"/>
@@ -2701,22 +2701,22 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>한성컴퓨터 TFG29F07WP IPS 울트라와이드</t>
+          <t>한성컴퓨터 TFG27F16V 1500R 리얼 165 게이밍</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=29125693586</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=18797620615</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2912569/29125693586.20211006161419.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1879762/18797620615.20201230122720.jpg</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>269000</t>
+          <t>239000</t>
         </is>
       </c>
       <c r="F41" t="inlineStr"/>
@@ -2759,22 +2759,22 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>삼성전자 오디세이 G5 C27G54T</t>
+          <t>벤큐 XL2546K</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=23896119522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24235203522</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2389611/23896119522.20210302142506.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2423520/24235203522.20211117182410.jpg</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>359000</t>
+          <t>699000</t>
         </is>
       </c>
       <c r="F42" t="inlineStr"/>
@@ -2790,12 +2790,12 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>오디세이</t>
+          <t>벤큐</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>벤큐</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
@@ -2817,22 +2817,22 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>한성컴퓨터 TFG32F07V 1500R 커브드 게이밍 리얼 75</t>
+          <t>삼성전자 오디세이 G5 C27G54T</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=20882835913</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=23896119522</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2088283/20882835913.20200424100013.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2389611/23896119522.20210302142506.jpg</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>239000</t>
+          <t>355690</t>
         </is>
       </c>
       <c r="F43" t="inlineStr"/>
@@ -2848,12 +2848,12 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>오디세이</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
@@ -2875,22 +2875,22 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>벤큐 XL2546K</t>
+          <t>한성컴퓨터 TFG32F07V 1500R 커브드 게이밍 리얼 75</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24235203522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=20882835913</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2423520/24235203522.20211117182410.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2088283/20882835913.20200424100013.jpg</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>699000</t>
+          <t>239000</t>
         </is>
       </c>
       <c r="F44" t="inlineStr"/>
@@ -2906,12 +2906,12 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>벤큐</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>벤큐</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
@@ -2933,22 +2933,22 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>한성컴퓨터 TFX156T PRO DEX 포터블 400cd 멀티터치</t>
+          <t>삼성전자 스마트모니터 M7 S43AM700</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=26158967522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27215825524</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2615896/26158967522.20210226123516.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2721582/27215825524.20210520173025.jpg</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>299000</t>
+          <t>625580</t>
         </is>
       </c>
       <c r="F45" t="inlineStr"/>
@@ -2964,12 +2964,12 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>스마트모니터</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
@@ -2991,22 +2991,22 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>삼성전자 스마트모니터 M7 S43AM700</t>
+          <t>한성컴퓨터 TFG29F07WP IPS 울트라와이드</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27215825524</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=29125693586</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2721582/27215825524.20210520173025.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2912569/29125693586.20211006161419.jpg</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>605240</t>
+          <t>269000</t>
         </is>
       </c>
       <c r="F46" t="inlineStr"/>
@@ -3022,12 +3022,12 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>스마트모니터</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
@@ -3107,22 +3107,22 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>삼성전자 오디세이 G3 S27AG300 144</t>
+          <t>삼성전자 스마트모니터 M5 S32AM501</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27535066522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=26870008522</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2753506/27535066522.20210611135052.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2687000/26870008522.20210422145112.jpg</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>298900</t>
+          <t>387000</t>
         </is>
       </c>
       <c r="F48" t="inlineStr"/>
@@ -3138,7 +3138,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>오디세이</t>
+          <t>스마트모니터</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -3223,22 +3223,22 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>삼성전자 스마트모니터 M5 S32AM501</t>
+          <t>삼성전자 삼성 S8 UHD S27A800U</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=26870008522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=26744039522</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2687000/26870008522.20210422145112.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2674403/26744039522.20210628105549.jpg</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>387000</t>
+          <t>548950</t>
         </is>
       </c>
       <c r="F50" t="inlineStr"/>
@@ -3254,7 +3254,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>스마트모니터</t>
+          <t>삼성</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -3281,22 +3281,22 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>한성컴퓨터 TFG32F14F 144</t>
+          <t>삼성전자 오디세이 G3 S27AG300 144</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24380347522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27535066522</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2438034/24380347522.20201007114746.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2753506/27535066522.20210611135052.jpg</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>279000</t>
+          <t>288210</t>
         </is>
       </c>
       <c r="F51" t="inlineStr"/>
@@ -3312,12 +3312,12 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>오디세이</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
@@ -3339,22 +3339,22 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>한성컴퓨터 TFG39Q14V 144</t>
+          <t>벤큐 GW2480 아이케어 무결점</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=26826361522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=11846842637</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2682636/26826361522.20210419161946.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1184684/11846842637.20220104144422.jpg</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>499000</t>
+          <t>189000</t>
         </is>
       </c>
       <c r="F52" t="inlineStr"/>
@@ -3370,12 +3370,12 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>벤큐</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>벤큐</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
@@ -3397,22 +3397,22 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>한성컴퓨터 TFG27Q14V 1500R 리얼 144 게이밍</t>
+          <t>한성컴퓨터 TFG26F07WP IPS 울트라와이드</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=20812959649</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=29125689586</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2081295/20812959649.20200424095919.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2912568/29125689586.20211006161055.jpg</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>289000</t>
+          <t>239000</t>
         </is>
       </c>
       <c r="F53" t="inlineStr"/>
@@ -3455,43 +3455,43 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>LG전자 27TN600S</t>
+          <t>24인치 27인치 FHD 4K QHD 모니터 32인치 게이밍 75Hz 144Hz 컴퓨터 모니터</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=21745903830</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=80461476918</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2174590/21745903830.20200824150453.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8046147/80461476918.2.jpg</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>362440</t>
+          <t>129900</t>
         </is>
       </c>
       <c r="F54" t="inlineStr"/>
       <c r="G54" t="inlineStr">
         <is>
-          <t>네이버</t>
+          <t>티엑스</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 상품</t>
+          <t>일반 - 가격비교 비매칭 일반상품</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>네모로</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>TX</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
@@ -3513,22 +3513,22 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>삼성전자 오디세이 G7 C27G75T</t>
+          <t>필립스 271E1 프리싱크 75 시력보호 제로베젤</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=23021385490</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=21496753758</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2302138/23021385490.20200803121144.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2149675/21496753758.20200221173844.jpg</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>658950</t>
+          <t>222310</t>
         </is>
       </c>
       <c r="F55" t="inlineStr"/>
@@ -3544,12 +3544,12 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>오디세이</t>
+          <t>필립스</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>필립스</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
@@ -3571,22 +3571,22 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>삼성전자 삼성 S8 UHD S32A800</t>
+          <t>한성컴퓨터 TFG39Q14V 144</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=26743764522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=26826361522</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2674376/26743764522.20210628105349.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2682636/26826361522.20210419161946.jpg</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>481000</t>
+          <t>499000</t>
         </is>
       </c>
       <c r="F56" t="inlineStr"/>
@@ -3602,12 +3602,12 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>삼성</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
@@ -3629,22 +3629,22 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>한성컴퓨터 TFG34Q14WQ 퀀텀닷 1500R 리얼 144 울트라와이드 게이밍</t>
+          <t>한성컴퓨터 TFG27Q14V 1500R 리얼 144 게이밍</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=22312278223</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=20812959649</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2231227/22312278223.20200424100736.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2081295/20812959649.20200424095919.jpg</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>499000</t>
+          <t>289000</t>
         </is>
       </c>
       <c r="F57" t="inlineStr"/>
@@ -3687,22 +3687,22 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>한성컴퓨터 TFG32Q14F 144</t>
+          <t>한성컴퓨터 TFG34Q14WQ 퀀텀닷 1500R 리얼 144 울트라와이드 게이밍</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24439846522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=22312278223</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2443984/24439846522.20201013113723.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2231227/22312278223.20200424100736.jpg</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>349000</t>
+          <t>499000</t>
         </is>
       </c>
       <c r="F58" t="inlineStr"/>
@@ -3745,22 +3745,22 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>제우스랩 알파플랜 P15A 포터블</t>
+          <t>한성컴퓨터 TFX156T PRO DEX 포터블 400cd 멀티터치</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=20651265453</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=26158967522</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2065126/20651265453.20210726174943.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2615896/26158967522.20210226123516.jpg</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>174990</t>
+          <t>299000</t>
         </is>
       </c>
       <c r="F59" t="inlineStr"/>
@@ -3776,12 +3776,12 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>알파플랜</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>제우스랩</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
@@ -3803,22 +3803,22 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>삼성전자 오디세이 G5 C34G55T 165</t>
+          <t>한성컴퓨터 TFG32F14F 144</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=25744041522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24380347522</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2574404/25744041522.20210324143655.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2438034/24380347522.20201007114746.jpg</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>610940</t>
+          <t>279000</t>
         </is>
       </c>
       <c r="F60" t="inlineStr"/>
@@ -3834,12 +3834,12 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>오디세이</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
@@ -3861,22 +3861,22 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>한성컴퓨터 TFX156T DEX 포터블 HDR</t>
+          <t>LG전자 27TN600S</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=21936337549</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=21745903830</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2193633/21936337549.20200428094649.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2174590/21745903830.20200824150453.jpg</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>269000</t>
+          <t>366870</t>
         </is>
       </c>
       <c r="F61" t="inlineStr"/>
@@ -3892,12 +3892,12 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
@@ -3919,22 +3919,22 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>한성컴퓨터 TFX133T DEX 포터블 HDR</t>
+          <t>삼성전자 삼성 슈퍼 와이드 게이밍 120 DQHD C49RG90</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=21918294654</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=18571615807</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2191829/21918294654.20200428094627.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1857161/18571615807.20210203133352.jpg</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>229000</t>
+          <t>1224170</t>
         </is>
       </c>
       <c r="F62" t="inlineStr"/>
@@ -3950,12 +3950,12 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>삼성</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
@@ -3977,22 +3977,22 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>한성컴퓨터 TFX173T DEX 포터블 HDR</t>
+          <t>삼성전자 오디세이 G5 C34G55T 165</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=21936338223</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=25744041522</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2193633/21936338223.20200428094731.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2574404/25744041522.20210324143655.jpg</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>379000</t>
+          <t>593520</t>
         </is>
       </c>
       <c r="F63" t="inlineStr"/>
@@ -4008,12 +4008,12 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>오디세이</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
@@ -4035,22 +4035,22 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>IGNIQ 플루이드 24S</t>
+          <t>한성컴퓨터 TFX156T DEX 포터블 HDR</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=19899376075</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=21936337549</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1989937/19899376075.20210513144457.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2193633/21936337549.20200428094649.jpg</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>249000</t>
+          <t>269000</t>
         </is>
       </c>
       <c r="F64" t="inlineStr"/>
@@ -4066,12 +4066,12 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>IGNIQ</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>IGNIQ</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
@@ -4093,22 +4093,22 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>주연테크 V28UE</t>
+          <t>한성컴퓨터 TFG32Q14F 144</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=26322015522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24439846522</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2632201/26322015522.20210311142212.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2443984/24439846522.20201013113723.jpg</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>319000</t>
+          <t>349000</t>
         </is>
       </c>
       <c r="F65" t="inlineStr"/>
@@ -4124,12 +4124,12 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>주연테크</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>주연테크</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
@@ -4209,22 +4209,22 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>LG전자 울트라기어 24GN600 144Hz</t>
+          <t>삼성전자 스마트모니터 M5 S27AM500</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=26122103522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=25524380522</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2612210/26122103522.20210421174452.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2552438/25524380522.20210302142816.jpg</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>248900</t>
+          <t>317880</t>
         </is>
       </c>
       <c r="F67" t="inlineStr"/>
@@ -4240,12 +4240,12 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>울트라기어</t>
+          <t>스마트모니터</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
@@ -4267,22 +4267,22 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>삼성전자 삼성 슈퍼 와이드 게이밍 120 DQHD C49RG90</t>
+          <t>한성컴퓨터 TFX133T DEX 포터블 HDR</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=18571615807</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=21918294654</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1857161/18571615807.20210203133352.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2191829/21918294654.20200428094627.jpg</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>1270000</t>
+          <t>229000</t>
         </is>
       </c>
       <c r="F68" t="inlineStr"/>
@@ -4298,12 +4298,12 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>삼성</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
@@ -4325,22 +4325,22 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>알파스캔 AOC 27B2 보더리스 75 시력보호</t>
+          <t>한성컴퓨터 TFX173T DEX 포터블 HDR</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=21720504796</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=21936338223</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2172050/21720504796.20210310171806.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2193633/21936338223.20200428094731.jpg</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>219000</t>
+          <t>379000</t>
         </is>
       </c>
       <c r="F69" t="inlineStr"/>
@@ -4356,12 +4356,12 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>알파스캔</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>알파스캔</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
@@ -4383,22 +4383,22 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>삼성전자 오디세이 G9 C49G95T</t>
+          <t>삼성전자 오디세이 G5 S27AG500 165</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=23255316490</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27611446522</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2325531/23255316490.20210203133605.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2761144/27611446522.20210617101529.jpg</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>1588400</t>
+          <t>599000</t>
         </is>
       </c>
       <c r="F70" t="inlineStr"/>
@@ -4441,22 +4441,22 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>알파스캔 AOC Q27G2S 155</t>
+          <t>LG전자 울트라기어 24GN600 144Hz</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24694967522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=26122103522</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2469496/24694967522.20210310172228.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2612210/26122103522.20210421174452.jpg</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>439000</t>
+          <t>248900</t>
         </is>
       </c>
       <c r="F71" t="inlineStr"/>
@@ -4472,12 +4472,12 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>알파스캔</t>
+          <t>울트라기어</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>알파스캔</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
@@ -4499,22 +4499,22 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>삼성전자 오디세이 G5 S27AG500 165</t>
+          <t>삼성전자 오디세이 G9 C49G95T</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27611446522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=23255316490</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2761144/27611446522.20210617101529.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2325531/23255316490.20210203133605.jpg</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>599000</t>
+          <t>1599950</t>
         </is>
       </c>
       <c r="F72" t="inlineStr"/>
@@ -4557,22 +4557,22 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>삼성전자 삼성 S8 UHD S27A800U</t>
+          <t>삼성전자 스마트모니터 M5 S27AM501</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=26744039522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=26870246522</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2674403/26744039522.20210628105549.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2687024/26870246522.20210422150359.jpg</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>548950</t>
+          <t>299000</t>
         </is>
       </c>
       <c r="F73" t="inlineStr"/>
@@ -4588,7 +4588,7 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>삼성</t>
+          <t>스마트모니터</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -4615,22 +4615,22 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>한성컴퓨터 TFG26F07WP IPS 울트라와이드</t>
+          <t>알파스캔 AOC 27B2 보더리스 75 시력보호</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=29125689586</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=21720504796</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2912568/29125689586.20211006161055.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2172050/21720504796.20210310171806.jpg</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>239000</t>
+          <t>219000</t>
         </is>
       </c>
       <c r="F74" t="inlineStr"/>
@@ -4646,12 +4646,12 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>알파스캔</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>알파스캔</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
@@ -4673,39 +4673,43 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>LG전자 그램+view 16MQ70 포터블 모니터 40.6cm WQXGA</t>
+          <t>알파스캔 AOC Q27G2S 155</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=30228593155</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24694967522</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3022859/30228593155.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2469496/24694967522.20210310172228.jpg</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>399000</t>
+          <t>439000</t>
         </is>
       </c>
       <c r="F75" t="inlineStr"/>
       <c r="G75" t="inlineStr">
         <is>
-          <t>롯데ON</t>
+          <t>네이버</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 비매칭 일반상품</t>
-        </is>
-      </c>
-      <c r="I75" t="inlineStr"/>
+          <t>일반 - 가격비교 상품</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>알파스캔</t>
+        </is>
+      </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>알파스캔</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
@@ -4727,22 +4731,22 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>삼성전자 삼성 S6 S32A600U 75</t>
+          <t>알파스캔 AOC 24B2 75 무결점</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=26393025523</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24171105522</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2639302/26393025523.20210317133734.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2417110/24171105522.20210310172014.jpg</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>379000</t>
+          <t>169000</t>
         </is>
       </c>
       <c r="F76" t="inlineStr"/>
@@ -4758,12 +4762,12 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>삼성</t>
+          <t>알파스캔</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>알파스캔</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
@@ -4785,22 +4789,22 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>벤큐 GW2480 아이케어 무결점</t>
+          <t>벤큐 EW3270U 아이케어</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=11846842637</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=14334382813</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1184684/11846842637.20220104144422.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1433438/14334382813.20220104145241.jpg</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>189000</t>
+          <t>509000</t>
         </is>
       </c>
       <c r="F77" t="inlineStr"/>
@@ -4843,22 +4847,22 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>벤큐 EW3270U 아이케어</t>
+          <t>삼성전자 삼성 S6 S32A600U 75</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=14334382813</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=26393025523</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1433438/14334382813.20220104145241.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2639302/26393025523.20210317133734.jpg</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>509000</t>
+          <t>379000</t>
         </is>
       </c>
       <c r="F78" t="inlineStr"/>
@@ -4874,12 +4878,12 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>벤큐</t>
+          <t>삼성</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>벤큐</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
@@ -4901,22 +4905,22 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>한성컴퓨터 TFG27Q14P 144</t>
+          <t>삼성전자 삼성 U32J590</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27327723522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=14306268525</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2732772/27327723522.20210527095004.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1430626/14306268525.20210203133511.jpg</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>379000</t>
+          <t>359000</t>
         </is>
       </c>
       <c r="F79" t="inlineStr"/>
@@ -4932,12 +4936,12 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>삼성</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
@@ -5017,22 +5021,22 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>삼성전자 스마트모니터 M5 S27AM500</t>
+          <t>한성컴퓨터 TFG27Q14P 144</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=25524380522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27327723522</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2552438/25524380522.20210302142816.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2732772/27327723522.20210527095004.jpg</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>317880</t>
+          <t>349000</t>
         </is>
       </c>
       <c r="F81" t="inlineStr"/>
@@ -5048,12 +5052,12 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>스마트모니터</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
@@ -5075,22 +5079,22 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>한성컴퓨터 TFX156PB</t>
+          <t>주연테크 V28UE</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=28193235522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=26322015522</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2819323/28193235522.20210728161135.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2632201/26322015522.20210311142212.jpg</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>309000</t>
+          <t>319000</t>
         </is>
       </c>
       <c r="F82" t="inlineStr"/>
@@ -5106,12 +5110,12 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>주연테크</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>주연테크</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
@@ -5133,22 +5137,22 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>알파스캔 AOC 24B2 75 무결점</t>
+          <t>제우스랩 알파플랜 P15A 포터블</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24171105522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=20651265453</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2417110/24171105522.20210310172014.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2065126/20651265453.20210726174943.jpg</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>169000</t>
+          <t>174990</t>
         </is>
       </c>
       <c r="F83" t="inlineStr"/>
@@ -5164,12 +5168,12 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>알파스캔</t>
+          <t>알파플랜</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>알파스캔</t>
+          <t>제우스랩</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
@@ -5191,22 +5195,22 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>삼성전자 삼성 U32J590</t>
+          <t>벤큐 XL2540K 240</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=14306268525</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=28506139554</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1430626/14306268525.20210203133511.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2850613/28506139554.20211126105315.jpg</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>359000</t>
+          <t>539000</t>
         </is>
       </c>
       <c r="F84" t="inlineStr"/>
@@ -5222,12 +5226,12 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>삼성</t>
+          <t>벤큐</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>벤큐</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
@@ -5249,22 +5253,22 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>LG전자 울트라와이드 29WP500</t>
+          <t>제이씨현시스템 유디아 EDGE ED2420NT 유케어 QHD 프리싱크 75</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=26886077522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27344486524</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2688607/26886077522.20210524134552.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2734448/27344486524.20210528141223.jpg</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>269000</t>
+          <t>179000</t>
         </is>
       </c>
       <c r="F85" t="inlineStr"/>
@@ -5280,12 +5284,12 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>울트라와이드</t>
+          <t>유디아</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>제이씨현시스템</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
@@ -5307,22 +5311,22 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>삼성전자 스마트모니터 M5 S27AM501</t>
+          <t>삼성전자 삼성 울트라 와이드 C34H890WG ASS(Auto Source Switch) USB-C</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=26870246522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=22435637412</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2687024/26870246522.20210422150359.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2243563/22435637412.20210203133722.jpg</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>333070</t>
+          <t>657000</t>
         </is>
       </c>
       <c r="F86" t="inlineStr"/>
@@ -5338,7 +5342,7 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>스마트모니터</t>
+          <t>삼성</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -5365,22 +5369,22 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>벤큐 XL2540K 240</t>
+          <t>한성컴퓨터 TFX156PB</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=28506139554</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=28193235522</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2850613/28506139554.20211126105315.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2819323/28193235522.20210728161135.jpg</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>539000</t>
+          <t>309000</t>
         </is>
       </c>
       <c r="F87" t="inlineStr"/>
@@ -5396,12 +5400,12 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>벤큐</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>벤큐</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
@@ -5423,22 +5427,22 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>한성컴퓨터 TFX173PB</t>
+          <t>LG전자 울트라와이드 29WP500</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=28175063522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=26886077522</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2817506/28175063522.20210727143057.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2688607/26886077522.20210524134552.jpg</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>409000</t>
+          <t>269000</t>
         </is>
       </c>
       <c r="F88" t="inlineStr"/>
@@ -5454,12 +5458,12 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>울트라와이드</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
@@ -5481,22 +5485,22 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>LG전자 27MP400</t>
+          <t>벤큐 EW2780 아이케어 무결점 IPS 초슬림베젤</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27777660523</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=21259132606</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2777766/27777660523.20210629141609.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2125913/21259132606.20211118104615.jpg</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>228900</t>
+          <t>279000</t>
         </is>
       </c>
       <c r="F89" t="inlineStr"/>
@@ -5512,12 +5516,12 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>벤큐</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>벤큐</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
@@ -5539,22 +5543,22 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>LG전자 그램+뷰 16MQ70</t>
+          <t>LG전자 울트라기어 32GP850</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=30377313618</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27405944522</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3037731/30377313618.20211231144328.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2740594/27405944522.20210602113458.jpg</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>399000</t>
+          <t>748900</t>
         </is>
       </c>
       <c r="F90" t="inlineStr"/>
@@ -5570,7 +5574,7 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>울트라기어</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -5597,22 +5601,22 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>삼성전자 오디세이 G3 F27G33T</t>
+          <t>벤큐 모비우스 EX2710S</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=26937157524</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27862189523</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2693715/26937157524.20210427144554.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2786218/27862189523.20211116103224.jpg</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>279000</t>
+          <t>369000</t>
         </is>
       </c>
       <c r="F91" t="inlineStr"/>
@@ -5628,12 +5632,12 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>오디세이</t>
+          <t>벤큐</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>벤큐</t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
@@ -5655,22 +5659,22 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>삼성전자 삼성 S8 UHD S27A800N</t>
+          <t>삼성전자 오디세이 G7 C32G75T</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27191403522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=23021445490</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2719140/27191403522.20210518160236.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2302144/23021445490.20201027170431.jpg</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>489000</t>
+          <t>769000</t>
         </is>
       </c>
       <c r="F92" t="inlineStr"/>
@@ -5686,7 +5690,7 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>삼성</t>
+          <t>오디세이</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -5713,22 +5717,22 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>삼성전자 삼성 S34J550</t>
+          <t>좋은디에스아이 GD-27F75H SUN SLIM</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=15704895486</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=21635049607</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1570489/15704895486.20210203133054.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2163504/21635049607.20211122174954.jpg</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>429000</t>
+          <t>171950</t>
         </is>
       </c>
       <c r="F93" t="inlineStr"/>
@@ -5744,12 +5748,12 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>삼성</t>
+          <t>좋은디에스아이</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>좋은디에스아이</t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
@@ -5771,22 +5775,22 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>좋은디에스아이 GD-27F75H SUN SLIM</t>
+          <t>LG전자 27MP400</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=21635049607</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27777660523</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2163504/21635049607.20211122174954.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2777766/27777660523.20210629141609.jpg</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>171950</t>
+          <t>228900</t>
         </is>
       </c>
       <c r="F94" t="inlineStr"/>
@@ -5802,12 +5806,12 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>좋은디에스아이</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>좋은디에스아이</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K94" t="inlineStr">
@@ -5829,22 +5833,22 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>벤큐 모비우스 EX2710S</t>
+          <t>삼성전자 오디세이 G3 F27G33T</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27862189523</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=26937157524</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2786218/27862189523.20211116103224.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2693715/26937157524.20210427144554.jpg</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>368990</t>
+          <t>279000</t>
         </is>
       </c>
       <c r="F95" t="inlineStr"/>
@@ -5860,12 +5864,12 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>벤큐</t>
+          <t>오디세이</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>벤큐</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K95" t="inlineStr">
@@ -5887,22 +5891,22 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>삼성전자 오디세이 G7 C32G75T</t>
+          <t>삼성전자 삼성 S34J550</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=23021445490</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=15704895486</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2302144/23021445490.20201027170431.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1570489/15704895486.20210203133054.jpg</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>769000</t>
+          <t>413520</t>
         </is>
       </c>
       <c r="F96" t="inlineStr"/>
@@ -5918,7 +5922,7 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>오디세이</t>
+          <t>삼성</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -5945,22 +5949,22 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>LG전자 울트라기어 32GP850</t>
+          <t>한성컴퓨터 TFX173PB</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27405944522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=28175063522</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2740594/27405944522.20210602113458.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2817506/28175063522.20210727143057.jpg</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>748900</t>
+          <t>409000</t>
         </is>
       </c>
       <c r="F97" t="inlineStr"/>
@@ -5976,12 +5980,12 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>울트라기어</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="K97" t="inlineStr">
@@ -6003,22 +6007,22 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>삼성전자 삼성 울트라 와이드 C34H890WG ASS(Auto Source Switch) USB-C</t>
+          <t>LG전자 24MK600M</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=22435637412</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=14556210024</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2243563/22435637412.20210203133722.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1455621/14556210024.20210406134738.jpg</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>657000</t>
+          <t>198900</t>
         </is>
       </c>
       <c r="F98" t="inlineStr"/>
@@ -6034,12 +6038,12 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>삼성</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K98" t="inlineStr">
@@ -6061,22 +6065,22 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>LG전자 24MK600M</t>
+          <t>벤큐 XL2411P 아이케어</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=14556210024</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=12954974985</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1455621/14556210024.20210406134738.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1295497/12954974985.20211126152630.jpg</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>198900</t>
+          <t>299000</t>
         </is>
       </c>
       <c r="F99" t="inlineStr"/>
@@ -6092,12 +6096,12 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>벤큐</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>벤큐</t>
         </is>
       </c>
       <c r="K99" t="inlineStr">
@@ -6119,22 +6123,22 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>알파스캔 AOC 27G2 게이밍 144 프리싱크</t>
+          <t>삼성전자 삼성 S27R35A</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=21667682703</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=25885966522</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2166768/21667682703.20210311170213.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2588596/25885966522.20210205160851.jpg</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>339000</t>
+          <t>228400</t>
         </is>
       </c>
       <c r="F100" t="inlineStr"/>
@@ -6150,12 +6154,12 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>알파스캔</t>
+          <t>삼성</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>알파스캔</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K100" t="inlineStr">
@@ -6177,22 +6181,22 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>LG전자 울트라와이드 34WN650</t>
+          <t>LG전자 그램+뷰 16MQ70</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=23751525490</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=30377313618</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2375152/23751525490.20210406135251.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3037731/30377313618.20211231144328.jpg</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>448900</t>
+          <t>399000</t>
         </is>
       </c>
       <c r="F101" t="inlineStr"/>
@@ -6208,7 +6212,7 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>울트라와이드</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">

--- a/output.xlsx
+++ b/output.xlsx
@@ -439,22 +439,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>삼성전자 삼성 F24T350</t>
+          <t>삼성전자 삼성 F27T350</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24007197522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=23996451524</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2400719/24007197522.20210302142445.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2399645/23996451524.20210302142600.jpg</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>182000</t>
+          <t>209000</t>
         </is>
       </c>
       <c r="F2" t="inlineStr"/>
@@ -497,22 +497,22 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>삼성전자 삼성 F27T350</t>
+          <t>삼성전자 삼성 F24T350</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=23996451524</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24007197522</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2399645/23996451524.20210302142600.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2400719/24007197522.20210302142445.jpg</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>209000</t>
+          <t>182000</t>
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
@@ -570,7 +570,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>216600</t>
+          <t>228000</t>
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
@@ -903,22 +903,22 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>LG전자 24MK430H 24인치 FHD IPS 광시야각 모니터</t>
+          <t>LG전자 27MN430HW</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=13643814149</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=23301354490</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1364381/13643814149.20200824151155.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2330135/23301354490.20200824152000.jpg</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>184900</t>
+          <t>222220</t>
         </is>
       </c>
       <c r="F10" t="inlineStr"/>
@@ -961,22 +961,22 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>LG전자 27MN430HW</t>
+          <t>LG전자 24MK430H 24인치 FHD IPS 광시야각 모니터</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=23301354490</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=13643814149</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2330135/23301354490.20200824152000.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1364381/13643814149.20200824151155.jpg</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>222220</t>
+          <t>184900</t>
         </is>
       </c>
       <c r="F11" t="inlineStr"/>
@@ -1135,22 +1135,22 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>LG전자 울트라HD 32UN650</t>
+          <t>벤큐 GW2780 아이케어</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24635274522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=11846746201</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2463527/24635274522.20210405173537.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1184674/11846746201.20220104144743.jpg</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>598000</t>
+          <t>216830</t>
         </is>
       </c>
       <c r="F14" t="inlineStr"/>
@@ -1166,12 +1166,12 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>울트라HD</t>
+          <t>벤큐</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>벤큐</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -1193,22 +1193,22 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>벤큐 GW2780 아이케어</t>
+          <t>LG전자 울트라HD 32UN650</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=11846746201</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24635274522</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1184674/11846746201.20220104144743.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2463527/24635274522.20210405173537.jpg</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>216830</t>
+          <t>598000</t>
         </is>
       </c>
       <c r="F15" t="inlineStr"/>
@@ -1224,12 +1224,12 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>벤큐</t>
+          <t>울트라HD</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>벤큐</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -1251,22 +1251,22 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>한성컴퓨터 ULTRON 2460G 리얼 144 게이밍</t>
+          <t>ASUS VG278QR</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=20471652225</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=18214439726</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2047165/20471652225.20200424094042.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1821443/18214439726.20190620142310.jpg</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>179000</t>
+          <t>295000</t>
         </is>
       </c>
       <c r="F16" t="inlineStr"/>
@@ -1282,12 +1282,12 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>ASUS</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>ASUS</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -1309,22 +1309,22 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>ASUS VG278QR</t>
+          <t>ASUS VA24DQLB</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=18214439726</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=23257141490</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1821443/18214439726.20190620142310.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2325714/23257141490.20200720175614.jpg</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>295000</t>
+          <t>219000</t>
         </is>
       </c>
       <c r="F17" t="inlineStr"/>
@@ -1367,22 +1367,22 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>ASUS VA24DQLB</t>
+          <t>한성컴퓨터 ULTRON 2460G 리얼 144 게이밍</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=23257141490</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=20471652225</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2325714/23257141490.20200720175614.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2047165/20471652225.20200424094042.jpg</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>219000</t>
+          <t>179000</t>
         </is>
       </c>
       <c r="F18" t="inlineStr"/>
@@ -1398,12 +1398,12 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>ASUS</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>ASUS</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -1425,22 +1425,22 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>LG전자 24ML600SW</t>
+          <t>삼성전자 스마트모니터 M7 S43AM700</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=19105796246</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27215825524</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1910579/19105796246.20200824152520.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2721582/27215825524.20210520173025.jpg</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>210000</t>
+          <t>619000</t>
         </is>
       </c>
       <c r="F19" t="inlineStr"/>
@@ -1456,12 +1456,12 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>스마트모니터</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
@@ -1483,22 +1483,22 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>삼성전자 스마트모니터 M7 S43AM700</t>
+          <t>LG전자 32QN650</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27215825524</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=23692201495</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2721582/27215825524.20210520173025.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2369220/23692201495.20210406132235.jpg</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>619000</t>
+          <t>397350</t>
         </is>
       </c>
       <c r="F20" t="inlineStr"/>
@@ -1514,12 +1514,12 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>스마트모니터</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -1599,22 +1599,22 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>한성컴퓨터 ULTRON 2435V 프리싱크 리얼75</t>
+          <t>LG전자 24ML600SW</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=13487979407</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=19105796246</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1348797/13487979407.20211116100954.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1910579/19105796246.20200824152520.jpg</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>149000</t>
+          <t>210000</t>
         </is>
       </c>
       <c r="F22" t="inlineStr"/>
@@ -1630,12 +1630,12 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>292700</t>
+          <t>299000</t>
         </is>
       </c>
       <c r="F23" t="inlineStr"/>
@@ -1715,22 +1715,22 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>한성컴퓨터 ULTRON 2758 프리싱크 리얼 75</t>
+          <t>삼성전자 오디세이 G5 C27G54T</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=14816445651</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=23896119522</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1481644/14816445651.20200429170907.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2389611/23896119522.20210302142506.jpg</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>179000</t>
+          <t>332100</t>
         </is>
       </c>
       <c r="F24" t="inlineStr"/>
@@ -1746,12 +1746,12 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>오디세이</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -1773,22 +1773,22 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>LG전자 32QN650</t>
+          <t>한성컴퓨터 ULTRON 2435V 프리싱크 리얼75</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=23692201495</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=13487979407</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2369220/23692201495.20210406132235.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1348797/13487979407.20211116100954.jpg</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>397490</t>
+          <t>149000</t>
         </is>
       </c>
       <c r="F25" t="inlineStr"/>
@@ -1804,12 +1804,12 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -1831,22 +1831,22 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>삼성전자 오디세이 G5 C27G54T</t>
+          <t>ASUS VG258QR</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=23896119522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=18323660111</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2389611/23896119522.20210302142506.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1832366/18323660111.20190620142114.jpg</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>349000</t>
+          <t>237000</t>
         </is>
       </c>
       <c r="F26" t="inlineStr"/>
@@ -1862,12 +1862,12 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>오디세이</t>
+          <t>ASUS</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>ASUS</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
@@ -1889,22 +1889,22 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>ASUS VG258QR</t>
+          <t>한성컴퓨터 ULTRON 2758 프리싱크 리얼 75</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=18323660111</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=14816445651</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1832366/18323660111.20190620142114.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1481644/14816445651.20200429170907.jpg</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>237000</t>
+          <t>179000</t>
         </is>
       </c>
       <c r="F27" t="inlineStr"/>
@@ -1920,12 +1920,12 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>ASUS</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>ASUS</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -2005,22 +2005,22 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>삼성전자 삼성 S27R350</t>
+          <t>한성컴퓨터 TFG27Q14V 1500R 리얼 144 게이밍</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=21775935202</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=20812959649</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2177593/21775935202.20210203132859.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2081295/20812959649.20200424095919.jpg</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>247000</t>
+          <t>279000</t>
         </is>
       </c>
       <c r="F29" t="inlineStr"/>
@@ -2036,12 +2036,12 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>삼성</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
@@ -2063,22 +2063,22 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>한성컴퓨터 TFG32Q07P 75</t>
+          <t>한성컴퓨터 TFG34Q14WQ 퀀텀닷 1500R 리얼 144 울트라와이드 게이밍</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=28655748554</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=22312278223</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2865574/28655748554.20210831152013.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2231227/22312278223.20220215171608.jpg</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>269000</t>
+          <t>429000</t>
         </is>
       </c>
       <c r="F30" t="inlineStr"/>
@@ -2179,22 +2179,22 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>ASUS VP249QGR</t>
+          <t>한성컴퓨터 TFG32F24V 240</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=23257115490</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=28162745522</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2325711/23257115490.20211125152957.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2816274/28162745522.20210726183542.jpg</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>236870</t>
+          <t>299000</t>
         </is>
       </c>
       <c r="F32" t="inlineStr"/>
@@ -2210,12 +2210,12 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>ASUS</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>ASUS</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
@@ -2237,22 +2237,22 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>한성컴퓨터 TFG32F24V 240</t>
+          <t>삼성전자 삼성 S27R350</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=28162745522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=21775935202</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2816274/28162745522.20210726183542.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2177593/21775935202.20210203132859.jpg</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>299000</t>
+          <t>247000</t>
         </is>
       </c>
       <c r="F33" t="inlineStr"/>
@@ -2268,12 +2268,12 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>삼성</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
@@ -2295,22 +2295,22 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>한성컴퓨터 TFG34Q14WQ 퀀텀닷 1500R 리얼 144 울트라와이드 게이밍</t>
+          <t>LG전자 27TN600S</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=22312278223</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=21745903830</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2231227/22312278223.20220215171608.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2174590/21745903830.20200824150453.jpg</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>429000</t>
+          <t>378600</t>
         </is>
       </c>
       <c r="F34" t="inlineStr"/>
@@ -2326,12 +2326,12 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
@@ -2353,22 +2353,22 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>삼성전자 스마트모니터 M7 S32AM701</t>
+          <t>한성컴퓨터 TFG32Q07P 75</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=29724256618</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=28655748554</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2972425/29724256618.20211117133727.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2865574/28655748554.20210831152013.jpg</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>509000</t>
+          <t>269000</t>
         </is>
       </c>
       <c r="F35" t="inlineStr"/>
@@ -2384,12 +2384,12 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>스마트모니터</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
@@ -2469,22 +2469,22 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>한성컴퓨터 TFG27Q14V 1500R 리얼 144 게이밍</t>
+          <t>삼성전자 오디세이 G5 G55A S27AG550 165</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=20812959649</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=30454173618</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2081295/20812959649.20200424095919.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3045417/30454173618.20220107132754.jpg</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>279000</t>
+          <t>399000</t>
         </is>
       </c>
       <c r="F37" t="inlineStr"/>
@@ -2500,12 +2500,12 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>오디세이</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
@@ -2527,22 +2527,22 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>삼성전자 오디세이 G5 C32G54T</t>
+          <t>ASUS VP249QGR</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=23896004523</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=23257115490</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2389600/23896004523.20210203132926.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2325711/23257115490.20211125152957.jpg</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>389000</t>
+          <t>236870</t>
         </is>
       </c>
       <c r="F38" t="inlineStr"/>
@@ -2558,12 +2558,12 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>오디세이</t>
+          <t>ASUS</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>ASUS</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
@@ -2585,22 +2585,22 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>LG전자 27TN600S</t>
+          <t>삼성전자 오디세이 G5 C32G54T</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=21745903830</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=23896004523</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2174590/21745903830.20200824150453.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2389600/23896004523.20210203132926.jpg</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>378800</t>
+          <t>389000</t>
         </is>
       </c>
       <c r="F39" t="inlineStr"/>
@@ -2616,12 +2616,12 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>오디세이</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
@@ -2643,22 +2643,22 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>한성컴퓨터 TFX133T DEX 포터블 HDR</t>
+          <t>한성컴퓨터 TFG32Q14F 144</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=21918294654</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24439846522</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2191829/21918294654.20200428094627.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2443984/24439846522.20201013113723.jpg</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>229000</t>
+          <t>329000</t>
         </is>
       </c>
       <c r="F40" t="inlineStr"/>
@@ -2701,22 +2701,22 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>한성컴퓨터 TFG32F07V 1500R 커브드 게이밍 리얼 75</t>
+          <t>한성컴퓨터 TFG32F14F 144</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=20882835913</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24380347522</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2088283/20882835913.20200424100013.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2438034/24380347522.20201007114746.jpg</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>219000</t>
+          <t>269000</t>
         </is>
       </c>
       <c r="F41" t="inlineStr"/>
@@ -2759,22 +2759,22 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>한성컴퓨터 TFG32Q14F 144</t>
+          <t>LG전자 27MK430H</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24439846522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=15183175543</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2443984/24439846522.20201013113723.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1518317/15183175543.20200824151717.jpg</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>329000</t>
+          <t>222220</t>
         </is>
       </c>
       <c r="F42" t="inlineStr"/>
@@ -2790,12 +2790,12 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
@@ -2817,22 +2817,22 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>한성컴퓨터 TFG27F14P IPS 144</t>
+          <t>한성컴퓨터 TFG32F07V 1500R 커브드 게이밍 리얼 75</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=23258436490</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=20882835913</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2325843/23258436490.20200624161211.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2088283/20882835913.20200424100013.jpg</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>249000</t>
+          <t>219000</t>
         </is>
       </c>
       <c r="F43" t="inlineStr"/>
@@ -2875,22 +2875,22 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>LG전자 27MK430H</t>
+          <t>삼성전자 스마트모니터 M5 S32AM500</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=15183175543</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=25524342522</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1518317/15183175543.20200824151717.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2552434/25524342522.20210302142529.jpg</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>222220</t>
+          <t>359000</t>
         </is>
       </c>
       <c r="F44" t="inlineStr"/>
@@ -2906,12 +2906,12 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>스마트모니터</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
@@ -2933,22 +2933,22 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>한성컴퓨터 TFG32F14F 144</t>
+          <t>한성컴퓨터 TFX133T DEX 포터블 HDR</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24380347522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=21918294654</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2438034/24380347522.20201007114746.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2191829/21918294654.20200428094627.jpg</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>269000</t>
+          <t>229000</t>
         </is>
       </c>
       <c r="F45" t="inlineStr"/>
@@ -2991,22 +2991,22 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>삼성전자 스마트모니터 M5 S32AM500</t>
+          <t>삼성전자 스마트모니터 M7 S32AM700</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=25524342522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=25524333522</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2552434/25524342522.20210302142529.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2552433/25524333522.20210203133321.jpg</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>359000</t>
+          <t>468900</t>
         </is>
       </c>
       <c r="F46" t="inlineStr"/>
@@ -3049,22 +3049,22 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>벤큐 GW2480 아이케어 무결점</t>
+          <t>삼성전자 스마트모니터 M7 S32AM701</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=11846842637</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=29724256618</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1184684/11846842637.20220104144422.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2972425/29724256618.20211117133727.jpg</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>179000</t>
+          <t>509000</t>
         </is>
       </c>
       <c r="F47" t="inlineStr"/>
@@ -3080,12 +3080,12 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>벤큐</t>
+          <t>스마트모니터</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>벤큐</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
@@ -3107,22 +3107,22 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>삼성전자 스마트모니터 M7 S32AM700</t>
+          <t>한성컴퓨터 TFG27F14P IPS 144</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=25524333522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=23258436490</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2552433/25524333522.20210203133321.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2325843/23258436490.20200624161211.jpg</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>469000</t>
+          <t>249000</t>
         </is>
       </c>
       <c r="F48" t="inlineStr"/>
@@ -3138,12 +3138,12 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>스마트모니터</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
@@ -3165,22 +3165,22 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>삼성전자 오디세이 G5 G55A S27AG550 165</t>
+          <t>한성컴퓨터 TFG39Q14V 144</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=30454173618</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=26826361522</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3045417/30454173618.20220107132754.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2682636/26826361522.20210419161946.jpg</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>399000</t>
+          <t>479000</t>
         </is>
       </c>
       <c r="F49" t="inlineStr"/>
@@ -3196,12 +3196,12 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>오디세이</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
@@ -3223,22 +3223,22 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>한성컴퓨터 TFG39Q14V 144</t>
+          <t>LG전자 울트라기어 27GN650</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=26826361522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=25413919522</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2682636/26826361522.20210419161946.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2541391/25413919522.20220125134231.jpg</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>479000</t>
+          <t>398890</t>
         </is>
       </c>
       <c r="F50" t="inlineStr"/>
@@ -3254,12 +3254,12 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>울트라기어</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
@@ -3281,22 +3281,22 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>LG전자 그램+뷰 16MQ70</t>
+          <t>삼성전자 오디세이 G3 S27AG300 144</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=30377313618</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27535066522</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3037731/30377313618.20211231144328.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2753506/27535066522.20210611135052.jpg</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>374160</t>
+          <t>298000</t>
         </is>
       </c>
       <c r="F51" t="inlineStr"/>
@@ -3312,12 +3312,12 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>오디세이</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
@@ -3339,22 +3339,22 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>LG전자 울트라기어 27GN650</t>
+          <t>삼성전자 삼성 S34J550</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=25413919522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=15704895486</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2541391/25413919522.20220125134231.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1570489/15704895486.20210203133054.jpg</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>398890</t>
+          <t>386000</t>
         </is>
       </c>
       <c r="F52" t="inlineStr"/>
@@ -3370,12 +3370,12 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>울트라기어</t>
+          <t>삼성</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
@@ -3397,22 +3397,22 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>벤큐 XL2546K</t>
+          <t>ASUS ZenScreen MB16AMT</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24235203522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=21151726572</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2423520/24235203522.20211117182410.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2115172/21151726572.20211125153749.jpg</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>684280</t>
+          <t>548000</t>
         </is>
       </c>
       <c r="F53" t="inlineStr"/>
@@ -3428,12 +3428,12 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>벤큐</t>
+          <t>ASUS</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>벤큐</t>
+          <t>ASUS</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
@@ -3455,22 +3455,22 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>삼성전자 오디세이 Neo G9 S49AG950 49인치 게이밍 모니터</t>
+          <t>벤큐 GW2480 아이케어 무결점</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=28288984554</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=11846842637</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2828898/28288984554.20210810100808.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1184684/11846842637.20220104144422.jpg</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>2190000</t>
+          <t>179000</t>
         </is>
       </c>
       <c r="F54" t="inlineStr"/>
@@ -3486,12 +3486,12 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>오디세이</t>
+          <t>벤큐</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>벤큐</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
@@ -3513,22 +3513,22 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>삼성전자 삼성 S6 S34A650U 100</t>
+          <t>삼성전자 스마트모니터 M5 S32AM501</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=26393243522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=26870008522</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2639324/26393243522.20210317135044.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2687000/26870008522.20210422145112.jpg</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>599000</t>
+          <t>368990</t>
         </is>
       </c>
       <c r="F55" t="inlineStr"/>
@@ -3544,7 +3544,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>삼성</t>
+          <t>스마트모니터</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3571,22 +3571,22 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>삼성전자 삼성 S8 UHD S32A800</t>
+          <t>삼성전자 오디세이 Neo G9 S49AG950 49인치 게이밍 모니터</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=26743764522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=28288984554</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2674376/26743764522.20210628105349.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2828898/28288984554.20210810100808.jpg</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>379000</t>
+          <t>2190000</t>
         </is>
       </c>
       <c r="F56" t="inlineStr"/>
@@ -3602,7 +3602,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>삼성</t>
+          <t>오디세이</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3629,22 +3629,22 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>삼성전자 삼성 U32J590</t>
+          <t>LG전자 그램+뷰 16MQ70</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=14306268525</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=30377313618</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1430626/14306268525.20210203133511.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3037731/30377313618.20211231144328.jpg</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>371990</t>
+          <t>373970</t>
         </is>
       </c>
       <c r="F57" t="inlineStr"/>
@@ -3660,12 +3660,12 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>삼성</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
@@ -3687,22 +3687,22 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>LG전자 울트라기어 27GP950</t>
+          <t>삼성전자 삼성 U32J590</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=29937269619</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=14306268525</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2993726/29937269619.20220126112430.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1430626/14306268525.20210203133511.jpg</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>1189900</t>
+          <t>371990</t>
         </is>
       </c>
       <c r="F58" t="inlineStr"/>
@@ -3718,12 +3718,12 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>울트라기어</t>
+          <t>삼성</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
@@ -3745,22 +3745,22 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>삼성전자 오디세이 G3 S27AG300 144</t>
+          <t>벤큐 XL2546K</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27535066522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24235203522</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2753506/27535066522.20210611135052.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2423520/24235203522.20211117182410.jpg</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>298000</t>
+          <t>698900</t>
         </is>
       </c>
       <c r="F59" t="inlineStr"/>
@@ -3776,12 +3776,12 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>오디세이</t>
+          <t>벤큐</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>벤큐</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
@@ -3803,22 +3803,22 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>한성컴퓨터 TFG29F07WP IPS 울트라와이드</t>
+          <t>삼성전자 삼성 S6 S34A650U 100</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=29125693586</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=26393243522</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2912569/29125693586.20211006161419.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2639324/26393243522.20210317135044.jpg</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>239000</t>
+          <t>599000</t>
         </is>
       </c>
       <c r="F60" t="inlineStr"/>
@@ -3834,12 +3834,12 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>삼성</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
@@ -3919,22 +3919,22 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>LG전자 울트라기어 24GN600 144Hz</t>
+          <t>한성컴퓨터 TFG29F07WP IPS 울트라와이드</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=26122103522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=29125693586</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2612210/26122103522.20220124181046.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2912569/29125693586.20211006161419.jpg</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>248700</t>
+          <t>239000</t>
         </is>
       </c>
       <c r="F62" t="inlineStr"/>
@@ -3950,12 +3950,12 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>울트라기어</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
@@ -3977,22 +3977,22 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>한성컴퓨터 TFX156T DEX 포터블 HDR</t>
+          <t>삼성전자 삼성 S8 UHD S32A800</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=21936337549</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=26743764522</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2193633/21936337549.20200428094649.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2674376/26743764522.20210628105349.jpg</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>269000</t>
+          <t>379000</t>
         </is>
       </c>
       <c r="F63" t="inlineStr"/>
@@ -4008,12 +4008,12 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>삼성</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
@@ -4035,22 +4035,22 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>삼성전자 삼성 S34J550</t>
+          <t>한성컴퓨터 TFX156T DEX 포터블 HDR</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=15704895486</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=21936337549</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1570489/15704895486.20210203133054.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2193633/21936337549.20200428094649.jpg</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>386000</t>
+          <t>269000</t>
         </is>
       </c>
       <c r="F64" t="inlineStr"/>
@@ -4066,12 +4066,12 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>삼성</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
@@ -4093,22 +4093,22 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>ASUS ZenScreen MB16AMT</t>
+          <t>알파스캔 AOC Q27G2S 155</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=21151726572</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24694967522</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2115172/21151726572.20211125153749.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2469496/24694967522.20210310172228.jpg</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>548000</t>
+          <t>439000</t>
         </is>
       </c>
       <c r="F65" t="inlineStr"/>
@@ -4124,12 +4124,12 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>ASUS</t>
+          <t>알파스캔</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>ASUS</t>
+          <t>알파스캔</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
@@ -4151,22 +4151,22 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>삼성전자 오디세이 G7 S28AG700 144</t>
+          <t>LG전자 울트라기어 24GN600 144Hz</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27792355522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=26122103522</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2779235/27792355522.20210630172820.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2612210/26122103522.20220124181046.jpg</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>726280</t>
+          <t>248700</t>
         </is>
       </c>
       <c r="F66" t="inlineStr"/>
@@ -4182,12 +4182,12 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>오디세이</t>
+          <t>울트라기어</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
@@ -4209,22 +4209,22 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>삼성전자 스마트모니터 M5 S32AM501</t>
+          <t>삼성전자 오디세이 G5 C34G55T 165</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=26870008522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=25744041522</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2687000/26870008522.20210422145112.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2574404/25744041522.20210324143655.jpg</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>369000</t>
+          <t>551700</t>
         </is>
       </c>
       <c r="F67" t="inlineStr"/>
@@ -4240,7 +4240,7 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>스마트모니터</t>
+          <t>오디세이</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -4267,22 +4267,22 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>LG전자 24MK600M</t>
+          <t>좋은디에스아이 GD-24H75 SUN SLIM</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=14556210024</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=20744602820</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1455621/14556210024.20210406134738.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2074460/20744602820.20211012160745.jpg</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>200900</t>
+          <t>148000</t>
         </is>
       </c>
       <c r="F68" t="inlineStr"/>
@@ -4298,12 +4298,12 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>좋은디에스아이</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>좋은디에스아이</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
@@ -4325,22 +4325,22 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>제우스랩 알파플랜 P15A 포터블</t>
+          <t>LG전자 울트라HD 27UL550</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=20651265453</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=19298157033</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2065126/20651265453.20210726174943.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1929815/19298157033.20200824143609.jpg</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>174990</t>
+          <t>448000</t>
         </is>
       </c>
       <c r="F69" t="inlineStr"/>
@@ -4356,12 +4356,12 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>알파플랜</t>
+          <t>울트라HD</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>제우스랩</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
@@ -4383,22 +4383,22 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>주연테크 V28UE</t>
+          <t>한성컴퓨터 TFX156T PRO DEX 포터블 400cd 멀티터치</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=26322015522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=26158967522</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2632201/26322015522.20210311142212.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2615896/26158967522.20210226123516.jpg</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>319000</t>
+          <t>299000</t>
         </is>
       </c>
       <c r="F70" t="inlineStr"/>
@@ -4414,12 +4414,12 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>주연테크</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>주연테크</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
@@ -4441,22 +4441,22 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>알파스캔 AOC Q27G2S 155</t>
+          <t>주연테크 V28UE</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24694967522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=26322015522</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2469496/24694967522.20210310172228.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2632201/26322015522.20210311142212.jpg</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>439000</t>
+          <t>339000</t>
         </is>
       </c>
       <c r="F71" t="inlineStr"/>
@@ -4472,12 +4472,12 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>알파스캔</t>
+          <t>주연테크</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>알파스캔</t>
+          <t>주연테크</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
@@ -4499,22 +4499,22 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>좋은디에스아이 GD-24H75 SUN SLIM</t>
+          <t>삼성전자 삼성 슈퍼 와이드 게이밍 120 DQHD C49RG90</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=20744602820</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=18571615807</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2074460/20744602820.20211012160745.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1857161/18571615807.20210203133352.jpg</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>148000</t>
+          <t>1269000</t>
         </is>
       </c>
       <c r="F72" t="inlineStr"/>
@@ -4530,12 +4530,12 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>좋은디에스아이</t>
+          <t>삼성</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>좋은디에스아이</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
@@ -4557,22 +4557,22 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>한성컴퓨터 TFG27Q14P 144</t>
+          <t>삼성전자 오디세이 G7 S28AG700 144</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27327723522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27792355522</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2732772/27327723522.20210527095004.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2779235/27792355522.20210630172820.jpg</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>329000</t>
+          <t>726280</t>
         </is>
       </c>
       <c r="F73" t="inlineStr"/>
@@ -4588,12 +4588,12 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>오디세이</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
@@ -4615,22 +4615,22 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>삼성전자 삼성 C32T550</t>
+          <t>LG전자 27QN600</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=22448790144</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=23849172522</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2244879/22448790144.20210203133005.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2384917/23849172522.20210406141920.jpg</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>361000</t>
+          <t>318880</t>
         </is>
       </c>
       <c r="F74" t="inlineStr"/>
@@ -4646,12 +4646,12 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>삼성</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
@@ -4673,22 +4673,22 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>삼성전자 오디세이 G5 C34G55T 165</t>
+          <t>삼성전자 삼성 C32T550</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=25744041522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=22448790144</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2574404/25744041522.20210324143655.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2244879/22448790144.20210203133005.jpg</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>551700</t>
+          <t>361000</t>
         </is>
       </c>
       <c r="F75" t="inlineStr"/>
@@ -4704,7 +4704,7 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>오디세이</t>
+          <t>삼성</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -4731,22 +4731,22 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>주연테크 캐리뷰B V15FPB</t>
+          <t>LG전자 24MK600M</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=23671519490</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=14556210024</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2367151/23671519490.20210118153246.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1455621/14556210024.20210406134738.jpg</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>295850</t>
+          <t>200900</t>
         </is>
       </c>
       <c r="F76" t="inlineStr"/>
@@ -4762,12 +4762,12 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>주연테크</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>주연테크</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
@@ -4789,22 +4789,22 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>삼성전자 오디세이 G3 S24AG300 144</t>
+          <t>제우스랩 알파플랜 P15A 포터블</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27534600522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=20651265453</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2753460/27534600522.20210611131536.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2065126/20651265453.20210726174943.jpg</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>249000</t>
+          <t>174990</t>
         </is>
       </c>
       <c r="F77" t="inlineStr"/>
@@ -4820,12 +4820,12 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>오디세이</t>
+          <t>알파플랜</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>제우스랩</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
@@ -4847,22 +4847,22 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>삼성전자 삼성 슈퍼 와이드 게이밍 120 DQHD C49RG90</t>
+          <t>한성컴퓨터 TFG27Q14P 144</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=18571615807</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27327723522</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1857161/18571615807.20210203133352.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2732772/27327723522.20210527095004.jpg</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>1269000</t>
+          <t>329000</t>
         </is>
       </c>
       <c r="F78" t="inlineStr"/>
@@ -4878,12 +4878,12 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>삼성</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
@@ -4905,22 +4905,22 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>한성컴퓨터 TFX173T DEX 포터블 HDR</t>
+          <t>한성컴퓨터 TFX173PB</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=21936338223</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=28175063522</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2193633/21936338223.20200428094731.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2817506/28175063522.20210727143057.jpg</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>379000</t>
+          <t>409000</t>
         </is>
       </c>
       <c r="F79" t="inlineStr"/>
@@ -4963,22 +4963,22 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>LG전자 27QN600</t>
+          <t>삼성전자 삼성 F24T450</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=23849172522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24007200522</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2384917/23849172522.20210406141920.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2400720/24007200522.20210203133027.jpg</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>318880</t>
+          <t>238000</t>
         </is>
       </c>
       <c r="F80" t="inlineStr"/>
@@ -4994,12 +4994,12 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>삼성</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
@@ -5021,22 +5021,22 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>필립스 271E1 프리싱크 75 시력보호 제로베젤</t>
+          <t>삼성전자 오디세이 G7 C27G75T</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=21496753758</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=23021385490</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2149675/21496753758.20200221173844.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2302138/23021385490.20200803121144.jpg</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>229000</t>
+          <t>632000</t>
         </is>
       </c>
       <c r="F81" t="inlineStr"/>
@@ -5052,12 +5052,12 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>필립스</t>
+          <t>오디세이</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>필립스</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
@@ -5079,22 +5079,22 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>한성컴퓨터 TFX156T PRO DEX 포터블 400cd 멀티터치</t>
+          <t>벤큐 모비우스 EX2710S</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=26158967522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27862189523</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2615896/26158967522.20210226123516.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2786218/27862189523.20211116103224.jpg</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>299000</t>
+          <t>369000</t>
         </is>
       </c>
       <c r="F82" t="inlineStr"/>
@@ -5110,12 +5110,12 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>벤큐</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>벤큐</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
@@ -5137,22 +5137,22 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>벤큐 모비우스 EX2710S</t>
+          <t>한성컴퓨터 TFX173T DEX 포터블 HDR</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27862189523</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=21936338223</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2786218/27862189523.20211116103224.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2193633/21936338223.20200428094731.jpg</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>369000</t>
+          <t>379000</t>
         </is>
       </c>
       <c r="F83" t="inlineStr"/>
@@ -5168,12 +5168,12 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>벤큐</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>벤큐</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
@@ -5195,22 +5195,22 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>한성컴퓨터 TFX173PB</t>
+          <t>LG전자 울트라기어 27GP950</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=28175063522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=29937269619</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2817506/28175063522.20210727143057.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2993726/29937269619.20220126112430.jpg</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>409000</t>
+          <t>1189900</t>
         </is>
       </c>
       <c r="F84" t="inlineStr"/>
@@ -5226,12 +5226,12 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>울트라기어</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
@@ -5253,22 +5253,22 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>삼성전자 오디세이 G7 C27G75T</t>
+          <t>한성컴퓨터 TFX156PB</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=23021385490</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=28193235522</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2302138/23021385490.20200803121144.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2819323/28193235522.20210728161135.jpg</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>632000</t>
+          <t>309000</t>
         </is>
       </c>
       <c r="F85" t="inlineStr"/>
@@ -5284,12 +5284,12 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>오디세이</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
@@ -5311,22 +5311,22 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>한성컴퓨터 TFX156PB</t>
+          <t>삼성전자 오디세이 G3 S24AG300 144</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=28193235522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27534600522</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2819323/28193235522.20210728161135.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2753460/27534600522.20210611131536.jpg</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>309000</t>
+          <t>249000</t>
         </is>
       </c>
       <c r="F86" t="inlineStr"/>
@@ -5342,12 +5342,12 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>오디세이</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
@@ -5369,22 +5369,22 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>LG전자 울트라HD 27UL550</t>
+          <t>필립스 271E1 프리싱크 75 시력보호 제로베젤</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=19298157033</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=21496753758</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1929815/19298157033.20200824143609.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2149675/21496753758.20200221173844.jpg</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>448000</t>
+          <t>229000</t>
         </is>
       </c>
       <c r="F87" t="inlineStr"/>
@@ -5400,12 +5400,12 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>울트라HD</t>
+          <t>필립스</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>필립스</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
@@ -5427,22 +5427,22 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>삼성전자 삼성 F24T450</t>
+          <t>LG전자 울트라HD 27UP850</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24007200522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27124459522</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2400720/24007200522.20210203133027.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2712445/27124459522.20210512183326.jpg</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>238000</t>
+          <t>648880</t>
         </is>
       </c>
       <c r="F88" t="inlineStr"/>
@@ -5458,12 +5458,12 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>삼성</t>
+          <t>울트라HD</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
@@ -5485,22 +5485,22 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>한성컴퓨터 ULTRON 2235V 프리싱크 리얼 75</t>
+          <t>한성컴퓨터 TFG30F20W  울트라와이드 200 게이밍</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=16384522728</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27287676522</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1638452/16384522728.20200528143331.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2728767/27287676522.20210628121550.jpg</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>129000</t>
+          <t>299000</t>
         </is>
       </c>
       <c r="F89" t="inlineStr"/>
@@ -5543,22 +5543,22 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>LG전자 울트라HD 27UP850</t>
+          <t>삼성전자 오디세이 G9 C49G95T</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27124459522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=23255316490</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2712445/27124459522.20210512183326.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2325531/23255316490.20210203133605.jpg</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>648880</t>
+          <t>1570000</t>
         </is>
       </c>
       <c r="F90" t="inlineStr"/>
@@ -5574,12 +5574,12 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>울트라HD</t>
+          <t>오디세이</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
@@ -5601,22 +5601,22 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>삼성전자 오디세이 G9 C49G95T</t>
+          <t>LG전자 울트라기어 32GN650</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=23255316490</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=25413802522</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2325531/23255316490.20210203133605.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2541380/25413802522.20220124181008.jpg</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>1570000</t>
+          <t>448900</t>
         </is>
       </c>
       <c r="F91" t="inlineStr"/>
@@ -5632,12 +5632,12 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>오디세이</t>
+          <t>울트라기어</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
@@ -5659,22 +5659,22 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>한성컴퓨터 TFG26F07WP IPS 울트라와이드</t>
+          <t>알파스캔 AOC 27B2 보더리스 75 시력보호</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=29125689586</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=21720504796</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2912568/29125689586.20211006161055.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2172050/21720504796.20210310171806.jpg</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>219000</t>
+          <t>209000</t>
         </is>
       </c>
       <c r="F92" t="inlineStr"/>
@@ -5690,12 +5690,12 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>알파스캔</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>알파스캔</t>
         </is>
       </c>
       <c r="K92" t="inlineStr">
@@ -5717,22 +5717,22 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>LG전자 울트라HD 32UN880</t>
+          <t>벤큐 XL2411P 아이케어</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24554243522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=12954974985</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2455424/24554243522.20210406130449.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1295497/12954974985.20211126152630.jpg</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>798900</t>
+          <t>299000</t>
         </is>
       </c>
       <c r="F93" t="inlineStr"/>
@@ -5748,12 +5748,12 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>울트라HD</t>
+          <t>벤큐</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>벤큐</t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
@@ -5775,22 +5775,22 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>인터픽셀 IP2740 게이밍 165</t>
+          <t>DELL S2721DS</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=18968201200</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24525570527</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1896820/18968201200.20210325162750.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2452557/24525570527.20201117112539.jpg</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>249000</t>
+          <t>361500</t>
         </is>
       </c>
       <c r="F94" t="inlineStr"/>
@@ -5806,12 +5806,12 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>인터픽셀</t>
+          <t>DELL</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>인터픽셀</t>
+          <t>DELL</t>
         </is>
       </c>
       <c r="K94" t="inlineStr">
@@ -5833,22 +5833,22 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>한성컴퓨터 TFG30F20W  울트라와이드 200 게이밍</t>
+          <t>한성컴퓨터 ULTRON 2235V 프리싱크 리얼 75</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27287676522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=16384522728</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2728767/27287676522.20210628121550.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1638452/16384522728.20200528143331.jpg</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>299000</t>
+          <t>129000</t>
         </is>
       </c>
       <c r="F95" t="inlineStr"/>
@@ -5891,22 +5891,22 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>DELL 울트라샤프 U2720Q</t>
+          <t>한성컴퓨터 TFG34Q14W 1500R 커브드 리얼 144 울트라와이드 게이밍</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=21752731630</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=29326560618</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2175273/21752731630.20200327122054.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2932656/29326560618.20211021130829.jpg</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>779000</t>
+          <t>399000</t>
         </is>
       </c>
       <c r="F96" t="inlineStr"/>
@@ -5922,12 +5922,12 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>울트라샤프</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>DELL</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="K96" t="inlineStr">
@@ -5949,22 +5949,22 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>벤큐 XL2540K 240</t>
+          <t>DELL 울트라샤프 U2720Q</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=28506139554</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=21752731630</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2850613/28506139554.20211126105315.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2175273/21752731630.20200327122054.jpg</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>507000</t>
+          <t>779000</t>
         </is>
       </c>
       <c r="F97" t="inlineStr"/>
@@ -5980,12 +5980,12 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>벤큐</t>
+          <t>울트라샤프</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>벤큐</t>
+          <t>DELL</t>
         </is>
       </c>
       <c r="K97" t="inlineStr">
@@ -6007,22 +6007,22 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>삼성전자 삼성 S27R35A</t>
+          <t>LG전자 32UN550</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=25885966522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24367892525</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2588596/25885966522.20210205160851.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2436789/24367892525.20210406141630.jpg</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>236950</t>
+          <t>498000</t>
         </is>
       </c>
       <c r="F98" t="inlineStr"/>
@@ -6038,12 +6038,12 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>삼성</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K98" t="inlineStr">
@@ -6065,22 +6065,22 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>삼성전자 스마트모니터 M5 S27AM500</t>
+          <t>LG전자 울트라HD 32UN880</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=25524380522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24554243522</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2552438/25524380522.20210302142816.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2455424/24554243522.20210406130449.jpg</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>298970</t>
+          <t>798900</t>
         </is>
       </c>
       <c r="F99" t="inlineStr"/>
@@ -6096,12 +6096,12 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>스마트모니터</t>
+          <t>울트라HD</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K99" t="inlineStr">
@@ -6123,22 +6123,22 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>DELL S2721DS</t>
+          <t>삼성전자 삼성 S27R35A</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24525570527</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=25885966522</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2452557/24525570527.20201117112539.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2588596/25885966522.20210205160851.jpg</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>361500</t>
+          <t>236950</t>
         </is>
       </c>
       <c r="F100" t="inlineStr"/>
@@ -6154,12 +6154,12 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>DELL</t>
+          <t>삼성</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>DELL</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K100" t="inlineStr">
@@ -6181,22 +6181,22 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>LG전자 24MP400</t>
+          <t>LG전자 울트라와이드 29WP500</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27614392522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=26886077522</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2761439/27614392522.20210813165340.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2688607/26886077522.20210524134552.jpg</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>188880</t>
+          <t>269000</t>
         </is>
       </c>
       <c r="F101" t="inlineStr"/>
@@ -6212,7 +6212,7 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>울트라와이드</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">

--- a/output.xlsx
+++ b/output.xlsx
@@ -439,22 +439,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>삼성전자 삼성 F27T350</t>
+          <t>삼성전자 삼성 F24T350</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=23996451524</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24007197522</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2399645/23996451524.20210302142600.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2400719/24007197522.20210302142445.jpg</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>209000</t>
+          <t>182000</t>
         </is>
       </c>
       <c r="F2" t="inlineStr"/>
@@ -497,22 +497,22 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>삼성전자 삼성 F24T350</t>
+          <t>삼성전자 삼성 F27T350</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24007197522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=23996451524</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2400719/24007197522.20210302142445.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2399645/23996451524.20210302142600.jpg</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>181950</t>
+          <t>208950</t>
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
@@ -903,22 +903,22 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>LG전자 32MN500MW</t>
+          <t>ASUS VZ27EHE 시력보호 Gaming 베젤리스</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=22764052560</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=29590676619</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2276405/22764052560.20200824151306.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2959067/29590676619.20211108171723.jpg</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>268900</t>
+          <t>219000</t>
         </is>
       </c>
       <c r="F10" t="inlineStr"/>
@@ -934,12 +934,12 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>ASUS</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>ASUS</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -961,22 +961,22 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>한성컴퓨터 ULTRON 2760G 리얼 144</t>
+          <t>LG전자 32MN500MW</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=15020041438</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=22764052560</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1502004/15020041438.20200424094329.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2276405/22764052560.20200824151306.jpg</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>219000</t>
+          <t>269000</t>
         </is>
       </c>
       <c r="F11" t="inlineStr"/>
@@ -992,12 +992,12 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -1019,22 +1019,22 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>ASUS VZ27EHE 시력보호 Gaming 베젤리스</t>
+          <t>LG전자 27MN430HW</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=29590676619</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=23301354490</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2959067/29590676619.20211108171723.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2330135/23301354490.20200824152000.jpg</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>199000</t>
+          <t>222900</t>
         </is>
       </c>
       <c r="F12" t="inlineStr"/>
@@ -1050,12 +1050,12 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>ASUS</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>ASUS</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -1077,22 +1077,22 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>LG전자 27MN430HW</t>
+          <t>한성컴퓨터 ULTRON 2760G 리얼 144</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=23301354490</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=15020041438</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2330135/23301354490.20200824152000.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1502004/15020041438.20200424094329.jpg</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>222900</t>
+          <t>219000</t>
         </is>
       </c>
       <c r="F13" t="inlineStr"/>
@@ -1108,12 +1108,12 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -1135,22 +1135,22 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>삼성전자 스마트모니터 M7 S43AM700</t>
+          <t>ASUS VA24DQLB</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27215825524</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=23257141490</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2721582/27215825524.20210520173025.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2325714/23257141490.20200720175614.jpg</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>579000</t>
+          <t>239000</t>
         </is>
       </c>
       <c r="F14" t="inlineStr"/>
@@ -1166,12 +1166,12 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>스마트모니터</t>
+          <t>ASUS</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>ASUS</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -1251,22 +1251,22 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>ASUS VA24DQLB</t>
+          <t>ASUS VG278QR</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=23257141490</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=18214439726</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2325714/23257141490.20200720175614.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1821443/18214439726.20190620142310.jpg</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>239000</t>
+          <t>362300</t>
         </is>
       </c>
       <c r="F16" t="inlineStr"/>
@@ -1309,22 +1309,22 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>LG전자 27MK430H</t>
+          <t>한성컴퓨터 ULTRON 2460G 리얼 144 게이밍</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=15183175543</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=20471652225</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1518317/15183175543.20200824151717.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2047165/20471652225.20200424094042.jpg</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>222850</t>
+          <t>179000</t>
         </is>
       </c>
       <c r="F17" t="inlineStr"/>
@@ -1340,12 +1340,12 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -1367,22 +1367,22 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>벤큐 GW2780 아이케어</t>
+          <t>삼성전자 스마트모니터 M7 S43AM700</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=11846746201</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27215825524</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1184674/11846746201.20220304103906.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2721582/27215825524.20210520173025.jpg</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>213000</t>
+          <t>579000</t>
         </is>
       </c>
       <c r="F18" t="inlineStr"/>
@@ -1398,12 +1398,12 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>벤큐</t>
+          <t>스마트모니터</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>벤큐</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -1425,22 +1425,22 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>한성컴퓨터 ULTRON 2435V 프리싱크 리얼75</t>
+          <t>LG전자 32QN650</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=13487979407</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=23692201495</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1348797/13487979407.20211116100954.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2369220/23692201495.20210406132235.jpg</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>149000</t>
+          <t>397370</t>
         </is>
       </c>
       <c r="F19" t="inlineStr"/>
@@ -1456,12 +1456,12 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
@@ -1483,22 +1483,22 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>LG전자 24ML600SW</t>
+          <t>한성컴퓨터 ULTRON 3278 QHD New</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=19105796246</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=16776093488</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1910579/19105796246.20200824152520.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1677609/16776093488.20200424094717.jpg</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>205900</t>
+          <t>269000</t>
         </is>
       </c>
       <c r="F20" t="inlineStr"/>
@@ -1514,12 +1514,12 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -1541,22 +1541,22 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>한성컴퓨터 ULTRON 3278 QHD New</t>
+          <t>한성컴퓨터 ULTRON 2435V 프리싱크 리얼75</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=16776093488</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=13487979407</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1677609/16776093488.20200424094717.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1348797/13487979407.20211116100954.jpg</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>269000</t>
+          <t>149000</t>
         </is>
       </c>
       <c r="F21" t="inlineStr"/>
@@ -1599,22 +1599,22 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>한성컴퓨터 ULTRON 2460G 리얼 144 게이밍</t>
+          <t>LG전자 24ML600SW</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=20471652225</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=19105796246</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2047165/20471652225.20200424094042.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1910579/19105796246.20200824152520.jpg</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>179000</t>
+          <t>205900</t>
         </is>
       </c>
       <c r="F22" t="inlineStr"/>
@@ -1630,12 +1630,12 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
@@ -1657,22 +1657,22 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>LG전자 32QN650</t>
+          <t>벤큐 GW2780 아이케어</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=23692201495</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=11846746201</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2369220/23692201495.20210406132235.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1184674/11846746201.20220304103906.jpg</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>397510</t>
+          <t>224770</t>
         </is>
       </c>
       <c r="F23" t="inlineStr"/>
@@ -1688,12 +1688,12 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>벤큐</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>벤큐</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -1715,22 +1715,22 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>한성컴퓨터 TFG32F16V 1500R 리얼 165 게이밍</t>
+          <t>LG전자 27MK430H</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=18778755031</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=15183175543</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1877875/18778755031.20201230122744.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1518317/15183175543.20200824151717.jpg</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>269000</t>
+          <t>222850</t>
         </is>
       </c>
       <c r="F24" t="inlineStr"/>
@@ -1746,12 +1746,12 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -1788,7 +1788,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>296250</t>
+          <t>293580</t>
         </is>
       </c>
       <c r="F25" t="inlineStr"/>
@@ -1831,22 +1831,22 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>ASUS VG278QR</t>
+          <t>한성컴퓨터 TFG32F16V 1500R 리얼 165 게이밍</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=18214439726</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=18778755031</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1821443/18214439726.20190620142310.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1877875/18778755031.20201230122744.jpg</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>314500</t>
+          <t>269000</t>
         </is>
       </c>
       <c r="F26" t="inlineStr"/>
@@ -1862,12 +1862,12 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>ASUS</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>ASUS</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
@@ -1889,22 +1889,22 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>한성컴퓨터 ULTRON 2758 프리싱크 리얼 75</t>
+          <t>LG전자 27TN600S</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=14816445651</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=21745903830</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1481644/14816445651.20220310121415.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2174590/21745903830.20200824150453.jpg</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>179000</t>
+          <t>375230</t>
         </is>
       </c>
       <c r="F27" t="inlineStr"/>
@@ -1920,12 +1920,12 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -1947,22 +1947,22 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>LG전자 27TN600S</t>
+          <t>한성컴퓨터 TFX32U06V 4K HDR 1500R 커브드</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=21745903830</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=20942220356</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2174590/21745903830.20200824150453.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2094222/20942220356.20210630112723.jpg</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>374470</t>
+          <t>299000</t>
         </is>
       </c>
       <c r="F28" t="inlineStr"/>
@@ -1978,12 +1978,12 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -2005,22 +2005,22 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>벤큐 XL2411K</t>
+          <t>한성컴퓨터 ULTRON 2758 프리싱크 리얼 75</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24196764522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=14816445651</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2419676/24196764522.20211117182333.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1481644/14816445651.20220310121415.jpg</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>299000</t>
+          <t>179000</t>
         </is>
       </c>
       <c r="F29" t="inlineStr"/>
@@ -2036,12 +2036,12 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>벤큐</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>벤큐</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
@@ -2121,17 +2121,17 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>한성컴퓨터 TFX32U06V 4K HDR 1500R 커브드</t>
+          <t>벤큐 XL2411K</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=20942220356</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24196764522</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2094222/20942220356.20210630112723.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2419676/24196764522.20211117182333.jpg</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -2152,12 +2152,12 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>벤큐</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>벤큐</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
@@ -2353,22 +2353,22 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>LG전자 27QN600</t>
+          <t>한성컴퓨터 TFG27Q14F QHD 평면 144 게이밍</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=23849172522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24509574524</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2384917/23849172522.20210406141920.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2450957/24509574524.20201022114639.jpg</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>318900</t>
+          <t>279000</t>
         </is>
       </c>
       <c r="F35" t="inlineStr"/>
@@ -2384,12 +2384,12 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
@@ -2411,22 +2411,22 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>ASUS ZenScreen MB16AMT</t>
+          <t>삼성전자 스마트모니터 M7 S32AM700</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=21151726572</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=25524333522</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2115172/21151726572.20211125153749.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2552433/25524333522.20210203133321.jpg</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>549000</t>
+          <t>499000</t>
         </is>
       </c>
       <c r="F36" t="inlineStr"/>
@@ -2442,12 +2442,12 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>ASUS</t>
+          <t>스마트모니터</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>ASUS</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
@@ -2469,22 +2469,22 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>삼성전자 오디세이 G5 C34G55T 165</t>
+          <t>삼성전자 오디세이 Neo G9 S49AG950 49인치 게이밍 모니터</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=25744041522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=28288984554</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2574404/25744041522.20210324143655.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2828898/28288984554.20210810100808.jpg</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>559000</t>
+          <t>2160000</t>
         </is>
       </c>
       <c r="F37" t="inlineStr"/>
@@ -2527,22 +2527,22 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>삼성전자 스마트모니터 M7 S32AM700</t>
+          <t>LG전자 울트라HD 27UL550</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=25524333522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=19298157033</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2552433/25524333522.20210203133321.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1929815/19298157033.20200824143609.jpg</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>480950</t>
+          <t>398900</t>
         </is>
       </c>
       <c r="F38" t="inlineStr"/>
@@ -2558,12 +2558,12 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>스마트모니터</t>
+          <t>울트라HD</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
@@ -2585,22 +2585,22 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>삼성전자 오디세이 Neo G9 S49AG950 49인치 게이밍 모니터</t>
+          <t>LG전자 울트라HD 27UP850</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=28288984554</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27124459522</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2828898/28288984554.20210810100808.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2712445/27124459522.20210512183326.jpg</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>2160000</t>
+          <t>649000</t>
         </is>
       </c>
       <c r="F39" t="inlineStr"/>
@@ -2616,12 +2616,12 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>오디세이</t>
+          <t>울트라HD</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
@@ -2643,22 +2643,22 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>한성컴퓨터 TFG27Q14F QHD 평면 144 게이밍</t>
+          <t>삼성전자 삼성 U32J590</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24509574524</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=14306268525</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2450957/24509574524.20201022114639.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1430626/14306268525.20210203133511.jpg</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>279000</t>
+          <t>388000</t>
         </is>
       </c>
       <c r="F40" t="inlineStr"/>
@@ -2674,12 +2674,12 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>삼성</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
@@ -2701,22 +2701,22 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>한성컴퓨터 TFG32F24V 240</t>
+          <t>삼성전자 스마트모니터 M5 S32AM501</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=28162745522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=26870008522</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2816274/28162745522.20210726183542.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2687000/26870008522.20210422145112.jpg</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>299000</t>
+          <t>369000</t>
         </is>
       </c>
       <c r="F41" t="inlineStr"/>
@@ -2732,12 +2732,12 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>스마트모니터</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
@@ -2759,22 +2759,22 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>벤큐 GW2480 아이케어 무결점</t>
+          <t>한성컴퓨터 TFG32F24V 240</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=11846842637</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=28162745522</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1184684/11846842637.20220304103147.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2816274/28162745522.20210726183542.jpg</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>179000</t>
+          <t>299000</t>
         </is>
       </c>
       <c r="F42" t="inlineStr"/>
@@ -2790,12 +2790,12 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>벤큐</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>벤큐</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
@@ -2817,22 +2817,22 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>삼성전자 스마트모니터 M5 S32AM501</t>
+          <t>삼성전자 오디세이 G5 C34G55T 165</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=26870008522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=25744041522</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2687000/26870008522.20210422145112.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2574404/25744041522.20210324143655.jpg</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>369000</t>
+          <t>559000</t>
         </is>
       </c>
       <c r="F43" t="inlineStr"/>
@@ -2848,7 +2848,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>스마트모니터</t>
+          <t>오디세이</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2875,22 +2875,22 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>LG전자 울트라HD 27UL550</t>
+          <t>삼성전자 스마트모니터 M5 S27AM500</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=19298157033</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=25524380522</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1929815/19298157033.20200824143609.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2552438/25524380522.20210302142816.jpg</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>398900</t>
+          <t>299000</t>
         </is>
       </c>
       <c r="F44" t="inlineStr"/>
@@ -2906,12 +2906,12 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>울트라HD</t>
+          <t>스마트모니터</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
@@ -2933,22 +2933,22 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>삼성전자 삼성 U32J590</t>
+          <t>LG전자 울트라기어 27GN650</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=14306268525</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=25413919522</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1430626/14306268525.20210203133511.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2541391/25413919522.20220125134231.jpg</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>388000</t>
+          <t>368900</t>
         </is>
       </c>
       <c r="F45" t="inlineStr"/>
@@ -2964,12 +2964,12 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>삼성</t>
+          <t>울트라기어</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
@@ -2991,22 +2991,22 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>한성컴퓨터 TFG27F14P IPS 144</t>
+          <t>벤큐 GW2480 아이케어 무결점</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=23258436490</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=11846842637</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2325843/23258436490.20200624161211.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1184684/11846842637.20220304103147.jpg</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>249000</t>
+          <t>179000</t>
         </is>
       </c>
       <c r="F46" t="inlineStr"/>
@@ -3022,12 +3022,12 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>벤큐</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>벤큐</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
@@ -3049,22 +3049,22 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>한성컴퓨터 TFG32F07V 1500R 커브드 게이밍 리얼 75</t>
+          <t>ASUS ZenScreen MB16AMT</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=20882835913</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=21151726572</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2088283/20882835913.20200424100013.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2115172/21151726572.20211125153749.jpg</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>219000</t>
+          <t>549000</t>
         </is>
       </c>
       <c r="F47" t="inlineStr"/>
@@ -3080,12 +3080,12 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>ASUS</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>ASUS</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
@@ -3107,22 +3107,22 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>한성컴퓨터 TFG32Q14F 144</t>
+          <t>LG전자 27QN600</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24439846522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=23849172522</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2443984/24439846522.20201013113723.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2384917/23849172522.20210406141920.jpg</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>329000</t>
+          <t>318900</t>
         </is>
       </c>
       <c r="F48" t="inlineStr"/>
@@ -3138,12 +3138,12 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
@@ -3165,22 +3165,22 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>LG전자 울트라기어 27GN650</t>
+          <t>한성컴퓨터 TFG27F14P IPS 144</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=25413919522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=23258436490</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2541391/25413919522.20220125134231.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2325843/23258436490.20200624161211.jpg</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>368900</t>
+          <t>249000</t>
         </is>
       </c>
       <c r="F49" t="inlineStr"/>
@@ -3196,12 +3196,12 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>울트라기어</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
@@ -3223,22 +3223,22 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>LG전자 울트라HD 27UP850</t>
+          <t>한성컴퓨터 TFG32Q14F 144</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27124459522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24439846522</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2712445/27124459522.20210512183326.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2443984/24439846522.20201013113723.jpg</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>649000</t>
+          <t>329000</t>
         </is>
       </c>
       <c r="F50" t="inlineStr"/>
@@ -3254,12 +3254,12 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>울트라HD</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
@@ -3397,22 +3397,22 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>삼성전자 스마트모니터 M7 S32AM701</t>
+          <t>LG전자 그램+뷰 16MQ70</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=29724256618</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=30377313618</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2972425/29724256618.20211117133727.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3037731/30377313618.20211231144328.jpg</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>509000</t>
+          <t>390840</t>
         </is>
       </c>
       <c r="F53" t="inlineStr"/>
@@ -3428,12 +3428,12 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>스마트모니터</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
@@ -3455,22 +3455,22 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>ASUS VP249QGR</t>
+          <t>주연테크 V28UE</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=23257115490</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=26322015522</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2325711/23257115490.20211125152957.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2632201/26322015522.20210311142212.jpg</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>225470</t>
+          <t>950000</t>
         </is>
       </c>
       <c r="F54" t="inlineStr"/>
@@ -3486,12 +3486,12 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>ASUS</t>
+          <t>주연테크</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>ASUS</t>
+          <t>주연테크</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
@@ -3513,22 +3513,22 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>삼성전자 스마트모니터 M5 S27AM500</t>
+          <t>삼성전자 스마트모니터 M7 S32AM701</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=25524380522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=29724256618</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2552438/25524380522.20210302142816.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2972425/29724256618.20211117133727.jpg</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>299000</t>
+          <t>509000</t>
         </is>
       </c>
       <c r="F55" t="inlineStr"/>
@@ -3571,22 +3571,22 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>한성컴퓨터 TFX133T DEX 포터블 HDR</t>
+          <t>삼성전자 삼성 C32T550</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=21918294654</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=22448790144</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2191829/21918294654.20200428094627.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2244879/22448790144.20210203133005.jpg</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>229000</t>
+          <t>361000</t>
         </is>
       </c>
       <c r="F56" t="inlineStr"/>
@@ -3602,12 +3602,12 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>삼성</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
@@ -3687,22 +3687,22 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>한성컴퓨터 TFG27Q14V 1500R 리얼 144 게이밍</t>
+          <t>ASUS VP249QGR</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=20812959649</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=23257115490</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2081295/20812959649.20200424095919.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2325711/23257115490.20211125152957.jpg</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>279000</t>
+          <t>225470</t>
         </is>
       </c>
       <c r="F58" t="inlineStr"/>
@@ -3718,12 +3718,12 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>ASUS</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>ASUS</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
@@ -3745,22 +3745,22 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>삼성전자 오디세이 G3 S27AG300 144</t>
+          <t>한성컴퓨터 TFG27Q14V 1500R 리얼 144 게이밍</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27535066522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=20812959649</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2753506/27535066522.20210611135052.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2081295/20812959649.20200424095919.jpg</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>309000</t>
+          <t>279000</t>
         </is>
       </c>
       <c r="F59" t="inlineStr"/>
@@ -3776,12 +3776,12 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>오디세이</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
@@ -3803,22 +3803,22 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>한성컴퓨터 TFG29F07WP IPS 울트라와이드</t>
+          <t>한성컴퓨터 TFX133T DEX 포터블 HDR</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=29125693586</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=21918294654</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2912569/29125693586.20211006161419.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2191829/21918294654.20200428094627.jpg</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>239000</t>
+          <t>229000</t>
         </is>
       </c>
       <c r="F60" t="inlineStr"/>
@@ -3861,22 +3861,22 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>삼성전자 삼성 C32T550</t>
+          <t>삼성전자 오디세이 G3 S27AG300 144</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=22448790144</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27535066522</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2244879/22448790144.20210203133005.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2753506/27535066522.20210611135052.jpg</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>361000</t>
+          <t>309000</t>
         </is>
       </c>
       <c r="F61" t="inlineStr"/>
@@ -3892,7 +3892,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>삼성</t>
+          <t>오디세이</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3919,22 +3919,22 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>LG전자 그램+뷰 16MQ70</t>
+          <t>한성컴퓨터 TFG29F07WP IPS 울트라와이드</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=30377313618</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=29125693586</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3037731/30377313618.20211231144328.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2912569/29125693586.20211006161419.jpg</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>390960</t>
+          <t>239000</t>
         </is>
       </c>
       <c r="F62" t="inlineStr"/>
@@ -3950,12 +3950,12 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
@@ -3977,22 +3977,22 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>주연테크 V28UE</t>
+          <t>한성컴퓨터 TFG32F07V 1500R 커브드 게이밍 리얼 75</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=26322015522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=20882835913</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2632201/26322015522.20210311142212.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2088283/20882835913.20200424100013.jpg</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>319000</t>
+          <t>219000</t>
         </is>
       </c>
       <c r="F63" t="inlineStr"/>
@@ -4008,12 +4008,12 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>주연테크</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>주연테크</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
@@ -4035,22 +4035,22 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>LG전자 울트라기어 24GN600 144Hz</t>
+          <t>한성컴퓨터 TFG39Q14V 144</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=26122103522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=26826361522</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2612210/26122103522.20220124181046.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2682636/26826361522.20210419161946.jpg</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>248900</t>
+          <t>479000</t>
         </is>
       </c>
       <c r="F64" t="inlineStr"/>
@@ -4066,12 +4066,12 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>울트라기어</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
@@ -4093,22 +4093,22 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>한성컴퓨터 TFG39Q14V 144</t>
+          <t>LG전자 울트라기어 24GN600 144Hz</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=26826361522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=26122103522</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2682636/26826361522.20210419161946.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2612210/26122103522.20220124181046.jpg</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>479000</t>
+          <t>248900</t>
         </is>
       </c>
       <c r="F65" t="inlineStr"/>
@@ -4124,12 +4124,12 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>울트라기어</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
@@ -4325,22 +4325,22 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>인터픽셀 IP2740 게이밍 165</t>
+          <t>삼성전자 삼성 S34J550</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=18968201200</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=15704895486</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1896820/18968201200.20210325162750.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1570489/15704895486.20210203133054.jpg</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>249000</t>
+          <t>419000</t>
         </is>
       </c>
       <c r="F69" t="inlineStr"/>
@@ -4356,12 +4356,12 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>인터픽셀</t>
+          <t>삼성</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>인터픽셀</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
@@ -4383,22 +4383,22 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>삼성전자 삼성 S34J550</t>
+          <t>삼성전자 삼성 S8 UHD S32A800</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=15704895486</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=26743764522</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1570489/15704895486.20210203133054.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2674376/26743764522.20210628105349.jpg</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>419000</t>
+          <t>499000</t>
         </is>
       </c>
       <c r="F70" t="inlineStr"/>
@@ -4441,22 +4441,22 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>한성컴퓨터 TFG27Q14P 144</t>
+          <t>삼성전자 오디세이 G3 S24AG300 144</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27327723522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27534600522</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2732772/27327723522.20210527095004.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2753460/27534600522.20210611131536.jpg</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>329000</t>
+          <t>249000</t>
         </is>
       </c>
       <c r="F71" t="inlineStr"/>
@@ -4472,12 +4472,12 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>오디세이</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
@@ -4499,22 +4499,22 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>벤큐 모비우스 EX2710S</t>
+          <t>삼성전자 스마트모니터 M5 S27AM501</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27862189523</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=26870246522</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2786218/27862189523.20220304104430.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2687024/26870246522.20210422150359.jpg</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>369000</t>
+          <t>321000</t>
         </is>
       </c>
       <c r="F72" t="inlineStr"/>
@@ -4530,12 +4530,12 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>벤큐</t>
+          <t>스마트모니터</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>벤큐</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
@@ -4557,22 +4557,22 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>LG전자 24MP500W</t>
+          <t>좋은디에스아이 GD-24H75 SUN SLIM</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=28272152554</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=20744602820</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2827215/28272152554.20210805113756.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2074460/20744602820.20211012160745.jpg</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>194900</t>
+          <t>148000</t>
         </is>
       </c>
       <c r="F73" t="inlineStr"/>
@@ -4588,12 +4588,12 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>좋은디에스아이</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>좋은디에스아이</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
@@ -4615,22 +4615,22 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>삼성전자 오디세이 G3 S24AG300 144</t>
+          <t>벤큐 모비우스 EX2710S</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27534600522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27862189523</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2753460/27534600522.20210611131536.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2786218/27862189523.20220304104430.jpg</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>249000</t>
+          <t>369000</t>
         </is>
       </c>
       <c r="F74" t="inlineStr"/>
@@ -4646,12 +4646,12 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>오디세이</t>
+          <t>벤큐</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>벤큐</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
@@ -4673,22 +4673,22 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>삼성전자 스마트모니터 M5 S27AM501</t>
+          <t>한성컴퓨터 TFG30F20W  울트라와이드 200 게이밍</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=26870246522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27287676522</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2687024/26870246522.20210422150359.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2728767/27287676522.20210628121550.jpg</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>321000</t>
+          <t>299000</t>
         </is>
       </c>
       <c r="F75" t="inlineStr"/>
@@ -4704,12 +4704,12 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>스마트모니터</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
@@ -4731,22 +4731,22 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>LG전자 24MN430HW</t>
+          <t>인터픽셀 IP2740 게이밍 165</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=23244797490</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=18968201200</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2324479/23244797490.20200824152957.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1896820/18968201200.20210325162750.jpg</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>184900</t>
+          <t>249000</t>
         </is>
       </c>
       <c r="F76" t="inlineStr"/>
@@ -4762,12 +4762,12 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>인터픽셀</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>인터픽셀</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
@@ -4789,22 +4789,22 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>삼성전자 삼성 S8 UHD S32A800</t>
+          <t>ASUS PG259QNR</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=26743764522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=26245783522</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2674376/26743764522.20210628105349.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2624578/26245783522.20210305091855.jpg</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>499000</t>
+          <t>1290000</t>
         </is>
       </c>
       <c r="F77" t="inlineStr"/>
@@ -4818,14 +4818,10 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I77" t="inlineStr">
-        <is>
-          <t>삼성</t>
-        </is>
-      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>ASUS</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
@@ -4847,22 +4843,22 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>한성컴퓨터 TFG30F20W  울트라와이드 200 게이밍</t>
+          <t>LG전자 24MN430HW</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27287676522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=23244797490</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2728767/27287676522.20210628121550.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2324479/23244797490.20220311131641.jpg</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>299000</t>
+          <t>184900</t>
         </is>
       </c>
       <c r="F78" t="inlineStr"/>
@@ -4878,12 +4874,12 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
@@ -4905,22 +4901,22 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>ASUS PG259QNR</t>
+          <t>삼성전자 삼성 슈퍼 와이드 게이밍 120 DQHD C49RG90</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=26245783522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=18571615807</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2624578/26245783522.20210305091855.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1857161/18571615807.20210203133352.jpg</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>1290000</t>
+          <t>1270000</t>
         </is>
       </c>
       <c r="F79" t="inlineStr"/>
@@ -4934,10 +4930,14 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I79" t="inlineStr"/>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>삼성</t>
+        </is>
+      </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>ASUS</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
@@ -4959,22 +4959,22 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>LG전자 24MK600M</t>
+          <t>벤큐 EW3270U 아이케어</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=14556210024</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=14334382813</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1455621/14556210024.20210406134738.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1433438/14334382813.20220304104913.jpg</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>200900</t>
+          <t>519000</t>
         </is>
       </c>
       <c r="F80" t="inlineStr"/>
@@ -4990,12 +4990,12 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>벤큐</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>벤큐</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
@@ -5017,22 +5017,22 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>LG전자 울트라기어 27GP850</t>
+          <t>LG전자 울트라기어 27GP750</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=28378464554</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=29060355587</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2837846/28378464554.20220124181029.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2906035/29060355587.20220125134215.jpg</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>598900</t>
+          <t>448900</t>
         </is>
       </c>
       <c r="F81" t="inlineStr"/>
@@ -5075,22 +5075,22 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>LG전자 울트라기어 27GP750</t>
+          <t>한성컴퓨터 TFX156T PRO DEX 포터블 400cd 멀티터치</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=29060355587</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=26158967522</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2906035/29060355587.20220125134215.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2615896/26158967522.20210226123516.jpg</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>448900</t>
+          <t>299000</t>
         </is>
       </c>
       <c r="F82" t="inlineStr"/>
@@ -5106,12 +5106,12 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>울트라기어</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
@@ -5133,22 +5133,22 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>한성컴퓨터 TFX156PB</t>
+          <t>한성컴퓨터 TFG27Q14P 144</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=28193235522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27327723522</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2819323/28193235522.20210728161135.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2732772/27327723522.20210527095004.jpg</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>309000</t>
+          <t>329000</t>
         </is>
       </c>
       <c r="F83" t="inlineStr"/>
@@ -5191,22 +5191,22 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>LG전자 울트라와이드 34WP500</t>
+          <t>한성컴퓨터 TFX156PB</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27584005522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=28193235522</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2758400/27584005522.20210615125004.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2819323/28193235522.20210728161135.jpg</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>398900</t>
+          <t>309000</t>
         </is>
       </c>
       <c r="F84" t="inlineStr"/>
@@ -5222,12 +5222,12 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>울트라와이드</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
@@ -5249,22 +5249,22 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>제우스랩 알파플랜 P15A 포터블</t>
+          <t>한성컴퓨터 TFX173T DEX 포터블 HDR</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=20651265453</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=21936338223</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2065126/20651265453.20210726174943.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2193633/21936338223.20200428094731.jpg</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>175000</t>
+          <t>379000</t>
         </is>
       </c>
       <c r="F85" t="inlineStr"/>
@@ -5280,12 +5280,12 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>알파플랜</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>제우스랩</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
@@ -5307,22 +5307,22 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>삼성전자 오디세이 G5 S27AG500 165</t>
+          <t>삼성전자 삼성 S6 S34A650U 100</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27611446522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=26393243522</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2761144/27611446522.20210617101529.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2639324/26393243522.20210317135044.jpg</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>529000</t>
+          <t>599000</t>
         </is>
       </c>
       <c r="F86" t="inlineStr"/>
@@ -5338,7 +5338,7 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>오디세이</t>
+          <t>삼성</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -5365,22 +5365,22 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>DELL 울트라샤프 U2720Q</t>
+          <t>LG전자 24MK600M</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=21752731630</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=14556210024</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2175273/21752731630.20200327122054.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1455621/14556210024.20210406134738.jpg</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>779000</t>
+          <t>200900</t>
         </is>
       </c>
       <c r="F87" t="inlineStr"/>
@@ -5396,12 +5396,12 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>울트라샤프</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>DELL</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
@@ -5423,22 +5423,22 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>한성컴퓨터 TFX173T DEX 포터블 HDR</t>
+          <t>삼성전자 오디세이 G5 S27AG500 165</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=21936338223</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27611446522</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2193633/21936338223.20200428094731.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2761144/27611446522.20210617101529.jpg</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>379000</t>
+          <t>529000</t>
         </is>
       </c>
       <c r="F88" t="inlineStr"/>
@@ -5454,12 +5454,12 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>오디세이</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
@@ -5481,22 +5481,22 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>한성컴퓨터 TFX156T PRO DEX 포터블 400cd 멀티터치</t>
+          <t>DELL S2721QS</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=26158967522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24525971526</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2615896/26158967522.20210226123516.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2452597/24525971526.20210118163006.jpg</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>299000</t>
+          <t>487950</t>
         </is>
       </c>
       <c r="F89" t="inlineStr"/>
@@ -5512,12 +5512,12 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>DELL</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>DELL</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
@@ -5539,22 +5539,22 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>LG전자 울트라HD 32UN880</t>
+          <t>DELL S2721DS</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24554243522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24525570527</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2455424/24554243522.20210406130449.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2452557/24525570527.20201117112539.jpg</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>798900</t>
+          <t>399000</t>
         </is>
       </c>
       <c r="F90" t="inlineStr"/>
@@ -5570,12 +5570,12 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>울트라HD</t>
+          <t>DELL</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>DELL</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
@@ -5597,22 +5597,22 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>좋은디에스아이 GD-24H75 SUN SLIM</t>
+          <t>크로스오버존 크로스오버 240FL75</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=20744602820</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=30243856619</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2074460/20744602820.20211012160745.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3024385/30243856619.20211221141308.jpg</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>148500</t>
+          <t>298990</t>
         </is>
       </c>
       <c r="F91" t="inlineStr"/>
@@ -5628,12 +5628,12 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>좋은디에스아이</t>
+          <t>크로스오버</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>좋은디에스아이</t>
+          <t>크로스오버존</t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
@@ -5655,22 +5655,22 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>LG전자 울트라기어 32GN650</t>
+          <t>LG전자 울트라기어 27GP850</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=25413802522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=28378464554</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2541380/25413802522.20220124181008.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2837846/28378464554.20220124181029.jpg</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>448900</t>
+          <t>598900</t>
         </is>
       </c>
       <c r="F92" t="inlineStr"/>
@@ -5713,22 +5713,22 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>DELL S2721QS</t>
+          <t>제우스랩 알파플랜 P15A 포터블</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24525971526</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=20651265453</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2452597/24525971526.20210118163006.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2065126/20651265453.20210726174943.jpg</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>487960</t>
+          <t>175000</t>
         </is>
       </c>
       <c r="F93" t="inlineStr"/>
@@ -5744,12 +5744,12 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>DELL</t>
+          <t>알파플랜</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>DELL</t>
+          <t>제우스랩</t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
@@ -5771,22 +5771,22 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>벤큐 EW3270U 아이케어</t>
+          <t>LG전자 울트라와이드 34WP500</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=14334382813</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27584005522</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1433438/14334382813.20220304104913.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2758400/27584005522.20210615125004.jpg</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>519000</t>
+          <t>398900</t>
         </is>
       </c>
       <c r="F94" t="inlineStr"/>
@@ -5802,12 +5802,12 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>벤큐</t>
+          <t>울트라와이드</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>벤큐</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K94" t="inlineStr">
@@ -5829,22 +5829,22 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>크로스오버존 크로스오버 240FL75</t>
+          <t>한성컴퓨터 TFG34Q14W 1500R 커브드 리얼 144 울트라와이드 게이밍</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=30243856619</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=29326560618</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3024385/30243856619.20211221141308.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2932656/29326560618.20211021130829.jpg</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>298990</t>
+          <t>399000</t>
         </is>
       </c>
       <c r="F95" t="inlineStr"/>
@@ -5860,12 +5860,12 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>크로스오버</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>크로스오버존</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="K95" t="inlineStr">
@@ -5902,7 +5902,7 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>228400</t>
+          <t>236950</t>
         </is>
       </c>
       <c r="F96" t="inlineStr"/>
@@ -5945,22 +5945,22 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>삼성전자 삼성 S6 S34A650U 100</t>
+          <t>LG전자 울트라기어 32GN650</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=26393243522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=25413802522</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2639324/26393243522.20210317135044.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2541380/25413802522.20220124181008.jpg</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>599000</t>
+          <t>448900</t>
         </is>
       </c>
       <c r="F97" t="inlineStr"/>
@@ -5976,12 +5976,12 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>삼성</t>
+          <t>울트라기어</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K97" t="inlineStr">
@@ -6003,22 +6003,22 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>LG전자 24MP400</t>
+          <t>삼성전자 오디세이 G7 C27G75T</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27614392522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=23021385490</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2761439/27614392522.20210813165340.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2302138/23021385490.20200803121144.jpg</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>190900</t>
+          <t>650950</t>
         </is>
       </c>
       <c r="F98" t="inlineStr"/>
@@ -6034,12 +6034,12 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>오디세이</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K98" t="inlineStr">
@@ -6061,22 +6061,22 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>LG전자 울트라와이드 34WN750</t>
+          <t>LG전자 24MP500W</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=23257853490</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=28272152554</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2325785/23257853490.20200824150256.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2827215/28272152554.20210805113756.jpg</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>548900</t>
+          <t>194900</t>
         </is>
       </c>
       <c r="F99" t="inlineStr"/>
@@ -6092,7 +6092,7 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>울트라와이드</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -6119,22 +6119,22 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>벤큐 XL2540K 240</t>
+          <t>한성컴퓨터 TFG26F07WP IPS 울트라와이드</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=28506139554</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=29125689586</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2850613/28506139554.20211126105315.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2912568/29125689586.20211006161055.jpg</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>539000</t>
+          <t>219000</t>
         </is>
       </c>
       <c r="F100" t="inlineStr"/>
@@ -6150,12 +6150,12 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>벤큐</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>벤큐</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="K100" t="inlineStr">
@@ -6177,22 +6177,22 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>삼성전자 오디세이 G7 C27G75T</t>
+          <t>LG전자 27ML600SW</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=23021385490</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=19105887903</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2302138/23021385490.20200803121144.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1910588/19105887903.20220125134154.jpg</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>651000</t>
+          <t>262900</t>
         </is>
       </c>
       <c r="F101" t="inlineStr"/>
@@ -6208,12 +6208,12 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>오디세이</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K101" t="inlineStr">

--- a/output.xlsx
+++ b/output.xlsx
@@ -454,7 +454,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>209000</t>
+          <t>205000</t>
         </is>
       </c>
       <c r="F2" t="inlineStr"/>
@@ -512,7 +512,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>182000</t>
+          <t>179000</t>
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
@@ -787,22 +787,22 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>LG전자 울트라HD 32UN650</t>
+          <t>삼성전자 삼성 S27R350</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24635274522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=21775935202</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2463527/24635274522.20210405173537.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2177593/21775935202.20210203132859.jpg</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>549000</t>
+          <t>247000</t>
         </is>
       </c>
       <c r="F8" t="inlineStr"/>
@@ -818,12 +818,12 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>울트라HD</t>
+          <t>삼성</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -845,22 +845,22 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>삼성전자 삼성 S27R350</t>
+          <t>LG전자 32MN500MW</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=21775935202</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=22764052560</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2177593/21775935202.20210203132859.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2276405/22764052560.20200824151306.jpg</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>247000</t>
+          <t>268880</t>
         </is>
       </c>
       <c r="F9" t="inlineStr"/>
@@ -876,12 +876,12 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>삼성</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -903,22 +903,22 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>LG전자 27MN430HW</t>
+          <t>LG전자 울트라HD 32UN650</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=23301354490</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24635274522</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2330135/23301354490.20200824152000.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2463527/24635274522.20210405173537.jpg</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>222900</t>
+          <t>548900</t>
         </is>
       </c>
       <c r="F10" t="inlineStr"/>
@@ -934,7 +934,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>울트라HD</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -961,22 +961,22 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>LG전자 32MN500MW</t>
+          <t>LG전자 24ML600SW</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=22764052560</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=19105796246</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2276405/22764052560.20200824151306.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1910579/19105796246.20200824152520.jpg</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>268900</t>
+          <t>205000</t>
         </is>
       </c>
       <c r="F11" t="inlineStr"/>
@@ -1019,22 +1019,22 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>LG전자 24ML600SW</t>
+          <t>LG전자 27MN430HW</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=19105796246</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=23301354490</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1910579/19105796246.20200824152520.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2330135/23301354490.20200824152000.jpg</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>205900</t>
+          <t>222220</t>
         </is>
       </c>
       <c r="F12" t="inlineStr"/>
@@ -1135,22 +1135,22 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>한성컴퓨터 ULTRON 3278 QHD New</t>
+          <t>LG전자 27MK430H</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=16776093488</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=15183175543</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1677609/16776093488.20200424094717.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1518317/15183175543.20200824151717.jpg</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>269000</t>
+          <t>222900</t>
         </is>
       </c>
       <c r="F14" t="inlineStr"/>
@@ -1166,12 +1166,12 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -1251,22 +1251,22 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>ASUS VZ27EHE 시력보호 Gaming 베젤리스</t>
+          <t>LG전자 32QN650</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=29590676619</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=23692201495</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2959067/29590676619.20220325125911.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2369220/23692201495.20210406132235.jpg</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>228000</t>
+          <t>398790</t>
         </is>
       </c>
       <c r="F16" t="inlineStr"/>
@@ -1282,12 +1282,12 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>ASUS</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>ASUS</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -1324,7 +1324,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>282150</t>
+          <t>280000</t>
         </is>
       </c>
       <c r="F17" t="inlineStr"/>
@@ -1367,22 +1367,22 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>LG전자 27MK430H</t>
+          <t>한성컴퓨터 ULTRON 3278 QHD New</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=15183175543</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=16776093488</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1518317/15183175543.20200824151717.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1677609/16776093488.20200424094717.jpg</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>222900</t>
+          <t>269000</t>
         </is>
       </c>
       <c r="F18" t="inlineStr"/>
@@ -1398,12 +1398,12 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -1425,22 +1425,22 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>ASUS VA24DQLB</t>
+          <t>삼성전자 오디세이 G5 C27G54T</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=23257141490</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=23896119522</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2325714/23257141490.20200720175614.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2389611/23896119522.20210302142506.jpg</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>239000</t>
+          <t>338970</t>
         </is>
       </c>
       <c r="F19" t="inlineStr"/>
@@ -1456,12 +1456,12 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>ASUS</t>
+          <t>오디세이</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>ASUS</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
@@ -1483,22 +1483,22 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>LG전자 32QN650</t>
+          <t>ASUS VZ27EHE 시력보호 Gaming 베젤리스</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=23692201495</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=29590676619</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2369220/23692201495.20210406132235.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2959067/29590676619.20220325125911.jpg</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>398890</t>
+          <t>228000</t>
         </is>
       </c>
       <c r="F20" t="inlineStr"/>
@@ -1514,12 +1514,12 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>ASUS</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>ASUS</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -1541,22 +1541,22 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>한성컴퓨터 ULTRON 2435V 프리싱크 리얼75</t>
+          <t>벤큐 GW2780 아이케어</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=13487979407</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=11846746201</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1348797/13487979407.20211116100954.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1184674/11846746201.20220318094817.jpg</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>149000</t>
+          <t>229000</t>
         </is>
       </c>
       <c r="F21" t="inlineStr"/>
@@ -1572,12 +1572,12 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>벤큐</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>벤큐</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -1657,22 +1657,22 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>삼성전자 오디세이 G5 C27G54T</t>
+          <t>ASUS VA24DQLB</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=23896119522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=23257141490</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2389611/23896119522.20210302142506.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2325714/23257141490.20200720175614.jpg</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>339000</t>
+          <t>239000</t>
         </is>
       </c>
       <c r="F23" t="inlineStr"/>
@@ -1688,12 +1688,12 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>오디세이</t>
+          <t>ASUS</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>ASUS</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -1715,22 +1715,22 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>벤큐 GW2780 아이케어</t>
+          <t>벤큐 XL2411K</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=11846746201</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24196764522</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1184674/11846746201.20220318094817.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2419676/24196764522.20220311173519.jpg</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>229000</t>
+          <t>299000</t>
         </is>
       </c>
       <c r="F24" t="inlineStr"/>
@@ -1773,22 +1773,22 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>벤큐 XL2411K</t>
+          <t>한성컴퓨터 ULTRON 2435V 프리싱크 리얼75</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24196764522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=13487979407</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2419676/24196764522.20220311173519.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1348797/13487979407.20211116100954.jpg</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>299000</t>
+          <t>149000</t>
         </is>
       </c>
       <c r="F25" t="inlineStr"/>
@@ -1804,12 +1804,12 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>벤큐</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>벤큐</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -1889,22 +1889,22 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>ASUS VG278QR</t>
+          <t>벤큐 GW2480 아이케어 무결점</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=18214439726</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=11846842637</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1821443/18214439726.20190620142310.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1184684/11846842637.20220318094758.jpg</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>371000</t>
+          <t>179000</t>
         </is>
       </c>
       <c r="F27" t="inlineStr"/>
@@ -1920,12 +1920,12 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>ASUS</t>
+          <t>벤큐</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>ASUS</t>
+          <t>벤큐</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -2005,22 +2005,22 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>한성컴퓨터 TFX32U06V 4K HDR 1500R 커브드</t>
+          <t>한성컴퓨터 TFG32Q07P 75</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=20942220356</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=28655748554</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2094222/20942220356.20210630112723.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2865574/28655748554.20210831152013.jpg</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>299000</t>
+          <t>269000</t>
         </is>
       </c>
       <c r="F29" t="inlineStr"/>
@@ -2063,22 +2063,22 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>벤큐 GW2480 아이케어 무결점</t>
+          <t>한성컴퓨터 TFX32U06V 4K HDR 1500R 커브드</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=11846842637</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=20942220356</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1184684/11846842637.20220318094758.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2094222/20942220356.20210630112723.jpg</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>179000</t>
+          <t>299000</t>
         </is>
       </c>
       <c r="F30" t="inlineStr"/>
@@ -2094,12 +2094,12 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>벤큐</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>벤큐</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
@@ -2121,22 +2121,22 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>삼성전자 스마트모니터 M7 S32AM700</t>
+          <t>ASUS VG278QR</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=25524333522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=18214439726</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2552433/25524333522.20210203133321.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1821443/18214439726.20190620142310.jpg</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>499000</t>
+          <t>371000</t>
         </is>
       </c>
       <c r="F31" t="inlineStr"/>
@@ -2152,12 +2152,12 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>스마트모니터</t>
+          <t>ASUS</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>ASUS</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
@@ -2179,22 +2179,22 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>한성컴퓨터 TFG32Q07P 75</t>
+          <t>삼성전자 스마트모니터 M7 S32AM700</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=28655748554</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=25524333522</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2865574/28655748554.20210831152013.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2552433/25524333522.20210203133321.jpg</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>269000</t>
+          <t>499000</t>
         </is>
       </c>
       <c r="F32" t="inlineStr"/>
@@ -2210,12 +2210,12 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>스마트모니터</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
@@ -2237,22 +2237,22 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>벤큐 XL2546K</t>
+          <t>필립스 271E1 프리싱크 75 시력보호 제로베젤</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24235203522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=21496753758</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2423520/24235203522.20220311173812.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2149675/21496753758.20200221173844.jpg</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>699000</t>
+          <t>219000</t>
         </is>
       </c>
       <c r="F33" t="inlineStr"/>
@@ -2268,12 +2268,12 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>벤큐</t>
+          <t>필립스</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>벤큐</t>
+          <t>필립스</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
@@ -2295,22 +2295,22 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>필립스 271E1 프리싱크 75 시력보호 제로베젤</t>
+          <t>삼성전자 스마트모니터 M7 S32AM701</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=21496753758</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=29724256618</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2149675/21496753758.20200221173844.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2972425/29724256618.20211117133727.jpg</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>219000</t>
+          <t>519000</t>
         </is>
       </c>
       <c r="F34" t="inlineStr"/>
@@ -2326,12 +2326,12 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>필립스</t>
+          <t>스마트모니터</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>필립스</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
@@ -2353,22 +2353,22 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>한성컴퓨터 ULTRON 2758 프리싱크 리얼 75</t>
+          <t>삼성전자 스마트모니터 M5 S32AM501</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=14816445651</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=26870008522</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1481644/14816445651.20220310121415.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2687000/26870008522.20210422145112.jpg</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>179000</t>
+          <t>369000</t>
         </is>
       </c>
       <c r="F35" t="inlineStr"/>
@@ -2384,12 +2384,12 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>스마트모니터</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
@@ -2411,22 +2411,22 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>삼성전자 스마트모니터 M7 S32AM701</t>
+          <t>벤큐 XL2546K</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=29724256618</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24235203522</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2972425/29724256618.20211117133727.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2423520/24235203522.20220311173812.jpg</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>519000</t>
+          <t>699000</t>
         </is>
       </c>
       <c r="F36" t="inlineStr"/>
@@ -2442,12 +2442,12 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>스마트모니터</t>
+          <t>벤큐</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>벤큐</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
@@ -2469,22 +2469,22 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>삼성전자 스마트모니터 M5 S32AM501</t>
+          <t>LG전자 울트라기어 27GN650</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=26870008522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=25413919522</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2687000/26870008522.20210422145112.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2541391/25413919522.20220125134231.jpg</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>369000</t>
+          <t>368880</t>
         </is>
       </c>
       <c r="F37" t="inlineStr"/>
@@ -2500,12 +2500,12 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>스마트모니터</t>
+          <t>울트라기어</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
@@ -2527,22 +2527,22 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>삼성전자 삼성 F24T450</t>
+          <t>삼성전자 오디세이 Neo G9 S49AG950 49인치 게이밍 모니터</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24007200522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=28288984554</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2400720/24007200522.20210203133027.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2828898/28288984554.20210810100808.jpg</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>238000</t>
+          <t>2000000</t>
         </is>
       </c>
       <c r="F38" t="inlineStr"/>
@@ -2558,7 +2558,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>삼성</t>
+          <t>오디세이</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2585,22 +2585,22 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>LG전자 울트라기어 27GN650</t>
+          <t>한성컴퓨터 ULTRON 2758 프리싱크 리얼 75</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=25413919522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=14816445651</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2541391/25413919522.20220125134231.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1481644/14816445651.20220310121415.jpg</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>368900</t>
+          <t>179000</t>
         </is>
       </c>
       <c r="F39" t="inlineStr"/>
@@ -2616,12 +2616,12 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>울트라기어</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
@@ -2643,22 +2643,22 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>LG전자 27TN600S</t>
+          <t>LG전자 울트라HD 27UL550</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=21745903830</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=19298157033</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2174590/21745903830.20200824150453.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1929815/19298157033.20200824143609.jpg</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>376930</t>
+          <t>398880</t>
         </is>
       </c>
       <c r="F40" t="inlineStr"/>
@@ -2674,7 +2674,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>울트라HD</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2701,22 +2701,22 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>삼성전자 삼성 C32T550</t>
+          <t>LG전자 27TN600S</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=22448790144</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=21745903830</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2244879/22448790144.20210203133005.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2174590/21745903830.20200824150453.jpg</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>359000</t>
+          <t>364410</t>
         </is>
       </c>
       <c r="F41" t="inlineStr"/>
@@ -2732,12 +2732,12 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>삼성</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
@@ -2759,22 +2759,22 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>한성컴퓨터 TFG32Q14F 144</t>
+          <t>삼성전자 삼성 C32T550</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24439846522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=22448790144</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2443984/24439846522.20201013113723.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2244879/22448790144.20210203133005.jpg</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>329000</t>
+          <t>359000</t>
         </is>
       </c>
       <c r="F42" t="inlineStr"/>
@@ -2790,12 +2790,12 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>삼성</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
@@ -2817,22 +2817,22 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>한성컴퓨터 TFG32F24V 240</t>
+          <t>삼성전자 삼성 U32J590</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=28162745522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=14306268525</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2816274/28162745522.20210726183542.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1430626/14306268525.20210203133511.jpg</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>299000</t>
+          <t>388000</t>
         </is>
       </c>
       <c r="F43" t="inlineStr"/>
@@ -2848,12 +2848,12 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>삼성</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
@@ -2875,22 +2875,22 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>삼성전자 오디세이 Neo G9 S49AG950 49인치 게이밍 모니터</t>
+          <t>한성컴퓨터 TFG32F24V 240</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=28288984554</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=28162745522</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2828898/28288984554.20210810100808.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2816274/28162745522.20210726183542.jpg</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>2000000</t>
+          <t>299000</t>
         </is>
       </c>
       <c r="F44" t="inlineStr"/>
@@ -2906,12 +2906,12 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>오디세이</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
@@ -2991,22 +2991,22 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>삼성전자 오디세이 G5 G55A S27AG550 165</t>
+          <t>삼성전자 삼성 F24T450</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=30454173618</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24007200522</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3045417/30454173618.20220107132754.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2400720/24007200522.20210203133027.jpg</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>399000</t>
+          <t>238000</t>
         </is>
       </c>
       <c r="F46" t="inlineStr"/>
@@ -3022,7 +3022,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>오디세이</t>
+          <t>삼성</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -3049,22 +3049,22 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>한성컴퓨터 TFG27Q14F QHD 평면 144 게이밍</t>
+          <t>LG전자 27QN600</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24509574524</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=23849172522</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2450957/24509574524.20201022114639.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2384917/23849172522.20210406141920.jpg</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>279000</t>
+          <t>318880</t>
         </is>
       </c>
       <c r="F47" t="inlineStr"/>
@@ -3080,12 +3080,12 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
@@ -3107,22 +3107,22 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>LG전자 27QN600</t>
+          <t>한성컴퓨터 TFG27Q14V 1500R 리얼 144 게이밍</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=23849172522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=20812959649</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2384917/23849172522.20210406141920.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2081295/20812959649.20200424095919.jpg</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>318900</t>
+          <t>279000</t>
         </is>
       </c>
       <c r="F48" t="inlineStr"/>
@@ -3138,12 +3138,12 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
@@ -3165,22 +3165,22 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>벤큐 모비우스 EX2710S</t>
+          <t>삼성전자 스마트모니터 M5 S32AM500</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27862189523</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=25524342522</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2786218/27862189523.20220311174737.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2552434/25524342522.20210302142529.jpg</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>369000</t>
+          <t>349000</t>
         </is>
       </c>
       <c r="F49" t="inlineStr"/>
@@ -3196,12 +3196,12 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>벤큐</t>
+          <t>스마트모니터</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>벤큐</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
@@ -3223,22 +3223,22 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>삼성전자 삼성 U32J590</t>
+          <t>한성컴퓨터 TFG27Q14F QHD 평면 144 게이밍</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=14306268525</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24509574524</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1430626/14306268525.20210203133511.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2450957/24509574524.20201022114639.jpg</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>388000</t>
+          <t>279000</t>
         </is>
       </c>
       <c r="F50" t="inlineStr"/>
@@ -3254,12 +3254,12 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>삼성</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
@@ -3339,22 +3339,22 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>LG전자 그램+뷰 16MQ70</t>
+          <t>삼성전자 오디세이 G5 C32G54T</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=30377313618</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=23896004523</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3037731/30377313618.20211231144328.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2389600/23896004523.20210203132926.jpg</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>388890</t>
+          <t>409000</t>
         </is>
       </c>
       <c r="F52" t="inlineStr"/>
@@ -3370,12 +3370,12 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>오디세이</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
@@ -3397,22 +3397,22 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>한성컴퓨터 TFG27Q14V 1500R 리얼 144 게이밍</t>
+          <t>한성컴퓨터 TFG32Q14F 144</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=20812959649</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24439846522</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2081295/20812959649.20200424095919.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2443984/24439846522.20201013113723.jpg</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>279000</t>
+          <t>329000</t>
         </is>
       </c>
       <c r="F53" t="inlineStr"/>
@@ -3455,22 +3455,22 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>한성컴퓨터 TFG34Q14WQ 퀀텀닷 1500R 리얼 144 울트라와이드 게이밍</t>
+          <t>한성컴퓨터 TFG32F07V 1500R 커브드 게이밍 리얼 75</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=22312278223</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=20882835913</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2231227/22312278223.20220215171608.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2088283/20882835913.20200424100013.jpg</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>429000</t>
+          <t>219000</t>
         </is>
       </c>
       <c r="F54" t="inlineStr"/>
@@ -3513,22 +3513,22 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>한성컴퓨터 TFG32F07V 1500R 커브드 게이밍 리얼 75</t>
+          <t>삼성전자 오디세이 G5 G55A S27AG550 165</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=20882835913</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=30454173618</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2088283/20882835913.20200424100013.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3045417/30454173618.20220107132754.jpg</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>219000</t>
+          <t>399000</t>
         </is>
       </c>
       <c r="F55" t="inlineStr"/>
@@ -3544,12 +3544,12 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>오디세이</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
@@ -3571,22 +3571,22 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>삼성전자 오디세이 G5 C32G54T</t>
+          <t>한성컴퓨터 TFG34Q14WQ 퀀텀닷 1500R 리얼 144 울트라와이드 게이밍</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=23896004523</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=22312278223</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2389600/23896004523.20210203132926.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2231227/22312278223.20220215171608.jpg</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>409000</t>
+          <t>429000</t>
         </is>
       </c>
       <c r="F56" t="inlineStr"/>
@@ -3602,12 +3602,12 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>오디세이</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
@@ -3629,22 +3629,22 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>LG전자 울트라HD 27UL550</t>
+          <t>LG전자 그램+뷰 16MQ70</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=19298157033</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=30377313618</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1929815/19298157033.20200824143609.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3037731/30377313618.20211231144328.jpg</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>398900</t>
+          <t>388780</t>
         </is>
       </c>
       <c r="F57" t="inlineStr"/>
@@ -3660,7 +3660,7 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>울트라HD</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3687,22 +3687,22 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>삼성전자 스마트모니터 M5 S32AM500</t>
+          <t>한성컴퓨터 TFX156T DEX 포터블 HDR</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=25524342522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=21936337549</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2552434/25524342522.20210302142529.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2193633/21936337549.20200428094649.jpg</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>349000</t>
+          <t>269000</t>
         </is>
       </c>
       <c r="F58" t="inlineStr"/>
@@ -3718,12 +3718,12 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>스마트모니터</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
@@ -3745,22 +3745,22 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>한성컴퓨터 TFX156T DEX 포터블 HDR</t>
+          <t>한성컴퓨터 TFX133T DEX 포터블 HDR</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=21936337549</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=21918294654</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2193633/21936337549.20200428094649.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2191829/21918294654.20200428094627.jpg</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>269000</t>
+          <t>229000</t>
         </is>
       </c>
       <c r="F59" t="inlineStr"/>
@@ -3803,22 +3803,22 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>한성컴퓨터 TFX133T DEX 포터블 HDR</t>
+          <t>벤큐 모비우스 EX2710S</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=21918294654</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27862189523</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2191829/21918294654.20200428094627.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2786218/27862189523.20220311174737.jpg</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>229000</t>
+          <t>369000</t>
         </is>
       </c>
       <c r="F60" t="inlineStr"/>
@@ -3834,12 +3834,12 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>벤큐</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>벤큐</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
@@ -3861,22 +3861,22 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>삼성전자 삼성 S34J550</t>
+          <t>삼성전자 오디세이 G3 S27AG300 144</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=15704895486</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27535066522</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1570489/15704895486.20210203133054.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2753506/27535066522.20210611135052.jpg</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>409000</t>
+          <t>319000</t>
         </is>
       </c>
       <c r="F61" t="inlineStr"/>
@@ -3892,7 +3892,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>삼성</t>
+          <t>오디세이</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3919,22 +3919,22 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>LG전자 24MK600M</t>
+          <t>LG전자 울트라기어 27GP750</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=14556210024</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=29060355587</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1455621/14556210024.20210406134738.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2906035/29060355587.20220125134215.jpg</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>200900</t>
+          <t>448000</t>
         </is>
       </c>
       <c r="F62" t="inlineStr"/>
@@ -3950,7 +3950,7 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>울트라기어</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3977,22 +3977,22 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>삼성전자 오디세이 G3 S27AG300 144</t>
+          <t>LG전자 24MN430HW</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27535066522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=23244797490</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2753506/27535066522.20210611135052.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2324479/23244797490.20220311131641.jpg</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>319000</t>
+          <t>184900</t>
         </is>
       </c>
       <c r="F63" t="inlineStr"/>
@@ -4008,12 +4008,12 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>오디세이</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
@@ -4035,22 +4035,22 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>한성컴퓨터 TFG27F14P IPS 144</t>
+          <t>알파스캔 AOC Q32V3S 75 무결점</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=23258436490</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=26013420522</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2325843/23258436490.20200624161211.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2601342/26013420522.20220211140907.jpg</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>249000</t>
+          <t>316590</t>
         </is>
       </c>
       <c r="F64" t="inlineStr"/>
@@ -4066,12 +4066,12 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>알파스캔</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>알파스캔</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
@@ -4093,22 +4093,22 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>알파스캔 AOC Q32V3S 75 무결점</t>
+          <t>삼성전자 오디세이 G5 C34G55T 165</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=26013420522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=25744041522</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2601342/26013420522.20220211140907.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2574404/25744041522.20210324143655.jpg</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>316760</t>
+          <t>541700</t>
         </is>
       </c>
       <c r="F65" t="inlineStr"/>
@@ -4124,12 +4124,12 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>알파스캔</t>
+          <t>오디세이</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>알파스캔</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
@@ -4151,22 +4151,22 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>LG전자 울트라기어 27GP750</t>
+          <t>LG전자 24MK600M</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=29060355587</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=14556210024</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2906035/29060355587.20220125134215.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1455621/14556210024.20210406134738.jpg</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>448000</t>
+          <t>200900</t>
         </is>
       </c>
       <c r="F66" t="inlineStr"/>
@@ -4182,7 +4182,7 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>울트라기어</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -4209,22 +4209,22 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>LG전자 24MN430HW</t>
+          <t>한성컴퓨터 TFG29F07WP IPS 울트라와이드</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=23244797490</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=29125693586</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2324479/23244797490.20220311131641.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2912569/29125693586.20211006161419.jpg</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>184900</t>
+          <t>239000</t>
         </is>
       </c>
       <c r="F67" t="inlineStr"/>
@@ -4240,12 +4240,12 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
@@ -4267,22 +4267,22 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>삼성전자 삼성 S6 S34A650U 100</t>
+          <t>삼성전자 삼성 S34J550</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=26393243522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=15704895486</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2639324/26393243522.20210317135044.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1570489/15704895486.20210203133054.jpg</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>599000</t>
+          <t>409000</t>
         </is>
       </c>
       <c r="F68" t="inlineStr"/>
@@ -4340,7 +4340,7 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>249000</t>
+          <t>248880</t>
         </is>
       </c>
       <c r="F69" t="inlineStr"/>
@@ -4383,22 +4383,22 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>LG전자 울트라HD 27UP850</t>
+          <t>한성컴퓨터 TFG27F14P IPS 144</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27124459522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=23258436490</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2712445/27124459522.20210512183326.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2325843/23258436490.20200624161211.jpg</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>649000</t>
+          <t>249000</t>
         </is>
       </c>
       <c r="F70" t="inlineStr"/>
@@ -4414,12 +4414,12 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>울트라HD</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
@@ -4441,22 +4441,22 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>삼성전자 오디세이 G5 S27AG500 165</t>
+          <t>삼성전자 삼성 슈퍼 와이드 게이밍 120 DQHD C49RG90</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27611446522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=18571615807</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2761144/27611446522.20210617101529.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1857161/18571615807.20210203133352.jpg</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>539000</t>
+          <t>1270000</t>
         </is>
       </c>
       <c r="F71" t="inlineStr"/>
@@ -4472,7 +4472,7 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>오디세이</t>
+          <t>삼성</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -4499,22 +4499,22 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>한성컴퓨터 TFG29F07WP IPS 울트라와이드</t>
+          <t>삼성전자 삼성 S6 S34A650U 100</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=29125693586</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=26393243522</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2912569/29125693586.20211006161419.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2639324/26393243522.20210317135044.jpg</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>239000</t>
+          <t>599000</t>
         </is>
       </c>
       <c r="F72" t="inlineStr"/>
@@ -4530,12 +4530,12 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>삼성</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
@@ -4557,22 +4557,22 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>알파스캔 AOC Q27G2S 155</t>
+          <t>알파스캔 AOC 24B2 75 무결점</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24694967522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24171105522</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2469496/24694967522.20210310172228.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2417110/24171105522.20210310172014.jpg</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>439000</t>
+          <t>176000</t>
         </is>
       </c>
       <c r="F73" t="inlineStr"/>
@@ -4615,22 +4615,22 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>삼성전자 오디세이 G5 C34G55T 165</t>
+          <t>LG전자 울트라와이드 34WP500</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=25744041522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27584005522</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2574404/25744041522.20210324143655.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2758400/27584005522.20210615125004.jpg</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>575000</t>
+          <t>398880</t>
         </is>
       </c>
       <c r="F74" t="inlineStr"/>
@@ -4646,12 +4646,12 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>오디세이</t>
+          <t>울트라와이드</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
@@ -4673,22 +4673,22 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>알파스캔 AOC 24B2 75 무결점</t>
+          <t>삼성전자 스마트모니터 M5 S27AM501</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24171105522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=26870246522</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2417110/24171105522.20210310172014.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2687024/26870246522.20210422150359.jpg</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>176000</t>
+          <t>339000</t>
         </is>
       </c>
       <c r="F75" t="inlineStr"/>
@@ -4704,12 +4704,12 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>알파스캔</t>
+          <t>스마트모니터</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>알파스캔</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
@@ -4731,22 +4731,22 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>주연테크 V28UE</t>
+          <t>삼성전자 오디세이 G3 S24AG300 144</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=26322015522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27534600522</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2632201/26322015522.20210311142212.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2753460/27534600522.20210611131536.jpg</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>319000</t>
+          <t>249000</t>
         </is>
       </c>
       <c r="F76" t="inlineStr"/>
@@ -4762,12 +4762,12 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>주연테크</t>
+          <t>오디세이</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>주연테크</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
@@ -4789,22 +4789,22 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>벤큐 XL2411P 아이케어</t>
+          <t>LG전자 울트라HD 27UP850</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=12954974985</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27124459522</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1295497/12954974985.20220311173549.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2712445/27124459522.20210512183326.jpg</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>299000</t>
+          <t>648880</t>
         </is>
       </c>
       <c r="F77" t="inlineStr"/>
@@ -4820,12 +4820,12 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>벤큐</t>
+          <t>울트라HD</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>벤큐</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
@@ -4847,22 +4847,22 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>LG전자 울트라기어 24GN600 144Hz</t>
+          <t>한성컴퓨터 TFG30F20W  울트라와이드 200 게이밍</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=26122103522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27287676522</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2612210/26122103522.20220124181046.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2728767/27287676522.20210628121550.jpg</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>248900</t>
+          <t>299000</t>
         </is>
       </c>
       <c r="F78" t="inlineStr"/>
@@ -4878,12 +4878,12 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>울트라기어</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
@@ -4905,22 +4905,22 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>삼성전자 오디세이 G3 S24AG300 144</t>
+          <t>한성컴퓨터 TFG34Q14W 1500R 커브드 리얼 144 울트라와이드 게이밍</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27534600522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=29326560618</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2753460/27534600522.20210611131536.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2932656/29326560618.20211021130829.jpg</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>249000</t>
+          <t>399000</t>
         </is>
       </c>
       <c r="F79" t="inlineStr"/>
@@ -4936,12 +4936,12 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>오디세이</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
@@ -4963,22 +4963,22 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>삼성전자 삼성 슈퍼 와이드 게이밍 120 DQHD C49RG90</t>
+          <t>한성컴퓨터 TFG27Q14P 144</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=18571615807</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27327723522</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1857161/18571615807.20210203133352.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2732772/27327723522.20210527095004.jpg</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>1270000</t>
+          <t>329000</t>
         </is>
       </c>
       <c r="F80" t="inlineStr"/>
@@ -4994,12 +4994,12 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>삼성</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
@@ -5021,22 +5021,22 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>한성컴퓨터 TFG30F20W  울트라와이드 200 게이밍</t>
+          <t>LG전자 울트라기어 24GN600 144Hz</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27287676522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=26122103522</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2728767/27287676522.20210628121550.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2612210/26122103522.20220124181046.jpg</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>299000</t>
+          <t>248880</t>
         </is>
       </c>
       <c r="F81" t="inlineStr"/>
@@ -5052,12 +5052,12 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>울트라기어</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
@@ -5079,22 +5079,22 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>삼성전자 스마트모니터 M5 S27AM501</t>
+          <t>삼성전자 오디세이 G5 S27AG500 165</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=26870246522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27611446522</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2687024/26870246522.20210422150359.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2761144/27611446522.20210617101529.jpg</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>339000</t>
+          <t>539000</t>
         </is>
       </c>
       <c r="F82" t="inlineStr"/>
@@ -5110,7 +5110,7 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>스마트모니터</t>
+          <t>오디세이</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -5137,22 +5137,22 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>삼성전자 삼성 LS32BM801UKXKR</t>
+          <t>주연테크 V28UE-M</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=31160861618</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27493158522</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3116086/31160861618.20220304142910.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2749315/27493158522.20210608162022.jpg</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>799000</t>
+          <t>329000</t>
         </is>
       </c>
       <c r="F83" t="inlineStr"/>
@@ -5168,12 +5168,12 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>삼성</t>
+          <t>주연테크</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>주연테크</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
@@ -5195,22 +5195,22 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>LG전자 울트라HD 32UN880</t>
+          <t>알파스캔 AOC Q27G2S 155</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24554243522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24694967522</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2455424/24554243522.20210406130449.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2469496/24694967522.20210310172228.jpg</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>798990</t>
+          <t>439000</t>
         </is>
       </c>
       <c r="F84" t="inlineStr"/>
@@ -5226,12 +5226,12 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>울트라HD</t>
+          <t>알파스캔</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>알파스캔</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
@@ -5253,22 +5253,22 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>한성컴퓨터 TFG27Q14P 144</t>
+          <t>한성컴퓨터 TFG34Q10W 1500R 커브드 게이밍 리얼100 울트라와이드</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27327723522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=20889802847</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2732772/27327723522.20210527095004.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2088980/20889802847.20200424100610.jpg</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>329000</t>
+          <t>359000</t>
         </is>
       </c>
       <c r="F85" t="inlineStr"/>
@@ -5311,22 +5311,22 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>DELL 울트라샤프 U2720Q</t>
+          <t>벤큐 EW3270U 아이케어</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=21752731630</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=14334382813</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2175273/21752731630.20200327122054.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1433438/14334382813.20220318102530.jpg</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>779000</t>
+          <t>519000</t>
         </is>
       </c>
       <c r="F86" t="inlineStr"/>
@@ -5342,12 +5342,12 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>울트라샤프</t>
+          <t>벤큐</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>DELL</t>
+          <t>벤큐</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
@@ -5369,22 +5369,22 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>한성컴퓨터 TFG34Q10W 1500R 커브드 게이밍 리얼100 울트라와이드</t>
+          <t>LG전자 울트라HD 32UN880</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=20889802847</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24554243522</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2088980/20889802847.20200424100610.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2455424/24554243522.20210406130449.jpg</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>359000</t>
+          <t>798890</t>
         </is>
       </c>
       <c r="F87" t="inlineStr"/>
@@ -5400,12 +5400,12 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>울트라HD</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
@@ -5427,22 +5427,22 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>알파스캔 AOC 27B2 보더리스 75 시력보호</t>
+          <t>DELL 울트라샤프 U2720Q</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=21720504796</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=21752731630</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2172050/21720504796.20210310171806.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2175273/21752731630.20200327122054.jpg</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>218000</t>
+          <t>779000</t>
         </is>
       </c>
       <c r="F88" t="inlineStr"/>
@@ -5458,12 +5458,12 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>알파스캔</t>
+          <t>울트라샤프</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>알파스캔</t>
+          <t>DELL</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
@@ -5485,22 +5485,22 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>벤큐 EW3270U 아이케어</t>
+          <t>삼성전자 오디세이 G5 G55A S32AG550 165</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=14334382813</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=30452689619</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1433438/14334382813.20220318102530.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3045268/30452689619.20220107112043.jpg</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>519000</t>
+          <t>439450</t>
         </is>
       </c>
       <c r="F89" t="inlineStr"/>
@@ -5516,12 +5516,12 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>벤큐</t>
+          <t>오디세이</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>벤큐</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
@@ -5543,17 +5543,17 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>한성컴퓨터 TFX156T PRO DEX 포터블 400cd 멀티터치</t>
+          <t>벤큐 XL2411P 아이케어</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=26158967522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=12954974985</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2615896/26158967522.20210226123516.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1295497/12954974985.20220311173549.jpg</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -5574,12 +5574,12 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>벤큐</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>벤큐</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
@@ -5601,22 +5601,22 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>삼성전자 오디세이 G5 G52A S32AG520 165</t>
+          <t>LG전자 27ML600SW</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=30454046618</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=19105887903</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3045404/30454046618.20220107131705.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1910588/19105887903.20220125134154.jpg</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>619000</t>
+          <t>262900</t>
         </is>
       </c>
       <c r="F91" t="inlineStr"/>
@@ -5632,12 +5632,12 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>오디세이</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
@@ -5659,22 +5659,22 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>한성컴퓨터 TFG34Q14W 1500R 커브드 리얼 144 울트라와이드 게이밍</t>
+          <t>LG전자 울트라기어 32GN650</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=29326560618</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=25413802522</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2932656/29326560618.20211021130829.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2541380/25413802522.20220124181008.jpg</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>399000</t>
+          <t>448880</t>
         </is>
       </c>
       <c r="F92" t="inlineStr"/>
@@ -5690,12 +5690,12 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>울트라기어</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K92" t="inlineStr">
@@ -5717,22 +5717,22 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>ASUS VP249QGR</t>
+          <t>알파스캔 AOC 27B2 보더리스 75 시력보호</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=23257115490</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=21720504796</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2325711/23257115490.20211125152957.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2172050/21720504796.20210310171806.jpg</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>236870</t>
+          <t>218000</t>
         </is>
       </c>
       <c r="F93" t="inlineStr"/>
@@ -5748,12 +5748,12 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>ASUS</t>
+          <t>알파스캔</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>ASUS</t>
+          <t>알파스캔</t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
@@ -5775,22 +5775,22 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>삼성전자 오디세이 G5 G55A S32AG550 165</t>
+          <t>한성컴퓨터 TFG39Q14V 144</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=30452689619</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=26826361522</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3045268/30452689619.20220107112043.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2682636/26826361522.20210419161946.jpg</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>439450</t>
+          <t>479000</t>
         </is>
       </c>
       <c r="F94" t="inlineStr"/>
@@ -5806,12 +5806,12 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>오디세이</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="K94" t="inlineStr">
@@ -5833,22 +5833,22 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>LG전자 울트라기어 32GP850</t>
+          <t>한성컴퓨터 TFX156T PRO DEX 포터블 400cd 멀티터치</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27405944522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=26158967522</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2740594/27405944522.20220124180945.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2615896/26158967522.20210226123516.jpg</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>748900</t>
+          <t>299000</t>
         </is>
       </c>
       <c r="F95" t="inlineStr"/>
@@ -5864,12 +5864,12 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>울트라기어</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="K95" t="inlineStr">
@@ -5891,22 +5891,22 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>큐닉스그룹 큐닉스 QX431U 4K IPS HDR</t>
+          <t>DELL S2721DS</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=23488393490</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24525570527</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2348839/23488393490.20201019172606.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2452557/24525570527.20201117112539.jpg</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>498990</t>
+          <t>368000</t>
         </is>
       </c>
       <c r="F96" t="inlineStr"/>
@@ -5922,12 +5922,12 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>큐닉스</t>
+          <t>DELL</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>큐닉스그룹</t>
+          <t>DELL</t>
         </is>
       </c>
       <c r="K96" t="inlineStr">
@@ -5949,22 +5949,22 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>LG전자 울트라와이드 34WP500</t>
+          <t>주연테크 V28UE</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27584005522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=26322015522</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2758400/27584005522.20210615125004.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2632201/26322015522.20210311142212.jpg</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>398900</t>
+          <t>319000</t>
         </is>
       </c>
       <c r="F97" t="inlineStr"/>
@@ -5980,12 +5980,12 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>울트라와이드</t>
+          <t>주연테크</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>주연테크</t>
         </is>
       </c>
       <c r="K97" t="inlineStr">
@@ -6007,22 +6007,22 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>한성컴퓨터 TFG39Q14V 144</t>
+          <t>벤큐 XL2540K 240</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=26826361522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=28506139554</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2682636/26826361522.20210419161946.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2850613/28506139554.20220311173751.jpg</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>479000</t>
+          <t>539000</t>
         </is>
       </c>
       <c r="F98" t="inlineStr"/>
@@ -6038,12 +6038,12 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>벤큐</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>벤큐</t>
         </is>
       </c>
       <c r="K98" t="inlineStr">
@@ -6065,22 +6065,22 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>LG전자 울트라기어 32GN650</t>
+          <t>DELL 울트라샤프 U2722D</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=25413802522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27124609522</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2541380/25413802522.20220124181008.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2712460/27124609522.20210719172836.jpg</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>448900</t>
+          <t>509000</t>
         </is>
       </c>
       <c r="F99" t="inlineStr"/>
@@ -6096,12 +6096,12 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>울트라기어</t>
+          <t>울트라샤프</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>DELL</t>
         </is>
       </c>
       <c r="K99" t="inlineStr">
@@ -6123,22 +6123,22 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>삼성전자 삼성 S27R35A</t>
+          <t>ASUS VP249QGR</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=25885966522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=23257115490</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2588596/25885966522.20210205160851.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2325711/23257115490.20211125152957.jpg</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>236950</t>
+          <t>236870</t>
         </is>
       </c>
       <c r="F100" t="inlineStr"/>
@@ -6154,12 +6154,12 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>삼성</t>
+          <t>ASUS</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>ASUS</t>
         </is>
       </c>
       <c r="K100" t="inlineStr">
@@ -6181,22 +6181,22 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>LG전자 울트라와이드 34WN750</t>
+          <t>한성컴퓨터 TFX156PB</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=23257853490</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=28193235522</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2325785/23257853490.20200824150256.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2819323/28193235522.20210728161135.jpg</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>548900</t>
+          <t>309000</t>
         </is>
       </c>
       <c r="F101" t="inlineStr"/>
@@ -6212,12 +6212,12 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>울트라와이드</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="K101" t="inlineStr">

--- a/output.xlsx
+++ b/output.xlsx
@@ -512,7 +512,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>178000</t>
+          <t>164760</t>
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
@@ -671,22 +671,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>LG전자 24MK430H 24인치 FHD IPS 광시야각 모니터</t>
+          <t>삼성전자 삼성 C32R500F</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=13643814149</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=22483121542</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1364381/13643814149.20200824151155.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2248312/22483121542.20210602151356.jpg</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>184900</t>
+          <t>269000</t>
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
@@ -702,12 +702,12 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>삼성</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -729,22 +729,22 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>삼성전자 삼성 C32R500F</t>
+          <t>삼성전자 삼성 S27R350</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=22483121542</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=21775935202</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2248312/22483121542.20210602151356.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2177593/21775935202.20210203132859.jpg</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>269000</t>
+          <t>247000</t>
         </is>
       </c>
       <c r="F7" t="inlineStr"/>
@@ -787,22 +787,22 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>삼성전자 삼성 S27R350</t>
+          <t>LG전자 24MK430H 24인치 FHD IPS 광시야각 모니터</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=21775935202</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=13643814149</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2177593/21775935202.20210203132859.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1364381/13643814149.20200824151155.jpg</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>247000</t>
+          <t>184900</t>
         </is>
       </c>
       <c r="F8" t="inlineStr"/>
@@ -818,12 +818,12 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>삼성</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -860,7 +860,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>598000</t>
+          <t>599000</t>
         </is>
       </c>
       <c r="F9" t="inlineStr"/>
@@ -903,22 +903,22 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>삼성전자 스마트모니터 M7 S43AM700</t>
+          <t>LG전자 27MN430HW</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27215825524</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=23301354490</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2721582/27215825524.20210520173025.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2330135/23301354490.20200824152000.jpg</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>589000</t>
+          <t>223000</t>
         </is>
       </c>
       <c r="F10" t="inlineStr"/>
@@ -934,12 +934,12 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>스마트모니터</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -961,22 +961,22 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>LG전자 27MK430H</t>
+          <t>한성컴퓨터 ULTRON 3278 QHD New</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=15183175543</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=16776093488</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1518317/15183175543.20200824151717.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1677609/16776093488.20200424094717.jpg</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>222900</t>
+          <t>269000</t>
         </is>
       </c>
       <c r="F11" t="inlineStr"/>
@@ -992,12 +992,12 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -1019,22 +1019,22 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>LG전자 27MN430HW</t>
+          <t>삼성전자 스마트모니터 M7 S43AM700</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=23301354490</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27215825524</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2330135/23301354490.20200824152000.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2721582/27215825524.20210520173025.jpg</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>222220</t>
+          <t>589000</t>
         </is>
       </c>
       <c r="F12" t="inlineStr"/>
@@ -1050,12 +1050,12 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>스마트모니터</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -1077,22 +1077,22 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>한성컴퓨터 ULTRON 2760G 리얼 144</t>
+          <t>ASUS VG258QR</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=15020041438</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=18323660111</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1502004/15020041438.20200424094329.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1832366/18323660111.20190620142114.jpg</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>219000</t>
+          <t>278000</t>
         </is>
       </c>
       <c r="F13" t="inlineStr"/>
@@ -1108,12 +1108,12 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>ASUS</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>ASUS</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -1135,22 +1135,22 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>한성컴퓨터 ULTRON 3278 QHD New</t>
+          <t>LG전자 27MK430H</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=16776093488</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=15183175543</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1677609/16776093488.20200424094717.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1518317/15183175543.20200824151717.jpg</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>269000</t>
+          <t>222900</t>
         </is>
       </c>
       <c r="F14" t="inlineStr"/>
@@ -1166,12 +1166,12 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -1208,7 +1208,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>268880</t>
+          <t>268900</t>
         </is>
       </c>
       <c r="F15" t="inlineStr"/>
@@ -1251,22 +1251,22 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>ASUS VG258QR</t>
+          <t>LG전자 24ML600SW</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=18323660111</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=19105796246</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1832366/18323660111.20190620142114.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1910579/19105796246.20200824152520.jpg</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>278000</t>
+          <t>205900</t>
         </is>
       </c>
       <c r="F16" t="inlineStr"/>
@@ -1282,12 +1282,12 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>ASUS</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>ASUS</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -1309,22 +1309,22 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>LG전자 24ML600SW</t>
+          <t>한성컴퓨터 TFG32F16V 1500R 리얼 165 게이밍</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=19105796246</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=18778755031</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1910579/19105796246.20200824152520.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1877875/18778755031.20201230122744.jpg</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>205000</t>
+          <t>269000</t>
         </is>
       </c>
       <c r="F17" t="inlineStr"/>
@@ -1340,12 +1340,12 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -1367,22 +1367,22 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>한성컴퓨터 TFG32F16V 1500R 리얼 165 게이밍</t>
+          <t>한성컴퓨터 ULTRON 2760G 리얼 144</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=18778755031</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=15020041438</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1877875/18778755031.20201230122744.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1502004/15020041438.20200424094329.jpg</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>269000</t>
+          <t>219000</t>
         </is>
       </c>
       <c r="F18" t="inlineStr"/>
@@ -1425,22 +1425,22 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>벤큐 GW2480 아이케어 무결점</t>
+          <t>ASUS VA24DQLB</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=11846842637</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=23257141490</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1184684/11846842637.20220318094758.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2325714/23257141490.20200720175614.jpg</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>179000</t>
+          <t>219000</t>
         </is>
       </c>
       <c r="F19" t="inlineStr"/>
@@ -1456,12 +1456,12 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>벤큐</t>
+          <t>ASUS</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>벤큐</t>
+          <t>ASUS</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
@@ -1483,22 +1483,22 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>ASUS VA24DQLB</t>
+          <t>ASUS VZ27EHE 시력보호 Gaming 베젤리스</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=23257141490</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=29590676619</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2325714/23257141490.20200720175614.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2959067/29590676619.20220325125911.jpg</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>218990</t>
+          <t>226340</t>
         </is>
       </c>
       <c r="F20" t="inlineStr"/>
@@ -1541,22 +1541,22 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>한성컴퓨터 TFG27F16V 1500R 리얼 165 게이밍</t>
+          <t>한성컴퓨터 ULTRON 2460G 리얼 144 게이밍</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=18797620615</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=20471652225</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1879762/18797620615.20201230122720.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2047165/20471652225.20200424094042.jpg</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>219000</t>
+          <t>179000</t>
         </is>
       </c>
       <c r="F21" t="inlineStr"/>
@@ -1599,22 +1599,22 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>ASUS VZ27EHE 시력보호 Gaming 베젤리스</t>
+          <t>벤큐 GW2480 아이케어 무결점</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=29590676619</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=11846842637</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2959067/29590676619.20220325125911.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1184684/11846842637.20220318094758.jpg</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>226370</t>
+          <t>179000</t>
         </is>
       </c>
       <c r="F22" t="inlineStr"/>
@@ -1630,12 +1630,12 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>ASUS</t>
+          <t>벤큐</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>ASUS</t>
+          <t>벤큐</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
@@ -1657,22 +1657,22 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>한성컴퓨터 ULTRON 2460G 리얼 144 게이밍</t>
+          <t>한성컴퓨터 TFG32Q07P 75</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=20471652225</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=28655748554</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2047165/20471652225.20200424094042.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2865574/28655748554.20210831152013.jpg</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>179000</t>
+          <t>269000</t>
         </is>
       </c>
       <c r="F23" t="inlineStr"/>
@@ -1715,22 +1715,22 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>벤큐 XL2411K</t>
+          <t>LG전자 27TN600S</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24196764522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=21745903830</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2419676/24196764522.20220311173519.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2174590/21745903830.20200824150453.jpg</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>299000</t>
+          <t>349120</t>
         </is>
       </c>
       <c r="F24" t="inlineStr"/>
@@ -1746,12 +1746,12 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>벤큐</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>벤큐</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -1773,22 +1773,22 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>LG전자 32QN650</t>
+          <t>ASUS VG278QR</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=23692201495</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=18214439726</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2369220/23692201495.20210406132235.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1821443/18214439726.20190620142310.jpg</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>397990</t>
+          <t>349000</t>
         </is>
       </c>
       <c r="F25" t="inlineStr"/>
@@ -1804,12 +1804,12 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>ASUS</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>ASUS</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -1831,22 +1831,22 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>한성컴퓨터 ULTRON 2435V 프리싱크 리얼75</t>
+          <t>LG전자 32QN650</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=13487979407</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=23692201495</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1348797/13487979407.20211116100954.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2369220/23692201495.20210406132235.jpg</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>149000</t>
+          <t>398890</t>
         </is>
       </c>
       <c r="F26" t="inlineStr"/>
@@ -1862,12 +1862,12 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
@@ -1889,22 +1889,22 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>ASUS VG278QR</t>
+          <t>벤큐 XL2411K</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=18214439726</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24196764522</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1821443/18214439726.20190620142310.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2419676/24196764522.20220311173519.jpg</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>349000</t>
+          <t>299000</t>
         </is>
       </c>
       <c r="F27" t="inlineStr"/>
@@ -1920,12 +1920,12 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>ASUS</t>
+          <t>벤큐</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>ASUS</t>
+          <t>벤큐</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -1947,22 +1947,22 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>벤큐 XL2546K</t>
+          <t>한성컴퓨터 ULTRON 2435V 프리싱크 리얼75</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24235203522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=13487979407</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2423520/24235203522.20220311173812.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1348797/13487979407.20211116100954.jpg</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>699000</t>
+          <t>149000</t>
         </is>
       </c>
       <c r="F28" t="inlineStr"/>
@@ -1978,12 +1978,12 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>벤큐</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>벤큐</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -2005,22 +2005,22 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>삼성전자 오디세이 G5 C27G54T</t>
+          <t>벤큐 XL2546K</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=23896119522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24235203522</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2389611/23896119522.20210302142506.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2423520/24235203522.20220311173812.jpg</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>329000</t>
+          <t>699000</t>
         </is>
       </c>
       <c r="F29" t="inlineStr"/>
@@ -2036,12 +2036,12 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>오디세이</t>
+          <t>벤큐</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>벤큐</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
@@ -2063,22 +2063,22 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>삼성전자 삼성 F24T450</t>
+          <t>삼성전자 오디세이 G5 C27G54T</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24007200522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=23896119522</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2400720/24007200522.20210203133027.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2389611/23896119522.20210302142506.jpg</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>229420</t>
+          <t>328960</t>
         </is>
       </c>
       <c r="F30" t="inlineStr"/>
@@ -2094,7 +2094,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>삼성</t>
+          <t>오디세이</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -2121,22 +2121,22 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>벤큐 GW2780 아이케어</t>
+          <t>한성컴퓨터 TFG27F16V 1500R 리얼 165 게이밍</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=11846746201</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=18797620615</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1184674/11846746201.20220318094817.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1879762/18797620615.20201230122720.jpg</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>229000</t>
+          <t>219000</t>
         </is>
       </c>
       <c r="F31" t="inlineStr"/>
@@ -2152,12 +2152,12 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>벤큐</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>벤큐</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
@@ -2179,22 +2179,22 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>한성컴퓨터 TFG32Q07P 75</t>
+          <t>삼성전자 삼성 F24T450</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=28655748554</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24007200522</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2865574/28655748554.20210831152013.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2400720/24007200522.20210203133027.jpg</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>269000</t>
+          <t>229420</t>
         </is>
       </c>
       <c r="F32" t="inlineStr"/>
@@ -2210,12 +2210,12 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>삼성</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
@@ -2237,22 +2237,22 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>삼성전자 스마트모니터 M7 S32AM701</t>
+          <t>한성컴퓨터 TFX32U06V 4K HDR 1500R 커브드</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=29724256618</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=20942220356</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2972425/29724256618.20211117133727.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2094222/20942220356.20210630112723.jpg</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>519000</t>
+          <t>299000</t>
         </is>
       </c>
       <c r="F33" t="inlineStr"/>
@@ -2268,12 +2268,12 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>스마트모니터</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
@@ -2295,22 +2295,22 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>삼성전자 스마트모니터 M5 S27AM500</t>
+          <t>삼성전자 스마트모니터 M5 S32AM501</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=25524380522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=26870008522</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2552438/25524380522.20210302142816.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2687000/26870008522.20210422145112.jpg</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>299000</t>
+          <t>355000</t>
         </is>
       </c>
       <c r="F34" t="inlineStr"/>
@@ -2353,22 +2353,22 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>LG전자 27TN600S</t>
+          <t>삼성전자 스마트모니터 M5 S27AM500</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=21745903830</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=25524380522</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2174590/21745903830.20200824150453.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2552438/25524380522.20210302142816.jpg</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>348810</t>
+          <t>299000</t>
         </is>
       </c>
       <c r="F35" t="inlineStr"/>
@@ -2384,12 +2384,12 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>스마트모니터</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
@@ -2411,22 +2411,22 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>삼성전자 스마트모니터 M5 S32AM501</t>
+          <t>벤큐 GW2780 아이케어</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=26870008522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=11846746201</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2687000/26870008522.20210422145112.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1184674/11846746201.20220318094817.jpg</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>355000</t>
+          <t>229000</t>
         </is>
       </c>
       <c r="F36" t="inlineStr"/>
@@ -2442,12 +2442,12 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>스마트모니터</t>
+          <t>벤큐</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>벤큐</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
@@ -2469,22 +2469,22 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>LG전자 울트라HD 27UL550</t>
+          <t>삼성전자 스마트모니터 M7 S32AM701</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=19298157033</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=29724256618</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1929815/19298157033.20200824143609.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2972425/29724256618.20211117133727.jpg</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>398880</t>
+          <t>519000</t>
         </is>
       </c>
       <c r="F37" t="inlineStr"/>
@@ -2500,12 +2500,12 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>울트라HD</t>
+          <t>스마트모니터</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
@@ -2527,22 +2527,22 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>한성컴퓨터 ULTRON 2758 프리싱크 리얼 75</t>
+          <t>LG전자 울트라HD 27UL550</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=14816445651</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=19298157033</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1481644/14816445651.20220310121415.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1929815/19298157033.20200824143609.jpg</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>179000</t>
+          <t>399000</t>
         </is>
       </c>
       <c r="F38" t="inlineStr"/>
@@ -2558,12 +2558,12 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>울트라HD</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
@@ -2643,22 +2643,22 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>삼성전자 오디세이 G5 C32G54T</t>
+          <t>삼성전자 스마트모니터 M5 S32AM500</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=23896004523</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=25524342522</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2389600/23896004523.20210203132926.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2552434/25524342522.20210302142529.jpg</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>409000</t>
+          <t>345000</t>
         </is>
       </c>
       <c r="F40" t="inlineStr"/>
@@ -2674,7 +2674,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>오디세이</t>
+          <t>스마트모니터</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2701,22 +2701,22 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>삼성전자 스마트모니터 M5 S32AM500</t>
+          <t>삼성전자 오디세이 G5 C32G54T</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=25524342522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=23896004523</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2552434/25524342522.20210302142529.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2389600/23896004523.20210203132926.jpg</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>345000</t>
+          <t>407170</t>
         </is>
       </c>
       <c r="F41" t="inlineStr"/>
@@ -2732,7 +2732,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>스마트모니터</t>
+          <t>오디세이</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2759,22 +2759,22 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>삼성전자 삼성 C32T550</t>
+          <t>한성컴퓨터 ULTRON 2758 프리싱크 리얼 75</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=22448790144</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=14816445651</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2244879/22448790144.20210203133005.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1481644/14816445651.20220310121415.jpg</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>359000</t>
+          <t>179000</t>
         </is>
       </c>
       <c r="F42" t="inlineStr"/>
@@ -2790,12 +2790,12 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>삼성</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
@@ -2817,22 +2817,22 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>LG전자 울트라기어 27GN650</t>
+          <t>삼성전자 삼성 C32T550</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=25413919522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=22448790144</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2541391/25413919522.20220125134231.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2244879/22448790144.20210203133005.jpg</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>398880</t>
+          <t>359000</t>
         </is>
       </c>
       <c r="F43" t="inlineStr"/>
@@ -2848,12 +2848,12 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>울트라기어</t>
+          <t>삼성</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
@@ -2875,22 +2875,22 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>필립스 271E1 프리싱크 75 시력보호 제로베젤</t>
+          <t>LG전자 울트라기어 27GN650</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=21496753758</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=25413919522</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2149675/21496753758.20200221173844.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2541391/25413919522.20220125134231.jpg</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>218000</t>
+          <t>398890</t>
         </is>
       </c>
       <c r="F44" t="inlineStr"/>
@@ -2906,12 +2906,12 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>필립스</t>
+          <t>울트라기어</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>필립스</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
@@ -2933,22 +2933,22 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>LG전자 27QN600</t>
+          <t>삼성전자 삼성 U32J590</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=23849172522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=14306268525</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2384917/23849172522.20210406141920.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1430626/14306268525.20210203133511.jpg</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>318870</t>
+          <t>388000</t>
         </is>
       </c>
       <c r="F45" t="inlineStr"/>
@@ -2964,12 +2964,12 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>삼성</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
@@ -2991,22 +2991,22 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>삼성전자 삼성 U32J590</t>
+          <t>알파스캔 AOC Q32V3S 75 무결점</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=14306268525</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=26013420522</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1430626/14306268525.20210203133511.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2601342/26013420522.20220211140907.jpg</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>379000</t>
+          <t>314380</t>
         </is>
       </c>
       <c r="F46" t="inlineStr"/>
@@ -3022,12 +3022,12 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>삼성</t>
+          <t>알파스캔</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>알파스캔</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
@@ -3049,22 +3049,22 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>한성컴퓨터 TFG34Q14WQ 퀀텀닷 1500R 리얼 144 울트라와이드 게이밍</t>
+          <t>삼성전자 오디세이 G3 S27AG300 144</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=22312278223</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27535066522</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2231227/22312278223.20220215171608.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2753506/27535066522.20210611135052.jpg</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>429000</t>
+          <t>319000</t>
         </is>
       </c>
       <c r="F47" t="inlineStr"/>
@@ -3080,12 +3080,12 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>오디세이</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
@@ -3107,22 +3107,22 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>한성컴퓨터 TFX32U06V 4K HDR 1500R 커브드</t>
+          <t>LG전자 27QN600</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=20942220356</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=23849172522</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2094222/20942220356.20210630112723.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2384917/23849172522.20210406141920.jpg</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>299000</t>
+          <t>318890</t>
         </is>
       </c>
       <c r="F48" t="inlineStr"/>
@@ -3138,12 +3138,12 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
@@ -3165,22 +3165,22 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>한성컴퓨터 TFG32F14F 144</t>
+          <t>한성컴퓨터 TFG34Q14WQ 퀀텀닷 1500R 리얼 144 울트라와이드 게이밍</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24380347522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=22312278223</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2438034/24380347522.20201007114746.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2231227/22312278223.20220215171608.jpg</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>269000</t>
+          <t>429000</t>
         </is>
       </c>
       <c r="F49" t="inlineStr"/>
@@ -3223,22 +3223,22 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>삼성전자 오디세이 G3 S27AG300 144</t>
+          <t>한성컴퓨터 TFG27Q14F QHD 평면 144 게이밍</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27535066522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24509574524</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2753506/27535066522.20210611135052.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2450957/24509574524.20201022114639.jpg</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>319000</t>
+          <t>279000</t>
         </is>
       </c>
       <c r="F50" t="inlineStr"/>
@@ -3254,12 +3254,12 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>오디세이</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
@@ -3281,22 +3281,22 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>한성컴퓨터 TFG27Q14F QHD 평면 144 게이밍</t>
+          <t>필립스 271E1 프리싱크 75 시력보호 제로베젤</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24509574524</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=21496753758</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2450957/24509574524.20201022114639.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2149675/21496753758.20200221173844.jpg</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>279000</t>
+          <t>218000</t>
         </is>
       </c>
       <c r="F51" t="inlineStr"/>
@@ -3312,12 +3312,12 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>필립스</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>필립스</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
@@ -3339,22 +3339,22 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>삼성전자 오디세이 Neo G9 S49AG950 49인치 게이밍 모니터</t>
+          <t>벤큐 모비우스 EX2710S</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=28288984554</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27862189523</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2828898/28288984554.20210810100808.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2786218/27862189523.20220311174737.jpg</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>2160000</t>
+          <t>359000</t>
         </is>
       </c>
       <c r="F52" t="inlineStr"/>
@@ -3370,12 +3370,12 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>오디세이</t>
+          <t>벤큐</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>벤큐</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
@@ -3397,22 +3397,22 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>한성컴퓨터 TFX156T DEX 포터블 HDR</t>
+          <t>한성컴퓨터 TFG32F24V 240</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=21936337549</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=28162745522</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2193633/21936337549.20200428094649.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2816274/28162745522.20210726183542.jpg</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>269000</t>
+          <t>299000</t>
         </is>
       </c>
       <c r="F53" t="inlineStr"/>
@@ -3513,22 +3513,22 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>LG전자 24MP400</t>
+          <t>삼성전자 오디세이 Neo G9 S49AG950 49인치 게이밍 모니터</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27614392522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=28288984554</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2761439/27614392522.20210813165340.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2828898/28288984554.20210810100808.jpg</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>190000</t>
+          <t>2160000</t>
         </is>
       </c>
       <c r="F55" t="inlineStr"/>
@@ -3544,12 +3544,12 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>오디세이</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
@@ -3571,22 +3571,22 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>벤큐 모비우스 EX2710S</t>
+          <t>삼성전자 오디세이 G5 C34G55T 165</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27862189523</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=25744041522</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2786218/27862189523.20220311174737.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2574404/25744041522.20210324143655.jpg</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>346610</t>
+          <t>574990</t>
         </is>
       </c>
       <c r="F56" t="inlineStr"/>
@@ -3602,12 +3602,12 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>벤큐</t>
+          <t>오디세이</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>벤큐</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
@@ -3629,22 +3629,22 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>알파스캔 AOC Q27G2S 155</t>
+          <t>LG전자 그램+뷰 16MQ70</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24694967522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=30377313618</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2469496/24694967522.20210310172228.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3037731/30377313618.20211231144328.jpg</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>438000</t>
+          <t>376570</t>
         </is>
       </c>
       <c r="F57" t="inlineStr"/>
@@ -3660,12 +3660,12 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>알파스캔</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>알파스캔</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
@@ -3687,22 +3687,22 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>한성컴퓨터 TFG30F20W  울트라와이드 200 게이밍</t>
+          <t>알파스캔 AOC Q27G2S 155</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27287676522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24694967522</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2728767/27287676522.20210628121550.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2469496/24694967522.20210310172228.jpg</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>299000</t>
+          <t>438000</t>
         </is>
       </c>
       <c r="F58" t="inlineStr"/>
@@ -3718,12 +3718,12 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>알파스캔</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>알파스캔</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
@@ -3745,22 +3745,22 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>MSI 옵틱스 G271 게이밍 144 아이세이버</t>
+          <t>한성컴퓨터 TFG30F20W  울트라와이드 200 게이밍</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=22435637800</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27287676522</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2243563/22435637800.20201111111336.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2728767/27287676522.20210628121550.jpg</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>219000</t>
+          <t>299000</t>
         </is>
       </c>
       <c r="F59" t="inlineStr"/>
@@ -3776,12 +3776,12 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>MSI</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>MSI</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
@@ -3803,22 +3803,22 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>삼성전자 오디세이 G5 C34G55T 165</t>
+          <t>한성컴퓨터 TFG32F14F 144</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=25744041522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24380347522</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2574404/25744041522.20210324143655.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2438034/24380347522.20201007114746.jpg</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>574990</t>
+          <t>269000</t>
         </is>
       </c>
       <c r="F60" t="inlineStr"/>
@@ -3834,12 +3834,12 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>오디세이</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
@@ -3861,22 +3861,22 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>삼성전자 삼성 S34J550</t>
+          <t>LG전자 24MP400</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=15704895486</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27614392522</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1570489/15704895486.20210203133054.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2761439/27614392522.20210813165340.jpg</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>409000</t>
+          <t>190900</t>
         </is>
       </c>
       <c r="F61" t="inlineStr"/>
@@ -3892,12 +3892,12 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>삼성</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
@@ -3919,22 +3919,22 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>한성컴퓨터 TFX133T DEX 포터블 HDR</t>
+          <t>삼성전자 삼성 S34J550</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=21918294654</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=15704895486</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2191829/21918294654.20200428094627.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1570489/15704895486.20210203133054.jpg</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>229000</t>
+          <t>409000</t>
         </is>
       </c>
       <c r="F62" t="inlineStr"/>
@@ -3950,12 +3950,12 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>삼성</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
@@ -3977,22 +3977,22 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>삼성전자 삼성 S6 S34A650U 100</t>
+          <t>한성컴퓨터 TFG34Q14W 1500R 커브드 리얼 144 울트라와이드 게이밍</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=26393243522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=29326560618</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2639324/26393243522.20210317135044.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2932656/29326560618.20211021130829.jpg</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>599000</t>
+          <t>399000</t>
         </is>
       </c>
       <c r="F63" t="inlineStr"/>
@@ -4008,12 +4008,12 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>삼성</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
@@ -4035,22 +4035,22 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>LG전자 24MN430HW</t>
+          <t>MSI 옵틱스 G271 게이밍 144 아이세이버</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=23244797490</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=22435637800</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2324479/23244797490.20220311131641.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2243563/22435637800.20201111111336.jpg</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>184900</t>
+          <t>219000</t>
         </is>
       </c>
       <c r="F64" t="inlineStr"/>
@@ -4066,12 +4066,12 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>MSI</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>MSI</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
@@ -4093,22 +4093,22 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>한성컴퓨터 TFG32F24V 240</t>
+          <t>한성컴퓨터 TFX156T DEX 포터블 HDR</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=28162745522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=21936337549</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2816274/28162745522.20210726183542.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2193633/21936337549.20200428094649.jpg</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>299000</t>
+          <t>269000</t>
         </is>
       </c>
       <c r="F65" t="inlineStr"/>
@@ -4151,22 +4151,22 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>한성컴퓨터 TFG34Q14W 1500R 커브드 리얼 144 울트라와이드 게이밍</t>
+          <t>한성컴퓨터 TFG27F14P IPS 144</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=29326560618</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=23258436490</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2932656/29326560618.20211021130829.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2325843/23258436490.20200624161211.jpg</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>399000</t>
+          <t>249000</t>
         </is>
       </c>
       <c r="F66" t="inlineStr"/>
@@ -4209,22 +4209,22 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>LG전자 그램+뷰 16MQ70</t>
+          <t>한성컴퓨터 TFX133T DEX 포터블 HDR</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=30377313618</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=21918294654</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3037731/30377313618.20211231144328.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2191829/21918294654.20200428094627.jpg</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>376830</t>
+          <t>229000</t>
         </is>
       </c>
       <c r="F67" t="inlineStr"/>
@@ -4240,12 +4240,12 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
@@ -4325,22 +4325,22 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>한성컴퓨터 TFG32Q14F 144</t>
+          <t>LG전자 24MN430HW</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24439846522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=23244797490</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2443984/24439846522.20201013113723.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2324479/23244797490.20220311131641.jpg</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>329000</t>
+          <t>184900</t>
         </is>
       </c>
       <c r="F69" t="inlineStr"/>
@@ -4356,12 +4356,12 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
@@ -4383,22 +4383,22 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>알파스캔 AOC 24B2 75 무결점</t>
+          <t>ASUS VP249QGR</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24171105522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=23257115490</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2417110/24171105522.20210310172014.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2325711/23257115490.20211125152957.jpg</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>175990</t>
+          <t>236370</t>
         </is>
       </c>
       <c r="F70" t="inlineStr"/>
@@ -4414,12 +4414,12 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>알파스캔</t>
+          <t>ASUS</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>알파스캔</t>
+          <t>ASUS</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
@@ -4441,22 +4441,22 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>한성컴퓨터 TFG32F07V 1500R 커브드 게이밍 리얼 75</t>
+          <t>알파스캔 AOC 24B2 75 무결점</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=20882835913</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24171105522</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2088283/20882835913.20200424100013.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2417110/24171105522.20210310172014.jpg</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>219000</t>
+          <t>175990</t>
         </is>
       </c>
       <c r="F71" t="inlineStr"/>
@@ -4472,12 +4472,12 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>알파스캔</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>알파스캔</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
@@ -4499,22 +4499,22 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>한성컴퓨터 TFG27Q14V 1500R 리얼 144 게이밍</t>
+          <t>한성컴퓨터 TFG32Q14F 144</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=20812959649</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24439846522</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2081295/20812959649.20200424095919.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2443984/24439846522.20201013113723.jpg</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>279000</t>
+          <t>329000</t>
         </is>
       </c>
       <c r="F72" t="inlineStr"/>
@@ -4557,22 +4557,22 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>삼성전자 오디세이 G5 G55A S27AG550 165</t>
+          <t>삼성전자 오디세이 G5 S27AG500 165</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=30454173618</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27611446522</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3045417/30454173618.20220107132754.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2761144/27611446522.20210617101529.jpg</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>399000</t>
+          <t>539000</t>
         </is>
       </c>
       <c r="F73" t="inlineStr"/>
@@ -4673,22 +4673,22 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>ASUS VP249QGR</t>
+          <t>LG전자 울트라와이드 34WP500</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=23257115490</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27584005522</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2325711/23257115490.20211125152957.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2758400/27584005522.20210615125004.jpg</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>236370</t>
+          <t>398900</t>
         </is>
       </c>
       <c r="F75" t="inlineStr"/>
@@ -4704,12 +4704,12 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>ASUS</t>
+          <t>울트라와이드</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>ASUS</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
@@ -4731,22 +4731,22 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>삼성전자 오디세이 G5 S27AG500 165</t>
+          <t>한성컴퓨터 TFX173T DEX 포터블 HDR</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27611446522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=21936338223</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2761144/27611446522.20210617101529.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2193633/21936338223.20200428094731.jpg</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>539000</t>
+          <t>379000</t>
         </is>
       </c>
       <c r="F76" t="inlineStr"/>
@@ -4762,12 +4762,12 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>오디세이</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
@@ -4789,22 +4789,22 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>한성컴퓨터 TFX173T DEX 포터블 HDR</t>
+          <t>삼성전자 오디세이 G5 G55A S27AG550 165</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=21936338223</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=30454173618</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2193633/21936338223.20200428094731.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3045417/30454173618.20220107132754.jpg</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>379000</t>
+          <t>399000</t>
         </is>
       </c>
       <c r="F77" t="inlineStr"/>
@@ -4820,12 +4820,12 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>오디세이</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
@@ -4905,22 +4905,22 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>LG전자 울트라와이드 34WP500</t>
+          <t>삼성전자 삼성 S6 S34A650U 100</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27584005522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=26393243522</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2758400/27584005522.20210615125004.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2639324/26393243522.20210317135044.jpg</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>398880</t>
+          <t>551290</t>
         </is>
       </c>
       <c r="F79" t="inlineStr"/>
@@ -4936,12 +4936,12 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>울트라와이드</t>
+          <t>삼성</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
@@ -4963,22 +4963,22 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>알파스캔 AOC Q32V3S 75 무결점</t>
+          <t>한성컴퓨터 TFG27Q14V 1500R 리얼 144 게이밍</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=26013420522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=20812959649</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2601342/26013420522.20220211140907.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2081295/20812959649.20200424095919.jpg</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>314530</t>
+          <t>279000</t>
         </is>
       </c>
       <c r="F80" t="inlineStr"/>
@@ -4994,12 +4994,12 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>알파스캔</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>알파스캔</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
@@ -5021,22 +5021,22 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>LG전자 울트라기어 24GN600 144Hz</t>
+          <t>한성컴퓨터 TFG32F07V 1500R 커브드 게이밍 리얼 75</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=26122103522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=20882835913</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2612210/26122103522.20220124181046.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2088283/20882835913.20200424100013.jpg</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>248880</t>
+          <t>219000</t>
         </is>
       </c>
       <c r="F81" t="inlineStr"/>
@@ -5052,12 +5052,12 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>울트라기어</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
@@ -5079,22 +5079,22 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>한성컴퓨터 TFG27F14P IPS 144</t>
+          <t>벤큐 XL2411P 아이케어</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=23258436490</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=12954974985</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2325843/23258436490.20200624161211.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1295497/12954974985.20220311173549.jpg</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>249000</t>
+          <t>299000</t>
         </is>
       </c>
       <c r="F82" t="inlineStr"/>
@@ -5110,12 +5110,12 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>벤큐</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>벤큐</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
@@ -5137,22 +5137,22 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>삼성전자 오디세이 G5 G55A S32AG550 165</t>
+          <t>LG전자 울트라기어 24GN600 144Hz</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=30452689619</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=26122103522</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3045268/30452689619.20220107112043.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2612210/26122103522.20220124181046.jpg</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>448990</t>
+          <t>258900</t>
         </is>
       </c>
       <c r="F83" t="inlineStr"/>
@@ -5168,12 +5168,12 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>오디세이</t>
+          <t>울트라기어</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
@@ -5195,22 +5195,22 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>벤큐 XL2411P 아이케어</t>
+          <t>벤큐 XL2731K 165</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=12954974985</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=28757211554</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1295497/12954974985.20220311173549.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2875721/28757211554.20220311173957.jpg</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>299000</t>
+          <t>419000</t>
         </is>
       </c>
       <c r="F84" t="inlineStr"/>
@@ -5253,22 +5253,22 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>LG전자 울트라HD 32UN880</t>
+          <t>LG전자 27ML600SW</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24554243522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=19105887903</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2455424/24554243522.20210406130449.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1910588/19105887903.20220125134154.jpg</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>798900</t>
+          <t>262900</t>
         </is>
       </c>
       <c r="F85" t="inlineStr"/>
@@ -5284,7 +5284,7 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>울트라HD</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -5311,22 +5311,22 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>벤큐 XL2731K 165</t>
+          <t>LG전자 울트라기어 32GN650</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=28757211554</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=25413802522</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2875721/28757211554.20220311173957.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2541380/25413802522.20220124181008.jpg</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>413060</t>
+          <t>448900</t>
         </is>
       </c>
       <c r="F86" t="inlineStr"/>
@@ -5342,12 +5342,12 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>벤큐</t>
+          <t>울트라기어</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>벤큐</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
@@ -5369,22 +5369,22 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>LG전자 27ML600SW</t>
+          <t>삼성전자 오디세이 G5 G55A S32AG550 165</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=19105887903</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=30452689619</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1910588/19105887903.20220125134154.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3045268/30452689619.20220107112043.jpg</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>262900</t>
+          <t>448990</t>
         </is>
       </c>
       <c r="F87" t="inlineStr"/>
@@ -5400,12 +5400,12 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>오디세이</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
@@ -5427,22 +5427,22 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>벤큐 EW3270U 아이케어</t>
+          <t>LG전자 울트라HD 32UN880</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=14334382813</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24554243522</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1433438/14334382813.20220318102530.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2455424/24554243522.20210406130449.jpg</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>499000</t>
+          <t>799000</t>
         </is>
       </c>
       <c r="F88" t="inlineStr"/>
@@ -5458,12 +5458,12 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>벤큐</t>
+          <t>울트라HD</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>벤큐</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
@@ -5485,22 +5485,22 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>LG전자 32UN550</t>
+          <t>삼성전자 삼성 S27R35A</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24367892525</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=25885966522</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2436789/24367892525.20210406141630.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2588596/25885966522.20210205160851.jpg</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>498000</t>
+          <t>236950</t>
         </is>
       </c>
       <c r="F89" t="inlineStr"/>
@@ -5516,12 +5516,12 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>삼성</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
@@ -5543,22 +5543,22 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>한성컴퓨터 TFX156PB</t>
+          <t>한성컴퓨터 TFG39Q14V 144</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=28193235522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=26826361522</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2819323/28193235522.20210728161135.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2682636/26826361522.20210419161946.jpg</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>309000</t>
+          <t>479000</t>
         </is>
       </c>
       <c r="F90" t="inlineStr"/>
@@ -5601,22 +5601,22 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>삼성전자 삼성 S27R35A</t>
+          <t>벤큐 EW3270U 아이케어</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=25885966522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=14334382813</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2588596/25885966522.20210205160851.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1433438/14334382813.20220318102530.jpg</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>236950</t>
+          <t>479000</t>
         </is>
       </c>
       <c r="F91" t="inlineStr"/>
@@ -5632,12 +5632,12 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>삼성</t>
+          <t>벤큐</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>벤큐</t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
@@ -5659,22 +5659,22 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>LG전자 울트라기어 27GP750</t>
+          <t>삼성전자 오디세이 G5 G52A S32AG520 165</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=29060355587</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=30454046618</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2906035/29060355587.20220125134215.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3045404/30454046618.20220107131705.jpg</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>447000</t>
+          <t>649000</t>
         </is>
       </c>
       <c r="F92" t="inlineStr"/>
@@ -5690,12 +5690,12 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>울트라기어</t>
+          <t>오디세이</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K92" t="inlineStr">
@@ -5717,22 +5717,22 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>LG전자 울트라와이드 29WP500</t>
+          <t>DELL 울트라샤프 U2722D</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=26886077522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27124609522</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2688607/26886077522.20210524134552.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2712460/27124609522.20210719172836.jpg</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>268880</t>
+          <t>509000</t>
         </is>
       </c>
       <c r="F93" t="inlineStr"/>
@@ -5748,12 +5748,12 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>울트라와이드</t>
+          <t>울트라샤프</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>DELL</t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
@@ -5775,22 +5775,22 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>DELL 울트라샤프 U2720Q</t>
+          <t>LG전자 울트라와이드 29WP500</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=21752731630</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=26886077522</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2175273/21752731630.20200327122054.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2688607/26886077522.20210524134552.jpg</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>749000</t>
+          <t>269000</t>
         </is>
       </c>
       <c r="F94" t="inlineStr"/>
@@ -5806,12 +5806,12 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>울트라샤프</t>
+          <t>울트라와이드</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>DELL</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K94" t="inlineStr">
@@ -5833,22 +5833,22 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>경성글로벌코리아 언더독 MB27Q75 75</t>
+          <t>DELL 울트라샤프 U2720Q</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=29879123618</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=21752731630</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2987912/29879123618.20211206134853.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2175273/21752731630.20200327122054.jpg</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>169000</t>
+          <t>749000</t>
         </is>
       </c>
       <c r="F95" t="inlineStr"/>
@@ -5864,12 +5864,12 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>언더독</t>
+          <t>울트라샤프</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>경성글로벌코리아</t>
+          <t>DELL</t>
         </is>
       </c>
       <c r="K95" t="inlineStr">
@@ -5891,22 +5891,22 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>LG전자 울트라기어 32GN650</t>
+          <t>한성컴퓨터 TFX156PB</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=25413802522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=28193235522</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2541380/25413802522.20220124181008.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2819323/28193235522.20210728161135.jpg</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>448880</t>
+          <t>309000</t>
         </is>
       </c>
       <c r="F96" t="inlineStr"/>
@@ -5922,12 +5922,12 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>울트라기어</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="K96" t="inlineStr">
@@ -5949,22 +5949,22 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>DELL 울트라샤프 U2722D</t>
+          <t>LG전자 울트라기어 27GP750</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27124609522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=29060355587</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2712460/27124609522.20210719172836.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2906035/29060355587.20220125134215.jpg</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>509000</t>
+          <t>448900</t>
         </is>
       </c>
       <c r="F97" t="inlineStr"/>
@@ -5980,12 +5980,12 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>울트라샤프</t>
+          <t>울트라기어</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>DELL</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K97" t="inlineStr">
@@ -6007,22 +6007,22 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>한성컴퓨터 TFG39Q14V 144</t>
+          <t>삼성전자 오디세이 G7 C27G75T</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=26826361522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=23021385490</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2682636/26826361522.20210419161946.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2302138/23021385490.20200803121144.jpg</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>479000</t>
+          <t>645050</t>
         </is>
       </c>
       <c r="F98" t="inlineStr"/>
@@ -6038,12 +6038,12 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>오디세이</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K98" t="inlineStr">
@@ -6065,22 +6065,22 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>삼성전자 오디세이 G9 C49G95T</t>
+          <t>LG전자 24MK600M</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=23255316490</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=14556210024</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2325531/23255316490.20210203133605.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1455621/14556210024.20210406134738.jpg</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>1630000</t>
+          <t>200900</t>
         </is>
       </c>
       <c r="F99" t="inlineStr"/>
@@ -6096,12 +6096,12 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>오디세이</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K99" t="inlineStr">
@@ -6181,22 +6181,22 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>LG전자 24MK600M</t>
+          <t>LG전자 32UN550</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=14556210024</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24367892525</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1455621/14556210024.20210406134738.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2436789/24367892525.20210406141630.jpg</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>200900</t>
+          <t>498900</t>
         </is>
       </c>
       <c r="F101" t="inlineStr"/>

--- a/output.xlsx
+++ b/output.xlsx
@@ -454,7 +454,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>209000</t>
+          <t>206000</t>
         </is>
       </c>
       <c r="F2" t="inlineStr"/>
@@ -512,7 +512,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>164760</t>
+          <t>181000</t>
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
@@ -570,7 +570,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>219000</t>
+          <t>211810</t>
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
@@ -628,7 +628,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>199000</t>
+          <t>196000</t>
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
@@ -671,22 +671,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>삼성전자 삼성 C32R500F</t>
+          <t>삼성전자 삼성 S27R350</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=22483121542</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=21775935202</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2248312/22483121542.20210602151356.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2177593/21775935202.20210203132859.jpg</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>269000</t>
+          <t>244000</t>
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
@@ -729,22 +729,22 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>삼성전자 삼성 S27R350</t>
+          <t>LG전자 24MK430H 24인치 FHD IPS 광시야각 모니터</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=21775935202</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=13643814149</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2177593/21775935202.20210203132859.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1364381/13643814149.20200824151155.jpg</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>247000</t>
+          <t>183900</t>
         </is>
       </c>
       <c r="F7" t="inlineStr"/>
@@ -760,12 +760,12 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>삼성</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -787,22 +787,22 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>LG전자 24MK430H 24인치 FHD IPS 광시야각 모니터</t>
+          <t>삼성전자 삼성 C32R500F</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=13643814149</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=22483121542</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1364381/13643814149.20200824151155.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2248312/22483121542.20210602151356.jpg</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>184900</t>
+          <t>269000</t>
         </is>
       </c>
       <c r="F8" t="inlineStr"/>
@@ -818,12 +818,12 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>삼성</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -860,7 +860,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>599000</t>
+          <t>598900</t>
         </is>
       </c>
       <c r="F9" t="inlineStr"/>
@@ -903,22 +903,22 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>LG전자 27MN430HW</t>
+          <t>삼성전자 스마트모니터 M7 S43AM700</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=23301354490</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27215825524</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2330135/23301354490.20200824152000.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2721582/27215825524.20210520173025.jpg</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>223000</t>
+          <t>588950</t>
         </is>
       </c>
       <c r="F10" t="inlineStr"/>
@@ -934,12 +934,12 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>스마트모니터</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -1019,22 +1019,22 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>삼성전자 스마트모니터 M7 S43AM700</t>
+          <t>LG전자 27MN430HW</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27215825524</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=23301354490</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2721582/27215825524.20210520173025.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2330135/23301354490.20200824152000.jpg</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>589000</t>
+          <t>223000</t>
         </is>
       </c>
       <c r="F12" t="inlineStr"/>
@@ -1050,12 +1050,12 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>스마트모니터</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -1135,22 +1135,22 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>LG전자 27MK430H</t>
+          <t>LG전자 24ML600SW</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=15183175543</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=19105796246</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1518317/15183175543.20200824151717.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1910579/19105796246.20200824152520.jpg</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>222900</t>
+          <t>205900</t>
         </is>
       </c>
       <c r="F14" t="inlineStr"/>
@@ -1251,22 +1251,22 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>LG전자 24ML600SW</t>
+          <t>벤큐 GW2480 아이케어 무결점</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=19105796246</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=11846842637</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1910579/19105796246.20200824152520.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1184684/11846842637.20220318094758.jpg</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>205900</t>
+          <t>179000</t>
         </is>
       </c>
       <c r="F16" t="inlineStr"/>
@@ -1282,12 +1282,12 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>벤큐</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>벤큐</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -1367,22 +1367,22 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>한성컴퓨터 ULTRON 2760G 리얼 144</t>
+          <t>LG전자 32QN650</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=15020041438</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=23692201495</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1502004/15020041438.20200424094329.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2369220/23692201495.20210406132235.jpg</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>219000</t>
+          <t>397030</t>
         </is>
       </c>
       <c r="F18" t="inlineStr"/>
@@ -1398,12 +1398,12 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -1425,17 +1425,17 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>ASUS VA24DQLB</t>
+          <t>한성컴퓨터 ULTRON 2760G 리얼 144</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=23257141490</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=15020041438</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2325714/23257141490.20200720175614.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1502004/15020041438.20200424094329.jpg</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1456,12 +1456,12 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>ASUS</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>ASUS</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
@@ -1483,22 +1483,22 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>ASUS VZ27EHE 시력보호 Gaming 베젤리스</t>
+          <t>ASUS VA24DQLB</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=29590676619</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=23257141490</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2959067/29590676619.20220325125911.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2325714/23257141490.20200720175614.jpg</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>226340</t>
+          <t>219000</t>
         </is>
       </c>
       <c r="F20" t="inlineStr"/>
@@ -1541,22 +1541,22 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>한성컴퓨터 ULTRON 2460G 리얼 144 게이밍</t>
+          <t>LG전자 27MK430H</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=20471652225</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=15183175543</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2047165/20471652225.20200424094042.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1518317/15183175543.20200824151717.jpg</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>179000</t>
+          <t>222900</t>
         </is>
       </c>
       <c r="F21" t="inlineStr"/>
@@ -1572,12 +1572,12 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -1599,22 +1599,22 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>벤큐 GW2480 아이케어 무결점</t>
+          <t>ASUS VZ27EHE 시력보호 Gaming 베젤리스</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=11846842637</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=29590676619</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1184684/11846842637.20220318094758.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2959067/29590676619.20220325125911.jpg</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>179000</t>
+          <t>226350</t>
         </is>
       </c>
       <c r="F22" t="inlineStr"/>
@@ -1630,12 +1630,12 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>벤큐</t>
+          <t>ASUS</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>벤큐</t>
+          <t>ASUS</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
@@ -1715,22 +1715,22 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>LG전자 27TN600S</t>
+          <t>한성컴퓨터 ULTRON 2460G 리얼 144 게이밍</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=21745903830</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=20471652225</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2174590/21745903830.20200824150453.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2047165/20471652225.20200424094042.jpg</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>349120</t>
+          <t>179000</t>
         </is>
       </c>
       <c r="F24" t="inlineStr"/>
@@ -1746,12 +1746,12 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -1831,22 +1831,22 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>LG전자 32QN650</t>
+          <t>LG전자 27TN600S</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=23692201495</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=21745903830</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2369220/23692201495.20210406132235.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2174590/21745903830.20200824150453.jpg</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>398890</t>
+          <t>349040</t>
         </is>
       </c>
       <c r="F26" t="inlineStr"/>
@@ -1889,22 +1889,22 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>벤큐 XL2411K</t>
+          <t>삼성전자 삼성 F24T450</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24196764522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24007200522</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2419676/24196764522.20220311173519.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2400720/24007200522.20210203133027.jpg</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>299000</t>
+          <t>229420</t>
         </is>
       </c>
       <c r="F27" t="inlineStr"/>
@@ -1920,12 +1920,12 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>벤큐</t>
+          <t>삼성</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>벤큐</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -1947,22 +1947,22 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>한성컴퓨터 ULTRON 2435V 프리싱크 리얼75</t>
+          <t>벤큐 XL2411K</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=13487979407</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24196764522</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1348797/13487979407.20211116100954.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2419676/24196764522.20220311173519.jpg</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>149000</t>
+          <t>299000</t>
         </is>
       </c>
       <c r="F28" t="inlineStr"/>
@@ -1978,12 +1978,12 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>벤큐</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>벤큐</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -2005,22 +2005,22 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>벤큐 XL2546K</t>
+          <t>한성컴퓨터 ULTRON 2435V 프리싱크 리얼75</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24235203522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=13487979407</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2423520/24235203522.20220311173812.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1348797/13487979407.20220404172708.jpg</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>699000</t>
+          <t>149000</t>
         </is>
       </c>
       <c r="F29" t="inlineStr"/>
@@ -2036,12 +2036,12 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>벤큐</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>벤큐</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
@@ -2063,22 +2063,22 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>삼성전자 오디세이 G5 C27G54T</t>
+          <t>한성컴퓨터 TFG27F16V 1500R 리얼 165 게이밍</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=23896119522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=18797620615</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2389611/23896119522.20210302142506.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1879762/18797620615.20201230122720.jpg</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>328960</t>
+          <t>219000</t>
         </is>
       </c>
       <c r="F30" t="inlineStr"/>
@@ -2094,12 +2094,12 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>오디세이</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
@@ -2121,22 +2121,22 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>한성컴퓨터 TFG27F16V 1500R 리얼 165 게이밍</t>
+          <t>삼성전자 오디세이 G5 C27G54T</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=18797620615</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=23896119522</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1879762/18797620615.20201230122720.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2389611/23896119522.20210302142506.jpg</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>219000</t>
+          <t>328950</t>
         </is>
       </c>
       <c r="F31" t="inlineStr"/>
@@ -2152,12 +2152,12 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>오디세이</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
@@ -2179,22 +2179,22 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>삼성전자 삼성 F24T450</t>
+          <t>벤큐 XL2546K</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24007200522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24235203522</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2400720/24007200522.20210203133027.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2423520/24235203522.20220311173812.jpg</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>229420</t>
+          <t>699000</t>
         </is>
       </c>
       <c r="F32" t="inlineStr"/>
@@ -2210,12 +2210,12 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>삼성</t>
+          <t>벤큐</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>벤큐</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
@@ -2237,22 +2237,22 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>한성컴퓨터 TFX32U06V 4K HDR 1500R 커브드</t>
+          <t>삼성전자 스마트모니터 M5 S27AM500</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=20942220356</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=25524380522</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2094222/20942220356.20210630112723.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2552438/25524380522.20210302142816.jpg</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>299000</t>
+          <t>298950</t>
         </is>
       </c>
       <c r="F33" t="inlineStr"/>
@@ -2268,12 +2268,12 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>스마트모니터</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
@@ -2295,22 +2295,22 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>삼성전자 스마트모니터 M5 S32AM501</t>
+          <t>삼성전자 스마트모니터 M7 S32AM700</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=26870008522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=25524333522</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2687000/26870008522.20210422145112.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2552433/25524333522.20210203133321.jpg</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>355000</t>
+          <t>499000</t>
         </is>
       </c>
       <c r="F34" t="inlineStr"/>
@@ -2353,17 +2353,17 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>삼성전자 스마트모니터 M5 S27AM500</t>
+          <t>한성컴퓨터 TFX32U06V 4K HDR 1500R 커브드</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=25524380522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=20942220356</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2552438/25524380522.20210302142816.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2094222/20942220356.20210630112723.jpg</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -2384,12 +2384,12 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>스마트모니터</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
@@ -2411,22 +2411,22 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>벤큐 GW2780 아이케어</t>
+          <t>삼성전자 스마트모니터 M5 S32AM501</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=11846746201</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=26870008522</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1184674/11846746201.20220318094817.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2687000/26870008522.20210422145112.jpg</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>229000</t>
+          <t>355000</t>
         </is>
       </c>
       <c r="F36" t="inlineStr"/>
@@ -2442,12 +2442,12 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>벤큐</t>
+          <t>스마트모니터</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>벤큐</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
@@ -2469,22 +2469,22 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>삼성전자 스마트모니터 M7 S32AM701</t>
+          <t>벤큐 GW2780 아이케어</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=29724256618</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=11846746201</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2972425/29724256618.20211117133727.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1184674/11846746201.20220318094817.jpg</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>519000</t>
+          <t>229000</t>
         </is>
       </c>
       <c r="F37" t="inlineStr"/>
@@ -2500,12 +2500,12 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>스마트모니터</t>
+          <t>벤큐</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>벤큐</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
@@ -2527,22 +2527,22 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>LG전자 울트라HD 27UL550</t>
+          <t>삼성전자 스마트모니터 M7 S32AM701</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=19298157033</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=29724256618</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1929815/19298157033.20200824143609.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2972425/29724256618.20211117133727.jpg</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>399000</t>
+          <t>512100</t>
         </is>
       </c>
       <c r="F38" t="inlineStr"/>
@@ -2558,12 +2558,12 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>울트라HD</t>
+          <t>스마트모니터</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
@@ -2585,22 +2585,22 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>삼성전자 스마트모니터 M7 S32AM700</t>
+          <t>LG전자 27QN600</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=25524333522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=23849172522</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2552433/25524333522.20210203133321.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2384917/23849172522.20210406141920.jpg</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>499000</t>
+          <t>318890</t>
         </is>
       </c>
       <c r="F39" t="inlineStr"/>
@@ -2616,12 +2616,12 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>스마트모니터</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
@@ -2643,22 +2643,22 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>삼성전자 스마트모니터 M5 S32AM500</t>
+          <t>한성컴퓨터 ULTRON 2758 프리싱크 리얼 75</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=25524342522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=14816445651</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2552434/25524342522.20210302142529.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1481644/14816445651.20220310121415.jpg</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>345000</t>
+          <t>179000</t>
         </is>
       </c>
       <c r="F40" t="inlineStr"/>
@@ -2674,12 +2674,12 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>스마트모니터</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
@@ -2716,7 +2716,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>407170</t>
+          <t>409000</t>
         </is>
       </c>
       <c r="F41" t="inlineStr"/>
@@ -2759,22 +2759,22 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>한성컴퓨터 ULTRON 2758 프리싱크 리얼 75</t>
+          <t>삼성전자 스마트모니터 M5 S32AM500</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=14816445651</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=25524342522</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1481644/14816445651.20220310121415.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2552434/25524342522.20210302142529.jpg</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>179000</t>
+          <t>345000</t>
         </is>
       </c>
       <c r="F42" t="inlineStr"/>
@@ -2790,12 +2790,12 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>스마트모니터</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
@@ -2817,22 +2817,22 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>삼성전자 삼성 C32T550</t>
+          <t>LG전자 울트라기어 27GN650</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=22448790144</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=25413919522</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2244879/22448790144.20210203133005.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2541391/25413919522.20220125134231.jpg</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>359000</t>
+          <t>398850</t>
         </is>
       </c>
       <c r="F43" t="inlineStr"/>
@@ -2848,12 +2848,12 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>삼성</t>
+          <t>울트라기어</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
@@ -2875,22 +2875,22 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>LG전자 울트라기어 27GN650</t>
+          <t>LG전자 울트라HD 27UL550</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=25413919522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=19298157033</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2541391/25413919522.20220125134231.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1929815/19298157033.20200824143609.jpg</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>398890</t>
+          <t>398900</t>
         </is>
       </c>
       <c r="F44" t="inlineStr"/>
@@ -2906,7 +2906,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>울트라기어</t>
+          <t>울트라HD</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -3006,7 +3006,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>314380</t>
+          <t>314360</t>
         </is>
       </c>
       <c r="F46" t="inlineStr"/>
@@ -3049,22 +3049,22 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>삼성전자 오디세이 G3 S27AG300 144</t>
+          <t>삼성전자 삼성 C32T550</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27535066522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=22448790144</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2753506/27535066522.20210611135052.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2244879/22448790144.20210203133005.jpg</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>319000</t>
+          <t>358000</t>
         </is>
       </c>
       <c r="F47" t="inlineStr"/>
@@ -3080,7 +3080,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>오디세이</t>
+          <t>삼성</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -3107,22 +3107,22 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>LG전자 27QN600</t>
+          <t>삼성전자 오디세이 G3 S27AG300 144</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=23849172522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27535066522</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2384917/23849172522.20210406141920.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2753506/27535066522.20210611135052.jpg</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>318890</t>
+          <t>319000</t>
         </is>
       </c>
       <c r="F48" t="inlineStr"/>
@@ -3138,12 +3138,12 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>오디세이</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
@@ -3165,22 +3165,22 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>한성컴퓨터 TFG34Q14WQ 퀀텀닷 1500R 리얼 144 울트라와이드 게이밍</t>
+          <t>한성컴퓨터 TFG27Q14F QHD 평면 144 게이밍</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=22312278223</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24509574524</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2231227/22312278223.20220215171608.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2450957/24509574524.20201022114639.jpg</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>429000</t>
+          <t>279000</t>
         </is>
       </c>
       <c r="F49" t="inlineStr"/>
@@ -3223,22 +3223,22 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>한성컴퓨터 TFG27Q14F QHD 평면 144 게이밍</t>
+          <t>벤큐 모비우스 EX2710S</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24509574524</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27862189523</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2450957/24509574524.20201022114639.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2786218/27862189523.20220311174737.jpg</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>279000</t>
+          <t>359000</t>
         </is>
       </c>
       <c r="F50" t="inlineStr"/>
@@ -3254,12 +3254,12 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>벤큐</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>벤큐</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
@@ -3281,22 +3281,22 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>필립스 271E1 프리싱크 75 시력보호 제로베젤</t>
+          <t>한성컴퓨터 TFG34Q14WQ 퀀텀닷 1500R 리얼 144 울트라와이드 게이밍</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=21496753758</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=22312278223</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2149675/21496753758.20200221173844.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2231227/22312278223.20220215171608.jpg</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>218000</t>
+          <t>429000</t>
         </is>
       </c>
       <c r="F51" t="inlineStr"/>
@@ -3312,12 +3312,12 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>필립스</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>필립스</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
@@ -3339,22 +3339,22 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>벤큐 모비우스 EX2710S</t>
+          <t>한성컴퓨터 TFG32F24V 240</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27862189523</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=28162745522</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2786218/27862189523.20220311174737.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2816274/28162745522.20210726183542.jpg</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>359000</t>
+          <t>299000</t>
         </is>
       </c>
       <c r="F52" t="inlineStr"/>
@@ -3370,12 +3370,12 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>벤큐</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>벤큐</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
@@ -3397,22 +3397,22 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>한성컴퓨터 TFG32F24V 240</t>
+          <t>삼성전자 오디세이 Neo G9 S49AG950 49인치 게이밍 모니터</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=28162745522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=28288984554</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2816274/28162745522.20210726183542.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2828898/28288984554.20210810100808.jpg</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>299000</t>
+          <t>2160000</t>
         </is>
       </c>
       <c r="F53" t="inlineStr"/>
@@ -3428,12 +3428,12 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>오디세이</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
@@ -3455,22 +3455,22 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>삼성전자 스마트모니터 M5 S27AM501</t>
+          <t>MSI 옵틱스 G271 게이밍 144 아이세이버</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=26870246522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=22435637800</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2687024/26870246522.20210422150359.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2243563/22435637800.20201111111336.jpg</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>329000</t>
+          <t>219000</t>
         </is>
       </c>
       <c r="F54" t="inlineStr"/>
@@ -3486,12 +3486,12 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>스마트모니터</t>
+          <t>MSI</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>MSI</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
@@ -3513,22 +3513,22 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>삼성전자 오디세이 Neo G9 S49AG950 49인치 게이밍 모니터</t>
+          <t>LG전자 그램+뷰 16MQ70</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=28288984554</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=30377313618</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2828898/28288984554.20210810100808.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3037731/30377313618.20211231144328.jpg</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>2160000</t>
+          <t>376440</t>
         </is>
       </c>
       <c r="F55" t="inlineStr"/>
@@ -3544,12 +3544,12 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>오디세이</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
@@ -3571,22 +3571,22 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>삼성전자 오디세이 G5 C34G55T 165</t>
+          <t>삼성전자 오디세이 G7 C27G75T</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=25744041522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=23021385490</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2574404/25744041522.20210324143655.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2302138/23021385490.20200803121144.jpg</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>574990</t>
+          <t>645000</t>
         </is>
       </c>
       <c r="F56" t="inlineStr"/>
@@ -3629,22 +3629,22 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>LG전자 그램+뷰 16MQ70</t>
+          <t>필립스 271E1 프리싱크 75 시력보호 제로베젤</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=30377313618</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=21496753758</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3037731/30377313618.20211231144328.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2149675/21496753758.20200221173844.jpg</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>376570</t>
+          <t>218000</t>
         </is>
       </c>
       <c r="F57" t="inlineStr"/>
@@ -3660,12 +3660,12 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>필립스</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>필립스</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
@@ -3687,22 +3687,22 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>알파스캔 AOC Q27G2S 155</t>
+          <t>삼성전자 오디세이 G5 C34G55T 165</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24694967522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=25744041522</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2469496/24694967522.20210310172228.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2574404/25744041522.20210324143655.jpg</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>438000</t>
+          <t>574990</t>
         </is>
       </c>
       <c r="F58" t="inlineStr"/>
@@ -3718,12 +3718,12 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>알파스캔</t>
+          <t>오디세이</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>알파스캔</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
@@ -3745,22 +3745,22 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>한성컴퓨터 TFG30F20W  울트라와이드 200 게이밍</t>
+          <t>한성컴퓨터 TFG34Q14W 1500R 커브드 리얼 144 울트라와이드 게이밍</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27287676522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=29326560618</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2728767/27287676522.20210628121550.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2932656/29326560618.20211021130829.jpg</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>299000</t>
+          <t>399000</t>
         </is>
       </c>
       <c r="F59" t="inlineStr"/>
@@ -3803,22 +3803,22 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>한성컴퓨터 TFG32F14F 144</t>
+          <t>LG전자 24MP400</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24380347522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27614392522</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2438034/24380347522.20201007114746.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2761439/27614392522.20210813165340.jpg</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>269000</t>
+          <t>190900</t>
         </is>
       </c>
       <c r="F60" t="inlineStr"/>
@@ -3834,12 +3834,12 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
@@ -3861,22 +3861,22 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>LG전자 24MP400</t>
+          <t>한성컴퓨터 TFG32F14F 144</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27614392522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24380347522</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2761439/27614392522.20210813165340.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2438034/24380347522.20201007114746.jpg</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>190900</t>
+          <t>269000</t>
         </is>
       </c>
       <c r="F61" t="inlineStr"/>
@@ -3892,12 +3892,12 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
@@ -3919,22 +3919,22 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>삼성전자 삼성 S34J550</t>
+          <t>한성컴퓨터 TFG30F20W  울트라와이드 200 게이밍</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=15704895486</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27287676522</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1570489/15704895486.20210203133054.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2728767/27287676522.20210628121550.jpg</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>409000</t>
+          <t>299000</t>
         </is>
       </c>
       <c r="F62" t="inlineStr"/>
@@ -3950,12 +3950,12 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>삼성</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
@@ -3977,22 +3977,22 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>한성컴퓨터 TFG34Q14W 1500R 커브드 리얼 144 울트라와이드 게이밍</t>
+          <t>한성컴퓨터 TFG27F14P IPS 144</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=29326560618</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=23258436490</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2932656/29326560618.20211021130829.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2325843/23258436490.20200624161211.jpg</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>399000</t>
+          <t>249000</t>
         </is>
       </c>
       <c r="F63" t="inlineStr"/>
@@ -4035,22 +4035,22 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>MSI 옵틱스 G271 게이밍 144 아이세이버</t>
+          <t>알파스캔 AOC Q27G2S 155</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=22435637800</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24694967522</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2243563/22435637800.20201111111336.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2469496/24694967522.20210310172228.jpg</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>219000</t>
+          <t>438000</t>
         </is>
       </c>
       <c r="F64" t="inlineStr"/>
@@ -4066,12 +4066,12 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>MSI</t>
+          <t>알파스캔</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>MSI</t>
+          <t>알파스캔</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
@@ -4151,22 +4151,22 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>한성컴퓨터 TFG27F14P IPS 144</t>
+          <t>한성컴퓨터 TFX133T DEX 포터블 HDR</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=23258436490</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=21918294654</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2325843/23258436490.20200624161211.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2191829/21918294654.20200428094627.jpg</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>249000</t>
+          <t>229000</t>
         </is>
       </c>
       <c r="F66" t="inlineStr"/>
@@ -4209,22 +4209,22 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>한성컴퓨터 TFX133T DEX 포터블 HDR</t>
+          <t>LG전자 울트라와이드 34WP500</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=21918294654</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27584005522</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2191829/21918294654.20200428094627.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2758400/27584005522.20210615125004.jpg</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>229000</t>
+          <t>398900</t>
         </is>
       </c>
       <c r="F67" t="inlineStr"/>
@@ -4240,12 +4240,12 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>울트라와이드</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
@@ -4267,22 +4267,22 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>삼성전자 오디세이 G3 S24AG300 144</t>
+          <t>한성컴퓨터 TFG32Q14F 144</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27534600522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24439846522</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2753460/27534600522.20210611131536.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2443984/24439846522.20201013113723.jpg</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>249000</t>
+          <t>329000</t>
         </is>
       </c>
       <c r="F68" t="inlineStr"/>
@@ -4298,12 +4298,12 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>오디세이</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
@@ -4325,22 +4325,22 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>LG전자 24MN430HW</t>
+          <t>삼성전자 오디세이 G3 S24AG300 144</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=23244797490</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27534600522</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2324479/23244797490.20220311131641.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2753460/27534600522.20210611131536.jpg</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>184900</t>
+          <t>249000</t>
         </is>
       </c>
       <c r="F69" t="inlineStr"/>
@@ -4356,12 +4356,12 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>오디세이</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
@@ -4383,22 +4383,22 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>ASUS VP249QGR</t>
+          <t>한성컴퓨터 TFX173T DEX 포터블 HDR</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=23257115490</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=21936338223</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2325711/23257115490.20211125152957.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2193633/21936338223.20200428094731.jpg</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>236370</t>
+          <t>379000</t>
         </is>
       </c>
       <c r="F70" t="inlineStr"/>
@@ -4414,12 +4414,12 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>ASUS</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>ASUS</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
@@ -4441,22 +4441,22 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>알파스캔 AOC 24B2 75 무결점</t>
+          <t>삼성전자 스마트모니터 M5 S27AM501</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24171105522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=26870246522</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2417110/24171105522.20210310172014.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2687024/26870246522.20210422150359.jpg</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>175990</t>
+          <t>329000</t>
         </is>
       </c>
       <c r="F71" t="inlineStr"/>
@@ -4472,12 +4472,12 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>알파스캔</t>
+          <t>스마트모니터</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>알파스캔</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
@@ -4499,22 +4499,22 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>한성컴퓨터 TFG32Q14F 144</t>
+          <t>LG전자 울트라HD 27UP850</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24439846522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27124459522</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2443984/24439846522.20201013113723.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2712445/27124459522.20210512183326.jpg</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>329000</t>
+          <t>598990</t>
         </is>
       </c>
       <c r="F72" t="inlineStr"/>
@@ -4530,12 +4530,12 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>울트라HD</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
@@ -4557,22 +4557,22 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>삼성전자 오디세이 G5 S27AG500 165</t>
+          <t>LG전자 울트라기어 24GN600 144Hz</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27611446522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=26122103522</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2761144/27611446522.20210617101529.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2612210/26122103522.20220124181046.jpg</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>539000</t>
+          <t>258900</t>
         </is>
       </c>
       <c r="F73" t="inlineStr"/>
@@ -4588,12 +4588,12 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>오디세이</t>
+          <t>울트라기어</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
@@ -4615,22 +4615,22 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>LG전자 울트라HD 27UP850</t>
+          <t>LG전자 울트라기어 32GN650</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27124459522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=25413802522</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2712445/27124459522.20210512183326.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2541380/25413802522.20220124181008.jpg</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>599000</t>
+          <t>448900</t>
         </is>
       </c>
       <c r="F74" t="inlineStr"/>
@@ -4646,7 +4646,7 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>울트라HD</t>
+          <t>울트라기어</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -4673,22 +4673,22 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>LG전자 울트라와이드 34WP500</t>
+          <t>LG전자 24MN430HW</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27584005522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=23244797490</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2758400/27584005522.20210615125004.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2324479/23244797490.20220311131641.jpg</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>398900</t>
+          <t>184900</t>
         </is>
       </c>
       <c r="F75" t="inlineStr"/>
@@ -4704,7 +4704,7 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>울트라와이드</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -4731,22 +4731,22 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>한성컴퓨터 TFX173T DEX 포터블 HDR</t>
+          <t>알파스캔 AOC 24B2 75 무결점</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=21936338223</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24171105522</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2193633/21936338223.20200428094731.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2417110/24171105522.20210310172014.jpg</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>379000</t>
+          <t>175990</t>
         </is>
       </c>
       <c r="F76" t="inlineStr"/>
@@ -4762,12 +4762,12 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>알파스캔</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>알파스캔</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
@@ -4789,22 +4789,22 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>삼성전자 오디세이 G5 G55A S27AG550 165</t>
+          <t>한성컴퓨터 TFG32F07V 1500R 커브드 게이밍 리얼 75</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=30454173618</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=20882835913</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3045417/30454173618.20220107132754.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2088283/20882835913.20200424100013.jpg</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>399000</t>
+          <t>219000</t>
         </is>
       </c>
       <c r="F77" t="inlineStr"/>
@@ -4820,12 +4820,12 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>오디세이</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
@@ -4847,22 +4847,22 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>삼성전자 삼성 슈퍼 와이드 게이밍 120 DQHD C49RG90</t>
+          <t>한성컴퓨터 TFG27Q14V 1500R 리얼 144 게이밍</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=18571615807</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=20812959649</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1857161/18571615807.20210203133352.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2081295/20812959649.20200424095919.jpg</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>1270000</t>
+          <t>279000</t>
         </is>
       </c>
       <c r="F78" t="inlineStr"/>
@@ -4878,12 +4878,12 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>삼성</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
@@ -4905,22 +4905,22 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>삼성전자 삼성 S6 S34A650U 100</t>
+          <t>삼성전자 삼성 S34J550</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=26393243522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=15704895486</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2639324/26393243522.20210317135044.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1570489/15704895486.20210203133054.jpg</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>551290</t>
+          <t>408990</t>
         </is>
       </c>
       <c r="F79" t="inlineStr"/>
@@ -4963,22 +4963,22 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>한성컴퓨터 TFG27Q14V 1500R 리얼 144 게이밍</t>
+          <t>LG전자 27ML600SW</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=20812959649</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=19105887903</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2081295/20812959649.20200424095919.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1910588/19105887903.20220125134154.jpg</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>279000</t>
+          <t>262900</t>
         </is>
       </c>
       <c r="F80" t="inlineStr"/>
@@ -4994,12 +4994,12 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
@@ -5021,22 +5021,22 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>한성컴퓨터 TFG32F07V 1500R 커브드 게이밍 리얼 75</t>
+          <t>ASUS VP249QGR</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=20882835913</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=23257115490</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2088283/20882835913.20200424100013.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2325711/23257115490.20211125152957.jpg</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>219000</t>
+          <t>239000</t>
         </is>
       </c>
       <c r="F81" t="inlineStr"/>
@@ -5052,12 +5052,12 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>ASUS</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>ASUS</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
@@ -5079,22 +5079,22 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>벤큐 XL2411P 아이케어</t>
+          <t>삼성전자 삼성 슈퍼 와이드 게이밍 120 DQHD C49RG90</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=12954974985</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=18571615807</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1295497/12954974985.20220311173549.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1857161/18571615807.20210203133352.jpg</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>299000</t>
+          <t>1269900</t>
         </is>
       </c>
       <c r="F82" t="inlineStr"/>
@@ -5110,12 +5110,12 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>벤큐</t>
+          <t>삼성</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>벤큐</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
@@ -5137,22 +5137,22 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>LG전자 울트라기어 24GN600 144Hz</t>
+          <t>삼성전자 오디세이 G5 S27AG500 165</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=26122103522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27611446522</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2612210/26122103522.20220124181046.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2761144/27611446522.20210617101529.jpg</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>258900</t>
+          <t>539000</t>
         </is>
       </c>
       <c r="F83" t="inlineStr"/>
@@ -5168,12 +5168,12 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>울트라기어</t>
+          <t>오디세이</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
@@ -5195,22 +5195,22 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>벤큐 XL2731K 165</t>
+          <t>LG전자 울트라기어 27GP750</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=28757211554</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=29060355587</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2875721/28757211554.20220311173957.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2906035/29060355587.20220125134215.jpg</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>419000</t>
+          <t>448900</t>
         </is>
       </c>
       <c r="F84" t="inlineStr"/>
@@ -5226,12 +5226,12 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>벤큐</t>
+          <t>울트라기어</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>벤큐</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
@@ -5253,22 +5253,22 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>LG전자 27ML600SW</t>
+          <t>LG전자 울트라HD 32UN880</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=19105887903</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24554243522</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1910588/19105887903.20220125134154.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2455424/24554243522.20210406130449.jpg</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>262900</t>
+          <t>796000</t>
         </is>
       </c>
       <c r="F85" t="inlineStr"/>
@@ -5284,7 +5284,7 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>울트라HD</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -5311,22 +5311,22 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>LG전자 울트라기어 32GN650</t>
+          <t>삼성전자 삼성 S6 S34A650U 100</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=25413802522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=26393243522</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2541380/25413802522.20220124181008.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2639324/26393243522.20210317135044.jpg</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>448900</t>
+          <t>551290</t>
         </is>
       </c>
       <c r="F86" t="inlineStr"/>
@@ -5342,12 +5342,12 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>울트라기어</t>
+          <t>삼성</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
@@ -5369,22 +5369,22 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>삼성전자 오디세이 G5 G55A S32AG550 165</t>
+          <t>LG전자 32UN550</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=30452689619</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24367892525</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3045268/30452689619.20220107112043.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2436789/24367892525.20210406141630.jpg</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>448990</t>
+          <t>496000</t>
         </is>
       </c>
       <c r="F87" t="inlineStr"/>
@@ -5400,12 +5400,12 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>오디세이</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
@@ -5427,22 +5427,22 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>LG전자 울트라HD 32UN880</t>
+          <t>벤큐 XL2411P 아이케어</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24554243522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=12954974985</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2455424/24554243522.20210406130449.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1295497/12954974985.20220311173549.jpg</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>799000</t>
+          <t>299000</t>
         </is>
       </c>
       <c r="F88" t="inlineStr"/>
@@ -5458,12 +5458,12 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>울트라HD</t>
+          <t>벤큐</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>벤큐</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
@@ -5485,22 +5485,22 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>삼성전자 삼성 S27R35A</t>
+          <t>삼성전자 오디세이 G5 G55A S27AG550 165</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=25885966522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=30454173618</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2588596/25885966522.20210205160851.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3045417/30454173618.20220107132754.jpg</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>236950</t>
+          <t>399000</t>
         </is>
       </c>
       <c r="F89" t="inlineStr"/>
@@ -5516,7 +5516,7 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>삼성</t>
+          <t>오디세이</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -5543,22 +5543,22 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>한성컴퓨터 TFG39Q14V 144</t>
+          <t>ASUS ZenScreen MB16AMT</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=26826361522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=21151726572</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2682636/26826361522.20210419161946.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2115172/21151726572.20211125153749.jpg</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>479000</t>
+          <t>549000</t>
         </is>
       </c>
       <c r="F90" t="inlineStr"/>
@@ -5574,12 +5574,12 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>ASUS</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>ASUS</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
@@ -5601,22 +5601,22 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>벤큐 EW3270U 아이케어</t>
+          <t>벤큐 XL2731K 165</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=14334382813</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=28757211554</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1433438/14334382813.20220318102530.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2875721/28757211554.20220311173957.jpg</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>479000</t>
+          <t>419000</t>
         </is>
       </c>
       <c r="F91" t="inlineStr"/>
@@ -5659,22 +5659,22 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>삼성전자 오디세이 G5 G52A S32AG520 165</t>
+          <t>주연테크 V28UE-M</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=30454046618</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27493158522</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3045404/30454046618.20220107131705.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2749315/27493158522.20210608162022.jpg</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>649000</t>
+          <t>329000</t>
         </is>
       </c>
       <c r="F92" t="inlineStr"/>
@@ -5690,12 +5690,12 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>오디세이</t>
+          <t>주연테크</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>주연테크</t>
         </is>
       </c>
       <c r="K92" t="inlineStr">
@@ -5717,22 +5717,22 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>DELL 울트라샤프 U2722D</t>
+          <t>삼성전자 삼성 울트라 와이드 C34H890WG ASS(Auto Source Switch) USB-C</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27124609522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=22435637412</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2712460/27124609522.20210719172836.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2243563/22435637412.20210203133722.jpg</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>509000</t>
+          <t>569000</t>
         </is>
       </c>
       <c r="F93" t="inlineStr"/>
@@ -5748,12 +5748,12 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>울트라샤프</t>
+          <t>삼성</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>DELL</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
@@ -5775,22 +5775,22 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>LG전자 울트라와이드 29WP500</t>
+          <t>한성컴퓨터 TFG39Q14V 144</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=26886077522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=26826361522</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2688607/26886077522.20210524134552.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2682636/26826361522.20210419161946.jpg</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>269000</t>
+          <t>479000</t>
         </is>
       </c>
       <c r="F94" t="inlineStr"/>
@@ -5806,12 +5806,12 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>울트라와이드</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="K94" t="inlineStr">
@@ -5833,22 +5833,22 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>DELL 울트라샤프 U2720Q</t>
+          <t>DELL 울트라샤프 U2722D</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=21752731630</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27124609522</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2175273/21752731630.20200327122054.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2712460/27124609522.20210719172836.jpg</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>749000</t>
+          <t>509000</t>
         </is>
       </c>
       <c r="F95" t="inlineStr"/>
@@ -5891,22 +5891,22 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>한성컴퓨터 TFX156PB</t>
+          <t>LG전자 27MK600M</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=28193235522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=14556207637</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2819323/28193235522.20210728161135.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1455620/14556207637.20200824153135.jpg</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>309000</t>
+          <t>66910</t>
         </is>
       </c>
       <c r="F96" t="inlineStr"/>
@@ -5922,12 +5922,12 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K96" t="inlineStr">
@@ -5949,22 +5949,22 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>LG전자 울트라기어 27GP750</t>
+          <t>DELL 울트라샤프 U2720Q</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=29060355587</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=21752731630</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2906035/29060355587.20220125134215.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2175273/21752731630.20200327122054.jpg</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>448900</t>
+          <t>749000</t>
         </is>
       </c>
       <c r="F97" t="inlineStr"/>
@@ -5980,12 +5980,12 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>울트라기어</t>
+          <t>울트라샤프</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>DELL</t>
         </is>
       </c>
       <c r="K97" t="inlineStr">
@@ -6007,22 +6007,22 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>삼성전자 오디세이 G7 C27G75T</t>
+          <t>삼성전자 오디세이 G5 G52A S32AG520 165</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=23021385490</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=30454046618</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2302138/23021385490.20200803121144.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3045404/30454046618.20220107131705.jpg</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>645050</t>
+          <t>649000</t>
         </is>
       </c>
       <c r="F98" t="inlineStr"/>
@@ -6065,22 +6065,22 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>LG전자 24MK600M</t>
+          <t>한성컴퓨터 TFX156PB</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=14556210024</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=28193235522</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1455621/14556210024.20210406134738.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2819323/28193235522.20210728161135.jpg</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>200900</t>
+          <t>309000</t>
         </is>
       </c>
       <c r="F99" t="inlineStr"/>
@@ -6096,12 +6096,12 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="K99" t="inlineStr">
@@ -6123,22 +6123,22 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>삼성전자 삼성 울트라 와이드 C34H890WG ASS(Auto Source Switch) USB-C</t>
+          <t>삼성전자 삼성 S27R35A</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=22435637412</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=25885966522</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2243563/22435637412.20210203133722.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2588596/25885966522.20210205160851.jpg</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>569000</t>
+          <t>236870</t>
         </is>
       </c>
       <c r="F100" t="inlineStr"/>
@@ -6181,22 +6181,22 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>LG전자 32UN550</t>
+          <t>삼성전자 삼성 S8 UHD S32A800</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24367892525</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=26743764522</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2436789/24367892525.20210406141630.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2674376/26743764522.20210628105349.jpg</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>498900</t>
+          <t>499000</t>
         </is>
       </c>
       <c r="F101" t="inlineStr"/>
@@ -6212,12 +6212,12 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>삼성</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K101" t="inlineStr">

--- a/output.xlsx
+++ b/output.xlsx
@@ -439,22 +439,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>삼성전자 삼성 F24T350</t>
+          <t>삼성전자 삼성 F27T350</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24007197522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=23996451524</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2400719/24007197522.20210302142445.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2399645/23996451524.20210302142600.jpg</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>175000</t>
+          <t>209000</t>
         </is>
       </c>
       <c r="F2" t="inlineStr"/>
@@ -497,22 +497,22 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>삼성전자 삼성 F27T350</t>
+          <t>삼성전자 삼성 F24T350</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=23996451524</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24007197522</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2399645/23996451524.20210302142600.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2400719/24007197522.20210302142445.jpg</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>209000</t>
+          <t>175000</t>
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
@@ -555,22 +555,22 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>삼성전자 삼성 커브드 C27R502 베젤리스 프리싱크</t>
+          <t>LG전자 32QN650</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=20189888243</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=23692201495</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2018988/20189888243.20200915115734.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2369220/23692201495.20210406132235.jpg</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>219000</t>
+          <t>368890</t>
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
@@ -586,12 +586,12 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>삼성</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -613,22 +613,22 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>LG전자 32MN500MW</t>
+          <t>LG전자 울트라HD 32UN650</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=22764052560</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24635274522</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2276405/22764052560.20200824151306.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2463527/24635274522.20210405173537.jpg</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>268850</t>
+          <t>548900</t>
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
@@ -644,7 +644,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>울트라HD</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -671,22 +671,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>삼성전자 삼성 C32R500F</t>
+          <t>삼성전자 삼성 커브드 C27R502 베젤리스 프리싱크</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=22483121542</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=20189888243</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2248312/22483121542.20210602151356.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2018988/20189888243.20200915115734.jpg</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>269000</t>
+          <t>219000</t>
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
@@ -729,22 +729,22 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>삼성전자 스마트모니터 M7 S43AM700</t>
+          <t>LG전자 32MN500MW</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27215825524</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=22764052560</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2721582/27215825524.20210520173025.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2276405/22764052560.20200824151306.jpg</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>593990</t>
+          <t>258900</t>
         </is>
       </c>
       <c r="F7" t="inlineStr"/>
@@ -760,12 +760,12 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>스마트모니터</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -787,22 +787,22 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>LG전자 32QN650</t>
+          <t>삼성전자 삼성 C32R500F</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=23692201495</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=22483121542</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2369220/23692201495.20210406132235.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2248312/22483121542.20210602151356.jpg</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>368890</t>
+          <t>269000</t>
         </is>
       </c>
       <c r="F8" t="inlineStr"/>
@@ -818,12 +818,12 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>삼성</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -845,22 +845,22 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>LG전자 울트라HD 32UN650</t>
+          <t>LG전자 27MN430HW</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24635274522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=23301354490</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2463527/24635274522.20210405173537.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2330135/23301354490.20200824152000.jpg</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>548900</t>
+          <t>212900</t>
         </is>
       </c>
       <c r="F9" t="inlineStr"/>
@@ -876,7 +876,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>울트라HD</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -903,22 +903,22 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>삼성전자 삼성 S24R350 베젤리스 프리싱크 75</t>
+          <t>삼성전자 스마트모니터 M7 S43AM700</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=20861526783</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27215825524</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2086152/20861526783.20210302142419.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2721582/27215825524.20210520173025.jpg</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>199000</t>
+          <t>593290</t>
         </is>
       </c>
       <c r="F10" t="inlineStr"/>
@@ -934,7 +934,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>삼성</t>
+          <t>스마트모니터</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -961,22 +961,22 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>삼성전자 삼성 S27R350</t>
+          <t>LG전자 24ML600SW</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=21775935202</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=19105796246</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2177593/21775935202.20210203132859.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1910579/19105796246.20200824152520.jpg</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>247000</t>
+          <t>205900</t>
         </is>
       </c>
       <c r="F11" t="inlineStr"/>
@@ -992,12 +992,12 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>삼성</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -1019,22 +1019,22 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>LG전자 27MN430HW</t>
+          <t>한성컴퓨터 ULTRON 2435V 프리싱크 리얼75</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=23301354490</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=13487979407</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2330135/23301354490.20200824152000.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1348797/13487979407.20220404172708.jpg</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>222900</t>
+          <t>149000</t>
         </is>
       </c>
       <c r="F12" t="inlineStr"/>
@@ -1050,12 +1050,12 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -1077,22 +1077,22 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>LG전자 24ML600SW</t>
+          <t>한성컴퓨터 TFG32F16V 1500R 리얼 165 게이밍</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=19105796246</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=18778755031</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1910579/19105796246.20200824152520.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1877875/18778755031.20201230122744.jpg</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>205900</t>
+          <t>269000</t>
         </is>
       </c>
       <c r="F13" t="inlineStr"/>
@@ -1108,12 +1108,12 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -1135,22 +1135,22 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>한성컴퓨터 ULTRON 2760G 리얼 144</t>
+          <t>LG전자 27TN600S</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=15020041438</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=21745903830</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1502004/15020041438.20200424094329.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2174590/21745903830.20200824150453.jpg</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>219000</t>
+          <t>374700</t>
         </is>
       </c>
       <c r="F14" t="inlineStr"/>
@@ -1164,14 +1164,10 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>한성컴퓨터</t>
-        </is>
-      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -1193,22 +1189,22 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>한성컴퓨터 TFG32F16V 1500R 리얼 165 게이밍</t>
+          <t>한성컴퓨터 ULTRON 2760G 리얼 144</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=18778755031</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=15020041438</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1877875/18778755031.20201230122744.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1502004/15020041438.20200424094329.jpg</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>269000</t>
+          <t>219000</t>
         </is>
       </c>
       <c r="F15" t="inlineStr"/>
@@ -1251,22 +1247,22 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>벤큐 XL2411K</t>
+          <t>한성컴퓨터 TFG32Q07P 75</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24196764522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=28655748554</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2419676/24196764522.20220311173519.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2865574/28655748554.20210831152013.jpg</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>299000</t>
+          <t>269000</t>
         </is>
       </c>
       <c r="F16" t="inlineStr"/>
@@ -1282,12 +1278,12 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>벤큐</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>벤큐</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -1309,22 +1305,22 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>삼성전자 오디세이 G5 C27G54T</t>
+          <t>삼성전자 오디세이 G5 C32G54T</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=23896119522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=23896004523</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2389611/23896119522.20210302142506.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2389600/23896004523.20210203132926.jpg</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>328420</t>
+          <t>409000</t>
         </is>
       </c>
       <c r="F17" t="inlineStr"/>
@@ -1367,22 +1363,22 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>LG전자 27TN600S</t>
+          <t>한성컴퓨터 ULTRON 3278 QHD New</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=21745903830</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=16776093488</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2174590/21745903830.20200824150453.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1677609/16776093488.20200424094717.jpg</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>374800</t>
+          <t>269000</t>
         </is>
       </c>
       <c r="F18" t="inlineStr"/>
@@ -1396,10 +1392,14 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I18" t="inlineStr"/>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>한성컴퓨터</t>
+        </is>
+      </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -1421,22 +1421,22 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>한성컴퓨터 TFG32Q07P 75</t>
+          <t>한성컴퓨터 ULTRON 2460G 리얼 144 게이밍</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=28655748554</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=20471652225</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2865574/28655748554.20210831152013.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2047165/20471652225.20220425114215.jpg</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>269000</t>
+          <t>179000</t>
         </is>
       </c>
       <c r="F19" t="inlineStr"/>
@@ -1479,22 +1479,22 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>한성컴퓨터 TFG27F16V 1500R 리얼 165 게이밍</t>
+          <t>ASUS VG258QR</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=18797620615</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=18323660111</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1879762/18797620615.20201230122720.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1832366/18323660111.20190620142114.jpg</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>219000</t>
+          <t>296980</t>
         </is>
       </c>
       <c r="F20" t="inlineStr"/>
@@ -1510,12 +1510,12 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>ASUS</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>ASUS</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -1552,7 +1552,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>184900</t>
+          <t>174900</t>
         </is>
       </c>
       <c r="F21" t="inlineStr"/>
@@ -1595,22 +1595,22 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>한성컴퓨터 ULTRON 2460G 리얼 144 게이밍</t>
+          <t>삼성전자 오디세이 G5 C27G54T</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=20471652225</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=23896119522</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2047165/20471652225.20220425114215.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2389611/23896119522.20210302142506.jpg</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>179000</t>
+          <t>328280</t>
         </is>
       </c>
       <c r="F22" t="inlineStr"/>
@@ -1626,12 +1626,12 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>오디세이</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
@@ -1653,22 +1653,22 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>삼성전자 오디세이 G5 C32G54T</t>
+          <t>삼성전자 스마트모니터 M5 S32AM501</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=23896004523</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=26870008522</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2389600/23896004523.20210203132926.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2687000/26870008522.20210422145112.jpg</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>409000</t>
+          <t>345000</t>
         </is>
       </c>
       <c r="F23" t="inlineStr"/>
@@ -1684,7 +1684,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>오디세이</t>
+          <t>스마트모니터</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1711,22 +1711,22 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>ASUS VG258QR</t>
+          <t>한성컴퓨터 TFG27F16V 1500R 리얼 165 게이밍</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=18323660111</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=18797620615</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1832366/18323660111.20190620142114.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1879762/18797620615.20201230122720.jpg</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>296980</t>
+          <t>219000</t>
         </is>
       </c>
       <c r="F24" t="inlineStr"/>
@@ -1742,12 +1742,12 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>ASUS</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>ASUS</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -1769,22 +1769,22 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>삼성전자 스마트모니터 M5 S32AM501</t>
+          <t>벤큐 GW2780 아이케어</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=26870008522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=11846746201</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2687000/26870008522.20210422145112.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1184674/11846746201.20220318094817.jpg</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>345000</t>
+          <t>239000</t>
         </is>
       </c>
       <c r="F25" t="inlineStr"/>
@@ -1800,12 +1800,12 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>스마트모니터</t>
+          <t>벤큐</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>벤큐</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -1827,22 +1827,22 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>한성컴퓨터 ULTRON 3278 QHD New</t>
+          <t>벤큐 XL2411K</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=16776093488</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24196764522</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1677609/16776093488.20200424094717.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2419676/24196764522.20220311173519.jpg</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>269000</t>
+          <t>299000</t>
         </is>
       </c>
       <c r="F26" t="inlineStr"/>
@@ -1858,12 +1858,12 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>벤큐</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>벤큐</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
@@ -1885,22 +1885,22 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>벤큐 GW2780 아이케어</t>
+          <t>한성컴퓨터 ULTRON 2758 프리싱크 리얼 75</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=11846746201</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=14816445651</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1184674/11846746201.20220318094817.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1481644/14816445651.20220310121415.jpg</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>239000</t>
+          <t>179000</t>
         </is>
       </c>
       <c r="F27" t="inlineStr"/>
@@ -1916,12 +1916,12 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>벤큐</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>벤큐</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -1943,22 +1943,22 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>한성컴퓨터 ULTRON 2435V 프리싱크 리얼75</t>
+          <t>LG전자 LG그램 그램+뷰 16MQ70</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=13487979407</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=30377313618</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1348797/13487979407.20220404172708.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3037731/30377313618.20211231144328.jpg</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>149000</t>
+          <t>349000</t>
         </is>
       </c>
       <c r="F28" t="inlineStr"/>
@@ -1974,12 +1974,12 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>LG그램</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -2001,22 +2001,22 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>한성컴퓨터 ULTRON 2758 프리싱크 리얼 75</t>
+          <t>삼성전자 스마트모니터 M5 S32AM500</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=14816445651</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=25524342522</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1481644/14816445651.20220310121415.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2552434/25524342522.20210302142529.jpg</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>179000</t>
+          <t>334000</t>
         </is>
       </c>
       <c r="F29" t="inlineStr"/>
@@ -2032,12 +2032,12 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>스마트모니터</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
@@ -2059,22 +2059,22 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>삼성전자 스마트모니터 M5 S32AM500</t>
+          <t>삼성전자 스마트모니터 M5 S27AM500</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=25524342522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=25524380522</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2552434/25524342522.20210302142529.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2552438/25524380522.20210302142816.jpg</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>335000</t>
+          <t>298980</t>
         </is>
       </c>
       <c r="F30" t="inlineStr"/>
@@ -2117,22 +2117,22 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>한성컴퓨터 TFG27Q14F QHD 평면 144 게이밍</t>
+          <t>삼성전자 삼성 S27R350</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24509574524</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=21775935202</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2450957/24509574524.20201022114639.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2177593/21775935202.20210203132859.jpg</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>259000</t>
+          <t>247000</t>
         </is>
       </c>
       <c r="F31" t="inlineStr"/>
@@ -2148,12 +2148,12 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>삼성</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
@@ -2175,22 +2175,22 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>LG전자 울트라기어 27GN650</t>
+          <t>삼성전자 삼성 S24R350 베젤리스 프리싱크 75</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=25413919522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=20861526783</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2541391/25413919522.20220125134231.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2086152/20861526783.20210302142419.jpg</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>394800</t>
+          <t>199000</t>
         </is>
       </c>
       <c r="F32" t="inlineStr"/>
@@ -2206,12 +2206,12 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>울트라기어</t>
+          <t>삼성</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
@@ -2233,22 +2233,22 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>삼성전자 스마트모니터 M5 S27AM500</t>
+          <t>한성컴퓨터 TFG27Q14F QHD 평면 144 게이밍</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=25524380522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24509574524</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2552438/25524380522.20210302142816.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2450957/24509574524.20201022114639.jpg</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>298990</t>
+          <t>259000</t>
         </is>
       </c>
       <c r="F33" t="inlineStr"/>
@@ -2264,12 +2264,12 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>스마트모니터</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
@@ -2291,22 +2291,22 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>ASUS VA24DQLB</t>
+          <t>LG전자 울트라기어 27GN650</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=23257141490</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=25413919522</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2325714/23257141490.20200720175614.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2541391/25413919522.20220125134231.jpg</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>236520</t>
+          <t>394800</t>
         </is>
       </c>
       <c r="F34" t="inlineStr"/>
@@ -2322,12 +2322,12 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>ASUS</t>
+          <t>울트라기어</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>ASUS</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
@@ -2349,22 +2349,22 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>LG전자 27MK430H</t>
+          <t>한성컴퓨터 TFX32U06V 4K HDR 1500R 커브드</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=15183175543</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=20942220356</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1518317/15183175543.20200824151717.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2094222/20942220356.20210630112723.jpg</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>222900</t>
+          <t>299000</t>
         </is>
       </c>
       <c r="F35" t="inlineStr"/>
@@ -2380,12 +2380,12 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
@@ -2407,22 +2407,22 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>삼성전자 삼성 S24R35A</t>
+          <t>ASUS VA24DQLB</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=31911879618</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=23257141490</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3191187/31911879618.20220419165448.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2325714/23257141490.20200720175614.jpg</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>161410</t>
+          <t>236520</t>
         </is>
       </c>
       <c r="F36" t="inlineStr"/>
@@ -2438,12 +2438,12 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>삼성</t>
+          <t>ASUS</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>ASUS</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
@@ -2465,22 +2465,22 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>MSI 옵틱스 G271 게이밍 144 아이세이버</t>
+          <t>한성컴퓨터 TFG34Q14WQ 퀀텀닷 1500R 리얼 144 울트라와이드 게이밍</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=22435637800</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=22312278223</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2243563/22435637800.20201111111336.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2231227/22312278223.20220215171608.jpg</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>229000</t>
+          <t>429000</t>
         </is>
       </c>
       <c r="F37" t="inlineStr"/>
@@ -2496,12 +2496,12 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>MSI</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>MSI</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
@@ -2523,22 +2523,22 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>한성컴퓨터 TFX32U06V 4K HDR 1500R 커브드</t>
+          <t>MSI 옵틱스 G271 게이밍 144 아이세이버</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=20942220356</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=22435637800</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2094222/20942220356.20210630112723.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2243563/22435637800.20201111111336.jpg</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>299000</t>
+          <t>229000</t>
         </is>
       </c>
       <c r="F38" t="inlineStr"/>
@@ -2554,12 +2554,12 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>MSI</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>MSI</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
@@ -2581,22 +2581,22 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>삼성전자 스마트모니터 M5 S27AM501</t>
+          <t>한성컴퓨터 TFG27F14P IPS 144</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=26870246522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=23258436490</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2687024/26870246522.20210422150359.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2325843/23258436490.20200624161211.jpg</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>321000</t>
+          <t>249000</t>
         </is>
       </c>
       <c r="F39" t="inlineStr"/>
@@ -2612,12 +2612,12 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>스마트모니터</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
@@ -2639,22 +2639,22 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>삼성전자 스마트모니터 M7 S32AM701</t>
+          <t>LG전자 27QN600</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=29724256618</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=23849172522</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2972425/29724256618.20211117133727.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2384917/23849172522.20210406141920.jpg</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>498000</t>
+          <t>318900</t>
         </is>
       </c>
       <c r="F40" t="inlineStr"/>
@@ -2670,12 +2670,12 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>스마트모니터</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
@@ -2697,22 +2697,22 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>한성컴퓨터 TFG34Q14WQ 퀀텀닷 1500R 리얼 144 울트라와이드 게이밍</t>
+          <t>LG전자 27MK430H</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=22312278223</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=15183175543</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2231227/22312278223.20220215171608.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1518317/15183175543.20200824151717.jpg</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>429000</t>
+          <t>212900</t>
         </is>
       </c>
       <c r="F41" t="inlineStr"/>
@@ -2728,12 +2728,12 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
@@ -2755,22 +2755,22 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>LG전자 LG그램 그램+뷰 16MQ70</t>
+          <t>LG전자 울트라HD 27UL550</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=30377313618</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=19298157033</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3037731/30377313618.20211231144328.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1929815/19298157033.20200824143609.jpg</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>339000</t>
+          <t>398900</t>
         </is>
       </c>
       <c r="F42" t="inlineStr"/>
@@ -2786,7 +2786,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>LG그램</t>
+          <t>울트라HD</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2813,22 +2813,22 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>삼성전자 삼성 F24T450</t>
+          <t>삼성전자 스마트모니터 M5 S27AM501</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24007200522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=26870246522</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2400720/24007200522.20210203133027.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2687024/26870246522.20210422150359.jpg</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>228000</t>
+          <t>321000</t>
         </is>
       </c>
       <c r="F43" t="inlineStr"/>
@@ -2844,7 +2844,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>삼성</t>
+          <t>스마트모니터</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2871,22 +2871,22 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>삼성전자 오디세이 G7 C27G75T</t>
+          <t>한성컴퓨터 TFG34Q14W 1500R 커브드 리얼 144 울트라와이드 게이밍</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=23021385490</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=29326560618</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2302138/23021385490.20200803121144.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2932656/29326560618.20211021130829.jpg</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>643430</t>
+          <t>399000</t>
         </is>
       </c>
       <c r="F44" t="inlineStr"/>
@@ -2902,12 +2902,12 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>오디세이</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
@@ -2929,22 +2929,22 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>ASUS VZ27EHE 시력보호 Gaming 베젤리스</t>
+          <t>삼성전자 스마트모니터 M7 S32AM701</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=29590676619</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=29724256618</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2959067/29590676619.20220325125911.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2972425/29724256618.20211117133727.jpg</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>226620</t>
+          <t>497990</t>
         </is>
       </c>
       <c r="F45" t="inlineStr"/>
@@ -2960,12 +2960,12 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>ASUS</t>
+          <t>스마트모니터</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>ASUS</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
@@ -2987,22 +2987,22 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>벤큐 GW2480 아이케어 무결점</t>
+          <t>한성컴퓨터 TFG32F14F 144</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=11846842637</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24380347522</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1184684/11846842637.20220318094758.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2438034/24380347522.20201007114746.jpg</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>199000</t>
+          <t>269000</t>
         </is>
       </c>
       <c r="F46" t="inlineStr"/>
@@ -3018,12 +3018,12 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>벤큐</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>벤큐</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
@@ -3045,22 +3045,22 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>한성컴퓨터 TFG27F14P IPS 144</t>
+          <t>벤큐 GW2480 아이케어 무결점</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=23258436490</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=11846842637</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2325843/23258436490.20200624161211.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1184684/11846842637.20220318094758.jpg</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>249000</t>
+          <t>199000</t>
         </is>
       </c>
       <c r="F47" t="inlineStr"/>
@@ -3076,12 +3076,12 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>벤큐</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>벤큐</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
@@ -3103,22 +3103,22 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>삼성전자 오디세이 Neo G9 S49AG950 49인치 게이밍 모니터</t>
+          <t>한성컴퓨터 TFX156T DEX 포터블 HDR</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=28288984554</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=21936337549</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2828898/28288984554.20210810100808.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2193633/21936337549.20200428094649.jpg</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>1861000</t>
+          <t>269000</t>
         </is>
       </c>
       <c r="F48" t="inlineStr"/>
@@ -3134,12 +3134,12 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>오디세이</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
@@ -3161,22 +3161,22 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>DELL 울트라샤프 U2722D</t>
+          <t>한성컴퓨터 TFG32Q14F 144</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27124609522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24439846522</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2712460/27124609522.20210719172836.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2443984/24439846522.20201013113723.jpg</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>509000</t>
+          <t>329000</t>
         </is>
       </c>
       <c r="F49" t="inlineStr"/>
@@ -3192,12 +3192,12 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>울트라샤프</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>DELL</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
@@ -3277,22 +3277,22 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>한성컴퓨터 TFG32F14F 144</t>
+          <t>벤큐 XL2546K</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24380347522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24235203522</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2438034/24380347522.20201007114746.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2423520/24235203522.20220311173812.jpg</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>269000</t>
+          <t>699000</t>
         </is>
       </c>
       <c r="F51" t="inlineStr"/>
@@ -3308,12 +3308,12 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>벤큐</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>벤큐</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
@@ -3335,22 +3335,22 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>LG전자 울트라HD 27UL550</t>
+          <t>삼성전자 오디세이 G7 C27G75T</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=19298157033</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=23021385490</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1929815/19298157033.20200824143609.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2302138/23021385490.20200803121144.jpg</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>398900</t>
+          <t>645360</t>
         </is>
       </c>
       <c r="F52" t="inlineStr"/>
@@ -3366,12 +3366,12 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>울트라HD</t>
+          <t>오디세이</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
@@ -3393,22 +3393,22 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>LG전자 27QN600</t>
+          <t>ASUS VZ27EHE 시력보호 Gaming 베젤리스</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=23849172522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=29590676619</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2384917/23849172522.20210406141920.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2959067/29590676619.20220325125911.jpg</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>318900</t>
+          <t>226620</t>
         </is>
       </c>
       <c r="F53" t="inlineStr"/>
@@ -3424,12 +3424,12 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>ASUS</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>ASUS</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
@@ -3451,22 +3451,22 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>LG전자 울트라기어 32GN650</t>
+          <t>한성컴퓨터 TFG27Q14V 1500R 리얼 144 게이밍</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=25413802522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=20812959649</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2541380/25413802522.20220124181008.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2081295/20812959649.20200424095919.jpg</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>448900</t>
+          <t>259000</t>
         </is>
       </c>
       <c r="F54" t="inlineStr"/>
@@ -3482,12 +3482,12 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>울트라기어</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
@@ -3509,22 +3509,22 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>한성컴퓨터 TFG27Q14V 1500R 리얼 144 게이밍</t>
+          <t>한성컴퓨터 TFX133T DEX 포터블 HDR</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=20812959649</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=21918294654</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2081295/20812959649.20200424095919.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2191829/21918294654.20200428094627.jpg</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>259000</t>
+          <t>229000</t>
         </is>
       </c>
       <c r="F55" t="inlineStr"/>
@@ -3567,22 +3567,22 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>벤큐 XL2546K</t>
+          <t>벤큐 모비우스 EX2710S</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24235203522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27862189523</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2423520/24235203522.20220311173812.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2786218/27862189523.20220311174737.jpg</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>699000</t>
+          <t>349000</t>
         </is>
       </c>
       <c r="F56" t="inlineStr"/>
@@ -3625,22 +3625,22 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>삼성전자 오디세이 G5 C34G55T 165</t>
+          <t>삼성전자 삼성 F24T450</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=25744041522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24007200522</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2574404/25744041522.20210324143655.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2400720/24007200522.20210203133027.jpg</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>624000</t>
+          <t>227000</t>
         </is>
       </c>
       <c r="F57" t="inlineStr"/>
@@ -3656,7 +3656,7 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>오디세이</t>
+          <t>삼성</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3683,22 +3683,22 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>LG전자 32UN550</t>
+          <t>LG전자 울트라기어 27GP750</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24367892525</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=29060355587</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2436789/24367892525.20210406141630.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2906035/29060355587.20220125134215.jpg</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>498900</t>
+          <t>448900</t>
         </is>
       </c>
       <c r="F58" t="inlineStr"/>
@@ -3714,7 +3714,7 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>울트라기어</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3741,22 +3741,22 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>한성컴퓨터 TFX133T DEX 포터블 HDR</t>
+          <t>LG전자 32UN550</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=21918294654</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24367892525</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2191829/21918294654.20200428094627.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2436789/24367892525.20210406141630.jpg</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>229000</t>
+          <t>498900</t>
         </is>
       </c>
       <c r="F59" t="inlineStr"/>
@@ -3772,12 +3772,12 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
@@ -3799,22 +3799,22 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>한성컴퓨터 TFX156T DEX 포터블 HDR</t>
+          <t>삼성전자 오디세이 Neo G9 S49AG950 49인치 게이밍 모니터</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=21936337549</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=28288984554</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2193633/21936337549.20200428094649.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2828898/28288984554.20210810100808.jpg</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>269000</t>
+          <t>1861000</t>
         </is>
       </c>
       <c r="F60" t="inlineStr"/>
@@ -3830,12 +3830,12 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>오디세이</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
@@ -3857,22 +3857,22 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>삼성전자 스마트모니터 M7 S32BM701</t>
+          <t>LG전자 24MN430HW</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=31605413618</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=23244797490</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3160541/31605413618.20220404134022.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2324479/23244797490.20220311131641.jpg</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>519000</t>
+          <t>174900</t>
         </is>
       </c>
       <c r="F61" t="inlineStr"/>
@@ -3888,12 +3888,12 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>스마트모니터</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
@@ -3915,22 +3915,22 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>벤큐 모비우스 EX2710S</t>
+          <t>삼성전자 오디세이 G5 C34G55T 165</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27862189523</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=25744041522</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2786218/27862189523.20220311174737.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2574404/25744041522.20210324143655.jpg</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>349000</t>
+          <t>624000</t>
         </is>
       </c>
       <c r="F62" t="inlineStr"/>
@@ -3946,12 +3946,12 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>벤큐</t>
+          <t>오디세이</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>벤큐</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
@@ -3973,22 +3973,22 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>한성컴퓨터 TFG32Q14F 144</t>
+          <t>LG전자 27ML600SW</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24439846522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=19105887903</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2443984/24439846522.20201013113723.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1910588/19105887903.20220125134154.jpg</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>329000</t>
+          <t>262900</t>
         </is>
       </c>
       <c r="F63" t="inlineStr"/>
@@ -4004,12 +4004,12 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
@@ -4031,22 +4031,22 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>한성컴퓨터 TFX173T DEX 포터블 HDR</t>
+          <t>LG전자 울트라와이드 34WN650</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=21936338223</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=23751525490</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2193633/21936338223.20200428094731.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2375152/23751525490.20210406135251.jpg</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>379000</t>
+          <t>448900</t>
         </is>
       </c>
       <c r="F64" t="inlineStr"/>
@@ -4062,12 +4062,12 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>울트라와이드</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
@@ -4089,22 +4089,22 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>LG전자 울트라기어 27GP750</t>
+          <t>한성컴퓨터 TFG32F24V 240</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=29060355587</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=28162745522</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2906035/29060355587.20220125134215.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2816274/28162745522.20210726183542.jpg</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>448900</t>
+          <t>299000</t>
         </is>
       </c>
       <c r="F65" t="inlineStr"/>
@@ -4120,12 +4120,12 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>울트라기어</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
@@ -4147,22 +4147,22 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>ASUS VG278QR</t>
+          <t>LG전자 울트라HD 32UN880</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=18214439726</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24554243522</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1821443/18214439726.20190620142310.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2455424/24554243522.20210406130449.jpg</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>367100</t>
+          <t>798900</t>
         </is>
       </c>
       <c r="F66" t="inlineStr"/>
@@ -4178,12 +4178,12 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>ASUS</t>
+          <t>울트라HD</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>ASUS</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
@@ -4205,22 +4205,22 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>LG전자 울트라HD 32UN880</t>
+          <t>LG전자 울트라기어 32GN650</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24554243522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=25413802522</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2455424/24554243522.20210406130449.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2541380/25413802522.20220124181008.jpg</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>798900</t>
+          <t>448850</t>
         </is>
       </c>
       <c r="F67" t="inlineStr"/>
@@ -4236,7 +4236,7 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>울트라HD</t>
+          <t>울트라기어</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -4263,22 +4263,22 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>삼성전자 오디세이 G3 S24AG300 144</t>
+          <t>삼성전자 삼성 C32T550</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27534600522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=22448790144</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2753460/27534600522.20210611131536.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2244879/22448790144.20210203133005.jpg</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>249000</t>
+          <t>357000</t>
         </is>
       </c>
       <c r="F68" t="inlineStr"/>
@@ -4294,7 +4294,7 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>오디세이</t>
+          <t>삼성</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -4321,22 +4321,22 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>삼성전자 오디세이 G3 S27AG300 144</t>
+          <t>LG전자 울트라와이드 34WN750</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27535066522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=23257853490</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2753506/27535066522.20210611135052.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2325785/23257853490.20200824150256.jpg</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>299000</t>
+          <t>528060</t>
         </is>
       </c>
       <c r="F69" t="inlineStr"/>
@@ -4352,12 +4352,12 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>오디세이</t>
+          <t>울트라와이드</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
@@ -4379,22 +4379,22 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>LG전자 24MN430HW</t>
+          <t>삼성전자 오디세이 G3 S24AG300 144</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=23244797490</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27534600522</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2324479/23244797490.20220311131641.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2753460/27534600522.20210611131536.jpg</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>184900</t>
+          <t>249000</t>
         </is>
       </c>
       <c r="F70" t="inlineStr"/>
@@ -4410,12 +4410,12 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>오디세이</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
@@ -4437,22 +4437,22 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>한성컴퓨터 TFG32F24V 240</t>
+          <t>DELL 울트라샤프 U2722D</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=28162745522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27124609522</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2816274/28162745522.20210726183542.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2712460/27124609522.20210719172836.jpg</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>299000</t>
+          <t>509000</t>
         </is>
       </c>
       <c r="F71" t="inlineStr"/>
@@ -4468,12 +4468,12 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>울트라샤프</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>DELL</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
@@ -4495,22 +4495,22 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>한성컴퓨터 TFG34Q14W 1500R 커브드 리얼 144 울트라와이드 게이밍</t>
+          <t>LG전자 울트라HD 27UP850</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=29326560618</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27124459522</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2932656/29326560618.20211021130829.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2712445/27124459522.20210512183326.jpg</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>399000</t>
+          <t>649000</t>
         </is>
       </c>
       <c r="F72" t="inlineStr"/>
@@ -4526,12 +4526,12 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>울트라HD</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
@@ -4553,22 +4553,22 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>LG전자 울트라HD 27UP850</t>
+          <t>알파스캔 AOC 27G2 게이밍 144 프리싱크</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27124459522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=21667682703</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2712445/27124459522.20210512183326.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2166768/21667682703.20210311170213.jpg</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>649000</t>
+          <t>358000</t>
         </is>
       </c>
       <c r="F73" t="inlineStr"/>
@@ -4584,12 +4584,12 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>울트라HD</t>
+          <t>알파스캔</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>알파스캔</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
@@ -4611,22 +4611,22 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>삼성전자 오디세이 G5 S27AG500 165</t>
+          <t>DELL 울트라샤프 U2723QE</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27611446522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=31516928619</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2761144/27611446522.20210617101529.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3151692/31516928619.20220329124400.jpg</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>569000</t>
+          <t>799000</t>
         </is>
       </c>
       <c r="F74" t="inlineStr"/>
@@ -4642,12 +4642,12 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>오디세이</t>
+          <t>울트라샤프</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>DELL</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
@@ -4669,22 +4669,22 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>LG전자 27ML600SW</t>
+          <t>한성컴퓨터 TFX173T DEX 포터블 HDR</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=19105887903</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=21936338223</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1910588/19105887903.20220125134154.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2193633/21936338223.20200428094731.jpg</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>263000</t>
+          <t>379000</t>
         </is>
       </c>
       <c r="F75" t="inlineStr"/>
@@ -4700,12 +4700,12 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
@@ -4727,22 +4727,22 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>LG전자 울트라기어 24GN600 144Hz</t>
+          <t>알파스캔 AOC Q27G2S 155</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=26122103522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24694967522</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2612210/26122103522.20220124181046.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2469496/24694967522.20210310172228.jpg</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>258900</t>
+          <t>439000</t>
         </is>
       </c>
       <c r="F76" t="inlineStr"/>
@@ -4758,12 +4758,12 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>울트라기어</t>
+          <t>알파스캔</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>알파스캔</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
@@ -4785,22 +4785,22 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>삼성전자 오디세이 G5 G55A S32AG550 165</t>
+          <t>LG전자 24MP400</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=30452689619</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27614392522</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3045268/30452689619.20220107112043.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2761439/27614392522.20210813165340.jpg</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>429000</t>
+          <t>190900</t>
         </is>
       </c>
       <c r="F77" t="inlineStr"/>
@@ -4816,12 +4816,12 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>오디세이</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
@@ -4843,22 +4843,22 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>삼성전자 삼성 LS32BM801UKXKR</t>
+          <t>한성컴퓨터 TFG30F20W  울트라와이드 200 게이밍</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=31160861618</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27287676522</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3116086/31160861618.20220304142910.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2728767/27287676522.20210628121550.jpg</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>799000</t>
+          <t>299000</t>
         </is>
       </c>
       <c r="F78" t="inlineStr"/>
@@ -4874,12 +4874,12 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>삼성</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
@@ -4901,22 +4901,22 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>DELL 울트라샤프 U2723QE</t>
+          <t>LG전자 울트라와이드 34WP500</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=31516928619</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27584005522</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3151692/31516928619.20220329124400.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2758400/27584005522.20210615125004.jpg</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>799000</t>
+          <t>398900</t>
         </is>
       </c>
       <c r="F79" t="inlineStr"/>
@@ -4932,12 +4932,12 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>울트라샤프</t>
+          <t>울트라와이드</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>DELL</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
@@ -4959,22 +4959,22 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>한성컴퓨터 TFG30F20W  울트라와이드 200 게이밍</t>
+          <t>삼성전자 삼성 S34J550</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27287676522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=15704895486</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2728767/27287676522.20210628121550.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1570489/15704895486.20210203133054.jpg</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>299000</t>
+          <t>408980</t>
         </is>
       </c>
       <c r="F80" t="inlineStr"/>
@@ -4990,12 +4990,12 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>삼성</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
@@ -5017,22 +5017,22 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>벤큐 XL2411P 아이케어</t>
+          <t>삼성전자 삼성 S24R35A</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=12954974985</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=31911879618</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1295497/12954974985.20220311173549.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3191187/31911879618.20220419165448.jpg</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>299000</t>
+          <t>165000</t>
         </is>
       </c>
       <c r="F81" t="inlineStr"/>
@@ -5048,12 +5048,12 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>벤큐</t>
+          <t>삼성</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>벤큐</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
@@ -5075,22 +5075,22 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>LG전자 울트라와이드 34WP500</t>
+          <t>알파스캔 AOC Q32V3S 75 무결점</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27584005522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=26013420522</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2758400/27584005522.20210615125004.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2601342/26013420522.20220211140907.jpg</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>398900</t>
+          <t>318000</t>
         </is>
       </c>
       <c r="F82" t="inlineStr"/>
@@ -5106,12 +5106,12 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>울트라와이드</t>
+          <t>알파스캔</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>알파스캔</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
@@ -5133,22 +5133,22 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>한성컴퓨터 TFG32F07V 1500R 커브드 게이밍 리얼 75</t>
+          <t>ASUS VG278QR</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=20882835913</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=18214439726</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2088283/20882835913.20200424100013.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1821443/18214439726.20190620142310.jpg</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>219000</t>
+          <t>353990</t>
         </is>
       </c>
       <c r="F83" t="inlineStr"/>
@@ -5164,12 +5164,12 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>ASUS</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>ASUS</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
@@ -5191,22 +5191,22 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>카멜 CM3210GC 165</t>
+          <t>한성컴퓨터 TFG32F07V 1500R 커브드 게이밍 리얼 75</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=25834381522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=20882835913</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2583438/25834381522.20210202114841.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2088283/20882835913.20200424100013.jpg</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>260830</t>
+          <t>219000</t>
         </is>
       </c>
       <c r="F84" t="inlineStr"/>
@@ -5222,12 +5222,12 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>카멜</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>카멜</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
@@ -5249,22 +5249,22 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>삼성전자 삼성 S34J550</t>
+          <t>DELL 울트라샤프 U2720Q</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=15704895486</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=21752731630</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1570489/15704895486.20210203133054.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2175273/21752731630.20200327122054.jpg</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>408980</t>
+          <t>749000</t>
         </is>
       </c>
       <c r="F85" t="inlineStr"/>
@@ -5280,12 +5280,12 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>삼성</t>
+          <t>울트라샤프</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>DELL</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
@@ -5307,22 +5307,22 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>경성글로벌코리아 언더독 MB27Q75 75</t>
+          <t>알파스캔 AOC 24B2 75 무결점</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=29879123618</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24171105522</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2987912/29879123618.20211206134853.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2417110/24171105522.20210310172014.jpg</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>169000</t>
+          <t>166000</t>
         </is>
       </c>
       <c r="F86" t="inlineStr"/>
@@ -5338,12 +5338,12 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>언더독</t>
+          <t>알파스캔</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>경성글로벌코리아</t>
+          <t>알파스캔</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
@@ -5365,22 +5365,22 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>인터픽셀 IP2740 게이밍 165</t>
+          <t>한성컴퓨터 TFG27Q14P 144</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=18968201200</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27327723522</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1896820/18968201200.20210325162750.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2732772/27327723522.20210527095004.jpg</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>249000</t>
+          <t>329000</t>
         </is>
       </c>
       <c r="F87" t="inlineStr"/>
@@ -5396,12 +5396,12 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>인터픽셀</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>인터픽셀</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
@@ -5423,22 +5423,22 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>LG전자 울트라기어 32GP850</t>
+          <t>삼성전자 오디세이 G3 S27AG300 144</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27405944522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27535066522</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2740594/27405944522.20220124180945.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2753506/27535066522.20210611135052.jpg</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>748900</t>
+          <t>299000</t>
         </is>
       </c>
       <c r="F88" t="inlineStr"/>
@@ -5454,12 +5454,12 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>울트라기어</t>
+          <t>오디세이</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
@@ -5597,22 +5597,22 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>DELL 울트라샤프 U2720Q</t>
+          <t>삼성전자 스마트모니터 M7 S32BM701</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=21752731630</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=31605413618</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2175273/21752731630.20200327122054.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3160541/31605413618.20220404134022.jpg</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>749000</t>
+          <t>519000</t>
         </is>
       </c>
       <c r="F91" t="inlineStr"/>
@@ -5628,12 +5628,12 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>울트라샤프</t>
+          <t>스마트모니터</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>DELL</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
@@ -5655,22 +5655,22 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>알파스캔 AOC 27G2 게이밍 144 프리싱크</t>
+          <t>LG전자 울트라기어 24GN600 144Hz</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=21667682703</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=26122103522</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2166768/21667682703.20210311170213.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2612210/26122103522.20220124181046.jpg</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>358000</t>
+          <t>258900</t>
         </is>
       </c>
       <c r="F92" t="inlineStr"/>
@@ -5686,12 +5686,12 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>알파스캔</t>
+          <t>울트라기어</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>알파스캔</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K92" t="inlineStr">
@@ -5713,22 +5713,22 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>삼성전자 삼성 슈퍼 와이드 게이밍 120 DQHD C49RG90</t>
+          <t>LG전자 32SP510MW</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=18571615807</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=25665799522</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1857161/18571615807.20210203133352.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2566579/25665799522.20210119154924.jpg</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>1260000</t>
+          <t>295860</t>
         </is>
       </c>
       <c r="F93" t="inlineStr"/>
@@ -5744,12 +5744,12 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>삼성</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
@@ -5771,22 +5771,22 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>한성컴퓨터 TFG39Q14V 144</t>
+          <t>LG전자 울트라기어 32GP850</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=26826361522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27405944522</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2682636/26826361522.20210419161946.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2740594/27405944522.20220124180945.jpg</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>479000</t>
+          <t>748900</t>
         </is>
       </c>
       <c r="F94" t="inlineStr"/>
@@ -5802,12 +5802,12 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>울트라기어</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K94" t="inlineStr">
@@ -5829,22 +5829,22 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>DELL P2422H</t>
+          <t>삼성전자 오디세이 G5 G55A S32AG550 165</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27490359527</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=30452689619</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2749035/27490359527.20210830113440.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3045268/30452689619.20220107112043.jpg</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>229000</t>
+          <t>429620</t>
         </is>
       </c>
       <c r="F95" t="inlineStr"/>
@@ -5860,12 +5860,12 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>DELL</t>
+          <t>오디세이</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>DELL</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K95" t="inlineStr">
@@ -5887,22 +5887,22 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>LG전자 울트라와이드 34WN750</t>
+          <t>벤큐 EW3270U 아이케어</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=23257853490</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=14334382813</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2325785/23257853490.20200824150256.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1433438/14334382813.20220318102530.jpg</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>548890</t>
+          <t>459000</t>
         </is>
       </c>
       <c r="F96" t="inlineStr"/>
@@ -5918,12 +5918,12 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>울트라와이드</t>
+          <t>벤큐</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>벤큐</t>
         </is>
       </c>
       <c r="K96" t="inlineStr">
@@ -5945,22 +5945,22 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>주연테크 V28UE</t>
+          <t>삼성전자 오디세이 G5 S27AG500 165</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=26322015522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27611446522</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2632201/26322015522.20210311142212.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2761144/27611446522.20210617101529.jpg</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>319000</t>
+          <t>569000</t>
         </is>
       </c>
       <c r="F97" t="inlineStr"/>
@@ -5976,12 +5976,12 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>주연테크</t>
+          <t>오디세이</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>주연테크</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K97" t="inlineStr">
@@ -6003,22 +6003,22 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>LG전자 울트라기어 27GP850</t>
+          <t>벤큐 XL2411P 아이케어</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=28378464554</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=12954974985</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2837846/28378464554.20220124181029.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1295497/12954974985.20220311173549.jpg</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>598900</t>
+          <t>299000</t>
         </is>
       </c>
       <c r="F98" t="inlineStr"/>
@@ -6034,12 +6034,12 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>울트라기어</t>
+          <t>벤큐</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>벤큐</t>
         </is>
       </c>
       <c r="K98" t="inlineStr">
@@ -6061,22 +6061,22 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>LG전자 24MK600M</t>
+          <t>LG전자 울트라기어 27GP850</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=14556210024</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=28378464554</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1455621/14556210024.20210406134738.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2837846/28378464554.20220124181029.jpg</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>200900</t>
+          <t>598900</t>
         </is>
       </c>
       <c r="F99" t="inlineStr"/>
@@ -6092,7 +6092,7 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>울트라기어</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -6119,22 +6119,22 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>LG전자 24MP400</t>
+          <t>DELL S2721DS</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27614392522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24525570527</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2761439/27614392522.20210813165340.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2452557/24525570527.20201117112539.jpg</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>190900</t>
+          <t>369000</t>
         </is>
       </c>
       <c r="F100" t="inlineStr"/>
@@ -6150,12 +6150,12 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>DELL</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>DELL</t>
         </is>
       </c>
       <c r="K100" t="inlineStr">
@@ -6177,22 +6177,22 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>알파스캔 AOC Q27G2S 155</t>
+          <t>LG전자 27MP400</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24694967522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27777660523</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2469496/24694967522.20210310172228.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2777766/27777660523.20220311131805.jpg</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>439000</t>
+          <t>233900</t>
         </is>
       </c>
       <c r="F101" t="inlineStr"/>
@@ -6208,12 +6208,12 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>알파스캔</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>알파스캔</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K101" t="inlineStr">

--- a/output.xlsx
+++ b/output.xlsx
@@ -555,22 +555,22 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>LG전자 32MN500MW</t>
+          <t>삼성전자 삼성 S24R35A</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=22764052560</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=31911879618</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2276405/22764052560.20200824151306.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3191187/31911879618.20220419165448.jpg</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>259000</t>
+          <t>165000</t>
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
@@ -586,12 +586,12 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>삼성</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -613,22 +613,22 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>삼성전자 삼성 S24R35A</t>
+          <t>LG전자 32MN500MW</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=31911879618</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=22764052560</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3191187/31911879618.20220419165448.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2276405/22764052560.20200824151306.jpg</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>165000</t>
+          <t>259000</t>
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
@@ -644,12 +644,12 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>삼성</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -671,22 +671,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>삼성전자 삼성 커브드 C27R502 베젤리스 프리싱크</t>
+          <t>ASUS VG258QR</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=20189888243</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=18323660111</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2018988/20189888243.20220519143818.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1832366/18323660111.20190620142114.jpg</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>219000</t>
+          <t>297000</t>
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
@@ -702,12 +702,12 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>삼성</t>
+          <t>ASUS</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>ASUS</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -729,22 +729,22 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ASUS VG258QR</t>
+          <t>삼성전자 삼성 커브드 C27R502 베젤리스 프리싱크</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=18323660111</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=20189888243</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1832366/18323660111.20190620142114.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2018988/20189888243.20220519143818.jpg</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>248180</t>
+          <t>219000</t>
         </is>
       </c>
       <c r="F7" t="inlineStr"/>
@@ -760,12 +760,12 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>ASUS</t>
+          <t>삼성</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>ASUS</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -845,22 +845,22 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>LG전자 24ML600SW</t>
+          <t>LG전자 32QN650</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=19105796246</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=23692201495</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1910579/19105796246.20200824152520.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2369220/23692201495.20210406132235.jpg</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>205900</t>
+          <t>398610</t>
         </is>
       </c>
       <c r="F9" t="inlineStr"/>
@@ -903,22 +903,22 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>LG전자 32QN650</t>
+          <t>LG전자 24ML600SW</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=23692201495</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=19105796246</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2369220/23692201495.20210406132235.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1910579/19105796246.20200824152520.jpg</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>398620</t>
+          <t>205900</t>
         </is>
       </c>
       <c r="F10" t="inlineStr"/>
@@ -961,22 +961,22 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>ASUS VA24DQLB</t>
+          <t>ASUS VG278QR</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=23257141490</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=18214439726</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2325714/23257141490.20200720175614.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1821443/18214439726.20190620142310.jpg</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>239000</t>
+          <t>340370</t>
         </is>
       </c>
       <c r="F11" t="inlineStr"/>
@@ -1019,22 +1019,22 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>삼성전자 삼성 C32R500F</t>
+          <t>LG전자 27MK430H</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=22483121542</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=15183175543</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2248312/22483121542.20220519144103.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1518317/15183175543.20200824151717.jpg</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>269000</t>
+          <t>222900</t>
         </is>
       </c>
       <c r="F12" t="inlineStr"/>
@@ -1050,12 +1050,12 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>삼성</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -1077,22 +1077,22 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>LG전자 울트라HD 32UN650</t>
+          <t>ASUS VA24DQLB</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24635274522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=23257141490</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2463527/24635274522.20210405173537.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2325714/23257141490.20200720175614.jpg</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>598900</t>
+          <t>239000</t>
         </is>
       </c>
       <c r="F13" t="inlineStr"/>
@@ -1108,12 +1108,12 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>울트라HD</t>
+          <t>ASUS</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>ASUS</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -1135,22 +1135,22 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>LG전자 27MK430H</t>
+          <t>ASUS VZ27EHE 시력보호 Gaming 베젤리스</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=15183175543</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=29590676619</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1518317/15183175543.20200824151717.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2959067/29590676619.20220325125911.jpg</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>222900</t>
+          <t>229000</t>
         </is>
       </c>
       <c r="F14" t="inlineStr"/>
@@ -1166,12 +1166,12 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>ASUS</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>ASUS</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -1193,22 +1193,22 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>ASUS VG278QR</t>
+          <t>LG전자 울트라HD 32UN650</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=18214439726</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24635274522</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1821443/18214439726.20190620142310.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2463527/24635274522.20210405173537.jpg</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>302180</t>
+          <t>598900</t>
         </is>
       </c>
       <c r="F15" t="inlineStr"/>
@@ -1224,12 +1224,12 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>ASUS</t>
+          <t>울트라HD</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>ASUS</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -1251,17 +1251,17 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>한성컴퓨터 ULTRON 3278 QHD New</t>
+          <t>삼성전자 삼성 C32R500F</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=16776093488</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=22483121542</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1677609/16776093488.20200424094717.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2248312/22483121542.20220519144103.jpg</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1282,12 +1282,12 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>삼성</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -1309,22 +1309,22 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>ASUS VZ27EHE 시력보호 Gaming 베젤리스</t>
+          <t>ASUS ZenScreen MB16AMT</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=29590676619</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=21151726572</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2959067/29590676619.20220325125911.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2115172/21151726572.20211125153749.jpg</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>229000</t>
+          <t>548000</t>
         </is>
       </c>
       <c r="F17" t="inlineStr"/>
@@ -1367,22 +1367,22 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>한성컴퓨터 TFG32F16V 1500R 리얼 165 게이밍</t>
+          <t>ASUS PA248QV</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=18778755031</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=31313633618</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1877875/18778755031.20201230122744.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3131363/31313633618.20220315100520.jpg</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>269000</t>
+          <t>369000</t>
         </is>
       </c>
       <c r="F18" t="inlineStr"/>
@@ -1396,14 +1396,10 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>한성컴퓨터</t>
-        </is>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>ASUS</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -1425,22 +1421,22 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>ASUS VZ24EHE 시력보호 Gaming 베젤리스</t>
+          <t>한성컴퓨터 TFG32F16V 1500R 리얼 165 게이밍</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=31317758619</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=18778755031</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3131775/31317758619.20220315153437.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1877875/18778755031.20201230122744.jpg</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>164000</t>
+          <t>269000</t>
         </is>
       </c>
       <c r="F19" t="inlineStr"/>
@@ -1456,12 +1452,12 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>ASUS</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>ASUS</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
@@ -1483,22 +1479,22 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>ASUS ZenScreen MB16AMT</t>
+          <t>ASUS VZ24EHE 시력보호 Gaming 베젤리스</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=21151726572</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=31317758619</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2115172/21151726572.20211125153749.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3131775/31317758619.20220315153437.jpg</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>548000</t>
+          <t>164000</t>
         </is>
       </c>
       <c r="F20" t="inlineStr"/>
@@ -1541,22 +1537,22 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>ASUS PA248QV</t>
+          <t>한성컴퓨터 ULTRON 3278 QHD New</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=31313633618</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=16776093488</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3131363/31313633618.20220315100520.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1677609/16776093488.20200424094717.jpg</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>309900</t>
+          <t>269000</t>
         </is>
       </c>
       <c r="F21" t="inlineStr"/>
@@ -1570,10 +1566,14 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I21" t="inlineStr"/>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>한성컴퓨터</t>
+        </is>
+      </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>ASUS</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -1595,22 +1595,22 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>한성컴퓨터 TFG27F16V 1500R 리얼 165 게이밍</t>
+          <t>ASUS PG32UQX UHD 4K HDR 1400</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=18797620615</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=30612627619</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1879762/18797620615.20201230122720.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3061262/30612627619.20220120102317.jpg</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>219000</t>
+          <t>4189500</t>
         </is>
       </c>
       <c r="F22" t="inlineStr"/>
@@ -1624,14 +1624,10 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>한성컴퓨터</t>
-        </is>
-      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>ASUS</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
@@ -1653,22 +1649,22 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>LG전자 27TN600S</t>
+          <t>한성컴퓨터 TFG27F16V 1500R 리얼 165 게이밍</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=21745903830</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=18797620615</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2174590/21745903830.20200824150453.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1879762/18797620615.20201230122720.jpg</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>355990</t>
+          <t>219000</t>
         </is>
       </c>
       <c r="F23" t="inlineStr"/>
@@ -1682,10 +1678,14 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I23" t="inlineStr"/>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>한성컴퓨터</t>
+        </is>
+      </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -1707,22 +1707,22 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>ASUS PG32UQX UHD 4K HDR 1400</t>
+          <t>ASUS PG259QNR</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=30612627619</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=26245783522</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3061262/30612627619.20220120102317.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2624578/26245783522.20210305091855.jpg</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>4189500</t>
+          <t>1283500</t>
         </is>
       </c>
       <c r="F24" t="inlineStr"/>
@@ -1761,22 +1761,22 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>벤큐 XL2411K</t>
+          <t>LG전자 27TN600S</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24196764522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=21745903830</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2419676/24196764522.20220311173519.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2174590/21745903830.20200824150453.jpg</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>299000</t>
+          <t>355950</t>
         </is>
       </c>
       <c r="F25" t="inlineStr"/>
@@ -1790,14 +1790,10 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>벤큐</t>
-        </is>
-      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr">
         <is>
-          <t>벤큐</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -1819,22 +1815,22 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>한성컴퓨터 TFG32Q07P 75</t>
+          <t>LG전자 27QN600</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=28655748554</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=23849172522</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2865574/28655748554.20210831152013.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2384917/23849172522.20210406141920.jpg</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>269000</t>
+          <t>308900</t>
         </is>
       </c>
       <c r="F26" t="inlineStr"/>
@@ -1850,12 +1846,12 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
@@ -1877,22 +1873,22 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>ASUS PG259QNR</t>
+          <t>ASUS TUF Gaming VG279QR</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=26245783522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=25497793528</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2624578/26245783522.20210305091855.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2549779/25497793528.20210119120926.jpg</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>1283500</t>
+          <t>378000</t>
         </is>
       </c>
       <c r="F27" t="inlineStr"/>
@@ -1906,7 +1902,11 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I27" t="inlineStr"/>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>ASUS</t>
+        </is>
+      </c>
       <c r="J27" t="inlineStr">
         <is>
           <t>ASUS</t>
@@ -1931,22 +1931,22 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>LG전자 27QN600</t>
+          <t>한성컴퓨터 TFG32Q07P 75</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=23849172522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=28655748554</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2384917/23849172522.20210406141920.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2865574/28655748554.20210831152013.jpg</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>308900</t>
+          <t>269000</t>
         </is>
       </c>
       <c r="F28" t="inlineStr"/>
@@ -1962,12 +1962,12 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -1989,22 +1989,22 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>한성컴퓨터 ULTRON 2435V 프리싱크 리얼75</t>
+          <t>벤큐 XL2411K</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=13487979407</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24196764522</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1348797/13487979407.20220404172708.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2419676/24196764522.20220311173519.jpg</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>149000</t>
+          <t>299000</t>
         </is>
       </c>
       <c r="F29" t="inlineStr"/>
@@ -2020,12 +2020,12 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>벤큐</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>벤큐</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
@@ -2047,22 +2047,22 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>한성컴퓨터 TFG27Q14F QHD 평면 144 게이밍</t>
+          <t>한성컴퓨터 ULTRON 2760G 리얼 144</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24509574524</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=15020041438</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2450957/24509574524.20201022114639.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1502004/15020041438.20220429112257.jpg</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>256330</t>
+          <t>219000</t>
         </is>
       </c>
       <c r="F30" t="inlineStr"/>
@@ -2105,22 +2105,22 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>한성컴퓨터 TFG32F14F 144</t>
+          <t>한성컴퓨터 ULTRON 2435V 프리싱크 리얼75</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24380347522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=13487979407</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2438034/24380347522.20201007114746.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1348797/13487979407.20220404172708.jpg</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>269000</t>
+          <t>149000</t>
         </is>
       </c>
       <c r="F31" t="inlineStr"/>
@@ -2163,22 +2163,22 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>ASUS TUF Gaming VG279QR</t>
+          <t>한성컴퓨터 TFG27Q14F QHD 평면 144 게이밍</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=25497793528</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24509574524</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2549779/25497793528.20210119120926.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2450957/24509574524.20201022114639.jpg</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>378000</t>
+          <t>256330</t>
         </is>
       </c>
       <c r="F32" t="inlineStr"/>
@@ -2194,12 +2194,12 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>ASUS</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>ASUS</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
@@ -2221,22 +2221,22 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>한성컴퓨터 ULTRON 2760G 리얼 144</t>
+          <t>한성컴퓨터 TFG32F14F 144</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=15020041438</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24380347522</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1502004/15020041438.20220429112257.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2438034/24380347522.20201007114746.jpg</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>219000</t>
+          <t>269000</t>
         </is>
       </c>
       <c r="F33" t="inlineStr"/>
@@ -2279,22 +2279,22 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>LG전자 LG그램 그램+뷰 16MQ70</t>
+          <t>LG전자 울트라HD 27UL550</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=30377313618</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=19298157033</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3037731/30377313618.20211231144328.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1929815/19298157033.20200824143609.jpg</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>358410</t>
+          <t>398900</t>
         </is>
       </c>
       <c r="F34" t="inlineStr"/>
@@ -2310,7 +2310,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>LG그램</t>
+          <t>울트라HD</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2337,22 +2337,22 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>삼성전자 오디세이 G5 C27G54T</t>
+          <t>한성컴퓨터 ULTRON 2758 프리싱크 리얼 75</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=23896119522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=14816445651</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2389611/23896119522.20210302142506.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1481644/14816445651.20220506122800.jpg</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>348980</t>
+          <t>179000</t>
         </is>
       </c>
       <c r="F35" t="inlineStr"/>
@@ -2368,12 +2368,12 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>오디세이</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
@@ -2395,22 +2395,22 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>한성컴퓨터 ULTRON 2758 프리싱크 리얼 75</t>
+          <t>한성컴퓨터 TFX156T DEX 포터블 HDR</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=14816445651</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=21936337549</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1481644/14816445651.20220506122800.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2193633/21936337549.20200428094649.jpg</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>179000</t>
+          <t>269000</t>
         </is>
       </c>
       <c r="F36" t="inlineStr"/>
@@ -2511,22 +2511,22 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>LG전자 울트라HD 27UL550</t>
+          <t>LG전자 LG그램 그램+뷰 16MQ70</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=19298157033</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=30377313618</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1929815/19298157033.20200824143609.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3037731/30377313618.20211231144328.jpg</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>399000</t>
+          <t>362620</t>
         </is>
       </c>
       <c r="F38" t="inlineStr"/>
@@ -2542,7 +2542,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>울트라HD</t>
+          <t>LG그램</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2569,22 +2569,22 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>한성컴퓨터 TFX156T DEX 포터블 HDR</t>
+          <t>삼성전자 오디세이 G5 C27G54T</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=21936337549</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=23896119522</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2193633/21936337549.20200428094649.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2389611/23896119522.20210302142506.jpg</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>269000</t>
+          <t>347500</t>
         </is>
       </c>
       <c r="F39" t="inlineStr"/>
@@ -2600,12 +2600,12 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>오디세이</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
@@ -2627,22 +2627,22 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>벤큐 GW2780 아이케어</t>
+          <t>삼성전자 스마트모니터 M7 S43AM700</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=11846746201</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27215825524</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1184674/11846746201.20220318094817.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2721582/27215825524.20210520173025.jpg</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>239000</t>
+          <t>596700</t>
         </is>
       </c>
       <c r="F40" t="inlineStr"/>
@@ -2658,12 +2658,12 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>벤큐</t>
+          <t>스마트모니터</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>벤큐</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
@@ -2685,22 +2685,22 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>벤큐 모비우스 EX2710S</t>
+          <t>LG전자 24MK430H 24인치 FHD IPS 광시야각 모니터</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27862189523</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=13643814149</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2786218/27862189523.20220311174737.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1364381/13643814149.20200824151155.jpg</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>379000</t>
+          <t>185900</t>
         </is>
       </c>
       <c r="F41" t="inlineStr"/>
@@ -2716,12 +2716,12 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>벤큐</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>벤큐</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
@@ -2743,22 +2743,22 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>한성컴퓨터 ULTRON 2460G 리얼 144 게이밍</t>
+          <t>벤큐 모비우스 EX2710S</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=20471652225</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27862189523</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2047165/20471652225.20220425114215.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2786218/27862189523.20220311174737.jpg</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>179000</t>
+          <t>369000</t>
         </is>
       </c>
       <c r="F42" t="inlineStr"/>
@@ -2774,12 +2774,12 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>벤큐</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>벤큐</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
@@ -2801,22 +2801,22 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>삼성전자 삼성 S27R350</t>
+          <t>벤큐 GW2780 아이케어</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=21775935202</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=11846746201</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2177593/21775935202.20210203132859.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1184674/11846746201.20220318094817.jpg</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>247000</t>
+          <t>239000</t>
         </is>
       </c>
       <c r="F43" t="inlineStr"/>
@@ -2832,12 +2832,12 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>삼성</t>
+          <t>벤큐</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>벤큐</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
@@ -2859,22 +2859,22 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>LG전자 24MK430H 24인치 FHD IPS 광시야각 모니터</t>
+          <t>삼성전자 삼성 S27R350</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=13643814149</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=21775935202</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1364381/13643814149.20200824151155.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2177593/21775935202.20210203132859.jpg</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>185900</t>
+          <t>247000</t>
         </is>
       </c>
       <c r="F44" t="inlineStr"/>
@@ -2890,12 +2890,12 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>삼성</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
@@ -2917,22 +2917,22 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>한성컴퓨터 TFG32Q14F 144</t>
+          <t>한성컴퓨터 ULTRON 2460G 리얼 144 게이밍</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24439846522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=20471652225</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2443984/24439846522.20201013113723.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2047165/20471652225.20220425114215.jpg</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>329000</t>
+          <t>179000</t>
         </is>
       </c>
       <c r="F45" t="inlineStr"/>
@@ -2975,22 +2975,22 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>LG전자 울트라기어 27GN650</t>
+          <t>LG전자 울트라기어 27GP750</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=25413919522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=29060355587</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2541391/25413919522.20220125134231.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2906035/29060355587.20220125134215.jpg</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>398000</t>
+          <t>409000</t>
         </is>
       </c>
       <c r="F46" t="inlineStr"/>
@@ -3033,22 +3033,22 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>삼성전자 스마트모니터 M7 S43AM700</t>
+          <t>한성컴퓨터 TFG32Q14F 144</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27215825524</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24439846522</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2721582/27215825524.20210520173025.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2443984/24439846522.20201013113723.jpg</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>596700</t>
+          <t>329000</t>
         </is>
       </c>
       <c r="F47" t="inlineStr"/>
@@ -3064,12 +3064,12 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>스마트모니터</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
@@ -3091,22 +3091,22 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>경성글로벌코리아 언더독 MB27Q75 75</t>
+          <t>LG전자 울트라기어 27GN650</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=29879123618</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=25413919522</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2987912/29879123618.20211206134853.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2541391/25413919522.20220125134231.jpg</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>169000</t>
+          <t>398000</t>
         </is>
       </c>
       <c r="F48" t="inlineStr"/>
@@ -3122,12 +3122,12 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>언더독</t>
+          <t>울트라기어</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>경성글로벌코리아</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
@@ -3149,22 +3149,22 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>한성컴퓨터 TFG34Q14WQ 퀀텀닷 1500R 리얼 144 울트라와이드 게이밍</t>
+          <t>DELL 울트라샤프 U2722D</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=22312278223</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27124609522</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2231227/22312278223.20220215171608.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2712460/27124609522.20210719172836.jpg</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>429000</t>
+          <t>509000</t>
         </is>
       </c>
       <c r="F49" t="inlineStr"/>
@@ -3180,12 +3180,12 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>울트라샤프</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>DELL</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
@@ -3207,22 +3207,22 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>LG전자 울트라기어 27GP750</t>
+          <t>경성글로벌코리아 언더독 MB27Q75 75</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=29060355587</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=29879123618</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2906035/29060355587.20220125134215.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2987912/29879123618.20211206134853.jpg</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>409000</t>
+          <t>169000</t>
         </is>
       </c>
       <c r="F50" t="inlineStr"/>
@@ -3238,12 +3238,12 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>울트라기어</t>
+          <t>언더독</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>경성글로벌코리아</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
@@ -3265,22 +3265,22 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>DELL 울트라샤프 U2720Q</t>
+          <t>삼성전자 오디세이 G5 C32G54T</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=21752731630</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=23896004523</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2175273/21752731630.20200327122054.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2389600/23896004523.20210203132926.jpg</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>749000</t>
+          <t>389000</t>
         </is>
       </c>
       <c r="F51" t="inlineStr"/>
@@ -3296,12 +3296,12 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>울트라샤프</t>
+          <t>오디세이</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>DELL</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
@@ -3323,22 +3323,22 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>한성컴퓨터 TFG27Q14P 144</t>
+          <t>한성컴퓨터 TFG30F20W  울트라와이드 200 게이밍</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27327723522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27287676522</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2732772/27327723522.20210527095004.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2728767/27287676522.20210628121550.jpg</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>329000</t>
+          <t>299000</t>
         </is>
       </c>
       <c r="F52" t="inlineStr"/>
@@ -3381,22 +3381,22 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>삼성전자 오디세이 G5 C32G54T</t>
+          <t>한성컴퓨터 TFG34Q14WQ 퀀텀닷 1500R 리얼 144 울트라와이드 게이밍</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=23896004523</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=22312278223</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2389600/23896004523.20210203132926.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2231227/22312278223.20220215171608.jpg</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>389000</t>
+          <t>429000</t>
         </is>
       </c>
       <c r="F53" t="inlineStr"/>
@@ -3412,12 +3412,12 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>오디세이</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
@@ -3439,22 +3439,22 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>DELL 울트라샤프 U2722D</t>
+          <t>삼성전자 스마트모니터 M5 S27AM500</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27124609522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=25524380522</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2712460/27124609522.20210719172836.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2552438/25524380522.20210302142816.jpg</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>509000</t>
+          <t>299000</t>
         </is>
       </c>
       <c r="F54" t="inlineStr"/>
@@ -3470,12 +3470,12 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>울트라샤프</t>
+          <t>스마트모니터</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>DELL</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
@@ -3497,22 +3497,22 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>삼성전자 스마트모니터 M5 S27AM500</t>
+          <t>벤큐 XL2546K</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=25524380522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24235203522</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2552438/25524380522.20210302142816.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2423520/24235203522.20220311173812.jpg</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>299000</t>
+          <t>699000</t>
         </is>
       </c>
       <c r="F55" t="inlineStr"/>
@@ -3528,12 +3528,12 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>스마트모니터</t>
+          <t>벤큐</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>벤큐</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
@@ -3555,22 +3555,22 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>카멜 CM3210GC 165</t>
+          <t>MSI 옵틱스 G271 게이밍 144 아이세이버</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=25834381522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=22435637800</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2583438/25834381522.20210202114841.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2243563/22435637800.20201111111336.jpg</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>266380</t>
+          <t>229000</t>
         </is>
       </c>
       <c r="F56" t="inlineStr"/>
@@ -3586,12 +3586,12 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>카멜</t>
+          <t>MSI</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>카멜</t>
+          <t>MSI</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
@@ -3613,22 +3613,22 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>벤큐 XL2546K</t>
+          <t>삼성전자 오디세이 G5 C34G55T 165</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24235203522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=25744041522</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2423520/24235203522.20220311173812.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2574404/25744041522.20210324143655.jpg</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>699000</t>
+          <t>541810</t>
         </is>
       </c>
       <c r="F57" t="inlineStr"/>
@@ -3644,12 +3644,12 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>벤큐</t>
+          <t>오디세이</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>벤큐</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
@@ -3671,22 +3671,22 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>LG전자 24MK600M</t>
+          <t>DELL 울트라샤프 U2720Q</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=14556210024</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=21752731630</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1455621/14556210024.20210406134738.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2175273/21752731630.20200327122054.jpg</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>200900</t>
+          <t>733000</t>
         </is>
       </c>
       <c r="F58" t="inlineStr"/>
@@ -3702,12 +3702,12 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>울트라샤프</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>DELL</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
@@ -3787,22 +3787,22 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>MSI 옵틱스 G271 게이밍 144 아이세이버</t>
+          <t>한성컴퓨터 TFG27Q14P 144</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=22435637800</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27327723522</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2243563/22435637800.20201111111336.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2732772/27327723522.20210527095004.jpg</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>229000</t>
+          <t>329000</t>
         </is>
       </c>
       <c r="F60" t="inlineStr"/>
@@ -3818,12 +3818,12 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>MSI</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>MSI</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
@@ -3845,22 +3845,22 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>한성컴퓨터 TFG30F20W  울트라와이드 200 게이밍</t>
+          <t>LG전자 24MK600M</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27287676522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=14556210024</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2728767/27287676522.20210628121550.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1455621/14556210024.20210406134738.jpg</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>299000</t>
+          <t>200900</t>
         </is>
       </c>
       <c r="F61" t="inlineStr"/>
@@ -3876,12 +3876,12 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
@@ -3903,22 +3903,22 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>벤큐 GW2480 아이케어 무결점</t>
+          <t>삼성전자 오디세이 G3 S27AG300 144</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=11846842637</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27535066522</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1184684/11846842637.20220318094758.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2753506/27535066522.20210611135052.jpg</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>199000</t>
+          <t>289000</t>
         </is>
       </c>
       <c r="F62" t="inlineStr"/>
@@ -3934,12 +3934,12 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>벤큐</t>
+          <t>오디세이</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>벤큐</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
@@ -3961,22 +3961,22 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>삼성전자 삼성 U32J590</t>
+          <t>한성컴퓨터 TFG27F14P IPS 144</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=14306268525</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=23258436490</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1430626/14306268525.20210203133511.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2325843/23258436490.20200624161211.jpg</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>374080</t>
+          <t>249000</t>
         </is>
       </c>
       <c r="F63" t="inlineStr"/>
@@ -3992,12 +3992,12 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>삼성</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
@@ -4019,22 +4019,22 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>삼성전자 오디세이 G5 C34G55T 165</t>
+          <t>삼성전자 삼성 U32J590</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=25744041522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=14306268525</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2574404/25744041522.20210324143655.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1430626/14306268525.20210203133511.jpg</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>541810</t>
+          <t>356250</t>
         </is>
       </c>
       <c r="F64" t="inlineStr"/>
@@ -4050,7 +4050,7 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>오디세이</t>
+          <t>삼성</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -4077,22 +4077,22 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>카멜 CM2710G 165</t>
+          <t>벤큐 GW2480 아이케어 무결점</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=29791264618</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=11846842637</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2979126/29791264618.20211122144951.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1184684/11846842637.20220318094758.jpg</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>212390</t>
+          <t>199000</t>
         </is>
       </c>
       <c r="F65" t="inlineStr"/>
@@ -4108,12 +4108,12 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>카멜</t>
+          <t>벤큐</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>카멜</t>
+          <t>벤큐</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
@@ -4135,22 +4135,22 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>한성컴퓨터 TFG27F14P IPS 144</t>
+          <t>카멜 CM3210GC 165</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=23258436490</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=25834381522</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2325843/23258436490.20200624161211.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2583438/25834381522.20210202114841.jpg</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>249000</t>
+          <t>263940</t>
         </is>
       </c>
       <c r="F66" t="inlineStr"/>
@@ -4166,12 +4166,12 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>카멜</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>카멜</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
@@ -4193,22 +4193,22 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>한성컴퓨터 TFX133T DEX 포터블 HDR</t>
+          <t>LG전자 24MN430HW</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=21918294654</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=23244797490</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2191829/21918294654.20200428094627.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2324479/23244797490.20220311131641.jpg</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>229000</t>
+          <t>174900</t>
         </is>
       </c>
       <c r="F67" t="inlineStr"/>
@@ -4224,12 +4224,12 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
@@ -4251,22 +4251,22 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>삼성전자 오디세이 G3 S27AG300 144</t>
+          <t>한성컴퓨터 TFX133T DEX 포터블 HDR</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27535066522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=21918294654</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2753506/27535066522.20210611135052.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2191829/21918294654.20200428094627.jpg</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>289000</t>
+          <t>229000</t>
         </is>
       </c>
       <c r="F68" t="inlineStr"/>
@@ -4282,12 +4282,12 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>오디세이</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
@@ -4367,22 +4367,22 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>한성컴퓨터 TFG32F07V 1500R 커브드 게이밍 리얼 75</t>
+          <t>벤큐 조위 XL2746K</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=20882835913</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=28603360554</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2088283/20882835913.20200424100013.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2860336/28603360554.20220311174037.jpg</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>219000</t>
+          <t>849000</t>
         </is>
       </c>
       <c r="F70" t="inlineStr"/>
@@ -4398,12 +4398,12 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>벤큐</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>벤큐</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
@@ -4425,22 +4425,22 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>벤큐 조위 XL2746K</t>
+          <t>카멜 CM2710G 165</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=28603360554</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=29791264618</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2860336/28603360554.20220311174037.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2979126/29791264618.20211122144951.jpg</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>849000</t>
+          <t>211890</t>
         </is>
       </c>
       <c r="F71" t="inlineStr"/>
@@ -4456,12 +4456,12 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>벤큐</t>
+          <t>카멜</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>벤큐</t>
+          <t>카멜</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
@@ -4498,7 +4498,7 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>411700</t>
+          <t>411250</t>
         </is>
       </c>
       <c r="F72" t="inlineStr"/>
@@ -4541,22 +4541,22 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>LG전자 울트라와이드 29WP500</t>
+          <t>LG전자 울트라기어 24GN600 144Hz</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=26886077522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=26122103522</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2688607/26886077522.20210524134552.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2612210/26122103522.20220124181046.jpg</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>269000</t>
+          <t>259000</t>
         </is>
       </c>
       <c r="F73" t="inlineStr"/>
@@ -4572,7 +4572,7 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>울트라와이드</t>
+          <t>울트라기어</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -4599,22 +4599,22 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>LG전자 울트라와이드 34WP500</t>
+          <t>삼성전자 스마트모니터 M5 S32AM500</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27584005522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=25524342522</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2758400/27584005522.20210615125004.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2552434/25524342522.20210302142529.jpg</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>398900</t>
+          <t>315000</t>
         </is>
       </c>
       <c r="F74" t="inlineStr"/>
@@ -4630,12 +4630,12 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>울트라와이드</t>
+          <t>스마트모니터</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
@@ -4657,22 +4657,22 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>한성컴퓨터 TFG34Q14W 1500R 커브드 리얼 144 울트라와이드 게이밍</t>
+          <t>삼성전자 오디세이 Neo G9 S49AG950 49인치 게이밍 모니터</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=29326560618</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=28288984554</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2932656/29326560618.20211021130829.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2828898/28288984554.20210810100808.jpg</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>399000</t>
+          <t>2130000</t>
         </is>
       </c>
       <c r="F75" t="inlineStr"/>
@@ -4688,12 +4688,12 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>오디세이</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
@@ -4715,22 +4715,22 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>알파스캔 AOC 27G2 게이밍 144 프리싱크</t>
+          <t>삼성전자 스마트모니터 M7 S43BM700</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=21667682703</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=31889649618</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2166768/21667682703.20210311170213.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3188964/31889649618.20220418150602.jpg</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>348990</t>
+          <t>649000</t>
         </is>
       </c>
       <c r="F76" t="inlineStr"/>
@@ -4746,12 +4746,12 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>알파스캔</t>
+          <t>스마트모니터</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>알파스캔</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
@@ -4773,22 +4773,22 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>LG전자 24MN430HW</t>
+          <t>삼성전자 삼성 S24R350 베젤리스 프리싱크 75</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=23244797490</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=20861526783</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2324479/23244797490.20220311131641.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2086152/20861526783.20210302142419.jpg</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>174900</t>
+          <t>199000</t>
         </is>
       </c>
       <c r="F77" t="inlineStr"/>
@@ -4804,12 +4804,12 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>삼성</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
@@ -4831,22 +4831,22 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>삼성전자 S32BM702</t>
+          <t>한성컴퓨터 TFG34Q14W 1500R 커브드 리얼 144 울트라와이드 게이밍</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=31717714618</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=29326560618</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3171771/31717714618.20220411101605.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2932656/29326560618.20211021130829.jpg</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>361000</t>
+          <t>399000</t>
         </is>
       </c>
       <c r="F78" t="inlineStr"/>
@@ -4860,10 +4860,14 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I78" t="inlineStr"/>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>한성컴퓨터</t>
+        </is>
+      </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
@@ -4885,22 +4889,22 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>LG전자 27MP400</t>
+          <t>LG전자 울트라와이드 28MQ780</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27777660523</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=32417368620</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2777766/27777660523.20220311131805.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3241736/32417368620.20220517112513.jpg</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>233890</t>
+          <t>990000</t>
         </is>
       </c>
       <c r="F79" t="inlineStr"/>
@@ -4916,7 +4920,7 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>울트라와이드</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -4943,22 +4947,22 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>필립스 271E1 프리싱크 75 시력보호 제로베젤</t>
+          <t>삼성전자 스마트모니터 M7 S32AM701</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=21496753758</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=29724256618</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2149675/21496753758.20200221173844.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2972425/29724256618.20211117133727.jpg</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>217340</t>
+          <t>506950</t>
         </is>
       </c>
       <c r="F80" t="inlineStr"/>
@@ -4974,12 +4978,12 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>필립스</t>
+          <t>스마트모니터</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>필립스</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
@@ -5001,22 +5005,22 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>주연테크 V28UE</t>
+          <t>LG전자 울트라기어 32GP850</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=26322015522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27405944522</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2632201/26322015522.20210311142212.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2740594/27405944522.20220124180945.jpg</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>319000</t>
+          <t>698900</t>
         </is>
       </c>
       <c r="F81" t="inlineStr"/>
@@ -5032,12 +5036,12 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>주연테크</t>
+          <t>울트라기어</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>주연테크</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
@@ -5059,22 +5063,22 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>삼성전자 스마트모니터 M7 S32AM701</t>
+          <t>삼성전자 오디세이 G5 G55A S27AG550 165</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=29724256618</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=30454173618</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2972425/29724256618.20211117133727.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3045417/30454173618.20220107132754.jpg</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>506950</t>
+          <t>389000</t>
         </is>
       </c>
       <c r="F82" t="inlineStr"/>
@@ -5090,7 +5094,7 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>스마트모니터</t>
+          <t>오디세이</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -5117,22 +5121,22 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>알파스캔 AOC Q27G2S 155</t>
+          <t>LG전자 27MP400</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24694967522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27777660523</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2469496/24694967522.20210310172228.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2777766/27777660523.20220311131805.jpg</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>438790</t>
+          <t>233900</t>
         </is>
       </c>
       <c r="F83" t="inlineStr"/>
@@ -5148,12 +5152,12 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>알파스캔</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>알파스캔</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
@@ -5175,22 +5179,22 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>삼성전자 스마트모니터 M5 S32AM500</t>
+          <t>한성컴퓨터 TFG32F07V 1500R 커브드 게이밍 리얼 75</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=25524342522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=20882835913</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2552434/25524342522.20210302142529.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2088283/20882835913.20200424100013.jpg</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>315000</t>
+          <t>219000</t>
         </is>
       </c>
       <c r="F84" t="inlineStr"/>
@@ -5206,12 +5210,12 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>스마트모니터</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
@@ -5233,22 +5237,22 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>LG전자 울트라기어 32GP850</t>
+          <t>LG전자 울트라와이드 29WP500</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27405944522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=26886077522</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2740594/27405944522.20220124180945.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2688607/26886077522.20210524134552.jpg</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>698900</t>
+          <t>269000</t>
         </is>
       </c>
       <c r="F85" t="inlineStr"/>
@@ -5264,7 +5268,7 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>울트라기어</t>
+          <t>울트라와이드</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -5291,22 +5295,22 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>벤큐 EW3270U 아이케어</t>
+          <t>필립스 271E1 프리싱크 75 시력보호 제로베젤</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=14334382813</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=21496753758</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1433438/14334382813.20220318102530.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2149675/21496753758.20200221173844.jpg</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>518990</t>
+          <t>212150</t>
         </is>
       </c>
       <c r="F86" t="inlineStr"/>
@@ -5322,12 +5326,12 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>벤큐</t>
+          <t>필립스</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>벤큐</t>
+          <t>필립스</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
@@ -5349,22 +5353,22 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>삼성전자 오디세이 Neo G9 S49AG950 49인치 게이밍 모니터</t>
+          <t>알파스캔 AOC Q27G2S 155</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=28288984554</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24694967522</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2828898/28288984554.20210810100808.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2469496/24694967522.20210310172228.jpg</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>2130000</t>
+          <t>438660</t>
         </is>
       </c>
       <c r="F87" t="inlineStr"/>
@@ -5380,12 +5384,12 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>오디세이</t>
+          <t>알파스캔</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>알파스캔</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
@@ -5407,22 +5411,22 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>삼성전자 스마트모니터 M5 S32AM501</t>
+          <t>제이씨현시스템 유디아 ED2720NB 75</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=26870008522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27584853526</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2687000/26870008522.20210422145112.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2758485/27584853526.20220328175520.jpg</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>324000</t>
+          <t>199000</t>
         </is>
       </c>
       <c r="F88" t="inlineStr"/>
@@ -5438,12 +5442,12 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>스마트모니터</t>
+          <t>유디아</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>제이씨현시스템</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
@@ -5465,22 +5469,22 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>삼성전자 삼성 S24R350 베젤리스 프리싱크 75</t>
+          <t>제이씨현시스템 유디아 EDGE ED2420NT 유케어 QHD 프리싱크 75</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=20861526783</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27344486524</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2086152/20861526783.20210302142419.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2734448/27344486524.20210528141223.jpg</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>199000</t>
+          <t>165000</t>
         </is>
       </c>
       <c r="F89" t="inlineStr"/>
@@ -5496,12 +5500,12 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>삼성</t>
+          <t>유디아</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>제이씨현시스템</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
@@ -5523,22 +5527,22 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>제이씨현시스템 유디아 ED2720NB 75</t>
+          <t>주연테크 V28UE</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27584853526</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=26322015522</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2758485/27584853526.20220328175520.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2632201/26322015522.20210311142212.jpg</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>199000</t>
+          <t>319000</t>
         </is>
       </c>
       <c r="F90" t="inlineStr"/>
@@ -5554,12 +5558,12 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>유디아</t>
+          <t>주연테크</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>제이씨현시스템</t>
+          <t>주연테크</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
@@ -5581,22 +5585,22 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>삼성전자 오디세이 G5 G55A S27AG550 165</t>
+          <t>벤큐 XL2731K 165</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=30454173618</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=28757211554</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3045417/30454173618.20220107132754.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2875721/28757211554.20220311173957.jpg</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>389000</t>
+          <t>449000</t>
         </is>
       </c>
       <c r="F91" t="inlineStr"/>
@@ -5612,12 +5616,12 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>오디세이</t>
+          <t>벤큐</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>벤큐</t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
@@ -5639,22 +5643,22 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>DELL 울트라샤프 U2723QE</t>
+          <t>알파스캔 AOC Q32V3S 75 무결점</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=31516928619</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=26013420522</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3151692/31516928619.20220329124400.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2601342/26013420522.20220211140907.jpg</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>799000</t>
+          <t>337880</t>
         </is>
       </c>
       <c r="F92" t="inlineStr"/>
@@ -5670,12 +5674,12 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>울트라샤프</t>
+          <t>알파스캔</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>DELL</t>
+          <t>알파스캔</t>
         </is>
       </c>
       <c r="K92" t="inlineStr">
@@ -5697,22 +5701,22 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>한성컴퓨터 TFG29F07WP IPS 울트라와이드</t>
+          <t>삼성전자 스마트모니터 M5 S32AM501</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=29125693586</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=26870008522</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2912569/29125693586.20211006161419.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2687000/26870008522.20210422145112.jpg</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>229000</t>
+          <t>325000</t>
         </is>
       </c>
       <c r="F93" t="inlineStr"/>
@@ -5728,12 +5732,12 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>스마트모니터</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
@@ -5755,22 +5759,22 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>LG전자 울트라HD 27UP850</t>
+          <t>한성컴퓨터 TFX173T DEX 포터블 HDR</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27124459522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=21936338223</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2712445/27124459522.20210512183326.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2193633/21936338223.20200428094731.jpg</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>649000</t>
+          <t>379000</t>
         </is>
       </c>
       <c r="F94" t="inlineStr"/>
@@ -5786,12 +5790,12 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>울트라HD</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="K94" t="inlineStr">
@@ -5813,22 +5817,22 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>LG전자 울트라기어 24GN600 144Hz</t>
+          <t>알파스캔 AOC 27G2 게이밍 144 프리싱크</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=26122103522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=21667682703</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2612210/26122103522.20220124181046.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2166768/21667682703.20210311170213.jpg</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>258900</t>
+          <t>327700</t>
         </is>
       </c>
       <c r="F95" t="inlineStr"/>
@@ -5844,12 +5848,12 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>울트라기어</t>
+          <t>알파스캔</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>알파스캔</t>
         </is>
       </c>
       <c r="K95" t="inlineStr">
@@ -5871,22 +5875,22 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>벤큐 XL2411P 아이케어</t>
+          <t>한성컴퓨터 TFG29F07WP IPS 울트라와이드</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=12954974985</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=29125693586</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1295497/12954974985.20220311173549.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2912569/29125693586.20211006161419.jpg</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>299000</t>
+          <t>229000</t>
         </is>
       </c>
       <c r="F96" t="inlineStr"/>
@@ -5902,12 +5906,12 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>벤큐</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>벤큐</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="K96" t="inlineStr">
@@ -5929,22 +5933,22 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>카멜 CM3210GQC 165</t>
+          <t>삼성전자 오디세이 G9 C49G95T</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=32132104618</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=23255316490</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3213210/32132104618.20220502163445.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2325531/23255316490.20210203133605.jpg</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>368950</t>
+          <t>1433330</t>
         </is>
       </c>
       <c r="F97" t="inlineStr"/>
@@ -5960,12 +5964,12 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>카멜</t>
+          <t>오디세이</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>카멜</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K97" t="inlineStr">
@@ -6045,22 +6049,22 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>제이씨현시스템 유디아 EDGE ED2420NT 유케어 QHD 프리싱크 75</t>
+          <t>LG전자 울트라HD 27UP850</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27344486524</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27124459522</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2734448/27344486524.20210528141223.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2712445/27124459522.20210512183326.jpg</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>165000</t>
+          <t>649000</t>
         </is>
       </c>
       <c r="F99" t="inlineStr"/>
@@ -6076,12 +6080,12 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>유디아</t>
+          <t>울트라HD</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>제이씨현시스템</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K99" t="inlineStr">
@@ -6103,22 +6107,22 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>삼성전자 스마트모니터 M7 S43BM700</t>
+          <t>삼성전자 스마트모니터 M7 S32BM701</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=31889649618</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=31605413618</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3188964/31889649618.20220418150602.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3160541/31605413618.20220404134022.jpg</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>649000</t>
+          <t>519000</t>
         </is>
       </c>
       <c r="F100" t="inlineStr"/>
@@ -6176,7 +6180,7 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>234970</t>
+          <t>234890</t>
         </is>
       </c>
       <c r="F101" t="inlineStr"/>

--- a/output.xlsx
+++ b/output.xlsx
@@ -439,22 +439,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>삼성전자 삼성 F27T350</t>
+          <t>삼성전자 삼성 F24T350</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=23996451524</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24007197522</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2399645/23996451524.20210302142600.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2400719/24007197522.20210302142445.jpg</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>209000</t>
+          <t>175000</t>
         </is>
       </c>
       <c r="F2" t="inlineStr"/>
@@ -497,22 +497,22 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>삼성전자 삼성 F24T350</t>
+          <t>삼성전자 삼성 F27T350</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24007197522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=23996451524</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2400719/24007197522.20210302142445.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2399645/23996451524.20210302142600.jpg</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>175000</t>
+          <t>209000</t>
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
@@ -613,22 +613,22 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>한성컴퓨터 TFG27F16V 1500R 리얼 165 게이밍</t>
+          <t>LG전자 32MN500MW</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=18797620615</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=22764052560</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1879762/18797620615.20201230122720.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2276405/22764052560.20200824151306.jpg</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>219000</t>
+          <t>258900</t>
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
@@ -644,12 +644,12 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -671,22 +671,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>LG전자 32QN650</t>
+          <t>LG전자 27MK430H</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=23692201495</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=15183175543</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2369220/23692201495.20210406132235.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1518317/15183175543.20200824151717.jpg</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>398890</t>
+          <t>222220</t>
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
@@ -729,22 +729,22 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>한성컴퓨터 TFG32F16V 1500R 리얼 165 게이밍</t>
+          <t>LG전자 32QN650</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=18778755031</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=23692201495</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1877875/18778755031.20201230122744.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2369220/23692201495.20210406132235.jpg</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>269000</t>
+          <t>378900</t>
         </is>
       </c>
       <c r="F7" t="inlineStr"/>
@@ -760,12 +760,12 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -787,22 +787,22 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>LG전자 32MN500MW</t>
+          <t>LG전자 24ML600SW</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=22764052560</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=19105796246</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2276405/22764052560.20200824151306.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1910579/19105796246.20200824152520.jpg</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>268900</t>
+          <t>205550</t>
         </is>
       </c>
       <c r="F8" t="inlineStr"/>
@@ -845,22 +845,22 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>LG전자 27MK430H</t>
+          <t>한성컴퓨터 ULTRON 3278 QHD New</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=15183175543</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=16776093488</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1518317/15183175543.20200824151717.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1677609/16776093488.20200424094717.jpg</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>222900</t>
+          <t>269000</t>
         </is>
       </c>
       <c r="F9" t="inlineStr"/>
@@ -876,12 +876,12 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -903,22 +903,22 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>LG전자 24ML600SW</t>
+          <t>한성컴퓨터 TFG27F16V 1500R 리얼 165 게이밍</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=19105796246</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=18797620615</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1910579/19105796246.20200824152520.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1879762/18797620615.20201230122720.jpg</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>205900</t>
+          <t>219000</t>
         </is>
       </c>
       <c r="F10" t="inlineStr"/>
@@ -934,12 +934,12 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -961,22 +961,22 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>한성컴퓨터 ULTRON 2760G 리얼 144</t>
+          <t>한성컴퓨터 TFG32F16V 1500R 리얼 165 게이밍</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=15020041438</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=18778755031</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1502004/15020041438.20220429112257.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1877875/18778755031.20201230122744.jpg</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>219000</t>
+          <t>269000</t>
         </is>
       </c>
       <c r="F11" t="inlineStr"/>
@@ -1019,22 +1019,22 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>한성컴퓨터 ULTRON 3278 QHD New</t>
+          <t>한성컴퓨터 ULTRON 2435V 프리싱크 리얼75</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=16776093488</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=13487979407</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1677609/16776093488.20200424094717.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1348797/13487979407.20220404172708.jpg</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>269000</t>
+          <t>149000</t>
         </is>
       </c>
       <c r="F12" t="inlineStr"/>
@@ -1077,22 +1077,22 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>한성컴퓨터 TFG32Q07P 75</t>
+          <t>LG전자 27MN430HW</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=28655748554</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=23301354490</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2865574/28655748554.20210831152013.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2330135/23301354490.20200824152000.jpg</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>269000</t>
+          <t>222220</t>
         </is>
       </c>
       <c r="F13" t="inlineStr"/>
@@ -1108,12 +1108,12 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -1135,22 +1135,22 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>LG전자 27MN430HW</t>
+          <t>한성컴퓨터 ULTRON 2760G 리얼 144</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=23301354490</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=15020041438</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2330135/23301354490.20200824152000.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1502004/15020041438.20220429112257.jpg</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>222900</t>
+          <t>219000</t>
         </is>
       </c>
       <c r="F14" t="inlineStr"/>
@@ -1166,12 +1166,12 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -1193,22 +1193,22 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>LG전자 27TN600S</t>
+          <t>LG전자 울트라HD 32UN650</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=21745903830</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24635274522</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2174590/21745903830.20200824150453.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2463527/24635274522.20210405173537.jpg</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>324560</t>
+          <t>598000</t>
         </is>
       </c>
       <c r="F15" t="inlineStr"/>
@@ -1222,7 +1222,11 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I15" t="inlineStr"/>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>울트라HD</t>
+        </is>
+      </c>
       <c r="J15" t="inlineStr">
         <is>
           <t>LG전자</t>
@@ -1247,22 +1251,22 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>한성컴퓨터 ULTRON 2435V 프리싱크 리얼75</t>
+          <t>한성컴퓨터 TFG32Q07P 75</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=13487979407</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=28655748554</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1348797/13487979407.20220404172708.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2865574/28655748554.20210831152013.jpg</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>149000</t>
+          <t>269000</t>
         </is>
       </c>
       <c r="F16" t="inlineStr"/>
@@ -1305,22 +1309,22 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>LG전자 울트라HD 32UN650</t>
+          <t>LG전자 27TN600S</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24635274522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=21745903830</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2463527/24635274522.20210405173537.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2174590/21745903830.20200824150453.jpg</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>598900</t>
+          <t>324000</t>
         </is>
       </c>
       <c r="F17" t="inlineStr"/>
@@ -1334,11 +1338,7 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>울트라HD</t>
-        </is>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr">
         <is>
           <t>LG전자</t>
@@ -1479,22 +1479,22 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>벤큐 XL2411K</t>
+          <t>삼성전자 삼성 커브드 C27R502 베젤리스 프리싱크</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24196764522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=20189888243</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2419676/24196764522.20220311173519.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2018988/20189888243.20220519143818.jpg</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>299000</t>
+          <t>219000</t>
         </is>
       </c>
       <c r="F20" t="inlineStr"/>
@@ -1510,12 +1510,12 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>벤큐</t>
+          <t>삼성</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>벤큐</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -1537,22 +1537,22 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>삼성전자 삼성 커브드 C27R502 베젤리스 프리싱크</t>
+          <t>벤큐 XL2411K</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=20189888243</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24196764522</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2018988/20189888243.20220519143818.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2419676/24196764522.20220311173519.jpg</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>219000</t>
+          <t>299000</t>
         </is>
       </c>
       <c r="F21" t="inlineStr"/>
@@ -1568,12 +1568,12 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>삼성</t>
+          <t>벤큐</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>벤큐</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -1595,22 +1595,22 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>카멜 CM3210GC 165</t>
+          <t>벤큐 GW2780 아이케어</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=25834381522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=11846746201</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2583438/25834381522.20210202114841.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1184674/11846746201.20220318094817.jpg</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>263990</t>
+          <t>239000</t>
         </is>
       </c>
       <c r="F22" t="inlineStr"/>
@@ -1626,12 +1626,12 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>카멜</t>
+          <t>벤큐</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>카멜</t>
+          <t>벤큐</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
@@ -1653,22 +1653,22 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>한성컴퓨터 ULTRON 2460G 리얼 144 게이밍</t>
+          <t>LG전자 24MP500W</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=20471652225</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=28272152554</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2047165/20471652225.20220425114215.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2827215/28272152554.20210805113756.jpg</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>179000</t>
+          <t>195540</t>
         </is>
       </c>
       <c r="F23" t="inlineStr"/>
@@ -1684,12 +1684,12 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -1769,22 +1769,22 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>한성컴퓨터 TFX32U06V 4K HDR 1500R 커브드</t>
+          <t>한성컴퓨터 ULTRON 2460G 리얼 144 게이밍</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=20942220356</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=20471652225</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2094222/20942220356.20210630112723.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2047165/20471652225.20220425114215.jpg</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>299000</t>
+          <t>179000</t>
         </is>
       </c>
       <c r="F25" t="inlineStr"/>
@@ -1827,22 +1827,22 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>벤큐 GW2780 아이케어</t>
+          <t>삼성전자 삼성 U32J590</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=11846746201</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=14306268525</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1184674/11846746201.20220318094817.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1430626/14306268525.20210203133511.jpg</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>239000</t>
+          <t>374000</t>
         </is>
       </c>
       <c r="F26" t="inlineStr"/>
@@ -1858,12 +1858,12 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>벤큐</t>
+          <t>삼성</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>벤큐</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
@@ -1885,22 +1885,22 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>LG전자 27QN600</t>
+          <t>벤큐 XL2546K</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=23849172522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24235203522</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2384917/23849172522.20210406141920.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2423520/24235203522.20220311173812.jpg</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>318900</t>
+          <t>699000</t>
         </is>
       </c>
       <c r="F27" t="inlineStr"/>
@@ -1916,12 +1916,12 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>벤큐</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>벤큐</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -1943,22 +1943,22 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>벤큐 XL2546K</t>
+          <t>카멜 CM3210GC 165</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24235203522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=25834381522</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2423520/24235203522.20220311173812.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2583438/25834381522.20210202114841.jpg</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>699000</t>
+          <t>263990</t>
         </is>
       </c>
       <c r="F28" t="inlineStr"/>
@@ -1974,12 +1974,12 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>벤큐</t>
+          <t>카멜</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>벤큐</t>
+          <t>카멜</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -2016,7 +2016,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>359000</t>
+          <t>345790</t>
         </is>
       </c>
       <c r="F29" t="inlineStr"/>
@@ -2059,22 +2059,22 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>한성컴퓨터 TFX156T DEX 포터블 HDR</t>
+          <t>LG전자 27QN600</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=21936337549</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=23849172522</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2193633/21936337549.20200428094649.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2384917/23849172522.20210406141920.jpg</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>269000</t>
+          <t>318880</t>
         </is>
       </c>
       <c r="F30" t="inlineStr"/>
@@ -2090,12 +2090,12 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
@@ -2117,22 +2117,22 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>한성컴퓨터 TFG27F14P IPS 144</t>
+          <t>한성컴퓨터 TFX32U06V 4K HDR 1500R 커브드</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=23258436490</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=20942220356</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2325843/23258436490.20200624161211.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2094222/20942220356.20210630112723.jpg</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>249000</t>
+          <t>299000</t>
         </is>
       </c>
       <c r="F31" t="inlineStr"/>
@@ -2175,22 +2175,22 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>한성컴퓨터 TFG34Q14WQ 퀀텀닷 1500R 리얼 144 울트라와이드 게이밍</t>
+          <t>한성컴퓨터 TFX156T DEX 포터블 HDR</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=22312278223</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=21936337549</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2231227/22312278223.20220215171608.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2193633/21936337549.20200428094649.jpg</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>429000</t>
+          <t>269000</t>
         </is>
       </c>
       <c r="F32" t="inlineStr"/>
@@ -2233,22 +2233,22 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>카멜 CM3210GQC 165</t>
+          <t>한성컴퓨터 TFG34Q14WQ 퀀텀닷 1500R 리얼 144 울트라와이드 게이밍</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=32132104618</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=22312278223</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3213210/32132104618.20220502163445.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2231227/22312278223.20220215171608.jpg</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>349000</t>
+          <t>429000</t>
         </is>
       </c>
       <c r="F33" t="inlineStr"/>
@@ -2264,12 +2264,12 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>카멜</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>카멜</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
@@ -2291,22 +2291,22 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>한성컴퓨터 TFG32F24V 240</t>
+          <t>카멜 CM3210GQC 165</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=28162745522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=32132104618</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2816274/28162745522.20210726183542.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3213210/32132104618.20220502163445.jpg</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>299000</t>
+          <t>343200</t>
         </is>
       </c>
       <c r="F34" t="inlineStr"/>
@@ -2322,12 +2322,12 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>카멜</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>카멜</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
@@ -2349,22 +2349,22 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>LG전자 24MP500W</t>
+          <t>경성글로벌코리아 언더독 MB27Q75 75</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=28272152554</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=29879123618</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2827215/28272152554.20210805113756.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2987912/29879123618.20211206134853.jpg</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>195890</t>
+          <t>169000</t>
         </is>
       </c>
       <c r="F35" t="inlineStr"/>
@@ -2380,12 +2380,12 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>언더독</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>경성글로벌코리아</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
@@ -2407,22 +2407,22 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>LG전자 울트라HD 27UL550</t>
+          <t>삼성전자 스마트모니터 M5 S32AM500</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=19298157033</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=25524342522</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1929815/19298157033.20200824143609.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2552434/25524342522.20210302142529.jpg</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>399000</t>
+          <t>315000</t>
         </is>
       </c>
       <c r="F36" t="inlineStr"/>
@@ -2438,12 +2438,12 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>울트라HD</t>
+          <t>스마트모니터</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
@@ -2465,22 +2465,22 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>삼성전자 삼성 C32R500F</t>
+          <t>LG전자 울트라HD 27UL550</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=22483121542</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=19298157033</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2248312/22483121542.20220519144103.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1929815/19298157033.20200824143609.jpg</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>269000</t>
+          <t>398880</t>
         </is>
       </c>
       <c r="F37" t="inlineStr"/>
@@ -2496,12 +2496,12 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>삼성</t>
+          <t>울트라HD</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
@@ -2523,22 +2523,22 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>DELL 울트라샤프 U2722D</t>
+          <t>삼성전자 스마트모니터 M7 S43AM700</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27124609522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27215825524</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2712460/27124609522.20210719172836.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2721582/27215825524.20210520173025.jpg</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>509000</t>
+          <t>598710</t>
         </is>
       </c>
       <c r="F38" t="inlineStr"/>
@@ -2554,12 +2554,12 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>울트라샤프</t>
+          <t>스마트모니터</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>DELL</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
@@ -2581,22 +2581,22 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>카멜 CM2710G 165</t>
+          <t>한성컴퓨터 TFG32Q14F 144</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=29791264618</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24439846522</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2979126/29791264618.20211122144951.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2443984/24439846522.20201013113723.jpg</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>212700</t>
+          <t>329000</t>
         </is>
       </c>
       <c r="F39" t="inlineStr"/>
@@ -2612,12 +2612,12 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>카멜</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>카멜</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
@@ -2639,22 +2639,22 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>경성글로벌코리아 언더독 MB27Q75 75</t>
+          <t>한성컴퓨터 TFG32F24V 240</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=29879123618</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=28162745522</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2987912/29879123618.20211206134853.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2816274/28162745522.20210726183542.jpg</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>169000</t>
+          <t>299000</t>
         </is>
       </c>
       <c r="F40" t="inlineStr"/>
@@ -2670,12 +2670,12 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>언더독</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>경성글로벌코리아</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
@@ -2697,22 +2697,22 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>한성컴퓨터 TFG32Q14F 144</t>
+          <t>한성컴퓨터 TFG27F14P IPS 144</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24439846522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=23258436490</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2443984/24439846522.20201013113723.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2325843/23258436490.20200624161211.jpg</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>329000</t>
+          <t>249000</t>
         </is>
       </c>
       <c r="F41" t="inlineStr"/>
@@ -2755,22 +2755,22 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>삼성전자 스마트모니터 M5 S32AM500</t>
+          <t>DELL 울트라샤프 U2723QE</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=25524342522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=31516928619</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2552434/25524342522.20210302142529.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3151692/31516928619.20220329124400.jpg</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>315000</t>
+          <t>799000</t>
         </is>
       </c>
       <c r="F42" t="inlineStr"/>
@@ -2786,12 +2786,12 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>스마트모니터</t>
+          <t>울트라샤프</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>DELL</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
@@ -2813,22 +2813,22 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>삼성전자 스마트모니터 M7 S43AM700</t>
+          <t>삼성전자 삼성 C32R500F</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27215825524</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=22483121542</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2721582/27215825524.20210520173025.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2248312/22483121542.20220519144103.jpg</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>598860</t>
+          <t>269000</t>
         </is>
       </c>
       <c r="F43" t="inlineStr"/>
@@ -2844,7 +2844,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>스마트모니터</t>
+          <t>삼성</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2871,22 +2871,22 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>LG전자 울트라기어 27GN650</t>
+          <t>카멜 CM2710G 165</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=25413919522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=29791264618</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2541391/25413919522.20220125134231.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2979126/29791264618.20211122144951.jpg</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>398900</t>
+          <t>212700</t>
         </is>
       </c>
       <c r="F44" t="inlineStr"/>
@@ -2902,12 +2902,12 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>울트라기어</t>
+          <t>카멜</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>카멜</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
@@ -2929,22 +2929,22 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>카멜 CPM1520BT 프리즘 포터블</t>
+          <t>DELL 울트라샤프 U2722D</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27225799524</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27124609522</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2722579/27225799524.20210521105653.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2712460/27124609522.20210719172836.jpg</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>238130</t>
+          <t>509000</t>
         </is>
       </c>
       <c r="F45" t="inlineStr"/>
@@ -2960,12 +2960,12 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>카멜</t>
+          <t>울트라샤프</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>카멜</t>
+          <t>DELL</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
@@ -2987,22 +2987,22 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>알파스캔 AOC 24B2 75 무결점</t>
+          <t>필립스 271E1 프리싱크 75 시력보호 제로베젤</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24171105522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=21496753758</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2417110/24171105522.20210310172014.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2149675/21496753758.20200221173844.jpg</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>157580</t>
+          <t>201650</t>
         </is>
       </c>
       <c r="F46" t="inlineStr"/>
@@ -3018,12 +3018,12 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>알파스캔</t>
+          <t>필립스</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>알파스캔</t>
+          <t>필립스</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
@@ -3045,22 +3045,22 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>필립스 271E1 프리싱크 75 시력보호 제로베젤</t>
+          <t>LG전자 울트라기어 27GN650</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=21496753758</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=25413919522</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2149675/21496753758.20200221173844.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2541391/25413919522.20220125134231.jpg</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>201650</t>
+          <t>398880</t>
         </is>
       </c>
       <c r="F47" t="inlineStr"/>
@@ -3076,12 +3076,12 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>필립스</t>
+          <t>울트라기어</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>필립스</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
@@ -3103,22 +3103,22 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>한성컴퓨터 TFG32F07V 1500R 커브드 게이밍 리얼 75</t>
+          <t>알파스캔 AOC 24B2 75 무결점</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=20882835913</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24171105522</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2088283/20882835913.20200424100013.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2417110/24171105522.20210310172014.jpg</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>219000</t>
+          <t>159000</t>
         </is>
       </c>
       <c r="F48" t="inlineStr"/>
@@ -3134,12 +3134,12 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>알파스캔</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>알파스캔</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
@@ -3161,22 +3161,22 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>LG전자 LG그램 그램+뷰 16MQ70</t>
+          <t>삼성전자 삼성 S27R350</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=30377313618</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=21775935202</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3037731/30377313618.20211231144328.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2177593/21775935202.20210203132859.jpg</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>372270</t>
+          <t>247000</t>
         </is>
       </c>
       <c r="F49" t="inlineStr"/>
@@ -3192,12 +3192,12 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>LG그램</t>
+          <t>삼성</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
@@ -3219,22 +3219,22 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>알파스캔 AOC Q32V3S 75 무결점</t>
+          <t>LG전자 LG그램 그램+뷰 16MQ70</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=26013420522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=30377313618</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2601342/26013420522.20220211140907.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3037731/30377313618.20211231144328.jpg</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>329000</t>
+          <t>372180</t>
         </is>
       </c>
       <c r="F50" t="inlineStr"/>
@@ -3250,12 +3250,12 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>알파스캔</t>
+          <t>LG그램</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>알파스캔</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
@@ -3277,22 +3277,22 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>삼성전자 삼성 U32J590</t>
+          <t>한성컴퓨터 TFG32F07V 1500R 커브드 게이밍 리얼 75</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=14306268525</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=20882835913</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1430626/14306268525.20210203133511.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2088283/20882835913.20200424100013.jpg</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>374000</t>
+          <t>219000</t>
         </is>
       </c>
       <c r="F51" t="inlineStr"/>
@@ -3308,12 +3308,12 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>삼성</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
@@ -3335,22 +3335,22 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>한성컴퓨터 TFG29F07WP IPS 울트라와이드</t>
+          <t>삼성전자 삼성 S34J550</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=29125693586</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=15704895486</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2912569/29125693586.20211006161419.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1570489/15704895486.20210203133054.jpg</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>229000</t>
+          <t>389000</t>
         </is>
       </c>
       <c r="F52" t="inlineStr"/>
@@ -3366,12 +3366,12 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>삼성</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
@@ -3393,22 +3393,22 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>한성컴퓨터 TFX133T DEX 포터블 HDR</t>
+          <t>LG전자 24MK430H 24인치 FHD IPS 광시야각 모니터</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=21918294654</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=13643814149</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2191829/21918294654.20200428094627.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1364381/13643814149.20200824151155.jpg</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>229000</t>
+          <t>185000</t>
         </is>
       </c>
       <c r="F53" t="inlineStr"/>
@@ -3424,12 +3424,12 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
@@ -3451,22 +3451,22 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>한성컴퓨터 TFG27Q14V 1500R 리얼 144 게이밍</t>
+          <t>삼성전자 오디세이 G5 C32G54T</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=20812959649</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=23896004523</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2081295/20812959649.20220510105342.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2389600/23896004523.20210203132926.jpg</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>259000</t>
+          <t>395000</t>
         </is>
       </c>
       <c r="F54" t="inlineStr"/>
@@ -3482,12 +3482,12 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>오디세이</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
@@ -3509,22 +3509,22 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>MSI 옵틱스 G271 게이밍 144 아이세이버</t>
+          <t>한성컴퓨터 TFG39Q14V 144</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=22435637800</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=26826361522</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2243563/22435637800.20201111111336.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2682636/26826361522.20210419161946.jpg</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>229000</t>
+          <t>479000</t>
         </is>
       </c>
       <c r="F55" t="inlineStr"/>
@@ -3540,12 +3540,12 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>MSI</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>MSI</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
@@ -3567,22 +3567,22 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>삼성전자 오디세이 G5 C32G54T</t>
+          <t>한성컴퓨터 TFX133T DEX 포터블 HDR</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=23896004523</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=21918294654</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2389600/23896004523.20210203132926.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2191829/21918294654.20200428094627.jpg</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>409000</t>
+          <t>229000</t>
         </is>
       </c>
       <c r="F56" t="inlineStr"/>
@@ -3598,12 +3598,12 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>오디세이</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
@@ -3625,22 +3625,22 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>삼성전자 삼성 S34J550</t>
+          <t>LG전자 24MK600M</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=15704895486</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=14556210024</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1570489/15704895486.20210203133054.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1455621/14556210024.20210406134738.jpg</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>396000</t>
+          <t>200900</t>
         </is>
       </c>
       <c r="F57" t="inlineStr"/>
@@ -3656,12 +3656,12 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>삼성</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
@@ -3683,22 +3683,22 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>DELL 울트라샤프 U2723QE</t>
+          <t>한성컴퓨터 TFG27Q14V 1500R 리얼 144 게이밍</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=31516928619</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=20812959649</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3151692/31516928619.20220329124400.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2081295/20812959649.20220510105342.jpg</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>799000</t>
+          <t>259000</t>
         </is>
       </c>
       <c r="F58" t="inlineStr"/>
@@ -3714,12 +3714,12 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>울트라샤프</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>DELL</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
@@ -3741,22 +3741,22 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>한성컴퓨터 TFX156T PRO DEX 포터블 400cd 멀티터치</t>
+          <t>카멜 CPM1520BT 프리즘 포터블</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=26158967522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27225799524</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2615896/26158967522.20210226123516.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2722579/27225799524.20210521105653.jpg</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>279000</t>
+          <t>238240</t>
         </is>
       </c>
       <c r="F59" t="inlineStr"/>
@@ -3772,12 +3772,12 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>카멜</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>카멜</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
@@ -3799,22 +3799,22 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>한성컴퓨터 TFG39Q14V 144</t>
+          <t>DELL 울트라샤프 U2720Q</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=26826361522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=21752731630</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2682636/26826361522.20210419161946.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2175273/21752731630.20200327122054.jpg</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>479000</t>
+          <t>748990</t>
         </is>
       </c>
       <c r="F60" t="inlineStr"/>
@@ -3830,12 +3830,12 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>울트라샤프</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>DELL</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
@@ -3857,22 +3857,22 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>LG전자 울트라기어 27GP750</t>
+          <t>삼성전자 오디세이 G5 C34G55T 165</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=29060355587</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=25744041522</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2906035/29060355587.20220125134215.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2574404/25744041522.20210324143655.jpg</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>448900</t>
+          <t>599000</t>
         </is>
       </c>
       <c r="F61" t="inlineStr"/>
@@ -3888,12 +3888,12 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>울트라기어</t>
+          <t>오디세이</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
@@ -3915,22 +3915,22 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>알파스캔 AOC Q27G2S 155</t>
+          <t>MSI 옵틱스 G271 게이밍 144 아이세이버</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24694967522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=22435637800</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2469496/24694967522.20210310172228.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2243563/22435637800.20201111111336.jpg</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>438990</t>
+          <t>229000</t>
         </is>
       </c>
       <c r="F62" t="inlineStr"/>
@@ -3946,12 +3946,12 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>알파스캔</t>
+          <t>MSI</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>알파스캔</t>
+          <t>MSI</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
@@ -3973,22 +3973,22 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>삼성전자 삼성 S27R350</t>
+          <t>한성컴퓨터 TFG27Q14P 144</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=21775935202</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27327723522</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2177593/21775935202.20210203132859.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2732772/27327723522.20210527095004.jpg</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>247000</t>
+          <t>329000</t>
         </is>
       </c>
       <c r="F63" t="inlineStr"/>
@@ -4004,12 +4004,12 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>삼성</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
@@ -4031,22 +4031,22 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>LG전자 24MN430HW</t>
+          <t>알파스캔 AOC Q32V3S 75 무결점</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=23244797490</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=26013420522</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2324479/23244797490.20220311131641.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2601342/26013420522.20220211140907.jpg</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>184900</t>
+          <t>329000</t>
         </is>
       </c>
       <c r="F64" t="inlineStr"/>
@@ -4062,12 +4062,12 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>알파스캔</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>알파스캔</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
@@ -4089,22 +4089,22 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>한성컴퓨터 TFX173PB</t>
+          <t>한성컴퓨터 TFG29F07WP IPS 울트라와이드</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=28175063522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=29125693586</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2817506/28175063522.20210727143057.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2912569/29125693586.20211006161419.jpg</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>409000</t>
+          <t>229000</t>
         </is>
       </c>
       <c r="F65" t="inlineStr"/>
@@ -4147,22 +4147,22 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>삼성전자 오디세이 G5 C34G55T 165</t>
+          <t>한성컴퓨터 TFG34Q14W 1500R 커브드 리얼 144 울트라와이드 게이밍</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=25744041522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=29326560618</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2574404/25744041522.20210324143655.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2932656/29326560618.20211021130829.jpg</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>599000</t>
+          <t>399000</t>
         </is>
       </c>
       <c r="F66" t="inlineStr"/>
@@ -4178,12 +4178,12 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>오디세이</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
@@ -4205,22 +4205,22 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>한성컴퓨터 TFG34Q14W 1500R 커브드 리얼 144 울트라와이드 게이밍</t>
+          <t>알파스캔 AOC Q27G2S 155</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=29326560618</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24694967522</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2932656/29326560618.20211021130829.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2469496/24694967522.20210310172228.jpg</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>399000</t>
+          <t>438980</t>
         </is>
       </c>
       <c r="F67" t="inlineStr"/>
@@ -4236,12 +4236,12 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>알파스캔</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>알파스캔</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
@@ -4263,22 +4263,22 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>LG전자 24MK600M</t>
+          <t>한성컴퓨터 TFX173T DEX 포터블 HDR</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=14556210024</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=21936338223</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1455621/14556210024.20210406134738.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2193633/21936338223.20200428094731.jpg</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>200900</t>
+          <t>379000</t>
         </is>
       </c>
       <c r="F68" t="inlineStr"/>
@@ -4294,12 +4294,12 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
@@ -4321,22 +4321,22 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>LG전자 24MK430H 24인치 FHD IPS 광시야각 모니터</t>
+          <t>한성컴퓨터 TFX156T PRO DEX 포터블 400cd 멀티터치</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=13643814149</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=26158967522</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1364381/13643814149.20200824151155.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2615896/26158967522.20210226123516.jpg</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>185900</t>
+          <t>279000</t>
         </is>
       </c>
       <c r="F69" t="inlineStr"/>
@@ -4352,12 +4352,12 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
@@ -4379,22 +4379,22 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>한성컴퓨터 TFG27Q14P 144</t>
+          <t>LG전자 24MN430HW</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27327723522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=23244797490</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2732772/27327723522.20210527095004.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2324479/23244797490.20220311131641.jpg</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>329000</t>
+          <t>184900</t>
         </is>
       </c>
       <c r="F70" t="inlineStr"/>
@@ -4410,12 +4410,12 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
@@ -4437,22 +4437,22 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>DELL 울트라샤프 U2720Q</t>
+          <t>벤큐 GW2480 아이케어 무결점</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=21752731630</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=11846842637</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2175273/21752731630.20200327122054.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1184684/11846842637.20220318094758.jpg</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>748990</t>
+          <t>199000</t>
         </is>
       </c>
       <c r="F71" t="inlineStr"/>
@@ -4468,12 +4468,12 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>울트라샤프</t>
+          <t>벤큐</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>DELL</t>
+          <t>벤큐</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
@@ -4495,22 +4495,22 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>벤큐 GW2480 아이케어 무결점</t>
+          <t>한성컴퓨터 TFX173PB</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=11846842637</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=28175063522</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1184684/11846842637.20220318094758.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2817506/28175063522.20210727143057.jpg</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>199000</t>
+          <t>409000</t>
         </is>
       </c>
       <c r="F72" t="inlineStr"/>
@@ -4526,12 +4526,12 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>벤큐</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>벤큐</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
@@ -4553,22 +4553,22 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>LG전자 27MP400</t>
+          <t>삼성전자 오디세이 G3 S27AG300 144</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27777660523</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27535066522</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2777766/27777660523.20220311131805.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2753506/27535066522.20210611135052.jpg</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>233900</t>
+          <t>299000</t>
         </is>
       </c>
       <c r="F73" t="inlineStr"/>
@@ -4584,12 +4584,12 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>오디세이</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
@@ -4611,17 +4611,17 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>삼성전자 오디세이 G3 S27AG300 144</t>
+          <t>한성컴퓨터 TFG30F20W  울트라와이드 200 게이밍</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27535066522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27287676522</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2753506/27535066522.20210611135052.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2728767/27287676522.20210628121550.jpg</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -4642,12 +4642,12 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>오디세이</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
@@ -4669,22 +4669,22 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>한성컴퓨터 TFG30F20W  울트라와이드 200 게이밍</t>
+          <t>LG전자 27MP400</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27287676522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27777660523</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2728767/27287676522.20210628121550.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2777766/27777660523.20220311131805.jpg</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>299000</t>
+          <t>233330</t>
         </is>
       </c>
       <c r="F75" t="inlineStr"/>
@@ -4700,12 +4700,12 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
@@ -4727,22 +4727,22 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>한성컴퓨터 TFX173T DEX 포터블 HDR</t>
+          <t>한성컴퓨터 TFG34Q10W 1500R 커브드 게이밍 리얼100 울트라와이드</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=21936338223</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=20889802847</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2193633/21936338223.20200428094731.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2088980/20889802847.20200424100610.jpg</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>379000</t>
+          <t>359000</t>
         </is>
       </c>
       <c r="F76" t="inlineStr"/>
@@ -4785,22 +4785,22 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>제우스랩 알파플랜 P15A 포터블</t>
+          <t>LG전자 울트라기어 27GP750</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=20651265453</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=29060355587</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2065126/20651265453.20210726174943.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2906035/29060355587.20220125134215.jpg</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>174950</t>
+          <t>448880</t>
         </is>
       </c>
       <c r="F77" t="inlineStr"/>
@@ -4816,12 +4816,12 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>알파플랜</t>
+          <t>울트라기어</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>제우스랩</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
@@ -4843,22 +4843,22 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>벤큐 모비우스 EX2710S</t>
+          <t>한성컴퓨터 TFX156PB</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27862189523</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=28193235522</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2786218/27862189523.20220311174737.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2819323/28193235522.20210728161135.jpg</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>369000</t>
+          <t>309000</t>
         </is>
       </c>
       <c r="F78" t="inlineStr"/>
@@ -4874,12 +4874,12 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>벤큐</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>벤큐</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
@@ -4901,22 +4901,22 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>벤큐 XL2411P 아이케어</t>
+          <t>한성컴퓨터 ULTRON 2235V 프리싱크 리얼 75</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=12954974985</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=16384522728</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1295497/12954974985.20220311173549.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1638452/16384522728.20220315162439.jpg</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>299000</t>
+          <t>129000</t>
         </is>
       </c>
       <c r="F79" t="inlineStr"/>
@@ -4932,12 +4932,12 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>벤큐</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>벤큐</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
@@ -4959,22 +4959,22 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>한성컴퓨터 TFG34Q10W 1500R 커브드 게이밍 리얼100 울트라와이드</t>
+          <t>제우스랩 알파플랜 P15A 포터블</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=20889802847</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=20651265453</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2088980/20889802847.20200424100610.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2065126/20651265453.20210726174943.jpg</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>359000</t>
+          <t>174990</t>
         </is>
       </c>
       <c r="F80" t="inlineStr"/>
@@ -4990,12 +4990,12 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>알파플랜</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>제우스랩</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
@@ -5017,22 +5017,22 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>한성컴퓨터 TFX156PB</t>
+          <t>LG전자 울트라HD 32UN880</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=28193235522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24554243522</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2819323/28193235522.20210728161135.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2455424/24554243522.20210406130449.jpg</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>309000</t>
+          <t>798900</t>
         </is>
       </c>
       <c r="F81" t="inlineStr"/>
@@ -5048,12 +5048,12 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>울트라HD</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
@@ -5075,22 +5075,22 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>DELL 울트라샤프 U2422H</t>
+          <t>삼성전자 오디세이 G5 G55A S27AG550 165</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27583031524</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=30454173618</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2758303/27583031524.20210830114405.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3045417/30454173618.20220107132754.jpg</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>348990</t>
+          <t>399000</t>
         </is>
       </c>
       <c r="F82" t="inlineStr"/>
@@ -5106,12 +5106,12 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>울트라샤프</t>
+          <t>오디세이</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>DELL</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
@@ -5133,22 +5133,22 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>벤큐 XL2731K 165</t>
+          <t>삼성전자 삼성 S24R350 베젤리스 프리싱크 75</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=28757211554</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=20861526783</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2875721/28757211554.20220311173957.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2086152/20861526783.20210302142419.jpg</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>449000</t>
+          <t>199000</t>
         </is>
       </c>
       <c r="F83" t="inlineStr"/>
@@ -5164,12 +5164,12 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>벤큐</t>
+          <t>삼성</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>벤큐</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
@@ -5191,22 +5191,22 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>삼성전자 삼성 S24R350 베젤리스 프리싱크 75</t>
+          <t>벤큐 XL2411P 아이케어</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=20861526783</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=12954974985</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2086152/20861526783.20210302142419.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1295497/12954974985.20220311173549.jpg</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>199000</t>
+          <t>299000</t>
         </is>
       </c>
       <c r="F84" t="inlineStr"/>
@@ -5222,12 +5222,12 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>삼성</t>
+          <t>벤큐</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>벤큐</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
@@ -5249,22 +5249,22 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>알파스캔 AOC 27G2 게이밍 144 프리싱크</t>
+          <t>DELL 울트라샤프 U3223QE</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=21667682703</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=32148338618</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2166768/21667682703.20210311170213.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3214833/32148338618.20220503154619.jpg</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>328600</t>
+          <t>1279000</t>
         </is>
       </c>
       <c r="F85" t="inlineStr"/>
@@ -5280,12 +5280,12 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>알파스캔</t>
+          <t>울트라샤프</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>알파스캔</t>
+          <t>DELL</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
@@ -5307,17 +5307,17 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>DELL S2721DS</t>
+          <t>벤큐 모비우스 EX2710S</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24525570527</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27862189523</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2452557/24525570527.20201117112539.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2786218/27862189523.20220311174737.jpg</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -5338,12 +5338,12 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>DELL</t>
+          <t>벤큐</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>DELL</t>
+          <t>벤큐</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
@@ -5365,22 +5365,22 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>DELL 울트라샤프 U3223QE</t>
+          <t>한성컴퓨터 ULTRON 4977SUC 퀀텀닷 144 울트라와이드 게이밍</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=32148338618</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=15557466064</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3214833/32148338618.20220503154619.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1555746/15557466064.20211110103542.jpg</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>1279000</t>
+          <t>749000</t>
         </is>
       </c>
       <c r="F87" t="inlineStr"/>
@@ -5396,12 +5396,12 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>울트라샤프</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>DELL</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
@@ -5423,22 +5423,22 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>삼성전자 오디세이 G5 G55A S27AG550 165</t>
+          <t>LG전자 울트라HD 27UP850</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=30454173618</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27124459522</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3045417/30454173618.20220107132754.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2712445/27124459522.20210512183326.jpg</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>399000</t>
+          <t>648880</t>
         </is>
       </c>
       <c r="F88" t="inlineStr"/>
@@ -5454,12 +5454,12 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>오디세이</t>
+          <t>울트라HD</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
@@ -5481,22 +5481,22 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>한성컴퓨터 ULTRON 2235V 프리싱크 리얼 75</t>
+          <t>삼성전자 오디세이 G7 C32G75T</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=16384522728</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=23021445490</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1638452/16384522728.20220315162439.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2302144/23021445490.20201027170431.jpg</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>129000</t>
+          <t>799000</t>
         </is>
       </c>
       <c r="F89" t="inlineStr"/>
@@ -5512,12 +5512,12 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>오디세이</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
@@ -5539,22 +5539,22 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>LG전자 울트라기어 32GP850</t>
+          <t>LG전자 울트라기어 27GP850</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27405944522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=28378464554</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2740594/27405944522.20220124180945.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2837846/28378464554.20220124181029.jpg</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>748890</t>
+          <t>598900</t>
         </is>
       </c>
       <c r="F90" t="inlineStr"/>
@@ -5597,22 +5597,22 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>LG전자 울트라와이드 28MQ780</t>
+          <t>DELL 울트라샤프 U2422H</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=32417368620</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27583031524</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3241736/32417368620.20220517112513.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2758303/27583031524.20210830114405.jpg</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>990000</t>
+          <t>349000</t>
         </is>
       </c>
       <c r="F91" t="inlineStr"/>
@@ -5628,12 +5628,12 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>울트라와이드</t>
+          <t>울트라샤프</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>DELL</t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
@@ -5655,22 +5655,22 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>삼성전자 오디세이 G3 S24AG300 144</t>
+          <t>벤큐 XL2731K 165</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27534600522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=28757211554</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2753460/27534600522.20210611131536.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2875721/28757211554.20220311173957.jpg</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>248000</t>
+          <t>449000</t>
         </is>
       </c>
       <c r="F92" t="inlineStr"/>
@@ -5686,12 +5686,12 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>오디세이</t>
+          <t>벤큐</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>벤큐</t>
         </is>
       </c>
       <c r="K92" t="inlineStr">
@@ -5713,22 +5713,22 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>삼성전자 삼성 S27B610 75</t>
+          <t>삼성전자 오디세이 G9 C49G95T</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=31531820618</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=23255316490</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3153182/31531820618.20220330101749.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2325531/23255316490.20210203133605.jpg</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>319000</t>
+          <t>1571640</t>
         </is>
       </c>
       <c r="F93" t="inlineStr"/>
@@ -5744,7 +5744,7 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>삼성</t>
+          <t>오디세이</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -5771,22 +5771,22 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>LG전자 울트라HD 32UN880</t>
+          <t>LG전자 울트라와이드 29WP500</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24554243522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=26886077522</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2455424/24554243522.20210406130449.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2688607/26886077522.20210524134552.jpg</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>799000</t>
+          <t>268880</t>
         </is>
       </c>
       <c r="F94" t="inlineStr"/>
@@ -5802,7 +5802,7 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>울트라HD</t>
+          <t>울트라와이드</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -5887,22 +5887,22 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>삼성전자 오디세이 G7 C32G75T</t>
+          <t>제이씨현시스템 유디아 ED2720NB 75</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=23021445490</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27584853526</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2302144/23021445490.20201027170431.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2758485/27584853526.20220328175520.jpg</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>799000</t>
+          <t>199000</t>
         </is>
       </c>
       <c r="F96" t="inlineStr"/>
@@ -5918,12 +5918,12 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>오디세이</t>
+          <t>유디아</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>제이씨현시스템</t>
         </is>
       </c>
       <c r="K96" t="inlineStr">
@@ -5945,22 +5945,22 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>주연테크 V28UE</t>
+          <t>삼성전자 오디세이 G3 S24AG300 144</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=26322015522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27534600522</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2632201/26322015522.20210311142212.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2753460/27534600522.20210611131536.jpg</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>319000</t>
+          <t>256330</t>
         </is>
       </c>
       <c r="F97" t="inlineStr"/>
@@ -5976,12 +5976,12 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>주연테크</t>
+          <t>오디세이</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>주연테크</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K97" t="inlineStr">
@@ -6003,22 +6003,22 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>삼성전자 스마트모니터 M7 S32AM701</t>
+          <t>LG전자 울트라기어 32GP850</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=29724256618</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27405944522</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2972425/29724256618.20211117133727.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2740594/27405944522.20220124180945.jpg</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>512620</t>
+          <t>748880</t>
         </is>
       </c>
       <c r="F98" t="inlineStr"/>
@@ -6034,12 +6034,12 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>스마트모니터</t>
+          <t>울트라기어</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K98" t="inlineStr">
@@ -6061,22 +6061,22 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>삼성전자 오디세이 G9 C49G95T</t>
+          <t>LG전자 27ML600SW</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=23255316490</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=19105887903</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2325531/23255316490.20210203133605.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1910588/19105887903.20220125134154.jpg</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>1571720</t>
+          <t>262900</t>
         </is>
       </c>
       <c r="F99" t="inlineStr"/>
@@ -6092,12 +6092,12 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>오디세이</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K99" t="inlineStr">
@@ -6119,22 +6119,22 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>LG전자 27ML600SW</t>
+          <t>알파스캔 AOC 27G2 게이밍 144 프리싱크</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=19105887903</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=21667682703</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1910588/19105887903.20220125134154.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2166768/21667682703.20210311170213.jpg</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>262900</t>
+          <t>328600</t>
         </is>
       </c>
       <c r="F100" t="inlineStr"/>
@@ -6150,12 +6150,12 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>알파스캔</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>알파스캔</t>
         </is>
       </c>
       <c r="K100" t="inlineStr">
@@ -6177,22 +6177,22 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>제이씨현시스템 유디아 ED2720NB 75</t>
+          <t>삼성전자 S32BM702</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27584853526</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=31717714618</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2758485/27584853526.20220328175520.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3171771/31717714618.20220411101605.jpg</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>199000</t>
+          <t>365840</t>
         </is>
       </c>
       <c r="F101" t="inlineStr"/>
@@ -6206,14 +6206,10 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I101" t="inlineStr">
-        <is>
-          <t>유디아</t>
-        </is>
-      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr">
         <is>
-          <t>제이씨현시스템</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K101" t="inlineStr">

--- a/output.xlsx
+++ b/output.xlsx
@@ -439,22 +439,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>삼성전자 삼성 커브드 C27R502 베젤리스 프리싱크</t>
+          <t>LG전자 24MK430H 24인치 FHD IPS 광시야각 모니터</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=20189888243</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=13643814149</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2018988/20189888243.20220519143818.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1364381/13643814149.20200824151155.jpg</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>208900</t>
+          <t>168900</t>
         </is>
       </c>
       <c r="F2" t="inlineStr"/>
@@ -470,12 +470,12 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>삼성</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -497,22 +497,22 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>한성컴퓨터 ULTRON 3278 QHD New</t>
+          <t>삼성전자 삼성 커브드 C27R502 베젤리스 프리싱크</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=16776093488</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=20189888243</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1677609/16776093488.20200424094717.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2018988/20189888243.20220519143818.jpg</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>249000</t>
+          <t>208900</t>
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
@@ -528,12 +528,12 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>삼성</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -555,22 +555,22 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>한성컴퓨터 TFG27F16V 1500R 리얼 165 게이밍</t>
+          <t>한성컴퓨터 ULTRON 3278 QHD New</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=18797620615</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=16776093488</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1879762/18797620615.20201230122720.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1677609/16776093488.20200424094717.jpg</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>199000</t>
+          <t>249000</t>
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
@@ -671,22 +671,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>LG전자 24MK430H 24인치 FHD IPS 광시야각 모니터</t>
+          <t>삼성전자 스마트모니터 M7 S43BM700</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=13643814149</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=31889649618</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1364381/13643814149.20200824151155.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3188964/31889649618.20220418150602.jpg</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>168900</t>
+          <t>553000</t>
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
@@ -702,12 +702,12 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>스마트모니터</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -729,22 +729,22 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>삼성전자 스마트모니터 M7 S43BM700</t>
+          <t>삼성전자 삼성 F27T350</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=31889649618</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=23996451524</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3188964/31889649618.20220418150602.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2399645/23996451524.20210302142600.jpg</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>553000</t>
+          <t>198900</t>
         </is>
       </c>
       <c r="F7" t="inlineStr"/>
@@ -760,7 +760,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>스마트모니터</t>
+          <t>삼성</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -787,22 +787,22 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>삼성전자 삼성 F27T350</t>
+          <t>삼성전자 삼성 S24R35A</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=23996451524</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=31911879618</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2399645/23996451524.20210302142600.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3191187/31911879618.20220419165448.jpg</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>198900</t>
+          <t>158900</t>
         </is>
       </c>
       <c r="F8" t="inlineStr"/>
@@ -903,22 +903,22 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>삼성전자 삼성 S24R35A</t>
+          <t>LG전자 32MN500MW</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=31911879618</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=22764052560</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3191187/31911879618.20220419165448.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2276405/22764052560.20200824151306.jpg</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>158900</t>
+          <t>263900</t>
         </is>
       </c>
       <c r="F10" t="inlineStr"/>
@@ -934,12 +934,12 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>삼성</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -961,22 +961,22 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>한성컴퓨터 TFG32F16V 1500R 리얼 165 게이밍</t>
+          <t>삼성전자 오디세이 G3 S27AG300 144</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=18778755031</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27535066522</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1877875/18778755031.20201230122744.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2753506/27535066522.20210611135052.jpg</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>249000</t>
+          <t>269000</t>
         </is>
       </c>
       <c r="F11" t="inlineStr"/>
@@ -992,12 +992,12 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>오디세이</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -1019,22 +1019,22 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>삼성전자 오디세이 G3 S27AG300 144</t>
+          <t>한성컴퓨터 TFG27Q14F QHD 평면 144 게이밍</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27535066522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24509574524</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2753506/27535066522.20210611135052.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2450957/24509574524.20201022114639.jpg</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>269000</t>
+          <t>249000</t>
         </is>
       </c>
       <c r="F12" t="inlineStr"/>
@@ -1050,12 +1050,12 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>오디세이</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -1077,22 +1077,22 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>한성컴퓨터 ULTRON 2760G 리얼 144</t>
+          <t>삼성전자 스마트모니터 M5 S32BM501</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=15020041438</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=31799436618</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1502004/15020041438.20220429112257.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3179943/31799436618.20220413103106.jpg</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>199000</t>
+          <t>325000</t>
         </is>
       </c>
       <c r="F13" t="inlineStr"/>
@@ -1108,12 +1108,12 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>스마트모니터</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -1135,22 +1135,22 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>LG전자 32MN500MW</t>
+          <t>한성컴퓨터 ULTRON 2760G 리얼 144</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=22764052560</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=15020041438</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2276405/22764052560.20200824151306.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1502004/15020041438.20220429112257.jpg</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>263900</t>
+          <t>199000</t>
         </is>
       </c>
       <c r="F14" t="inlineStr"/>
@@ -1166,12 +1166,12 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -1193,22 +1193,22 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>LG전자 27MK430H</t>
+          <t>한성컴퓨터 TFG32F16V 1500R 리얼 165 게이밍</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=15183175543</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=18778755031</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1518317/15183175543.20200824151717.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1877875/18778755031.20201230122744.jpg</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>198900</t>
+          <t>249000</t>
         </is>
       </c>
       <c r="F15" t="inlineStr"/>
@@ -1224,12 +1224,12 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -1251,22 +1251,22 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>LG전자 32QN650</t>
+          <t>한성컴퓨터 TFG32Q07P 75</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=23692201495</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=28655748554</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2369220/23692201495.20210406132235.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2865574/28655748554.20210831152013.jpg</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>378890</t>
+          <t>249000</t>
         </is>
       </c>
       <c r="F16" t="inlineStr"/>
@@ -1282,12 +1282,12 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -1309,22 +1309,22 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>한성컴퓨터 TFG32Q07P 75</t>
+          <t>한성컴퓨터 TFG27F16V 1500R 리얼 165 게이밍</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=28655748554</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=18797620615</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2865574/28655748554.20210831152013.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1879762/18797620615.20201230122720.jpg</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>249000</t>
+          <t>199000</t>
         </is>
       </c>
       <c r="F17" t="inlineStr"/>
@@ -1367,22 +1367,22 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>LG전자 울트라HD 32UN650</t>
+          <t>LG전자 27MK430H</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24635274522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=15183175543</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2463527/24635274522.20210405173537.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1518317/15183175543.20200824151717.jpg</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>548900</t>
+          <t>198900</t>
         </is>
       </c>
       <c r="F18" t="inlineStr"/>
@@ -1398,7 +1398,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>울트라HD</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1425,22 +1425,22 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>한성컴퓨터 ULTRON 2758 프리싱크 리얼 75</t>
+          <t>LG전자 32QN650</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=14816445651</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=23692201495</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1481644/14816445651.20220506122800.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2369220/23692201495.20210406132235.jpg</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>159000</t>
+          <t>378890</t>
         </is>
       </c>
       <c r="F19" t="inlineStr"/>
@@ -1456,12 +1456,12 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
@@ -1483,22 +1483,22 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>한성컴퓨터 TFG27Q14F QHD 평면 144 게이밍</t>
+          <t>한성컴퓨터 ULTRON 2758 프리싱크 리얼 75</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24509574524</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=14816445651</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2450957/24509574524.20201022114639.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1481644/14816445651.20220506122800.jpg</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>249000</t>
+          <t>159000</t>
         </is>
       </c>
       <c r="F20" t="inlineStr"/>
@@ -1541,22 +1541,22 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>삼성전자 스마트모니터 M7 S32BM701</t>
+          <t>LG전자 울트라HD 32UN650</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=31605413618</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24635274522</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3160541/31605413618.20220404134022.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2463527/24635274522.20210405173537.jpg</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>499000</t>
+          <t>548900</t>
         </is>
       </c>
       <c r="F21" t="inlineStr"/>
@@ -1572,12 +1572,12 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>스마트모니터</t>
+          <t>울트라HD</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -1599,22 +1599,22 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>삼성전자 스마트모니터 M5 S32BM501</t>
+          <t>삼성전자 스마트모니터 M7 S32BM701</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=31799436618</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=31605413618</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3179943/31799436618.20220413103106.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3160541/31605413618.20220404134022.jpg</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>325000</t>
+          <t>499000</t>
         </is>
       </c>
       <c r="F22" t="inlineStr"/>
@@ -1657,22 +1657,22 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>LG전자 울트라기어 27GN650</t>
+          <t>LG전자 울트라HD 27UL550</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=25413919522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=19298157033</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2541391/25413919522.20220125134231.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1929815/19298157033.20200824143609.jpg</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>368900</t>
+          <t>398900</t>
         </is>
       </c>
       <c r="F23" t="inlineStr"/>
@@ -1688,7 +1688,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>울트라기어</t>
+          <t>울트라HD</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1773,22 +1773,22 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>한성컴퓨터 TFG34Q14WQ 퀀텀닷 1500R 리얼 144 울트라와이드 게이밍</t>
+          <t>LG전자 울트라기어 27GN650</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=22312278223</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=25413919522</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2231227/22312278223.20220215171608.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2541391/25413919522.20220125134231.jpg</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>429000</t>
+          <t>368900</t>
         </is>
       </c>
       <c r="F25" t="inlineStr"/>
@@ -1804,12 +1804,12 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>울트라기어</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -1831,17 +1831,17 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>한성컴퓨터 TFX32U06V 4K HDR 1500R 커브드</t>
+          <t>한성컴퓨터 TFG32F24V 240</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=20942220356</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=28162745522</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2094222/20942220356.20210630112723.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2816274/28162745522.20210726183542.jpg</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1889,22 +1889,22 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>LG전자 울트라HD 27UL550</t>
+          <t>삼성전자 오디세이 G4 S27BG400</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=19298157033</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=32314572618</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1929815/19298157033.20200824143609.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3231457/32314572618.20220525173408.jpg</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>399000</t>
+          <t>409000</t>
         </is>
       </c>
       <c r="F27" t="inlineStr"/>
@@ -1920,12 +1920,12 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>울트라HD</t>
+          <t>오디세이</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -1947,22 +1947,22 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>한성컴퓨터 ULTRON 2435V 프리싱크 리얼75</t>
+          <t>한성컴퓨터 TFX156T DEX 포터블 HDR</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=13487979407</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=21936337549</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1348797/13487979407.20220404172708.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2193633/21936337549.20200428094649.jpg</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>129000</t>
+          <t>269000</t>
         </is>
       </c>
       <c r="F28" t="inlineStr"/>
@@ -2005,22 +2005,22 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>삼성전자 삼성 F24T450</t>
+          <t>한성컴퓨터 ULTRON 2435V 프리싱크 리얼75</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24007200522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=13487979407</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2400720/24007200522.20210203133027.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1348797/13487979407.20220404172708.jpg</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>228000</t>
+          <t>129000</t>
         </is>
       </c>
       <c r="F29" t="inlineStr"/>
@@ -2036,12 +2036,12 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>삼성</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
@@ -2063,22 +2063,22 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>LG전자 27TN600S</t>
+          <t>LG전자 24ML600SW</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=21745903830</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=19105796246</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2174590/21745903830.20200824150453.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1910579/19105796246.20200824152520.jpg</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>298060</t>
+          <t>200900</t>
         </is>
       </c>
       <c r="F30" t="inlineStr"/>
@@ -2092,7 +2092,11 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I30" t="inlineStr"/>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>LG전자</t>
+        </is>
+      </c>
       <c r="J30" t="inlineStr">
         <is>
           <t>LG전자</t>
@@ -2117,22 +2121,22 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>LG전자 27MN430HW</t>
+          <t>삼성전자 삼성 F24T450</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=23301354490</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24007200522</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2330135/23301354490.20200824152000.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2400720/24007200522.20210203133027.jpg</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>198900</t>
+          <t>228000</t>
         </is>
       </c>
       <c r="F31" t="inlineStr"/>
@@ -2148,12 +2152,12 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>삼성</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
@@ -2233,22 +2237,22 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>한성컴퓨터 TFG27F14P IPS 144</t>
+          <t>한성컴퓨터 TFX32U06V 4K HDR 1500R 커브드</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=23258436490</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=20942220356</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2325843/23258436490.20200624161211.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2094222/20942220356.20210630112723.jpg</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>229000</t>
+          <t>299000</t>
         </is>
       </c>
       <c r="F33" t="inlineStr"/>
@@ -2291,22 +2295,22 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>삼성전자 오디세이 Neo G8 S32BG850</t>
+          <t>한성컴퓨터 TFG27F14P IPS 144</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=33092648618</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=23258436490</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3309264/33092648618.20220623100048.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2325843/23258436490.20200624161211.jpg</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>1390000</t>
+          <t>229000</t>
         </is>
       </c>
       <c r="F34" t="inlineStr"/>
@@ -2322,12 +2326,12 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>오디세이</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
@@ -2349,22 +2353,22 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>벤큐 XL2411K</t>
+          <t>한성컴퓨터 TFG34Q14WQ 퀀텀닷 1500R 리얼 144 울트라와이드 게이밍</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24196764522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=22312278223</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2419676/24196764522.20220311173519.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2231227/22312278223.20220215171608.jpg</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>278900</t>
+          <t>429000</t>
         </is>
       </c>
       <c r="F35" t="inlineStr"/>
@@ -2380,12 +2384,12 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>벤큐</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>벤큐</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
@@ -2407,22 +2411,22 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>삼성전자 오디세이 G5 C27G54T</t>
+          <t>한성컴퓨터 TFX173T DEX 포터블 HDR</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=23896119522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=21936338223</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2389611/23896119522.20210302142506.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2193633/21936338223.20200428094731.jpg</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>355000</t>
+          <t>379000</t>
         </is>
       </c>
       <c r="F36" t="inlineStr"/>
@@ -2438,12 +2442,12 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>오디세이</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
@@ -2465,22 +2469,22 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>제우스랩 알파플랜 P15A 포터블</t>
+          <t>삼성전자 오디세이 G5 C27G54T</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=20651265453</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=23896119522</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2065126/20651265453.20210726174943.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2389611/23896119522.20210302142506.jpg</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>174990</t>
+          <t>355000</t>
         </is>
       </c>
       <c r="F37" t="inlineStr"/>
@@ -2496,12 +2500,12 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>알파플랜</t>
+          <t>오디세이</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>제우스랩</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
@@ -2523,22 +2527,22 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>삼성전자 삼성 S27R350</t>
+          <t>제우스랩 알파플랜 P15A 포터블</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=21775935202</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=20651265453</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2177593/21775935202.20210203132859.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2065126/20651265453.20210726174943.jpg</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>218900</t>
+          <t>174990</t>
         </is>
       </c>
       <c r="F38" t="inlineStr"/>
@@ -2554,12 +2558,12 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>삼성</t>
+          <t>알파플랜</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>제우스랩</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
@@ -2581,22 +2585,22 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>한성컴퓨터 TFX156T DEX 포터블 HDR</t>
+          <t>LG전자 27MN430HW</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=21936337549</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=23301354490</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2193633/21936337549.20200428094649.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2330135/23301354490.20200824152000.jpg</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>269000</t>
+          <t>198900</t>
         </is>
       </c>
       <c r="F39" t="inlineStr"/>
@@ -2612,12 +2616,12 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
@@ -2639,22 +2643,22 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>MSI 옵틱스 G271 게이밍 144 아이세이버</t>
+          <t>LG전자 27TN600S</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=22435637800</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=21745903830</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2243563/22435637800.20201111111336.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2174590/21745903830.20200824150453.jpg</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>229000</t>
+          <t>298010</t>
         </is>
       </c>
       <c r="F40" t="inlineStr"/>
@@ -2668,14 +2672,10 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I40" t="inlineStr">
-        <is>
-          <t>MSI</t>
-        </is>
-      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr">
         <is>
-          <t>MSI</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
@@ -2697,22 +2697,22 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>한성컴퓨터 TFX173T DEX 포터블 HDR</t>
+          <t>삼성전자 삼성 C32T550</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=21936338223</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=22448790144</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2193633/21936338223.20200428094731.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2244879/22448790144.20210203133005.jpg</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>379000</t>
+          <t>309000</t>
         </is>
       </c>
       <c r="F41" t="inlineStr"/>
@@ -2728,12 +2728,12 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>삼성</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
@@ -2755,22 +2755,22 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>LG전자 24ML600SW</t>
+          <t>삼성전자 오디세이 Neo G8 S32BG850</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=19105796246</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=33092648618</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1910579/19105796246.20200824152520.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3309264/33092648618.20220623100048.jpg</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>200900</t>
+          <t>1390000</t>
         </is>
       </c>
       <c r="F42" t="inlineStr"/>
@@ -2786,12 +2786,12 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>오디세이</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
@@ -2828,7 +2828,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>263900</t>
+          <t>263800</t>
         </is>
       </c>
       <c r="F43" t="inlineStr"/>
@@ -2871,22 +2871,22 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>한성컴퓨터 TFG32F07V 1500R 커브드 게이밍 리얼 75</t>
+          <t>벤큐 XL2411K</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=20882835913</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24196764522</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2088283/20882835913.20200424100013.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2419676/24196764522.20220311173519.jpg</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>199000</t>
+          <t>278900</t>
         </is>
       </c>
       <c r="F44" t="inlineStr"/>
@@ -2902,12 +2902,12 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>벤큐</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>벤큐</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
@@ -2929,22 +2929,22 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>벤큐 XL2546K</t>
+          <t>DELL 울트라샤프 U2722D</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24235203522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27124609522</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2423520/24235203522.20220311173812.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2712460/27124609522.20210719172836.jpg</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>698900</t>
+          <t>509000</t>
         </is>
       </c>
       <c r="F45" t="inlineStr"/>
@@ -2960,12 +2960,12 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>벤큐</t>
+          <t>울트라샤프</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>벤큐</t>
+          <t>DELL</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
@@ -2987,22 +2987,22 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>한성컴퓨터 TFG32F24V 240</t>
+          <t>삼성전자 스마트모니터 M7 S43AM700</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=28162745522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27215825524</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2816274/28162745522.20210726183542.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2721582/27215825524.20210520173025.jpg</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>299000</t>
+          <t>557740</t>
         </is>
       </c>
       <c r="F46" t="inlineStr"/>
@@ -3018,12 +3018,12 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>스마트모니터</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
@@ -3045,22 +3045,22 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>LG전자 울트라기어 27GP850</t>
+          <t>벤큐 GW2780 아이케어</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=28378464554</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=11846746201</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2837846/28378464554.20220124181029.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1184674/11846746201.20220318094817.jpg</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>548900</t>
+          <t>218900</t>
         </is>
       </c>
       <c r="F47" t="inlineStr"/>
@@ -3076,12 +3076,12 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>울트라기어</t>
+          <t>벤큐</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>벤큐</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
@@ -3103,22 +3103,22 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>벤큐 GW2780 아이케어</t>
+          <t>LG전자 울트라기어 27GP750</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=11846746201</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=29060355587</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1184674/11846746201.20220318094817.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2906035/29060355587.20220125134215.jpg</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>218900</t>
+          <t>448900</t>
         </is>
       </c>
       <c r="F48" t="inlineStr"/>
@@ -3134,12 +3134,12 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>벤큐</t>
+          <t>울트라기어</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>벤큐</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
@@ -3161,22 +3161,22 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>삼성전자 오디세이 G4 S27BG400</t>
+          <t>삼성전자 삼성 S27R350</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=32314572618</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=21775935202</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3231457/32314572618.20220525173408.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2177593/21775935202.20210203132859.jpg</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>409000</t>
+          <t>218900</t>
         </is>
       </c>
       <c r="F49" t="inlineStr"/>
@@ -3192,7 +3192,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>오디세이</t>
+          <t>삼성</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -3219,22 +3219,22 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>카멜 CM3210GC 165</t>
+          <t>MSI 옵틱스 G271 게이밍 144 아이세이버</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=25834381522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=22435637800</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2583438/25834381522.20210202114841.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2243563/22435637800.20201111111336.jpg</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>249400</t>
+          <t>229000</t>
         </is>
       </c>
       <c r="F50" t="inlineStr"/>
@@ -3250,12 +3250,12 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>카멜</t>
+          <t>MSI</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>카멜</t>
+          <t>MSI</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
@@ -3335,22 +3335,22 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>한성컴퓨터 TFG24F14V 1200R커브드 게이밍 리얼 144</t>
+          <t>한성컴퓨터 TFX133T DEX 포터블 HDR</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=21032801916</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=21918294654</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2103280/21032801916.20220407160212.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2191829/21918294654.20200428094627.jpg</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>159000</t>
+          <t>229000</t>
         </is>
       </c>
       <c r="F52" t="inlineStr"/>
@@ -3393,22 +3393,22 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>LG전자 울트라기어 27GP750</t>
+          <t>한성컴퓨터 TFG32Q14F 144</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=29060355587</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24439846522</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2906035/29060355587.20220125134215.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2443984/24439846522.20201013113723.jpg</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>448900</t>
+          <t>299000</t>
         </is>
       </c>
       <c r="F53" t="inlineStr"/>
@@ -3424,12 +3424,12 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>울트라기어</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
@@ -3451,22 +3451,22 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>삼성전자 삼성 C32T550</t>
+          <t>DELL 울트라샤프 U2720Q</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=22448790144</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=21752731630</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2244879/22448790144.20210203133005.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2175273/21752731630.20200327122054.jpg</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>309000</t>
+          <t>729000</t>
         </is>
       </c>
       <c r="F54" t="inlineStr"/>
@@ -3482,12 +3482,12 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>삼성</t>
+          <t>울트라샤프</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>DELL</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
@@ -3509,22 +3509,22 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>DELL 울트라샤프 U2720Q</t>
+          <t>LG전자 27QN600</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=21752731630</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=23849172522</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2175273/21752731630.20200327122054.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2384917/23849172522.20210406141920.jpg</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>729000</t>
+          <t>318900</t>
         </is>
       </c>
       <c r="F55" t="inlineStr"/>
@@ -3540,12 +3540,12 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>울트라샤프</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>DELL</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
@@ -3567,22 +3567,22 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>한성컴퓨터 TFG32Q14F 144</t>
+          <t>벤큐 XL2546K</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24439846522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24235203522</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2443984/24439846522.20201013113723.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2423520/24235203522.20220311173812.jpg</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>299000</t>
+          <t>698900</t>
         </is>
       </c>
       <c r="F56" t="inlineStr"/>
@@ -3598,12 +3598,12 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>벤큐</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>벤큐</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
@@ -3625,22 +3625,22 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>LG전자 27QN600</t>
+          <t>한성컴퓨터 TFG32F07V 1500R 커브드 게이밍 리얼 75</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=23849172522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=20882835913</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2384917/23849172522.20210406141920.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2088283/20882835913.20200424100013.jpg</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>319000</t>
+          <t>199000</t>
         </is>
       </c>
       <c r="F57" t="inlineStr"/>
@@ -3656,12 +3656,12 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
@@ -3683,22 +3683,22 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>LG전자 LG그램 그램+뷰 16MQ70</t>
+          <t>카멜 CM3210GC 165</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=30377313618</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=25834381522</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3037731/30377313618.20211231144328.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2583438/25834381522.20210202114841.jpg</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>376460</t>
+          <t>258090</t>
         </is>
       </c>
       <c r="F58" t="inlineStr"/>
@@ -3714,12 +3714,12 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>LG그램</t>
+          <t>카멜</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>카멜</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
@@ -3741,22 +3741,22 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>한성컴퓨터 TFX133T DEX 포터블 HDR</t>
+          <t>삼성전자 오디세이 G5 G52A S32AG520 165</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=21918294654</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=30454046618</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2191829/21918294654.20200428094627.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3045404/30454046618.20220107131705.jpg</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>229000</t>
+          <t>569000</t>
         </is>
       </c>
       <c r="F59" t="inlineStr"/>
@@ -3772,12 +3772,12 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>오디세이</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
@@ -3799,22 +3799,22 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>삼성전자 스마트모니터 M7 S32BM700</t>
+          <t>LG전자 울트라기어 27GP850</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=31605356618</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=28378464554</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3160535/31605356618.20220404132823.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2837846/28378464554.20220124181029.jpg</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>479220</t>
+          <t>548900</t>
         </is>
       </c>
       <c r="F60" t="inlineStr"/>
@@ -3830,12 +3830,12 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>스마트모니터</t>
+          <t>울트라기어</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
@@ -3857,22 +3857,22 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>LG전자 울트라기어 32GP850</t>
+          <t>한성컴퓨터 TFG24F14V 1200R커브드 게이밍 리얼 144</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27405944522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=21032801916</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2740594/27405944522.20220124180945.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2103280/21032801916.20220407160212.jpg</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>698900</t>
+          <t>159000</t>
         </is>
       </c>
       <c r="F61" t="inlineStr"/>
@@ -3888,12 +3888,12 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>울트라기어</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
@@ -3915,22 +3915,22 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>뷰소닉 VX2718-PC-MHD 1500R 커브드 리얼 165 게이밍</t>
+          <t>삼성전자 스마트모니터 M7 S32BM700</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=25649257525</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=31605356618</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2564925/25649257525.20211022172123.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3160535/31605356618.20220404132823.jpg</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>199000</t>
+          <t>488900</t>
         </is>
       </c>
       <c r="F62" t="inlineStr"/>
@@ -3946,12 +3946,12 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>뷰소닉</t>
+          <t>스마트모니터</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>뷰소닉</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
@@ -3973,22 +3973,22 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>벤큐 GW2480 아이케어 무결점</t>
+          <t>한성컴퓨터 TFG30F20W  울트라와이드 200 게이밍</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=11846842637</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27287676522</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1184684/11846842637.20220318094758.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2728767/27287676522.20210628121550.jpg</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>178900</t>
+          <t>299000</t>
         </is>
       </c>
       <c r="F63" t="inlineStr"/>
@@ -4004,12 +4004,12 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>벤큐</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>벤큐</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
@@ -4031,22 +4031,22 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>삼성전자 오디세이 G5 G52A S32AG520 165</t>
+          <t>벤큐 GW2480 아이케어 무결점</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=30454046618</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=11846842637</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3045404/30454046618.20220107131705.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1184684/11846842637.20220318094758.jpg</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>569000</t>
+          <t>178900</t>
         </is>
       </c>
       <c r="F64" t="inlineStr"/>
@@ -4062,12 +4062,12 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>오디세이</t>
+          <t>벤큐</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>벤큐</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
@@ -4089,22 +4089,22 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>삼성전자 오디세이 Neo G9 S49AG950 49인치 게이밍 모니터</t>
+          <t>삼성전자 스마트모니터 LS32BM702UKXKR</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=28288984554</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=32560555619</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2828898/28288984554.20220713164635.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3256055/32560555619.20220524153039.jpg</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>2100000</t>
+          <t>396990</t>
         </is>
       </c>
       <c r="F65" t="inlineStr"/>
@@ -4120,7 +4120,7 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>오디세이</t>
+          <t>스마트모니터</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -4147,22 +4147,22 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>삼성전자 오디세이 G9 C49G95T</t>
+          <t>한성컴퓨터 TFG32F14F 144</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=23255316490</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24380347522</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2325531/23255316490.20210203133605.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2438034/24380347522.20201007114746.jpg</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>1533190</t>
+          <t>249000</t>
         </is>
       </c>
       <c r="F66" t="inlineStr"/>
@@ -4178,12 +4178,12 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>오디세이</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
@@ -4205,22 +4205,22 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>한성컴퓨터 TFG32F14F 144</t>
+          <t>카멜 CM3210GQC 165</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24380347522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=32132104618</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2438034/24380347522.20201007114746.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3213210/32132104618.20220502163445.jpg</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>249000</t>
+          <t>369000</t>
         </is>
       </c>
       <c r="F67" t="inlineStr"/>
@@ -4236,12 +4236,12 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>카멜</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>카멜</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
@@ -4263,22 +4263,22 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>삼성전자 스마트모니터 LS32BM702UKXKR</t>
+          <t>LG전자 LG그램 그램+뷰 16MQ70</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=32560555619</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=30377313618</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3256055/32560555619.20220524153039.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3037731/30377313618.20211231144328.jpg</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>379080</t>
+          <t>376350</t>
         </is>
       </c>
       <c r="F68" t="inlineStr"/>
@@ -4294,12 +4294,12 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>스마트모니터</t>
+          <t>LG그램</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
@@ -4379,22 +4379,22 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>삼성전자 스마트모니터 M7 S43AM700</t>
+          <t>LG전자 울트라HD 32UN880</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27215825524</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24554243522</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2721582/27215825524.20210520173025.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2455424/24554243522.20210406130449.jpg</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>557820</t>
+          <t>768900</t>
         </is>
       </c>
       <c r="F70" t="inlineStr"/>
@@ -4410,12 +4410,12 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>스마트모니터</t>
+          <t>울트라HD</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
@@ -4437,22 +4437,22 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>LG전자 24MK600M</t>
+          <t>삼성전자 삼성 U32J590</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=14556210024</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=14306268525</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1455621/14556210024.20210406134738.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1430626/14306268525.20210203133511.jpg</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>200900</t>
+          <t>367000</t>
         </is>
       </c>
       <c r="F71" t="inlineStr"/>
@@ -4468,12 +4468,12 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>삼성</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
@@ -4495,22 +4495,22 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>LG전자 울트라HD 32UN880</t>
+          <t>삼성전자 오디세이 G3 S24AG300 144</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24554243522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27534600522</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2455424/24554243522.20210406130449.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2753460/27534600522.20210611131536.jpg</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>768990</t>
+          <t>259000</t>
         </is>
       </c>
       <c r="F72" t="inlineStr"/>
@@ -4526,12 +4526,12 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>울트라HD</t>
+          <t>오디세이</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
@@ -4553,22 +4553,22 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>한성컴퓨터 TFG27Q14V 1500R 리얼 144 게이밍</t>
+          <t>한성컴퓨터 TFG39Q14V 144</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=20812959649</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=26826361522</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2081295/20812959649.20220510105342.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2682636/26826361522.20210419161946.jpg</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>249000</t>
+          <t>479000</t>
         </is>
       </c>
       <c r="F73" t="inlineStr"/>
@@ -4611,22 +4611,22 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>삼성전자 오디세이 G3 S24AG300 144</t>
+          <t>뷰소닉 VX2718-PC-MHD 1500R 커브드 리얼 165 게이밍</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27534600522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=25649257525</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2753460/27534600522.20210611131536.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2564925/25649257525.20211022172123.jpg</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>259000</t>
+          <t>199000</t>
         </is>
       </c>
       <c r="F74" t="inlineStr"/>
@@ -4642,12 +4642,12 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>오디세이</t>
+          <t>뷰소닉</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>뷰소닉</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
@@ -4669,22 +4669,22 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>카멜 CM3210GQC 165</t>
+          <t>한성컴퓨터 TFG27Q14V 1500R 리얼 144 게이밍</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=32132104618</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=20812959649</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3213210/32132104618.20220502163445.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2081295/20812959649.20220510105342.jpg</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>360000</t>
+          <t>249000</t>
         </is>
       </c>
       <c r="F75" t="inlineStr"/>
@@ -4700,12 +4700,12 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>카멜</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>카멜</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
@@ -4785,22 +4785,22 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>한성컴퓨터 TFG39Q14V 144</t>
+          <t>LG전자 24MK600M</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=26826361522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=14556210024</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2682636/26826361522.20210419161946.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1455621/14556210024.20210406134738.jpg</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>479000</t>
+          <t>200900</t>
         </is>
       </c>
       <c r="F77" t="inlineStr"/>
@@ -4816,12 +4816,12 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
@@ -4843,22 +4843,22 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>카멜 CM2410V</t>
+          <t>삼성전자 오디세이 Neo G9 S49AG950 49인치 게이밍 모니터</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=32733425618</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=28288984554</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3273342/32733425618.20220606091518.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2828898/28288984554.20220713164635.jpg</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>139000</t>
+          <t>2100000</t>
         </is>
       </c>
       <c r="F78" t="inlineStr"/>
@@ -4874,12 +4874,12 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>카멜</t>
+          <t>오디세이</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>카멜</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
@@ -4901,22 +4901,22 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>삼성전자 삼성 U32J590</t>
+          <t>삼성전자 스마트모니터 M5 S32BM500</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=14306268525</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=31799047618</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1430626/14306268525.20210203133511.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3179904/31799047618.20220413101833.jpg</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>367000</t>
+          <t>299000</t>
         </is>
       </c>
       <c r="F79" t="inlineStr"/>
@@ -4932,7 +4932,7 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>삼성</t>
+          <t>스마트모니터</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -4959,22 +4959,22 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>LG전자 24MN430HW</t>
+          <t>카멜 CM2410V</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=23244797490</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=32733425618</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2324479/23244797490.20220311131641.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3273342/32733425618.20220606091518.jpg</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>166900</t>
+          <t>139000</t>
         </is>
       </c>
       <c r="F80" t="inlineStr"/>
@@ -4990,12 +4990,12 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>카멜</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>카멜</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
@@ -5017,22 +5017,22 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>한성컴퓨터 TFG30F20W  울트라와이드 200 게이밍</t>
+          <t>삼성전자 스마트모니터 M5 S27AM501</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27287676522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=26870246522</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2728767/27287676522.20210628121550.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2687024/26870246522.20210422150359.jpg</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>299000</t>
+          <t>263020</t>
         </is>
       </c>
       <c r="F81" t="inlineStr"/>
@@ -5048,12 +5048,12 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>스마트모니터</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
@@ -5075,22 +5075,22 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>LG전자 울트라기어 24GN600 144Hz</t>
+          <t>벤큐 모비우스 EX2710S</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=26122103522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27862189523</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2612210/26122103522.20220124181046.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2786218/27862189523.20220311174737.jpg</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>238900</t>
+          <t>348900</t>
         </is>
       </c>
       <c r="F82" t="inlineStr"/>
@@ -5106,12 +5106,12 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>울트라기어</t>
+          <t>벤큐</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>벤큐</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
@@ -5133,22 +5133,22 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>삼성전자 스마트모니터 M5 S27AM501</t>
+          <t>LG전자 24MN430HW</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=26870246522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=23244797490</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2687024/26870246522.20210422150359.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2324479/23244797490.20220311131641.jpg</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>263020</t>
+          <t>166900</t>
         </is>
       </c>
       <c r="F83" t="inlineStr"/>
@@ -5164,12 +5164,12 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>스마트모니터</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
@@ -5191,22 +5191,22 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>LG전자 27TQ600SW</t>
+          <t>삼성전자 오디세이 G9 C49G95T</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=32982708620</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=23255316490</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3298270/32982708620.20220616144209.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2325531/23255316490.20210203133605.jpg</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>428990</t>
+          <t>1533160</t>
         </is>
       </c>
       <c r="F84" t="inlineStr"/>
@@ -5222,12 +5222,12 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>오디세이</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
@@ -5249,22 +5249,22 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>DELL 울트라샤프 U2722D</t>
+          <t>LG전자 27MP400</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27124609522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27777660523</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2712460/27124609522.20210719172836.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2777766/27777660523.20220311131805.jpg</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>509000</t>
+          <t>233900</t>
         </is>
       </c>
       <c r="F85" t="inlineStr"/>
@@ -5280,12 +5280,12 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>울트라샤프</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>DELL</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
@@ -5307,22 +5307,22 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>삼성전자 스마트모니터 M5 S32BM500</t>
+          <t>LG전자 27TQ600SW</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=31799047618</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=32982708620</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3179904/31799047618.20220413101833.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3298270/32982708620.20220616144209.jpg</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>299000</t>
+          <t>428920</t>
         </is>
       </c>
       <c r="F86" t="inlineStr"/>
@@ -5338,12 +5338,12 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>스마트모니터</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
@@ -5365,22 +5365,22 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>벤큐 모비우스 EX2710S</t>
+          <t>LG전자 울트라HD 27UP850</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27862189523</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27124459522</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2786218/27862189523.20220311174737.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2712445/27124459522.20210512183326.jpg</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>348900</t>
+          <t>648900</t>
         </is>
       </c>
       <c r="F87" t="inlineStr"/>
@@ -5396,12 +5396,12 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>벤큐</t>
+          <t>울트라HD</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>벤큐</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
@@ -5423,22 +5423,22 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>DELL S2721DS</t>
+          <t>LG전자 울트라기어 24GN600 144Hz</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24525570527</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=26122103522</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2452557/24525570527.20201117112539.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2612210/26122103522.20220124181046.jpg</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>367980</t>
+          <t>238900</t>
         </is>
       </c>
       <c r="F88" t="inlineStr"/>
@@ -5454,12 +5454,12 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>DELL</t>
+          <t>울트라기어</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>DELL</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
@@ -5481,22 +5481,22 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>LG전자 32UN550</t>
+          <t>DELL 울트라샤프 U3223QE</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24367892525</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=32148338618</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2436789/24367892525.20210406141630.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3214833/32148338618.20220725142455.jpg</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>498900</t>
+          <t>1279000</t>
         </is>
       </c>
       <c r="F89" t="inlineStr"/>
@@ -5512,12 +5512,12 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>울트라샤프</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>DELL</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
@@ -5539,22 +5539,22 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>삼성전자 삼성 슈퍼 와이드 게이밍 120 DQHD C49RG90</t>
+          <t>한성컴퓨터 TFG32F16FB</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=18571615807</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=32050811618</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1857161/18571615807.20210203133352.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3205081/32050811618.20220427144825.jpg</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>1269900</t>
+          <t>249000</t>
         </is>
       </c>
       <c r="F90" t="inlineStr"/>
@@ -5570,12 +5570,12 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>삼성</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
@@ -5597,22 +5597,22 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>한성컴퓨터 TFX156T PRO DEX 포터블 400cd 멀티터치</t>
+          <t>한성컴퓨터 TFG24F16FB</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=26158967522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=32031991621</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2615896/26158967522.20210226123516.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3203199/32031991621.20220426105005.jpg</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>279000</t>
+          <t>159000</t>
         </is>
       </c>
       <c r="F91" t="inlineStr"/>
@@ -5655,22 +5655,22 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>LG전자 울트라HD 27UP850</t>
+          <t>한성컴퓨터 TFX156T PRO DEX 포터블 400cd 멀티터치</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27124459522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=26158967522</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2712445/27124459522.20210512183326.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2615896/26158967522.20210226123516.jpg</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>648900</t>
+          <t>279000</t>
         </is>
       </c>
       <c r="F92" t="inlineStr"/>
@@ -5686,12 +5686,12 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>울트라HD</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="K92" t="inlineStr">
@@ -5713,22 +5713,22 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>한성컴퓨터 TFG34Q14W 1500R 커브드 리얼 144 울트라와이드 게이밍</t>
+          <t>한성컴퓨터 TFG27Q14P 144</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=29326560618</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27327723522</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2932656/29326560618.20211021130829.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2732772/27327723522.20210527095004.jpg</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>399000</t>
+          <t>329000</t>
         </is>
       </c>
       <c r="F93" t="inlineStr"/>
@@ -5771,22 +5771,22 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>LG전자 27TQ615SP</t>
+          <t>LG전자 울트라기어 32GP850</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=32672526618</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27405944522</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3267252/32672526618.20220531094913.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2740594/27405944522.20220124180945.jpg</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>349000</t>
+          <t>698900</t>
         </is>
       </c>
       <c r="F94" t="inlineStr"/>
@@ -5802,7 +5802,7 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>울트라기어</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -5829,22 +5829,22 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>한성컴퓨터 TFG29F07WP IPS 울트라와이드</t>
+          <t>제이씨현시스템 유디아 ED2720NB 75</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=29125693586</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27584853526</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2912569/29125693586.20211006161419.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2758485/27584853526.20220328175520.jpg</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>229000</t>
+          <t>189000</t>
         </is>
       </c>
       <c r="F95" t="inlineStr"/>
@@ -5860,12 +5860,12 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>유디아</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>제이씨현시스템</t>
         </is>
       </c>
       <c r="K95" t="inlineStr">
@@ -5887,22 +5887,22 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>LG전자 27MP400</t>
+          <t>DELL S2721DS</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27777660523</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24525570527</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2777766/27777660523.20220311131805.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2452557/24525570527.20201117112539.jpg</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>234000</t>
+          <t>367980</t>
         </is>
       </c>
       <c r="F96" t="inlineStr"/>
@@ -5918,12 +5918,12 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>DELL</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>DELL</t>
         </is>
       </c>
       <c r="K96" t="inlineStr">
@@ -5945,22 +5945,22 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>제이씨현시스템 유디아 ED2720NB 75</t>
+          <t>인터픽셀 IP2740 게이밍 165</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27584853526</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=18968201200</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2758485/27584853526.20220328175520.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1896820/18968201200.20210325162750.jpg</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>189000</t>
+          <t>239000</t>
         </is>
       </c>
       <c r="F97" t="inlineStr"/>
@@ -5976,12 +5976,12 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>유디아</t>
+          <t>인터픽셀</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>제이씨현시스템</t>
+          <t>인터픽셀</t>
         </is>
       </c>
       <c r="K97" t="inlineStr">
@@ -6003,22 +6003,22 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>한성컴퓨터 TFG27Q14P 144</t>
+          <t>한성컴퓨터 TFX173PB</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27327723522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=28175063522</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2732772/27327723522.20210527095004.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2817506/28175063522.20210727143057.jpg</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>329000</t>
+          <t>409000</t>
         </is>
       </c>
       <c r="F98" t="inlineStr"/>
@@ -6061,22 +6061,22 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>한성컴퓨터 TFG32F16FB</t>
+          <t>한성컴퓨터 TFG29F07WP IPS 울트라와이드</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=32050811618</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=29125693586</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3205081/32050811618.20220427144825.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2912569/29125693586.20211006161419.jpg</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>249000</t>
+          <t>229000</t>
         </is>
       </c>
       <c r="F99" t="inlineStr"/>
@@ -6119,22 +6119,22 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>한성컴퓨터 TFX173PB</t>
+          <t>LG전자 27TQ615SP</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=28175063522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=32672526618</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2817506/28175063522.20210727143057.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3267252/32672526618.20220531094913.jpg</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>409000</t>
+          <t>348900</t>
         </is>
       </c>
       <c r="F100" t="inlineStr"/>
@@ -6150,12 +6150,12 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K100" t="inlineStr">
@@ -6177,22 +6177,22 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>인터픽셀 IP2740 게이밍 165</t>
+          <t>한성컴퓨터 ULTRON 4977SUC 퀀텀닷 144 울트라와이드 게이밍</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=18968201200</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=15557466064</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1896820/18968201200.20210325162750.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1555746/15557466064.20211110103542.jpg</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>239000</t>
+          <t>749000</t>
         </is>
       </c>
       <c r="F101" t="inlineStr"/>
@@ -6208,12 +6208,12 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>인터픽셀</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>인터픽셀</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="K101" t="inlineStr">

--- a/output.xlsx
+++ b/output.xlsx
@@ -512,7 +512,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>169000</t>
+          <t>168900</t>
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
@@ -555,22 +555,22 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>LG전자 32QN650</t>
+          <t>삼성전자 삼성 F27T350</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=23692201495</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=23996451524</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2369220/23692201495.20210406132235.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2399645/23996451524.20210302142600.jpg</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>388890</t>
+          <t>199000</t>
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
@@ -586,12 +586,12 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>삼성</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -613,22 +613,22 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>삼성전자 오디세이 G5 C27G54T</t>
+          <t>삼성전자 삼성 커브드 C27R502 베젤리스 프리싱크</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=23896119522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=20189888243</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2389611/23896119522.20210302142506.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2018988/20189888243.20220519143818.jpg</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>325950</t>
+          <t>209000</t>
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
@@ -644,7 +644,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>오디세이</t>
+          <t>삼성</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -671,22 +671,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>삼성전자 삼성 F27T350</t>
+          <t>삼성전자 오디세이 G5 C27G54T</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=23996451524</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=23896119522</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2399645/23996451524.20210302142600.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2389611/23896119522.20210302142506.jpg</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>199000</t>
+          <t>336590</t>
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
@@ -702,7 +702,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>삼성</t>
+          <t>오디세이</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -729,22 +729,22 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>삼성전자 스마트모니터 M7 S43BM700</t>
+          <t>LG전자 27MK430H</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=31889649618</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=15183175543</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3188964/31889649618.20220418150602.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1518317/15183175543.20200824151717.jpg</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>505000</t>
+          <t>198900</t>
         </is>
       </c>
       <c r="F7" t="inlineStr"/>
@@ -760,12 +760,12 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>스마트모니터</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -787,22 +787,22 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>삼성전자 삼성 커브드 C27R502 베젤리스 프리싱크</t>
+          <t>한성컴퓨터 ULTRON 2760G 리얼 144</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=20189888243</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=15020041438</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2018988/20189888243.20220519143818.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1502004/15020041438.20220429112257.jpg</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>209000</t>
+          <t>199000</t>
         </is>
       </c>
       <c r="F8" t="inlineStr"/>
@@ -818,12 +818,12 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>삼성</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -845,22 +845,22 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>LG전자 27MK430H</t>
+          <t>LG전자 32QN650</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=15183175543</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=23692201495</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1518317/15183175543.20200824151717.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2369220/23692201495.20210406132235.jpg</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>198900</t>
+          <t>388890</t>
         </is>
       </c>
       <c r="F9" t="inlineStr"/>
@@ -903,17 +903,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>한성컴퓨터 ULTRON 2760G 리얼 144</t>
+          <t>한성컴퓨터 TFG27F16V 1500R 리얼 165 게이밍</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=15020041438</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=18797620615</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1502004/15020041438.20220429112257.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1879762/18797620615.20201230122720.jpg</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -961,22 +961,22 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>한성컴퓨터 ULTRON 2460G 리얼 144 게이밍</t>
+          <t>삼성전자 스마트모니터 M7 S43BM700</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=20471652225</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=31889649618</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2047165/20471652225.20220425114215.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3188964/31889649618.20220418150602.jpg</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>159000</t>
+          <t>578000</t>
         </is>
       </c>
       <c r="F11" t="inlineStr"/>
@@ -992,12 +992,12 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>스마트모니터</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -1019,22 +1019,22 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>삼성전자 스마트모니터 M5 S32BM501</t>
+          <t>삼성전자 오디세이 G3 S27AG300 144</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=31799436618</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27535066522</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3179943/31799436618.20220413103106.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2753506/27535066522.20210611135052.jpg</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>325000</t>
+          <t>269000</t>
         </is>
       </c>
       <c r="F12" t="inlineStr"/>
@@ -1050,7 +1050,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>스마트모니터</t>
+          <t>오디세이</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -1077,22 +1077,22 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>필립스 271E1 프리싱크 75 시력보호 제로베젤</t>
+          <t>삼성전자 삼성 S24R350 베젤리스 프리싱크 75</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=21496753758</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=20861526783</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2149675/21496753758.20200221173844.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2086152/20861526783.20210302142419.jpg</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>199000</t>
+          <t>164990</t>
         </is>
       </c>
       <c r="F13" t="inlineStr"/>
@@ -1108,12 +1108,12 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>필립스</t>
+          <t>삼성</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>필립스</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -1135,22 +1135,22 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>삼성전자 삼성 F24T350</t>
+          <t>필립스 271E1 프리싱크 75 시력보호 제로베젤</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24007197522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=21496753758</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2400719/24007197522.20210302142445.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2149675/21496753758.20200221173844.jpg</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>175000</t>
+          <t>199000</t>
         </is>
       </c>
       <c r="F14" t="inlineStr"/>
@@ -1166,12 +1166,12 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>삼성</t>
+          <t>필립스</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>필립스</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -1193,22 +1193,22 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>삼성전자 삼성 C32R500F</t>
+          <t>벤큐 GW2780 아이케어</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=22483121542</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=11846746201</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2248312/22483121542.20220519144103.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1184674/11846746201.20220318094817.jpg</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>264000</t>
+          <t>209000</t>
         </is>
       </c>
       <c r="F15" t="inlineStr"/>
@@ -1224,12 +1224,12 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>삼성</t>
+          <t>벤큐</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>벤큐</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -1251,22 +1251,22 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>삼성전자 삼성 S24R350 베젤리스 프리싱크 75</t>
+          <t>삼성전자 삼성 F24T350</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=20861526783</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24007197522</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2086152/20861526783.20210302142419.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2400719/24007197522.20210302142445.jpg</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>179990</t>
+          <t>175000</t>
         </is>
       </c>
       <c r="F16" t="inlineStr"/>
@@ -1309,22 +1309,22 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>한성컴퓨터 TFG27F16V 1500R 리얼 165 게이밍</t>
+          <t>삼성전자 삼성 C32R500F</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=18797620615</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=22483121542</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1879762/18797620615.20201230122720.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2248312/22483121542.20220519144103.jpg</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>199000</t>
+          <t>264000</t>
         </is>
       </c>
       <c r="F17" t="inlineStr"/>
@@ -1340,12 +1340,12 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>삼성</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -1425,22 +1425,22 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>삼성전자 오디세이 G3 S27AG300 144</t>
+          <t>한성컴퓨터 TFG32Q07P 75</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27535066522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=28655748554</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2753506/27535066522.20210611135052.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2865574/28655748554.20210831152013.jpg</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>269000</t>
+          <t>249000</t>
         </is>
       </c>
       <c r="F19" t="inlineStr"/>
@@ -1456,12 +1456,12 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>오디세이</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
@@ -1541,22 +1541,22 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>한성컴퓨터 TFG32Q07P 75</t>
+          <t>LG전자 울트라기어 27GN650</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=28655748554</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=25413919522</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2865574/28655748554.20210831152013.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2541391/25413919522.20220125134231.jpg</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>249000</t>
+          <t>368900</t>
         </is>
       </c>
       <c r="F21" t="inlineStr"/>
@@ -1572,12 +1572,12 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>울트라기어</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -1599,22 +1599,22 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>한성컴퓨터 TFX32U06V 4K HDR 1500R 커브드</t>
+          <t>삼성전자 스마트모니터 M7 S32BM701</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=20942220356</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=31605413618</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2094222/20942220356.20210630112723.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3160541/31605413618.20220404134022.jpg</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>299000</t>
+          <t>499000</t>
         </is>
       </c>
       <c r="F22" t="inlineStr"/>
@@ -1630,12 +1630,12 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>스마트모니터</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
@@ -1657,22 +1657,22 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>벤큐 GW2780 아이케어</t>
+          <t>LG전자 울트라HD 32UN650</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=11846746201</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24635274522</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1184674/11846746201.20220318094817.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2463527/24635274522.20210405173537.jpg</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>209000</t>
+          <t>527040</t>
         </is>
       </c>
       <c r="F23" t="inlineStr"/>
@@ -1688,12 +1688,12 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>벤큐</t>
+          <t>울트라HD</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>벤큐</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -1715,22 +1715,22 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>한성컴퓨터 TFX156T DEX 포터블 HDR</t>
+          <t>한성컴퓨터 ULTRON 2460G 리얼 144 게이밍</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=21936337549</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=20471652225</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2193633/21936337549.20200428094649.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2047165/20471652225.20220425114215.jpg</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>269000</t>
+          <t>159000</t>
         </is>
       </c>
       <c r="F24" t="inlineStr"/>
@@ -1773,22 +1773,22 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>한성컴퓨터 ULTRON 2435V 프리싱크 리얼75</t>
+          <t>LG전자 울트라HD 27UL550</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=13487979407</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=19298157033</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1348797/13487979407.20220404172708.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1929815/19298157033.20200824143609.jpg</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>129000</t>
+          <t>398900</t>
         </is>
       </c>
       <c r="F25" t="inlineStr"/>
@@ -1804,12 +1804,12 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>울트라HD</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -1831,22 +1831,22 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>LG전자 울트라기어 27GN650</t>
+          <t>LG전자 32MN500MW</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=25413919522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=22764052560</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2541391/25413919522.20220125134231.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2276405/22764052560.20200824151306.jpg</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>368900</t>
+          <t>258900</t>
         </is>
       </c>
       <c r="F26" t="inlineStr"/>
@@ -1862,7 +1862,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>울트라기어</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1889,22 +1889,22 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>삼성전자 스마트모니터 M7 S32BM701</t>
+          <t>한성컴퓨터 TFX32U06V 4K HDR 1500R 커브드</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=31605413618</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=20942220356</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3160541/31605413618.20220404134022.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2094222/20942220356.20210630112723.jpg</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>499000</t>
+          <t>299000</t>
         </is>
       </c>
       <c r="F27" t="inlineStr"/>
@@ -1920,12 +1920,12 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>스마트모니터</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -1947,22 +1947,22 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>LG전자 울트라HD 27UL550</t>
+          <t>벤큐 XL2411K</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=19298157033</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24196764522</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1929815/19298157033.20200824143609.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2419676/24196764522.20220311173519.jpg</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>399000</t>
+          <t>279000</t>
         </is>
       </c>
       <c r="F28" t="inlineStr"/>
@@ -1978,12 +1978,12 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>울트라HD</t>
+          <t>벤큐</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>벤큐</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -2005,22 +2005,22 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>LG전자 울트라HD 32UN650</t>
+          <t>삼성전자 스마트모니터 M5 S32BM501</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24635274522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=31799436618</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2463527/24635274522.20210405173537.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3179943/31799436618.20220413103106.jpg</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>548900</t>
+          <t>325000</t>
         </is>
       </c>
       <c r="F29" t="inlineStr"/>
@@ -2036,12 +2036,12 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>울트라HD</t>
+          <t>스마트모니터</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
@@ -2063,22 +2063,22 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>삼성전자 스마트모니터 M7 S32BM700</t>
+          <t>한성컴퓨터 TFX156T DEX 포터블 HDR</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=31605356618</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=21936337549</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3160535/31605356618.20220404132823.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2193633/21936337549.20200428094649.jpg</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>479000</t>
+          <t>269000</t>
         </is>
       </c>
       <c r="F30" t="inlineStr"/>
@@ -2094,12 +2094,12 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>스마트모니터</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
@@ -2121,22 +2121,22 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>벤큐 GW2480 아이케어 무결점</t>
+          <t>벤큐 XL2546K</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=11846842637</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24235203522</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1184684/11846842637.20220318094758.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2423520/24235203522.20220311173812.jpg</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>169000</t>
+          <t>699000</t>
         </is>
       </c>
       <c r="F31" t="inlineStr"/>
@@ -2179,43 +2179,43 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>벤큐 XL2411K</t>
+          <t>삼성전자 24인치 모니터 슬림베젤 LS24R35AFHKX/KR 가정용 사무용 컴퓨터모니터</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24196764522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=84111077002</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2419676/24196764522.20220311173519.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8411107/84111077002.3.jpg</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>279000</t>
+          <t>154000</t>
         </is>
       </c>
       <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr">
         <is>
-          <t>네이버</t>
+          <t>온라인파트너</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 상품</t>
+          <t>일반 - 가격비교 비매칭 일반상품</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>벤큐</t>
+          <t>삼성</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>벤큐</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
@@ -2237,43 +2237,43 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>삼성전자 24인치 모니터 슬림베젤 LS24R35AFHKX/KR 가정용 사무용 컴퓨터모니터</t>
+          <t>한성컴퓨터 ULTRON 2435V 프리싱크 리얼75</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=84111077002</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=13487979407</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8411107/84111077002.3.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1348797/13487979407.20220404172708.jpg</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>154000</t>
+          <t>129000</t>
         </is>
       </c>
       <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr">
         <is>
-          <t>온라인파트너</t>
+          <t>네이버</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 비매칭 일반상품</t>
+          <t>일반 - 가격비교 상품</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>삼성</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
@@ -2295,22 +2295,22 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>LG전자 32MN500MW</t>
+          <t>한성컴퓨터 ULTRON 3278 QHD New</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=22764052560</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=16776093488</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2276405/22764052560.20200824151306.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1677609/16776093488.20200424094717.jpg</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>258900</t>
+          <t>249000</t>
         </is>
       </c>
       <c r="F34" t="inlineStr"/>
@@ -2326,12 +2326,12 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
@@ -2353,22 +2353,22 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>한성컴퓨터 TFG27F14P IPS 144</t>
+          <t>삼성전자 스마트모니터 M7 S32BM700</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=23258436490</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=31605356618</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2325843/23258436490.20200624161211.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3160535/31605356618.20220404132823.jpg</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>229000</t>
+          <t>479000</t>
         </is>
       </c>
       <c r="F35" t="inlineStr"/>
@@ -2384,12 +2384,12 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>스마트모니터</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
@@ -2411,22 +2411,22 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>삼성전자 오디세이 G5 C32G54T</t>
+          <t>한성컴퓨터 TFG27F14P IPS 144</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=23896004523</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=23258436490</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2389600/23896004523.20210203132926.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2325843/23258436490.20200624161211.jpg</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>384000</t>
+          <t>229000</t>
         </is>
       </c>
       <c r="F36" t="inlineStr"/>
@@ -2442,12 +2442,12 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>오디세이</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
@@ -2469,22 +2469,22 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>한성컴퓨터 TFG27Q14F QHD 평면 144 게이밍</t>
+          <t>LG전자 27QN600</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24509574524</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=23849172522</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2450957/24509574524.20201022114639.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2384917/23849172522.20210406141920.jpg</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>249000</t>
+          <t>318900</t>
         </is>
       </c>
       <c r="F37" t="inlineStr"/>
@@ -2500,12 +2500,12 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
@@ -2527,22 +2527,22 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>LG전자 LG그램 그램+뷰 16MQ70</t>
+          <t>벤큐 GW2480 아이케어 무결점</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=30377313618</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=11846842637</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3037731/30377313618.20211231144328.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1184684/11846842637.20220318094758.jpg</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>377500</t>
+          <t>169000</t>
         </is>
       </c>
       <c r="F38" t="inlineStr"/>
@@ -2558,12 +2558,12 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>LG그램</t>
+          <t>벤큐</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>벤큐</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
@@ -2585,22 +2585,22 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>MSI 옵틱스 G271 게이밍 144 아이세이버</t>
+          <t>삼성전자 오디세이 G5 C32G54T</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=22435637800</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=23896004523</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2243563/22435637800.20201111111336.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2389600/23896004523.20210203132926.jpg</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>229000</t>
+          <t>384000</t>
         </is>
       </c>
       <c r="F39" t="inlineStr"/>
@@ -2616,12 +2616,12 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>MSI</t>
+          <t>오디세이</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>MSI</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
@@ -2643,22 +2643,22 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>LG전자 27TN600S</t>
+          <t>삼성전자 삼성 S27R350</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=21745903830</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=21775935202</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2174590/21745903830.20200824150453.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2177593/21775935202.20210203132859.jpg</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>295930</t>
+          <t>219000</t>
         </is>
       </c>
       <c r="F40" t="inlineStr"/>
@@ -2672,10 +2672,14 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I40" t="inlineStr"/>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>삼성</t>
+        </is>
+      </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
@@ -2697,22 +2701,22 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>한성컴퓨터 ULTRON 3278 QHD New</t>
+          <t>LG전자 27TN600S</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=16776093488</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=21745903830</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1677609/16776093488.20200424094717.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2174590/21745903830.20200824150453.jpg</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>249000</t>
+          <t>295890</t>
         </is>
       </c>
       <c r="F41" t="inlineStr"/>
@@ -2726,14 +2730,10 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I41" t="inlineStr">
-        <is>
-          <t>한성컴퓨터</t>
-        </is>
-      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
@@ -2755,22 +2755,22 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>삼성전자 삼성 S34J550</t>
+          <t>LG전자 24MP500W</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=15704895486</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=28272152554</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1570489/15704895486.20210203133054.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2827215/28272152554.20210805113756.jpg</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>379000</t>
+          <t>195900</t>
         </is>
       </c>
       <c r="F42" t="inlineStr"/>
@@ -2786,12 +2786,12 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>삼성</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
@@ -2813,22 +2813,22 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>삼성전자 오디세이 G3 S32AG320 165</t>
+          <t>LG전자 27MN430HW</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=31249283618</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=23301354490</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3124928/31249283618.20220520135135.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2330135/23301354490.20200824152000.jpg</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>318990</t>
+          <t>198900</t>
         </is>
       </c>
       <c r="F43" t="inlineStr"/>
@@ -2844,12 +2844,12 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>오디세이</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
@@ -2929,22 +2929,22 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>LG전자 울트라기어 27GP750</t>
+          <t>삼성전자 오디세이 G3 S32AG320 165</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=29060355587</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=31249283618</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2906035/29060355587.20220125134215.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3124928/31249283618.20220520135135.jpg</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>447000</t>
+          <t>318990</t>
         </is>
       </c>
       <c r="F45" t="inlineStr"/>
@@ -2960,12 +2960,12 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>울트라기어</t>
+          <t>오디세이</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
@@ -2987,22 +2987,22 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>삼성전자 오디세이 G5 G55A S27AG550 165</t>
+          <t>DELL S2721DS</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=30454173618</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24525570527</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3045417/30454173618.20220107132754.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2452557/24525570527.20201117112539.jpg</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>379000</t>
+          <t>367980</t>
         </is>
       </c>
       <c r="F46" t="inlineStr"/>
@@ -3018,12 +3018,12 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>오디세이</t>
+          <t>DELL</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>DELL</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
@@ -3045,22 +3045,22 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>한성컴퓨터 TFG27Q14V 1500R 리얼 144 게이밍</t>
+          <t>LG전자 울트라기어 27GP750</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=20812959649</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=29060355587</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2081295/20812959649.20220510105342.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2906035/29060355587.20220125134215.jpg</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>249000</t>
+          <t>448890</t>
         </is>
       </c>
       <c r="F47" t="inlineStr"/>
@@ -3076,12 +3076,12 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>울트라기어</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
@@ -3103,22 +3103,22 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>삼성전자 스마트모니터 LS32BM801UKXKR</t>
+          <t>한성컴퓨터 TFG30F20W  울트라와이드 200 게이밍</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=31160861618</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27287676522</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3116086/31160861618.20220304142910.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2728767/27287676522.20210628121550.jpg</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>627970</t>
+          <t>299000</t>
         </is>
       </c>
       <c r="F48" t="inlineStr"/>
@@ -3134,12 +3134,12 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>스마트모니터</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
@@ -3161,22 +3161,22 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>LG전자 울트라와이드 34WP500</t>
+          <t>LG전자 LG그램 그램+뷰 16MQ70</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27584005522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=30377313618</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2758400/27584005522.20210615125004.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3037731/30377313618.20211231144328.jpg</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>398900</t>
+          <t>377070</t>
         </is>
       </c>
       <c r="F49" t="inlineStr"/>
@@ -3192,7 +3192,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>울트라와이드</t>
+          <t>LG그램</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -3219,22 +3219,22 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>한성컴퓨터 TFG32F07V 1500R 커브드 게이밍 리얼 75</t>
+          <t>한성컴퓨터 TFG27Q14V 1500R 리얼 144 게이밍</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=20882835913</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=20812959649</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2088283/20882835913.20200424100013.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2081295/20812959649.20220510105342.jpg</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>199000</t>
+          <t>249000</t>
         </is>
       </c>
       <c r="F50" t="inlineStr"/>
@@ -3277,22 +3277,22 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>제이씨현시스템 유디아 EDGE ED2422NA 유케어 IPS 시력보호</t>
+          <t>삼성전자 오디세이 G5 G55A S27AG550 165</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=26452472522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=30454173618</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2645247/26452472522.20210831144424.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3045417/30454173618.20220107132754.jpg</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>134000</t>
+          <t>379000</t>
         </is>
       </c>
       <c r="F51" t="inlineStr"/>
@@ -3308,12 +3308,12 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>유디아</t>
+          <t>오디세이</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>제이씨현시스템</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
@@ -3335,22 +3335,22 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>한성컴퓨터 TFG30F20W  울트라와이드 200 게이밍</t>
+          <t>삼성전자 스마트모니터 LS32BM801UKXKR</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27287676522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=31160861618</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2728767/27287676522.20210628121550.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3116086/31160861618.20220304142910.jpg</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>299000</t>
+          <t>627990</t>
         </is>
       </c>
       <c r="F52" t="inlineStr"/>
@@ -3366,12 +3366,12 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>스마트모니터</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
@@ -3393,22 +3393,22 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>LG전자 울트라기어 32GP750 165</t>
+          <t>MSI 옵틱스 G271 게이밍 144 아이세이버</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=31658867618</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=22435637800</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3165886/31658867618.20220407173049.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2243563/22435637800.20201111111336.jpg</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>548980</t>
+          <t>229000</t>
         </is>
       </c>
       <c r="F53" t="inlineStr"/>
@@ -3424,12 +3424,12 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>울트라기어</t>
+          <t>MSI</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>MSI</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
@@ -3451,22 +3451,22 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>한성컴퓨터 TFG24F14V 1200R커브드 게이밍 리얼 144</t>
+          <t>한성컴퓨터 TFG27Q14F QHD 평면 144 게이밍</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=21032801916</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24509574524</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2103280/21032801916.20220407160212.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2450957/24509574524.20201022114639.jpg</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>159000</t>
+          <t>249000</t>
         </is>
       </c>
       <c r="F54" t="inlineStr"/>
@@ -3509,22 +3509,22 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>벤큐 XL2546K</t>
+          <t>제이씨현시스템 유디아 EDGE ED2422NA 유케어 IPS 시력보호</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24235203522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=26452472522</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2423520/24235203522.20220311173812.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2645247/26452472522.20210831144424.jpg</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>699000</t>
+          <t>134000</t>
         </is>
       </c>
       <c r="F55" t="inlineStr"/>
@@ -3540,12 +3540,12 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>벤큐</t>
+          <t>유디아</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>벤큐</t>
+          <t>제이씨현시스템</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
@@ -3567,22 +3567,22 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>벤큐 모비우스 EX2710S</t>
+          <t>한성컴퓨터 TFG32F24V 240</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27862189523</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=28162745522</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2786218/27862189523.20220311174737.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2816274/28162745522.20210726183542.jpg</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>339000</t>
+          <t>299000</t>
         </is>
       </c>
       <c r="F56" t="inlineStr"/>
@@ -3598,12 +3598,12 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>벤큐</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>벤큐</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
@@ -3625,22 +3625,22 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>제우스랩 알파플랜 P15A 포터블</t>
+          <t>한성컴퓨터 TFG32F07V 1500R 커브드 게이밍 리얼 75</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=20651265453</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=20882835913</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2065126/20651265453.20210726174943.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2088283/20882835913.20200424100013.jpg</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>175000</t>
+          <t>199000</t>
         </is>
       </c>
       <c r="F57" t="inlineStr"/>
@@ -3656,12 +3656,12 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>알파플랜</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>제우스랩</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
@@ -3683,22 +3683,22 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>삼성전자 삼성 S27R350</t>
+          <t>알파스캔 AOC Q32V3S 75 무결점</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=21775935202</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=26013420522</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2177593/21775935202.20210203132859.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2601342/26013420522.20220211140907.jpg</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>219000</t>
+          <t>319000</t>
         </is>
       </c>
       <c r="F58" t="inlineStr"/>
@@ -3714,12 +3714,12 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>삼성</t>
+          <t>알파스캔</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>알파스캔</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
@@ -3741,22 +3741,22 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>LG전자 24MP500W</t>
+          <t>제우스랩 알파플랜 P15A 포터블</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=28272152554</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=20651265453</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2827215/28272152554.20210805113756.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2065126/20651265453.20210726174943.jpg</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>195900</t>
+          <t>175000</t>
         </is>
       </c>
       <c r="F59" t="inlineStr"/>
@@ -3772,12 +3772,12 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>알파플랜</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>제우스랩</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
@@ -3799,22 +3799,22 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>LG전자 27MN430HW</t>
+          <t>삼성전자 삼성 S34J550</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=23301354490</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=15704895486</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2330135/23301354490.20200824152000.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1570489/15704895486.20210203133054.jpg</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>198900</t>
+          <t>379000</t>
         </is>
       </c>
       <c r="F60" t="inlineStr"/>
@@ -3830,12 +3830,12 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>삼성</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
@@ -3857,22 +3857,22 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>LG전자 27QN600</t>
+          <t>한성컴퓨터 TFG32Q14F 144</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=23849172522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24439846522</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2384917/23849172522.20210406141920.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2443984/24439846522.20201013113723.jpg</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>318900</t>
+          <t>299000</t>
         </is>
       </c>
       <c r="F61" t="inlineStr"/>
@@ -3888,12 +3888,12 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
@@ -3915,22 +3915,22 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>DELL S2721DS</t>
+          <t>LG전자 24ML600SW</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24525570527</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=19105796246</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2452557/24525570527.20201117112539.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1910579/19105796246.20200824152520.jpg</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>367980</t>
+          <t>197760</t>
         </is>
       </c>
       <c r="F62" t="inlineStr"/>
@@ -3946,12 +3946,12 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>DELL</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>DELL</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
@@ -3973,22 +3973,22 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>삼성전자 오디세이 Neo G8 S32BG850</t>
+          <t>LG전자 24MK600M</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=33092648618</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=14556210024</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3309264/33092648618.20220623100048.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1455621/14556210024.20210406134738.jpg</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>1390000</t>
+          <t>200900</t>
         </is>
       </c>
       <c r="F63" t="inlineStr"/>
@@ -4004,12 +4004,12 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>오디세이</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
@@ -4031,22 +4031,22 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>한성컴퓨터 TFX173T DEX 포터블 HDR</t>
+          <t>LG전자 24MN430HW</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=21936338223</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=23244797490</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2193633/21936338223.20200428094731.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2324479/23244797490.20220311131641.jpg</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>379000</t>
+          <t>166900</t>
         </is>
       </c>
       <c r="F64" t="inlineStr"/>
@@ -4062,12 +4062,12 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
@@ -4089,22 +4089,22 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>삼성전자 삼성 S27B610 75</t>
+          <t>LG전자 울트라HD 32UN880</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=31531820618</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24554243522</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3153182/31531820618.20220330101749.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2455424/24554243522.20210406130449.jpg</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>319000</t>
+          <t>768900</t>
         </is>
       </c>
       <c r="F65" t="inlineStr"/>
@@ -4120,12 +4120,12 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>삼성</t>
+          <t>울트라HD</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
@@ -4147,22 +4147,22 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>한성컴퓨터 TFG32Q14F 144</t>
+          <t>삼성전자 삼성 U32J590</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24439846522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=14306268525</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2443984/24439846522.20201013113723.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1430626/14306268525.20210203133511.jpg</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>299000</t>
+          <t>367000</t>
         </is>
       </c>
       <c r="F66" t="inlineStr"/>
@@ -4178,12 +4178,12 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>삼성</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
@@ -4205,22 +4205,22 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>LG전자 24ML600SW</t>
+          <t>한성컴퓨터 TFG34Q14WQ 퀀텀닷 1500R 리얼 144 울트라와이드 게이밍</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=19105796246</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=22312278223</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1910579/19105796246.20200824152520.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2231227/22312278223.20220215171608.jpg</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>201000</t>
+          <t>429000</t>
         </is>
       </c>
       <c r="F67" t="inlineStr"/>
@@ -4236,12 +4236,12 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
@@ -4263,22 +4263,22 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>LG전자 24MN430HW</t>
+          <t>벤큐 모비우스 EX2710S</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=23244797490</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27862189523</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2324479/23244797490.20220311131641.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2786218/27862189523.20220311174737.jpg</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>166900</t>
+          <t>339000</t>
         </is>
       </c>
       <c r="F68" t="inlineStr"/>
@@ -4294,12 +4294,12 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>벤큐</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>벤큐</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
@@ -4321,22 +4321,22 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>LG전자 24MK600M</t>
+          <t>삼성전자 오디세이 Neo G8 S32BG850</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=14556210024</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=33092648618</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1455621/14556210024.20210406134738.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3309264/33092648618.20220623100048.jpg</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>200900</t>
+          <t>1390000</t>
         </is>
       </c>
       <c r="F69" t="inlineStr"/>
@@ -4352,12 +4352,12 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>오디세이</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
@@ -4379,22 +4379,22 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>LG전자 27TQ600SW</t>
+          <t>한성컴퓨터 TFG24F14V 1200R커브드 게이밍 리얼 144</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=32982708620</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=21032801916</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3298270/32982708620.20220616144209.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2103280/21032801916.20220407160212.jpg</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>426790</t>
+          <t>159000</t>
         </is>
       </c>
       <c r="F70" t="inlineStr"/>
@@ -4410,12 +4410,12 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
@@ -4437,22 +4437,22 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>벤큐 PD2700Q 아이케어</t>
+          <t>삼성전자 삼성 S27B610 75</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=11415441270</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=31531820618</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1141544/11415441270.20220328145818.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3153182/31531820618.20220330101749.jpg</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>399000</t>
+          <t>319000</t>
         </is>
       </c>
       <c r="F71" t="inlineStr"/>
@@ -4468,12 +4468,12 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>벤큐</t>
+          <t>삼성</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>벤큐</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
@@ -4495,22 +4495,22 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>한성컴퓨터 TFX156T PRO DEX 포터블 400cd 멀티터치</t>
+          <t>한성컴퓨터 TFG27Q14P 144</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=26158967522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27327723522</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2615896/26158967522.20210226123516.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2732772/27327723522.20210527095004.jpg</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>279000</t>
+          <t>329000</t>
         </is>
       </c>
       <c r="F72" t="inlineStr"/>
@@ -4553,22 +4553,22 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>한성컴퓨터 TFG32F14F 144</t>
+          <t>벤큐 PD2700Q 아이케어</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24380347522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=11415441270</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2438034/24380347522.20201007114746.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1141544/11415441270.20220328145818.jpg</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>249000</t>
+          <t>399000</t>
         </is>
       </c>
       <c r="F73" t="inlineStr"/>
@@ -4584,12 +4584,12 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>벤큐</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>벤큐</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
@@ -4611,22 +4611,22 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>삼성전자 삼성 S6 S34A650U 100</t>
+          <t>LG전자 울트라기어 32GP750 165</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=26393243522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=31658867618</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2639324/26393243522.20210317135044.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3165886/31658867618.20220407173049.jpg</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>536000</t>
+          <t>548980</t>
         </is>
       </c>
       <c r="F74" t="inlineStr"/>
@@ -4642,12 +4642,12 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>삼성</t>
+          <t>울트라기어</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
@@ -4669,22 +4669,22 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>한성컴퓨터 TFG32F24V 240</t>
+          <t>한성컴퓨터 TFG32F14F 144</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=28162745522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24380347522</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2816274/28162745522.20210726183542.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2438034/24380347522.20201007114746.jpg</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>299000</t>
+          <t>249000</t>
         </is>
       </c>
       <c r="F75" t="inlineStr"/>
@@ -4727,22 +4727,22 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>한성컴퓨터 TFG27Q14P 144</t>
+          <t>삼성전자 삼성 S6 S34A650U 100</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27327723522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=26393243522</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2732772/27327723522.20210527095004.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2639324/26393243522.20210317135044.jpg</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>329000</t>
+          <t>536000</t>
         </is>
       </c>
       <c r="F76" t="inlineStr"/>
@@ -4758,12 +4758,12 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>삼성</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
@@ -4785,22 +4785,22 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>한성컴퓨터 TFX133T DEX 포터블 HDR</t>
+          <t>삼성전자 오디세이 G5 C34G55T 165</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=21918294654</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=25744041522</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2191829/21918294654.20200428094627.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2574404/25744041522.20210324143655.jpg</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>229000</t>
+          <t>511730</t>
         </is>
       </c>
       <c r="F77" t="inlineStr"/>
@@ -4816,12 +4816,12 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>오디세이</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
@@ -4843,22 +4843,22 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>삼성전자 삼성 U32J590</t>
+          <t>LG전자 울트라와이드 34WP500</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=14306268525</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27584005522</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1430626/14306268525.20210203133511.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2758400/27584005522.20210615125004.jpg</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>367000</t>
+          <t>398900</t>
         </is>
       </c>
       <c r="F78" t="inlineStr"/>
@@ -4874,12 +4874,12 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>삼성</t>
+          <t>울트라와이드</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
@@ -4916,7 +4916,7 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>299000</t>
+          <t>294000</t>
         </is>
       </c>
       <c r="F79" t="inlineStr"/>
@@ -4959,22 +4959,22 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>LG전자 울트라HD 32UN880</t>
+          <t>DELL 울트라샤프 U2722D</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24554243522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27124609522</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2455424/24554243522.20210406130449.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2712460/27124609522.20210719172836.jpg</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>768890</t>
+          <t>509000</t>
         </is>
       </c>
       <c r="F80" t="inlineStr"/>
@@ -4990,12 +4990,12 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>울트라HD</t>
+          <t>울트라샤프</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>DELL</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
@@ -5017,22 +5017,22 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>DELL 울트라샤프 U2722D</t>
+          <t>한성컴퓨터 TFX133T DEX 포터블 HDR</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27124609522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=21918294654</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2712460/27124609522.20210719172836.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2191829/21918294654.20200428094627.jpg</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>509000</t>
+          <t>229000</t>
         </is>
       </c>
       <c r="F81" t="inlineStr"/>
@@ -5048,12 +5048,12 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>울트라샤프</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>DELL</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
@@ -5075,22 +5075,22 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>삼성전자 삼성 F24T450</t>
+          <t>LG전자 울트라HD 27UP850</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24007200522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27124459522</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2400720/24007200522.20210203133027.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2712445/27124459522.20210512183326.jpg</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>218000</t>
+          <t>598900</t>
         </is>
       </c>
       <c r="F82" t="inlineStr"/>
@@ -5106,12 +5106,12 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>삼성</t>
+          <t>울트라HD</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
@@ -5133,22 +5133,22 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>알파스캔 AOC Q32V3S 75 무결점</t>
+          <t>한성컴퓨터 TFX173T DEX 포터블 HDR</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=26013420522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=21936338223</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2601342/26013420522.20220211140907.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2193633/21936338223.20200428094731.jpg</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>319000</t>
+          <t>379000</t>
         </is>
       </c>
       <c r="F83" t="inlineStr"/>
@@ -5164,12 +5164,12 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>알파스캔</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>알파스캔</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
@@ -5191,22 +5191,22 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>삼성전자 오디세이 G9 C49G95T</t>
+          <t>카멜 CM2410V</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=23255316490</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=32733425618</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2325531/23255316490.20210203133605.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3273342/32733425618.20220606091518.jpg</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>1571580</t>
+          <t>139000</t>
         </is>
       </c>
       <c r="F84" t="inlineStr"/>
@@ -5222,12 +5222,12 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>오디세이</t>
+          <t>카멜</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>카멜</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
@@ -5249,22 +5249,22 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>카멜 CM3210GQC 165</t>
+          <t>삼성전자 삼성 F24T450</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=32132104618</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24007200522</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3213210/32132104618.20220502163445.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2400720/24007200522.20210203133027.jpg</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>369000</t>
+          <t>218000</t>
         </is>
       </c>
       <c r="F85" t="inlineStr"/>
@@ -5280,12 +5280,12 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>카멜</t>
+          <t>삼성</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>카멜</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
@@ -5307,22 +5307,22 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>DELL 울트라샤프 U2720Q</t>
+          <t>한성컴퓨터 TFX156T PRO DEX 포터블 400cd 멀티터치</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=21752731630</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=26158967522</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2175273/21752731630.20200327122054.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2615896/26158967522.20210226123516.jpg</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>729000</t>
+          <t>279000</t>
         </is>
       </c>
       <c r="F86" t="inlineStr"/>
@@ -5338,12 +5338,12 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>울트라샤프</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>DELL</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
@@ -5365,22 +5365,22 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>삼성전자 오디세이 G5 C34G55T 165</t>
+          <t>카멜 CM3210GQC 165</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=25744041522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=32132104618</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2574404/25744041522.20210324143655.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3213210/32132104618.20220502163445.jpg</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>511730</t>
+          <t>369000</t>
         </is>
       </c>
       <c r="F87" t="inlineStr"/>
@@ -5396,12 +5396,12 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>오디세이</t>
+          <t>카멜</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>카멜</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
@@ -5423,22 +5423,22 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>카멜 CM2410V</t>
+          <t>삼성전자 오디세이 G9 C49G95T</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=32733425618</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=23255316490</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3273342/32733425618.20220606091518.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2325531/23255316490.20210203133605.jpg</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>139000</t>
+          <t>1571530</t>
         </is>
       </c>
       <c r="F88" t="inlineStr"/>
@@ -5454,12 +5454,12 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>카멜</t>
+          <t>오디세이</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>카멜</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
@@ -5481,22 +5481,22 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>LG전자 24MP400</t>
+          <t>LG전자 울트라와이드 34WN750</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27614392522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=23257853490</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2761439/27614392522.20210813165340.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2325785/23257853490.20200824150256.jpg</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>190900</t>
+          <t>548900</t>
         </is>
       </c>
       <c r="F89" t="inlineStr"/>
@@ -5512,7 +5512,7 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>울트라와이드</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -5539,22 +5539,22 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>삼성전자 오디세이 Neo G9 S49AG950 49인치 게이밍 모니터</t>
+          <t>LG전자 27TQ600SW</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=28288984554</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=32982708620</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2828898/28288984554.20220713164635.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3298270/32982708620.20220616144209.jpg</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>1950000</t>
+          <t>426790</t>
         </is>
       </c>
       <c r="F90" t="inlineStr"/>
@@ -5570,12 +5570,12 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>오디세이</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
@@ -5597,22 +5597,22 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>LG전자 울트라와이드 34WN750</t>
+          <t>DELL 울트라샤프 U2723QE</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=23257853490</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=31516928619</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2325785/23257853490.20200824150256.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3151692/31516928619.20220725165234.jpg</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>549000</t>
+          <t>799000</t>
         </is>
       </c>
       <c r="F91" t="inlineStr"/>
@@ -5628,12 +5628,12 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>울트라와이드</t>
+          <t>울트라샤프</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>DELL</t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
@@ -5655,22 +5655,22 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>DELL S2721HN</t>
+          <t>삼성전자 삼성 C32T550</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24539225525</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=22448790144</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2453922/24539225525.20201117112738.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2244879/22448790144.20210203133005.jpg</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>249000</t>
+          <t>299000</t>
         </is>
       </c>
       <c r="F92" t="inlineStr"/>
@@ -5686,12 +5686,12 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>DELL</t>
+          <t>삼성</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>DELL</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K92" t="inlineStr">
@@ -5713,22 +5713,22 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>삼성전자 삼성 S27A400U 75</t>
+          <t>알파스캔 AOC Q27G2S 155</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=30443345618</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24694967522</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3044334/30443345618.20220106160441.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2469496/24694967522.20210310172228.jpg</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>255000</t>
+          <t>390540</t>
         </is>
       </c>
       <c r="F93" t="inlineStr"/>
@@ -5744,12 +5744,12 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>삼성</t>
+          <t>알파스캔</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>알파스캔</t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
@@ -5771,22 +5771,22 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>LG전자 울트라기어 24GN600 144Hz</t>
+          <t>삼성전자 삼성 S27A400U 75</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=26122103522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=30443345618</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2612210/26122103522.20220124181046.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3044334/30443345618.20220106160441.jpg</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>238900</t>
+          <t>255000</t>
         </is>
       </c>
       <c r="F94" t="inlineStr"/>
@@ -5802,12 +5802,12 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>울트라기어</t>
+          <t>삼성</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K94" t="inlineStr">
@@ -5829,22 +5829,22 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>LG전자 울트라HD 27UP850</t>
+          <t>DELL 울트라샤프 U2720Q</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27124459522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=21752731630</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2712445/27124459522.20210512183326.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2175273/21752731630.20200327122054.jpg</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>598900</t>
+          <t>729000</t>
         </is>
       </c>
       <c r="F95" t="inlineStr"/>
@@ -5860,12 +5860,12 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>울트라HD</t>
+          <t>울트라샤프</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>DELL</t>
         </is>
       </c>
       <c r="K95" t="inlineStr">
@@ -5887,22 +5887,22 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>한성컴퓨터 TFG34Q14W 1500R 커브드 리얼 144 울트라와이드 게이밍</t>
+          <t>LG전자 울트라기어 24GN600 144Hz</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=29326560618</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=26122103522</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2932656/29326560618.20211021130829.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2612210/26122103522.20220124181046.jpg</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>396120</t>
+          <t>229440</t>
         </is>
       </c>
       <c r="F96" t="inlineStr"/>
@@ -5918,12 +5918,12 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>울트라기어</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K96" t="inlineStr">
@@ -5945,22 +5945,22 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>알파스캔 AOC Q27G2S 155</t>
+          <t>LG전자 24MP400</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24694967522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27614392522</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2469496/24694967522.20210310172228.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2761439/27614392522.20210813165340.jpg</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>390540</t>
+          <t>190900</t>
         </is>
       </c>
       <c r="F97" t="inlineStr"/>
@@ -5976,12 +5976,12 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>알파스캔</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>알파스캔</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K97" t="inlineStr">
@@ -6003,22 +6003,22 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>한성컴퓨터 TFG34Q14WQ 퀀텀닷 1500R 리얼 144 울트라와이드 게이밍</t>
+          <t>한성컴퓨터 ULTRON 4977SUC 퀀텀닷 144 울트라와이드 게이밍</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=22312278223</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=15557466064</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2231227/22312278223.20220215171608.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1555746/15557466064.20211110103542.jpg</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>429000</t>
+          <t>749000</t>
         </is>
       </c>
       <c r="F98" t="inlineStr"/>
@@ -6061,22 +6061,22 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>한성컴퓨터 TFG39Q14V 144</t>
+          <t>삼성전자 삼성 슈퍼 와이드 게이밍 120 DQHD C49RG90</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=26826361522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=18571615807</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2682636/26826361522.20210419161946.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1857161/18571615807.20210203133352.jpg</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>479000</t>
+          <t>1260000</t>
         </is>
       </c>
       <c r="F99" t="inlineStr"/>
@@ -6092,12 +6092,12 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>삼성</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K99" t="inlineStr">
@@ -6119,22 +6119,22 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>LG전자 27ML600SW</t>
+          <t>LG전자 32UN550</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=19105887903</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24367892525</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1910588/19105887903.20220125134154.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2436789/24367892525.20210406141630.jpg</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>258000</t>
+          <t>498900</t>
         </is>
       </c>
       <c r="F100" t="inlineStr"/>
@@ -6177,22 +6177,22 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>삼성전자 삼성 슈퍼 와이드 게이밍 120 DQHD C49RG90</t>
+          <t>한성컴퓨터 TFG39Q14V 144</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=18571615807</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=26826361522</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1857161/18571615807.20210203133352.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2682636/26826361522.20210419161946.jpg</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>1260000</t>
+          <t>479000</t>
         </is>
       </c>
       <c r="F101" t="inlineStr"/>
@@ -6208,12 +6208,12 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>삼성</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="K101" t="inlineStr">

--- a/output.xlsx
+++ b/output.xlsx
@@ -439,22 +439,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>삼성전자 삼성 커브드 C27R502 베젤리스 프리싱크</t>
+          <t>LG전자 24MK430H 24인치 FHD IPS 광시야각 모니터</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=20189888243</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=13643814149</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2018988/20189888243.20220519143818.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1364381/13643814149.20200824151155.jpg</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>209000</t>
+          <t>167900</t>
         </is>
       </c>
       <c r="F2" t="inlineStr"/>
@@ -470,12 +470,12 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>삼성</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -497,22 +497,22 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>LG전자 24MK430H 24인치 FHD IPS 광시야각 모니터</t>
+          <t>삼성전자 삼성 커브드 C27R502 베젤리스 프리싱크</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=13643814149</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=20189888243</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1364381/13643814149.20200824151155.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2018988/20189888243.20220519143818.jpg</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>167490</t>
+          <t>209000</t>
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
@@ -528,12 +528,12 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>삼성</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -613,22 +613,22 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>LG전자 32QN650</t>
+          <t>삼성전자 삼성 F27T350</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=23692201495</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=23996451524</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2369220/23692201495.20210406132235.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2399645/23996451524.20210302142600.jpg</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>351640</t>
+          <t>198000</t>
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
@@ -644,12 +644,12 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>삼성</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -671,22 +671,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>필립스 271E1 프리싱크 75 시력보호 제로베젤</t>
+          <t>LG전자 32QN650</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=21496753758</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=23692201495</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2149675/21496753758.20200221173844.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2369220/23692201495.20210406132235.jpg</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>204000</t>
+          <t>351640</t>
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
@@ -702,12 +702,12 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>필립스</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>필립스</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -729,22 +729,22 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>삼성전자 삼성 F27T350</t>
+          <t>필립스 271E1 프리싱크 75 시력보호 제로베젤</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=23996451524</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=21496753758</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2399645/23996451524.20210302142600.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2149675/21496753758.20200221173844.jpg</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>198800</t>
+          <t>204000</t>
         </is>
       </c>
       <c r="F7" t="inlineStr"/>
@@ -760,12 +760,12 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>삼성</t>
+          <t>필립스</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>필립스</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -787,22 +787,22 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>삼성전자 삼성 F24T350</t>
+          <t>벤큐 XL2411K</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24007197522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24196764522</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2400719/24007197522.20210302142445.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2419676/24196764522.20220311173519.jpg</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>175000</t>
+          <t>275670</t>
         </is>
       </c>
       <c r="F8" t="inlineStr"/>
@@ -818,12 +818,12 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>삼성</t>
+          <t>벤큐</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>벤큐</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -845,22 +845,22 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>삼성전자 삼성 C32R500F</t>
+          <t>삼성전자 오디세이 G5 C34G55T 165</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=22483121542</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=25744041522</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2248312/22483121542.20220519144103.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2574404/25744041522.20210324143655.jpg</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>261830</t>
+          <t>466480</t>
         </is>
       </c>
       <c r="F9" t="inlineStr"/>
@@ -876,7 +876,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>삼성</t>
+          <t>오디세이</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -903,22 +903,22 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>삼성전자 스마트모니터 M5 S32BM501</t>
+          <t>삼성전자 오디세이 G3 S27AG300 144</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=31799436618</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27535066522</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3179943/31799436618.20220413103106.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2753506/27535066522.20210611135052.jpg</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>324000</t>
+          <t>269000</t>
         </is>
       </c>
       <c r="F10" t="inlineStr"/>
@@ -934,7 +934,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>스마트모니터</t>
+          <t>오디세이</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -961,22 +961,22 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>삼성전자 스마트모니터 M7 S43BM700</t>
+          <t>삼성전자 삼성 C32R500F</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=31889649618</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=22483121542</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3188964/31889649618.20220418150602.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2248312/22483121542.20220519144103.jpg</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>589400</t>
+          <t>261830</t>
         </is>
       </c>
       <c r="F11" t="inlineStr"/>
@@ -992,7 +992,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>스마트모니터</t>
+          <t>삼성</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -1019,22 +1019,22 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>삼성전자 오디세이 G5 C34G55T 165</t>
+          <t>삼성전자 삼성 F24T350</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=25744041522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24007197522</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2574404/25744041522.20210324143655.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2400719/24007197522.20210302142445.jpg</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>466480</t>
+          <t>175000</t>
         </is>
       </c>
       <c r="F12" t="inlineStr"/>
@@ -1050,7 +1050,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>오디세이</t>
+          <t>삼성</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -1077,22 +1077,22 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>LG전자 27MK430H</t>
+          <t>삼성전자 스마트모니터 M5 S32BM501</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=15183175543</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=31799436618</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1518317/15183175543.20200824151717.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3179943/31799436618.20220413103106.jpg</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>194740</t>
+          <t>314990</t>
         </is>
       </c>
       <c r="F13" t="inlineStr"/>
@@ -1108,12 +1108,12 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>스마트모니터</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -1135,22 +1135,22 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>LG전자 울트라HD 27UL550</t>
+          <t>삼성전자 스마트모니터 M7 S43BM700</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=19298157033</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=31889649618</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1929815/19298157033.20221013131758.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3188964/31889649618.20220418150602.jpg</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>398900</t>
+          <t>589400</t>
         </is>
       </c>
       <c r="F14" t="inlineStr"/>
@@ -1166,12 +1166,12 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>울트라HD</t>
+          <t>스마트모니터</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -1193,22 +1193,22 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>알파스캔 U32N3C 무결점</t>
+          <t>삼성전자 오디세이 G5 C32G54T</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=29820952618</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=23896004523</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2982095/29820952618.20211124165612.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2389600/23896004523.20210203132926.jpg</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>599000</t>
+          <t>278240</t>
         </is>
       </c>
       <c r="F15" t="inlineStr"/>
@@ -1224,12 +1224,12 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>알파스캔</t>
+          <t>오디세이</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>알파스캔</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -1251,22 +1251,22 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>벤큐 XL2411K</t>
+          <t>MSI 옵틱스 G271 게이밍 144 아이세이버</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24196764522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=22435637800</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2419676/24196764522.20220311173519.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2243563/22435637800.20201111111336.jpg</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>275670</t>
+          <t>233990</t>
         </is>
       </c>
       <c r="F16" t="inlineStr"/>
@@ -1282,12 +1282,12 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>벤큐</t>
+          <t>MSI</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>벤큐</t>
+          <t>MSI</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -1309,22 +1309,22 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>삼성전자 삼성 C32T550</t>
+          <t>LG전자 27MK430H</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=22448790144</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=15183175543</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2244879/22448790144.20210203133005.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1518317/15183175543.20200824151717.jpg</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>329000</t>
+          <t>194500</t>
         </is>
       </c>
       <c r="F17" t="inlineStr"/>
@@ -1340,12 +1340,12 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>삼성</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -1367,22 +1367,22 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>MSI 옵틱스 G271 게이밍 144 아이세이버</t>
+          <t>알파스캔 U32N3C 무결점</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=22435637800</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=29820952618</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2243563/22435637800.20201111111336.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2982095/29820952618.20211124165612.jpg</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>230890</t>
+          <t>599000</t>
         </is>
       </c>
       <c r="F18" t="inlineStr"/>
@@ -1398,12 +1398,12 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>MSI</t>
+          <t>알파스캔</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>MSI</t>
+          <t>알파스캔</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -1425,22 +1425,22 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>삼성전자 스마트모니터 M7 S32BM701</t>
+          <t>LG전자 울트라HD 27UL550</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=31605413618</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=19298157033</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3160541/31605413618.20220404134022.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1929815/19298157033.20221013131758.jpg</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>499000</t>
+          <t>398880</t>
         </is>
       </c>
       <c r="F19" t="inlineStr"/>
@@ -1456,12 +1456,12 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>스마트모니터</t>
+          <t>울트라HD</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
@@ -1483,22 +1483,22 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>필립스 242M 게이밍 144 프리싱크</t>
+          <t>삼성전자 스마트모니터 M7 S32BM701</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=22678282612</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=31605413618</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2267828/22678282612.20200619144032.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3160541/31605413618.20220404134022.jpg</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>229000</t>
+          <t>499000</t>
         </is>
       </c>
       <c r="F20" t="inlineStr"/>
@@ -1514,12 +1514,12 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>필립스</t>
+          <t>스마트모니터</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>필립스</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -1541,22 +1541,22 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>삼성전자 오디세이 G3 S27AG300 144</t>
+          <t>필립스 242M 게이밍 144 프리싱크</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27535066522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=22678282612</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2753506/27535066522.20210611135052.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2267828/22678282612.20200619144032.jpg</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>269000</t>
+          <t>229000</t>
         </is>
       </c>
       <c r="F21" t="inlineStr"/>
@@ -1572,12 +1572,12 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>오디세이</t>
+          <t>필립스</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>필립스</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -1657,22 +1657,22 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>LG전자 24MK600M</t>
+          <t>벤큐 GW2780 아이케어</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=14556210024</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=11846746201</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1455621/14556210024.20210406134738.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1184674/11846746201.20220318094817.jpg</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>200800</t>
+          <t>209000</t>
         </is>
       </c>
       <c r="F23" t="inlineStr"/>
@@ -1688,12 +1688,12 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>벤큐</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>벤큐</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -1715,22 +1715,22 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>알파스캔 AOC Q32V3S 75 무결점</t>
+          <t>LG전자 24MK600M</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=26013420522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=14556210024</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2601342/26013420522.20220211140907.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1455621/14556210024.20210406134738.jpg</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>328990</t>
+          <t>200800</t>
         </is>
       </c>
       <c r="F24" t="inlineStr"/>
@@ -1746,12 +1746,12 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>알파스캔</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>알파스캔</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -1773,22 +1773,22 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>삼성전자 스마트모니터 LS32BM801UKXKR</t>
+          <t>LG전자 LG그램 그램+뷰 16MQ70</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=31160861618</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=30377313618</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3116086/31160861618.20220304142910.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3037731/30377313618.20211231144328.jpg</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>581400</t>
+          <t>379840</t>
         </is>
       </c>
       <c r="F25" t="inlineStr"/>
@@ -1804,12 +1804,12 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>스마트모니터</t>
+          <t>LG그램</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -1831,22 +1831,22 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>삼성전자 스마트모니터 M7 S32BM700</t>
+          <t>삼성전자 오디세이 Neo G8 S32BG850</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=31605356618</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=33092648618</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3160535/31605356618.20220404132823.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3309264/33092648618.20220623100048.jpg</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>488000</t>
+          <t>1390000</t>
         </is>
       </c>
       <c r="F26" t="inlineStr"/>
@@ -1862,7 +1862,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>스마트모니터</t>
+          <t>오디세이</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1947,22 +1947,22 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>삼성전자 오디세이 G5 C32G54T</t>
+          <t>삼성전자 스마트모니터 LS32BM801UKXKR</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=23896004523</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=31160861618</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2389600/23896004523.20210203132926.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3116086/31160861618.20220304142910.jpg</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>278240</t>
+          <t>545000</t>
         </is>
       </c>
       <c r="F28" t="inlineStr"/>
@@ -1978,7 +1978,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>오디세이</t>
+          <t>스마트모니터</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -2005,22 +2005,22 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>LG전자 LG그램 그램+뷰 16MQ70</t>
+          <t>LG전자 24MN430HW</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=30377313618</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=23244797490</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3037731/30377313618.20211231144328.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2324479/23244797490.20220311131641.jpg</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>379920</t>
+          <t>167900</t>
         </is>
       </c>
       <c r="F29" t="inlineStr"/>
@@ -2036,7 +2036,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>LG그램</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -2063,22 +2063,22 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>벤큐 GW2780 아이케어</t>
+          <t>알파스캔 AOC Q32V3S 75 무결점</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=11846746201</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=26013420522</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1184674/11846746201.20220318094817.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2601342/26013420522.20220211140907.jpg</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>209000</t>
+          <t>328980</t>
         </is>
       </c>
       <c r="F30" t="inlineStr"/>
@@ -2094,12 +2094,12 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>벤큐</t>
+          <t>알파스캔</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>벤큐</t>
+          <t>알파스캔</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
@@ -2121,22 +2121,22 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>LG전자 27TN600S</t>
+          <t>삼성전자 스마트모니터 M7 S32BM700</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=21745903830</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=31605356618</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2174590/21745903830.20200824150453.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3160535/31605356618.20220404132823.jpg</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>305510</t>
+          <t>488000</t>
         </is>
       </c>
       <c r="F31" t="inlineStr"/>
@@ -2150,10 +2150,14 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I31" t="inlineStr"/>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>스마트모니터</t>
+        </is>
+      </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
@@ -2175,22 +2179,22 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>LG전자 27QN600</t>
+          <t>삼성전자 스마트모니터 M5 S27AM501</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=23849172522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=26870246522</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2384917/23849172522.20210406141920.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2687024/26870246522.20210422150359.jpg</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>318800</t>
+          <t>262490</t>
         </is>
       </c>
       <c r="F32" t="inlineStr"/>
@@ -2206,12 +2210,12 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>스마트모니터</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
@@ -2233,22 +2237,22 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>알파스캔 AOC 24B2 75 무결점</t>
+          <t>LG전자 울트라기어 24GN600 144Hz</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24171105522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=26122103522</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2417110/24171105522.20210310172014.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2612210/26122103522.20220124181046.jpg</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>154000</t>
+          <t>238890</t>
         </is>
       </c>
       <c r="F33" t="inlineStr"/>
@@ -2264,12 +2268,12 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>알파스캔</t>
+          <t>울트라기어</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>알파스캔</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
@@ -2291,22 +2295,22 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>삼성전자 삼성 F24T450</t>
+          <t>삼성전자 오디세이 G5 C27G54T</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24007200522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=23896119522</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2400720/24007200522.20210203133027.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2389611/23896119522.20210302142506.jpg</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>213990</t>
+          <t>347000</t>
         </is>
       </c>
       <c r="F34" t="inlineStr"/>
@@ -2322,7 +2326,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>삼성</t>
+          <t>오디세이</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2349,22 +2353,22 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>LG전자 울트라기어 27GP750</t>
+          <t>LG전자 27TN600S</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=29060355587</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=21745903830</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2906035/29060355587.20220125134215.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2174590/21745903830.20200824150453.jpg</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>417900</t>
+          <t>305430</t>
         </is>
       </c>
       <c r="F35" t="inlineStr"/>
@@ -2378,11 +2382,7 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>울트라기어</t>
-        </is>
-      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr">
         <is>
           <t>LG전자</t>
@@ -2407,22 +2407,22 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>LG전자 울트라기어 27GN650</t>
+          <t>LG전자 울트라HD 32UN650</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=25413919522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24635274522</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2541391/25413919522.20220125134231.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2463527/24635274522.20210405173537.jpg</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>398900</t>
+          <t>538800</t>
         </is>
       </c>
       <c r="F36" t="inlineStr"/>
@@ -2438,7 +2438,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>울트라기어</t>
+          <t>울트라HD</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2465,22 +2465,22 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>LG전자 24MN430HW</t>
+          <t>삼성전자 삼성 F24T450</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=23244797490</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24007200522</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2324479/23244797490.20220311131641.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2400720/24007200522.20210203133027.jpg</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>167900</t>
+          <t>213990</t>
         </is>
       </c>
       <c r="F37" t="inlineStr"/>
@@ -2496,12 +2496,12 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>삼성</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
@@ -2523,22 +2523,22 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>삼성전자 스마트모니터 M5 S27AM501</t>
+          <t>알파스캔 AOC 24B2 75 무결점</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=26870246522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24171105522</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2687024/26870246522.20210422150359.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2417110/24171105522.20210310172014.jpg</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>262490</t>
+          <t>154000</t>
         </is>
       </c>
       <c r="F38" t="inlineStr"/>
@@ -2554,12 +2554,12 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>스마트모니터</t>
+          <t>알파스캔</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>알파스캔</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
@@ -2581,22 +2581,22 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>삼성전자 오디세이 Neo G8 S32BG850</t>
+          <t>LG전자 27QN600</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=33092648618</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=23849172522</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3309264/33092648618.20220623100048.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2384917/23849172522.20210406141920.jpg</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>1390000</t>
+          <t>318800</t>
         </is>
       </c>
       <c r="F39" t="inlineStr"/>
@@ -2612,12 +2612,12 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>오디세이</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
@@ -2639,22 +2639,22 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>LG전자 울트라기어 24GN600 144Hz</t>
+          <t>삼성전자 삼성 C32T550</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=26122103522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=22448790144</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2612210/26122103522.20220124181046.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2244879/22448790144.20210203133005.jpg</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>238890</t>
+          <t>319000</t>
         </is>
       </c>
       <c r="F40" t="inlineStr"/>
@@ -2670,12 +2670,12 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>울트라기어</t>
+          <t>삼성</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
@@ -2697,22 +2697,22 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>삼성전자 오디세이 G5 C27G54T</t>
+          <t>LG전자 울트라기어 27GP750</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=23896119522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=29060355587</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2389611/23896119522.20210302142506.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2906035/29060355587.20220125134215.jpg</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>348990</t>
+          <t>418900</t>
         </is>
       </c>
       <c r="F41" t="inlineStr"/>
@@ -2728,12 +2728,12 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>오디세이</t>
+          <t>울트라기어</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
@@ -2755,22 +2755,22 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>삼성전자 삼성 S24R350 베젤리스 프리싱크 75</t>
+          <t>LG전자 울트라기어 27GP850</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=20861526783</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=28378464554</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2086152/20861526783.20210302142419.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2837846/28378464554.20220124181029.jpg</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>178000</t>
+          <t>540500</t>
         </is>
       </c>
       <c r="F42" t="inlineStr"/>
@@ -2786,12 +2786,12 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>삼성</t>
+          <t>울트라기어</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
@@ -2813,22 +2813,22 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>삼성전자 삼성 S27R350</t>
+          <t>LG전자 울트라기어 27GN650</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=21775935202</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=25413919522</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2177593/21775935202.20210203132859.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2541391/25413919522.20220125134231.jpg</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>219000</t>
+          <t>398880</t>
         </is>
       </c>
       <c r="F43" t="inlineStr"/>
@@ -2844,12 +2844,12 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>삼성</t>
+          <t>울트라기어</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
@@ -2871,22 +2871,22 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>벤큐 GW2480 아이케어 무결점</t>
+          <t>DELL S2721DS</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=11846842637</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24525570527</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1184684/11846842637.20220318094758.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2452557/24525570527.20201117112539.jpg</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>169000</t>
+          <t>329000</t>
         </is>
       </c>
       <c r="F44" t="inlineStr"/>
@@ -2902,12 +2902,12 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>벤큐</t>
+          <t>DELL</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>벤큐</t>
+          <t>DELL</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
@@ -2929,22 +2929,22 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>LG전자 울트라HD 32UN650</t>
+          <t>삼성전자 삼성 S24R350 베젤리스 프리싱크 75</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24635274522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=20861526783</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2463527/24635274522.20210405173537.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2086152/20861526783.20210302142419.jpg</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>538800</t>
+          <t>165000</t>
         </is>
       </c>
       <c r="F45" t="inlineStr"/>
@@ -2960,12 +2960,12 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>울트라HD</t>
+          <t>삼성</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
@@ -2987,22 +2987,22 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>DELL S2721DS</t>
+          <t>삼성전자 오디세이 G9 C49G95T</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24525570527</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=23255316490</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2452557/24525570527.20201117112539.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2325531/23255316490.20210203133605.jpg</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>329000</t>
+          <t>1515850</t>
         </is>
       </c>
       <c r="F46" t="inlineStr"/>
@@ -3018,12 +3018,12 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>DELL</t>
+          <t>오디세이</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>DELL</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
@@ -3045,22 +3045,22 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>LG전자 32MN500MW</t>
+          <t>삼성전자 삼성 S27R350</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=22764052560</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=21775935202</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2276405/22764052560.20200824151306.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2177593/21775935202.20210203132859.jpg</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>258800</t>
+          <t>219000</t>
         </is>
       </c>
       <c r="F47" t="inlineStr"/>
@@ -3076,12 +3076,12 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>삼성</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
@@ -3103,22 +3103,22 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>LG전자 울트라기어 27GP850</t>
+          <t>한성컴퓨터 TFG27F16V 1500R 리얼 165 게이밍</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=28378464554</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=18797620615</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2837846/28378464554.20220124181029.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1879762/18797620615.20201230122720.jpg</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>548800</t>
+          <t>199000</t>
         </is>
       </c>
       <c r="F48" t="inlineStr"/>
@@ -3134,12 +3134,12 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>울트라기어</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
@@ -3161,22 +3161,22 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>DELL S2721HN</t>
+          <t>제우스랩 알파플랜 P15A 포터블</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24539225525</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=20651265453</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2453922/24539225525.20201117112738.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2065126/20651265453.20210726174943.jpg</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>209000</t>
+          <t>174990</t>
         </is>
       </c>
       <c r="F49" t="inlineStr"/>
@@ -3192,12 +3192,12 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>DELL</t>
+          <t>알파플랜</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>DELL</t>
+          <t>제우스랩</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
@@ -3219,22 +3219,22 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>한성컴퓨터 ULTRON 2435V 프리싱크 리얼75</t>
+          <t>벤큐 GW2480 아이케어 무결점</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=13487979407</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=11846842637</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1348797/13487979407.20220404172708.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1184684/11846842637.20220318094758.jpg</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>129000</t>
+          <t>169000</t>
         </is>
       </c>
       <c r="F50" t="inlineStr"/>
@@ -3250,12 +3250,12 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>벤큐</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>벤큐</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
@@ -3277,17 +3277,17 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>한성컴퓨터 TFG27F16V 1500R 리얼 165 게이밍</t>
+          <t>한성컴퓨터 ULTRON 2760G 리얼 144</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=18797620615</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=15020041438</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1879762/18797620615.20201230122720.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1502004/15020041438.20220429112257.jpg</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -3335,22 +3335,22 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>제우스랩 알파플랜 P15A 포터블</t>
+          <t>DELL S3221QS</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=20651265453</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=26476753526</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2065126/20651265453.20210726174943.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2647675/26476753526.20210618160037.jpg</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>174890</t>
+          <t>439000</t>
         </is>
       </c>
       <c r="F52" t="inlineStr"/>
@@ -3366,12 +3366,12 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>알파플랜</t>
+          <t>DELL</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>제우스랩</t>
+          <t>DELL</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
@@ -3393,22 +3393,22 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>ASUS VG258QR</t>
+          <t>LG전자 24ML600SW</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=18323660111</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=19105796246</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1832366/18323660111.20220930151354.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1910579/19105796246.20200824152520.jpg</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>229000</t>
+          <t>205550</t>
         </is>
       </c>
       <c r="F53" t="inlineStr"/>
@@ -3424,12 +3424,12 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>ASUS</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>ASUS</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
@@ -3451,43 +3451,43 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>알파스캔 24G2SP 165 무결점</t>
+          <t>삼성전자 24인치 LED 모니터 LS24R35AFHKXKR 광시야각 컴퓨터모니터</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=31909033618</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=83776344303</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3190903/31909033618.20220419130910.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8377634/83776344303.2.jpg</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>237150</t>
+          <t>154000</t>
         </is>
       </c>
       <c r="F54" t="inlineStr"/>
       <c r="G54" t="inlineStr">
         <is>
-          <t>네이버</t>
+          <t>삼성공식파트너 오제</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 상품</t>
+          <t>일반 - 가격비교 비매칭 일반상품</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>알파스캔</t>
+          <t>삼성</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>알파스캔</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
@@ -3509,22 +3509,22 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>LG전자 울트라기어 32GP850</t>
+          <t>ASUS VG258QR</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27405944522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=18323660111</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2740594/27405944522.20220124180945.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1832366/18323660111.20220930151354.jpg</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>698900</t>
+          <t>229000</t>
         </is>
       </c>
       <c r="F55" t="inlineStr"/>
@@ -3540,12 +3540,12 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>울트라기어</t>
+          <t>ASUS</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>ASUS</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
@@ -3567,22 +3567,22 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>삼성전자 스마트모니터 M7 S43AM700</t>
+          <t>LG전자 32MN500MW</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27215825524</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=22764052560</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2721582/27215825524.20210520173025.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2276405/22764052560.20200824151306.jpg</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>548990</t>
+          <t>258800</t>
         </is>
       </c>
       <c r="F56" t="inlineStr"/>
@@ -3598,12 +3598,12 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>스마트모니터</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
@@ -3625,22 +3625,22 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>한성컴퓨터 ULTRON 2760G 리얼 144</t>
+          <t>DELL S2721HN</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=15020041438</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24539225525</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1502004/15020041438.20220429112257.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2453922/24539225525.20201117112738.jpg</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>199000</t>
+          <t>209000</t>
         </is>
       </c>
       <c r="F57" t="inlineStr"/>
@@ -3656,12 +3656,12 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>DELL</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>DELL</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
@@ -3683,22 +3683,22 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>한성컴퓨터 TFG32F16V 1500R 리얼 165 게이밍</t>
+          <t>LG전자 울트라기어 32GP850</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=18778755031</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27405944522</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1877875/18778755031.20201230122744.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2740594/27405944522.20220124180945.jpg</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>249000</t>
+          <t>698900</t>
         </is>
       </c>
       <c r="F58" t="inlineStr"/>
@@ -3714,12 +3714,12 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>울트라기어</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
@@ -3741,22 +3741,22 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>LG전자 울트라와이드 29WP500</t>
+          <t>삼성전자 스마트모니터 M7 S43AM700</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=26886077522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27215825524</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2688607/26886077522.20210524134552.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2721582/27215825524.20210520173025.jpg</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>268990</t>
+          <t>558990</t>
         </is>
       </c>
       <c r="F59" t="inlineStr"/>
@@ -3772,12 +3772,12 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>울트라와이드</t>
+          <t>스마트모니터</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
@@ -3799,22 +3799,22 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>LG전자 24ML600SW</t>
+          <t>LG전자 울트라와이드 29WP500</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=19105796246</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=26886077522</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1910579/19105796246.20200824152520.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2688607/26886077522.20210524134552.jpg</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>205900</t>
+          <t>268990</t>
         </is>
       </c>
       <c r="F60" t="inlineStr"/>
@@ -3830,7 +3830,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>울트라와이드</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3857,22 +3857,22 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>한성컴퓨터 ULTRON 3278 QHD New</t>
+          <t>한성컴퓨터 TFX32U06V 4K HDR 1500R 커브드</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=16776093488</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=20942220356</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1677609/16776093488.20200424094717.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2094222/20942220356.20210630112723.jpg</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>249000</t>
+          <t>299000</t>
         </is>
       </c>
       <c r="F61" t="inlineStr"/>
@@ -3915,22 +3915,22 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>DELL S3221QS</t>
+          <t>한성컴퓨터 TFG32F16V 1500R 리얼 165 게이밍</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=26476753526</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=18778755031</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2647675/26476753526.20210618160037.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1877875/18778755031.20201230122744.jpg</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>439000</t>
+          <t>249000</t>
         </is>
       </c>
       <c r="F62" t="inlineStr"/>
@@ -3946,12 +3946,12 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>DELL</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>DELL</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
@@ -4031,22 +4031,22 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>인터픽셀 IP2740 게이밍 165</t>
+          <t>한성컴퓨터 ULTRON 3278 QHD New</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=18968201200</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=16776093488</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1896820/18968201200.20210325162750.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1677609/16776093488.20200424094717.jpg</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>239000</t>
+          <t>249000</t>
         </is>
       </c>
       <c r="F64" t="inlineStr"/>
@@ -4062,12 +4062,12 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>인터픽셀</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>인터픽셀</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
@@ -4089,22 +4089,22 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>LG전자 27MN430HW</t>
+          <t>인터픽셀 IP2740 게이밍 165</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=23301354490</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=18968201200</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2330135/23301354490.20200824152000.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1896820/18968201200.20210325162750.jpg</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>198900</t>
+          <t>239000</t>
         </is>
       </c>
       <c r="F65" t="inlineStr"/>
@@ -4120,12 +4120,12 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>인터픽셀</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>인터픽셀</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
@@ -4147,22 +4147,22 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>LG전자 울트라HD 32UN880</t>
+          <t>한성컴퓨터 TFG27Q14F QHD 평면 144 게이밍</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24554243522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24509574524</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2455424/24554243522.20210406130449.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2450957/24509574524.20201022114639.jpg</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>768890</t>
+          <t>269000</t>
         </is>
       </c>
       <c r="F66" t="inlineStr"/>
@@ -4178,12 +4178,12 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>울트라HD</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
@@ -4205,22 +4205,22 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>LG전자 24MP500W</t>
+          <t>알파스캔 24G2SP 165 무결점</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=28272152554</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=31909033618</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2827215/28272152554.20210805113756.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3190903/31909033618.20220419130910.jpg</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>195900</t>
+          <t>237150</t>
         </is>
       </c>
       <c r="F67" t="inlineStr"/>
@@ -4236,12 +4236,12 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>알파스캔</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>알파스캔</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
@@ -4263,22 +4263,22 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>삼성전자 삼성 M5 S27BM500</t>
+          <t>LG전자 27MN430HW</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=31910890630</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=23301354490</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3191089/31910890630.20220915143644.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2330135/23301354490.20200824152000.jpg</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>237330</t>
+          <t>198900</t>
         </is>
       </c>
       <c r="F68" t="inlineStr"/>
@@ -4294,12 +4294,12 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>삼성</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
@@ -4321,22 +4321,22 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>한성컴퓨터 TFX32U06V 4K HDR 1500R 커브드</t>
+          <t>LG전자 울트라HD 32UN880</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=20942220356</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24554243522</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2094222/20942220356.20210630112723.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2455424/24554243522.20210406130449.jpg</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>299000</t>
+          <t>768870</t>
         </is>
       </c>
       <c r="F69" t="inlineStr"/>
@@ -4352,12 +4352,12 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>울트라HD</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
@@ -4379,22 +4379,22 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>LG전자 울트라기어 32GQ850L</t>
+          <t>LG전자 24MP500W</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=33277645618</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=28272152554</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3327764/33277645618.20220704165437.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2827215/28272152554.20210805113756.jpg</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>989900</t>
+          <t>195890</t>
         </is>
       </c>
       <c r="F70" t="inlineStr"/>
@@ -4410,7 +4410,7 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>울트라기어</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -4437,22 +4437,22 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>삼성전자 오디세이 G9 C49G95T</t>
+          <t>LG전자 울트라기어 32GQ850L</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=23255316490</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=33277645618</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2325531/23255316490.20210203133605.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3327764/33277645618.20220704165437.jpg</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>1515990</t>
+          <t>989900</t>
         </is>
       </c>
       <c r="F71" t="inlineStr"/>
@@ -4468,12 +4468,12 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>오디세이</t>
+          <t>울트라기어</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
@@ -4553,22 +4553,22 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>벤큐 XL2546K</t>
+          <t>한성컴퓨터 ULTRON 2435V 프리싱크 리얼75</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24235203522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=13487979407</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2423520/24235203522.20220311173812.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1348797/13487979407.20220404172708.jpg</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>699000</t>
+          <t>129000</t>
         </is>
       </c>
       <c r="F73" t="inlineStr"/>
@@ -4584,12 +4584,12 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>벤큐</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>벤큐</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
@@ -4611,22 +4611,22 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>LG전자 27TQ600SW</t>
+          <t>벤큐 XL2546K</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=32982708620</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24235203522</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3298270/32982708620.20220616144209.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2423520/24235203522.20220311173812.jpg</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>428900</t>
+          <t>664910</t>
         </is>
       </c>
       <c r="F74" t="inlineStr"/>
@@ -4642,12 +4642,12 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>벤큐</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>벤큐</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
@@ -4669,22 +4669,22 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>삼성전자 삼성 U32J590</t>
+          <t>삼성전자 삼성 M5 S27BM500</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=14306268525</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=31910890630</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1430626/14306268525.20210203133511.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3191089/31910890630.20220915143644.jpg</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>378000</t>
+          <t>237330</t>
         </is>
       </c>
       <c r="F75" t="inlineStr"/>
@@ -4727,22 +4727,22 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>LG전자 27ML600SW</t>
+          <t>삼성전자 삼성 U32J590</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=19105887903</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=14306268525</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1910588/19105887903.20220125134154.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1430626/14306268525.20210203133511.jpg</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>262900</t>
+          <t>378000</t>
         </is>
       </c>
       <c r="F76" t="inlineStr"/>
@@ -4758,12 +4758,12 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>삼성</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
@@ -4785,22 +4785,22 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>벤큐 PD2700Q 아이케어</t>
+          <t>DELL P2422H</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=11415441270</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27490359527</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1141544/11415441270.20220328145818.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2749035/27490359527.20210830113440.jpg</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>399000</t>
+          <t>199000</t>
         </is>
       </c>
       <c r="F77" t="inlineStr"/>
@@ -4816,12 +4816,12 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>벤큐</t>
+          <t>DELL</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>벤큐</t>
+          <t>DELL</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
@@ -4843,22 +4843,22 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>LG전자 27UP850N</t>
+          <t>LG전자 27TQ600SW</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=34938247618</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=32982708620</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3493824/34938247618.20220928104044.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3298270/32982708620.20220616144209.jpg</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>597890</t>
+          <t>428000</t>
         </is>
       </c>
       <c r="F78" t="inlineStr"/>
@@ -4901,22 +4901,22 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>한성컴퓨터 TFG27Q14F QHD 평면 144 게이밍</t>
+          <t>LG전자 울트라기어 32GQ950</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24509574524</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=34106305618</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2450957/24509574524.20201022114639.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3410630/34106305618.20220816153657.jpg</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>269000</t>
+          <t>1659990</t>
         </is>
       </c>
       <c r="F79" t="inlineStr"/>
@@ -4932,12 +4932,12 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>울트라기어</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
@@ -4959,22 +4959,22 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>DELL P2422H</t>
+          <t>LG전자 울트라와이드 34WP500</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27490359527</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27584005522</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2749035/27490359527.20210830113440.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2758400/27584005522.20210615125004.jpg</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>199000</t>
+          <t>398880</t>
         </is>
       </c>
       <c r="F80" t="inlineStr"/>
@@ -4990,12 +4990,12 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>DELL</t>
+          <t>울트라와이드</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>DELL</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
@@ -5017,43 +5017,43 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>삼성전자 24인치 LED 모니터 LS24R35AFHKXKR 광시야각 컴퓨터모니터</t>
+          <t>한성컴퓨터 ULTRON 2758 프리싱크 리얼 75</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=83776344303</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=14816445651</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8377634/83776344303.2.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1481644/14816445651.20220506122800.jpg</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>154000</t>
+          <t>159000</t>
         </is>
       </c>
       <c r="F81" t="inlineStr"/>
       <c r="G81" t="inlineStr">
         <is>
-          <t>삼성공식파트너 오제</t>
+          <t>네이버</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 비매칭 일반상품</t>
+          <t>일반 - 가격비교 상품</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>삼성</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
@@ -5075,22 +5075,22 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>LG전자 울트라기어 32GQ950</t>
+          <t>벤큐 PD2700Q 아이케어</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=34106305618</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=11415441270</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3410630/34106305618.20220816153657.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1141544/11415441270.20220328145818.jpg</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>1660000</t>
+          <t>399000</t>
         </is>
       </c>
       <c r="F82" t="inlineStr"/>
@@ -5106,12 +5106,12 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>울트라기어</t>
+          <t>벤큐</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>벤큐</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
@@ -5133,22 +5133,22 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>제이씨현시스템 유디아 ED2425HS 165</t>
+          <t>LG전자 27ML600SW</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=31422570618</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=19105887903</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3142257/31422570618.20220401162552.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1910588/19105887903.20220125134154.jpg</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>143000</t>
+          <t>262900</t>
         </is>
       </c>
       <c r="F83" t="inlineStr"/>
@@ -5164,12 +5164,12 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>유디아</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>제이씨현시스템</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
@@ -5191,22 +5191,22 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>LG전자 울트라와이드 34WP500</t>
+          <t>LG전자 울트라기어 32GP750 165</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27584005522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=31658867618</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2758400/27584005522.20210615125004.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3165886/31658867618.20220407173049.jpg</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>398900</t>
+          <t>499000</t>
         </is>
       </c>
       <c r="F84" t="inlineStr"/>
@@ -5222,7 +5222,7 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>울트라와이드</t>
+          <t>울트라기어</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -5249,22 +5249,22 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>삼성전자 오디세이 G3 S24AG300 144</t>
+          <t>LG전자 27UP850N</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27534600522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=34938247618</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2753460/27534600522.20210611131536.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3493824/34938247618.20220928104044.jpg</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>237000</t>
+          <t>597890</t>
         </is>
       </c>
       <c r="F85" t="inlineStr"/>
@@ -5280,12 +5280,12 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>오디세이</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
@@ -5307,22 +5307,22 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>삼성전자 삼성 S34J550</t>
+          <t>ASUS VA24DQLB</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=15704895486</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=23257141490</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1570489/15704895486.20210203133054.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2325714/23257141490.20220930142201.jpg</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>374000</t>
+          <t>222320</t>
         </is>
       </c>
       <c r="F86" t="inlineStr"/>
@@ -5338,12 +5338,12 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>삼성</t>
+          <t>ASUS</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>ASUS</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
@@ -5365,22 +5365,22 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>LG전자 32UN550</t>
+          <t>삼성전자 오디세이 G3 S24AG300 144</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24367892525</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27534600522</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2436789/24367892525.20210406141630.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2753460/27534600522.20210611131536.jpg</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>498890</t>
+          <t>237000</t>
         </is>
       </c>
       <c r="F87" t="inlineStr"/>
@@ -5396,12 +5396,12 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>오디세이</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
@@ -5423,22 +5423,22 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>벤큐 모비우스 EX2710S</t>
+          <t>삼성전자 삼성 S34J550</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27862189523</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=15704895486</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2786218/27862189523.20220311174737.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1570489/15704895486.20210203133054.jpg</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>334920</t>
+          <t>374000</t>
         </is>
       </c>
       <c r="F88" t="inlineStr"/>
@@ -5454,12 +5454,12 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>벤큐</t>
+          <t>삼성</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>벤큐</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
@@ -5481,22 +5481,22 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>한성컴퓨터 ULTRON 2758 프리싱크 리얼 75</t>
+          <t>한성컴퓨터 TFX156T DEX 포터블 HDR</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=14816445651</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=21936337549</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1481644/14816445651.20220506122800.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2193633/21936337549.20200428094649.jpg</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>159000</t>
+          <t>289000</t>
         </is>
       </c>
       <c r="F89" t="inlineStr"/>
@@ -5539,22 +5539,22 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>LG전자 울트라기어 32GP750 165</t>
+          <t>벤큐 모비우스 EX2710S</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=31658867618</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27862189523</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3165886/31658867618.20220407173049.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2786218/27862189523.20220311174737.jpg</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>499000</t>
+          <t>338990</t>
         </is>
       </c>
       <c r="F90" t="inlineStr"/>
@@ -5570,12 +5570,12 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>울트라기어</t>
+          <t>벤큐</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>벤큐</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
@@ -5597,22 +5597,22 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>ASUS VA24DQLB</t>
+          <t>제이씨현시스템 유디아 ED2425HS 165</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=23257141490</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=31422570618</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2325714/23257141490.20220930142201.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3142257/31422570618.20220401162552.jpg</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>222320</t>
+          <t>143000</t>
         </is>
       </c>
       <c r="F91" t="inlineStr"/>
@@ -5628,12 +5628,12 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>ASUS</t>
+          <t>유디아</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>ASUS</t>
+          <t>제이씨현시스템</t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
@@ -5655,22 +5655,22 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>한성컴퓨터 TFX156T DEX 포터블 HDR</t>
+          <t>주연테크 V28UE-M</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=21936337549</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27493158522</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2193633/21936337549.20200428094649.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2749315/27493158522.20210608162022.jpg</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>289000</t>
+          <t>339000</t>
         </is>
       </c>
       <c r="F92" t="inlineStr"/>
@@ -5686,12 +5686,12 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>주연테크</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>주연테크</t>
         </is>
       </c>
       <c r="K92" t="inlineStr">
@@ -5713,22 +5713,22 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>LG전자 32MN500M</t>
+          <t>DELL 울트라샤프 U2722D</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=22565151066</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27124609522</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2256515/22565151066.20200824152704.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2712460/27124609522.20210719172836.jpg</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>258900</t>
+          <t>508000</t>
         </is>
       </c>
       <c r="F93" t="inlineStr"/>
@@ -5744,12 +5744,12 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>울트라샤프</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>DELL</t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
@@ -5771,22 +5771,22 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>DELL 울트라샤프 U2720Q</t>
+          <t>LG전자 32MN500M</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=21752731630</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=22565151066</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2175273/21752731630.20200327122054.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2256515/22565151066.20200824152704.jpg</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>729000</t>
+          <t>258900</t>
         </is>
       </c>
       <c r="F94" t="inlineStr"/>
@@ -5802,12 +5802,12 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>울트라샤프</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>DELL</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K94" t="inlineStr">
@@ -5829,22 +5829,22 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>제이씨현시스템 유디아 LOOK 320 PVA 유케어 시력보호</t>
+          <t>LG전자 32UN550</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=20236394602</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24367892525</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2023639/20236394602.20220817141534.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2436789/24367892525.20210406141630.jpg</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>196500</t>
+          <t>498890</t>
         </is>
       </c>
       <c r="F95" t="inlineStr"/>
@@ -5860,12 +5860,12 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>유디아</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>제이씨현시스템</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K95" t="inlineStr">
@@ -5887,22 +5887,22 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>DELL 울트라샤프 U2722D</t>
+          <t>DELL 울트라샤프 U2723QE</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27124609522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=31516928619</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2712460/27124609522.20210719172836.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3151692/31516928619.20220725165234.jpg</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>508000</t>
+          <t>799000</t>
         </is>
       </c>
       <c r="F96" t="inlineStr"/>
@@ -5945,22 +5945,22 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>삼성전자 스마트모니터 LS32BM702UKXKR</t>
+          <t>DELL 울트라샤프 U2720Q</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=32560555619</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=21752731630</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3256055/32560555619.20220524153039.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2175273/21752731630.20200327122054.jpg</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>419520</t>
+          <t>729000</t>
         </is>
       </c>
       <c r="F97" t="inlineStr"/>
@@ -5976,12 +5976,12 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>스마트모니터</t>
+          <t>울트라샤프</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>DELL</t>
         </is>
       </c>
       <c r="K97" t="inlineStr">
@@ -6003,22 +6003,22 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>주연테크 V28UE-M</t>
+          <t>삼성전자 스마트모니터 LS32BM702UKXKR</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27493158522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=32560555619</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2749315/27493158522.20210608162022.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3256055/32560555619.20220524153039.jpg</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>339000</t>
+          <t>419480</t>
         </is>
       </c>
       <c r="F98" t="inlineStr"/>
@@ -6034,12 +6034,12 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>주연테크</t>
+          <t>스마트모니터</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>주연테크</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K98" t="inlineStr">
@@ -6061,22 +6061,22 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>DELL 울트라샤프 U2723QE</t>
+          <t>한성컴퓨터 ULTRON 2235V 프리싱크 리얼 75</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=31516928619</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=16384522728</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3151692/31516928619.20220725165234.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1638452/16384522728.20220315162439.jpg</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>799000</t>
+          <t>109000</t>
         </is>
       </c>
       <c r="F99" t="inlineStr"/>
@@ -6092,12 +6092,12 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>울트라샤프</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>DELL</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="K99" t="inlineStr">
@@ -6119,22 +6119,22 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>한성컴퓨터 ULTRON 2235V 프리싱크 리얼 75</t>
+          <t>벤큐 EW3270U 아이케어</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=16384522728</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=14334382813</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1638452/16384522728.20220315162439.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1433438/14334382813.20220318102530.jpg</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>109000</t>
+          <t>449000</t>
         </is>
       </c>
       <c r="F100" t="inlineStr"/>
@@ -6150,12 +6150,12 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>벤큐</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>벤큐</t>
         </is>
       </c>
       <c r="K100" t="inlineStr">
@@ -6177,22 +6177,22 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>벤큐 EW3270U 아이케어</t>
+          <t>LG전자 울트라HD 43UN700</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=14334382813</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=21182463985</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1433438/14334382813.20220318102530.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2118246/21182463985.20200824143446.jpg</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>449000</t>
+          <t>748880</t>
         </is>
       </c>
       <c r="F101" t="inlineStr"/>
@@ -6208,12 +6208,12 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>벤큐</t>
+          <t>울트라HD</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>벤큐</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K101" t="inlineStr">

--- a/output.xlsx
+++ b/output.xlsx
@@ -439,22 +439,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>LG전자 24MK430H 24인치 FHD IPS 광시야각 모니터</t>
+          <t>삼성전자 삼성 커브드 C27R502 베젤리스 프리싱크</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=13643814149</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=20189888243</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1364381/13643814149.20200824151155.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2018988/20189888243.20220519143818.jpg</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>157170</t>
+          <t>205310</t>
         </is>
       </c>
       <c r="F2" t="inlineStr"/>
@@ -470,12 +470,12 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>삼성</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -497,22 +497,22 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>삼성전자 삼성 커브드 C27R502 베젤리스 프리싱크</t>
+          <t>LG전자 24MK430H 24인치 FHD IPS 광시야각 모니터</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=20189888243</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=13643814149</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2018988/20189888243.20220519143818.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1364381/13643814149.20200824151155.jpg</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>209000</t>
+          <t>167500</t>
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
@@ -528,12 +528,12 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>삼성</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -555,22 +555,22 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>삼성전자 삼성 F24T350</t>
+          <t>삼성전자 스마트모니터 M5 S32BM501</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24007197522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=31799436618</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2400719/24007197522.20210302142445.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3179943/31799436618.20220413103106.jpg</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>175000</t>
+          <t>299000</t>
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
@@ -586,7 +586,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>삼성</t>
+          <t>스마트모니터</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -671,22 +671,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>삼성전자 삼성 C32R500F</t>
+          <t>삼성전자 삼성 F27T350</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=22483121542</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=23996451524</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2248312/22483121542.20220519144103.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2399645/23996451524.20210302142600.jpg</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>264000</t>
+          <t>197890</t>
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
@@ -729,22 +729,22 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>삼성전자 삼성 F27T350</t>
+          <t>삼성전자 삼성 C32R500F</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=23996451524</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=22483121542</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2399645/23996451524.20210302142600.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2248312/22483121542.20220519144103.jpg</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>198290</t>
+          <t>264000</t>
         </is>
       </c>
       <c r="F7" t="inlineStr"/>
@@ -787,22 +787,22 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>필립스 271E1 프리싱크 75 시력보호 제로베젤</t>
+          <t>삼성전자 삼성 F24T350</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=21496753758</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24007197522</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2149675/21496753758.20200221173844.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2400719/24007197522.20210302142445.jpg</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>204000</t>
+          <t>175000</t>
         </is>
       </c>
       <c r="F8" t="inlineStr"/>
@@ -818,12 +818,12 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>필립스</t>
+          <t>삼성</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>필립스</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -845,22 +845,22 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>삼성전자 스마트모니터 M5 S32BM501</t>
+          <t>LG전자 27MK430H</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=31799436618</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=15183175543</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3179943/31799436618.20220413103106.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1518317/15183175543.20200824151717.jpg</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>299000</t>
+          <t>194000</t>
         </is>
       </c>
       <c r="F9" t="inlineStr"/>
@@ -876,12 +876,12 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>스마트모니터</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -903,22 +903,22 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>MSI 옵틱스 G271 게이밍 144 아이세이버</t>
+          <t>LG전자 32QN650</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=22435637800</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=23692201495</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2243563/22435637800.20201111111336.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2369220/23692201495.20210406132235.jpg</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>234000</t>
+          <t>355360</t>
         </is>
       </c>
       <c r="F10" t="inlineStr"/>
@@ -934,12 +934,12 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>MSI</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>MSI</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -961,22 +961,22 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>LG전자 27MK430H</t>
+          <t>필립스 271E1 프리싱크 75 시력보호 제로베젤</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=15183175543</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=21496753758</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1518317/15183175543.20200824151717.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2149675/21496753758.20200221173844.jpg</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>196090</t>
+          <t>204000</t>
         </is>
       </c>
       <c r="F11" t="inlineStr"/>
@@ -992,12 +992,12 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>필립스</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>필립스</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -1034,7 +1034,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>271250</t>
+          <t>275670</t>
         </is>
       </c>
       <c r="F12" t="inlineStr"/>
@@ -1077,22 +1077,22 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>LG전자 32QN650</t>
+          <t>알파스캔 AOC 24B2 75 무결점</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=23692201495</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24171105522</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2369220/23692201495.20210406132235.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2417110/24171105522.20210310172014.jpg</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>354000</t>
+          <t>154000</t>
         </is>
       </c>
       <c r="F13" t="inlineStr"/>
@@ -1108,12 +1108,12 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>알파스캔</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>알파스캔</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -1193,22 +1193,22 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>알파스캔 AOC 24B2 75 무결점</t>
+          <t>LG전자 울트라HD 32UN650</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24171105522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24635274522</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2417110/24171105522.20210310172014.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2463527/24635274522.20210405173537.jpg</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>154000</t>
+          <t>548880</t>
         </is>
       </c>
       <c r="F15" t="inlineStr"/>
@@ -1224,12 +1224,12 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>알파스캔</t>
+          <t>울트라HD</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>알파스캔</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -1309,22 +1309,22 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>LG전자 울트라HD 32UN650</t>
+          <t>삼성전자 스마트모니터 M7 S43BM700</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24635274522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=31889649618</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2463527/24635274522.20210405173537.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3188964/31889649618.20220418150602.jpg</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>549000</t>
+          <t>579840</t>
         </is>
       </c>
       <c r="F17" t="inlineStr"/>
@@ -1340,12 +1340,12 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>울트라HD</t>
+          <t>스마트모니터</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -1367,22 +1367,22 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>알파스캔 AOC Q32V3S 75 무결점</t>
+          <t>삼성전자 스마트모니터 LS32BM801UKXKR</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=26013420522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=31160861618</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2601342/26013420522.20220211140907.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3116086/31160861618.20220304142910.jpg</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>329000</t>
+          <t>514730</t>
         </is>
       </c>
       <c r="F18" t="inlineStr"/>
@@ -1398,12 +1398,12 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>알파스캔</t>
+          <t>스마트모니터</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>알파스캔</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -1425,22 +1425,22 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>삼성전자 오디세이 G5 C32G54T</t>
+          <t>삼성전자 오디세이 G3 S27AG300 144</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=23896004523</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27535066522</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2389600/23896004523.20210203132926.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2753506/27535066522.20210611135052.jpg</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>379430</t>
+          <t>269000</t>
         </is>
       </c>
       <c r="F19" t="inlineStr"/>
@@ -1483,22 +1483,22 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>삼성전자 스마트모니터 M7 S43BM700</t>
+          <t>MSI 옵틱스 G271 게이밍 144 아이세이버</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=31889649618</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=22435637800</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3188964/31889649618.20220418150602.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2243563/22435637800.20201111111336.jpg</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>542900</t>
+          <t>234000</t>
         </is>
       </c>
       <c r="F20" t="inlineStr"/>
@@ -1514,12 +1514,12 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>스마트모니터</t>
+          <t>MSI</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>MSI</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -1541,22 +1541,22 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>LG전자 울트라기어 27GP750</t>
+          <t>삼성전자 오디세이 G5 C32G54T</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=29060355587</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=23896004523</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2906035/29060355587.20220125134215.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2389600/23896004523.20210203132926.jpg</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>418890</t>
+          <t>379500</t>
         </is>
       </c>
       <c r="F21" t="inlineStr"/>
@@ -1572,12 +1572,12 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>울트라기어</t>
+          <t>오디세이</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -1599,22 +1599,22 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>필립스 242M 게이밍 144 프리싱크</t>
+          <t>삼성전자 삼성 S24R350 베젤리스 프리싱크 75</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=22678282612</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=20861526783</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2267828/22678282612.20200619144032.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2086152/20861526783.20210302142419.jpg</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>229000</t>
+          <t>165000</t>
         </is>
       </c>
       <c r="F22" t="inlineStr"/>
@@ -1630,12 +1630,12 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>필립스</t>
+          <t>삼성</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>필립스</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
@@ -1657,22 +1657,22 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>DELL S2721HN</t>
+          <t>알파스캔 AOC Q32V3S 75 무결점</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24539225525</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=26013420522</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2453922/24539225525.20201117112738.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2601342/26013420522.20220211140907.jpg</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>209000</t>
+          <t>329000</t>
         </is>
       </c>
       <c r="F23" t="inlineStr"/>
@@ -1688,12 +1688,12 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>DELL</t>
+          <t>알파스캔</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>DELL</t>
+          <t>알파스캔</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -1715,22 +1715,22 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>DELL S2721DS</t>
+          <t>알파스캔 AOC Q27G2S 155</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24525570527</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24694967522</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2452557/24525570527.20201117112539.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2469496/24694967522.20210310172228.jpg</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>328990</t>
+          <t>399000</t>
         </is>
       </c>
       <c r="F24" t="inlineStr"/>
@@ -1746,12 +1746,12 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>DELL</t>
+          <t>알파스캔</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>DELL</t>
+          <t>알파스캔</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -1773,22 +1773,22 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>삼성전자 스마트모니터 LS32BM801UKXKR</t>
+          <t>필립스 242M 게이밍 144 프리싱크</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=31160861618</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=22678282612</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3116086/31160861618.20220304142910.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2267828/22678282612.20200619144032.jpg</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>514730</t>
+          <t>228970</t>
         </is>
       </c>
       <c r="F25" t="inlineStr"/>
@@ -1804,12 +1804,12 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>스마트모니터</t>
+          <t>필립스</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>필립스</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -1831,22 +1831,22 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>삼성전자 삼성 F24T450</t>
+          <t>삼성전자 오디세이 G5 C34G55T 165</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24007200522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=25744041522</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2400720/24007200522.20210203133027.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2574404/25744041522.20210324143655.jpg</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>213990</t>
+          <t>507000</t>
         </is>
       </c>
       <c r="F26" t="inlineStr"/>
@@ -1862,7 +1862,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>삼성</t>
+          <t>오디세이</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1889,22 +1889,22 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>삼성전자 삼성 C32T550</t>
+          <t>DELL S2721DS</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=22448790144</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24525570527</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2244879/22448790144.20210203133005.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2452557/24525570527.20201117112539.jpg</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>319000</t>
+          <t>328980</t>
         </is>
       </c>
       <c r="F27" t="inlineStr"/>
@@ -1920,12 +1920,12 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>삼성</t>
+          <t>DELL</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>DELL</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -1947,22 +1947,22 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>LG전자 울트라기어 27GN650</t>
+          <t>DELL S2721HN</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=25413919522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24539225525</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2541391/25413919522.20220125134231.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2453922/24539225525.20201117112738.jpg</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>369000</t>
+          <t>209000</t>
         </is>
       </c>
       <c r="F28" t="inlineStr"/>
@@ -1978,12 +1978,12 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>울트라기어</t>
+          <t>DELL</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>DELL</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -2005,22 +2005,22 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>삼성전자 오디세이 G5 C34G55T 165</t>
+          <t>알파스캔 U32N3C 무결점</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=25744041522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=29820952618</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2574404/25744041522.20210324143655.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2982095/29820952618.20211124165612.jpg</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>456000</t>
+          <t>598960</t>
         </is>
       </c>
       <c r="F29" t="inlineStr"/>
@@ -2036,12 +2036,12 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>오디세이</t>
+          <t>알파스캔</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>알파스캔</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
@@ -2063,22 +2063,22 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>알파스캔 AOC Q27G2S 155</t>
+          <t>LG전자 울트라기어 24GN600 144Hz</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24694967522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=26122103522</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2469496/24694967522.20210310172228.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2612210/26122103522.20220124181046.jpg</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>399000</t>
+          <t>238900</t>
         </is>
       </c>
       <c r="F30" t="inlineStr"/>
@@ -2094,12 +2094,12 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>알파스캔</t>
+          <t>울트라기어</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>알파스캔</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
@@ -2121,22 +2121,22 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>알파스캔 U32N3C 무결점</t>
+          <t>LG전자 LG그램 그램+뷰 16MQ70</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=29820952618</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=30377313618</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2982095/29820952618.20211124165612.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3037731/30377313618.20211231144328.jpg</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>598990</t>
+          <t>379990</t>
         </is>
       </c>
       <c r="F31" t="inlineStr"/>
@@ -2152,12 +2152,12 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>알파스캔</t>
+          <t>LG그램</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>알파스캔</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
@@ -2179,22 +2179,22 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>LG전자 LG그램 그램+뷰 16MQ70</t>
+          <t>LG전자 27TN600S</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=30377313618</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=21745903830</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3037731/30377313618.20211231144328.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2174590/21745903830.20200824150453.jpg</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>379950</t>
+          <t>303780</t>
         </is>
       </c>
       <c r="F32" t="inlineStr"/>
@@ -2208,11 +2208,7 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>LG그램</t>
-        </is>
-      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr">
         <is>
           <t>LG전자</t>
@@ -2237,22 +2233,22 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>삼성전자 오디세이 G3 S27AG300 144</t>
+          <t>삼성전자 삼성 F24T450</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27535066522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24007200522</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2753506/27535066522.20210611135052.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2400720/24007200522.20210203133027.jpg</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>269000</t>
+          <t>214000</t>
         </is>
       </c>
       <c r="F33" t="inlineStr"/>
@@ -2268,7 +2264,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>오디세이</t>
+          <t>삼성</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -2295,22 +2291,22 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>LG전자 울트라기어 24GN600 144Hz</t>
+          <t>삼성전자 삼성 C32T550</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=26122103522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=22448790144</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2612210/26122103522.20220124181046.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2244879/22448790144.20210203133005.jpg</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>238900</t>
+          <t>319000</t>
         </is>
       </c>
       <c r="F34" t="inlineStr"/>
@@ -2326,12 +2322,12 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>울트라기어</t>
+          <t>삼성</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
@@ -2353,22 +2349,22 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>LG전자 24MN430HW</t>
+          <t>LG전자 울트라기어 27GP750</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=23244797490</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=29060355587</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2324479/23244797490.20220311131641.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2906035/29060355587.20220125134215.jpg</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>167900</t>
+          <t>418900</t>
         </is>
       </c>
       <c r="F35" t="inlineStr"/>
@@ -2384,7 +2380,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>울트라기어</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2411,22 +2407,22 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>LG전자 27TN600S</t>
+          <t>벤큐 GW2480 아이케어 무결점</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=21745903830</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=11846842637</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2174590/21745903830.20200824150453.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1184684/11846842637.20220318094758.jpg</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>304890</t>
+          <t>169000</t>
         </is>
       </c>
       <c r="F36" t="inlineStr"/>
@@ -2440,10 +2436,14 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I36" t="inlineStr"/>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>벤큐</t>
+        </is>
+      </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>벤큐</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
@@ -2465,22 +2465,22 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>LG전자 27QN600</t>
+          <t>제우스랩 알파플랜 P15A 포터블</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=23849172522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=20651265453</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2384917/23849172522.20210406141920.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2065126/20651265453.20210726174943.jpg</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>319000</t>
+          <t>174990</t>
         </is>
       </c>
       <c r="F37" t="inlineStr"/>
@@ -2496,12 +2496,12 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>알파플랜</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>제우스랩</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
@@ -2523,22 +2523,22 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>LG전자 울트라HD 27UL550</t>
+          <t>삼성전자 삼성 S27R350</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=19298157033</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=21775935202</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1929815/19298157033.20221013131758.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2177593/21775935202.20210203132859.jpg</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>371240</t>
+          <t>219000</t>
         </is>
       </c>
       <c r="F38" t="inlineStr"/>
@@ -2554,12 +2554,12 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>울트라HD</t>
+          <t>삼성</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
@@ -2581,22 +2581,22 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>LG전자 24MK600M</t>
+          <t>삼성전자 오디세이 G5 C27G54T</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=14556210024</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=23896119522</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1455621/14556210024.20210406134738.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2389611/23896119522.20210302142506.jpg</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>200900</t>
+          <t>329000</t>
         </is>
       </c>
       <c r="F39" t="inlineStr"/>
@@ -2612,12 +2612,12 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>오디세이</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
@@ -2639,22 +2639,22 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>제우스랩 알파플랜 P15A 포터블</t>
+          <t>삼성전자 삼성 S34J550</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=20651265453</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=15704895486</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2065126/20651265453.20210726174943.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1570489/15704895486.20210203133054.jpg</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>174990</t>
+          <t>339000</t>
         </is>
       </c>
       <c r="F40" t="inlineStr"/>
@@ -2670,12 +2670,12 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>알파플랜</t>
+          <t>삼성</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>제우스랩</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
@@ -2697,22 +2697,22 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>벤큐 GW2480 아이케어 무결점</t>
+          <t>LG전자 울트라HD 27UL550</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=11846842637</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=19298157033</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1184684/11846842637.20220318094758.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1929815/19298157033.20221013131758.jpg</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>169000</t>
+          <t>371240</t>
         </is>
       </c>
       <c r="F41" t="inlineStr"/>
@@ -2728,12 +2728,12 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>벤큐</t>
+          <t>울트라HD</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>벤큐</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
@@ -2755,22 +2755,22 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>한성컴퓨터 ULTRON 2435V 프리싱크 리얼75</t>
+          <t>LG전자 울트라기어 27GN650</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=13487979407</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=25413919522</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1348797/13487979407.20220404172708.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2541391/25413919522.20220125134231.jpg</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>129000</t>
+          <t>369000</t>
         </is>
       </c>
       <c r="F42" t="inlineStr"/>
@@ -2786,12 +2786,12 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>울트라기어</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
@@ -2813,22 +2813,22 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>삼성전자 오디세이 G5 C27G54T</t>
+          <t>LG전자 27QN600</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=23896119522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=23849172522</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2389611/23896119522.20210302142506.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2384917/23849172522.20210406141920.jpg</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>329000</t>
+          <t>319000</t>
         </is>
       </c>
       <c r="F43" t="inlineStr"/>
@@ -2844,12 +2844,12 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>오디세이</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
@@ -2871,22 +2871,22 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>한성컴퓨터 TFG27F16V 1500R 리얼 165 게이밍</t>
+          <t>LG전자 24MK600M</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=18797620615</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=14556210024</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1879762/18797620615.20201230122720.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1455621/14556210024.20210406134738.jpg</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>199000</t>
+          <t>200900</t>
         </is>
       </c>
       <c r="F44" t="inlineStr"/>
@@ -2902,12 +2902,12 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
@@ -2929,22 +2929,22 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>삼성전자 삼성 S24R350 베젤리스 프리싱크 75</t>
+          <t>LG전자 울트라기어 27GP850</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=20861526783</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=28378464554</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2086152/20861526783.20210302142419.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2837846/28378464554.20220124181029.jpg</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>165000</t>
+          <t>548900</t>
         </is>
       </c>
       <c r="F45" t="inlineStr"/>
@@ -2960,12 +2960,12 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>삼성</t>
+          <t>울트라기어</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
@@ -2987,22 +2987,22 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>삼성전자 삼성 S27R350</t>
+          <t>한성컴퓨터 ULTRON 2435V 프리싱크 리얼75</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=21775935202</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=13487979407</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2177593/21775935202.20210203132859.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1348797/13487979407.20220404172708.jpg</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>219000</t>
+          <t>129000</t>
         </is>
       </c>
       <c r="F46" t="inlineStr"/>
@@ -3018,12 +3018,12 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>삼성</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
@@ -3045,22 +3045,22 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>LG전자 32MN500MW</t>
+          <t>한성컴퓨터 ULTRON 2760G 리얼 144</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=22764052560</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=15020041438</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2276405/22764052560.20200824151306.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1502004/15020041438.20220429112257.jpg</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>258790</t>
+          <t>199000</t>
         </is>
       </c>
       <c r="F47" t="inlineStr"/>
@@ -3076,12 +3076,12 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
@@ -3103,22 +3103,22 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>LG전자 울트라기어 27GP850</t>
+          <t>삼성전자 스마트모니터 M5 S27AM501</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=28378464554</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=26870246522</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2837846/28378464554.20220124181029.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2687024/26870246522.20210422150359.jpg</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>548900</t>
+          <t>269000</t>
         </is>
       </c>
       <c r="F48" t="inlineStr"/>
@@ -3134,12 +3134,12 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>울트라기어</t>
+          <t>스마트모니터</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
@@ -3161,45 +3161,37 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>삼성전자 스마트모니터 M5 S27AM501</t>
+          <t>24인치 컴퓨터 모니터 게이밍모니터 틸트 사무용 모니터 가정용</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=26870246522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=82278580434</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2687024/26870246522.20210422150359.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8227858/82278580434.4.jpg</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>262490</t>
+          <t>109000</t>
         </is>
       </c>
       <c r="F49" t="inlineStr"/>
       <c r="G49" t="inlineStr">
         <is>
-          <t>네이버</t>
+          <t>전문대리점</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 상품</t>
-        </is>
-      </c>
-      <c r="I49" t="inlineStr">
-        <is>
-          <t>스마트모니터</t>
-        </is>
-      </c>
-      <c r="J49" t="inlineStr">
-        <is>
-          <t>삼성전자</t>
-        </is>
-      </c>
+          <t>일반 - 가격비교 비매칭 일반상품</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr">
         <is>
           <t>디지털/가전</t>
@@ -3219,22 +3211,22 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>LG전자 32MN500M</t>
+          <t>한성컴퓨터 TFG27F16V 1500R 리얼 165 게이밍</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=22565151066</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=18797620615</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2256515/22565151066.20200824152704.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1879762/18797620615.20201230122720.jpg</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>238280</t>
+          <t>199000</t>
         </is>
       </c>
       <c r="F50" t="inlineStr"/>
@@ -3250,12 +3242,12 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
@@ -3277,22 +3269,22 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>삼성전자 삼성 S34J550</t>
+          <t>벤큐 PD2700Q 아이케어</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=15704895486</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=11415441270</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1570489/15704895486.20210203133054.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1141544/11415441270.20220328145818.jpg</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>328830</t>
+          <t>399000</t>
         </is>
       </c>
       <c r="F51" t="inlineStr"/>
@@ -3308,12 +3300,12 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>삼성</t>
+          <t>벤큐</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>벤큐</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
@@ -3335,22 +3327,22 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>한성컴퓨터 ULTRON 2760G 리얼 144</t>
+          <t>삼성전자 스마트모니터 M7 S32BM700</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=15020041438</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=31605356618</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1502004/15020041438.20220429112257.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3160535/31605356618.20220404132823.jpg</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>199000</t>
+          <t>489000</t>
         </is>
       </c>
       <c r="F52" t="inlineStr"/>
@@ -3366,12 +3358,12 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>스마트모니터</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
@@ -3393,43 +3385,43 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>삼성전자 24인치 LED 모니터 LS24R35AFHKXKR 광시야각 컴퓨터모니터</t>
+          <t>DELL S3221QS</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=83776344303</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=26476753526</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8377634/83776344303.2.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2647675/26476753526.20210618160037.jpg</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>154000</t>
+          <t>439000</t>
         </is>
       </c>
       <c r="F53" t="inlineStr"/>
       <c r="G53" t="inlineStr">
         <is>
-          <t>삼성공식파트너 오제</t>
+          <t>네이버</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 비매칭 일반상품</t>
+          <t>일반 - 가격비교 상품</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>삼성</t>
+          <t>DELL</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>DELL</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
@@ -3451,43 +3443,43 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>DELL S3221QS</t>
+          <t>삼성전자 24인치 LED 모니터 LS24R35AFHKXKR 광시야각 컴퓨터모니터</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=26476753526</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=83776344303</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2647675/26476753526.20210618160037.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8377634/83776344303.2.jpg</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>439000</t>
+          <t>154000</t>
         </is>
       </c>
       <c r="F54" t="inlineStr"/>
       <c r="G54" t="inlineStr">
         <is>
-          <t>네이버</t>
+          <t>삼성공식파트너 오제</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 상품</t>
+          <t>일반 - 가격비교 비매칭 일반상품</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>DELL</t>
+          <t>삼성</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>DELL</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
@@ -3509,22 +3501,22 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>삼성전자 스마트모니터 M7 S32BM700</t>
+          <t>한성컴퓨터 ULTRON 3278 QHD New</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=31605356618</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=16776093488</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3160535/31605356618.20220404132823.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1677609/16776093488.20200424094717.jpg</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>489000</t>
+          <t>249000</t>
         </is>
       </c>
       <c r="F55" t="inlineStr"/>
@@ -3540,12 +3532,12 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>스마트모니터</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
@@ -3567,22 +3559,22 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>한성컴퓨터 ULTRON 3278 QHD New</t>
+          <t>인터픽셀 IP2740 게이밍 165</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=16776093488</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=18968201200</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1677609/16776093488.20200424094717.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1896820/18968201200.20210325162750.jpg</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>249000</t>
+          <t>239000</t>
         </is>
       </c>
       <c r="F56" t="inlineStr"/>
@@ -3598,12 +3590,12 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>인터픽셀</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>인터픽셀</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
@@ -3683,22 +3675,22 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>인터픽셀 IP2740 게이밍 165</t>
+          <t>벤큐 GW2780 아이케어</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=18968201200</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=11846746201</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1896820/18968201200.20210325162750.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1184674/11846746201.20220318094817.jpg</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>239000</t>
+          <t>204250</t>
         </is>
       </c>
       <c r="F58" t="inlineStr"/>
@@ -3714,12 +3706,12 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>인터픽셀</t>
+          <t>벤큐</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>인터픽셀</t>
+          <t>벤큐</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
@@ -3741,22 +3733,22 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>벤큐 GW2780 아이케어</t>
+          <t>LG전자 24MN430HW</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=11846746201</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=23244797490</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1184674/11846746201.20220318094817.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2324479/23244797490.20220311131641.jpg</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>201250</t>
+          <t>167900</t>
         </is>
       </c>
       <c r="F59" t="inlineStr"/>
@@ -3772,12 +3764,12 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>벤큐</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>벤큐</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
@@ -3799,22 +3791,22 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>LG전자 울트라와이드 29WP500</t>
+          <t>LG전자 32MN500M</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=26886077522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=22565151066</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2688607/26886077522.20210524134552.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2256515/22565151066.20200824152704.jpg</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>269000</t>
+          <t>258900</t>
         </is>
       </c>
       <c r="F60" t="inlineStr"/>
@@ -3830,7 +3822,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>울트라와이드</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3857,22 +3849,22 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>LG전자 울트라기어 32GP850</t>
+          <t>벤큐 XL2546K</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27405944522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24235203522</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2740594/27405944522.20220124180945.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2423520/24235203522.20220311173812.jpg</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>649000</t>
+          <t>699000</t>
         </is>
       </c>
       <c r="F61" t="inlineStr"/>
@@ -3888,12 +3880,12 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>울트라기어</t>
+          <t>벤큐</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>벤큐</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
@@ -3915,22 +3907,22 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>한성컴퓨터 TFG32F16V 1500R 리얼 165 게이밍</t>
+          <t>LG전자 울트라와이드 29WP500</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=18778755031</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=26886077522</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1877875/18778755031.20201230122744.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2688607/26886077522.20210524134552.jpg</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>249000</t>
+          <t>269000</t>
         </is>
       </c>
       <c r="F62" t="inlineStr"/>
@@ -3946,12 +3938,12 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>울트라와이드</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
@@ -3973,22 +3965,22 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>벤큐 XL2546K</t>
+          <t>한성컴퓨터 TFG32F16V 1500R 리얼 165 게이밍</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24235203522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=18778755031</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2423520/24235203522.20220311173812.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1877875/18778755031.20201230122744.jpg</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>699000</t>
+          <t>249000</t>
         </is>
       </c>
       <c r="F63" t="inlineStr"/>
@@ -4004,12 +3996,12 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>벤큐</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>벤큐</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
@@ -4046,7 +4038,7 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>739000</t>
+          <t>737000</t>
         </is>
       </c>
       <c r="F64" t="inlineStr"/>
@@ -4089,22 +4081,22 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>티투코리아 인포트 T27F1</t>
+          <t>DELL P2422H</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=34429558622</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27490359527</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3442955/34429558622.20220902105954.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2749035/27490359527.20210830113440.jpg</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>133000</t>
+          <t>226910</t>
         </is>
       </c>
       <c r="F65" t="inlineStr"/>
@@ -4118,10 +4110,14 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I65" t="inlineStr"/>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>DELL</t>
+        </is>
+      </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>티투코리아</t>
+          <t>DELL</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
@@ -4143,22 +4139,22 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>DELL P2422H</t>
+          <t>티투코리아 인포트 T27F1</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27490359527</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=34429558622</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2749035/27490359527.20210830113440.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3442955/34429558622.20220902105954.jpg</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>223470</t>
+          <t>133000</t>
         </is>
       </c>
       <c r="F66" t="inlineStr"/>
@@ -4172,14 +4168,10 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I66" t="inlineStr">
-        <is>
-          <t>DELL</t>
-        </is>
-      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr">
         <is>
-          <t>DELL</t>
+          <t>티투코리아</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
@@ -4201,22 +4193,22 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>주연테크 V28UE</t>
+          <t>한성컴퓨터 ULTRON 2758 프리싱크 리얼 75</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=26322015522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=14816445651</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2632201/26322015522.20210311142212.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1481644/14816445651.20220506122800.jpg</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>279650</t>
+          <t>159000</t>
         </is>
       </c>
       <c r="F67" t="inlineStr"/>
@@ -4232,12 +4224,12 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>주연테크</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>주연테크</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
@@ -4259,22 +4251,22 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>LG전자 27TQ600SW</t>
+          <t>알파스캔 AOC 27B2 보더리스 75 시력보호</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=32982708620</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=21720504796</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3298270/32982708620.20220616144209.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2172050/21720504796.20210310171806.jpg</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>400770</t>
+          <t>197000</t>
         </is>
       </c>
       <c r="F68" t="inlineStr"/>
@@ -4290,12 +4282,12 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>알파스캔</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>알파스캔</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
@@ -4317,22 +4309,22 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>LG전자 27MN430HW</t>
+          <t>LG전자 울트라와이드 34WP500</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=23301354490</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27584005522</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2330135/23301354490.20200824152000.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2758400/27584005522.20210615125004.jpg</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>198900</t>
+          <t>398880</t>
         </is>
       </c>
       <c r="F69" t="inlineStr"/>
@@ -4348,7 +4340,7 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>울트라와이드</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -4375,22 +4367,22 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>한성컴퓨터 TFX32U06V 4K HDR 1500R 커브드</t>
+          <t>LG전자 32MN500MW</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=20942220356</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=22764052560</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2094222/20942220356.20210630112723.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2276405/22764052560.20200824151306.jpg</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>299000</t>
+          <t>258500</t>
         </is>
       </c>
       <c r="F70" t="inlineStr"/>
@@ -4406,12 +4398,12 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
@@ -4433,22 +4425,22 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>한성컴퓨터 TFG32Q07P 75</t>
+          <t>LG전자 27MN430HW</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=28655748554</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=23301354490</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2865574/28655748554.20210831152013.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2330135/23301354490.20200824152000.jpg</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>249000</t>
+          <t>198900</t>
         </is>
       </c>
       <c r="F71" t="inlineStr"/>
@@ -4464,12 +4456,12 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
@@ -4491,22 +4483,22 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>LG전자 27ML600SW</t>
+          <t>LG전자 27TQ600SW</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=19105887903</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=32982708620</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1910588/19105887903.20220125134154.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3298270/32982708620.20220616144209.jpg</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>262900</t>
+          <t>394680</t>
         </is>
       </c>
       <c r="F72" t="inlineStr"/>
@@ -4549,22 +4541,22 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>삼성전자 삼성 U32J590</t>
+          <t>한성컴퓨터 TFG32Q07P 75</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=14306268525</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=28655748554</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1430626/14306268525.20210203133511.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2865574/28655748554.20210831152013.jpg</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>379000</t>
+          <t>249000</t>
         </is>
       </c>
       <c r="F73" t="inlineStr"/>
@@ -4580,12 +4572,12 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>삼성</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
@@ -4607,22 +4599,22 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>벤큐 PD2700Q 아이케어</t>
+          <t>한성컴퓨터 TFX32U06V 4K HDR 1500R 커브드</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=11415441270</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=20942220356</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1141544/11415441270.20220328145818.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2094222/20942220356.20210630112723.jpg</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>399000</t>
+          <t>299000</t>
         </is>
       </c>
       <c r="F74" t="inlineStr"/>
@@ -4638,12 +4630,12 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>벤큐</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>벤큐</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
@@ -4665,22 +4657,22 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>어드밴스원디앤티 어드밴스원 AF-2410UX 75</t>
+          <t>삼성전자 오디세이 G9 C49G95T</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=28419053555</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=23255316490</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2841905/28419053555.20220706120117.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2325531/23255316490.20210203133605.jpg</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>102000</t>
+          <t>1564270</t>
         </is>
       </c>
       <c r="F75" t="inlineStr"/>
@@ -4696,12 +4688,12 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>어드밴스원</t>
+          <t>오디세이</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>어드밴스원디앤티</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
@@ -4723,22 +4715,22 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>LG전자 24ML600SW</t>
+          <t>삼성전자 삼성 U32J590</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=19105796246</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=14306268525</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1910579/19105796246.20200824152520.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1430626/14306268525.20210203133511.jpg</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>205900</t>
+          <t>379000</t>
         </is>
       </c>
       <c r="F76" t="inlineStr"/>
@@ -4754,12 +4746,12 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>삼성</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
@@ -4781,22 +4773,22 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>삼성전자 오디세이 Neo G8 S32BG850</t>
+          <t>주연테크 V28UE</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=33092648618</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=26322015522</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3309264/33092648618.20220623100048.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2632201/26322015522.20210311142212.jpg</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>1304020</t>
+          <t>329000</t>
         </is>
       </c>
       <c r="F77" t="inlineStr"/>
@@ -4812,12 +4804,12 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>오디세이</t>
+          <t>주연테크</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>주연테크</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
@@ -4839,22 +4831,22 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>한성컴퓨터 ULTRON 2758 프리싱크 리얼 75</t>
+          <t>벤큐 EW3270U 아이케어</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=14816445651</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=14334382813</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1481644/14816445651.20220506122800.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1433438/14334382813.20220318102530.jpg</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>159000</t>
+          <t>449000</t>
         </is>
       </c>
       <c r="F78" t="inlineStr"/>
@@ -4870,12 +4862,12 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>벤큐</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>벤큐</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
@@ -4897,22 +4889,22 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>LG전자 울트라와이드 34WP500</t>
+          <t>LG전자 27ML600SW</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27584005522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=19105887903</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2758400/27584005522.20210615125004.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1910588/19105887903.20220125134154.jpg</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>398900</t>
+          <t>262900</t>
         </is>
       </c>
       <c r="F79" t="inlineStr"/>
@@ -4928,7 +4920,7 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>울트라와이드</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -4955,22 +4947,22 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>삼성전자 오디세이 G9 C49G95T</t>
+          <t>LG전자 울트라기어 32GP850</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=23255316490</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27405944522</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2325531/23255316490.20210203133605.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2740594/27405944522.20220124180945.jpg</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>1564270</t>
+          <t>649000</t>
         </is>
       </c>
       <c r="F80" t="inlineStr"/>
@@ -4986,12 +4978,12 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>오디세이</t>
+          <t>울트라기어</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
@@ -5013,22 +5005,22 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>삼성전자 삼성 M5 S27BM500</t>
+          <t>어드밴스원디앤티 어드밴스원 AF-2410UX 75</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=31910890630</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=28419053555</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3191089/31910890630.20220915143644.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2841905/28419053555.20220706120117.jpg</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>232000</t>
+          <t>102000</t>
         </is>
       </c>
       <c r="F81" t="inlineStr"/>
@@ -5044,12 +5036,12 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>삼성</t>
+          <t>어드밴스원</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>어드밴스원디앤티</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
@@ -5071,43 +5063,43 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>LG전자 울트라기어 32GP750 165</t>
+          <t>삼성전자 24인치 IPS 광시야각 LED 모니터 베젤리스 LF24T350FHKX/KR 컴퓨터모니터</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=31658867618</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=81800309507</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3165886/31658867618.20220407173049.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8180030/81800309507.12.jpg</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>529680</t>
+          <t>175000</t>
         </is>
       </c>
       <c r="F82" t="inlineStr"/>
       <c r="G82" t="inlineStr">
         <is>
-          <t>네이버</t>
+          <t>삼성공식파트너 오제</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 상품</t>
+          <t>일반 - 가격비교 비매칭 일반상품</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>울트라기어</t>
+          <t>삼성</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
@@ -5129,22 +5121,22 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>LG전자 울트라기어 32GQ850L</t>
+          <t>LG전자 24ML600SW</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=33277645618</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=19105796246</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3327764/33277645618.20220704165437.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1910579/19105796246.20200824152520.jpg</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>989900</t>
+          <t>205550</t>
         </is>
       </c>
       <c r="F83" t="inlineStr"/>
@@ -5160,7 +5152,7 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>울트라기어</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -5187,22 +5179,22 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>알파스캔 AOC 27B2 보더리스 75 시력보호</t>
+          <t>LG전자 울트라기어 32GP750 165</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=21720504796</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=31658867618</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2172050/21720504796.20210310171806.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3165886/31658867618.20220407173049.jpg</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>197000</t>
+          <t>509380</t>
         </is>
       </c>
       <c r="F84" t="inlineStr"/>
@@ -5218,12 +5210,12 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>알파스캔</t>
+          <t>울트라기어</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>알파스캔</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
@@ -5245,37 +5237,45 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>24인치 컴퓨터 모니터 게이밍모니터 틸트 사무용 모니터 가정용</t>
+          <t>삼성전자 오디세이 Neo G8 S32BG850</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=82278580434</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=33092648618</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8227858/82278580434.4.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3309264/33092648618.20220623100048.jpg</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>109000</t>
+          <t>1303990</t>
         </is>
       </c>
       <c r="F85" t="inlineStr"/>
       <c r="G85" t="inlineStr">
         <is>
-          <t>전문대리점</t>
+          <t>네이버</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 비매칭 일반상품</t>
-        </is>
-      </c>
-      <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
+          <t>일반 - 가격비교 상품</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>오디세이</t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>삼성전자</t>
+        </is>
+      </c>
       <c r="K85" t="inlineStr">
         <is>
           <t>디지털/가전</t>
@@ -5295,22 +5295,22 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>주연테크 V28UE-M</t>
+          <t>벤큐 모비우스 EX2710S</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27493158522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27862189523</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2749315/27493158522.20210608162022.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2786218/27862189523.20220311174737.jpg</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>305150</t>
+          <t>339000</t>
         </is>
       </c>
       <c r="F86" t="inlineStr"/>
@@ -5326,12 +5326,12 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>주연테크</t>
+          <t>벤큐</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>주연테크</t>
+          <t>벤큐</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
@@ -5353,22 +5353,22 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>LG전자 22MP410</t>
+          <t>삼성전자 삼성 M5 S27BM500</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=30861855618</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=31910890630</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3086185/30861855618.20220209110852.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3191089/31910890630.20220915143644.jpg</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>147390</t>
+          <t>249000</t>
         </is>
       </c>
       <c r="F87" t="inlineStr"/>
@@ -5384,12 +5384,12 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>삼성</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
@@ -5411,22 +5411,22 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>삼성전자 스마트모니터 M7 S43AM700</t>
+          <t>한성컴퓨터 TFG27Q14F QHD 평면 144 게이밍</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27215825524</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24509574524</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2721582/27215825524.20210520173025.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2450957/24509574524.20201022114639.jpg</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>558840</t>
+          <t>269000</t>
         </is>
       </c>
       <c r="F88" t="inlineStr"/>
@@ -5442,12 +5442,12 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>스마트모니터</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
@@ -5469,28 +5469,28 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>삼성전자 24인치 IPS 광시야각 LED 모니터 베젤리스 LF24T350FHKX/KR 컴퓨터모니터</t>
+          <t>삼성전자 24인치 컴퓨터모니터 베젤리스 FreeSync 75Hz LS24R35AFHKXKR 가정용 사무용</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=81800309507</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=84111077002</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8180030/81800309507.12.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8411107/84111077002.5.jpg</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>175000</t>
+          <t>154000</t>
         </is>
       </c>
       <c r="F89" t="inlineStr"/>
       <c r="G89" t="inlineStr">
         <is>
-          <t>삼성공식파트너 오제</t>
+          <t>온라인파트너</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
@@ -5527,22 +5527,22 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>한성컴퓨터 TFG27Q14F QHD 평면 144 게이밍</t>
+          <t>LG전자 22MP410</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24509574524</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=30861855618</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2450957/24509574524.20201022114639.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3086185/30861855618.20220209110852.jpg</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>269000</t>
+          <t>158900</t>
         </is>
       </c>
       <c r="F90" t="inlineStr"/>
@@ -5558,12 +5558,12 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
@@ -5585,22 +5585,22 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>벤큐 모비우스 EX2710S</t>
+          <t>알파스캔 27G2SP 165 무결점</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27862189523</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=31909796618</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2786218/27862189523.20220311174737.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3190979/31909796618.20220419141353.jpg</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>339000</t>
+          <t>349000</t>
         </is>
       </c>
       <c r="F91" t="inlineStr"/>
@@ -5616,12 +5616,12 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>벤큐</t>
+          <t>알파스캔</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>벤큐</t>
+          <t>알파스캔</t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
@@ -5643,22 +5643,22 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>LG전자 24MP500W</t>
+          <t>LG전자 울트라기어 32GQ850L</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=28272152554</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=33277645618</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2827215/28272152554.20210805113756.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3327764/33277645618.20220704165437.jpg</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>193170</t>
+          <t>989890</t>
         </is>
       </c>
       <c r="F92" t="inlineStr"/>
@@ -5674,7 +5674,7 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>울트라기어</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -5701,22 +5701,22 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>알파스캔 27G2SP 165 무결점</t>
+          <t>삼성전자 오디세이 Neo G9 S49AG950 49인치 게이밍 모니터</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=31909796618</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=28288984554</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3190979/31909796618.20220419141353.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2828898/28288984554.20220713164635.jpg</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>349000</t>
+          <t>1898490</t>
         </is>
       </c>
       <c r="F93" t="inlineStr"/>
@@ -5732,12 +5732,12 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>알파스캔</t>
+          <t>오디세이</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>알파스캔</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
@@ -5759,22 +5759,22 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>LG전자 울트라기어 32GQ950</t>
+          <t>한성컴퓨터 ULTRON 2235V 프리싱크 리얼 75</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=34106305618</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=16384522728</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3410630/34106305618.20220816153657.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1638452/16384522728.20220315162439.jpg</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>1659990</t>
+          <t>109000</t>
         </is>
       </c>
       <c r="F94" t="inlineStr"/>
@@ -5790,12 +5790,12 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>울트라기어</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="K94" t="inlineStr">
@@ -5817,22 +5817,22 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>한성컴퓨터 TFX156T DEX 포터블 HDR</t>
+          <t>LG전자 울트라기어 32GQ950</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=21936337549</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=34106305618</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2193633/21936337549.20200428094649.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3410630/34106305618.20220816153657.jpg</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>289000</t>
+          <t>1660000</t>
         </is>
       </c>
       <c r="F95" t="inlineStr"/>
@@ -5848,12 +5848,12 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>울트라기어</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K95" t="inlineStr">
@@ -5875,22 +5875,22 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>제이씨현시스템 유디아 ED2425HS 165</t>
+          <t>한성컴퓨터 TFX156T DEX 포터블 HDR</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=31422570618</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=21936337549</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3142257/31422570618.20220401162552.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2193633/21936337549.20200428094649.jpg</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>143000</t>
+          <t>289000</t>
         </is>
       </c>
       <c r="F96" t="inlineStr"/>
@@ -5906,12 +5906,12 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>유디아</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>제이씨현시스템</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="K96" t="inlineStr">
@@ -5933,22 +5933,22 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>LG전자 27MP400</t>
+          <t>삼성전자 스마트모니터 M7 S43AM700</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27777660523</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27215825524</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2777766/27777660523.20220311131805.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2721582/27215825524.20210520173025.jpg</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>233900</t>
+          <t>558780</t>
         </is>
       </c>
       <c r="F97" t="inlineStr"/>
@@ -5964,12 +5964,12 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>스마트모니터</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K97" t="inlineStr">
@@ -5991,22 +5991,22 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>한성컴퓨터 ULTRON 2235V 프리싱크 리얼 75</t>
+          <t>제우스랩 알파플랜 Z15ST 포터블 멀티 터치 DEX</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=16384522728</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27969020522</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1638452/16384522728.20220315162439.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2796902/27969020522.20210712190427.jpg</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>109000</t>
+          <t>219000</t>
         </is>
       </c>
       <c r="F98" t="inlineStr"/>
@@ -6022,12 +6022,12 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>알파플랜</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>제우스랩</t>
         </is>
       </c>
       <c r="K98" t="inlineStr">
@@ -6049,22 +6049,22 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>삼성전자 오디세이 Neo G9 S49AG950 49인치 게이밍 모니터</t>
+          <t>LG전자 27UP850N</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=28288984554</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=34938247618</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2828898/28288984554.20220713164635.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3493824/34938247618.20220928104044.jpg</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>1748490</t>
+          <t>597890</t>
         </is>
       </c>
       <c r="F99" t="inlineStr"/>
@@ -6080,12 +6080,12 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>오디세이</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K99" t="inlineStr">
@@ -6107,22 +6107,22 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>벤큐 EW3270U 아이케어</t>
+          <t>LG전자 24MP500W</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=14334382813</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=28272152554</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1433438/14334382813.20220318102530.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2827215/28272152554.20210805113756.jpg</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>449000</t>
+          <t>195900</t>
         </is>
       </c>
       <c r="F100" t="inlineStr"/>
@@ -6138,12 +6138,12 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>벤큐</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>벤큐</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K100" t="inlineStr">
@@ -6165,43 +6165,43 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>티투코리아 인포트 T24F1</t>
+          <t>삼성전자 27인치(68.6cm) F27T350 3면 베젤리스 75Hz 모니터 LF27T350FHKXKR 프리싱크 IPS패널</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=34432438620</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=82629356214</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3443243/34432438620.20220902120959.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8262935/82629356214.7.jpg</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>96000</t>
+          <t>199000</t>
         </is>
       </c>
       <c r="F101" t="inlineStr"/>
       <c r="G101" t="inlineStr">
         <is>
-          <t>네이버</t>
+          <t>삼성온라인샵</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 상품</t>
+          <t>일반 - 가격비교 비매칭 일반상품</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>인포트</t>
+          <t>삼성</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>티투코리아</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K101" t="inlineStr">

--- a/output.xlsx
+++ b/output.xlsx
@@ -439,22 +439,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>삼성전자 삼성 S24R35A</t>
+          <t>LG전자 24MK430H 24인치 FHD IPS 광시야각 모니터</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=31911879618</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=13643814149</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3191187/31911879618.20220419165448.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1364381/13643814149.20200824151155.jpg</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>154000</t>
+          <t>160900</t>
         </is>
       </c>
       <c r="F2" t="inlineStr"/>
@@ -470,12 +470,12 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>삼성</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -497,22 +497,22 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>LG전자 24MK430H 24인치 FHD IPS 광시야각 모니터</t>
+          <t>삼성전자 삼성 S24R35A</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=13643814149</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=31911879618</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1364381/13643814149.20200824151155.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3191187/31911879618.20220419165448.jpg</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>160890</t>
+          <t>154000</t>
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
@@ -528,12 +528,12 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>삼성</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -671,22 +671,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>삼성전자 오디세이 G3 S27AG300 144</t>
+          <t>삼성전자 삼성 커브드 C27R502 베젤리스 프리싱크</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27535066522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=20189888243</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2753506/27535066522.20210611135052.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2018988/20189888243.20220519143818.jpg</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>269000</t>
+          <t>209000</t>
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
@@ -702,7 +702,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>오디세이</t>
+          <t>삼성</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -729,22 +729,22 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>벤큐 GW2780 아이케어</t>
+          <t>LG전자 LG그램 그램+뷰 16MQ70</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=11846746201</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=30377313618</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1184674/11846746201.20220318094817.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3037731/30377313618.20211231144328.jpg</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>194000</t>
+          <t>333670</t>
         </is>
       </c>
       <c r="F7" t="inlineStr"/>
@@ -760,12 +760,12 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>벤큐</t>
+          <t>LG그램</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>벤큐</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -787,22 +787,22 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>LG전자 32QN650</t>
+          <t>삼성전자 오디세이 G5 C34G55T 165</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=23692201495</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=25744041522</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2369220/23692201495.20210406132235.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2574404/25744041522.20210324143655.jpg</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>397990</t>
+          <t>490050</t>
         </is>
       </c>
       <c r="F8" t="inlineStr"/>
@@ -818,12 +818,12 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>오디세이</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -845,22 +845,22 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>LG전자 LG그램 그램+뷰 16MQ70</t>
+          <t>삼성전자 오디세이 G5 C27G54T</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=30377313618</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=23896119522</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3037731/30377313618.20211231144328.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2389611/23896119522.20210302142506.jpg</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>333730</t>
+          <t>299000</t>
         </is>
       </c>
       <c r="F9" t="inlineStr"/>
@@ -876,12 +876,12 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>LG그램</t>
+          <t>오디세이</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -903,22 +903,22 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>삼성전자 삼성 F27T350</t>
+          <t>벤큐 GW2780 아이케어</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=23996451524</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=11846746201</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2399645/23996451524.20210302142600.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1184674/11846746201.20220318094817.jpg</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>194000</t>
+          <t>191890</t>
         </is>
       </c>
       <c r="F10" t="inlineStr"/>
@@ -934,12 +934,12 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>삼성</t>
+          <t>벤큐</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>벤큐</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -961,22 +961,22 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>삼성전자 스마트모니터 M5 S32BM501</t>
+          <t>삼성전자 삼성 F27T350</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=31799436618</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=23996451524</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3179943/31799436618.20220413103106.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2399645/23996451524.20210302142600.jpg</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>337000</t>
+          <t>193990</t>
         </is>
       </c>
       <c r="F11" t="inlineStr"/>
@@ -992,7 +992,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>스마트모니터</t>
+          <t>삼성</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -1019,22 +1019,22 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>삼성전자 스마트모니터 M7 S32BM701</t>
+          <t>삼성전자 스마트모니터 M5 S32BM501</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=31605413618</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=31799436618</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3160541/31605413618.20220404134022.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3179943/31799436618.20220413103106.jpg</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>478000</t>
+          <t>337000</t>
         </is>
       </c>
       <c r="F12" t="inlineStr"/>
@@ -1077,22 +1077,22 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>삼성전자 오디세이 G5 C27G54T</t>
+          <t>삼성전자 오디세이 G3 S27AG300 144</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=23896119522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27535066522</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2389611/23896119522.20210302142506.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2753506/27535066522.20210611135052.jpg</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>299000</t>
+          <t>269000</t>
         </is>
       </c>
       <c r="F13" t="inlineStr"/>
@@ -1135,22 +1135,22 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>삼성전자 삼성 커브드 C27R502 베젤리스 프리싱크</t>
+          <t>한성컴퓨터 TFG27F16V 1500R 리얼 165 게이밍</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=20189888243</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=18797620615</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2018988/20189888243.20220519143818.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1879762/18797620615.20201230122720.jpg</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>206830</t>
+          <t>199000</t>
         </is>
       </c>
       <c r="F14" t="inlineStr"/>
@@ -1166,12 +1166,12 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>삼성</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -1193,22 +1193,22 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>LG전자 울트라기어 27GN650</t>
+          <t>삼성전자 스마트모니터 M7 S32BM701</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=25413919522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=31605413618</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2541391/25413919522.20220125134231.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3160541/31605413618.20220404134022.jpg</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>368870</t>
+          <t>478000</t>
         </is>
       </c>
       <c r="F15" t="inlineStr"/>
@@ -1224,12 +1224,12 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>울트라기어</t>
+          <t>스마트모니터</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -1251,22 +1251,22 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>삼성전자 오디세이 G5 C34G55T 165</t>
+          <t>LG전자 울트라HD 27UL550</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=25744041522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=19298157033</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2574404/25744041522.20210324143655.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1929815/19298157033.20221013131758.jpg</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>490050</t>
+          <t>398900</t>
         </is>
       </c>
       <c r="F16" t="inlineStr"/>
@@ -1282,12 +1282,12 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>오디세이</t>
+          <t>울트라HD</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -1309,22 +1309,22 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>벤큐 GW2480 아이케어 무결점</t>
+          <t>삼성전자 오디세이 G5 C32G54T</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=11846842637</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=23896004523</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1184684/11846842637.20220318094758.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2389600/23896004523.20210203132926.jpg</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>169000</t>
+          <t>363000</t>
         </is>
       </c>
       <c r="F17" t="inlineStr"/>
@@ -1340,12 +1340,12 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>벤큐</t>
+          <t>오디세이</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>벤큐</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -1367,22 +1367,22 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>LG전자 울트라HD 32UN650</t>
+          <t>LG전자 울트라기어 27GN650</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24635274522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=25413919522</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2463527/24635274522.20210405173537.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2541391/25413919522.20220125134231.jpg</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>548890</t>
+          <t>368870</t>
         </is>
       </c>
       <c r="F18" t="inlineStr"/>
@@ -1398,7 +1398,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>울트라HD</t>
+          <t>울트라기어</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1425,22 +1425,22 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>LG전자 27MK430H</t>
+          <t>한성컴퓨터 TFG32F16V 1500R 리얼 165 게이밍</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=15183175543</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=18778755031</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1518317/15183175543.20200824151717.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1877875/18778755031.20201230122744.jpg</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>184240</t>
+          <t>249000</t>
         </is>
       </c>
       <c r="F19" t="inlineStr"/>
@@ -1456,12 +1456,12 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
@@ -1483,22 +1483,22 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>LG전자 울트라HD 27UL550</t>
+          <t>벤큐 GW2480 아이케어 무결점</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=19298157033</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=11846842637</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1929815/19298157033.20221013131758.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1184684/11846842637.20220318094758.jpg</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>398880</t>
+          <t>169000</t>
         </is>
       </c>
       <c r="F20" t="inlineStr"/>
@@ -1514,12 +1514,12 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>울트라HD</t>
+          <t>벤큐</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>벤큐</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -1541,22 +1541,22 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>삼성전자 오디세이 G5 C32G54T</t>
+          <t>LG전자 32QN650</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=23896004523</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=23692201495</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2389600/23896004523.20210203132926.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2369220/23692201495.20210406132235.jpg</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>363000</t>
+          <t>381340</t>
         </is>
       </c>
       <c r="F21" t="inlineStr"/>
@@ -1572,12 +1572,12 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>오디세이</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -1599,22 +1599,22 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>삼성전자 삼성 S24R350 베젤리스 프리싱크 75</t>
+          <t>LG전자 울트라HD 32UN650</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=20861526783</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24635274522</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2086152/20861526783.20210302142419.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2463527/24635274522.20210405173537.jpg</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>165000</t>
+          <t>548890</t>
         </is>
       </c>
       <c r="F22" t="inlineStr"/>
@@ -1630,12 +1630,12 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>삼성</t>
+          <t>울트라HD</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
@@ -1657,22 +1657,22 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>LG전자 27MN430HW</t>
+          <t>벤큐 XL2411K</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=23301354490</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24196764522</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2330135/23301354490.20200824152000.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2419676/24196764522.20220311173519.jpg</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>195900</t>
+          <t>269000</t>
         </is>
       </c>
       <c r="F23" t="inlineStr"/>
@@ -1688,12 +1688,12 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>벤큐</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>벤큐</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -1715,22 +1715,22 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>LG전자 24ML600SW</t>
+          <t>삼성전자 삼성 S24R350 베젤리스 프리싱크 75</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=19105796246</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=20861526783</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1910579/19105796246.20200824152520.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2086152/20861526783.20210302142419.jpg</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>193900</t>
+          <t>165000</t>
         </is>
       </c>
       <c r="F24" t="inlineStr"/>
@@ -1746,12 +1746,12 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>삼성</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -1773,22 +1773,22 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>LG전자 32MN500MW</t>
+          <t>알파스캔 AOC 24B2 75 무결점</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=22764052560</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24171105522</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2276405/22764052560.20200824151306.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2417110/24171105522.20210310172014.jpg</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>258870</t>
+          <t>149000</t>
         </is>
       </c>
       <c r="F25" t="inlineStr"/>
@@ -1804,12 +1804,12 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>알파스캔</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>알파스캔</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -1831,22 +1831,22 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>삼성전자 스마트모니터 M7 S32BM700</t>
+          <t>LG전자 32MN500MW</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=31605356618</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=22764052560</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3160535/31605356618.20220404132823.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2276405/22764052560.20200824151306.jpg</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>488000</t>
+          <t>258900</t>
         </is>
       </c>
       <c r="F26" t="inlineStr"/>
@@ -1862,12 +1862,12 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>스마트모니터</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
@@ -1889,22 +1889,22 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>벤큐 XL2411K</t>
+          <t>LG전자 27MK430H</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24196764522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=15183175543</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2419676/24196764522.20220311173519.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1518317/15183175543.20200824151717.jpg</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>269000</t>
+          <t>191960</t>
         </is>
       </c>
       <c r="F27" t="inlineStr"/>
@@ -1920,12 +1920,12 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>벤큐</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>벤큐</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -1947,22 +1947,22 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>LG전자 울트라기어 24GN600 144Hz</t>
+          <t>삼성전자 스마트모니터 M7 S32BM700</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=26122103522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=31605356618</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2612210/26122103522.20220124181046.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3160535/31605356618.20220404132823.jpg</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>204000</t>
+          <t>463880</t>
         </is>
       </c>
       <c r="F28" t="inlineStr"/>
@@ -1978,12 +1978,12 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>울트라기어</t>
+          <t>스마트모니터</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -2005,22 +2005,22 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>LG전자 24MN430HW</t>
+          <t>LG전자 울트라기어 24GN600 144Hz</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=23244797490</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=26122103522</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2324479/23244797490.20220311131641.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2612210/26122103522.20220124181046.jpg</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>160660</t>
+          <t>219000</t>
         </is>
       </c>
       <c r="F29" t="inlineStr"/>
@@ -2036,7 +2036,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>울트라기어</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -2078,7 +2078,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>261630</t>
+          <t>264000</t>
         </is>
       </c>
       <c r="F30" t="inlineStr"/>
@@ -2121,22 +2121,22 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>한성컴퓨터 ULTRON 2435V 프리싱크 리얼75</t>
+          <t>삼성전자 스마트모니터 LS32BM801UKXKR</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=13487979407</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=31160861618</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1348797/13487979407.20220404172708.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3116086/31160861618.20220304142910.jpg</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>129000</t>
+          <t>534000</t>
         </is>
       </c>
       <c r="F31" t="inlineStr"/>
@@ -2152,12 +2152,12 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>스마트모니터</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
@@ -2179,22 +2179,22 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>한성컴퓨터 TFX156T DEX 포터블 HDR</t>
+          <t>한성컴퓨터 ULTRON 2435V 프리싱크 리얼75</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=21936337549</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=13487979407</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2193633/21936337549.20200428094649.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1348797/13487979407.20220404172708.jpg</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>289000</t>
+          <t>129000</t>
         </is>
       </c>
       <c r="F32" t="inlineStr"/>
@@ -2295,22 +2295,22 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>한성컴퓨터 TFG27F16V 1500R 리얼 165 게이밍</t>
+          <t>한성컴퓨터 TFX156T DEX 포터블 HDR</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=18797620615</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=21936337549</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1879762/18797620615.20201230122720.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2193633/21936337549.20200428094649.jpg</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>199000</t>
+          <t>289000</t>
         </is>
       </c>
       <c r="F34" t="inlineStr"/>
@@ -2353,22 +2353,22 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>삼성전자 삼성 S34J550</t>
+          <t>LG전자 울트라와이드 34WP500</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=15704895486</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27584005522</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1570489/15704895486.20210203133054.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2758400/27584005522.20210615125004.jpg</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>360150</t>
+          <t>378900</t>
         </is>
       </c>
       <c r="F35" t="inlineStr"/>
@@ -2384,12 +2384,12 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>삼성</t>
+          <t>울트라와이드</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
@@ -2411,45 +2411,37 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>LG전자 27QN600</t>
+          <t>24인치 컴퓨터 모니터 게이밍모니터 틸트 사무용 모니터 가정용</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=23849172522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=82278580434</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2384917/23849172522.20210406141920.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8227858/82278580434.4.jpg</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>328400</t>
+          <t>99000</t>
         </is>
       </c>
       <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr">
         <is>
-          <t>네이버</t>
+          <t>전문대리점</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 상품</t>
-        </is>
-      </c>
-      <c r="I36" t="inlineStr">
-        <is>
-          <t>LG전자</t>
-        </is>
-      </c>
-      <c r="J36" t="inlineStr">
-        <is>
-          <t>LG전자</t>
-        </is>
-      </c>
+          <t>일반 - 가격비교 비매칭 일반상품</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr">
         <is>
           <t>디지털/가전</t>
@@ -2469,43 +2461,43 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>LG전자 27TN600S</t>
+          <t>삼성 27인치 컴퓨터 모니터 C27R502 LC27R502FHKXKR freesync VA패널</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=21745903830</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=82874084859</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2174590/21745903830.20200824150453.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8287408/82874084859.5.jpg</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>284840</t>
+          <t>209000</t>
         </is>
       </c>
       <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr">
         <is>
-          <t>네이버</t>
+          <t>삼성공식파트너 큐소닉</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 상품</t>
+          <t>일반 - 가격비교 비매칭 일반상품</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>삼성</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
@@ -2527,22 +2519,22 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>삼성전자 삼성 F24T450</t>
+          <t>LG전자 27MN430HW</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24007200522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=23301354490</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2400720/24007200522.20210203133027.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2330135/23301354490.20200824152000.jpg</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>228000</t>
+          <t>195900</t>
         </is>
       </c>
       <c r="F38" t="inlineStr"/>
@@ -2558,12 +2550,12 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>삼성</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
@@ -2585,22 +2577,22 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>LG전자 울트라기어 32GP850</t>
+          <t>LG전자 24ML600SW</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27405944522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=19105796246</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2740594/27405944522.20220124180945.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1910579/19105796246.20200824152520.jpg</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>649000</t>
+          <t>193900</t>
         </is>
       </c>
       <c r="F39" t="inlineStr"/>
@@ -2616,7 +2608,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>울트라기어</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2643,22 +2635,22 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>LG전자 울트라기어 27GP750</t>
+          <t>LG전자 24MN430HW</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=29060355587</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=23244797490</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2906035/29060355587.20220125134215.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2324479/23244797490.20220311131641.jpg</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>448790</t>
+          <t>160590</t>
         </is>
       </c>
       <c r="F40" t="inlineStr"/>
@@ -2674,7 +2666,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>울트라기어</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2701,22 +2693,22 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>LG전자 울트라와이드 34WP500</t>
+          <t>LG전자 27TN600S</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27584005522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=21745903830</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2758400/27584005522.20210615125004.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2174590/21745903830.20200824150453.jpg</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>378900</t>
+          <t>284840</t>
         </is>
       </c>
       <c r="F41" t="inlineStr"/>
@@ -2732,7 +2724,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>울트라와이드</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2759,22 +2751,22 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>LG전자 울트라HD 32UN880</t>
+          <t>삼성전자 삼성 F24T450</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24554243522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24007200522</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2455424/24554243522.20210406130449.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2400720/24007200522.20210203133027.jpg</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>545000</t>
+          <t>228000</t>
         </is>
       </c>
       <c r="F42" t="inlineStr"/>
@@ -2790,12 +2782,12 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>울트라HD</t>
+          <t>삼성</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
@@ -2817,22 +2809,22 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>삼성전자 스마트모니터 LS32BM801UKXKR</t>
+          <t>LG전자 울트라기어 27GP750</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=31160861618</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=29060355587</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3116086/31160861618.20220304142910.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2906035/29060355587.20220125134215.jpg</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>534000</t>
+          <t>448900</t>
         </is>
       </c>
       <c r="F43" t="inlineStr"/>
@@ -2848,12 +2840,12 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>스마트모니터</t>
+          <t>울트라기어</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
@@ -2875,22 +2867,22 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>DELL 울트라샤프 U2723QE</t>
+          <t>LG전자 울트라기어 32GP850</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=31516928619</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27405944522</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3151692/31516928619.20220725165234.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2740594/27405944522.20220124180945.jpg</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>595000</t>
+          <t>649000</t>
         </is>
       </c>
       <c r="F44" t="inlineStr"/>
@@ -2906,12 +2898,12 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>울트라샤프</t>
+          <t>울트라기어</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>DELL</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
@@ -2933,43 +2925,43 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>삼성전자 27인치 QHD 모니터 68.4cm IPS 75Hz 피벗 S27B610EQ S27B610 FreeSync</t>
+          <t>LG전자 울트라HD 32UN880</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=84352653931</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24554243522</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8435265/84352653931.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2455424/24554243522.20210406130449.jpg</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>299000</t>
+          <t>718220</t>
         </is>
       </c>
       <c r="F45" t="inlineStr"/>
       <c r="G45" t="inlineStr">
         <is>
-          <t>삼성공식파트너 큐소닉</t>
+          <t>네이버</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 비매칭 일반상품</t>
+          <t>일반 - 가격비교 상품</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>삼성</t>
+          <t>울트라HD</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
@@ -2991,22 +2983,22 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>한성컴퓨터 ULTRON 2760G 리얼 144</t>
+          <t>벤큐 모비우스 EX2710S</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=15020041438</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27862189523</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1502004/15020041438.20220429112257.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2786218/27862189523.20220311174737.jpg</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>199000</t>
+          <t>349000</t>
         </is>
       </c>
       <c r="F46" t="inlineStr"/>
@@ -3022,12 +3014,12 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>벤큐</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>벤큐</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
@@ -3049,37 +3041,45 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>24인치 컴퓨터 모니터 게이밍모니터 틸트 사무용 모니터 가정용</t>
+          <t>인터픽셀 IP2740 게이밍 165</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=82278580434</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=18968201200</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8227858/82278580434.4.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1896820/18968201200.20210325162750.jpg</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>99000</t>
+          <t>239000</t>
         </is>
       </c>
       <c r="F47" t="inlineStr"/>
       <c r="G47" t="inlineStr">
         <is>
-          <t>전문대리점</t>
+          <t>네이버</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 비매칭 일반상품</t>
-        </is>
-      </c>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
+          <t>일반 - 가격비교 상품</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>인터픽셀</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>인터픽셀</t>
+        </is>
+      </c>
       <c r="K47" t="inlineStr">
         <is>
           <t>디지털/가전</t>
@@ -3099,22 +3099,22 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>LG전자 27ML600SW</t>
+          <t>LG전자 울트라와이드 29WP500</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=19105887903</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=26886077522</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1910588/19105887903.20220125134154.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2688607/26886077522.20210524134552.jpg</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>248900</t>
+          <t>249000</t>
         </is>
       </c>
       <c r="F48" t="inlineStr"/>
@@ -3130,7 +3130,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>울트라와이드</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -3157,22 +3157,22 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>삼성전자 스마트모니터 M5 S27AM501</t>
+          <t>벤큐 XL2540K 240</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=26870246522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=28506139554</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2687024/26870246522.20210422150359.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2850613/28506139554.20220311173751.jpg</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>262310</t>
+          <t>499000</t>
         </is>
       </c>
       <c r="F49" t="inlineStr"/>
@@ -3188,12 +3188,12 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>스마트모니터</t>
+          <t>벤큐</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>벤큐</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
@@ -3215,22 +3215,22 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>벤큐 모비우스 EX2710S</t>
+          <t>MSI G271 게이밍 144 아이세이버</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27862189523</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=22435637800</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2786218/27862189523.20220311174737.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2243563/22435637800.20221207113552.jpg</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>342290</t>
+          <t>234000</t>
         </is>
       </c>
       <c r="F50" t="inlineStr"/>
@@ -3246,12 +3246,12 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>벤큐</t>
+          <t>MSI</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>벤큐</t>
+          <t>MSI</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
@@ -3273,33 +3273,33 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>삼성전자 삼성 U32J590</t>
+          <t>삼성전자 27인치 QHD 모니터 68.4cm IPS 75Hz 피벗 S27B610EQ S27B610 FreeSync</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=14306268525</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=84352653931</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1430626/14306268525.20210203133511.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8435265/84352653931.jpg</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>338970</t>
+          <t>299000</t>
         </is>
       </c>
       <c r="F51" t="inlineStr"/>
       <c r="G51" t="inlineStr">
         <is>
-          <t>네이버</t>
+          <t>삼성공식파트너 큐소닉</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 상품</t>
+          <t>일반 - 가격비교 비매칭 일반상품</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -3331,22 +3331,22 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>인터픽셀 IP2740 게이밍 165</t>
+          <t>LG전자 27ML600SW</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=18968201200</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=19105887903</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1896820/18968201200.20210325162750.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1910588/19105887903.20220125134154.jpg</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>239000</t>
+          <t>248890</t>
         </is>
       </c>
       <c r="F52" t="inlineStr"/>
@@ -3362,12 +3362,12 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>인터픽셀</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>인터픽셀</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
@@ -3389,22 +3389,22 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>MSI G271 게이밍 144 아이세이버</t>
+          <t>삼성전자 스마트모니터 M5 S32BM500</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=22435637800</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=31799047618</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2243563/22435637800.20221207113552.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3179904/31799047618.20220413101833.jpg</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>234000</t>
+          <t>305000</t>
         </is>
       </c>
       <c r="F53" t="inlineStr"/>
@@ -3420,12 +3420,12 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>MSI</t>
+          <t>스마트모니터</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>MSI</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
@@ -3447,43 +3447,43 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>삼성전자 24인치 컴퓨터모니터 베젤리스 FreeSync 75Hz LS24R35AFHKXKR 가정용 사무용</t>
+          <t>LG전자 27QN600</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=84111077002</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=23849172522</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8411107/84111077002.5.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2384917/23849172522.20210406141920.jpg</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>154000</t>
+          <t>328400</t>
         </is>
       </c>
       <c r="F54" t="inlineStr"/>
       <c r="G54" t="inlineStr">
         <is>
-          <t>온라인파트너</t>
+          <t>네이버</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 비매칭 일반상품</t>
+          <t>일반 - 가격비교 상품</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>삼성</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
@@ -3505,22 +3505,22 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>알파스캔 AOC 24B2 75 무결점</t>
+          <t>삼성전자 삼성 U32J590</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24171105522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=14306268525</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2417110/24171105522.20210310172014.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1430626/14306268525.20210203133511.jpg</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>149000</t>
+          <t>338890</t>
         </is>
       </c>
       <c r="F55" t="inlineStr"/>
@@ -3536,12 +3536,12 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>알파스캔</t>
+          <t>삼성</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>알파스캔</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
@@ -3563,43 +3563,43 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>삼성 27인치 컴퓨터 모니터 C27R502 LC27R502FHKXKR freesync VA패널</t>
+          <t>LG전자 27TQ600SW</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=82874084859</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=32982708620</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8287408/82874084859.5.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3298270/32982708620.20220616144209.jpg</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>209000</t>
+          <t>389810</t>
         </is>
       </c>
       <c r="F56" t="inlineStr"/>
       <c r="G56" t="inlineStr">
         <is>
-          <t>삼성공식파트너 큐소닉</t>
+          <t>네이버</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 비매칭 일반상품</t>
+          <t>일반 - 가격비교 상품</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>삼성</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
@@ -3621,22 +3621,22 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>한성컴퓨터 ULTRON 2235V 프리싱크 리얼 75</t>
+          <t>DELL 울트라샤프 U2722D</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=16384522728</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27124609522</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1638452/16384522728.20220315162439.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2712460/27124609522.20210719172836.jpg</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>109000</t>
+          <t>509000</t>
         </is>
       </c>
       <c r="F57" t="inlineStr"/>
@@ -3652,12 +3652,12 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>울트라샤프</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>DELL</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
@@ -3679,43 +3679,43 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>삼성전자 커브드 32인치 모니터 베젤리스 눈 보호 모드 LC32R500FHKXKR</t>
+          <t>한성컴퓨터 ULTRON 2235V 프리싱크 리얼 75</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=80601833496</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=16384522728</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8060183/80601833496.8.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1638452/16384522728.20220315162439.jpg</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>264000</t>
+          <t>109000</t>
         </is>
       </c>
       <c r="F58" t="inlineStr"/>
       <c r="G58" t="inlineStr">
         <is>
-          <t>삼성공식파트너 오제</t>
+          <t>네이버</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 비매칭 일반상품</t>
+          <t>일반 - 가격비교 상품</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>삼성</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
@@ -3737,22 +3737,22 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>LG전자 울트라와이드 29WP500</t>
+          <t>벤큐 XL2546K</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=26886077522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24235203522</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2688607/26886077522.20210524134552.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2423520/24235203522.20220311173812.jpg</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>249000</t>
+          <t>699000</t>
         </is>
       </c>
       <c r="F59" t="inlineStr"/>
@@ -3768,12 +3768,12 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>울트라와이드</t>
+          <t>벤큐</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>벤큐</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
@@ -3795,22 +3795,22 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>한성컴퓨터 TFG30F20W  울트라와이드 200 게이밍</t>
+          <t>한성컴퓨터 ULTRON 2760G 리얼 144</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27287676522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=15020041438</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2728767/27287676522.20210628121550.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1502004/15020041438.20220429112257.jpg</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>299000</t>
+          <t>199000</t>
         </is>
       </c>
       <c r="F60" t="inlineStr"/>
@@ -3853,33 +3853,33 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>삼성전자 삼성 S27B610 75</t>
+          <t>삼성전자 커브드 32인치 모니터 베젤리스 눈 보호 모드 LC32R500FHKXKR</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=31531820618</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=80601833496</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3153182/31531820618.20220330101749.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8060183/80601833496.8.jpg</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>297000</t>
+          <t>264000</t>
         </is>
       </c>
       <c r="F61" t="inlineStr"/>
       <c r="G61" t="inlineStr">
         <is>
-          <t>네이버</t>
+          <t>삼성공식파트너 오제</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 상품</t>
+          <t>일반 - 가격비교 비매칭 일반상품</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
@@ -3911,22 +3911,22 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>삼성전자 삼성 C32T550</t>
+          <t>삼성전자 삼성 M5 S27BM500</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=22448790144</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=31910890630</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2244879/22448790144.20210203133005.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3191089/31910890630.20220915143644.jpg</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>319000</t>
+          <t>239000</t>
         </is>
       </c>
       <c r="F62" t="inlineStr"/>
@@ -3969,22 +3969,22 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>삼성전자 삼성 S27R350</t>
+          <t>알파스캔 AOC Q27G2S 155</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=21775935202</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24694967522</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2177593/21775935202.20210203132859.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2469496/24694967522.20210310172228.jpg</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>219000</t>
+          <t>399000</t>
         </is>
       </c>
       <c r="F63" t="inlineStr"/>
@@ -4000,12 +4000,12 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>삼성</t>
+          <t>알파스캔</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>알파스캔</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
@@ -4027,22 +4027,22 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>한성컴퓨터 TFG32F16V 1500R 리얼 165 게이밍</t>
+          <t>제우스랩 알파플랜 P15A 포터블</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=18778755031</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=20651265453</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1877875/18778755031.20201230122744.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2065126/20651265453.20210726174943.jpg</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>249000</t>
+          <t>177110</t>
         </is>
       </c>
       <c r="F64" t="inlineStr"/>
@@ -4058,12 +4058,12 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>알파플랜</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>제우스랩</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
@@ -4085,22 +4085,22 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>LG전자 울트라기어 27GP850</t>
+          <t>알파스캔 AOC Q32V3S 75 무결점</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=28378464554</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=26013420522</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2837846/28378464554.20220124181029.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2601342/26013420522.20220211140907.jpg</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>548900</t>
+          <t>329000</t>
         </is>
       </c>
       <c r="F65" t="inlineStr"/>
@@ -4116,12 +4116,12 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>울트라기어</t>
+          <t>알파스캔</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>알파스캔</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
@@ -4143,43 +4143,43 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>LG전자 27TQ600SW</t>
+          <t>삼성전자 24인치 컴퓨터모니터 베젤리스 FreeSync 75Hz LS24R35AFHKXKR 가정용 사무용</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=32982708620</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=84111077002</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3298270/32982708620.20220616144209.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8411107/84111077002.5.jpg</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>399890</t>
+          <t>154000</t>
         </is>
       </c>
       <c r="F66" t="inlineStr"/>
       <c r="G66" t="inlineStr">
         <is>
-          <t>네이버</t>
+          <t>온라인파트너</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 상품</t>
+          <t>일반 - 가격비교 비매칭 일반상품</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>삼성</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
@@ -4201,22 +4201,22 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>DELL P2422H</t>
+          <t>LG전자 24MP500W</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27490359527</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=28272152554</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2749035/27490359527.20210830113440.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2827215/28272152554.20210805113756.jpg</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>228900</t>
+          <t>182000</t>
         </is>
       </c>
       <c r="F67" t="inlineStr"/>
@@ -4232,12 +4232,12 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>DELL</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>DELL</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
@@ -4259,22 +4259,22 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>벤큐 XL2546K</t>
+          <t>한성컴퓨터 ULTRON 2758 프리싱크 리얼 75</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24235203522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=14816445651</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2423520/24235203522.20220311173812.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1481644/14816445651.20220506122800.jpg</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>699000</t>
+          <t>159000</t>
         </is>
       </c>
       <c r="F68" t="inlineStr"/>
@@ -4290,12 +4290,12 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>벤큐</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>벤큐</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
@@ -4317,22 +4317,22 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>알파스캔 AOC 27B2 보더리스 75 시력보호</t>
+          <t>삼성전자 삼성 S27R350</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=21720504796</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=21775935202</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2172050/21720504796.20210310171806.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2177593/21775935202.20210203132859.jpg</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>188900</t>
+          <t>219000</t>
         </is>
       </c>
       <c r="F69" t="inlineStr"/>
@@ -4348,12 +4348,12 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>알파스캔</t>
+          <t>삼성</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>알파스캔</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
@@ -4375,22 +4375,22 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>한성컴퓨터 ULTRON 2758 프리싱크 리얼 75</t>
+          <t>LG전자 울트라기어 32GP750 165</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=14816445651</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=31658867618</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1481644/14816445651.20220506122800.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3165886/31658867618.20220407173049.jpg</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>159000</t>
+          <t>519000</t>
         </is>
       </c>
       <c r="F70" t="inlineStr"/>
@@ -4406,12 +4406,12 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>울트라기어</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
@@ -4433,22 +4433,22 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>삼성전자 삼성 M5 S27BM500</t>
+          <t>삼성전자 스마트모니터 M5 S27AM501</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=31910890630</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=26870246522</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3191089/31910890630.20220915143644.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2687024/26870246522.20210422150359.jpg</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>242670</t>
+          <t>262210</t>
         </is>
       </c>
       <c r="F71" t="inlineStr"/>
@@ -4464,7 +4464,7 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>삼성</t>
+          <t>스마트모니터</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -4491,22 +4491,22 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>LG전자 24MP500W</t>
+          <t>LG전자 울트라기어 27GP850</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=28272152554</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=28378464554</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2827215/28272152554.20210805113756.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2837846/28378464554.20220124181029.jpg</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>181900</t>
+          <t>548900</t>
         </is>
       </c>
       <c r="F72" t="inlineStr"/>
@@ -4522,7 +4522,7 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>울트라기어</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -4549,22 +4549,22 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>제우스랩 알파플랜 P15A 포터블</t>
+          <t>삼성전자 삼성 C32T550</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=20651265453</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=22448790144</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2065126/20651265453.20210726174943.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2244879/22448790144.20210203133005.jpg</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>179000</t>
+          <t>319000</t>
         </is>
       </c>
       <c r="F73" t="inlineStr"/>
@@ -4580,12 +4580,12 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>알파플랜</t>
+          <t>삼성</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>제우스랩</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
@@ -4607,22 +4607,22 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>삼성전자 오디세이 G3 S32AG320 165</t>
+          <t>삼성전자 삼성 S27B610 75</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=31249283618</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=31531820618</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3124928/31249283618.20220520135135.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3153182/31531820618.20220330101749.jpg</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>299000</t>
+          <t>297000</t>
         </is>
       </c>
       <c r="F74" t="inlineStr"/>
@@ -4638,7 +4638,7 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>오디세이</t>
+          <t>삼성</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -4665,22 +4665,22 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>삼성전자 스마트모니터 M5 S32BM500</t>
+          <t>삼성전자 오디세이 G3 S32AG320 165</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=31799047618</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=31249283618</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3179904/31799047618.20220413101833.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3124928/31249283618.20220520135135.jpg</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>299840</t>
+          <t>299000</t>
         </is>
       </c>
       <c r="F75" t="inlineStr"/>
@@ -4696,7 +4696,7 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>스마트모니터</t>
+          <t>오디세이</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -4723,22 +4723,22 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>삼성전자 스마트모니터 LS32BM703UKXKR</t>
+          <t>삼성전자 오디세이 Neo G7 S43CG700</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=32847073618</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=36823283618</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3284707/32847073618.20220609154055.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3682328/36823283618.20221228165928.jpg</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>437920</t>
+          <t>1250000</t>
         </is>
       </c>
       <c r="F76" t="inlineStr"/>
@@ -4754,7 +4754,7 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>스마트모니터</t>
+          <t>오디세이</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4781,22 +4781,22 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>DELL 울트라샤프 U2722D</t>
+          <t>한성컴퓨터 TFG30F20W  울트라와이드 200 게이밍</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27124609522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27287676522</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2712460/27124609522.20210719172836.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2728767/27287676522.20210628121550.jpg</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>509000</t>
+          <t>299000</t>
         </is>
       </c>
       <c r="F77" t="inlineStr"/>
@@ -4812,12 +4812,12 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>울트라샤프</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>DELL</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
@@ -4839,22 +4839,22 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>삼성전자 오디세이 Neo G7 S43CG700</t>
+          <t>알파스캔 AOC 27B2 보더리스 75 시력보호</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=36823283618</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=21720504796</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3682328/36823283618.20221228165928.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2172050/21720504796.20210310171806.jpg</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>1250000</t>
+          <t>189000</t>
         </is>
       </c>
       <c r="F78" t="inlineStr"/>
@@ -4870,12 +4870,12 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>오디세이</t>
+          <t>알파스캔</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>알파스캔</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
@@ -4897,22 +4897,22 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>한성컴퓨터 TFG24F14V 1200R커브드 게이밍 리얼 144</t>
+          <t>삼성전자 스마트모니터 LS32BM703UKXKR</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=21032801916</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=32847073618</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2103280/21032801916.20220407160212.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3284707/32847073618.20220609154055.jpg</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>159000</t>
+          <t>437840</t>
         </is>
       </c>
       <c r="F79" t="inlineStr"/>
@@ -4928,12 +4928,12 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>스마트모니터</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
@@ -4955,22 +4955,22 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>DELL P2722H</t>
+          <t>삼성전자 삼성 S34J550</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27489713532</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=15704895486</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2748971/27489713532.20210830114101.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1570489/15704895486.20210203133054.jpg</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>289000</t>
+          <t>360150</t>
         </is>
       </c>
       <c r="F80" t="inlineStr"/>
@@ -4986,12 +4986,12 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>DELL</t>
+          <t>삼성</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>DELL</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
@@ -5013,22 +5013,22 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>알파스캔 AOC Q32V3S 75 무결점</t>
+          <t>한성컴퓨터 TFG24F14V 1200R커브드 게이밍 리얼 144</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=26013420522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=21032801916</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2601342/26013420522.20220211140907.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2103280/21032801916.20220407160212.jpg</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>328900</t>
+          <t>159000</t>
         </is>
       </c>
       <c r="F81" t="inlineStr"/>
@@ -5044,12 +5044,12 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>알파스캔</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>알파스캔</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
@@ -5071,22 +5071,22 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>LG전자 27UP850N</t>
+          <t>한성컴퓨터 TFX32U06V 4K HDR 1500R 커브드</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=34938247618</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=20942220356</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3493824/34938247618.20220928104044.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2094222/20942220356.20210630112723.jpg</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>626900</t>
+          <t>299000</t>
         </is>
       </c>
       <c r="F82" t="inlineStr"/>
@@ -5102,12 +5102,12 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
@@ -5129,22 +5129,22 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>벤큐 XL2540K 240</t>
+          <t>한성컴퓨터 TFG34Q10W 1500R 커브드 게이밍 리얼100 울트라와이드</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=28506139554</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=20889802847</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2850613/28506139554.20220311173751.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2088980/20889802847.20200424100610.jpg</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>499000</t>
+          <t>349000</t>
         </is>
       </c>
       <c r="F83" t="inlineStr"/>
@@ -5160,12 +5160,12 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>벤큐</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>벤큐</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
@@ -5187,22 +5187,22 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>한성컴퓨터 TFG34Q10W 1500R 커브드 게이밍 리얼100 울트라와이드</t>
+          <t>한성컴퓨터 TFG32Q07P 75</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=20889802847</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=28655748554</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2088980/20889802847.20200424100610.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2865574/28655748554.20210831152013.jpg</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>349000</t>
+          <t>249000</t>
         </is>
       </c>
       <c r="F84" t="inlineStr"/>
@@ -5245,22 +5245,22 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>삼성전자 오디세이 G3 S24AG300 144</t>
+          <t>DELL 울트라샤프 U2723QE</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27534600522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=31516928619</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2753460/27534600522.20210611131536.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3151692/31516928619.20220725165234.jpg</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>228000</t>
+          <t>799000</t>
         </is>
       </c>
       <c r="F85" t="inlineStr"/>
@@ -5276,12 +5276,12 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>오디세이</t>
+          <t>울트라샤프</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>DELL</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
@@ -5303,22 +5303,22 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>알파스캔 AOC Q27G2S 155</t>
+          <t>LG전자 27UP850N</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24694967522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=34938247618</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2469496/24694967522.20210310172228.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3493824/34938247618.20220928104044.jpg</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>399000</t>
+          <t>624900</t>
         </is>
       </c>
       <c r="F86" t="inlineStr"/>
@@ -5334,12 +5334,12 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>알파스캔</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>알파스캔</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
@@ -5361,43 +5361,43 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>24인치모니터 컴퓨터모니터 게이밍 모니터 FHD 75hz PC 듀얼</t>
+          <t>필립스 271E1 프리싱크 75 시력보호 제로베젤</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=80461476918</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=21496753758</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8046147/80461476918.2.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2149675/21496753758.20200221173844.jpg</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>99000</t>
+          <t>204000</t>
         </is>
       </c>
       <c r="F87" t="inlineStr"/>
       <c r="G87" t="inlineStr">
         <is>
-          <t>티엑스</t>
+          <t>네이버</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 비매칭 일반상품</t>
+          <t>일반 - 가격비교 상품</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>네모로</t>
+          <t>필립스</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>TX</t>
+          <t>필립스</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
@@ -5419,22 +5419,22 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>LG전자 울트라와이드 34WN750</t>
+          <t>한성컴퓨터 TFG34Q14W 1500R 커브드 리얼 144 울트라와이드 게이밍</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=23257853490</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=29326560618</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2325785/23257853490.20200824150256.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2932656/29326560618.20211021130829.jpg</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>548870</t>
+          <t>429000</t>
         </is>
       </c>
       <c r="F88" t="inlineStr"/>
@@ -5450,12 +5450,12 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>울트라와이드</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
@@ -5477,22 +5477,22 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>한성컴퓨터 TFG32Q07P 75</t>
+          <t>삼성전자 오디세이 G3 S24AG300 144</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=28655748554</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27534600522</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2865574/28655748554.20210831152013.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2753460/27534600522.20210611131536.jpg</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>249000</t>
+          <t>228000</t>
         </is>
       </c>
       <c r="F89" t="inlineStr"/>
@@ -5508,12 +5508,12 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>오디세이</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
@@ -5535,22 +5535,22 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>LG전자 울트라기어 32GP750 165</t>
+          <t>LG전자 울트라와이드 34WN750</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=31658867618</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=23257853490</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3165886/31658867618.20220407173049.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2325785/23257853490.20200824150256.jpg</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>519000</t>
+          <t>548890</t>
         </is>
       </c>
       <c r="F90" t="inlineStr"/>
@@ -5566,7 +5566,7 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>울트라기어</t>
+          <t>울트라와이드</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -5593,43 +5593,43 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>필립스 271E1 프리싱크 75 시력보호 제로베젤</t>
+          <t>24인치모니터 컴퓨터모니터 게이밍 모니터 FHD 75hz PC 듀얼</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=21496753758</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=80461476918</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2149675/21496753758.20200221173844.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8046147/80461476918.2.jpg</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>203900</t>
+          <t>99000</t>
         </is>
       </c>
       <c r="F91" t="inlineStr"/>
       <c r="G91" t="inlineStr">
         <is>
-          <t>네이버</t>
+          <t>티엑스</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 상품</t>
+          <t>일반 - 가격비교 비매칭 일반상품</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>필립스</t>
+          <t>네모로</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>필립스</t>
+          <t>TX</t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
@@ -5651,22 +5651,22 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>LG전자 32QN600</t>
+          <t>DELL P2722H</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=25702838522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27489713532</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2570283/25702838522.20210122145615.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2748971/27489713532.20210830114101.jpg</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>336770</t>
+          <t>289000</t>
         </is>
       </c>
       <c r="F92" t="inlineStr"/>
@@ -5682,12 +5682,12 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>DELL</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>DELL</t>
         </is>
       </c>
       <c r="K92" t="inlineStr">
@@ -5709,22 +5709,22 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>제우스랩 알파플랜 Z15ST 포터블 멀티 터치 DEX</t>
+          <t>DELL S2721HN</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27969020522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24539225525</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2796902/27969020522.20210712190427.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2453922/24539225525.20201117112738.jpg</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>219000</t>
+          <t>208000</t>
         </is>
       </c>
       <c r="F93" t="inlineStr"/>
@@ -5740,12 +5740,12 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>알파플랜</t>
+          <t>DELL</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>제우스랩</t>
+          <t>DELL</t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
@@ -5767,22 +5767,22 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>한성컴퓨터 TFG34Q14W 1500R 커브드 리얼 144 울트라와이드 게이밍</t>
+          <t>DELL P2422H</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=29326560618</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27490359527</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2932656/29326560618.20211021130829.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2749035/27490359527.20210830113440.jpg</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>429000</t>
+          <t>228900</t>
         </is>
       </c>
       <c r="F94" t="inlineStr"/>
@@ -5798,12 +5798,12 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>DELL</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>DELL</t>
         </is>
       </c>
       <c r="K94" t="inlineStr">
@@ -5825,22 +5825,22 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>삼성전자 스마트모니터 LS32BM702UKXKR</t>
+          <t>제우스랩 Z16P</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=32560555619</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=35856905618</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3256055/32560555619.20220524153039.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3585690/35856905618.20221115145547.jpg</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>444390</t>
+          <t>139800</t>
         </is>
       </c>
       <c r="F95" t="inlineStr"/>
@@ -5854,14 +5854,10 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I95" t="inlineStr">
-        <is>
-          <t>스마트모니터</t>
-        </is>
-      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>제우스랩</t>
         </is>
       </c>
       <c r="K95" t="inlineStr">
@@ -5883,43 +5879,43 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>삼성전자 24인치 IPS 광시야각 LED 모니터 베젤리스 LF24T350FHKX/KR 컴퓨터모니터</t>
+          <t>LG전자 32QN600</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=81800309507</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=25702838522</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8180030/81800309507.12.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2570283/25702838522.20210122145615.jpg</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>159000</t>
+          <t>336680</t>
         </is>
       </c>
       <c r="F96" t="inlineStr"/>
       <c r="G96" t="inlineStr">
         <is>
-          <t>삼성공식파트너 오제</t>
+          <t>네이버</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 비매칭 일반상품</t>
+          <t>일반 - 가격비교 상품</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>삼성</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K96" t="inlineStr">
@@ -5941,22 +5937,22 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>제우스랩 Z16P</t>
+          <t>한성컴퓨터 TFG32Q14V 1500R 리얼 144 게이밍</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=35856905618</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=20819573509</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3585690/35856905618.20221115145547.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2081957/20819573509.20220816144235.jpg</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>139900</t>
+          <t>329000</t>
         </is>
       </c>
       <c r="F97" t="inlineStr"/>
@@ -5970,10 +5966,14 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I97" t="inlineStr"/>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>한성컴퓨터</t>
+        </is>
+      </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>제우스랩</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="K97" t="inlineStr">
@@ -5995,22 +5995,22 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>DELL 울트라샤프 U2422H</t>
+          <t>DELL S2721DS</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27583031524</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24525570527</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2758303/27583031524.20210830114405.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2452557/24525570527.20201117112539.jpg</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>339000</t>
+          <t>326860</t>
         </is>
       </c>
       <c r="F98" t="inlineStr"/>
@@ -6026,7 +6026,7 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>울트라샤프</t>
+          <t>DELL</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -6053,22 +6053,22 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>삼성전자 오디세이 Neo G8 S32BG850</t>
+          <t>삼성전자 오디세이 Neo G9 S49AG950 49인치 게이밍 모니터</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=33092648618</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=28288984554</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3309264/33092648618.20220623100048.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2828898/28288984554.20220713164635.jpg</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>1085000</t>
+          <t>1990000</t>
         </is>
       </c>
       <c r="F99" t="inlineStr"/>
@@ -6111,22 +6111,22 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>한성컴퓨터 TFX32U06V 4K HDR 1500R 커브드</t>
+          <t>삼성전자 오디세이 Neo G8 S32BG850</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=20942220356</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=33092648618</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2094222/20942220356.20210630112723.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3309264/33092648618.20220623100048.jpg</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>299000</t>
+          <t>1388990</t>
         </is>
       </c>
       <c r="F100" t="inlineStr"/>
@@ -6142,12 +6142,12 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>오디세이</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K100" t="inlineStr">
@@ -6169,22 +6169,22 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>삼성전자 오디세이 Neo G9 S49AG950 49인치 게이밍 모니터</t>
+          <t>LG전자 32UN550</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=28288984554</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24367892525</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2828898/28288984554.20220713164635.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2436789/24367892525.20210406141630.jpg</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>1721000</t>
+          <t>498900</t>
         </is>
       </c>
       <c r="F101" t="inlineStr"/>
@@ -6200,12 +6200,12 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>오디세이</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K101" t="inlineStr">

--- a/output.xlsx
+++ b/output.xlsx
@@ -439,22 +439,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>LG전자 24MK430H 24인치 FHD IPS 광시야각 모니터</t>
+          <t>삼성전자 스마트모니터 M7 S43BM700</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=13643814149</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=31889649618</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1364381/13643814149.20200824151155.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3188964/31889649618.20220418150602.jpg</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>160890</t>
+          <t>595410</t>
         </is>
       </c>
       <c r="F2" t="inlineStr"/>
@@ -470,12 +470,12 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>스마트모니터</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -555,22 +555,22 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>삼성전자 스마트모니터 M7 S43BM700</t>
+          <t>삼성전자 삼성 S24R35A</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=31889649618</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=31911879618</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3188964/31889649618.20220418150602.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3191187/31911879618.20220419165448.jpg</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>599000</t>
+          <t>146790</t>
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
@@ -586,7 +586,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>스마트모니터</t>
+          <t>삼성</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -613,22 +613,22 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>삼성전자 오디세이 G5 C27G54T</t>
+          <t>삼성전자 삼성 F27T350</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=23896119522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=23996451524</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2389611/23896119522.20210302142506.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2399645/23996451524.20210302142600.jpg</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>338990</t>
+          <t>194000</t>
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
@@ -644,7 +644,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>오디세이</t>
+          <t>삼성</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -671,22 +671,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>삼성전자 삼성 F27T350</t>
+          <t>삼성전자 오디세이 G3 S27AG300 144</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=23996451524</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27535066522</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2399645/23996451524.20210302142600.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2753506/27535066522.20210611135052.jpg</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>194000</t>
+          <t>269000</t>
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
@@ -702,7 +702,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>삼성</t>
+          <t>오디세이</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -729,22 +729,22 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>삼성전자 오디세이 G3 S27AG300 144</t>
+          <t>LG전자 24MK430H 24인치 FHD IPS 광시야각 모니터</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27535066522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=13643814149</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2753506/27535066522.20210611135052.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1364381/13643814149.20200824151155.jpg</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>269000</t>
+          <t>160890</t>
         </is>
       </c>
       <c r="F7" t="inlineStr"/>
@@ -760,12 +760,12 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>오디세이</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -787,22 +787,22 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>삼성전자 삼성 S24R35A</t>
+          <t>삼성전자 스마트모니터 M7 S32BM701</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=31911879618</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=31605413618</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3191187/31911879618.20220419165448.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3160541/31605413618.20220404134022.jpg</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>154000</t>
+          <t>488850</t>
         </is>
       </c>
       <c r="F8" t="inlineStr"/>
@@ -818,7 +818,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>삼성</t>
+          <t>스마트모니터</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -845,22 +845,22 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>삼성전자 스마트모니터 M7 S32BM701</t>
+          <t>LG전자 32QN650</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=31605413618</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=23692201495</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3160541/31605413618.20220404134022.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2369220/23692201495.20210406132235.jpg</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>488850</t>
+          <t>398890</t>
         </is>
       </c>
       <c r="F9" t="inlineStr"/>
@@ -876,12 +876,12 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>스마트모니터</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -903,22 +903,22 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>삼성전자 삼성 커브드 C27R502 베젤리스 프리싱크</t>
+          <t>삼성전자 스마트모니터 M5 S32BM501</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=20189888243</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=31799436618</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2018988/20189888243.20220519143818.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3179943/31799436618.20220413103106.jpg</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>209000</t>
+          <t>346000</t>
         </is>
       </c>
       <c r="F10" t="inlineStr"/>
@@ -934,7 +934,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>삼성</t>
+          <t>스마트모니터</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -1077,22 +1077,22 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>LG전자 32QN650</t>
+          <t>LG전자 울트라HD 32UN650</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=23692201495</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24635274522</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2369220/23692201495.20210406132235.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2463527/24635274522.20210405173537.jpg</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>374510</t>
+          <t>548890</t>
         </is>
       </c>
       <c r="F13" t="inlineStr"/>
@@ -1108,7 +1108,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>울트라HD</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1135,22 +1135,22 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>LG전자 LG그램 그램+뷰 16MQ70</t>
+          <t>삼성전자 삼성 커브드 C27R502 베젤리스 프리싱크</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=30377313618</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=20189888243</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3037731/30377313618.20211231144328.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2018988/20189888243.20220519143818.jpg</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>331470</t>
+          <t>206830</t>
         </is>
       </c>
       <c r="F14" t="inlineStr"/>
@@ -1166,12 +1166,12 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>LG그램</t>
+          <t>삼성</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -1193,22 +1193,22 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>삼성전자 스마트모니터 M5 S32BM501</t>
+          <t>삼성전자 오디세이 G5 C27G54T</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=31799436618</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=23896119522</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3179943/31799436618.20220413103106.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2389611/23896119522.20210302142506.jpg</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>347000</t>
+          <t>338990</t>
         </is>
       </c>
       <c r="F15" t="inlineStr"/>
@@ -1224,7 +1224,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>스마트모니터</t>
+          <t>오디세이</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1251,22 +1251,22 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>알파스캔 AOC 27B2 보더리스 75 시력보호</t>
+          <t>삼성전자 오디세이 G5 C34G55T 165</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=21720504796</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=25744041522</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2172050/21720504796.20210310171806.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2574404/25744041522.20210324143655.jpg</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>179000</t>
+          <t>487700</t>
         </is>
       </c>
       <c r="F16" t="inlineStr"/>
@@ -1282,12 +1282,12 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>알파스캔</t>
+          <t>오디세이</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>알파스캔</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -1309,22 +1309,22 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>LG전자 32MN500MW</t>
+          <t>삼성전자 오디세이 G5 C32G54T</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=22764052560</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=23896004523</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2276405/22764052560.20200824151306.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2389600/23896004523.20210203132926.jpg</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>258890</t>
+          <t>362750</t>
         </is>
       </c>
       <c r="F17" t="inlineStr"/>
@@ -1340,12 +1340,12 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>오디세이</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -1367,22 +1367,22 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>삼성전자 삼성 C32R500F</t>
+          <t>LG전자 LG그램 그램+뷰 16MQ70</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=22483121542</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=30377313618</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2248312/22483121542.20220519144103.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3037731/30377313618.20211231144328.jpg</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>263990</t>
+          <t>331480</t>
         </is>
       </c>
       <c r="F18" t="inlineStr"/>
@@ -1398,12 +1398,12 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>삼성</t>
+          <t>LG그램</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -1425,22 +1425,22 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>LG전자 27MK430H</t>
+          <t>LG전자 32MN500MW</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=15183175543</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=22764052560</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1518317/15183175543.20200824151717.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2276405/22764052560.20200824151306.jpg</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>195160</t>
+          <t>258860</t>
         </is>
       </c>
       <c r="F19" t="inlineStr"/>
@@ -1483,22 +1483,22 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>LG전자 울트라HD 32UN650</t>
+          <t>LG전자 27MK430H</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24635274522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=15183175543</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2463527/24635274522.20210405173537.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1518317/15183175543.20200824151717.jpg</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>548890</t>
+          <t>195090</t>
         </is>
       </c>
       <c r="F20" t="inlineStr"/>
@@ -1514,7 +1514,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>울트라HD</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1541,22 +1541,22 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>한성컴퓨터 ULTRON 2435V 프리싱크 리얼75</t>
+          <t>삼성전자 삼성 C32R500F</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=13487979407</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=22483121542</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1348797/13487979407.20220404172708.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2248312/22483121542.20220519144103.jpg</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>109000</t>
+          <t>263990</t>
         </is>
       </c>
       <c r="F21" t="inlineStr"/>
@@ -1572,12 +1572,12 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>삼성</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -1599,22 +1599,22 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>LG전자 울트라HD 27UL550</t>
+          <t>삼성전자 스마트모니터 M7 S32BM700</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=19298157033</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=31605356618</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1929815/19298157033.20221013131758.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3160535/31605356618.20220404132823.jpg</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>399000</t>
+          <t>488990</t>
         </is>
       </c>
       <c r="F22" t="inlineStr"/>
@@ -1630,12 +1630,12 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>울트라HD</t>
+          <t>스마트모니터</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
@@ -1715,22 +1715,22 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>삼성전자 오디세이 G5 C34G55T 165</t>
+          <t>LG전자 울트라HD 27UL550</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=25744041522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=19298157033</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2574404/25744041522.20210324143655.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1929815/19298157033.20221013131758.jpg</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>487700</t>
+          <t>398900</t>
         </is>
       </c>
       <c r="F24" t="inlineStr"/>
@@ -1746,12 +1746,12 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>오디세이</t>
+          <t>울트라HD</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -1773,22 +1773,22 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>한성컴퓨터 TFG27F16V 1500R 리얼 165 게이밍</t>
+          <t>LG전자 울트라기어 24GN600 144Hz</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=18797620615</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=26122103522</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1879762/18797620615.20201230122720.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2612210/26122103522.20230119171628.jpg</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>169000</t>
+          <t>204000</t>
         </is>
       </c>
       <c r="F25" t="inlineStr"/>
@@ -1804,12 +1804,12 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>울트라기어</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -1881,22 +1881,22 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>삼성전자 오디세이 G5 C32G54T</t>
+          <t>알파스캔 AOC 27B2 보더리스 75 시력보호</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=23896004523</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=21720504796</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2389600/23896004523.20210203132926.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2172050/21720504796.20210310171806.jpg</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>362750</t>
+          <t>179000</t>
         </is>
       </c>
       <c r="F27" t="inlineStr"/>
@@ -1912,12 +1912,12 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>오디세이</t>
+          <t>알파스캔</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>알파스캔</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -1939,22 +1939,22 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>LG전자 24ML600SW</t>
+          <t>LG전자 27QN600</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=19105796246</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=23849172522</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1910579/19105796246.20200824152520.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2384917/23849172522.20210406141920.jpg</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>193890</t>
+          <t>328760</t>
         </is>
       </c>
       <c r="F28" t="inlineStr"/>
@@ -1997,22 +1997,22 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>삼성전자 스마트모니터 M7 S32BM700</t>
+          <t>한성컴퓨터 ULTRON 2435V 프리싱크 리얼75</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=31605356618</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=13487979407</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3160535/31605356618.20220404132823.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1348797/13487979407.20220404172708.jpg</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>489000</t>
+          <t>109000</t>
         </is>
       </c>
       <c r="F29" t="inlineStr"/>
@@ -2028,12 +2028,12 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>스마트모니터</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
@@ -2055,22 +2055,22 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>메타닉스 L2211 FHD 오피스 75</t>
+          <t>벤큐 XL2546K</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=35596588622</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24235203522</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3559658/35596588622.20221114153011.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2423520/24235203522.20220311173812.jpg</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>89000</t>
+          <t>698990</t>
         </is>
       </c>
       <c r="F30" t="inlineStr"/>
@@ -2086,12 +2086,12 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>메타닉스</t>
+          <t>벤큐</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>메타닉스</t>
+          <t>벤큐</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
@@ -2171,22 +2171,22 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>한성컴퓨터 TFG32F16V 1500R 리얼 165 게이밍</t>
+          <t>삼성전자 삼성 S24R350 베젤리스 프리싱크 75</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=18778755031</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=20861526783</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1877875/18778755031.20201230122744.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2086152/20861526783.20210302142419.jpg</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>229000</t>
+          <t>165000</t>
         </is>
       </c>
       <c r="F32" t="inlineStr"/>
@@ -2202,12 +2202,12 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>삼성</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
@@ -2229,22 +2229,22 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>벤큐 XL2546K</t>
+          <t>삼성전자 스마트모니터 M5 S27BM500</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24235203522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=31910890630</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2423520/24235203522.20220311173812.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3191089/31910890630.20220915143644.jpg</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>699000</t>
+          <t>225050</t>
         </is>
       </c>
       <c r="F33" t="inlineStr"/>
@@ -2260,12 +2260,12 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>벤큐</t>
+          <t>스마트모니터</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>벤큐</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
@@ -2287,22 +2287,22 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>메타닉스 MU2700 IPS 4K UHD HDR</t>
+          <t>삼성전자 스마트모니터 LS32BM801UKXKR</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=35597520618</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=31160861618</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3559752/35597520618.20221114152256.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3116086/31160861618.20220304142910.jpg</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>209000</t>
+          <t>580000</t>
         </is>
       </c>
       <c r="F34" t="inlineStr"/>
@@ -2318,12 +2318,12 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>메타닉스</t>
+          <t>스마트모니터</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>메타닉스</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
@@ -2345,22 +2345,22 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>LG전자 울트라기어 24GN600 144Hz</t>
+          <t>한성컴퓨터 TFG34Q10W 1500R 커브드 게이밍 리얼100 울트라와이드</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=26122103522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=20889802847</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2612210/26122103522.20230119171628.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2088980/20889802847.20200424100610.jpg</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>204000</t>
+          <t>299000</t>
         </is>
       </c>
       <c r="F35" t="inlineStr"/>
@@ -2376,12 +2376,12 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>울트라기어</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
@@ -2403,22 +2403,22 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>삼성전자 스마트모니터 M5 S27BM500</t>
+          <t>메타닉스 L2211 FHD 오피스 75</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=31910890630</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=35596588622</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3191089/31910890630.20220915143644.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3559658/35596588622.20221114153011.jpg</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>225050</t>
+          <t>89000</t>
         </is>
       </c>
       <c r="F36" t="inlineStr"/>
@@ -2434,12 +2434,12 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>스마트모니터</t>
+          <t>메타닉스</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>메타닉스</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
@@ -2461,22 +2461,22 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>삼성전자 스마트모니터 LS32BM801UKXKR</t>
+          <t>LG전자 24ML600SW</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=31160861618</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=19105796246</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3116086/31160861618.20220304142910.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1910579/19105796246.20200824152520.jpg</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>580000</t>
+          <t>193490</t>
         </is>
       </c>
       <c r="F37" t="inlineStr"/>
@@ -2492,12 +2492,12 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>스마트모니터</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
@@ -2519,22 +2519,22 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>MSI G271 게이밍 144 아이세이버</t>
+          <t>한성컴퓨터 TFG32F16V 1500R 리얼 165 게이밍</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=22435637800</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=18778755031</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2243563/22435637800.20221207113552.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1877875/18778755031.20201230122744.jpg</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>233990</t>
+          <t>229000</t>
         </is>
       </c>
       <c r="F38" t="inlineStr"/>
@@ -2550,12 +2550,12 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>MSI</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>MSI</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
@@ -2577,22 +2577,22 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>LG전자 27MN430HW</t>
+          <t>메타닉스 MU2700 IPS 4K UHD HDR</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=23301354490</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=35597520618</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2330135/23301354490.20200824152000.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3559752/35597520618.20221114152256.jpg</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>195900</t>
+          <t>209000</t>
         </is>
       </c>
       <c r="F39" t="inlineStr"/>
@@ -2608,12 +2608,12 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>메타닉스</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>메타닉스</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
@@ -2635,22 +2635,22 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>LG전자 27QN600</t>
+          <t>DELL S2721DS</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=23849172522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24525570527</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2384917/23849172522.20210406141920.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2452557/24525570527.20201117112539.jpg</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>328830</t>
+          <t>326840</t>
         </is>
       </c>
       <c r="F40" t="inlineStr"/>
@@ -2666,12 +2666,12 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>DELL</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>DELL</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
@@ -2693,22 +2693,22 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>삼성전자 삼성 S27R350</t>
+          <t>DELL 울트라샤프 U2723QE</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=21775935202</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=31516928619</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2177593/21775935202.20210203132859.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3151692/31516928619.20220725165234.jpg</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>219000</t>
+          <t>799000</t>
         </is>
       </c>
       <c r="F41" t="inlineStr"/>
@@ -2724,12 +2724,12 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>삼성</t>
+          <t>울트라샤프</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>DELL</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
@@ -2751,22 +2751,22 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>삼성전자 삼성 S24R350 베젤리스 프리싱크 75</t>
+          <t>벤큐 GW2480 아이케어 무결점</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=20861526783</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=11846842637</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2086152/20861526783.20210302142419.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1184684/11846842637.20220318094758.jpg</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>165000</t>
+          <t>164000</t>
         </is>
       </c>
       <c r="F42" t="inlineStr"/>
@@ -2782,12 +2782,12 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>삼성</t>
+          <t>벤큐</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>벤큐</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
@@ -2809,22 +2809,22 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>DELL 울트라샤프 U2723QE</t>
+          <t>LG전자 27TN600S</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=31516928619</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=21745903830</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3151692/31516928619.20220725165234.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2174590/21745903830.20200824150453.jpg</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>799000</t>
+          <t>286550</t>
         </is>
       </c>
       <c r="F43" t="inlineStr"/>
@@ -2840,12 +2840,12 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>울트라샤프</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>DELL</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
@@ -2867,22 +2867,22 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>LG전자 27TN600S</t>
+          <t>한성컴퓨터 TFG27F16V 1500R 리얼 165 게이밍</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=21745903830</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=18797620615</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2174590/21745903830.20200824150453.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1879762/18797620615.20201230122720.jpg</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>286560</t>
+          <t>169000</t>
         </is>
       </c>
       <c r="F44" t="inlineStr"/>
@@ -2898,12 +2898,12 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
@@ -2925,22 +2925,22 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>삼성전자 오디세이 G3 S32AG320 165</t>
+          <t>알파스캔 AOC Q32V3S 75 무결점</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=31249283618</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=26013420522</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3124928/31249283618.20220520135135.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2601342/26013420522.20220211140907.jpg</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>309000</t>
+          <t>329000</t>
         </is>
       </c>
       <c r="F45" t="inlineStr"/>
@@ -2956,12 +2956,12 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>오디세이</t>
+          <t>알파스캔</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>알파스캔</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
@@ -2983,22 +2983,22 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>한성컴퓨터 TFG34Q10W 1500R 커브드 게이밍 리얼100 울트라와이드</t>
+          <t>벤큐 모비우스 EX2710S</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=20889802847</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27862189523</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2088980/20889802847.20200424100610.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2786218/27862189523.20220311174737.jpg</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>299000</t>
+          <t>349000</t>
         </is>
       </c>
       <c r="F46" t="inlineStr"/>
@@ -3014,12 +3014,12 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>벤큐</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>벤큐</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
@@ -3041,22 +3041,22 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>DELL S2721DS</t>
+          <t>삼성전자 오디세이 G3 S32AG320 165</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24525570527</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=31249283618</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2452557/24525570527.20201117112539.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3124928/31249283618.20220520135135.jpg</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>326840</t>
+          <t>309000</t>
         </is>
       </c>
       <c r="F47" t="inlineStr"/>
@@ -3072,12 +3072,12 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>DELL</t>
+          <t>오디세이</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>DELL</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
@@ -3099,43 +3099,43 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>한성컴퓨터 ULTRON 3278 QHD New</t>
+          <t>삼성전자 24인치 컴퓨터모니터 베젤리스 FreeSync 75Hz LS24R35AFHKXKR 가정용 사무용</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=16776093488</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=84111077002</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1677609/16776093488.20200424094717.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8411107/84111077002.5.jpg</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>229000</t>
+          <t>154000</t>
         </is>
       </c>
       <c r="F48" t="inlineStr"/>
       <c r="G48" t="inlineStr">
         <is>
-          <t>네이버</t>
+          <t>온라인파트너</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 상품</t>
+          <t>일반 - 가격비교 비매칭 일반상품</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>삼성</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
@@ -3157,22 +3157,22 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>삼성전자 삼성 F24T450</t>
+          <t>MSI G271 게이밍 144 아이세이버</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24007200522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=22435637800</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2400720/24007200522.20210203133027.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2243563/22435637800.20221207113552.jpg</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>228000</t>
+          <t>233990</t>
         </is>
       </c>
       <c r="F49" t="inlineStr"/>
@@ -3188,12 +3188,12 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>삼성</t>
+          <t>MSI</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>MSI</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
@@ -3215,22 +3215,22 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>삼성전자 스마트모니터 LS32BM703UKXKR</t>
+          <t>LG전자 27MN430HW</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=32847073618</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=23301354490</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3284707/32847073618.20220609154055.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2330135/23301354490.20200824152000.jpg</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>458900</t>
+          <t>195900</t>
         </is>
       </c>
       <c r="F50" t="inlineStr"/>
@@ -3246,12 +3246,12 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>스마트모니터</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
@@ -3273,22 +3273,22 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>벤큐 모비우스 EX2710S</t>
+          <t>LG전자 27ML600SW</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27862189523</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=19105887903</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2786218/27862189523.20220311174737.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1910588/19105887903.20220125134154.jpg</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>349000</t>
+          <t>248900</t>
         </is>
       </c>
       <c r="F51" t="inlineStr"/>
@@ -3304,12 +3304,12 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>벤큐</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>벤큐</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
@@ -3331,22 +3331,22 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>LG전자 27TQ600SW</t>
+          <t>한성컴퓨터 ULTRON 3278 QHD New</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=32982708620</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=16776093488</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3298270/32982708620.20220616144209.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1677609/16776093488.20200424094717.jpg</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>426590</t>
+          <t>229000</t>
         </is>
       </c>
       <c r="F52" t="inlineStr"/>
@@ -3362,12 +3362,12 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
@@ -3389,22 +3389,22 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>삼성전자 삼성 U32J590</t>
+          <t>LG전자 울트라기어 27GP750</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=14306268525</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=29060355587</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1430626/14306268525.20210203133511.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2906035/29060355587.20220125134215.jpg</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>358990</t>
+          <t>447000</t>
         </is>
       </c>
       <c r="F53" t="inlineStr"/>
@@ -3420,12 +3420,12 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>삼성</t>
+          <t>울트라기어</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
@@ -3447,22 +3447,22 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>DELL 울트라샤프 U2722D</t>
+          <t>메타닉스 M2410 아이케어 75</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27124609522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=35711172618</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2712460/27124609522.20210719172836.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3571117/35711172618.20221108150155.jpg</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>509000</t>
+          <t>104000</t>
         </is>
       </c>
       <c r="F54" t="inlineStr"/>
@@ -3478,12 +3478,12 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>울트라샤프</t>
+          <t>메타닉스</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>DELL</t>
+          <t>메타닉스</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
@@ -3505,22 +3505,22 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>한성컴퓨터 ULTRON 2758 프리싱크 리얼 75</t>
+          <t>알파스캔 AOC Q27G2S 155</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=14816445651</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24694967522</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1481644/14816445651.20220506122800.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2469496/24694967522.20210310172228.jpg</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>139000</t>
+          <t>399000</t>
         </is>
       </c>
       <c r="F55" t="inlineStr"/>
@@ -3536,12 +3536,12 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>알파스캔</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>알파스캔</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
@@ -3563,22 +3563,22 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>알파스캔 AOC Q27G2S 155</t>
+          <t>삼성전자 삼성 U32J590</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24694967522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=14306268525</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2469496/24694967522.20210310172228.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1430626/14306268525.20210203133511.jpg</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>399000</t>
+          <t>357990</t>
         </is>
       </c>
       <c r="F56" t="inlineStr"/>
@@ -3594,12 +3594,12 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>알파스캔</t>
+          <t>삼성</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>알파스캔</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
@@ -3621,22 +3621,22 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>벤큐 XL2540K 240</t>
+          <t>LG전자 울트라기어 32GP850</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=28506139554</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27405944522</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2850613/28506139554.20220311173751.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2740594/27405944522.20230117174001.jpg</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>499000</t>
+          <t>631990</t>
         </is>
       </c>
       <c r="F57" t="inlineStr"/>
@@ -3652,12 +3652,12 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>벤큐</t>
+          <t>울트라기어</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>벤큐</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
@@ -3679,22 +3679,22 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>필립스 271E1 프리싱크 75 시력보호 제로베젤</t>
+          <t>LG전자 27TQ600SW</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=21496753758</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=32982708620</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2149675/21496753758.20200221173844.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3298270/32982708620.20220616144209.jpg</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>204000</t>
+          <t>419900</t>
         </is>
       </c>
       <c r="F58" t="inlineStr"/>
@@ -3710,12 +3710,12 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>필립스</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>필립스</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
@@ -3737,22 +3737,22 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>한성컴퓨터 TFG30F20W  울트라와이드 200 게이밍</t>
+          <t>주연테크 V28UE</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27287676522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=26322015522</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2728767/27287676522.20210628121550.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2632201/26322015522.20210311142212.jpg</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>269000</t>
+          <t>349000</t>
         </is>
       </c>
       <c r="F59" t="inlineStr"/>
@@ -3768,12 +3768,12 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>주연테크</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>주연테크</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
@@ -3795,22 +3795,22 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>LG전자 울트라기어 32GP850</t>
+          <t>필립스 271E1 프리싱크 75 시력보호 제로베젤</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27405944522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=21496753758</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2740594/27405944522.20230117174001.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2149675/21496753758.20200221173844.jpg</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>631990</t>
+          <t>204000</t>
         </is>
       </c>
       <c r="F60" t="inlineStr"/>
@@ -3826,12 +3826,12 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>울트라기어</t>
+          <t>필립스</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>필립스</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
@@ -3853,22 +3853,22 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>LG전자 울트라와이드 34WN750</t>
+          <t>한성컴퓨터 TFG30F20W  울트라와이드 200 게이밍</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=23257853490</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27287676522</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2325785/23257853490.20200824150256.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2728767/27287676522.20210628121550.jpg</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>539990</t>
+          <t>269000</t>
         </is>
       </c>
       <c r="F61" t="inlineStr"/>
@@ -3884,12 +3884,12 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>울트라와이드</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
@@ -3911,43 +3911,43 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>알파스캔 AOC Q32V3S 75 무결점</t>
+          <t>삼성전자 32인치 커브드 모니터 베젤리스 눈 보호 모드 LC32R500FHKX/KR</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=26013420522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=80601833496</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2601342/26013420522.20220211140907.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8060183/80601833496.8.jpg</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>329000</t>
+          <t>264000</t>
         </is>
       </c>
       <c r="F62" t="inlineStr"/>
       <c r="G62" t="inlineStr">
         <is>
-          <t>네이버</t>
+          <t>삼성공식파트너 오제</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 상품</t>
+          <t>일반 - 가격비교 비매칭 일반상품</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>알파스캔</t>
+          <t>삼성</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>알파스캔</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
@@ -3969,22 +3969,22 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>인터픽셀 IP2740 게이밍 165</t>
+          <t>LG전자 울트라와이드 34WN750</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=18968201200</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=23257853490</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1896820/18968201200.20210325162750.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2325785/23257853490.20200824150256.jpg</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>239000</t>
+          <t>539990</t>
         </is>
       </c>
       <c r="F63" t="inlineStr"/>
@@ -4000,12 +4000,12 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>인터픽셀</t>
+          <t>울트라와이드</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>인터픽셀</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
@@ -4027,43 +4027,43 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>삼성전자 32인치 커브드 모니터 베젤리스 눈 보호 모드 LC32R500FHKX/KR</t>
+          <t>인터픽셀 IP2740 게이밍 165</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=80601833496</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=18968201200</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8060183/80601833496.8.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1896820/18968201200.20210325162750.jpg</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>264000</t>
+          <t>239000</t>
         </is>
       </c>
       <c r="F64" t="inlineStr"/>
       <c r="G64" t="inlineStr">
         <is>
-          <t>삼성공식파트너 오제</t>
+          <t>네이버</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 비매칭 일반상품</t>
+          <t>일반 - 가격비교 상품</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>삼성</t>
+          <t>인터픽셀</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>인터픽셀</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
@@ -4085,22 +4085,22 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>메타닉스 M2410 아이케어 75</t>
+          <t>삼성전자 삼성 F24T450</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=35711172618</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24007200522</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3571117/35711172618.20221108150155.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2400720/24007200522.20210203133027.jpg</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>104000</t>
+          <t>228000</t>
         </is>
       </c>
       <c r="F65" t="inlineStr"/>
@@ -4116,12 +4116,12 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>메타닉스</t>
+          <t>삼성</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>메타닉스</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
@@ -4143,22 +4143,22 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>삼성전자 스마트모니터 M5 S32BM500</t>
+          <t>삼성전자 삼성 S27R350</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=31799047618</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=21775935202</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3179904/31799047618.20220413101833.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2177593/21775935202.20210203132859.jpg</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>305000</t>
+          <t>219000</t>
         </is>
       </c>
       <c r="F66" t="inlineStr"/>
@@ -4174,7 +4174,7 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>스마트모니터</t>
+          <t>삼성</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -4201,22 +4201,22 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>삼성전자 삼성 S27B610 75</t>
+          <t>삼성전자 삼성 C32T550</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=31531820618</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=22448790144</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3153182/31531820618.20220330101749.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2244879/22448790144.20210203133005.jpg</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>289000</t>
+          <t>315020</t>
         </is>
       </c>
       <c r="F67" t="inlineStr"/>
@@ -4259,22 +4259,22 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>LG전자 27ML600SW</t>
+          <t>LG전자 울트라기어 27GP850</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=19105887903</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=28378464554</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1910588/19105887903.20220125134154.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2837846/28378464554.20230119171606.jpg</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>248900</t>
+          <t>548890</t>
         </is>
       </c>
       <c r="F68" t="inlineStr"/>
@@ -4290,7 +4290,7 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>울트라기어</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -4317,22 +4317,22 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>삼성전자 삼성 C32T550</t>
+          <t>LG전자 24MN430HW</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=22448790144</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=23244797490</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2244879/22448790144.20210203133005.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2324479/23244797490.20220311131641.jpg</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>315020</t>
+          <t>159690</t>
         </is>
       </c>
       <c r="F69" t="inlineStr"/>
@@ -4348,12 +4348,12 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>삼성</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
@@ -4433,22 +4433,22 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>LG전자 울트라기어 27GP750</t>
+          <t>삼성전자 삼성 S27B610 75</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=29060355587</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=31531820618</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2906035/29060355587.20220125134215.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3153182/31531820618.20220330101749.jpg</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>448900</t>
+          <t>289000</t>
         </is>
       </c>
       <c r="F71" t="inlineStr"/>
@@ -4464,12 +4464,12 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>울트라기어</t>
+          <t>삼성</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
@@ -4491,22 +4491,22 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>삼성전자 오디세이 Neo G9 S49AG950 49인치 게이밍 모니터</t>
+          <t>한성컴퓨터 ULTRON 2235V 프리싱크 리얼 75</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=28288984554</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=16384522728</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2828898/28288984554.20220713164635.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1638452/16384522728.20220315162439.jpg</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>1979950</t>
+          <t>89000</t>
         </is>
       </c>
       <c r="F72" t="inlineStr"/>
@@ -4522,12 +4522,12 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>오디세이</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
@@ -4549,22 +4549,22 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>LG전자 32UN550</t>
+          <t>LG전자 24MP500W</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24367892525</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=28272152554</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2436789/24367892525.20210406141630.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2827215/28272152554.20210805113756.jpg</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>498890</t>
+          <t>183900</t>
         </is>
       </c>
       <c r="F73" t="inlineStr"/>
@@ -4607,43 +4607,43 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>LG전자 24MN430HW</t>
+          <t>삼성 27인치 컴퓨터 모니터 C27R502 LC27R502FHKXKR freesync VA패널</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=23244797490</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=82874084859</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2324479/23244797490.20220311131641.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8287408/82874084859.5.jpg</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>159760</t>
+          <t>209000</t>
         </is>
       </c>
       <c r="F74" t="inlineStr"/>
       <c r="G74" t="inlineStr">
         <is>
-          <t>네이버</t>
+          <t>삼성공식파트너 큐소닉</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 상품</t>
+          <t>일반 - 가격비교 비매칭 일반상품</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>삼성</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
@@ -4665,22 +4665,22 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>벤큐 GW2480 아이케어 무결점</t>
+          <t>LG전자 24MP400</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=11846842637</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27614392522</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1184684/11846842637.20220318094758.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2761439/27614392522.20210813165340.jpg</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>164000</t>
+          <t>178900</t>
         </is>
       </c>
       <c r="F75" t="inlineStr"/>
@@ -4696,12 +4696,12 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>벤큐</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>벤큐</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
@@ -4723,22 +4723,22 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>한성컴퓨터 ULTRON 2235V 프리싱크 리얼 75</t>
+          <t>삼성전자 스마트모니터 M5 S32BM500</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=16384522728</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=31799047618</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1638452/16384522728.20220315162439.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3179904/31799047618.20220413101833.jpg</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>89000</t>
+          <t>296000</t>
         </is>
       </c>
       <c r="F76" t="inlineStr"/>
@@ -4754,12 +4754,12 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>스마트모니터</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
@@ -4781,22 +4781,22 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>한성컴퓨터 ULTRON 2760G 리얼 144</t>
+          <t>한성컴퓨터 TFX32U06V 4K HDR 1500R 커브드</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=15020041438</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=20942220356</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1502004/15020041438.20220429112257.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2094222/20942220356.20210630112723.jpg</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>169000</t>
+          <t>289000</t>
         </is>
       </c>
       <c r="F77" t="inlineStr"/>
@@ -4839,22 +4839,22 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>한성컴퓨터 TFX32U06V 4K HDR 1500R 커브드</t>
+          <t>한성컴퓨터 ULTRON 2758 프리싱크 리얼 75</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=20942220356</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=14816445651</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2094222/20942220356.20210630112723.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1481644/14816445651.20220506122800.jpg</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>289000</t>
+          <t>139000</t>
         </is>
       </c>
       <c r="F78" t="inlineStr"/>
@@ -4897,22 +4897,22 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>LG전자 24MP400</t>
+          <t>한성컴퓨터 TFG32Q07P 75</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27614392522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=28655748554</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2761439/27614392522.20210813165340.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2865574/28655748554.20210831152013.jpg</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>178900</t>
+          <t>229000</t>
         </is>
       </c>
       <c r="F79" t="inlineStr"/>
@@ -4928,12 +4928,12 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
@@ -4955,22 +4955,22 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>제우스랩 알파플랜 P15A 포터블</t>
+          <t>LG전자 울트라와이드 34WP500</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=20651265453</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27584005522</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2065126/20651265453.20210726174943.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2758400/27584005522.20210615125004.jpg</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>179000</t>
+          <t>378900</t>
         </is>
       </c>
       <c r="F80" t="inlineStr"/>
@@ -4986,12 +4986,12 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>알파플랜</t>
+          <t>울트라와이드</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>제우스랩</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
@@ -5013,22 +5013,22 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>LG전자 울트라기어 27GP850</t>
+          <t>삼성전자 오디세이 Neo G9 S49AG950 49인치 게이밍 모니터</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=28378464554</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=28288984554</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2837846/28378464554.20230119171606.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2828898/28288984554.20220713164635.jpg</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>548890</t>
+          <t>1980000</t>
         </is>
       </c>
       <c r="F81" t="inlineStr"/>
@@ -5044,12 +5044,12 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>울트라기어</t>
+          <t>오디세이</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
@@ -5071,43 +5071,43 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>삼성 27인치 컴퓨터 모니터 C27R502 LC27R502FHKXKR freesync VA패널</t>
+          <t>DELL 울트라샤프 U3223QE</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=82874084859</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=32148338618</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8287408/82874084859.5.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3214833/32148338618.20220725142455.jpg</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>209000</t>
+          <t>1279000</t>
         </is>
       </c>
       <c r="F82" t="inlineStr"/>
       <c r="G82" t="inlineStr">
         <is>
-          <t>삼성공식파트너 큐소닉</t>
+          <t>네이버</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 비매칭 일반상품</t>
+          <t>일반 - 가격비교 상품</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>삼성</t>
+          <t>울트라샤프</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>DELL</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
@@ -5129,22 +5129,22 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>LG전자 24MP500W</t>
+          <t>LG전자 울트라기어 32GN650</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=28272152554</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=25413802522</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2827215/28272152554.20210805113756.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2541380/25413802522.20220124181008.jpg</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>184000</t>
+          <t>448190</t>
         </is>
       </c>
       <c r="F83" t="inlineStr"/>
@@ -5160,7 +5160,7 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>울트라기어</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -5187,22 +5187,22 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>LG전자 울트라기어 32GN650</t>
+          <t>삼성전자 스마트모니터 LS32BM703UKXKR</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=25413802522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=32847073618</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2541380/25413802522.20220124181008.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3284707/32847073618.20220609154055.jpg</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>448100</t>
+          <t>450770</t>
         </is>
       </c>
       <c r="F84" t="inlineStr"/>
@@ -5218,12 +5218,12 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>울트라기어</t>
+          <t>스마트모니터</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
@@ -5245,22 +5245,22 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>LG전자 22MP410</t>
+          <t>DELL 울트라샤프 U2722D</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=30861855618</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27124609522</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3086185/30861855618.20220209110852.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2712460/27124609522.20210719172836.jpg</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>159000</t>
+          <t>509000</t>
         </is>
       </c>
       <c r="F85" t="inlineStr"/>
@@ -5276,12 +5276,12 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>울트라샤프</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>DELL</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
@@ -5303,22 +5303,22 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>LG전자 울트라와이드 34WP500</t>
+          <t>삼성전자 오디세이 G3 S24AG300 144</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27584005522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27534600522</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2758400/27584005522.20210615125004.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2753460/27534600522.20210611131536.jpg</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>378900</t>
+          <t>228000</t>
         </is>
       </c>
       <c r="F86" t="inlineStr"/>
@@ -5334,12 +5334,12 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>울트라와이드</t>
+          <t>오디세이</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
@@ -5361,22 +5361,22 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>LG전자 27UP850N</t>
+          <t>한성컴퓨터 ULTRON 2760G 리얼 144</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=34938247618</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=15020041438</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3493824/34938247618.20220928104044.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1502004/15020041438.20220429112257.jpg</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>648730</t>
+          <t>169000</t>
         </is>
       </c>
       <c r="F87" t="inlineStr"/>
@@ -5392,12 +5392,12 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
@@ -5419,22 +5419,22 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>한성컴퓨터 TFG27F07V 1500R 커브드 게이밍</t>
+          <t>삼성전자 오디세이 G5 G55A S27AG550 165</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=20804055869</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=30454173618</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2080405/20804055869.20210414144137.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3045417/30454173618.20220107132754.jpg</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>139000</t>
+          <t>359000</t>
         </is>
       </c>
       <c r="F88" t="inlineStr"/>
@@ -5450,12 +5450,12 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>오디세이</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
@@ -5477,17 +5477,17 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>삼성전자 27인치 QHD 모니터 68.4cm IPS 75Hz 피벗 S27B610EQ S27B610 FreeSync</t>
+          <t>한성컴퓨터 TFG32Q14V 1500R 리얼 144 게이밍</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=84352653931</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=20819573509</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8435265/84352653931.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2081957/20819573509.20220816144235.jpg</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -5498,22 +5498,22 @@
       <c r="F89" t="inlineStr"/>
       <c r="G89" t="inlineStr">
         <is>
-          <t>삼성공식파트너 큐소닉</t>
+          <t>네이버</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 비매칭 일반상품</t>
+          <t>일반 - 가격비교 상품</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>삼성</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
@@ -5535,22 +5535,22 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>삼성전자 오디세이 G5 G55A S27AG550 165</t>
+          <t>LG전자 27UP850N</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=30454173618</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=34938247618</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3045417/30454173618.20220107132754.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3493824/34938247618.20220928104044.jpg</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>359000</t>
+          <t>648630</t>
         </is>
       </c>
       <c r="F90" t="inlineStr"/>
@@ -5566,12 +5566,12 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>오디세이</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
@@ -5593,22 +5593,22 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>삼성전자 오디세이 G3 S24AG300 144</t>
+          <t>한성컴퓨터 TFG27F07V 1500R 커브드 게이밍</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27534600522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=20804055869</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2753460/27534600522.20210611131536.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2080405/20804055869.20210414144137.jpg</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>228000</t>
+          <t>139000</t>
         </is>
       </c>
       <c r="F91" t="inlineStr"/>
@@ -5624,12 +5624,12 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>오디세이</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
@@ -5651,22 +5651,22 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>한성컴퓨터 TFG32Q14V 1500R 리얼 144 게이밍</t>
+          <t>제우스랩 알파플랜 P15A 포터블</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=20819573509</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=20651265453</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2081957/20819573509.20220816144235.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2065126/20651265453.20210726174943.jpg</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>299000</t>
+          <t>177110</t>
         </is>
       </c>
       <c r="F92" t="inlineStr"/>
@@ -5682,12 +5682,12 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>알파플랜</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>제우스랩</t>
         </is>
       </c>
       <c r="K92" t="inlineStr">
@@ -5709,22 +5709,22 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>DELL 울트라샤프 U2422H</t>
+          <t>벤큐 XL2540K 240</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27583031524</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=28506139554</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2758303/27583031524.20210830114405.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2850613/28506139554.20220311173751.jpg</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>339000</t>
+          <t>499000</t>
         </is>
       </c>
       <c r="F93" t="inlineStr"/>
@@ -5740,12 +5740,12 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>울트라샤프</t>
+          <t>벤큐</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>DELL</t>
+          <t>벤큐</t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
@@ -5767,22 +5767,22 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>LG전자 울트라기어 32GP750 165</t>
+          <t>LG전자 울트라HD 32UN880</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=31658867618</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24554243522</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3165886/31658867618.20220407173049.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2455424/24554243522.20210406130449.jpg</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>542330</t>
+          <t>757970</t>
         </is>
       </c>
       <c r="F94" t="inlineStr"/>
@@ -5798,7 +5798,7 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>울트라기어</t>
+          <t>울트라HD</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -5825,22 +5825,22 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>LG전자 울트라HD 32UN880</t>
+          <t>LG전자 32MN500M</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24554243522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=22565151066</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2455424/24554243522.20210406130449.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2256515/22565151066.20200824152704.jpg</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>757990</t>
+          <t>259000</t>
         </is>
       </c>
       <c r="F95" t="inlineStr"/>
@@ -5856,7 +5856,7 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>울트라HD</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -5883,43 +5883,43 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>24인치모니터 컴퓨터모니터 게이밍 모니터 FHD 75hz PC 듀얼</t>
+          <t>LG전자 울트라기어 32GP750 165</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=80461476918</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=31658867618</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8046147/80461476918.2.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3165886/31658867618.20220407173049.jpg</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>99000</t>
+          <t>535260</t>
         </is>
       </c>
       <c r="F96" t="inlineStr"/>
       <c r="G96" t="inlineStr">
         <is>
-          <t>티엑스</t>
+          <t>네이버</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 비매칭 일반상품</t>
+          <t>일반 - 가격비교 상품</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>네모로</t>
+          <t>울트라기어</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>TX</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K96" t="inlineStr">
@@ -5941,22 +5941,22 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>한성컴퓨터 TFG32Q07P 75</t>
+          <t>래안텍 EdgeArt F2775K 화이트슬림 프리싱크 리얼75 게이밍</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=28655748554</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=16140608622</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2865574/28655748554.20210831152013.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1614060/16140608622.20220509103045.jpg</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>229000</t>
+          <t>131000</t>
         </is>
       </c>
       <c r="F97" t="inlineStr"/>
@@ -5972,12 +5972,12 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>래안텍</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>래안텍</t>
         </is>
       </c>
       <c r="K97" t="inlineStr">
@@ -5999,38 +5999,38 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>삼성전자 스마트모니터 M5 S32AM500</t>
+          <t>삼성전자 오디세이 32인치 게이밍 컴퓨터 모니터 165Hz 1ms S32AG320 LS32AG320NKXKR</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=25524342522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=84564976887</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2552434/25524342522.20210302142529.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8456497/84564976887.1.jpg</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>298490</t>
+          <t>309000</t>
         </is>
       </c>
       <c r="F98" t="inlineStr"/>
       <c r="G98" t="inlineStr">
         <is>
-          <t>네이버</t>
+          <t>삼성공식파트너 큐소닉</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 상품</t>
+          <t>일반 - 가격비교 비매칭 일반상품</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>스마트모니터</t>
+          <t>삼성</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -6057,22 +6057,22 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>DELL 울트라샤프 U3223QE</t>
+          <t>LG전자 울트라와이드 29WP500</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=32148338618</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=26886077522</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3214833/32148338618.20220725142455.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2688607/26886077522.20210524134552.jpg</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>1279000</t>
+          <t>249000</t>
         </is>
       </c>
       <c r="F99" t="inlineStr"/>
@@ -6088,12 +6088,12 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>울트라샤프</t>
+          <t>울트라와이드</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>DELL</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K99" t="inlineStr">
@@ -6115,43 +6115,43 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>삼성전자 삼성 S34J550</t>
+          <t>24인치모니터 컴퓨터모니터 게이밍 모니터 FHD 75hz PC 듀얼</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=15704895486</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=80461476918</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1570489/15704895486.20210203133054.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8046147/80461476918.2.jpg</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>368840</t>
+          <t>99000</t>
         </is>
       </c>
       <c r="F100" t="inlineStr"/>
       <c r="G100" t="inlineStr">
         <is>
-          <t>네이버</t>
+          <t>티엑스</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 상품</t>
+          <t>일반 - 가격비교 비매칭 일반상품</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>삼성</t>
+          <t>네모로</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>TX</t>
         </is>
       </c>
       <c r="K100" t="inlineStr">
@@ -6173,43 +6173,43 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>삼성전자 24인치 컴퓨터모니터 베젤리스 FreeSync 75Hz LS24R35AFHKXKR 가정용 사무용</t>
+          <t>LG전자 32UN550</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=84111077002</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24367892525</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8411107/84111077002.5.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2436789/24367892525.20210406141630.jpg</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>154000</t>
+          <t>498900</t>
         </is>
       </c>
       <c r="F101" t="inlineStr"/>
       <c r="G101" t="inlineStr">
         <is>
-          <t>온라인파트너</t>
+          <t>네이버</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 비매칭 일반상품</t>
+          <t>일반 - 가격비교 상품</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>삼성</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K101" t="inlineStr">

--- a/output.xlsx
+++ b/output.xlsx
@@ -439,22 +439,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>삼성전자 삼성 F24T350</t>
+          <t>삼성전자 스마트모니터 M7 S43BM700</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24007197522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=31889649618</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2400719/24007197522.20210302142445.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3188964/31889649618.20220418150602.jpg</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>159000</t>
+          <t>592990</t>
         </is>
       </c>
       <c r="F2" t="inlineStr"/>
@@ -470,7 +470,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>삼성</t>
+          <t>스마트모니터</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -497,22 +497,22 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>삼성전자 스마트모니터 M7 S43BM700</t>
+          <t>삼성전자 삼성 F24T350</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=31889649618</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24007197522</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3188964/31889649618.20220418150602.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2400719/24007197522.20210302142445.jpg</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>592990</t>
+          <t>159000</t>
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
@@ -528,7 +528,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>스마트모니터</t>
+          <t>삼성</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -555,22 +555,22 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>LG전자 24MK430H 24인치 FHD IPS 광시야각 모니터</t>
+          <t>LG전자 울트라기어 24GN600 144Hz</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=13643814149</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=26122103522</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1364381/13643814149.20200824151155.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2612210/26122103522.20230119171628.jpg</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>125200</t>
+          <t>204000</t>
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
@@ -586,7 +586,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>울트라기어</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -613,22 +613,22 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>LG전자 울트라기어 24GN600 144Hz</t>
+          <t>삼성전자 오디세이 G5 C27G54T</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=26122103522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=23896119522</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2612210/26122103522.20230119171628.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2389611/23896119522.20210302142506.jpg</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>204000</t>
+          <t>329990</t>
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
@@ -644,12 +644,12 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>울트라기어</t>
+          <t>오디세이</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -671,22 +671,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>삼성전자 오디세이 G5 C27G54T</t>
+          <t>삼성전자 삼성 F27T350</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=23896119522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=23996451524</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2389611/23896119522.20210302142506.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2399645/23996451524.20210302142600.jpg</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>338000</t>
+          <t>189990</t>
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
@@ -702,7 +702,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>오디세이</t>
+          <t>삼성</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -787,22 +787,22 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>삼성전자 삼성 F27T350</t>
+          <t>LG전자 24MK430H 24인치 FHD IPS 광시야각 모니터</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=23996451524</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=13643814149</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2399645/23996451524.20210302142600.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1364381/13643814149.20200824151155.jpg</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>192920</t>
+          <t>125000</t>
         </is>
       </c>
       <c r="F8" t="inlineStr"/>
@@ -818,12 +818,12 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>삼성</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -845,22 +845,22 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>삼성전자 스마트모니터 M5 S32BM501</t>
+          <t>삼성전자 삼성 커브드 C27R502 베젤리스 프리싱크</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=31799436618</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=20189888243</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3179943/31799436618.20220413103106.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2018988/20189888243.20220519143818.jpg</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>331580</t>
+          <t>206830</t>
         </is>
       </c>
       <c r="F9" t="inlineStr"/>
@@ -876,7 +876,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>스마트모니터</t>
+          <t>삼성</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -961,22 +961,22 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>삼성전자 삼성 커브드 C27R502 베젤리스 프리싱크</t>
+          <t>LG전자 울트라HD 27UL550</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=20189888243</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=19298157033</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2018988/20189888243.20220519143818.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1929815/19298157033.20221013131758.jpg</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>206830</t>
+          <t>398900</t>
         </is>
       </c>
       <c r="F11" t="inlineStr"/>
@@ -992,12 +992,12 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>삼성</t>
+          <t>울트라HD</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -1019,22 +1019,22 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>LG전자 32QN650</t>
+          <t>삼성전자 스마트모니터 M5 S27BM500</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=23692201495</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=31910890630</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2369220/23692201495.20210406132235.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3191089/31910890630.20220915143644.jpg</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>391000</t>
+          <t>225050</t>
         </is>
       </c>
       <c r="F12" t="inlineStr"/>
@@ -1050,12 +1050,12 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>스마트모니터</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -1077,22 +1077,22 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>LG전자 LG그램 그램+뷰 16MQ70</t>
+          <t>삼성전자 스마트모니터 M7 S32BM701</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=30377313618</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=31605413618</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3037731/30377313618.20211231144328.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3160541/31605413618.20220404134022.jpg</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>331620</t>
+          <t>488840</t>
         </is>
       </c>
       <c r="F13" t="inlineStr"/>
@@ -1108,12 +1108,12 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>LG그램</t>
+          <t>스마트모니터</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -1135,22 +1135,22 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>LG전자 울트라HD 32UN650</t>
+          <t>삼성전자 오디세이 G5 C34G55T 165</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24635274522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=25744041522</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2463527/24635274522.20210405173537.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2574404/25744041522.20210324143655.jpg</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>545390</t>
+          <t>487700</t>
         </is>
       </c>
       <c r="F14" t="inlineStr"/>
@@ -1166,12 +1166,12 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>울트라HD</t>
+          <t>오디세이</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -1193,22 +1193,22 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>LG전자 32MN500MW</t>
+          <t>MSI G271 게이밍 144 아이세이버</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=22764052560</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=22435637800</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2276405/22764052560.20200824151306.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2243563/22435637800.20221207113552.jpg</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>252300</t>
+          <t>234000</t>
         </is>
       </c>
       <c r="F15" t="inlineStr"/>
@@ -1224,12 +1224,12 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>MSI</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>MSI</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -1251,22 +1251,22 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>삼성전자 스마트모니터 M7 S32BM700</t>
+          <t>LG전자 울트라HD 32UN650</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=31605356618</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24635274522</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3160535/31605356618.20220404132823.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2463527/24635274522.20210405173537.jpg</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>488990</t>
+          <t>545390</t>
         </is>
       </c>
       <c r="F16" t="inlineStr"/>
@@ -1282,12 +1282,12 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>스마트모니터</t>
+          <t>울트라HD</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -1309,22 +1309,22 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>삼성전자 스마트모니터 M7 S32BM701</t>
+          <t>삼성전자 스마트모니터 M5 S32BM501</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=31605413618</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=31799436618</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3160541/31605413618.20220404134022.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3179943/31799436618.20220413103106.jpg</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>488850</t>
+          <t>331580</t>
         </is>
       </c>
       <c r="F17" t="inlineStr"/>
@@ -1367,22 +1367,22 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>삼성전자 스마트모니터 M5 S27BM500</t>
+          <t>LG전자 울트라기어 27GN650</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=31910890630</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=25413919522</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3191089/31910890630.20220915143644.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2541391/25413919522.20220125134231.jpg</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>225050</t>
+          <t>365680</t>
         </is>
       </c>
       <c r="F18" t="inlineStr"/>
@@ -1398,12 +1398,12 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>스마트모니터</t>
+          <t>울트라기어</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -1425,22 +1425,22 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>LG전자 울트라기어 27GN650</t>
+          <t>LG전자 LG그램 그램+뷰 16MQ70</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=25413919522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=30377313618</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2541391/25413919522.20220125134231.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3037731/30377313618.20211231144328.jpg</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>365680</t>
+          <t>331570</t>
         </is>
       </c>
       <c r="F19" t="inlineStr"/>
@@ -1456,7 +1456,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>울트라기어</t>
+          <t>LG그램</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1483,22 +1483,22 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>한성컴퓨터 ULTRON 2435V 프리싱크 리얼75</t>
+          <t>삼성전자 삼성 C32R500F</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=13487979407</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=22483121542</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1348797/13487979407.20220404172708.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2248312/22483121542.20220519144103.jpg</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>109000</t>
+          <t>263990</t>
         </is>
       </c>
       <c r="F20" t="inlineStr"/>
@@ -1514,12 +1514,12 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>삼성</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -1541,22 +1541,22 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>LG전자 울트라HD 27UL550</t>
+          <t>LG전자 32MN500MW</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=19298157033</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=22764052560</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1929815/19298157033.20221013131758.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2276405/22764052560.20200824151306.jpg</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>399000</t>
+          <t>252300</t>
         </is>
       </c>
       <c r="F21" t="inlineStr"/>
@@ -1572,7 +1572,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>울트라HD</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1599,22 +1599,22 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>알파스캔 AOC 24B2 75 무결점</t>
+          <t>삼성전자 스마트모니터 M7 S32BM700</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24171105522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=31605356618</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2417110/24171105522.20210310172014.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3160535/31605356618.20220404132823.jpg</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>149000</t>
+          <t>489000</t>
         </is>
       </c>
       <c r="F22" t="inlineStr"/>
@@ -1630,12 +1630,12 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>알파스캔</t>
+          <t>스마트모니터</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>알파스캔</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
@@ -1657,22 +1657,22 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>삼성전자 오디세이 G5 C34G55T 165</t>
+          <t>LG전자 27MK430H</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=25744041522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=15183175543</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2574404/25744041522.20210324143655.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1518317/15183175543.20200824151717.jpg</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>487700</t>
+          <t>189040</t>
         </is>
       </c>
       <c r="F23" t="inlineStr"/>
@@ -1688,12 +1688,12 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>오디세이</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -1715,22 +1715,22 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>알파스캔 AOC 27B2 보더리스 75 시력보호</t>
+          <t>벤큐 GW2780 아이케어</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=21720504796</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=11846746201</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2172050/21720504796.20210310171806.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1184674/11846746201.20220318094817.jpg</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>179000</t>
+          <t>194000</t>
         </is>
       </c>
       <c r="F24" t="inlineStr"/>
@@ -1746,12 +1746,12 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>알파스캔</t>
+          <t>벤큐</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>알파스캔</t>
+          <t>벤큐</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -1773,22 +1773,22 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>삼성전자 삼성 C32R500F</t>
+          <t>한성컴퓨터 ULTRON 2435V 프리싱크 리얼75</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=22483121542</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=13487979407</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2248312/22483121542.20220519144103.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1348797/13487979407.20220404172708.jpg</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>263990</t>
+          <t>109000</t>
         </is>
       </c>
       <c r="F25" t="inlineStr"/>
@@ -1804,12 +1804,12 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>삼성</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -1831,22 +1831,22 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>LG전자 27QN600</t>
+          <t>삼성전자 오디세이 G5 C32G54T</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=23849172522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=23896004523</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2384917/23849172522.20210406141920.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2389600/23896004523.20210203132926.jpg</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>326880</t>
+          <t>368900</t>
         </is>
       </c>
       <c r="F26" t="inlineStr"/>
@@ -1862,12 +1862,12 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>오디세이</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
@@ -1889,22 +1889,22 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>LG전자 24ML600SW</t>
+          <t>벤큐 XL2411K</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=19105796246</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24196764522</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1910579/19105796246.20200824152520.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2419676/24196764522.20220311173519.jpg</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>193490</t>
+          <t>269000</t>
         </is>
       </c>
       <c r="F27" t="inlineStr"/>
@@ -1920,12 +1920,12 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>벤큐</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>벤큐</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -1947,22 +1947,22 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>삼성전자 삼성 S27R350</t>
+          <t>알파스캔 AOC 24B2 75 무결점</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=21775935202</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24171105522</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2177593/21775935202.20210203132859.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2417110/24171105522.20210310172014.jpg</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>219000</t>
+          <t>149000</t>
         </is>
       </c>
       <c r="F28" t="inlineStr"/>
@@ -1978,12 +1978,12 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>삼성</t>
+          <t>알파스캔</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>알파스캔</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -2005,22 +2005,22 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>LG전자 27MK430H</t>
+          <t>LG전자 32QN650</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=15183175543</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=23692201495</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1518317/15183175543.20200824151717.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2369220/23692201495.20210406132235.jpg</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>189040</t>
+          <t>391000</t>
         </is>
       </c>
       <c r="F29" t="inlineStr"/>
@@ -2063,22 +2063,22 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>벤큐 GW2780 아이케어</t>
+          <t>LG전자 24ML600SW</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=11846746201</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=19105796246</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1184674/11846746201.20220318094817.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1910579/19105796246.20200824152520.jpg</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>194000</t>
+          <t>193490</t>
         </is>
       </c>
       <c r="F30" t="inlineStr"/>
@@ -2094,12 +2094,12 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>벤큐</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>벤큐</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
@@ -2121,22 +2121,22 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>삼성전자 삼성 S24R350 베젤리스 프리싱크 75</t>
+          <t>LG전자 27QN600</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=20861526783</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=23849172522</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2086152/20861526783.20210302142419.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2384917/23849172522.20210406141920.jpg</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>165000</t>
+          <t>326830</t>
         </is>
       </c>
       <c r="F31" t="inlineStr"/>
@@ -2152,12 +2152,12 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>삼성</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
@@ -2179,22 +2179,22 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>삼성전자 오디세이 G5 C32G54T</t>
+          <t>삼성전자 스마트모니터 LS32BM801UKXKR</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=23896004523</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=31160861618</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2389600/23896004523.20210203132926.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3116086/31160861618.20220304142910.jpg</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>368960</t>
+          <t>570000</t>
         </is>
       </c>
       <c r="F32" t="inlineStr"/>
@@ -2210,7 +2210,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>오디세이</t>
+          <t>스마트모니터</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -2237,22 +2237,22 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>LG전자 울트라기어 32GP850</t>
+          <t>한성컴퓨터 TFG32F16V 1500R 리얼 165 게이밍</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27405944522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=18778755031</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2740594/27405944522.20230117174001.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1877875/18778755031.20201230122744.jpg</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>631990</t>
+          <t>229000</t>
         </is>
       </c>
       <c r="F33" t="inlineStr"/>
@@ -2268,12 +2268,12 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>울트라기어</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
@@ -2295,22 +2295,22 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>한성컴퓨터 TFG27F16V 1500R 리얼 165 게이밍</t>
+          <t>삼성전자 삼성 S24R350 베젤리스 프리싱크 75</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=18797620615</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=20861526783</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1879762/18797620615.20201230122720.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2086152/20861526783.20210302142419.jpg</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>169000</t>
+          <t>165000</t>
         </is>
       </c>
       <c r="F34" t="inlineStr"/>
@@ -2326,12 +2326,12 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>삼성</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
@@ -2411,22 +2411,22 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>MSI G271 게이밍 144 아이세이버</t>
+          <t>DELL 울트라샤프 U2723QE</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=22435637800</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=31516928619</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2243563/22435637800.20221207113552.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3151692/31516928619.20220725165234.jpg</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>233990</t>
+          <t>799000</t>
         </is>
       </c>
       <c r="F36" t="inlineStr"/>
@@ -2442,12 +2442,12 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>MSI</t>
+          <t>울트라샤프</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>MSI</t>
+          <t>DELL</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
@@ -2469,22 +2469,22 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>삼성전자 스마트모니터 LS32BM801UKXKR</t>
+          <t>한성컴퓨터 TFG27F16V 1500R 리얼 165 게이밍</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=31160861618</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=18797620615</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3116086/31160861618.20220304142910.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1879762/18797620615.20201230122720.jpg</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>570000</t>
+          <t>169000</t>
         </is>
       </c>
       <c r="F37" t="inlineStr"/>
@@ -2500,12 +2500,12 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>스마트모니터</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
@@ -2527,22 +2527,22 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>한성컴퓨터 TFG32F16V 1500R 리얼 165 게이밍</t>
+          <t>LG전자 울트라기어 32GP850</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=18778755031</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27405944522</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1877875/18778755031.20201230122744.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2740594/27405944522.20230117174001.jpg</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>229000</t>
+          <t>631990</t>
         </is>
       </c>
       <c r="F38" t="inlineStr"/>
@@ -2558,12 +2558,12 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>울트라기어</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
@@ -2585,22 +2585,22 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>DELL 울트라샤프 U2723QE</t>
+          <t>한성컴퓨터 ULTRON 3278 QHD New</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=31516928619</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=16776093488</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3151692/31516928619.20220725165234.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1677609/16776093488.20200424094717.jpg</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>799000</t>
+          <t>229000</t>
         </is>
       </c>
       <c r="F39" t="inlineStr"/>
@@ -2616,12 +2616,12 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>울트라샤프</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>DELL</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
@@ -2643,22 +2643,22 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>벤큐 XL2411K</t>
+          <t>메타닉스 MU2700 IPS 4K UHD HDR</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24196764522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=35597520618</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2419676/24196764522.20220311173519.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3559752/35597520618.20221114152256.jpg</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>269000</t>
+          <t>209000</t>
         </is>
       </c>
       <c r="F40" t="inlineStr"/>
@@ -2674,12 +2674,12 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>벤큐</t>
+          <t>메타닉스</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>벤큐</t>
+          <t>메타닉스</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
@@ -2701,22 +2701,22 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>한성컴퓨터 ULTRON 2235V 프리싱크 리얼 75</t>
+          <t>삼성전자 삼성 S27R350</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=16384522728</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=21775935202</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1638452/16384522728.20220315162439.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2177593/21775935202.20210203132859.jpg</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>89000</t>
+          <t>218910</t>
         </is>
       </c>
       <c r="F41" t="inlineStr"/>
@@ -2732,12 +2732,12 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>삼성</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
@@ -2817,45 +2817,37 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>삼성전자 오디세이 G3 S32AG320 165</t>
+          <t>24인치 컴퓨터 모니터 게이밍모니터 틸트 사무용 모니터 가정용</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=31249283618</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=82278580434</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3124928/31249283618.20220520135135.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8227858/82278580434.4.jpg</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>309000</t>
+          <t>99000</t>
         </is>
       </c>
       <c r="F43" t="inlineStr"/>
       <c r="G43" t="inlineStr">
         <is>
-          <t>네이버</t>
+          <t>전문대리점</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 상품</t>
-        </is>
-      </c>
-      <c r="I43" t="inlineStr">
-        <is>
-          <t>오디세이</t>
-        </is>
-      </c>
-      <c r="J43" t="inlineStr">
-        <is>
-          <t>삼성전자</t>
-        </is>
-      </c>
+          <t>일반 - 가격비교 비매칭 일반상품</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr">
         <is>
           <t>디지털/가전</t>
@@ -2875,22 +2867,22 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>한성컴퓨터 ULTRON 3278 QHD New</t>
+          <t>LG전자 27TN600S</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=16776093488</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=21745903830</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1677609/16776093488.20200424094717.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2174590/21745903830.20200824150453.jpg</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>229000</t>
+          <t>286440</t>
         </is>
       </c>
       <c r="F44" t="inlineStr"/>
@@ -2906,12 +2898,12 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
@@ -2933,22 +2925,22 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>벤큐 GW2480 아이케어 무결점</t>
+          <t>알파스캔 AOC Q27G2S 155</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=11846842637</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24694967522</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1184684/11846842637.20220318094758.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2469496/24694967522.20210310172228.jpg</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>164000</t>
+          <t>399000</t>
         </is>
       </c>
       <c r="F45" t="inlineStr"/>
@@ -2964,12 +2956,12 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>벤큐</t>
+          <t>알파스캔</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>벤큐</t>
+          <t>알파스캔</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
@@ -2991,22 +2983,22 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>메타닉스 MU2700 IPS 4K UHD HDR</t>
+          <t>메타닉스 L2211 FHD 오피스 75</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=35597520618</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=35596588622</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3559752/35597520618.20221114152256.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3559658/35596588622.20221114153011.jpg</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>209000</t>
+          <t>89000</t>
         </is>
       </c>
       <c r="F46" t="inlineStr"/>
@@ -3049,22 +3041,22 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>LG전자 27TN600S</t>
+          <t>한성컴퓨터 ULTRON 2235V 프리싱크 리얼 75</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=21745903830</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=16384522728</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2174590/21745903830.20200824150453.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1638452/16384522728.20220315162439.jpg</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>286500</t>
+          <t>89000</t>
         </is>
       </c>
       <c r="F47" t="inlineStr"/>
@@ -3080,12 +3072,12 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
@@ -3107,37 +3099,45 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>24인치 컴퓨터 모니터 게이밍모니터 틸트 사무용 모니터 가정용</t>
+          <t>인터픽셀 IP2740 게이밍 165</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=82278580434</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=18968201200</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8227858/82278580434.4.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1896820/18968201200.20210325162750.jpg</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>99000</t>
+          <t>239000</t>
         </is>
       </c>
       <c r="F48" t="inlineStr"/>
       <c r="G48" t="inlineStr">
         <is>
-          <t>전문대리점</t>
+          <t>네이버</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 비매칭 일반상품</t>
-        </is>
-      </c>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
+          <t>일반 - 가격비교 상품</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>인터픽셀</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>인터픽셀</t>
+        </is>
+      </c>
       <c r="K48" t="inlineStr">
         <is>
           <t>디지털/가전</t>
@@ -3157,22 +3157,22 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>LG전자 27MN430HW</t>
+          <t>알파스캔 AOC 27B2 보더리스 75 시력보호</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=23301354490</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=21720504796</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2330135/23301354490.20200824152000.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2172050/21720504796.20210310171806.jpg</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>195900</t>
+          <t>179000</t>
         </is>
       </c>
       <c r="F49" t="inlineStr"/>
@@ -3188,12 +3188,12 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>알파스캔</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>알파스캔</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
@@ -3215,22 +3215,22 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>삼성전자 삼성 C32T550</t>
+          <t>삼성전자 오디세이 G3 S32AG320 165</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=22448790144</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=31249283618</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2244879/22448790144.20210203133005.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3124928/31249283618.20220520135135.jpg</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>315020</t>
+          <t>305740</t>
         </is>
       </c>
       <c r="F50" t="inlineStr"/>
@@ -3246,7 +3246,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>삼성</t>
+          <t>오디세이</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -3273,22 +3273,22 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>LG전자 울트라기어 27GP850</t>
+          <t>벤큐 GW2480 아이케어 무결점</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=28378464554</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=11846842637</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2837846/28378464554.20230119171606.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1184684/11846842637.20220318094758.jpg</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>548690</t>
+          <t>164000</t>
         </is>
       </c>
       <c r="F51" t="inlineStr"/>
@@ -3304,12 +3304,12 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>울트라기어</t>
+          <t>벤큐</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>벤큐</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
@@ -3331,22 +3331,22 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>인터픽셀 IP2740 게이밍 165</t>
+          <t>LG전자 27MN430HW</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=18968201200</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=23301354490</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1896820/18968201200.20210325162750.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2330135/23301354490.20200824152000.jpg</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>239000</t>
+          <t>195890</t>
         </is>
       </c>
       <c r="F52" t="inlineStr"/>
@@ -3362,12 +3362,12 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>인터픽셀</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>인터픽셀</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
@@ -3389,22 +3389,22 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>메타닉스 L2211 FHD 오피스 75</t>
+          <t>삼성전자 삼성 S27B610 75</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=35596588622</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=31531820618</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3559658/35596588622.20221114153011.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3153182/31531820618.20220330101749.jpg</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>89000</t>
+          <t>289000</t>
         </is>
       </c>
       <c r="F53" t="inlineStr"/>
@@ -3420,12 +3420,12 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>메타닉스</t>
+          <t>삼성</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>메타닉스</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
@@ -3447,22 +3447,22 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>알파스캔 AOC Q32V3S 75 무결점</t>
+          <t>LG전자 울트라기어 27GP750</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=26013420522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=29060355587</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2601342/26013420522.20220211140907.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2906035/29060355587.20220125134215.jpg</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>329000</t>
+          <t>448200</t>
         </is>
       </c>
       <c r="F54" t="inlineStr"/>
@@ -3478,12 +3478,12 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>알파스캔</t>
+          <t>울트라기어</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>알파스캔</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
@@ -3505,22 +3505,22 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>삼성전자 오디세이 G5 G55A S27AG550 165</t>
+          <t>LG전자 울트라기어 27GP850</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=30454173618</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=28378464554</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3045417/30454173618.20220107132754.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2837846/28378464554.20230119171606.jpg</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>359000</t>
+          <t>548560</t>
         </is>
       </c>
       <c r="F55" t="inlineStr"/>
@@ -3536,12 +3536,12 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>오디세이</t>
+          <t>울트라기어</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
@@ -3563,22 +3563,22 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>삼성전자 삼성 U32J590</t>
+          <t>한성컴퓨터 ULTRON 2760G 리얼 144</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=14306268525</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=15020041438</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1430626/14306268525.20210203133511.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1502004/15020041438.20220429112257.jpg</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>357990</t>
+          <t>169000</t>
         </is>
       </c>
       <c r="F56" t="inlineStr"/>
@@ -3594,12 +3594,12 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>삼성</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
@@ -3621,22 +3621,22 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>알파스캔 AOC Q27G2S 155</t>
+          <t>벤큐 모비우스 EX2710S</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24694967522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27862189523</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2469496/24694967522.20210310172228.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2786218/27862189523.20220311174737.jpg</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>399000</t>
+          <t>349000</t>
         </is>
       </c>
       <c r="F57" t="inlineStr"/>
@@ -3652,12 +3652,12 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>알파스캔</t>
+          <t>벤큐</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>알파스캔</t>
+          <t>벤큐</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
@@ -3679,22 +3679,22 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>벤큐 XL2540K 240</t>
+          <t>삼성전자 오디세이 G5 G55A S27AG550 165</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=28506139554</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=30454173618</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2850613/28506139554.20220311173751.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3045417/30454173618.20220107132754.jpg</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>499000</t>
+          <t>359000</t>
         </is>
       </c>
       <c r="F58" t="inlineStr"/>
@@ -3710,12 +3710,12 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>벤큐</t>
+          <t>오디세이</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>벤큐</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
@@ -3737,22 +3737,22 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>한성컴퓨터 ULTRON 2758 프리싱크 리얼 75</t>
+          <t>알파스캔 AOC Q32V3S 75 무결점</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=14816445651</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=26013420522</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1481644/14816445651.20220506122800.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2601342/26013420522.20220211140907.jpg</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>139000</t>
+          <t>329000</t>
         </is>
       </c>
       <c r="F59" t="inlineStr"/>
@@ -3768,12 +3768,12 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>알파스캔</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>알파스캔</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
@@ -3795,22 +3795,22 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>DELL S2721DS</t>
+          <t>한성컴퓨터 ULTRON 2758 프리싱크 리얼 75</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24525570527</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=14816445651</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2452557/24525570527.20201117112539.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1481644/14816445651.20220506122800.jpg</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>326840</t>
+          <t>139000</t>
         </is>
       </c>
       <c r="F60" t="inlineStr"/>
@@ -3826,12 +3826,12 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>DELL</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>DELL</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
@@ -3853,22 +3853,22 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>삼성전자 오디세이 G3 S24AG300 144</t>
+          <t>DELL S2721DS</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27534600522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24525570527</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2753460/27534600522.20210611131536.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2452557/24525570527.20201117112539.jpg</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>228000</t>
+          <t>326840</t>
         </is>
       </c>
       <c r="F61" t="inlineStr"/>
@@ -3884,12 +3884,12 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>오디세이</t>
+          <t>DELL</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>DELL</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
@@ -3911,22 +3911,22 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>DELL 울트라샤프 U2722D</t>
+          <t>삼성전자 오디세이 Neo G9 S49AG950 49인치 게이밍 모니터</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27124609522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=28288984554</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2712460/27124609522.20210719172836.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2828898/28288984554.20220713164635.jpg</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>509000</t>
+          <t>1980000</t>
         </is>
       </c>
       <c r="F62" t="inlineStr"/>
@@ -3942,12 +3942,12 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>울트라샤프</t>
+          <t>오디세이</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>DELL</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
@@ -3969,43 +3969,43 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>삼성전자 32인치 커브드 모니터 베젤리스 눈 보호 모드 LC32R500FHKX/KR</t>
+          <t>LG전자 24MN430HW</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=80601833496</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=23244797490</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8060183/80601833496.8.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2324479/23244797490.20220311131641.jpg</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>264000</t>
+          <t>159440</t>
         </is>
       </c>
       <c r="F63" t="inlineStr"/>
       <c r="G63" t="inlineStr">
         <is>
-          <t>삼성공식파트너 오제</t>
+          <t>네이버</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 비매칭 일반상품</t>
+          <t>일반 - 가격비교 상품</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>삼성</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
@@ -4027,22 +4027,22 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>삼성전자 삼성 S27B610 75</t>
+          <t>삼성전자 삼성 F24T450</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=31531820618</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24007200522</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3153182/31531820618.20220330101749.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2400720/24007200522.20210203133027.jpg</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>289000</t>
+          <t>228000</t>
         </is>
       </c>
       <c r="F64" t="inlineStr"/>
@@ -4143,22 +4143,22 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>LG전자 울트라기어 27GP750</t>
+          <t>한성컴퓨터 TFG30F20W  울트라와이드 200 게이밍</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=29060355587</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27287676522</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2906035/29060355587.20220125134215.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2728767/27287676522.20210628121550.jpg</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>447000</t>
+          <t>269000</t>
         </is>
       </c>
       <c r="F66" t="inlineStr"/>
@@ -4174,12 +4174,12 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>울트라기어</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
@@ -4201,43 +4201,43 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>LG전자 24MN430HW</t>
+          <t>삼성전자 32인치 커브드 모니터 베젤리스 눈 보호 모드 LC32R500FHKX/KR</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=23244797490</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=80601833496</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2324479/23244797490.20220311131641.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8060183/80601833496.8.jpg</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>159520</t>
+          <t>264000</t>
         </is>
       </c>
       <c r="F67" t="inlineStr"/>
       <c r="G67" t="inlineStr">
         <is>
-          <t>네이버</t>
+          <t>삼성공식파트너 오제</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 상품</t>
+          <t>일반 - 가격비교 비매칭 일반상품</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>삼성</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
@@ -4259,22 +4259,22 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>LG전자 27TQ600SW</t>
+          <t>메타닉스 M2410 아이케어 75</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=32982708620</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=35711172618</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3298270/32982708620.20220616144209.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3571117/35711172618.20221108150155.jpg</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>418900</t>
+          <t>104000</t>
         </is>
       </c>
       <c r="F68" t="inlineStr"/>
@@ -4290,12 +4290,12 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>메타닉스</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>메타닉스</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
@@ -4317,22 +4317,22 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>삼성전자 삼성 F24T450</t>
+          <t>한성컴퓨터 TFG24F14V 1200R커브드 게이밍 리얼 144</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24007200522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=21032801916</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2400720/24007200522.20210203133027.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2103280/21032801916.20220407160212.jpg</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>228000</t>
+          <t>139000</t>
         </is>
       </c>
       <c r="F69" t="inlineStr"/>
@@ -4348,12 +4348,12 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>삼성</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
@@ -4375,22 +4375,22 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>삼성전자 스마트모니터 M5 S27AM501</t>
+          <t>DELL 울트라샤프 U2722D</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=26870246522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27124609522</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2687024/26870246522.20210422150359.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2712460/27124609522.20210719172836.jpg</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>257990</t>
+          <t>509000</t>
         </is>
       </c>
       <c r="F70" t="inlineStr"/>
@@ -4406,12 +4406,12 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>스마트모니터</t>
+          <t>울트라샤프</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>DELL</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
@@ -4433,22 +4433,22 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>한성컴퓨터 ULTRON 2760G 리얼 144</t>
+          <t>삼성전자 스마트모니터 M5 S32BM500</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=15020041438</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=31799047618</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1502004/15020041438.20220429112257.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3179904/31799047618.20220413101833.jpg</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>169000</t>
+          <t>295000</t>
         </is>
       </c>
       <c r="F71" t="inlineStr"/>
@@ -4464,12 +4464,12 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>스마트모니터</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
@@ -4491,22 +4491,22 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>메타닉스 M2410 아이케어 75</t>
+          <t>LG전자 울트라HD 32UN880</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=35711172618</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24554243522</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3571117/35711172618.20221108150155.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2455424/24554243522.20210406130449.jpg</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>104000</t>
+          <t>757750</t>
         </is>
       </c>
       <c r="F72" t="inlineStr"/>
@@ -4522,12 +4522,12 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>메타닉스</t>
+          <t>울트라HD</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>메타닉스</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
@@ -4549,33 +4549,33 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>삼성 27인치 컴퓨터 모니터 C27R502 LC27R502FHKXKR freesync VA패널</t>
+          <t>삼성전자 삼성 C32T550</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=82874084859</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=22448790144</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8287408/82874084859.5.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2244879/22448790144.20210203133005.jpg</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>209000</t>
+          <t>318310</t>
         </is>
       </c>
       <c r="F73" t="inlineStr"/>
       <c r="G73" t="inlineStr">
         <is>
-          <t>삼성공식파트너 큐소닉</t>
+          <t>네이버</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 비매칭 일반상품</t>
+          <t>일반 - 가격비교 상품</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
@@ -4607,22 +4607,22 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>벤큐 모비우스 EX2710S</t>
+          <t>삼성전자 스마트모니터 M5 S27AM501</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27862189523</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=26870246522</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2786218/27862189523.20220311174737.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2687024/26870246522.20210422150359.jpg</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>349000</t>
+          <t>257990</t>
         </is>
       </c>
       <c r="F74" t="inlineStr"/>
@@ -4638,12 +4638,12 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>벤큐</t>
+          <t>스마트모니터</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>벤큐</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
@@ -4665,43 +4665,43 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>한성컴퓨터 TFG40Q14WP IPS 게이밍 리얼 144 울트라 와이드</t>
+          <t>삼성 27인치 컴퓨터 모니터 C27R502 LC27R502FHKXKR freesync VA패널</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=29590039618</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=82874084859</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2959003/29590039618.20211108155152.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8287408/82874084859.5.jpg</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>379000</t>
+          <t>209000</t>
         </is>
       </c>
       <c r="F75" t="inlineStr"/>
       <c r="G75" t="inlineStr">
         <is>
-          <t>네이버</t>
+          <t>삼성공식파트너 큐소닉</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 상품</t>
+          <t>일반 - 가격비교 비매칭 일반상품</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>삼성</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
@@ -4723,22 +4723,22 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>삼성전자 스마트모니터 M5 S32BM500</t>
+          <t>LG전자 32MN500M</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=31799047618</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=22565151066</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3179904/31799047618.20220413101833.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2256515/22565151066.20200824152704.jpg</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>295000</t>
+          <t>257140</t>
         </is>
       </c>
       <c r="F76" t="inlineStr"/>
@@ -4754,12 +4754,12 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>스마트모니터</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
@@ -4781,22 +4781,22 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>한성컴퓨터 TFG30F20W  울트라와이드 200 게이밍</t>
+          <t>삼성전자 오디세이 G3 S24AG300 144</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27287676522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27534600522</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2728767/27287676522.20210628121550.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2753460/27534600522.20210611131536.jpg</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>269000</t>
+          <t>228000</t>
         </is>
       </c>
       <c r="F77" t="inlineStr"/>
@@ -4812,12 +4812,12 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>오디세이</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
@@ -4839,22 +4839,22 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>한성컴퓨터 TFG32Q07P 75</t>
+          <t>한성컴퓨터 TFG40Q14WP IPS 게이밍 리얼 144 울트라 와이드</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=28655748554</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=29590039618</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2865574/28655748554.20210831152013.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2959003/29590039618.20211108155152.jpg</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>229000</t>
+          <t>379000</t>
         </is>
       </c>
       <c r="F78" t="inlineStr"/>
@@ -4897,22 +4897,22 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>필립스 271E1 프리싱크 75 시력보호 제로베젤</t>
+          <t>LG전자 24MP500W</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=21496753758</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=28272152554</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2149675/21496753758.20200221173844.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2827215/28272152554.20210805113756.jpg</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>204000</t>
+          <t>181780</t>
         </is>
       </c>
       <c r="F79" t="inlineStr"/>
@@ -4928,12 +4928,12 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>필립스</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>필립스</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
@@ -4955,22 +4955,22 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>삼성전자 오디세이 Neo G9 S49AG950 49인치 게이밍 모니터</t>
+          <t>LG전자 27UP850N</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=28288984554</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=34938247618</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2828898/28288984554.20220713164635.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3493824/34938247618.20220928104044.jpg</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>1980000</t>
+          <t>647510</t>
         </is>
       </c>
       <c r="F80" t="inlineStr"/>
@@ -4986,12 +4986,12 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>오디세이</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
@@ -5013,43 +5013,43 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>LG전자 27UP850N</t>
+          <t>삼성전자 오디세이 32인치 게이밍 컴퓨터 모니터 165Hz 1ms S32AG320 LS32AG320NKXKR</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=34938247618</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=84564976887</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3493824/34938247618.20220928104044.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8456497/84564976887.1.jpg</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>647630</t>
+          <t>309000</t>
         </is>
       </c>
       <c r="F81" t="inlineStr"/>
       <c r="G81" t="inlineStr">
         <is>
-          <t>네이버</t>
+          <t>삼성공식파트너 큐소닉</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 상품</t>
+          <t>일반 - 가격비교 비매칭 일반상품</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>삼성</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
@@ -5071,22 +5071,22 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>LG전자 32MN500M</t>
+          <t>LG전자 27TQ600SW</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=22565151066</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=32982708620</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2256515/22565151066.20200824152704.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3298270/32982708620.20220616144209.jpg</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>257140</t>
+          <t>418700</t>
         </is>
       </c>
       <c r="F82" t="inlineStr"/>
@@ -5129,22 +5129,22 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>LG전자 22MP410</t>
+          <t>삼성전자 삼성 U32J590</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=30861855618</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=14306268525</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3086185/30861855618.20220209110852.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1430626/14306268525.20210203133511.jpg</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>159000</t>
+          <t>357990</t>
         </is>
       </c>
       <c r="F83" t="inlineStr"/>
@@ -5160,12 +5160,12 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>삼성</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
@@ -5187,43 +5187,43 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>삼성전자 24인치 컴퓨터모니터 베젤리스 FreeSync 75Hz LS24R35AFHKXKR 가정용 사무용</t>
+          <t>필립스 271E1 프리싱크 75 시력보호 제로베젤</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=84111077002</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=21496753758</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8411107/84111077002.5.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2149675/21496753758.20200221173844.jpg</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>154000</t>
+          <t>203000</t>
         </is>
       </c>
       <c r="F84" t="inlineStr"/>
       <c r="G84" t="inlineStr">
         <is>
-          <t>온라인파트너</t>
+          <t>네이버</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 비매칭 일반상품</t>
+          <t>일반 - 가격비교 상품</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>삼성</t>
+          <t>필립스</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>필립스</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
@@ -5318,7 +5318,7 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>450620</t>
+          <t>450550</t>
         </is>
       </c>
       <c r="F86" t="inlineStr"/>
@@ -5361,28 +5361,28 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>삼성전자 24인치 IPS 광시야각 LED 모니터 슬림베젤리스 LF24T350FHKX/KR 컴퓨터모니터 75Hz 프리싱크</t>
+          <t>삼성전자 24인치 컴퓨터모니터 베젤리스 FreeSync 75Hz LS24R35AFHKXKR 가정용 사무용</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=81800309507</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=84111077002</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8180030/81800309507.12.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8411107/84111077002.5.jpg</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>159000</t>
+          <t>154000</t>
         </is>
       </c>
       <c r="F87" t="inlineStr"/>
       <c r="G87" t="inlineStr">
         <is>
-          <t>삼성공식파트너 오제</t>
+          <t>온라인파트너</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
@@ -5419,22 +5419,22 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>LG전자 32UN550</t>
+          <t>주연테크 V28UE</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24367892525</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=26322015522</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2436789/24367892525.20210406141630.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2632201/26322015522.20210311142212.jpg</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>498900</t>
+          <t>347000</t>
         </is>
       </c>
       <c r="F88" t="inlineStr"/>
@@ -5450,12 +5450,12 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>주연테크</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>주연테크</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
@@ -5477,22 +5477,22 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>삼성전자 오디세이 Neo G8 S32BG850</t>
+          <t>벤큐 XL2540K 240</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=33092648618</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=28506139554</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3309264/33092648618.20220623100048.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2850613/28506139554.20220311173751.jpg</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>1390000</t>
+          <t>499000</t>
         </is>
       </c>
       <c r="F89" t="inlineStr"/>
@@ -5508,12 +5508,12 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>오디세이</t>
+          <t>벤큐</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>벤큐</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
@@ -5535,22 +5535,22 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>제우스랩 알파플랜 P15A 포터블</t>
+          <t>LG전자 32QN600</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=20651265453</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=25702838522</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2065126/20651265453.20210726174943.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2570283/25702838522.20210122145615.jpg</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>177110</t>
+          <t>336500</t>
         </is>
       </c>
       <c r="F90" t="inlineStr"/>
@@ -5566,12 +5566,12 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>알파플랜</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>제우스랩</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
@@ -5651,22 +5651,22 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>LG전자 울트라HD 32UN880</t>
+          <t>LG전자 32UN550</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24554243522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24367892525</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2455424/24554243522.20210406130449.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2436789/24367892525.20210406141630.jpg</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>757820</t>
+          <t>498900</t>
         </is>
       </c>
       <c r="F92" t="inlineStr"/>
@@ -5682,7 +5682,7 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>울트라HD</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -5709,43 +5709,43 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>삼성전자 오디세이 32인치 게이밍 컴퓨터 모니터 165Hz 1ms S32AG320 LS32AG320NKXKR</t>
+          <t>제우스랩 알파플랜 P15A 포터블</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=84564976887</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=20651265453</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8456497/84564976887.1.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2065126/20651265453.20210726174943.jpg</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>309000</t>
+          <t>179000</t>
         </is>
       </c>
       <c r="F93" t="inlineStr"/>
       <c r="G93" t="inlineStr">
         <is>
-          <t>삼성공식파트너 큐소닉</t>
+          <t>네이버</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 비매칭 일반상품</t>
+          <t>일반 - 가격비교 상품</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>삼성</t>
+          <t>알파플랜</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>제우스랩</t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
@@ -5767,22 +5767,22 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>DELL P2422H</t>
+          <t>카멜 CM3210GC 165</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27490359527</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=25834381522</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2749035/27490359527.20210830113440.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2583438/25834381522.20210202114841.jpg</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>227650</t>
+          <t>258500</t>
         </is>
       </c>
       <c r="F94" t="inlineStr"/>
@@ -5798,12 +5798,12 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>DELL</t>
+          <t>카멜</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>DELL</t>
+          <t>카멜</t>
         </is>
       </c>
       <c r="K94" t="inlineStr">
@@ -5825,22 +5825,22 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>한성컴퓨터 TFG32Q14V 1500R 리얼 144 게이밍</t>
+          <t>래안텍 EdgeArt F2775K 화이트슬림 프리싱크 리얼75 게이밍</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=20819573509</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=16140608622</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2081957/20819573509.20220816144235.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1614060/16140608622.20220509103045.jpg</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>299000</t>
+          <t>129400</t>
         </is>
       </c>
       <c r="F95" t="inlineStr"/>
@@ -5856,12 +5856,12 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>래안텍</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>래안텍</t>
         </is>
       </c>
       <c r="K95" t="inlineStr">
@@ -5883,22 +5883,22 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>벤큐 XL2731K 165</t>
+          <t>한성컴퓨터 TFG32Q14V 1500R 리얼 144 게이밍</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=28757211554</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=20819573509</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2875721/28757211554.20220311173957.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2081957/20819573509.20220816144235.jpg</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>449000</t>
+          <t>299000</t>
         </is>
       </c>
       <c r="F96" t="inlineStr"/>
@@ -5914,12 +5914,12 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>벤큐</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>벤큐</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="K96" t="inlineStr">
@@ -5999,22 +5999,22 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>한성컴퓨터 TFG24F14V 1200R커브드 게이밍 리얼 144</t>
+          <t>한성컴퓨터 TFG32Q07P 75</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=21032801916</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=28655748554</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2103280/21032801916.20220407160212.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2865574/28655748554.20210831152013.jpg</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>139000</t>
+          <t>229000</t>
         </is>
       </c>
       <c r="F98" t="inlineStr"/>
@@ -6057,22 +6057,22 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>한성컴퓨터 TFX32U06V 4K HDR 1500R 커브드</t>
+          <t>LG전자 22MP410</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=20942220356</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=30861855618</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2094222/20942220356.20210630112723.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3086185/30861855618.20220209110852.jpg</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>289000</t>
+          <t>158900</t>
         </is>
       </c>
       <c r="F99" t="inlineStr"/>
@@ -6088,12 +6088,12 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K99" t="inlineStr">
@@ -6115,22 +6115,22 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>LG전자 24MP500W</t>
+          <t>LG전자 울트라와이드 29WP500</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=28272152554</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=26886077522</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2827215/28272152554.20210805113756.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2688607/26886077522.20210524134552.jpg</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>181780</t>
+          <t>248900</t>
         </is>
       </c>
       <c r="F100" t="inlineStr"/>
@@ -6146,7 +6146,7 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>울트라와이드</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -6173,22 +6173,22 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>LG전자 울트라와이드 29WP500</t>
+          <t>삼성전자 오디세이 Neo G7 S43CG700</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=26886077522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=36823283618</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2688607/26886077522.20210524134552.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3682328/36823283618.20221228165928.jpg</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>248990</t>
+          <t>1250000</t>
         </is>
       </c>
       <c r="F101" t="inlineStr"/>
@@ -6204,12 +6204,12 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>울트라와이드</t>
+          <t>오디세이</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K101" t="inlineStr">

--- a/output.xlsx
+++ b/output.xlsx
@@ -439,22 +439,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>삼성전자 삼성 F27T350</t>
+          <t>삼성전자 스마트모니터 M7 S32BM701</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=23996451524</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=31605413618</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2399645/23996451524.20210302142600.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3160541/31605413618.20220404134022.jpg</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>189000</t>
+          <t>499000</t>
         </is>
       </c>
       <c r="F2" t="inlineStr"/>
@@ -470,7 +470,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>삼성</t>
+          <t>스마트모니터</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -555,22 +555,22 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>삼성전자 스마트모니터 M7 S32BM701</t>
+          <t>삼성전자 삼성 F27T350</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=31605413618</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=23996451524</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3160541/31605413618.20220404134022.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2399645/23996451524.20210302142600.jpg</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>498890</t>
+          <t>189000</t>
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
@@ -586,7 +586,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>스마트모니터</t>
+          <t>삼성</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -671,22 +671,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>LG전자 24MK430H 24인치 FHD IPS 광시야각 모니터</t>
+          <t>LG전자 울트라HD 32UN650</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=13643814149</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24635274522</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1364381/13643814149.20200824151155.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2463527/24635274522.20210405173537.jpg</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>153890</t>
+          <t>548890</t>
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
@@ -702,7 +702,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>울트라HD</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -729,22 +729,22 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>삼성전자 오디세이 G3 S27AG300 144</t>
+          <t>LG전자 24MK430H 24인치 FHD IPS 광시야각 모니터</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27535066522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=13643814149</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2753506/27535066522.20210611135052.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1364381/13643814149.20200824151155.jpg</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>264820</t>
+          <t>153900</t>
         </is>
       </c>
       <c r="F7" t="inlineStr"/>
@@ -760,12 +760,12 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>오디세이</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -787,22 +787,22 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>벤큐 GW2780 아이케어</t>
+          <t>삼성전자 삼성 커브드 C27R502 베젤리스 프리싱크</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=11846746201</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=20189888243</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1184674/11846746201.20220318094817.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2018988/20189888243.20220519143818.jpg</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>189000</t>
+          <t>209000</t>
         </is>
       </c>
       <c r="F8" t="inlineStr"/>
@@ -818,12 +818,12 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>벤큐</t>
+          <t>삼성</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>벤큐</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -845,22 +845,22 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>LG전자 울트라HD 32UN650</t>
+          <t>삼성전자 스마트모니터 M5 S32BM501</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24635274522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=31799436618</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2463527/24635274522.20210405173537.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3179943/31799436618.20220413103106.jpg</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>548870</t>
+          <t>337000</t>
         </is>
       </c>
       <c r="F9" t="inlineStr"/>
@@ -876,12 +876,12 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>울트라HD</t>
+          <t>스마트모니터</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -903,22 +903,22 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>삼성전자 삼성 커브드 C27R502 베젤리스 프리싱크</t>
+          <t>벤큐 GW2780 아이케어</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=20189888243</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=11846746201</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2018988/20189888243.20220519143818.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1184674/11846746201.20220318094817.jpg</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>205830</t>
+          <t>189000</t>
         </is>
       </c>
       <c r="F10" t="inlineStr"/>
@@ -934,12 +934,12 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>삼성</t>
+          <t>벤큐</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>벤큐</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -961,22 +961,22 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>LG전자 32MN500MW</t>
+          <t>삼성전자 오디세이 Neo G9 S49AG950 49인치 게이밍 모니터</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=22764052560</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=28288984554</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2276405/22764052560.20200824151306.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2828898/28288984554.20220713164635.jpg</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>248880</t>
+          <t>1980000</t>
         </is>
       </c>
       <c r="F11" t="inlineStr"/>
@@ -992,12 +992,12 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>오디세이</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -1019,22 +1019,22 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>삼성전자 스마트모니터 M5 S32BM501</t>
+          <t>삼성전자 오디세이 G3 S27AG300 144</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=31799436618</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27535066522</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3179943/31799436618.20220413103106.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2753506/27535066522.20210611135052.jpg</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>345990</t>
+          <t>264830</t>
         </is>
       </c>
       <c r="F12" t="inlineStr"/>
@@ -1050,7 +1050,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>스마트모니터</t>
+          <t>오디세이</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -1077,22 +1077,22 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>삼성전자 삼성 C32R500F</t>
+          <t>LG전자 32MN500MW</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=22483121542</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=22764052560</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2248312/22483121542.20220519144103.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2276405/22764052560.20200824151306.jpg</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>264000</t>
+          <t>248900</t>
         </is>
       </c>
       <c r="F13" t="inlineStr"/>
@@ -1108,12 +1108,12 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>삼성</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -1135,22 +1135,22 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>LG전자 27MN430HW</t>
+          <t>삼성전자 스마트모니터 M7 S32BM700</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=23301354490</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=31605356618</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2330135/23301354490.20200824152000.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3160535/31605356618.20220404132823.jpg</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>188890</t>
+          <t>489000</t>
         </is>
       </c>
       <c r="F14" t="inlineStr"/>
@@ -1166,12 +1166,12 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>스마트모니터</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -1193,22 +1193,22 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>삼성전자 오디세이 Neo G9 S49AG950 49인치 게이밍 모니터</t>
+          <t>LG전자 27MN430HW</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=28288984554</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=23301354490</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2828898/28288984554.20220713164635.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2330135/23301354490.20200824152000.jpg</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>1980000</t>
+          <t>188900</t>
         </is>
       </c>
       <c r="F15" t="inlineStr"/>
@@ -1224,12 +1224,12 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>오디세이</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -1251,22 +1251,22 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>LG전자 27MK430H</t>
+          <t>LG전자 24ML600SW</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=15183175543</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=19105796246</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1518317/15183175543.20200824151717.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1910579/19105796246.20200824152520.jpg</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>188880</t>
+          <t>176900</t>
         </is>
       </c>
       <c r="F16" t="inlineStr"/>
@@ -1309,22 +1309,22 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>삼성전자 스마트모니터 M7 S32BM700</t>
+          <t>LG전자 27TN600S</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=31605356618</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=21745903830</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3160535/31605356618.20220404132823.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2174590/21745903830.20200824150453.jpg</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>472000</t>
+          <t>270150</t>
         </is>
       </c>
       <c r="F17" t="inlineStr"/>
@@ -1340,12 +1340,12 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>스마트모니터</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -1367,22 +1367,22 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>LG전자 27TN600S</t>
+          <t>LG전자 울트라HD 27UL550</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=21745903830</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=19298157033</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2174590/21745903830.20200824150453.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1929815/19298157033.20221013131758.jpg</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>10900</t>
+          <t>398890</t>
         </is>
       </c>
       <c r="F18" t="inlineStr"/>
@@ -1398,7 +1398,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>울트라HD</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1425,22 +1425,22 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>한성컴퓨터 ULTRON 2758 프리싱크 리얼 75</t>
+          <t>삼성전자 삼성 C32R500F</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=14816445651</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=22483121542</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1481644/14816445651.20220506122800.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2248312/22483121542.20220519144103.jpg</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>139000</t>
+          <t>264000</t>
         </is>
       </c>
       <c r="F19" t="inlineStr"/>
@@ -1456,12 +1456,12 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>삼성</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
@@ -1483,22 +1483,22 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>LG전자 24ML600SW</t>
+          <t>삼성전자 오디세이 G5 C27G54T</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=19105796246</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=23896119522</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1910579/19105796246.20200824152520.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2389611/23896119522.20210302142506.jpg</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>176660</t>
+          <t>324470</t>
         </is>
       </c>
       <c r="F20" t="inlineStr"/>
@@ -1514,12 +1514,12 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>오디세이</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -1556,7 +1556,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>574130</t>
+          <t>573970</t>
         </is>
       </c>
       <c r="F21" t="inlineStr"/>
@@ -1599,22 +1599,22 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>LG전자 울트라HD 27UL550</t>
+          <t>한성컴퓨터 ULTRON 2758 프리싱크 리얼 75</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=19298157033</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=14816445651</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1929815/19298157033.20221013131758.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1481644/14816445651.20220506122800.jpg</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>398870</t>
+          <t>139000</t>
         </is>
       </c>
       <c r="F22" t="inlineStr"/>
@@ -1630,12 +1630,12 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>울트라HD</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
@@ -1657,22 +1657,22 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>삼성전자 오디세이 G5 C27G54T</t>
+          <t>LG전자 27MK430H</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=23896119522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=15183175543</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2389611/23896119522.20210302142506.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1518317/15183175543.20200824151717.jpg</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>327990</t>
+          <t>184500</t>
         </is>
       </c>
       <c r="F23" t="inlineStr"/>
@@ -1688,12 +1688,12 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>오디세이</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -1715,22 +1715,22 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>LG전자 32MN500M</t>
+          <t>삼성전자 스마트모니터 M5 S32BM500</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=22565151066</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=31799047618</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2256515/22565151066.20200824152704.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3179904/31799047618.20220413101833.jpg</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>248900</t>
+          <t>304990</t>
         </is>
       </c>
       <c r="F24" t="inlineStr"/>
@@ -1746,12 +1746,12 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>스마트모니터</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -1773,22 +1773,22 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>삼성전자 스마트모니터 M5 S32BM500</t>
+          <t>LG전자 32QN650</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=31799047618</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=23692201495</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3179904/31799047618.20220413101833.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2369220/23692201495.20210406132235.jpg</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>302210</t>
+          <t>398900</t>
         </is>
       </c>
       <c r="F25" t="inlineStr"/>
@@ -1804,12 +1804,12 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>스마트모니터</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -1831,22 +1831,22 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>LG전자 32QN650</t>
+          <t>삼성전자 오디세이 G5 C34G55T 165</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=23692201495</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=25744041522</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2369220/23692201495.20210406132235.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2574404/25744041522.20210324143655.jpg</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>366300</t>
+          <t>487770</t>
         </is>
       </c>
       <c r="F26" t="inlineStr"/>
@@ -1862,12 +1862,12 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>오디세이</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
@@ -1889,22 +1889,22 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>삼성전자 오디세이 G5 C34G55T 165</t>
+          <t>DELL 울트라샤프 U2722D</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=25744041522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27124609522</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2574404/25744041522.20210324143655.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2712460/27124609522.20210719172836.jpg</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>487770</t>
+          <t>509000</t>
         </is>
       </c>
       <c r="F27" t="inlineStr"/>
@@ -1920,12 +1920,12 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>오디세이</t>
+          <t>울트라샤프</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>DELL</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -1947,22 +1947,22 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>LG전자 27QN600</t>
+          <t>벤큐 XL2411K</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=23849172522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24196764522</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2384917/23849172522.20210406141920.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2419676/24196764522.20220311173519.jpg</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>328090</t>
+          <t>289000</t>
         </is>
       </c>
       <c r="F28" t="inlineStr"/>
@@ -1978,12 +1978,12 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>벤큐</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>벤큐</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -2005,22 +2005,22 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>DELL 울트라샤프 U2723QE</t>
+          <t>LG전자 32MN500M</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=31516928619</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=22565151066</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3151692/31516928619.20220725165234.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2256515/22565151066.20200824152704.jpg</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>799000</t>
+          <t>248900</t>
         </is>
       </c>
       <c r="F29" t="inlineStr"/>
@@ -2036,12 +2036,12 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>울트라샤프</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>DELL</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
@@ -2063,22 +2063,22 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>삼성전자 삼성 F24T450</t>
+          <t>한성컴퓨터 TFG34Q10W 1500R 커브드 게이밍 리얼100 울트라와이드</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24007200522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=20889802847</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2400720/24007200522.20210203133027.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2088980/20889802847.20200424100610.jpg</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>217000</t>
+          <t>299000</t>
         </is>
       </c>
       <c r="F30" t="inlineStr"/>
@@ -2094,12 +2094,12 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>삼성</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
@@ -2121,22 +2121,22 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>LG전자 울트라기어 27GP750</t>
+          <t>삼성전자 스마트모니터 M5 S27BM500</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=29060355587</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=31910890630</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2906035/29060355587.20230202103138.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3191089/31910890630.20220915143644.jpg</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>448800</t>
+          <t>253000</t>
         </is>
       </c>
       <c r="F31" t="inlineStr"/>
@@ -2152,12 +2152,12 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>울트라기어</t>
+          <t>스마트모니터</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
@@ -2179,22 +2179,22 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>한성컴퓨터 ULTRON 2760G 리얼 144</t>
+          <t>LG전자 27QN600</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=15020041438</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=23849172522</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1502004/15020041438.20220429112257.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2384917/23849172522.20210406141920.jpg</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>169000</t>
+          <t>328090</t>
         </is>
       </c>
       <c r="F32" t="inlineStr"/>
@@ -2210,12 +2210,12 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
@@ -2237,22 +2237,22 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>삼성전자 삼성 U32J590</t>
+          <t>한성컴퓨터 ULTRON 2760G 리얼 144</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=14306268525</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=15020041438</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1430626/14306268525.20210203133511.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1502004/15020041438.20220429112257.jpg</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>358990</t>
+          <t>169000</t>
         </is>
       </c>
       <c r="F33" t="inlineStr"/>
@@ -2268,12 +2268,12 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>삼성</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
@@ -2295,22 +2295,22 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>알파스캔 AOC 27B2 보더리스 75 시력보호</t>
+          <t>삼성전자 스마트모니터 M5 S27AM501</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=21720504796</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=26870246522</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2172050/21720504796.20210310171806.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2687024/26870246522.20210422150359.jpg</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>174490</t>
+          <t>262490</t>
         </is>
       </c>
       <c r="F34" t="inlineStr"/>
@@ -2326,12 +2326,12 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>알파스캔</t>
+          <t>스마트모니터</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>알파스캔</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
@@ -2353,22 +2353,22 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>삼성전자 삼성 S24R350 베젤리스 프리싱크 75</t>
+          <t>LG전자 울트라기어 27GP750</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=20861526783</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=29060355587</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2086152/20861526783.20210302142419.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2906035/29060355587.20230202103138.jpg</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>165000</t>
+          <t>448890</t>
         </is>
       </c>
       <c r="F35" t="inlineStr"/>
@@ -2384,12 +2384,12 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>삼성</t>
+          <t>울트라기어</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
@@ -2411,22 +2411,22 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>삼성전자 삼성 S27R350</t>
+          <t>삼성전자 삼성 F24T450</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=21775935202</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24007200522</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2177593/21775935202.20210203132859.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2400720/24007200522.20210203133027.jpg</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>219000</t>
+          <t>218000</t>
         </is>
       </c>
       <c r="F36" t="inlineStr"/>
@@ -2469,22 +2469,22 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>벤큐 XL2411K</t>
+          <t>알파스캔 AOC 27B2 보더리스 75 시력보호</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24196764522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=21720504796</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2419676/24196764522.20220311173519.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2172050/21720504796.20210310171806.jpg</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>279000</t>
+          <t>174490</t>
         </is>
       </c>
       <c r="F37" t="inlineStr"/>
@@ -2500,12 +2500,12 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>벤큐</t>
+          <t>알파스캔</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>벤큐</t>
+          <t>알파스캔</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
@@ -2527,22 +2527,22 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>DELL 울트라샤프 U3223QE</t>
+          <t>삼성전자 삼성 S24R350 베젤리스 프리싱크 75</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=32148338618</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=20861526783</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3214833/32148338618.20220725142455.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2086152/20861526783.20210302142419.jpg</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>1279000</t>
+          <t>165000</t>
         </is>
       </c>
       <c r="F38" t="inlineStr"/>
@@ -2558,12 +2558,12 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>울트라샤프</t>
+          <t>삼성</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>DELL</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
@@ -2585,22 +2585,22 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>한성컴퓨터 TFG27F16V 1500R 리얼 165 게이밍</t>
+          <t>LG전자 LG그램 그램+뷰 16MQ70</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=18797620615</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=30377313618</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1879762/18797620615.20201230122720.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3037731/30377313618.20211231144328.jpg</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>169000</t>
+          <t>331990</t>
         </is>
       </c>
       <c r="F39" t="inlineStr"/>
@@ -2616,12 +2616,12 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>LG그램</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
@@ -2643,22 +2643,22 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>삼성전자 스마트모니터 M5 S27BM500</t>
+          <t>삼성전자 삼성 S27R350</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=31910890630</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=21775935202</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3191089/31910890630.20220915143644.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2177593/21775935202.20210203132859.jpg</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>253000</t>
+          <t>219000</t>
         </is>
       </c>
       <c r="F40" t="inlineStr"/>
@@ -2674,7 +2674,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>스마트모니터</t>
+          <t>삼성</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2701,22 +2701,22 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>LG전자 울트라기어 27GN650</t>
+          <t>한성컴퓨터 TFG27F16V 1500R 리얼 165 게이밍</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=25413919522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=18797620615</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2541391/25413919522.20230202103118.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1879762/18797620615.20201230122720.jpg</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>361590</t>
+          <t>169000</t>
         </is>
       </c>
       <c r="F41" t="inlineStr"/>
@@ -2732,12 +2732,12 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>울트라기어</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
@@ -2759,22 +2759,22 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>삼성전자 스마트모니터 M5 S27AM501</t>
+          <t>벤큐 XL2546K</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=26870246522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24235203522</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2687024/26870246522.20210422150359.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2423520/24235203522.20220311173812.jpg</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>265990</t>
+          <t>699000</t>
         </is>
       </c>
       <c r="F42" t="inlineStr"/>
@@ -2790,12 +2790,12 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>스마트모니터</t>
+          <t>벤큐</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>벤큐</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
@@ -2817,22 +2817,22 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>벤큐 XL2546K</t>
+          <t>LG전자 울트라기어 27GN650</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24235203522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=25413919522</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2423520/24235203522.20220311173812.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2541391/25413919522.20230202103118.jpg</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>699000</t>
+          <t>349390</t>
         </is>
       </c>
       <c r="F43" t="inlineStr"/>
@@ -2848,12 +2848,12 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>벤큐</t>
+          <t>울트라기어</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>벤큐</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
@@ -2875,22 +2875,22 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>한성컴퓨터 ULTRON 2435V 프리싱크 리얼75</t>
+          <t>삼성전자 삼성 U32J590</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=13487979407</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=14306268525</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1348797/13487979407.20220404172708.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1430626/14306268525.20210203133511.jpg</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>109000</t>
+          <t>357990</t>
         </is>
       </c>
       <c r="F44" t="inlineStr"/>
@@ -2906,12 +2906,12 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>삼성</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
@@ -2933,22 +2933,22 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>DELL 울트라샤프 U2722D</t>
+          <t>벤큐 GW2480 아이케어 무결점</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27124609522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=11846842637</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2712460/27124609522.20210719172836.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1184684/11846842637.20220318094758.jpg</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>509000</t>
+          <t>164000</t>
         </is>
       </c>
       <c r="F45" t="inlineStr"/>
@@ -2964,12 +2964,12 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>울트라샤프</t>
+          <t>벤큐</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>DELL</t>
+          <t>벤큐</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
@@ -2991,22 +2991,22 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>LG전자 LG그램 그램+뷰 16MQ70</t>
+          <t>DELL 울트라샤프 U2723QE</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=30377313618</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=31516928619</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3037731/30377313618.20211231144328.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3151692/31516928619.20220725165234.jpg</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>333800</t>
+          <t>799000</t>
         </is>
       </c>
       <c r="F46" t="inlineStr"/>
@@ -3022,12 +3022,12 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>LG그램</t>
+          <t>울트라샤프</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>DELL</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
@@ -3049,22 +3049,22 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>삼성전자 삼성 S27B610 75</t>
+          <t>한성컴퓨터 ULTRON 2435V 프리싱크 리얼75</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=31531820618</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=13487979407</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3153182/31531820618.20220330101749.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1348797/13487979407.20220404172708.jpg</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>299000</t>
+          <t>109000</t>
         </is>
       </c>
       <c r="F47" t="inlineStr"/>
@@ -3080,12 +3080,12 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>삼성</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
@@ -3107,22 +3107,22 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>LG전자 울트라기어 24GN600 144Hz</t>
+          <t>LG전자 27TQ600SW</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=26122103522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=32982708620</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2612210/26122103522.20230201182227.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3298270/32982708620.20220616144209.jpg</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>218000</t>
+          <t>398970</t>
         </is>
       </c>
       <c r="F48" t="inlineStr"/>
@@ -3138,7 +3138,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>울트라기어</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -3223,37 +3223,45 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>24인치 컴퓨터 모니터 게이밍모니터 틸트 사무용 모니터 가정용</t>
+          <t>LG전자 24MN430HW</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=82278580434</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=23244797490</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8227858/82278580434.4.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2324479/23244797490.20220311131641.jpg</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>99000</t>
+          <t>153810</t>
         </is>
       </c>
       <c r="F50" t="inlineStr"/>
       <c r="G50" t="inlineStr">
         <is>
-          <t>전문대리점</t>
+          <t>네이버</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 비매칭 일반상품</t>
-        </is>
-      </c>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
+          <t>일반 - 가격비교 상품</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>LG전자</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>LG전자</t>
+        </is>
+      </c>
       <c r="K50" t="inlineStr">
         <is>
           <t>디지털/가전</t>
@@ -3273,45 +3281,37 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>벤큐 GW2480 아이케어 무결점</t>
+          <t>24인치 컴퓨터 모니터 게이밍모니터 틸트 사무용 모니터 가정용</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=11846842637</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=82278580434</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1184684/11846842637.20220318094758.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8227858/82278580434.4.jpg</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>164000</t>
+          <t>99000</t>
         </is>
       </c>
       <c r="F51" t="inlineStr"/>
       <c r="G51" t="inlineStr">
         <is>
-          <t>네이버</t>
+          <t>전문대리점</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 상품</t>
-        </is>
-      </c>
-      <c r="I51" t="inlineStr">
-        <is>
-          <t>벤큐</t>
-        </is>
-      </c>
-      <c r="J51" t="inlineStr">
-        <is>
-          <t>벤큐</t>
-        </is>
-      </c>
+          <t>일반 - 가격비교 비매칭 일반상품</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr">
         <is>
           <t>디지털/가전</t>
@@ -3331,22 +3331,22 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>삼성전자 스마트모니터 LS32BM801UKXKR</t>
+          <t>삼성전자 삼성 S27B610 75</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=31160861618</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=31531820618</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3116086/31160861618.20220304142910.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3153182/31531820618.20220330101749.jpg</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>600000</t>
+          <t>299000</t>
         </is>
       </c>
       <c r="F52" t="inlineStr"/>
@@ -3362,7 +3362,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>스마트모니터</t>
+          <t>삼성</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -3389,22 +3389,22 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>LG전자 24MN430HW</t>
+          <t>LG전자 울트라기어 27GP850</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=23244797490</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=28378464554</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2324479/23244797490.20220311131641.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2837846/28378464554.20230201182155.jpg</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>153850</t>
+          <t>548900</t>
         </is>
       </c>
       <c r="F53" t="inlineStr"/>
@@ -3420,7 +3420,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>울트라기어</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -3447,22 +3447,22 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>LG전자 울트라기어 27GP850</t>
+          <t>LG전자 울트라기어 24GN600 144Hz</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=28378464554</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=26122103522</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2837846/28378464554.20230201182155.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2612210/26122103522.20230201182227.jpg</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>548890</t>
+          <t>215600</t>
         </is>
       </c>
       <c r="F54" t="inlineStr"/>
@@ -3505,22 +3505,22 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>한성컴퓨터 TFG34Q10W 1500R 커브드 게이밍 리얼100 울트라와이드</t>
+          <t>메타닉스 MU2700 IPS 4K UHD HDR</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=20889802847</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=35597520618</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2088980/20889802847.20200424100610.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3559752/35597520618.20221114152256.jpg</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>299000</t>
+          <t>209000</t>
         </is>
       </c>
       <c r="F55" t="inlineStr"/>
@@ -3536,12 +3536,12 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>메타닉스</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>메타닉스</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
@@ -3563,22 +3563,22 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>LG전자 울트라HD 32UN880</t>
+          <t>한성컴퓨터 TFG32F16V 1500R 리얼 165 게이밍</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24554243522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=18778755031</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2455424/24554243522.20210406130449.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1877875/18778755031.20201230122744.jpg</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>713910</t>
+          <t>229000</t>
         </is>
       </c>
       <c r="F56" t="inlineStr"/>
@@ -3594,12 +3594,12 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>울트라HD</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
@@ -3621,22 +3621,22 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>한성컴퓨터 TFG32Q07P 75</t>
+          <t>삼성전자 오디세이 G5 C32G54T</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=28655748554</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=23896004523</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2865574/28655748554.20210831152013.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2389600/23896004523.20210203132926.jpg</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>229000</t>
+          <t>369000</t>
         </is>
       </c>
       <c r="F57" t="inlineStr"/>
@@ -3652,12 +3652,12 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>오디세이</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
@@ -3679,22 +3679,22 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>메타닉스 MU2700 IPS 4K UHD HDR</t>
+          <t>한성컴퓨터 TFG32Q07P 75</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=35597520618</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=28655748554</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3559752/35597520618.20221114152256.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2865574/28655748554.20210831152013.jpg</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>209000</t>
+          <t>229000</t>
         </is>
       </c>
       <c r="F58" t="inlineStr"/>
@@ -3710,12 +3710,12 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>메타닉스</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>메타닉스</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
@@ -3737,22 +3737,22 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>삼성전자 오디세이 G5 C32G54T</t>
+          <t>한성컴퓨터 ULTRON 3278 QHD New</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=23896004523</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=16776093488</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2389600/23896004523.20210203132926.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1677609/16776093488.20200424094717.jpg</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>366940</t>
+          <t>229000</t>
         </is>
       </c>
       <c r="F59" t="inlineStr"/>
@@ -3768,12 +3768,12 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>오디세이</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
@@ -3795,22 +3795,22 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>한성컴퓨터 TFG32Q14P IPS QHD 144</t>
+          <t>LG전자 울트라와이드 34WP500</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=23616487490</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27584005522</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2361648/23616487490.20200729125414.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2758400/27584005522.20210615125004.jpg</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>349000</t>
+          <t>378900</t>
         </is>
       </c>
       <c r="F60" t="inlineStr"/>
@@ -3826,12 +3826,12 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>울트라와이드</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
@@ -3853,22 +3853,22 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>한성컴퓨터 ULTRON 3278 QHD New</t>
+          <t>한성컴퓨터 TFG32Q14P IPS QHD 144</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=16776093488</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=23616487490</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1677609/16776093488.20200424094717.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2361648/23616487490.20200729125414.jpg</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>229000</t>
+          <t>349000</t>
         </is>
       </c>
       <c r="F61" t="inlineStr"/>
@@ -3911,43 +3911,43 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>알파스캔 AOC 24B2 75 무결점</t>
+          <t>삼성전자 24인치 IPS 광시야각 LED 모니터 슬림베젤리스 LF24T350FHKX/KR 컴퓨터모니터</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24171105522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=81800309507</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2417110/24171105522.20210310172014.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8180030/81800309507.13.jpg</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>140940</t>
+          <t>154000</t>
         </is>
       </c>
       <c r="F62" t="inlineStr"/>
       <c r="G62" t="inlineStr">
         <is>
-          <t>네이버</t>
+          <t>삼성공식파트너 오제</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 상품</t>
+          <t>일반 - 가격비교 비매칭 일반상품</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>알파스캔</t>
+          <t>삼성</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>알파스캔</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
@@ -3969,22 +3969,22 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>LG전자 울트라기어 32GP750 165</t>
+          <t>삼성전자 스마트모니터 LS32BM801UKXKR</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=31658867618</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=31160861618</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3165886/31658867618.20230209130951.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3116086/31160861618.20220304142910.jpg</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>548830</t>
+          <t>626360</t>
         </is>
       </c>
       <c r="F63" t="inlineStr"/>
@@ -4000,12 +4000,12 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>울트라기어</t>
+          <t>스마트모니터</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
@@ -4027,22 +4027,22 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>한성컴퓨터 TFG32F16V 1500R 리얼 165 게이밍</t>
+          <t>LG전자 울트라HD 32UN880</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=18778755031</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24554243522</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1877875/18778755031.20201230122744.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2455424/24554243522.20210406130449.jpg</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>229000</t>
+          <t>729990</t>
         </is>
       </c>
       <c r="F64" t="inlineStr"/>
@@ -4058,12 +4058,12 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>울트라HD</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
@@ -4085,22 +4085,22 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>한성컴퓨터 TFX32U06V 4K HDR 1500R 커브드</t>
+          <t>LG전자 울트라기어 32GP850</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=20942220356</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27405944522</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2094222/20942220356.20210630112723.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2740594/27405944522.20230117174001.jpg</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>289000</t>
+          <t>677610</t>
         </is>
       </c>
       <c r="F65" t="inlineStr"/>
@@ -4116,12 +4116,12 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>울트라기어</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
@@ -4201,43 +4201,43 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>삼성전자 24인치 IPS 광시야각 LED 모니터 슬림베젤리스 LF24T350FHKX/KR 컴퓨터모니터</t>
+          <t>한성컴퓨터 TFX32U06V 4K HDR 1500R 커브드</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=81800309507</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=20942220356</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8180030/81800309507.13.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2094222/20942220356.20210630112723.jpg</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>154000</t>
+          <t>289000</t>
         </is>
       </c>
       <c r="F67" t="inlineStr"/>
       <c r="G67" t="inlineStr">
         <is>
-          <t>삼성공식파트너 오제</t>
+          <t>네이버</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 비매칭 일반상품</t>
+          <t>일반 - 가격비교 상품</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>삼성</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
@@ -4259,43 +4259,43 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>삼성전자 27인치 IPS 광시야각 LED 모니터 베젤리스 LF27T350FHKX/KR 컴퓨터모니터</t>
+          <t>알파스캔 AOC 24B2 75 무결점</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=82625203348</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24171105522</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8262520/82625203348.2.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2417110/24171105522.20210310172014.jpg</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>189000</t>
+          <t>140940</t>
         </is>
       </c>
       <c r="F68" t="inlineStr"/>
       <c r="G68" t="inlineStr">
         <is>
-          <t>삼성공식파트너 오제</t>
+          <t>네이버</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 비매칭 일반상품</t>
+          <t>일반 - 가격비교 상품</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>삼성</t>
+          <t>알파스캔</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>알파스캔</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
@@ -4317,38 +4317,38 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>삼성전자 오디세이 Neo G8 S32BG850</t>
+          <t>삼성전자 32인치 커브드 모니터 베젤리스 눈 보호 모드 LC32R500FHKX/KR</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=33092648618</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=80601833496</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3309264/33092648618.20220623100048.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8060183/80601833496.8.jpg</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>1389490</t>
+          <t>264000</t>
         </is>
       </c>
       <c r="F69" t="inlineStr"/>
       <c r="G69" t="inlineStr">
         <is>
-          <t>네이버</t>
+          <t>삼성공식파트너 오제</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 상품</t>
+          <t>일반 - 가격비교 비매칭 일반상품</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>오디세이</t>
+          <t>삼성</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -4375,43 +4375,43 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>LG전자 울트라기어 32GP850</t>
+          <t>삼성전자 27인치 IPS 광시야각 LED 모니터 베젤리스 LF27T350FHKX/KR 컴퓨터모니터</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27405944522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=82625203348</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2740594/27405944522.20230117174001.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8262520/82625203348.2.jpg</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>698890</t>
+          <t>189000</t>
         </is>
       </c>
       <c r="F70" t="inlineStr"/>
       <c r="G70" t="inlineStr">
         <is>
-          <t>네이버</t>
+          <t>삼성공식파트너 오제</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 상품</t>
+          <t>일반 - 가격비교 비매칭 일반상품</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>울트라기어</t>
+          <t>삼성</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
@@ -4433,22 +4433,22 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>삼성전자 스마트모니터 M5 S32AM501</t>
+          <t>인터픽셀 IP2740 게이밍 165</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=26870008522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=18968201200</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2687000/26870008522.20210422145112.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1896820/18968201200.20210325162750.jpg</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>334340</t>
+          <t>239000</t>
         </is>
       </c>
       <c r="F71" t="inlineStr"/>
@@ -4464,12 +4464,12 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>스마트모니터</t>
+          <t>인터픽셀</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>인터픽셀</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
@@ -4491,22 +4491,22 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>LG전자 27TQ600SW</t>
+          <t>삼성전자 스마트모니터 M5 S32AM501</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=32982708620</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=26870008522</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3298270/32982708620.20220616144209.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2687000/26870008522.20210422145112.jpg</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>398970</t>
+          <t>334270</t>
         </is>
       </c>
       <c r="F72" t="inlineStr"/>
@@ -4522,12 +4522,12 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>스마트모니터</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
@@ -4549,22 +4549,22 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>인터픽셀 IP2740 게이밍 165</t>
+          <t>LG전자 27ML600SW</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=18968201200</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=19105887903</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1896820/18968201200.20210325162750.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1910588/19105887903.20220125134154.jpg</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>239000</t>
+          <t>231900</t>
         </is>
       </c>
       <c r="F73" t="inlineStr"/>
@@ -4580,12 +4580,12 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>인터픽셀</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>인터픽셀</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
@@ -4607,22 +4607,22 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>LG전자 울트라와이드 34WP500</t>
+          <t>주연테크 V28UE-M</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27584005522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27493158522</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2758400/27584005522.20210615125004.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2749315/27493158522.20210608162022.jpg</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>378900</t>
+          <t>359000</t>
         </is>
       </c>
       <c r="F74" t="inlineStr"/>
@@ -4638,12 +4638,12 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>울트라와이드</t>
+          <t>주연테크</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>주연테크</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
@@ -4665,22 +4665,22 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>LG전자 27ML600SW</t>
+          <t>LG전자 울트라기어 32GP750 165</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=19105887903</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=31658867618</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1910588/19105887903.20220125134154.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3165886/31658867618.20230209130951.jpg</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>231900</t>
+          <t>548980</t>
         </is>
       </c>
       <c r="F75" t="inlineStr"/>
@@ -4696,7 +4696,7 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>울트라기어</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -4781,33 +4781,33 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>삼성전자 32인치 커브드 모니터 베젤리스 눈 보호 모드 LC32R500FHKX/KR</t>
+          <t>삼성전자 삼성 S34J550</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=80601833496</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=15704895486</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8060183/80601833496.8.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1570489/15704895486.20210203133054.jpg</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>264000</t>
+          <t>368990</t>
         </is>
       </c>
       <c r="F77" t="inlineStr"/>
       <c r="G77" t="inlineStr">
         <is>
-          <t>삼성공식파트너 오제</t>
+          <t>네이버</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 비매칭 일반상품</t>
+          <t>일반 - 가격비교 상품</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
@@ -4839,22 +4839,22 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>삼성전자 삼성 LF27T450FZKXKR(F27T450)</t>
+          <t>한성컴퓨터 TFG30F20W  울트라와이드 200 게이밍</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=29424162625</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27287676522</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2942416/29424162625.20211027123340.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2728767/27287676522.20210628121550.jpg</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>235890</t>
+          <t>269000</t>
         </is>
       </c>
       <c r="F78" t="inlineStr"/>
@@ -4870,12 +4870,12 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>삼성</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
@@ -4897,22 +4897,22 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>삼성전자 삼성 S34J550</t>
+          <t>MSI G271 게이밍 144 아이세이버</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=15704895486</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=22435637800</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1570489/15704895486.20210203133054.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2243563/22435637800.20221207113552.jpg</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>358990</t>
+          <t>234000</t>
         </is>
       </c>
       <c r="F79" t="inlineStr"/>
@@ -4928,12 +4928,12 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>삼성</t>
+          <t>MSI</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>MSI</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
@@ -4955,22 +4955,22 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>MSI G271 게이밍 144 아이세이버</t>
+          <t>알파스캔 AOC Q27G2S 155</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=22435637800</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24694967522</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2243563/22435637800.20221207113552.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2469496/24694967522.20210310172228.jpg</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>234000</t>
+          <t>399000</t>
         </is>
       </c>
       <c r="F80" t="inlineStr"/>
@@ -4986,12 +4986,12 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>MSI</t>
+          <t>알파스캔</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>MSI</t>
+          <t>알파스캔</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
@@ -5071,22 +5071,22 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>알파스캔 AOC Q27G2S 155</t>
+          <t>삼성전자 삼성 LF27T450FZKXKR(F27T450)</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24694967522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=29424162625</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2469496/24694967522.20210310172228.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2942416/29424162625.20211027123340.jpg</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>398900</t>
+          <t>235890</t>
         </is>
       </c>
       <c r="F82" t="inlineStr"/>
@@ -5102,12 +5102,12 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>알파스캔</t>
+          <t>삼성</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>알파스캔</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
@@ -5129,22 +5129,22 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>벤큐 PD2705Q 아이케어</t>
+          <t>한성컴퓨터 TFG32Q14V 1500R 리얼 144 게이밍</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=23033107490</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=20819573509</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2303310/23033107490.20220318112717.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2081957/20819573509.20220816144235.jpg</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>549000</t>
+          <t>299000</t>
         </is>
       </c>
       <c r="F83" t="inlineStr"/>
@@ -5160,12 +5160,12 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>벤큐</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>벤큐</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
@@ -5187,22 +5187,22 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>알파스캔 U32N3C 무결점</t>
+          <t>메타닉스 L2211 FHD 오피스 75</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=29820952618</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=35596588622</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2982095/29820952618.20211124165612.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3559658/35596588622.20221114153011.jpg</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>574300</t>
+          <t>88010</t>
         </is>
       </c>
       <c r="F84" t="inlineStr"/>
@@ -5218,12 +5218,12 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>알파스캔</t>
+          <t>메타닉스</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>알파스캔</t>
+          <t>메타닉스</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
@@ -5245,43 +5245,43 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>알파스캔 AOC Q32V3S 75 무결점</t>
+          <t>삼성전자 오디세이 32인치 게이밍 컴퓨터 모니터 165Hz 1ms S32AG320 LS32AG320NKXKR</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=26013420522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=84564976887</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2601342/26013420522.20220211140907.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8456497/84564976887.1.jpg</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>328900</t>
+          <t>309000</t>
         </is>
       </c>
       <c r="F85" t="inlineStr"/>
       <c r="G85" t="inlineStr">
         <is>
-          <t>네이버</t>
+          <t>삼성공식파트너 큐소닉</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 상품</t>
+          <t>일반 - 가격비교 비매칭 일반상품</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>알파스캔</t>
+          <t>삼성</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>알파스캔</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
@@ -5303,22 +5303,22 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>메타닉스 L2211 FHD 오피스 75</t>
+          <t>DELL 울트라샤프 U2422H</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=35596588622</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27583031524</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3559658/35596588622.20221114153011.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2758303/27583031524.20210830114405.jpg</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>88030</t>
+          <t>339000</t>
         </is>
       </c>
       <c r="F86" t="inlineStr"/>
@@ -5334,12 +5334,12 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>메타닉스</t>
+          <t>울트라샤프</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>메타닉스</t>
+          <t>DELL</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
@@ -5361,22 +5361,22 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>삼성전자 삼성 S32A704</t>
+          <t>알파스캔 U32N3C 무결점</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=26476661522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=29820952618</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2647666/26476661522.20210323101218.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2982095/29820952618.20211124165612.jpg</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>378990</t>
+          <t>574300</t>
         </is>
       </c>
       <c r="F87" t="inlineStr"/>
@@ -5392,12 +5392,12 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>삼성</t>
+          <t>알파스캔</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>알파스캔</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
@@ -5419,22 +5419,22 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>주연테크 V28UE-M</t>
+          <t>삼성전자 스마트모니터 LS32BM703UKXKR</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27493158522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=32847073618</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2749315/27493158522.20210608162022.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3284707/32847073618.20220609154055.jpg</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>359000</t>
+          <t>450170</t>
         </is>
       </c>
       <c r="F88" t="inlineStr"/>
@@ -5450,12 +5450,12 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>주연테크</t>
+          <t>스마트모니터</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>주연테크</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
@@ -5477,22 +5477,22 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>한성컴퓨터 TFG30F20W  울트라와이드 200 게이밍</t>
+          <t>한성컴퓨터 TFG24F14V 1200R커브드 게이밍 리얼 144</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27287676522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=21032801916</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2728767/27287676522.20210628121550.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2103280/21032801916.20220407160212.jpg</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>269000</t>
+          <t>139000</t>
         </is>
       </c>
       <c r="F89" t="inlineStr"/>
@@ -5535,22 +5535,22 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>LG전자 27UP850N</t>
+          <t>LG전자 울트라와이드 29WP500</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=34938247618</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=26886077522</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3493824/34938247618.20220928104044.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2688607/26886077522.20210524134552.jpg</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>648530</t>
+          <t>248890</t>
         </is>
       </c>
       <c r="F90" t="inlineStr"/>
@@ -5566,7 +5566,7 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>울트라와이드</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -5608,7 +5608,7 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>368000</t>
+          <t>343000</t>
         </is>
       </c>
       <c r="F91" t="inlineStr"/>
@@ -5651,22 +5651,22 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>한성컴퓨터 TFG24F14V 1200R커브드 게이밍 리얼 144</t>
+          <t>알파스캔 AOC Q32V3S 75 무결점</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=21032801916</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=26013420522</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2103280/21032801916.20220407160212.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2601342/26013420522.20220211140907.jpg</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>139000</t>
+          <t>329000</t>
         </is>
       </c>
       <c r="F92" t="inlineStr"/>
@@ -5682,12 +5682,12 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>알파스캔</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>알파스캔</t>
         </is>
       </c>
       <c r="K92" t="inlineStr">
@@ -5767,22 +5767,22 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>한성컴퓨터 ULTRON 2235V 프리싱크 리얼 75</t>
+          <t>삼성전자 스마트모니터 S27BM501</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=16384522728</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=31921891619</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1638452/16384522728.20220315162439.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3192189/31921891619.20220420092708.jpg</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>89000</t>
+          <t>267000</t>
         </is>
       </c>
       <c r="F94" t="inlineStr"/>
@@ -5798,12 +5798,12 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>스마트모니터</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K94" t="inlineStr">
@@ -5825,22 +5825,22 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>DELL 울트라샤프 U2422H</t>
+          <t>한성컴퓨터 ULTRON 2235V 프리싱크 리얼 75</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27583031524</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=16384522728</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2758303/27583031524.20210830114405.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1638452/16384522728.20220315162439.jpg</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>339000</t>
+          <t>89000</t>
         </is>
       </c>
       <c r="F95" t="inlineStr"/>
@@ -5856,12 +5856,12 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>울트라샤프</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>DELL</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="K95" t="inlineStr">
@@ -5883,43 +5883,43 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>삼성 27인치 컴퓨터 모니터 C27R502 LC27R502FHKXKR freesync VA패널</t>
+          <t>LG전자 27UP850N</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=82874084859</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=34938247618</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8287408/82874084859.5.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3493824/34938247618.20220928104044.jpg</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>209000</t>
+          <t>648430</t>
         </is>
       </c>
       <c r="F96" t="inlineStr"/>
       <c r="G96" t="inlineStr">
         <is>
-          <t>삼성공식파트너 큐소닉</t>
+          <t>네이버</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 비매칭 일반상품</t>
+          <t>일반 - 가격비교 상품</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>삼성</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K96" t="inlineStr">
@@ -5941,38 +5941,38 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>삼성전자 오디세이 32인치 게이밍 컴퓨터 모니터 165Hz 1ms S32AG320 LS32AG320NKXKR</t>
+          <t>삼성전자 스마트모니터 LS27BM503EKXKR</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=84564976887</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=32560555618</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8456497/84564976887.1.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3256055/32560555618.20220524152006.jpg</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>309000</t>
+          <t>228810</t>
         </is>
       </c>
       <c r="F97" t="inlineStr"/>
       <c r="G97" t="inlineStr">
         <is>
-          <t>삼성공식파트너 큐소닉</t>
+          <t>네이버</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 비매칭 일반상품</t>
+          <t>일반 - 가격비교 상품</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>삼성</t>
+          <t>스마트모니터</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -5999,22 +5999,22 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>삼성전자 스마트모니터 LS32BM703UKXKR</t>
+          <t>벤큐 PD2705Q 아이케어</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=32847073618</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=23033107490</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3284707/32847073618.20220609154055.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2303310/23033107490.20220318112717.jpg</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>450170</t>
+          <t>549000</t>
         </is>
       </c>
       <c r="F98" t="inlineStr"/>
@@ -6030,12 +6030,12 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>스마트모니터</t>
+          <t>벤큐</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>벤큐</t>
         </is>
       </c>
       <c r="K98" t="inlineStr">
@@ -6057,22 +6057,22 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>삼성전자 스마트모니터 S27BM501</t>
+          <t>DELL P2422H</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=31921891619</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27490359527</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3192189/31921891619.20220420092708.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2749035/27490359527.20210830113440.jpg</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>267000</t>
+          <t>219000</t>
         </is>
       </c>
       <c r="F99" t="inlineStr"/>
@@ -6088,12 +6088,12 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>스마트모니터</t>
+          <t>DELL</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>DELL</t>
         </is>
       </c>
       <c r="K99" t="inlineStr">
@@ -6115,43 +6115,43 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>LG전자 울트라와이드 29WP500</t>
+          <t>삼성 27인치 컴퓨터 모니터 C27R502 LC27R502FHKXKR freesync VA패널</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=26886077522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=82874084859</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2688607/26886077522.20210524134552.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8287408/82874084859.5.jpg</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>248890</t>
+          <t>209000</t>
         </is>
       </c>
       <c r="F100" t="inlineStr"/>
       <c r="G100" t="inlineStr">
         <is>
-          <t>네이버</t>
+          <t>삼성공식파트너 큐소닉</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 상품</t>
+          <t>일반 - 가격비교 비매칭 일반상품</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>울트라와이드</t>
+          <t>삼성</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K100" t="inlineStr">
@@ -6173,22 +6173,22 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>한성컴퓨터 TFG32Q14V 1500R 리얼 144 게이밍</t>
+          <t>한성컴퓨터 TFG34Q14W 1500R 커브드 리얼 144 울트라와이드 게이밍</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=20819573509</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=29326560618</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2081957/20819573509.20220816144235.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2932656/29326560618.20211021130829.jpg</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>299000</t>
+          <t>379000</t>
         </is>
       </c>
       <c r="F101" t="inlineStr"/>

--- a/output.xlsx
+++ b/output.xlsx
@@ -439,22 +439,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>LG전자 32QN650</t>
+          <t>LG전자 24MK430H 24인치 FHD IPS 광시야각 모니터</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=23692201495</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=13643814149</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2369220/23692201495.20210406132235.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1364381/13643814149.20200824151155.jpg</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>366300</t>
+          <t>147900</t>
         </is>
       </c>
       <c r="F2" t="inlineStr"/>
@@ -555,22 +555,22 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>삼성전자 삼성 F27T350</t>
+          <t>삼성전자 스마트모니터 M7 S32BM701</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=23996451524</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=31605413618</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2399645/23996451524.20210302142600.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3160541/31605413618.20220404134022.jpg</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>189000</t>
+          <t>484670</t>
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
@@ -586,7 +586,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>삼성</t>
+          <t>스마트모니터</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -613,22 +613,22 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>삼성전자 삼성 F24T350</t>
+          <t>LG전자 32QN650</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24007197522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=23692201495</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2400719/24007197522.20210302142445.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2369220/23692201495.20210406132235.jpg</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>151000</t>
+          <t>366290</t>
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
@@ -644,12 +644,12 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>삼성</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -671,22 +671,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>삼성전자 스마트모니터 M7 S32BM701</t>
+          <t>삼성전자 삼성 F27T350</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=31605413618</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=23996451524</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3160541/31605413618.20220404134022.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2399645/23996451524.20210302142600.jpg</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>484670</t>
+          <t>189000</t>
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
@@ -702,7 +702,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>스마트모니터</t>
+          <t>삼성</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -729,22 +729,22 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>LG전자 24MK430H 24인치 FHD IPS 광시야각 모니터</t>
+          <t>삼성전자 스마트모니터 M5 S32BM501</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=13643814149</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=31799436618</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1364381/13643814149.20200824151155.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3179943/31799436618.20220413103106.jpg</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>147900</t>
+          <t>323990</t>
         </is>
       </c>
       <c r="F7" t="inlineStr"/>
@@ -760,12 +760,12 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>스마트모니터</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -787,22 +787,22 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>벤큐 XL2411K 게이밍</t>
+          <t>삼성전자 삼성 C32R500F</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24196764522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=22483121542</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2419676/24196764522.20220311173519.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2248312/22483121542.20220519144103.jpg</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>289000</t>
+          <t>263990</t>
         </is>
       </c>
       <c r="F8" t="inlineStr"/>
@@ -818,12 +818,12 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>벤큐</t>
+          <t>삼성</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>벤큐</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -845,22 +845,22 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>삼성전자 스마트모니터 M5 S32BM501</t>
+          <t>한성컴퓨터 ULTRON 2758 프리싱크 리얼 75</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=31799436618</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=14816445651</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3179943/31799436618.20220413103106.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1481644/14816445651.20220506122800.jpg</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>323990</t>
+          <t>139000</t>
         </is>
       </c>
       <c r="F9" t="inlineStr"/>
@@ -876,12 +876,12 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>스마트모니터</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -903,22 +903,22 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>삼성전자 삼성 C32R500F</t>
+          <t>벤큐 XL2411K 게이밍</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=22483121542</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24196764522</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2248312/22483121542.20220519144103.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2419676/24196764522.20220311173519.jpg</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>263990</t>
+          <t>289000</t>
         </is>
       </c>
       <c r="F10" t="inlineStr"/>
@@ -934,12 +934,12 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>삼성</t>
+          <t>벤큐</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>벤큐</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -961,22 +961,22 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>삼성전자 스마트모니터 M7 S43BM700</t>
+          <t>삼성전자 오디세이 G5 C32G54T</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=31889649618</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=23896004523</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3188964/31889649618.20220418150602.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2389600/23896004523.20210203132926.jpg</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>588990</t>
+          <t>330910</t>
         </is>
       </c>
       <c r="F11" t="inlineStr"/>
@@ -992,7 +992,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>스마트모니터</t>
+          <t>오디세이</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -1019,22 +1019,22 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>LG전자 24ML600SW</t>
+          <t>삼성전자 삼성 F24T350</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=19105796246</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24007197522</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1910579/19105796246.20200824152520.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2400719/24007197522.20210302142445.jpg</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>172000</t>
+          <t>151000</t>
         </is>
       </c>
       <c r="F12" t="inlineStr"/>
@@ -1050,12 +1050,12 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>삼성</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -1077,22 +1077,22 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>한성컴퓨터 ULTRON 2435V 프리싱크 리얼75</t>
+          <t>LG전자 32MN500MW</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=13487979407</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=22764052560</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1348797/13487979407.20220404172708.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2276405/22764052560.20200824151306.jpg</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>109000</t>
+          <t>219000</t>
         </is>
       </c>
       <c r="F13" t="inlineStr"/>
@@ -1108,12 +1108,12 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -1135,22 +1135,22 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>삼성전자 삼성 S24R35A</t>
+          <t>삼성전자 스마트모니터 M7 S43BM700</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=31911879618</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=31889649618</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3191187/31911879618.20220419165448.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3188964/31889649618.20220418150602.jpg</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>147510</t>
+          <t>588990</t>
         </is>
       </c>
       <c r="F14" t="inlineStr"/>
@@ -1166,7 +1166,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>삼성</t>
+          <t>스마트모니터</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1193,22 +1193,22 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>벤큐 GW2780 아이케어</t>
+          <t>한성컴퓨터 ULTRON 2435V 프리싱크 리얼75</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=11846746201</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=13487979407</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1184674/11846746201.20220318094817.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1348797/13487979407.20220404172708.jpg</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>189000</t>
+          <t>109000</t>
         </is>
       </c>
       <c r="F15" t="inlineStr"/>
@@ -1224,12 +1224,12 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>벤큐</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>벤큐</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -1251,22 +1251,22 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>삼성전자 스마트모니터 M5 S32BM500</t>
+          <t>삼성전자 삼성 S24R35A</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=31799047618</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=31911879618</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3179904/31799047618.20220413101833.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3191187/31911879618.20220419165448.jpg</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>279650</t>
+          <t>149000</t>
         </is>
       </c>
       <c r="F16" t="inlineStr"/>
@@ -1282,7 +1282,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>스마트모니터</t>
+          <t>삼성</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1309,22 +1309,22 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>삼성전자 삼성 S27B610 75</t>
+          <t>LG전자 27MN430HW</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=31531820618</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=23301354490</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3153182/31531820618.20220330101749.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2330135/23301354490.20200824152000.jpg</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>299000</t>
+          <t>179600</t>
         </is>
       </c>
       <c r="F17" t="inlineStr"/>
@@ -1340,12 +1340,12 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>삼성</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -1367,22 +1367,22 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>LG전자 32MN500MW</t>
+          <t>LG전자 24ML600SW</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=22764052560</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=19105796246</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2276405/22764052560.20200824151306.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1910579/19105796246.20200824152520.jpg</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>219000</t>
+          <t>171880</t>
         </is>
       </c>
       <c r="F18" t="inlineStr"/>
@@ -1425,22 +1425,22 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>LG전자 27MN430HW</t>
+          <t>삼성전자 스마트모니터 M7 S32BM700</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=23301354490</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=31605356618</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2330135/23301354490.20200824152000.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3160535/31605356618.20220404132823.jpg</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>179600</t>
+          <t>453020</t>
         </is>
       </c>
       <c r="F19" t="inlineStr"/>
@@ -1456,12 +1456,12 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>스마트모니터</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
@@ -1483,22 +1483,22 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>삼성전자 스마트모니터 M7 S32BM700</t>
+          <t>삼성전자 삼성 U32J590</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=31605356618</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=14306268525</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3160535/31605356618.20220404132823.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1430626/14306268525.20210203133511.jpg</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>485520</t>
+          <t>319000</t>
         </is>
       </c>
       <c r="F20" t="inlineStr"/>
@@ -1514,7 +1514,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>스마트모니터</t>
+          <t>삼성</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1541,22 +1541,22 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>한성컴퓨터 ULTRON 2758 프리싱크 리얼 75</t>
+          <t>LG전자 울트라HD 27UL550</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=14816445651</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=19298157033</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1481644/14816445651.20220506122800.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1929815/19298157033.20221013131758.jpg</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>139000</t>
+          <t>356250</t>
         </is>
       </c>
       <c r="F21" t="inlineStr"/>
@@ -1572,12 +1572,12 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>울트라HD</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -1599,22 +1599,22 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>삼성전자 삼성 U32J590</t>
+          <t>한성컴퓨터 ULTRON 2760G 리얼 144</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=14306268525</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=15020041438</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1430626/14306268525.20210203133511.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1502004/15020041438.20220429112257.jpg</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>319000</t>
+          <t>169000</t>
         </is>
       </c>
       <c r="F22" t="inlineStr"/>
@@ -1630,12 +1630,12 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>삼성</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
@@ -1657,22 +1657,22 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>LG전자 울트라HD 27UL550</t>
+          <t>삼성전자 삼성 S34J550</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=19298157033</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=15704895486</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1929815/19298157033.20221013131758.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1570489/15704895486.20210203133054.jpg</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>356250</t>
+          <t>342910</t>
         </is>
       </c>
       <c r="F23" t="inlineStr"/>
@@ -1688,12 +1688,12 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>울트라HD</t>
+          <t>삼성</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -1715,22 +1715,22 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>삼성전자 삼성 S34J550</t>
+          <t>삼성전자 스마트모니터 M5 S32BM500</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=15704895486</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=31799047618</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1570489/15704895486.20210203133054.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3179904/31799047618.20220413101833.jpg</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>342910</t>
+          <t>279650</t>
         </is>
       </c>
       <c r="F24" t="inlineStr"/>
@@ -1746,7 +1746,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>삼성</t>
+          <t>스마트모니터</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1773,22 +1773,22 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>삼성전자 삼성 커브드 C27R502 베젤리스 프리싱크</t>
+          <t>LG전자 27QN600</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=20189888243</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=23849172522</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2018988/20189888243.20220519143818.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2384917/23849172522.20210406141920.jpg</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>205830</t>
+          <t>298900</t>
         </is>
       </c>
       <c r="F25" t="inlineStr"/>
@@ -1804,12 +1804,12 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>삼성</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -1831,22 +1831,22 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>LG전자 27QN600</t>
+          <t>벤큐 GW2780 아이케어</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=23849172522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=11846746201</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2384917/23849172522.20210406141920.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1184674/11846746201.20220318094817.jpg</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>298900</t>
+          <t>189000</t>
         </is>
       </c>
       <c r="F26" t="inlineStr"/>
@@ -1862,12 +1862,12 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>벤큐</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>벤큐</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
@@ -1889,22 +1889,22 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>한성컴퓨터 TFX32U06V 4K HDR 1500R 커브드</t>
+          <t>LG전자 27ML600SW</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=20942220356</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=19105887903</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2094222/20942220356.20210630112723.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1910588/19105887903.20220125134154.jpg</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>289000</t>
+          <t>181000</t>
         </is>
       </c>
       <c r="F27" t="inlineStr"/>
@@ -1920,12 +1920,12 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -1947,43 +1947,43 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>한성컴퓨터 TFG34Q10W 1500R 커브드 게이밍 리얼100 울트라와이드</t>
+          <t>삼성전자 27인치 IPS 광시야각 LED 모니터 베젤리스 LF27T350FHKX/KR 컴퓨터모니터</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=20889802847</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=82625203348</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2088980/20889802847.20200424100610.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8262520/82625203348.2.jpg</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>299000</t>
+          <t>189000</t>
         </is>
       </c>
       <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr">
         <is>
-          <t>네이버</t>
+          <t>삼성공식파트너 오제</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 상품</t>
+          <t>일반 - 가격비교 비매칭 일반상품</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>삼성</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -2005,22 +2005,22 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>한성컴퓨터 TFG27F16V 1500R 리얼 165 게이밍</t>
+          <t>삼성전자 삼성 S24R350 베젤리스 프리싱크 75</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=18797620615</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=20861526783</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1879762/18797620615.20201230122720.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2086152/20861526783.20210302142419.jpg</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>169000</t>
+          <t>180000</t>
         </is>
       </c>
       <c r="F29" t="inlineStr"/>
@@ -2036,12 +2036,12 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>삼성</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
@@ -2063,22 +2063,22 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>삼성전자 스마트모니터 M5 S27BM500</t>
+          <t>제우스랩 Z16P</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=31910890630</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=35856905618</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3191089/31910890630.20220915143644.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3585690/35856905618.20221115145547.jpg</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>232530</t>
+          <t>129900</t>
         </is>
       </c>
       <c r="F30" t="inlineStr"/>
@@ -2092,14 +2092,10 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>스마트모니터</t>
-        </is>
-      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>제우스랩</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
@@ -2121,22 +2117,22 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>삼성전자 오디세이 G5 G52A S32AG520 165</t>
+          <t>한성컴퓨터 TFG27F16V 1500R 리얼 165 게이밍</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=30454046618</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=18797620615</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3045404/30454046618.20220107131705.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1879762/18797620615.20201230122720.jpg</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>548000</t>
+          <t>169000</t>
         </is>
       </c>
       <c r="F31" t="inlineStr"/>
@@ -2152,12 +2148,12 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>오디세이</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
@@ -2179,22 +2175,22 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>삼성전자 오디세이 G5 C32G54T</t>
+          <t>한성컴퓨터 TFG32F16V 1500R 리얼 165 게이밍</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=23896004523</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=18778755031</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2389600/23896004523.20210203132926.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1877875/18778755031.20201230122744.jpg</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>331030</t>
+          <t>229000</t>
         </is>
       </c>
       <c r="F32" t="inlineStr"/>
@@ -2210,12 +2206,12 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>오디세이</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
@@ -2237,22 +2233,22 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>한성컴퓨터 ULTRON 2760G 리얼 144</t>
+          <t>LG전자 울트라기어 27GN650</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=15020041438</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=25413919522</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1502004/15020041438.20220429112257.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2541391/25413919522.20230202103118.jpg</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>169000</t>
+          <t>365950</t>
         </is>
       </c>
       <c r="F33" t="inlineStr"/>
@@ -2268,12 +2264,12 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>울트라기어</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
@@ -2295,33 +2291,33 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>삼성전자 27인치 IPS 광시야각 LED 모니터 베젤리스 LF27T350FHKX/KR 컴퓨터모니터</t>
+          <t>삼성전자 삼성 커브드 C27R502 베젤리스 프리싱크</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=82625203348</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=20189888243</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8262520/82625203348.2.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2018988/20189888243.20220519143818.jpg</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>189000</t>
+          <t>205830</t>
         </is>
       </c>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr">
         <is>
-          <t>삼성공식파트너 오제</t>
+          <t>네이버</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 비매칭 일반상품</t>
+          <t>일반 - 가격비교 상품</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -2353,22 +2349,22 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>삼성전자 오디세이 G3 S32AG320 165</t>
+          <t>LG전자 27MK430H</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=31249283618</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=15183175543</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3124928/31249283618.20220520135135.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1518317/15183175543.20200824151717.jpg</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>295990</t>
+          <t>180880</t>
         </is>
       </c>
       <c r="F35" t="inlineStr"/>
@@ -2384,12 +2380,12 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>오디세이</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
@@ -2411,22 +2407,22 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>LG전자 27ML600SW</t>
+          <t>삼성전자 스마트모니터 M5 S27BM500</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=19105887903</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=31910890630</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1910588/19105887903.20220125134154.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3191089/31910890630.20220915143644.jpg</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>181000</t>
+          <t>232530</t>
         </is>
       </c>
       <c r="F36" t="inlineStr"/>
@@ -2442,12 +2438,12 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>스마트모니터</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
@@ -2469,22 +2465,22 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>알파스캔 AOC Q32V3S 75 무결점</t>
+          <t>삼성전자 삼성 S27B610 75</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=26013420522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=31531820618</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2601342/26013420522.20220211140907.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3153182/31531820618.20220330101749.jpg</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>279000</t>
+          <t>299000</t>
         </is>
       </c>
       <c r="F37" t="inlineStr"/>
@@ -2500,12 +2496,12 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>알파스캔</t>
+          <t>삼성</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>알파스캔</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
@@ -2527,22 +2523,22 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>LG전자 27MK430H</t>
+          <t>삼성전자 오디세이 G5 G52A S32AG520 165</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=15183175543</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=30454046618</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1518317/15183175543.20200824151717.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3045404/30454046618.20220107131705.jpg</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>180900</t>
+          <t>548000</t>
         </is>
       </c>
       <c r="F38" t="inlineStr"/>
@@ -2558,12 +2554,12 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>오디세이</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
@@ -2585,22 +2581,22 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>삼성전자 오디세이 G5 C27G54T</t>
+          <t>DELL 울트라샤프 U2722D</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=23896119522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27124609522</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2389611/23896119522.20210302142506.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2712460/27124609522.20210719172836.jpg</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>318990</t>
+          <t>498400</t>
         </is>
       </c>
       <c r="F39" t="inlineStr"/>
@@ -2616,12 +2612,12 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>오디세이</t>
+          <t>울트라샤프</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>DELL</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
@@ -2658,7 +2654,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>448870</t>
+          <t>448790</t>
         </is>
       </c>
       <c r="F40" t="inlineStr"/>
@@ -2701,22 +2697,22 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>DELL 울트라샤프 U2722D</t>
+          <t>삼성전자 삼성 F24T450</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27124609522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24007200522</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2712460/27124609522.20210719172836.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2400720/24007200522.20210203133027.jpg</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>498400</t>
+          <t>217000</t>
         </is>
       </c>
       <c r="F41" t="inlineStr"/>
@@ -2732,12 +2728,12 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>울트라샤프</t>
+          <t>삼성</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>DELL</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
@@ -2759,22 +2755,22 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>벤큐 XL2546K 게이밍</t>
+          <t>한성컴퓨터 TFG34Q10W 1500R 커브드 게이밍 리얼100 울트라와이드</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24235203522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=20889802847</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2423520/24235203522.20220311173812.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2088980/20889802847.20200424100610.jpg</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>699000</t>
+          <t>299000</t>
         </is>
       </c>
       <c r="F42" t="inlineStr"/>
@@ -2790,12 +2786,12 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>벤큐</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>벤큐</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
@@ -2817,22 +2813,22 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>제우스랩 Z16P</t>
+          <t>벤큐 GW2480 아이케어 무결점</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=35856905618</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=11846842637</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3585690/35856905618.20221115145547.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1184684/11846842637.20220318094758.jpg</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>129900</t>
+          <t>154000</t>
         </is>
       </c>
       <c r="F43" t="inlineStr"/>
@@ -2846,10 +2842,14 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I43" t="inlineStr"/>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>벤큐</t>
+        </is>
+      </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>제우스랩</t>
+          <t>벤큐</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
@@ -2929,22 +2929,22 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>한성컴퓨터 ULTRON 3278 QHD New</t>
+          <t>LG전자 24MN430HW</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=16776093488</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=23244797490</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1677609/16776093488.20200424094717.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2324479/23244797490.20220311131641.jpg</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>229000</t>
+          <t>134100</t>
         </is>
       </c>
       <c r="F45" t="inlineStr"/>
@@ -2960,12 +2960,12 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
@@ -2987,22 +2987,22 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>삼성전자 삼성 S24R350 베젤리스 프리싱크 75</t>
+          <t>알파스캔 AOC Q32V3S 75 무결점</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=20861526783</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=26013420522</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2086152/20861526783.20210302142419.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2601342/26013420522.20220211140907.jpg</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>180000</t>
+          <t>279000</t>
         </is>
       </c>
       <c r="F46" t="inlineStr"/>
@@ -3018,12 +3018,12 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>삼성</t>
+          <t>알파스캔</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>알파스캔</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
@@ -3045,38 +3045,38 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>삼성전자 24인치 IPS 광시야각 LED 모니터 슬림베젤리스 LF24T350FHKX/KR 컴퓨터모니터</t>
+          <t>삼성전자 오디세이 G3 S32AG320 165</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=81800309507</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=31249283618</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8180030/81800309507.13.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3124928/31249283618.20220520135135.jpg</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>151000</t>
+          <t>295990</t>
         </is>
       </c>
       <c r="F47" t="inlineStr"/>
       <c r="G47" t="inlineStr">
         <is>
-          <t>삼성공식파트너 오제</t>
+          <t>네이버</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 비매칭 일반상품</t>
+          <t>일반 - 가격비교 상품</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>삼성</t>
+          <t>오디세이</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -3103,22 +3103,22 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>벤큐 GW2480 아이케어 무결점</t>
+          <t>삼성전자 스마트모니터 LS32BM801UKXKR</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=11846842637</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=31160861618</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1184684/11846842637.20220318094758.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3116086/31160861618.20220304142910.jpg</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>154000</t>
+          <t>582980</t>
         </is>
       </c>
       <c r="F48" t="inlineStr"/>
@@ -3134,12 +3134,12 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>벤큐</t>
+          <t>스마트모니터</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>벤큐</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
@@ -3161,22 +3161,22 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>LG전자 울트라와이드 34WP65C 160</t>
+          <t>LG전자 27TQ600SW</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=31408827618</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=32982708620</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3140882/31408827618.20220321185832.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3298270/32982708620.20220616144209.jpg</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>498900</t>
+          <t>377790</t>
         </is>
       </c>
       <c r="F49" t="inlineStr"/>
@@ -3192,7 +3192,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>울트라와이드</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -3219,22 +3219,22 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>한성컴퓨터 TFG34Q14W 1500R 커브드 리얼 144 울트라와이드 게이밍</t>
+          <t>한성컴퓨터 ULTRON 3278 QHD New</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=29326560618</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=16776093488</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2932656/29326560618.20211021130829.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1677609/16776093488.20200424094717.jpg</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>379000</t>
+          <t>229000</t>
         </is>
       </c>
       <c r="F50" t="inlineStr"/>
@@ -3277,22 +3277,22 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>삼성전자 스마트모니터 LS32BM801UKXKR</t>
+          <t>LG전자 울트라기어 27GP850</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=31160861618</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=28378464554</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3116086/31160861618.20220304142910.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2837846/28378464554.20230201182155.jpg</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>621210</t>
+          <t>390000</t>
         </is>
       </c>
       <c r="F51" t="inlineStr"/>
@@ -3308,12 +3308,12 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>스마트모니터</t>
+          <t>울트라기어</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
@@ -3335,22 +3335,22 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>한성컴퓨터 TFG32F16V 1500R 리얼 165 게이밍</t>
+          <t>벤큐 XL2546K 게이밍</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=18778755031</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24235203522</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1877875/18778755031.20201230122744.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2423520/24235203522.20220311173812.jpg</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>229000</t>
+          <t>699000</t>
         </is>
       </c>
       <c r="F52" t="inlineStr"/>
@@ -3366,12 +3366,12 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>벤큐</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>벤큐</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
@@ -3393,22 +3393,22 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>LG전자 울트라기어 27GN650</t>
+          <t>LG전자 울트라기어 24GN600 144Hz</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=25413919522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=26122103522</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2541391/25413919522.20230202103118.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2612210/26122103522.20230201182227.jpg</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>365950</t>
+          <t>218000</t>
         </is>
       </c>
       <c r="F53" t="inlineStr"/>
@@ -3451,22 +3451,22 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>LG전자 24MN430HW</t>
+          <t>LG전자 24MQ400</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=23244797490</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=36645806618</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2324479/23244797490.20220311131641.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3664580/36645806618.20221220095619.jpg</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>134100</t>
+          <t>153900</t>
         </is>
       </c>
       <c r="F54" t="inlineStr"/>
@@ -3509,22 +3509,22 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>삼성전자 삼성 F24T450</t>
+          <t>삼성전자 오디세이 G5 C27G54T</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24007200522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=23896119522</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2400720/24007200522.20210203133027.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2389611/23896119522.20210302142506.jpg</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>217000</t>
+          <t>317990</t>
         </is>
       </c>
       <c r="F55" t="inlineStr"/>
@@ -3540,7 +3540,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>삼성</t>
+          <t>오디세이</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3625,22 +3625,22 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>LG전자 27TQ600SW</t>
+          <t>DELL 울트라샤프 U2723QE</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=32982708620</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=31516928619</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3298270/32982708620.20220616144209.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3151692/31516928619.20220725165234.jpg</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>12900</t>
+          <t>763000</t>
         </is>
       </c>
       <c r="F57" t="inlineStr"/>
@@ -3656,12 +3656,12 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>울트라샤프</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>DELL</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
@@ -3683,33 +3683,33 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>삼성전자 삼성 S6 S34A650U 100</t>
+          <t>삼성전자 24인치 IPS 광시야각 LED 모니터 슬림베젤리스 LF24T350FHKX/KR 컴퓨터모니터</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=26393243522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=81800309507</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2639324/26393243522.20220916143041.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8180030/81800309507.13.jpg</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>518990</t>
+          <t>151000</t>
         </is>
       </c>
       <c r="F58" t="inlineStr"/>
       <c r="G58" t="inlineStr">
         <is>
-          <t>네이버</t>
+          <t>삼성공식파트너 오제</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 상품</t>
+          <t>일반 - 가격비교 비매칭 일반상품</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
@@ -3741,22 +3741,22 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>LG전자 울트라기어 24GN600 144Hz</t>
+          <t>LG전자 울트라와이드 34WP65C 160</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=26122103522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=31408827618</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2612210/26122103522.20230201182227.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3140882/31408827618.20220321185832.jpg</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>218000</t>
+          <t>310000</t>
         </is>
       </c>
       <c r="F59" t="inlineStr"/>
@@ -3772,7 +3772,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>울트라기어</t>
+          <t>울트라와이드</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3799,22 +3799,22 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>DELL 울트라샤프 U2723QE</t>
+          <t>삼성전자 오디세이 G3 S27AG300</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=31516928619</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27535066522</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3151692/31516928619.20220725165234.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2753506/27535066522.20210611135052.jpg</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>695000</t>
+          <t>245000</t>
         </is>
       </c>
       <c r="F60" t="inlineStr"/>
@@ -3830,12 +3830,12 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>울트라샤프</t>
+          <t>오디세이</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>DELL</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
@@ -3857,38 +3857,38 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>삼성전자 32인치 커브드 모니터 베젤리스 눈 보호 모드 LC32R500FHKX/KR</t>
+          <t>삼성전자 스마트모니터 M5 S27AM501</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=80601833496</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=26870246522</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8060183/80601833496.8.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2687024/26870246522.20210422150359.jpg</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>264000</t>
+          <t>269500</t>
         </is>
       </c>
       <c r="F61" t="inlineStr"/>
       <c r="G61" t="inlineStr">
         <is>
-          <t>삼성공식파트너 오제</t>
+          <t>네이버</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 비매칭 일반상품</t>
+          <t>일반 - 가격비교 상품</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>삼성</t>
+          <t>스마트모니터</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3915,22 +3915,22 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>LG전자 울트라기어 27GP850</t>
+          <t>삼성전자 오디세이 Neo G9 S49AG950 49인치 게이밍 모니터</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=28378464554</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=28288984554</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2837846/28378464554.20230201182155.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2828898/28288984554.20220713164635.jpg</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>390000</t>
+          <t>1755000</t>
         </is>
       </c>
       <c r="F62" t="inlineStr"/>
@@ -3946,12 +3946,12 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>울트라기어</t>
+          <t>오디세이</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
@@ -3973,22 +3973,22 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>삼성전자 스마트모니터 M5 S27AM501</t>
+          <t>삼성전자 삼성 S6 S34A650U 100</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=26870246522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=26393243522</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2687024/26870246522.20210422150359.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2639324/26393243522.20220916143041.jpg</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>266000</t>
+          <t>518990</t>
         </is>
       </c>
       <c r="F63" t="inlineStr"/>
@@ -4004,7 +4004,7 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>스마트모니터</t>
+          <t>삼성</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -4031,22 +4031,22 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>삼성전자 오디세이 G3 S27AG300</t>
+          <t>벤큐 XL2540K 240</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27535066522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=28506139554</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2753506/27535066522.20210611135052.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2850613/28506139554.20220311173751.jpg</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>245000</t>
+          <t>499000</t>
         </is>
       </c>
       <c r="F64" t="inlineStr"/>
@@ -4062,12 +4062,12 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>오디세이</t>
+          <t>벤큐</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>벤큐</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
@@ -4089,22 +4089,22 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>LG전자 24MQ400</t>
+          <t>LG전자 32MN500M</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=36645806618</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=22565151066</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3664580/36645806618.20221220095619.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2256515/22565151066.20200824152704.jpg</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>153900</t>
+          <t>239000</t>
         </is>
       </c>
       <c r="F65" t="inlineStr"/>
@@ -4147,43 +4147,43 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>LG전자 울트라와이드 34WP500</t>
+          <t>삼성전자 32인치 커브드 모니터 베젤리스 눈 보호 모드 LC32R500FHKX/KR</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27584005522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=80601833496</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2758400/27584005522.20210615125004.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8060183/80601833496.8.jpg</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>378890</t>
+          <t>264000</t>
         </is>
       </c>
       <c r="F66" t="inlineStr"/>
       <c r="G66" t="inlineStr">
         <is>
-          <t>네이버</t>
+          <t>삼성공식파트너 오제</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 상품</t>
+          <t>일반 - 가격비교 비매칭 일반상품</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>울트라와이드</t>
+          <t>삼성</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
@@ -4205,22 +4205,22 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>알파스캔 AOC 27B2 보더리스 75 시력보호</t>
+          <t>한성컴퓨터 TFX32U06V 4K HDR 1500R 커브드</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=21720504796</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=20942220356</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2172050/21720504796.20210310171806.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2094222/20942220356.20210630112723.jpg</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>179000</t>
+          <t>289000</t>
         </is>
       </c>
       <c r="F67" t="inlineStr"/>
@@ -4236,12 +4236,12 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>알파스캔</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>알파스캔</t>
+          <t>한성컴퓨터</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
@@ -4263,22 +4263,22 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>LG전자 32MN500M</t>
+          <t>LG전자 울트라기어 32GP750 165</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=22565151066</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=31658867618</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2256515/22565151066.20200824152704.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3165886/31658867618.20230209130951.jpg</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>238900</t>
+          <t>320000</t>
         </is>
       </c>
       <c r="F68" t="inlineStr"/>
@@ -4294,7 +4294,7 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>울트라기어</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -4321,22 +4321,22 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>한성컴퓨터 TFG30F20W  울트라와이드 200 게이밍</t>
+          <t>LG전자 울트라와이드 34WP500</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27287676522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27584005522</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2728767/27287676522.20210628121550.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2758400/27584005522.20210615125004.jpg</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>269000</t>
+          <t>378890</t>
         </is>
       </c>
       <c r="F69" t="inlineStr"/>
@@ -4352,12 +4352,12 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>울트라와이드</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
@@ -4379,22 +4379,22 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>벤큐 XL2540K 240</t>
+          <t>DELL P2422H</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=28506139554</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27490359527</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2850613/28506139554.20220311173751.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2749035/27490359527.20210830113440.jpg</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>499000</t>
+          <t>219000</t>
         </is>
       </c>
       <c r="F70" t="inlineStr"/>
@@ -4410,12 +4410,12 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>벤큐</t>
+          <t>DELL</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>벤큐</t>
+          <t>DELL</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
@@ -4437,22 +4437,22 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>한성컴퓨터 TFX156T DEX 포터블 HDR</t>
+          <t>알파스캔 AOC 27B2 보더리스 75 시력보호</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=21936337549</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=21720504796</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2193633/21936337549.20200428094649.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2172050/21720504796.20210310171806.jpg</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>269000</t>
+          <t>178990</t>
         </is>
       </c>
       <c r="F71" t="inlineStr"/>
@@ -4468,12 +4468,12 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>알파스캔</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>한성컴퓨터</t>
+          <t>알파스캔</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
@@ -4495,22 +4495,22 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>LG전자 울트라기어 32GP750 165</t>
+          <t>LG전자 27TN600S</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=31658867618</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=21745903830</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3165886/31658867618.20230209130951.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2174590/21745903830.20200824150453.jpg</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>519000</t>
+          <t>268180</t>
         </is>
       </c>
       <c r="F72" t="inlineStr"/>
@@ -4526,7 +4526,7 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>울트라기어</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -4553,22 +4553,22 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>LG전자 울트라와이드 34WN750</t>
+          <t>LG전자 27MQ400</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=23257853490</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=36645769618</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2325785/23257853490.20200824150256.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3664576/36645769618.20221220095032.jpg</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>524720</t>
+          <t>186900</t>
         </is>
       </c>
       <c r="F73" t="inlineStr"/>
@@ -4584,7 +4584,7 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>울트라와이드</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -4611,22 +4611,22 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>LG전자 LG그램 그램+뷰 16MQ70</t>
+          <t>삼성전자 스마트모니터 M7 S43BM701</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=30377313618</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=38526777618</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3037731/30377313618.20211231144328.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3852677/38526777618.20230309172059.jpg</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>347980</t>
+          <t>639000</t>
         </is>
       </c>
       <c r="F74" t="inlineStr"/>
@@ -4642,12 +4642,12 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>LG그램</t>
+          <t>스마트모니터</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
@@ -4669,22 +4669,22 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>DELL P2422H</t>
+          <t>LG전자 LG그램 그램+뷰 16MQ70</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27490359527</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=30377313618</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2749035/27490359527.20210830113440.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3037731/30377313618.20211231144328.jpg</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>219000</t>
+          <t>344840</t>
         </is>
       </c>
       <c r="F75" t="inlineStr"/>
@@ -4700,12 +4700,12 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>DELL</t>
+          <t>LG그램</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>DELL</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
@@ -4742,7 +4742,7 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>326720</t>
+          <t>326670</t>
         </is>
       </c>
       <c r="F76" t="inlineStr"/>
@@ -4785,38 +4785,38 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>삼성전자 스마트모니터 LS32BM502EKXKR</t>
+          <t>삼성전자 27인치 QHD 모니터 68.4cm IPS 75Hz 피벗 S27B610EQ S27B610 FreeSync</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=32560634618</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=84352653931</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3256063/32560634618.20220524152344.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8435265/84352653931.jpg</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>277200</t>
+          <t>299000</t>
         </is>
       </c>
       <c r="F77" t="inlineStr"/>
       <c r="G77" t="inlineStr">
         <is>
-          <t>네이버</t>
+          <t>삼성공식파트너 큐소닉</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 상품</t>
+          <t>일반 - 가격비교 비매칭 일반상품</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>스마트모니터</t>
+          <t>삼성</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4843,45 +4843,37 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>DELL 울트라샤프 U2422H</t>
+          <t>24인치 컴퓨터 모니터 게이밍모니터 틸트 사무용 모니터 가정용</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27583031524</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=82278580434</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2758303/27583031524.20210830114405.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8227858/82278580434.4.jpg</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>299000</t>
+          <t>99000</t>
         </is>
       </c>
       <c r="F78" t="inlineStr"/>
       <c r="G78" t="inlineStr">
         <is>
-          <t>네이버</t>
+          <t>전문대리점</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 상품</t>
-        </is>
-      </c>
-      <c r="I78" t="inlineStr">
-        <is>
-          <t>울트라샤프</t>
-        </is>
-      </c>
-      <c r="J78" t="inlineStr">
-        <is>
-          <t>DELL</t>
-        </is>
-      </c>
+          <t>일반 - 가격비교 비매칭 일반상품</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr">
         <is>
           <t>디지털/가전</t>
@@ -4901,43 +4893,43 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>삼성전자 27인치 QHD 모니터 68.4cm IPS 75Hz 피벗 S27B610EQ S27B610 FreeSync</t>
+          <t>LG전자 울트라와이드 29WP500</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=84352653931</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=26886077522</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8435265/84352653931.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2688607/26886077522.20210524134552.jpg</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>299000</t>
+          <t>224100</t>
         </is>
       </c>
       <c r="F79" t="inlineStr"/>
       <c r="G79" t="inlineStr">
         <is>
-          <t>삼성공식파트너 큐소닉</t>
+          <t>네이버</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 비매칭 일반상품</t>
+          <t>일반 - 가격비교 상품</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>삼성</t>
+          <t>울트라와이드</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>삼성전자</t>
+          <t>LG전자</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
@@ -4959,37 +4951,45 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>24인치 컴퓨터 모니터 게이밍모니터 틸트 사무용 모니터 가정용</t>
+          <t>한성컴퓨터 TFG27Q14F QHD 평면 144 게이밍</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=82278580434</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24509574524</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8227858/82278580434.4.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2450957/24509574524.20201022114639.jpg</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>99000</t>
+          <t>239000</t>
         </is>
       </c>
       <c r="F80" t="inlineStr"/>
       <c r="G80" t="inlineStr">
         <is>
-          <t>전문대리점</t>
+          <t>네이버</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 비매칭 일반상품</t>
-        </is>
-      </c>
-      <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
+          <t>일반 - 가격비교 상품</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>한성컴퓨터</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>한성컴퓨터</t>
+        </is>
+      </c>
       <c r="K80" t="inlineStr">
         <is>
           <t>디지털/가전</t>
@@ -5009,22 +5009,22 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>한성컴퓨터 ULTRON 2235V 프리싱크 리얼 75</t>
+          <t>한성컴퓨터 TFG27F14P IPS 144</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=16384522728</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=23258436490</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1638452/16384522728.20220315162439.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2325843/23258436490.20200624161211.jpg</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>89000</t>
+          <t>199000</t>
         </is>
       </c>
       <c r="F81" t="inlineStr"/>
@@ -5067,22 +5067,22 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>LG전자 27TN600S</t>
+          <t>인터픽셀 IP2740 게이밍</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=21745903830</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=18968201200</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-      